--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,16 +485,16 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="94" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="90" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="217" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="192" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,179 +557,177 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.8699999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>7月31日，央视新闻在其发布的“国家医保局支持脑机接口等新技术进入临床并收费”报道中提到，为鼓励药品研发创新，国家医保局制定了“新上市药品首发价格机制”。</t>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sz002370</t>
+          <t>sz000534</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>亚太药业</t>
+          <t>万泽股份</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.4</v>
+        <v>17.31</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>9.959999999999999</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>5天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>创新药|截止2024年年报，公司二类新药右旋酮洛芬缓释贴片II期a临床已经结束，尚在评估是否需要开展II期b。</t>
+          <t>创新药+军工|1.公司主要产品金双歧和定君生均为独家创新药，受集采降价影响较小。
+2.公司作为航空发动机产业的供应商，承担了对国产商用大飞机发动机用单晶、等轴类涡轮叶片的研制与生产任务。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>创新药, 军工</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.8699999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>7月31日，央视新闻在其发布的“国家医保局支持脑机接口等新技术进入临床并收费”报道中提到，为鼓励药品研发创新，国家医保局制定了“新上市药品首发价格机制”。</t>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sz002940</t>
+          <t>sh601606</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>昂利康</t>
+          <t>长城军工</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>62.92</v>
+        <v>38.83</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司目前正在进行的创新药研发项目为注射用ALK-N001，该药物是一种创新的肿瘤微环境激活型的小分子偶联药物，已于2025年2月收到国家药品监督管理局签发的境内生产药品注册临床试验《受理通知书》。</t>
+          <t>军工|公司自成立以来，在保证军品业务的同时，不断开拓民品市场，民品业务保持稳步增长。多年以来，公司军品订货量保持全国地方军工订货量的领先地位。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>军工</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.8699999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7月31日，央视新闻在其发布的“国家医保局支持脑机接口等新技术进入临床并收费”报道中提到，为鼓励药品研发创新，国家医保局制定了“新上市药品首发价格机制”。</t>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sz002424</t>
+          <t>sh600879</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>贵州百灵</t>
+          <t>航天电子</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.53</v>
+        <v>10.79</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">创新药|参股成都赜灵现共布局在研创新药产品管线9个（确定+备选），涉及恶性肿瘤、自身免疫性疾病、神经系统疾病、消化系统疾病等多个管线，涵盖小分子药物、ADC（抗体偶联药物）等。 </t>
+          <t>军工+低空经济|1.公司航天电子信息产品主要包括综合信息系统、惯性导航、集成电路、机电组件等领域。
+2.公司控股子公司航天时代飞鸿技术有限公司主要从事无人机业务研发生产。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>军工, 低空经济</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.8699999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7月31日，央视新闻在其发布的“国家医保局支持脑机接口等新技术进入临床并收费”报道中提到，为鼓励药品研发创新，国家医保局制定了“新上市药品首发价格机制”。</t>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sz002873</t>
+          <t>sh600192</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>新天药业</t>
+          <t>长城电工</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>11.96</v>
+        <v>10.86</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>10.03</v>
@@ -737,44 +735,45 @@
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司目前主要从事现代中药创新药的研发、生产和销售，主要优势产品有和颜®坤泰胶囊、坤立舒®苦参凝胶、宁泌泰®宁泌泰胶囊、即瑞®夏枯草口服液等，产品主要应用于妇科类和泌尿系统疾病，同时覆盖清热类、补血类、口腔类、抗感冒类等领域疾病。</t>
+          <t>核电+军工|1.公司是我国领先的高中低压开关成套设备、压电器元件等电工电器产品厂商，在取得核电项目多项业绩的同时，2020年在核岛项目上取得突破，中标中国核工业集团有限公司漳州核电厂1、2号机组核岛中压配电项目。
+2.公司建成了低压电器元件全产业链“全功能工厂”，为军舰、军车、军工、核能、电梯、工程机械等领域国产替代提供高质量的产品。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>核电, 军工</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.8699999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7月31日，央视新闻在其发布的“国家医保局支持脑机接口等新技术进入临床并收费”报道中提到，为鼓励药品研发创新，国家医保局制定了“新上市药品首发价格机制”。</t>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sz300878</t>
+          <t>sz300696</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>维康药业</t>
+          <t>爱乐达</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>25.62</v>
+        <v>30.12</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>20</v>
@@ -782,44 +781,44 @@
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司主要在研项目包括参丹通脑滴丸、黄甲软肝颗粒2个1.1类中药创新药和2.1类中药改良型新药银黄吸入溶液，温经汤、二冬汤、养胃汤、济川煎、三甲复脉汤、五味消毒饮等6个古代经典名方，以及中药配方颗粒和银黄滴丸、玉屏风滴丸的二次开发等科研项目。</t>
+          <t>军工|主要从事军用飞机和民用客机零部件的精密制造，以及航空地面工装的设计制造业务。产品涉及中航工业下属企业的多种机型，以及中国商飞C919、ARJ21，中航通飞AG600，波音B737、B737-Max等机型。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>军工</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.8699999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7月31日，央视新闻在其发布的“国家医保局支持脑机接口等新技术进入临床并收费”报道中提到，为鼓励药品研发创新，国家医保局制定了“新上市药品首发价格机制”。</t>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sz002907</t>
+          <t>sz002651</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>华森制药</t>
+          <t>利君股份</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>20.74</v>
+        <v>12.94</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>10.03</v>
@@ -827,636 +826,633 @@
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司专注于肿瘤、肿瘤免疫以及自勉性疾病领域的小分子药物开发，已具备从靶点发现至早期临床开发的创新药研发能力，在研管线潜在适应症覆盖肿瘤免疫以及肺癌、乳腺癌、结直肠癌、胰腺癌等多种实体瘤。</t>
+          <t>军工|公司子公司成都德坤航空设备制造有限公司主营航空零件及工装设计制造业务，主要从事航空钣金零件的开发制造，航空精密零件数控加工，航空飞行器零部件的工装模具设计制造及装配，航空试验件及非标产品制造等，产品主要应用于军用，民用航空飞行器制造。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>军工</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>婴童</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.34</v>
+        <v>1.98</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7月30日，财政部上表示，按照部署，中央财政将设立共同财政事权转移支付项目“育儿补贴补助资金"，今年初步安排预算900亿元左右。</t>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sz002287</t>
+          <t>sh688788</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>奇正藏药</t>
+          <t>科思科技</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>34.69</v>
+        <v>72.73</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>西藏+儿童药|1.公司是国内藏药龙头生产企业，主要从事藏药的研发、生产和销售，包括外用止痛药物和口服藏成药、中药等。
-2.公司独家产品九味竺黄散功能主治为利肺，消炎，止咳，用于小儿流感引起的肺炎、上呼吸道感染等。</t>
+          <t>军工信息化|公司主要从事军用电子信息装备及相关模块的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>西藏, 儿童药</t>
+          <t>军工信息化</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>婴童</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.34</v>
+        <v>1.98</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7月30日，财政部上表示，按照部署，中央财政将设立共同财政事权转移支付项目“育儿补贴补助资金"，今年初步安排预算900亿元左右。</t>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sh603059</t>
+          <t>sz002977</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">倍加洁  </t>
+          <t>天箭科技</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>33.78</v>
+        <v>39.33</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>婴童|公司口腔护理类产品有儿童牙刷、儿童牙膏等适合婴童的产品；湿巾类产品有婴儿湿巾类产品。</t>
+          <t>军工+商业航天|1.公司当前主要代表产品为弹载固态发射机、新型相控阵天线及其他固态发射机产品，其在军事领域的应用包括雷达制导导弹精确制导系统、其它雷达系统、卫星通信和电子对抗等。
+2.公司产品在卫星通信领域的应用主要为卫星地面固定站、移动站等设施装备中的大功率发射系统。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>婴童</t>
+          <t>军工, 商业航天</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>婴童</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.34</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7月30日，财政部上表示，按照部署，中央财政将设立共同财政事权转移支付项目“育儿补贴补助资金"，今年初步安排预算900亿元左右。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sh600222</t>
+          <t>sh603767</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>太龙药业</t>
+          <t>中马传动</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.82</v>
+        <v>21.9</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>CRO+儿童药|1.子公司新领先可以为综合性大型药企、创新药企业提供医药研发、临床CRO等医药全流程服务。
-2.子公司北京新领先专注为客户提供综合性医药技术研发服务，致力于做精研发服务品质，突出创新驱动力，近年在改良型新药药学研究及婴儿罕见病、GLP-1、双抗等药品临床CRO取得较快进展。</t>
+          <t>机器人|公司招股说明书显示，将以现有汽车变速器齿轮、汽车转向器齿轮、汽车油泵轴齿轮、汽车发动机齿轮、摩托车发动机齿轮、农机变速器齿轮为发展基础，大力开拓汽车自动变速器行星齿轮、工业机器人减速器齿轮等高精度齿轮产品领域。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>CRO, 儿童药</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>婴童</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.34</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7月30日，财政部上表示，按照部署，中央财政将设立共同财政事权转移支付项目“育儿补贴补助资金"，今年初步安排预算900亿元左右。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sz300329</t>
+          <t>sz300486</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>海伦钢琴</t>
+          <t>东杰智能</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>11</v>
+        <v>16.99</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="I11" s="2" t="inlineStr"/>
+        <v>19.99</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>婴童教育|公司的主要业务范围是钢琴的研发、制造、销售与服务，以及投资拓展艺术教育培训产业，发展智能钢琴新型领域等。</t>
+          <t>机器人+签订大单|1.公司是一家研制开发的工业机器人及柔性自动化生产线采用先进的现场总线和实时智能控制系统的公司。
+2.东杰智能公告称，公司境外全资子公司Oriental Material Handling(Malaysia)Sdn.Bhd.获得PTT LOGISTICS SDN BHD采购订单，订单总金额37,090,000马来西亚林吉特，按公告日汇率约合人民币6250万元。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>婴童教育</t>
+          <t>机器人, 签订大单</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.21</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>美东时间周三，Meta公司公布第二季度财务报告。Meta首席执行官马克·扎克伯格在财报电话会上表示，Meta的人工智能技术“提高了我们广告系统的效率和收益”。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sz002799</t>
+          <t>sz002901</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>环球印务</t>
+          <t>大博医疗</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>10.16</v>
+        <v>49.15</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>AI+营销|子公司领凯科技所运营的互联网数字营销业务已采用AI技术应用于广告素材自动化创作及虚拟人直播、直播带货等多个场景，未来将持续调研先进AI技术的可应用性，以便提升业务宽度，提高创意生成效率，简化业务环节繁琐程度，注重直播用户转化率，降低人工成本，使用AI技术为数字营销业务带来更多的创新和机遇，实现数字营销的最佳实践。</t>
+          <t>手术机器人|旗下大博创新科技研发中心致力于生物医用材料、增材制造、手术机器人、再生医学等行业前沿技术研究及行业共性问题解决。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>AI, 营销</t>
+          <t>手术机器人</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.21</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>美东时间周三，Meta公司公布第二季度财务报告。Meta首席执行官马克·扎克伯格在财报电话会上表示，Meta的人工智能技术“提高了我们广告系统的效率和收益”。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sz002811</t>
+          <t>sz002046</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>郑中设计</t>
+          <t>国机精工</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>11.66</v>
+        <v>21.21</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>AI+设计|子公司犀照科技自主研发的“IDEAFUSION兆材云库数字化平台”与“TRANSFUSIONAI”共同构建从创意到落地的数字化解决方案，持续推动室内设计行业智慧化转型升级。</t>
+          <t>机器人+工业母机|1.公司有部分轴承产品可用于机器人领域。
+2.公司生产用于数控机床的精密轴承。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>AI, 设计</t>
+          <t>机器人, 工业母机</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.21</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>美东时间周三，Meta公司公布第二季度财务报告。Meta首席执行官马克·扎克伯格在财报电话会上表示，Meta的人工智能技术“提高了我们广告系统的效率和收益”。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sz300500</t>
+          <t>sh605118</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>启迪设计</t>
+          <t>力鼎光电</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>16.08</v>
+        <v>35.19</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>AI应用+算力|1.公司自2023年成立了AI研究中心，定位于对内进行研发赋能，通过接入市场上已有大模型，为设计业务提供数字化转型与智能化升级相关解决方案，并逐步推动设计全流程的数字化与智能化，实现设计业务的研发升级与降本增效。
-2.公司与神威（无锡）信息产业有限公司、中农算力（北京）科技有限公司组成的联合体中标河南空港智算中心（一中心）三期项目一批次算力集群部分建设、维护、运营一体化采购项目，中标价为建设费8.5972亿元。</t>
+          <t>无人机+机器人|1.公司在无人机镜头积累的技术经验为切入口，继续与合作伙伴共同推动低空经济领域产品的创新和投入，以公司在夜视光学硬件上的良好基础深度融合计算光学新思维，进一步深入民用微光夜视赛道，推进红外热成像、医疗健康相关产品研发和市场发展。
+2.公司镜头产品在AI或机器人领域的作用主要是为其提供更加清晰、完整、高效的视觉捕捉和视觉识别。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>AI应用, 算力</t>
+          <t>无人机, 机器人</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.31</v>
+        <v>-2.15</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>IDC预测，到2029年全球机器人市场规模将超过4000亿美元。其中，中国市场占据近半份额，并以近15%的复合增长率位居全球前列。</t>
+          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sh603767</t>
+          <t>sh601089</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>中马传动</t>
+          <t>福元医药</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>19.91</v>
+        <v>29.19</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>5天3板</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司招股说明书显示，将以现有汽车变速器齿轮、汽车转向器齿轮、汽车油泵轴齿轮、汽车发动机齿轮、摩托车发动机齿轮、农机变速器齿轮为发展基础，大力开拓汽车自动变速器行星齿轮、工业机器人减速器齿轮等高精度齿轮产品领域。</t>
+          <t>辅助生殖+创新药|1.公司全资子公司浙江爱生药业有限公司生产的黄体酮软胶囊通过仿制药质量和疗效一致性评价，该药品用于治疗先兆流产和习惯性流产、经前期紧张综合症、无排卵型功血和无排卵型闭经、与雌激素联合使用治疗更年期综合症。
+2.公司创新药聚焦核酸类药物研发，截至2023年6月，公司创新药在研项目4个。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>辅助生殖, 创新药</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.31</v>
+        <v>-2.15</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>IDC预测，到2029年全球机器人市场规模将超过4000亿美元。其中，中国市场占据近半份额，并以近15%的复合增长率位居全球前列。</t>
+          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sh605068</t>
+          <t>sh603811</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>明新旭腾</t>
+          <t>诚意药业</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>19.82</v>
+        <v>13.45</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>9.99</v>
+        <v>9.98</v>
       </c>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>仿生电子皮肤|基于公司仿生电子皮肤的业务规划和发展需要，公司在浙江省嘉兴市设立全资子公司明新智源，依托在汽车功能材料领域的技术积累，推进仿生电子皮肤的研发与产业化。</t>
+          <t>创新药|公司坚持以海洋药物、中医药、生物医药为主的产品开发策略。在神经系统、内分泌系统等方面对创新药物与大健康类相关产品进行布局。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>仿生电子皮肤</t>
+          <t>创新药</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>AI应用</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.31</v>
+        <v>-0.24</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>IDC预测，到2029年全球机器人市场规模将超过4000亿美元。其中，中国市场占据近半份额，并以近15%的复合增长率位居全球前列。</t>
+          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sh603286</t>
+          <t>sh603859</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>日盈电子</t>
+          <t>能科科技</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>30.77</v>
+        <v>42.61</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>10.01</v>
+        <v>9.99</v>
       </c>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>机器人电子皮肤|公司看好汽车零部件企业进军人形机器人领域的产业机遇，积极投入以柔性触觉传感电子皮肤为代表的新产品开发，公司压阻式的电子皮肤样品已研发成功。</t>
+          <t>AI智能体|公司的乐仓智能体（AI Agent）具备AI百科、AI创造及AI搜索能力，能够快速进行应用创造。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>机器人电子皮肤</t>
+          <t>AI智能体</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>AI应用</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.24</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>东方证券研报指出，部分景气敏感型上游环节二季度已呈现业绩好转态势，伴随积极的变化越来越多落地，板块确定性进一步增强。</t>
+          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sh603516</t>
+          <t>sz002980</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>淳中科技</t>
+          <t>华盛昌</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>66.53</v>
+        <v>23.87</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+      <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>军工+英伟达概念|1.公司推出的Poseidon(波塞冬)系统满足了军队对图像信息一体化的要求。公司先后参与完成了某军事科学院、某空军机场调度指挥中心、某战时指挥部、某军分区指挥中心等大量国防项目的建设。
-2.公司与N公司对接的业务主要是各类产品的测试与检测平台，目前正在对接的产品包括：液冷测试平台、基于AI的检测平台、各种测试板卡等。</t>
+          <t>AI智能体|公司最新发布的AI-7760电能质量分析仪是基于该大模型创新性集成多个AI智能体，深度整合了行业知识图谱，涵盖产品手册、行业标准文档、学术论文、期刊文献以及丰富的行业问答数据等多维度信息，可结合RAG检索增强技术为行业用户提供专业的场景化的解答，该仪器可实时监测设备状态、深度理解用户指令、生成诊断分析报告、智能决策、自动高效执行。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>军工, 英伟达概念</t>
+          <t>AI智能体</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.17</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>东方证券研报指出，部分景气敏感型上游环节二季度已呈现业绩好转态势，伴随积极的变化越来越多落地，板块确定性进一步增强。</t>
+          <t>多家机构研报指出，英伟达考虑将在Rubin Ultra架构上考虑新方案，使用CoWop工艺，将芯片直接封装在PCB上, 该技术将载板和PCB进一步融合，将显著提升PCB价值量。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sz000534</t>
+          <t>sh603124</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>万泽股份</t>
+          <t>江南新材</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>15.74</v>
+        <v>59.96</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I19" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>军工|公司作为航空发动机产业的供应商，承担了对国产商用大飞机发动机用单晶、等轴类涡轮叶片的研制与生产任务。</t>
+          <t>铜基新材料|公司主要从事铜基新材料的研发、生产与销售。公司核心产品包括铜球系列、氧化铜粉系列及高精密铜基散热片系列三大产品类别。公司自主研发的铜球系列产品已应用于各种类型与工艺的PCB以及光伏电池板的镀铜制程等领域；氧化铜粉系列产品已应用于PCB镀铜制程、锂电池PET复合铜箔制造、有机硅单体合成催化剂等领域。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>铜基新材料</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.17</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>东方证券研报指出，部分景气敏感型上游环节二季度已呈现业绩好转态势，伴随积极的变化越来越多落地，板块确定性进一步增强。</t>
+          <t>多家机构研报指出，英伟达考虑将在Rubin Ultra架构上考虑新方案，使用CoWop工艺，将芯片直接封装在PCB上, 该技术将载板和PCB进一步融合，将显著提升PCB价值量。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sz002533</t>
+          <t>sz301389</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>金杯电工</t>
+          <t>隆扬电子</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>11.06</v>
+        <v>51.72</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>10.05</v>
+        <v>20</v>
       </c>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>军工|在军工产品方面，公司耐超高温防火特种电缆被列入《湖南省军民两用技术与产品推荐目录》。公司全资子公司金杯电磁线具备军工电磁线的生产研发能力，是军用电机科研院所及总装厂长期稳定的电磁线供应商之一，除常规军用电机产品外，目前正在参与我军新一代军用武器及保障装备的项目研制。</t>
+          <t>PCB|公司是一家电磁屏蔽材料专业制造商，致力于为客户提供高质量的电磁屏蔽材料及完善的电磁干扰解决方案。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>快递物流</t>
+          <t>数据中心</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.53</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7月29日，国家邮政局召开快递企业座谈会，就依法依规治理行业“内卷式”竞争，强化农村地区领取快件违规收费等突出问题整治，促进行业高质量发展进行座谈交流。</t>
+          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -1464,48 +1460,44 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sz001331</t>
+          <t>sz002484</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>胜通能源</t>
+          <t>江海股份</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>13.99</v>
+        <v>26.18</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>油气+物流|公司主营业务为LNG的采购、运输、销售以及原油、普货的运输服务。公司凭借自身稳定规模化的LNG槽车运载能力，依托覆盖全国的LNG采销业务网络，运用高效的信息化互联网管理平台，为工业燃料、城镇燃气、交通燃料等应用领域客户提供一站式LNG运贸解决方案。</t>
+          <t>服务器电容器|江海股份在互动平台表示，从已知GB300的方案看，公司铝电解电容器（MLPC）、超级电容器都适配，完全可以有方案达到其性能、功用要求，并正与相关服务器设计生产商交流探讨。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>油气, 物流</t>
+          <t>服务器电容器</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>快递物流</t>
+          <t>数据中心</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.53</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7月29日，国家邮政局召开快递企业座谈会，就依法依规治理行业“内卷式”竞争，强化农村地区领取快件违规收费等突出问题整治，促进行业高质量发展进行座谈交流。</t>
+          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -1513,1238 +1505,697 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sz300486</t>
+          <t>sz000533</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>东杰智能</t>
+          <t>顺钠股份</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>14.16</v>
+        <v>7.68</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>20</v>
+        <v>10.03</v>
       </c>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>物流+机器人|公司可以自主设计、自主生产的机器人主要包括堆垛机、AGV\RGV、穿梭车等产品，主要应用于汽车生产输送、制造业企业智能搬运、智能仓储物流、智能停车业务。公司智能物流系统中以AI技术赋能的智能设备包括AGV、AMR、无人配送车、无人机、客服机器人等。</t>
+          <t>数据中心变压器|公司控股孙公司顺特设备在超算中心和数据中心这两个领域提供过干式变压器产品，曾向阿里巴巴、秦淮数据有限公司、万国数据服务有限公司、数据港股份有限公司等客户提供过变压器设备。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>物流, 机器人</t>
+          <t>数据中心变压器</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>辅助生殖</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>北京市人民政府办公厅印发《北京市关于完善生育支持政策体系推动建设生育友好型社会的工作措施》。其中提到，将适宜的分娩镇痛及辅助生殖技术项目纳入医保支付范围。</t>
-        </is>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sh600774</t>
+          <t>sz000691</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>汉商集团</t>
+          <t>*ST亚太</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>12.46</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>9.969999999999999</v>
+        <v>4.95</v>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>21天11板</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>辅助生殖+创新药|1.2020年7月，公司以现金7130万元购买同济生殖医学中心31%出资份额。同济生殖医学中心拥有较为稀缺的辅助生殖牌照及全湖北省唯一的人类精子库和湖北省生育力保存中心资质。
-2.公司拥有的全球I类创新药完整自主知识产权 DDCI-01 项目罕见病肺动脉高压（PAH）适应症、良性前列腺增生引起的下尿路症（BPH-LUTS）合并勃起功能障碍（ED）适应症均在开展Ⅱ期临床研究。</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>辅助生殖, 创新药</t>
-        </is>
-      </c>
+          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>辅助生殖</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>北京市人民政府办公厅印发《北京市关于完善生育支持政策体系推动建设生育友好型社会的工作措施》。其中提到，将适宜的分娩镇痛及辅助生殖技术项目纳入医保支付范围。</t>
-        </is>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sh601089</t>
+          <t>sh603389</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>福元医药</t>
+          <t xml:space="preserve">*ST亚振 </t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>26.54</v>
+        <v>24.86</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>9.99</v>
+        <v>4.98</v>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>辅助生殖+创新药|1.公司全资子公司浙江爱生药业有限公司生产的黄体酮软胶囊通过仿制药质量和疗效一致性评价，该药品用于治疗先兆流产和习惯性流产、经前期紧张综合症、无排卵型功血和无排卵型闭经、与雌激素联合使用治疗更年期综合症。
-2.公司创新药聚焦核酸类药物研发，截至2023年6月，公司创新药在研项目4个。</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>辅助生殖, 创新药</t>
-        </is>
-      </c>
+          <t>ST股 | 1.欧式家具龙头，以沙发和橱柜作为核心业务，主导产品为“亚振”、“亚振·利维亚”和“亚振·乔治亚”品牌系列欧式风格家具。
+2.公司入选“2022年度上海市首发经济引领性品牌”榜单。</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>中信证券研报指出，光伏作为当前同质化低价竞争和产能阶段性过剩问题突出的行业，是本轮“反内卷”的核心阵地。</t>
-        </is>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
       <c r="D25" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sz300724</t>
+          <t>sz002693</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>捷佳伟创</t>
+          <t>*ST双成</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>66.19</v>
+        <v>9.16</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2" t="inlineStr"/>
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>光伏+业绩|公司是一家国内领先的晶体硅太阳能电池生产设备供应商，2025年半年度预计归属于上市公司股东的净利润为17亿元–19.6亿元，比上年同期增长38.65%–59.85%。业绩增长主要原因是公司在手订单在报告期内持续验收转化为收入。</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>光伏, 业绩</t>
-        </is>
-      </c>
+          <t>ST股 | 地处海南省海口市，专业从事化学合成多肽药品。</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>中信证券研报指出，光伏作为当前同质化低价竞争和产能阶段性过剩问题突出的行业，是本轮“反内卷”的核心阵地。</t>
-        </is>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sh600481</t>
+          <t>sz002199</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>双良节能</t>
+          <t>*ST东晶</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>6.13</v>
+        <v>9.48</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="I26" s="2" t="inlineStr"/>
+        <v>4.98</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>光伏+液冷IDC|1.作为中国最大的光伏多晶硅生产核心设备还原炉生产商，公司与各大硅料生产企业建立了长期稳定的供应链关系和战略合作关系。
-2.公司在液冷领域主要提供全浸没式液冷服务器换热模块及冷却塔等设备，与头部客户保持良好的合作。</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>光伏, 液冷IDC</t>
-        </is>
-      </c>
+          <t>ST股 | 公司致力于高精度、高稳定性、高品质石英晶体元器件系列产品的研发、设计与生产。公司与日本松下、索尼、东芝、夏普、 JVC，以及韩国三星、LG 和国内华为、中兴、 OPPO、小米等公司保持长期稳定的战略合作关系。</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>财通证券表示，从全球云基础设施投资情况来看，2025年四大云服务商Meta、Microsoft、Amazon、Alphabet合计资本开支预计将超过3200亿美元，同比增长超过35%。</t>
-        </is>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sh688800</t>
+          <t>sz002898</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">瑞可达  </t>
+          <t>*ST赛隆</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>64.09999999999999</v>
+        <v>15.67</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>19.99</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>铜连接+机器人|1.公司在通信领域产品主要包括5G射频板对板连接器、电源连接器、光连接器、高速连接器及微波连接器等产品。
-2.瑞可达在互动平台表示，公司有应用于人形机器人的产品，已小批量供货中。公司会继续加大人形机器人领域的投入，在产品线上做更多布局。</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>铜连接, 机器人</t>
-        </is>
-      </c>
+          <t>ST股 | 公司已建成集医药中间体、原料药、制剂的研发、生产、营销和技术服务为一体的医药全产业链的现代化制药企业。</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>财通证券表示，从全球云基础设施投资情况来看，2025年四大云服务商Meta、Microsoft、Amazon、Alphabet合计资本开支预计将超过3200亿美元，同比增长超过35%。</t>
-        </is>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sh603052</t>
+          <t>sz002168</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>可川科技</t>
+          <t>*ST惠程</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30.29</v>
+        <v>3.83</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>9.99</v>
+        <v>4.93</v>
       </c>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>高速硅光芯片|可川科技在互动平台表示，可川光子致力于高速硅光芯片和硅光模块的研发和生产，自主研发设计的首批硅光芯片已经完成海外流片，公司正在积极地进行市场开拓工作，已向多家海内外客户送样。</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>高速硅光芯片</t>
-        </is>
-      </c>
+          <t>ST股 | 公司旗下控股子公司哆可梦以基于大数据精细化营销的流量经营业务和移动游戏的研发、发行及游戏平台的运营为主营业务</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>数据要素</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>8月1日，国务院公布的《政务数据共享条例》正式施行，从机制上打消“供数”疑虑、规范“用数”行为，破解“不愿共享”“不敢共享”“不会共享”的源头难题，推动数据要素价值化。</t>
-        </is>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sz000032</t>
+          <t>sh600289</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>深桑达Ａ</t>
+          <t xml:space="preserve">ST信通  </t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>24.77</v>
+        <v>6.74</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>9.99</v>
+        <v>4.98</v>
       </c>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>数据要素+AI应用|1.公司作为中国电子数据创新业务的承载主体，面向地方政府、中央部委、大型集团企业客户，以数据安全与数据要素化工程方案落地为主线，将业务拆分为数据安全工程、数据要素工程和数据产业工程，分别打造核心产品和一体化解决方案。
-2.公司与智谱进行了业务合作，此外，还基于若干开源大模型，打造了政务、公安、医疗行业等垂类模型。</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>数据要素, AI应用</t>
-        </is>
-      </c>
+          <t>ST股 | 公司在智能交通领域继续保持稳健发展，着重提升项目的盈利能力。</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>盾构机</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>国际半导体产业协会（SEMI）的最新数据显示，2025年第二季度全球硅晶圆出货量达到3327百万平方英寸，与2024年同期的3035百万平方英寸相比增长9.6%。</t>
-        </is>
-      </c>
+        <v>1.42</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr"/>
       <c r="D30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sh603163</t>
+          <t>sz002097</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>圣晖集成</t>
+          <t>山河智能</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>32.23</v>
+        <v>15.61</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>洁净室系统集成|公司系为先进制造业提供洁净室系统集成工程整体解决方案的一站式专业服务商，涵盖洁净室厂房建造规划、设计建议等相关服务。</t>
+          <t>盾构机+军工|1.公司凿岩设备、硬岩掘进机、盾构机可应用于隧道施工。公司设备已参与项目前期地质处理，后续公司仍将积极配合合作伙伴参与雅下水电项目。
+2.公司参股企业山河星航研制各型工业级无人机，包括多旋翼军警用无人机、多旋翼植保机、无人直升机、固定翼无人机。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>洁净室系统集成</t>
+          <t>盾构机, 军工</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>汽车零部件</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>AI硬件升级引爆高端PCB需求，分析认为，全球仅少数厂商具备稳定量产能力，技术壁垒导致产能短期难以填补需求真空。</t>
-        </is>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="C31" s="2" t="inlineStr"/>
       <c r="D31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sh603256</t>
+          <t>sh603211</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>宏和科技</t>
+          <t>晋拓股份</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>25.89</v>
+        <v>19.97</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>5天3板</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>电子玻纤布|公司是全球领先的中高端电子级玻璃纤维布专业厂商，是全球少数具备极薄布生产能力的厂商之一。公司主要产品为中高端电子级玻璃纤维布系列产品，为制造电子产品核心铜箔基板的重要原料。</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>电子玻纤布</t>
-        </is>
-      </c>
+        <v>10.03</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>0.42</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sz000691</t>
+          <t>sz001331</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>*ST亚太</t>
+          <t>胜通能源</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>6.67</v>
+        <v>15.39</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>5.04</v>
+        <v>10.01</v>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>20天10板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
+          <t>油气+物流|公司主营业务为LNG的采购、运输、销售以及原油、普货的运输服务。公司凭借自身稳定规模化的LNG槽车运载能力，依托覆盖全国的LNG采销业务网络，运用高效的信息化互联网管理平台，为工业燃料、城镇燃气、交通燃料等应用领域客户提供一站式LNG运贸解决方案。</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>油气, 物流</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>0.42</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
       <c r="D33" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sh603389</t>
+          <t>sz002775</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST亚振 </t>
+          <t>文科股份</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>23.68</v>
+        <v>5.32</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>5.01</v>
+        <v>9.92</v>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>7天4板</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.欧式家具龙头，以沙发和橱柜作为核心业务，主导产品为“亚振”、“亚振·利维亚”和“亚振·乔治亚”品牌系列欧式风格家具。
-2.公司入选“2022年度上海市首发经济引领性品牌”榜单。</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr"/>
+          <t>重组预期|2025年7月23日盘后公告，公司为减少业务回款的不确定性风险，加快应收款项收回，拟与多家房地产公司进行债权重组和债务重组。</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>重组预期</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>0.42</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
       <c r="D34" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sz002693</t>
+          <t>sh603059</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>*ST双成</t>
+          <t xml:space="preserve">倍加洁  </t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>8.720000000000001</v>
+        <v>37.16</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="I34" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 地处海南省海口市，专业从事化学合成多肽药品。</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr"/>
+          <t>婴童|公司口腔护理类产品有儿童牙刷、儿童牙膏等适合婴童的产品；湿巾类产品有婴儿湿巾类产品。</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>婴童</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>0.42</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
       <c r="D35" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sh600696</t>
+          <t>sh600651</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST岩石 </t>
+          <t>飞乐音响</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>5.74</v>
+        <v>6.12</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr"/>
+        <v>10.07</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.公司主要从事商业保理、融资租赁、不动产运营管理和大宗商品贸易。
-2.公司持有江西章贡酒业有限责任公司25%股权。章贡酒业是全国白酒工业百强企业，江西省重点酿酒企业。</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr"/>
+          <t>参股上海智能算力|公司控股股东上海仪电集团与阶跃星辰共同参股上海智能算力科技公司。</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>参股上海智能算力</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>0.42</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
       <c r="D36" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sz002076</t>
+          <t>sh601929</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>*ST星光</t>
+          <t>吉视传媒</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>4.859999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.旗下广东星光云计算有限公司核心业务定位为云计算服务、云数据中心综合服务、数字资产管理、数字化综合解决方案服务。
-2.子公司广州天芯量子拥有量子密钥分发、量子VPN加密、量子密钥管理等核心技术。</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr"/>
+          <t>电影《731》|备受关注的电影《731》宣布将于9月18日上映。长影集团为《731》制作方，长影集团与吉视传媒等签署合作协议，涉及影视 IP 开发、数字内容生产等新兴领域。</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>电影《731》</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>0.42</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sz002199</t>
+          <t>sz002248</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>*ST东晶</t>
+          <t>华东数控</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>9.029999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>5</v>
+        <v>10.01</v>
       </c>
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司致力于高精度、高稳定性、高品质石英晶体元器件系列产品的研发、设计与生产。公司与日本松下、索尼、东芝、夏普、 JVC，以及韩国三星、LG 和国内华为、中兴、 OPPO、小米等公司保持长期稳定的战略合作关系。</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr"/>
+          <t>新型工业化|公司是中国机床行业生产、销售数控龙门导轨磨床数量最多、规模最大的机床制造企业，以研发和生产经营数控机床、普通机床及其关键功能部件为主营业务，产品有数控龙门铣床（龙门加工中心）、数控龙门磨床、数控外圆磨床、万能摇臂铣床、平面磨床、动静压主轴等机床和功能部件产品。</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>新型工业化</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>0.42</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
       <c r="D38" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sh600711</t>
+          <t>sh605298</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ST盛屯  </t>
+          <t>必得科技</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>7.91</v>
+        <v>16.8</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>5.050000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 目前公司主营业务为钴材料业务、有色金属矿采选业务以及金属产业链增值业务，产业布局遍布北上广深、云贵川、内蒙、中国香港、新加坡、非洲等地。</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>sz002289</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>*ST宇顺</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>sz002305</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>*ST南置</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司是一家武汉市以商业地产为引导的综合性物业开发企业。</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>sz000558</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>天府文旅</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>5天3板</t>
-        </is>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>旅游+体育|公司以文化、旅游、体育三大产业为发力点，推动集文化、旅游、体育于一体的健康生活方式的深度融合，打造国内泛文旅体产业融合发展的标杆企业。</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>旅游, 体育</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>sz002775</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>文科股份</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>6天3板</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>重组预期|2025年7月23日盘后公告，公司为减少业务回款的不确定性风险，加快应收款项收回，拟与多家房地产公司进行债权重组和债务重组。</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>重组预期</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>sz300289</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>利德曼</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>并购重组|利德曼公告称，公司正在筹划以支付现金方式收购北京先声祥瑞生物制品股份有限公司部分股东持有的目标公司合计不超过70%的股份。公司本次交易资金来源拟运用自有资金并结合银行并购贷款等方式筹集资金。根据初步测算，本次交易预计构成重大资产重组。</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>并购重组</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>sh688098</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>申联生物</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>签订疫苗开发合同|7月31日，申联生物公告称，近日，公司与中国农业科学院兰州兽医研究所等单位签订了项目合同，拟共同开发猪用口蹄疫等三种疫病多联多价疫苗及牛用口蹄疫等三种疫病多联多价疫苗。</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>签订疫苗开发合同</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>sz002652</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>扬子新材</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>9.950000000000001</v>
-      </c>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>低空经济|公司的有机涂层板可应用于无人机低空起降设施等新型基础设施。</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>低空经济</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>sz002012</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>凯恩股份</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>造纸+电解电容器|1.公司主要生产工业配套用纸、特种食品包装用纸、过滤纸等特种纸。
-2.公司在电解电容器纸生产方面拥有的高纯化技术、低损耗技术、高压低阻抗技术、长纤维整理技术、超低定量成型技术、化纤湿法成型技术等已达到世界先进水平。</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>造纸, 电解电容器</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>sh603863</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>松炀资源</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>造纸|公司主要从事环保再生纸的研发、生产和销售，是一家集废纸回收、环保造纸及涂布成型于一体，形成资源再生利用价值链的造纸企业。</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>造纸</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>sh600629</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>华建集团</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>上海微电子|控股公司上海国投旗下子公司上海科技创业投资有限公司持有上海微电子13.275%股权，公司实控人是上海国资委。</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>上海微电子</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>sh600671</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>天目药业</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>医药|公司主要从事医药健康产业，从事药品及保健食品的研发、制造及中药材种植，是集药品研发、制造、销售于一体的医药企业。</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>医药</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr"/>
-      <c r="D50" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>sz300858</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>科拓生物</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>食品添加剂|公司是一家主要从事复配食品添加剂、食用益生菌制品以及动植物微生态制剂研发、生产与销售的高新技术企业。</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>食品添加剂</t>
+          <t>高铁|公司主营中高速动车组列车、城轨列车等轨道交通车辆配套产品的研发、生产与销售，主要产品包括车辆通风系统、电缆保护系统和智能控制撒砂系统等系统化、系列化产品及其他轨道交通车辆配套产品。</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>高铁</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2791,16 +2242,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>sz002287</t>
+          <t>sz001331</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>奇正藏药</t>
+          <t>胜通能源</t>
         </is>
       </c>
     </row>
@@ -2810,27 +2261,27 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sz001331</t>
+          <t>sh603059</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>胜通能源</t>
+          <t xml:space="preserve">倍加洁  </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sz300289</t>
+          <t>sz002775</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>利德曼</t>
+          <t>文科股份</t>
         </is>
       </c>
     </row>
@@ -2840,12 +2291,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sz002799</t>
+          <t>sz000534</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>环球印务</t>
+          <t>万泽股份</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2306,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sz002424</t>
+          <t>sh603767</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>贵州百灵</t>
+          <t>中马传动</t>
         </is>
       </c>
     </row>
@@ -2870,12 +2321,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sh603059</t>
+          <t>sh601089</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">倍加洁  </t>
+          <t>福元医药</t>
         </is>
       </c>
     </row>
@@ -2885,72 +2336,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sh603516</t>
+          <t>sz300486</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>淳中科技</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>sh603256</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>宏和科技</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>sz002775</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>文科股份</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>sh600774</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>汉商集团</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>sz002940</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>昂利康</t>
+          <t>东杰智能</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,16 +485,16 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="90" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="192" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.98</v>
+        <v>3.08</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.98</v>
+        <v>3.08</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.98</v>
+        <v>3.08</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -668,125 +668,129 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>sz300965</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>恒宇信通</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>军工|公司是我国主要的军用直升机综合显示控制设备领域一体化系统集成及技术解决方案综合提供商，主要产品包括机载多功能显示控制设备及嵌入式计算机模块等航空电子产品。</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>sh600879</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>航天电子</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G5" s="2" t="n">
         <v>10.79</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>9.99</v>
       </c>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>军工+低空经济|1.公司航天电子信息产品主要包括综合信息系统、惯性导航、集成电路、机电组件等领域。
 2.公司控股子公司航天时代飞鸿技术有限公司主要从事无人机业务研发生产。</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>军工, 低空经济</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>军工</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="B6" s="2" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="D6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>sh600192</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>长城电工</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G6" s="2" t="n">
         <v>10.86</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H6" s="2" t="n">
         <v>10.03</v>
       </c>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>核电+军工|1.公司是我国领先的高中低压开关成套设备、压电器元件等电工电器产品厂商，在取得核电项目多项业绩的同时，2020年在核岛项目上取得突破，中标中国核工业集团有限公司漳州核电厂1、2号机组核岛中压配电项目。
 2.公司建成了低压电器元件全产业链“全功能工厂”，为军舰、军车、军工、核能、电梯、工程机械等领域国产替代提供高质量的产品。</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>核电, 军工</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>sz300696</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>爱乐达</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>军工|主要从事军用飞机和民用客机零部件的精密制造，以及航空地面工装的设计制造业务。产品涉及中航工业下属企业的多种机型，以及中国商飞C919、ARJ21，中航通飞AG600，波音B737、B737-Max等机型。</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
         </is>
       </c>
     </row>
@@ -797,7 +801,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.98</v>
+        <v>3.08</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -805,28 +809,28 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sz002651</t>
+          <t>sz300696</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>利君股份</t>
+          <t>爱乐达</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>12.94</v>
+        <v>30.12</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10.03</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>军工|公司子公司成都德坤航空设备制造有限公司主营航空零件及工装设计制造业务，主要从事航空钣金零件的开发制造，航空精密零件数控加工，航空飞行器零部件的工装模具设计制造及装配，航空试验件及非标产品制造等，产品主要应用于军用，民用航空飞行器制造。</t>
+          <t>军工|主要从事军用飞机和民用客机零部件的精密制造，以及航空地面工装的设计制造业务。产品涉及中航工业下属企业的多种机型，以及中国商飞C919、ARJ21，中航通飞AG600，波音B737、B737-Max等机型。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -842,7 +846,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.98</v>
+        <v>3.08</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
@@ -850,33 +854,33 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sh688788</t>
+          <t>sz002651</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>科思科技</t>
+          <t>利君股份</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>72.73</v>
+        <v>12.94</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>20</v>
+        <v>10.03</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>军工信息化|公司主要从事军用电子信息装备及相关模块的研发、生产和销售。</t>
+          <t>军工|公司子公司成都德坤航空设备制造有限公司主营航空零件及工装设计制造业务，主要从事航空钣金零件的开发制造，航空精密零件数控加工，航空飞行器零部件的工装模具设计制造及装配，航空试验件及非标产品制造等，产品主要应用于军用，民用航空飞行器制造。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>军工信息化</t>
+          <t>军工</t>
         </is>
       </c>
     </row>
@@ -887,7 +891,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.98</v>
+        <v>3.08</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
@@ -895,1307 +899,2717 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz002977</t>
+          <t>sh688788</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>天箭科技</t>
+          <t>科思科技</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>39.33</v>
+        <v>72.73</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10.01</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>军工信息化|公司主要从事军用电子信息装备及相关模块的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>军工信息化</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>sz002977</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>天箭科技</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>军工+商业航天|1.公司当前主要代表产品为弹载固态发射机、新型相控阵天线及其他固态发射机产品，其在军事领域的应用包括雷达制导导弹精确制导系统、其它雷达系统、卫星通信和电子对抗等。
 2.公司产品在卫星通信领域的应用主要为卫星地面固定站、移动站等设施装备中的大功率发射系统。</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>军工, 商业航天</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>机器人</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0.9900000000000001</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>sh603767</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>中马传动</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>机器人|公司招股说明书显示，将以现有汽车变速器齿轮、汽车转向器齿轮、汽车油泵轴齿轮、汽车发动机齿轮、摩托车发动机齿轮、农机变速器齿轮为发展基础，大力开拓汽车自动变速器行星齿轮、工业机器人减速器齿轮等高精度齿轮产品领域。</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
+          <t>军工</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>sz002265</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>建设工业</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>军工机器人|公司在第十五届中国国际航空航天博览会轻武器展区展出的多功能足式机器人、小型室内清剿机器人、小型智能察打机器人、便携式无人飞行枪械系统、班组多旋翼察打无人机等。</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>军工机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>sh688081</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>兴图新科</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>军工|公司是一家基于网络通信的军队专用视频指挥控制系统提供商，已经成为军队视频指挥领域的重要供应商，主要产品包括视频指挥控制系统、视频预警控制系统，重点应用于国防军队，并延伸至监狱、油田等行业。</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>sz301357</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>北方长龙</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>114.78</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>军工|公司专注于军事装备领域,主要从事以非金属复合材料的性能研究、工艺结构设计和应用技术为核心的军用车辆配套装备的研发、设计、生产和销售业务。</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0.9900000000000001</v>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="B14" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="D14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>sh603767</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>中马传动</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>机器人|公司招股说明书显示，将以现有汽车变速器齿轮、汽车转向器齿轮、汽车油泵轴齿轮、汽车发动机齿轮、摩托车发动机齿轮、农机变速器齿轮为发展基础，大力开拓汽车自动变速器行星齿轮、工业机器人减速器齿轮等高精度齿轮产品领域。</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>sz300486</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>东杰智能</t>
         </is>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G15" s="2" t="n">
         <v>16.99</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H15" s="2" t="n">
         <v>19.99</v>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>机器人+签订大单|1.公司是一家研制开发的工业机器人及柔性自动化生产线采用先进的现场总线和实时智能控制系统的公司。
 2.东杰智能公告称，公司境外全资子公司Oriental Material Handling(Malaysia)Sdn.Bhd.获得PTT LOGISTICS SDN BHD采购订单，订单总金额37,090,000马来西亚林吉特，按公告日汇率约合人民币6250万元。</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>机器人, 签订大单</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>0.9900000000000001</v>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="B16" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="D16" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>sh603286</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>日盈电子</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>电子皮肤|公司看好汽车零部件企业进军人形机器人领域的产业机遇，积极投入以柔性触觉传感电子皮肤为代表的新产品开发，公司压阻式的电子皮肤样品已研发成功。</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>电子皮肤</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>sz002901</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>大博医疗</t>
         </is>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G17" s="2" t="n">
         <v>49.15</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H17" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>手术机器人|旗下大博创新科技研发中心致力于生物医用材料、增材制造、手术机器人、再生医学等行业前沿技术研究及行业共性问题解决。</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>手术机器人</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>0.9900000000000001</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="B18" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D18" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>sz002046</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>国机精工</t>
         </is>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G18" s="2" t="n">
         <v>21.21</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H18" s="2" t="n">
         <v>10.01</v>
       </c>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>机器人+工业母机|1.公司有部分轴承产品可用于机器人领域。
 2.公司生产用于数控机床的精密轴承。</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>机器人, 工业母机</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>0.9900000000000001</v>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="B19" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="D19" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>sh605118</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>力鼎光电</t>
         </is>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G19" s="2" t="n">
         <v>35.19</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>无人机+机器人|1.公司在无人机镜头积累的技术经验为切入口，继续与合作伙伴共同推动低空经济领域产品的创新和投入，以公司在夜视光学硬件上的良好基础深度融合计算光学新思维，进一步深入民用微光夜视赛道，推进红外热成像、医疗健康相关产品研发和市场发展。
 2.公司镜头产品在AI或机器人领域的作用主要是为其提供更加清晰、完整、高效的视觉捕捉和视觉识别。</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>无人机, 机器人</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>sz002148</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>北纬科技</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>机器人+车联网|1.参股的天宇经纬公司自主研发的天宇云盒和御空低空智能管控平台，可协助无人机、机器狗等设备实现实时联网、远程控制、信息回传等作业功能，目前天宇经纬从客户需求出发，与宇树科技在机器狗应用领域开展生态合作，为行业客户提供解决方案。
+2.在物联网业务的车联网应用层面，公司积累了蔚来汽车、福田汽车、享道出行、特来电、毫末智行、海纳川等众多优质客户。</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>机器人, 车联网</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>sz001306</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>夏厦精密</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>工业母机+机器人|1.全资子公司夏拓智能有数控机床、工业母机类产品。
+ 2.减速机及其配件产品应用领域为机器人，主要用于机器人的关键传动部件。</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>工业母机, 机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>sz002026</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>山东威达</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>机器人|相继收购了上海拜骋电器有限公司、济南第一机床有限公司和苏州德迈科电气有限公司等，形成了精密机械零部件制造、中高档数控机床制造和机器人自动化三大互补的产业板块。</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>sh603119</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>机器人|公司已有产品通过直接或者间接的业务渠道向机器人的海外厂商供货或者进行相关产品的业务开发。</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>sh603667</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>五洲新春</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>滚珠丝杠|公司成功研发多个滚珠丝杠相关产品，滚珠丝杠为人形机器人线性关节关键零部件之一。</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>滚珠丝杠</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>sz002009</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>天奇股份</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>机器人+汽车拆解|1.公司工业人形机器人已进入新能源汽车工厂总装车间进行实景训练，人形机器人在汽车制造领域的应用落地稳步推进。
+2.公司报废汽车回收再利用业务以子公司宁波回收为核心开展，围绕宁波及周边地区开展报废汽车回收拆解业务。</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>机器人, 汽车拆解</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>创新药</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>-2.15</v>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="B26" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="D26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>sh601089</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>福元医药</t>
         </is>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G26" s="2" t="n">
         <v>29.19</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H26" s="2" t="n">
         <v>9.98</v>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>5天3板</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>辅助生殖+创新药|1.公司全资子公司浙江爱生药业有限公司生产的黄体酮软胶囊通过仿制药质量和疗效一致性评价，该药品用于治疗先兆流产和习惯性流产、经前期紧张综合症、无排卵型功血和无排卵型闭经、与雌激素联合使用治疗更年期综合症。
 2.公司创新药聚焦核酸类药物研发，截至2023年6月，公司创新药在研项目4个。</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>辅助生殖, 创新药</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>创新药</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>-2.15</v>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="B27" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>sh603811</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>诚意药业</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>创新药|公司坚持以海洋药物、中医药、生物医药为主的产品开发策略。在神经系统、内分泌系统等方面对创新药物与大健康类相关产品进行布局。</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>sz002020</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>京新药业</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>创新药|公司创新药布局主要集中在精神神经管线和心脑血管管线。公司第一个1类新药、适用于失眠患者短期治疗的京诺宁r（地达西尼胶囊）于2024年3月底实现了上市销售。截止2024年年报，JX11502MA胶囊和康复新肠溶胶囊均完成IIa阶段，获得预期效果。其中，JX11502MA胶囊在报告期末已经顺利开启IIb阶段的病例入组。</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>sh600513</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>联环药业</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>创新药|主要产品有创新药物爱普列特片(川流)，新药依巴斯汀片(苏迪)、非洛地平片(联环尔定)、非洛地平缓释胶囊(联环笑定)等二十多个。</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>sz300199</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>翰宇药业</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>创新药|公司专注于多肽药物及小核酸领域，产品及业务覆盖多肽创新药，全球多肽制剂管线已有超过40种药品在不同阶段（上市、注册、临床、开发）获得批准。此外，公司与碳云智肽签署GLP-1R/GIPR/GCGR三重激动剂多肽创新药物联合开发协议。</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>sh688265</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>南模生物</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>创新药|截至2023年末，公司累计研发构建了超过18,000种模型，在抗体偶联药物（ADC）、双抗、多抗药物、小核酸类药物、细胞治疗等研究领域自主研发标准化模型超过11,000余种，为客户提供了超过7,500种的定制化模型，积累了深厚的基因修饰动物模型开发经验。</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>AI应用</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>sh603859</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>能科科技</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>42.61</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>AI智能体|公司的乐仓智能体（AI Agent）具备AI百科、AI创造及AI搜索能力，能够快速进行应用创造。</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>AI智能体</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>AI应用</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>sz002980</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>华盛昌</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>AI智能体|公司最新发布的AI-7760电能质量分析仪是基于该大模型创新性集成多个AI智能体，深度整合了行业知识图谱，涵盖产品手册、行业标准文档、学术论文、期刊文献以及丰富的行业问答数据等多维度信息，可结合RAG检索增强技术为行业用户提供专业的场景化的解答，该仪器可实时监测设备状态、深度理解用户指令、生成诊断分析报告、智能决策、自动高效执行。</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>AI智能体</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>AI应用</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>sz002558</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>巨人网络</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>游戏+AI|公司陆续搭建了一系列AI工具平台，涵盖视觉、语音、大语言模型等技术方向，对游戏策划、美术生产、程序开发、宣传发行、客户服务等业务环节进行赋能。</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>游戏, AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>AI应用</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>sz300830</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>金现代</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>AI智能体|公司的AI智能问答产品-“小金智问”，是一款基于大语言模型研发的，支持私有化部署的智能问答产品。该产品可以作为插件，灵活的与企业的业务系统、移动APP、小程序等应用进行集成，从而将传统应用升级为智能化应用。小金智问是公司知识图谱、垂直大模型、图像识别、自然语言识别等AI技术成果的一个重要的体现，目前已在多个领域获得应用。</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>AI智能体</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>固态电池</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>上汽确认全新MG4电动掀背车将成为全球首款搭载半固态电池的量产电动车，将于8月5日正式亮相。</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>sh603811</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>诚意药业</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>创新药|公司坚持以海洋药物、中医药、生物医药为主的产品开发策略。在神经系统、内分泌系统等方面对创新药物与大健康类相关产品进行布局。</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>创新药</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>AI应用</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>sh603200</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>上海洗霸</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>68.73999999999999</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>固态电池+液冷IDC|1.公司生产的固态电解质粉体材料可以应用于锂离子固态电池，多形态固态电解质粉体材料（含油性、水性、浆料）年产50吨级产线主要采用的是氧化物技术路线，公司储备了硫化物、氯化物等固态电解质的其它固态电解质粉体技术路线。
+2.公司面向腾讯、华为、中国移动等重点客户数据中心提供循环水/空气蒸发冷却等专业服务。</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>固态电池, 液冷IDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>固态电池</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>上汽确认全新MG4电动掀背车将成为全球首款搭载半固态电池的量产电动车，将于8月5日正式亮相。</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>sh603859</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>能科科技</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>AI智能体|公司的乐仓智能体（AI Agent）具备AI百科、AI创造及AI搜索能力，能够快速进行应用创造。</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>AI智能体</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>AI应用</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>sz300584</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>海辰药业</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>41.27</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>创新药+固态电池|1.公司及关联方是NMS集团的重要股东，作为欧洲顶尖的肿瘤药研发机构，NMS集团具有药物研发“一站式”服务平台，具有药物早期发现到药物注册上市完整的产业链。
+2.子公司安庆汇辰科技与赛科动力共同投资设立的四川洛辰聚焦于包括固态电池在内的新能源电池相关粘合剂材料的开发、优化、及产业化。</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>创新药, 固态电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>数据中心</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>sz002980</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>华盛昌</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>23.87</v>
-      </c>
-      <c r="H18" s="2" t="n">
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>sz000533</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>顺钠股份</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>数据中心变压器|公司控股孙公司顺特设备在超算中心和数据中心这两个领域提供过干式变压器产品，曾向阿里巴巴、秦淮数据有限公司、万国数据服务有限公司、数据港股份有限公司等客户提供过变压器设备。</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>数据中心变压器</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>数据中心</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>sz002484</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>江海股份</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="H39" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>AI智能体|公司最新发布的AI-7760电能质量分析仪是基于该大模型创新性集成多个AI智能体，深度整合了行业知识图谱，涵盖产品手册、行业标准文档、学术论文、期刊文献以及丰富的行业问答数据等多维度信息，可结合RAG检索增强技术为行业用户提供专业的场景化的解答，该仪器可实时监测设备状态、深度理解用户指令、生成诊断分析报告、智能决策、自动高效执行。</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>AI智能体</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>服务器电容器|江海股份在互动平台表示，从已知GB300的方案看，公司铝电解电容器（MLPC）、超级电容器都适配，完全可以有方案达到其性能、功用要求，并正与相关服务器设计生产商交流探讨。</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>服务器电容器</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>PCB</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="B40" s="2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>多家机构研报指出，英伟达考虑将在Rubin Ultra架构上考虑新方案，使用CoWop工艺，将芯片直接封装在PCB上, 该技术将载板和PCB进一步融合，将显著提升PCB价值量。</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>sh603124</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr">
         <is>
           <t>江南新材</t>
         </is>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G40" s="2" t="n">
         <v>59.96</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="J40" s="2" t="inlineStr">
         <is>
           <t>铜基新材料|公司主要从事铜基新材料的研发、生产与销售。公司核心产品包括铜球系列、氧化铜粉系列及高精密铜基散热片系列三大产品类别。公司自主研发的铜球系列产品已应用于各种类型与工艺的PCB以及光伏电池板的镀铜制程等领域；氧化铜粉系列产品已应用于PCB镀铜制程、锂电池PET复合铜箔制造、有机硅单体合成催化剂等领域。</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="K40" s="2" t="inlineStr">
         <is>
           <t>铜基新材料</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>PCB</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="B41" s="2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>多家机构研报指出，英伟达考虑将在Rubin Ultra架构上考虑新方案，使用CoWop工艺，将芯片直接封装在PCB上, 该技术将载板和PCB进一步融合，将显著提升PCB价值量。</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
         <is>
           <t>sz301389</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr">
         <is>
           <t>隆扬电子</t>
         </is>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G41" s="2" t="n">
         <v>51.72</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H41" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr">
         <is>
           <t>PCB|公司是一家电磁屏蔽材料专业制造商，致力于为客户提供高质量的电磁屏蔽材料及完善的电磁干扰解决方案。</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr">
+      <c r="K41" s="2" t="inlineStr">
         <is>
           <t>PCB</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>数据中心</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>0.5599999999999999</v>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>sz002484</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>江海股份</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>26.18</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>服务器电容器|江海股份在互动平台表示，从已知GB300的方案看，公司铝电解电容器（MLPC）、超级电容器都适配，完全可以有方案达到其性能、功用要求，并正与相关服务器设计生产商交流探讨。</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>服务器电容器</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>数据中心</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>0.5599999999999999</v>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>sz000533</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>顺钠股份</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>数据中心变压器|公司控股孙公司顺特设备在超算中心和数据中心这两个领域提供过干式变压器产品，曾向阿里巴巴、秦淮数据有限公司、万国数据服务有限公司、数据港股份有限公司等客户提供过变压器设备。</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>数据中心变压器</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>盾构机</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>截至2025年，中国"一带一路"盾构机出口销量连续三年复合增长率超过30%，累计订单已超过100台，占总出口量的80%以上。</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>sz002097</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>山河智能</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>盾构机+军工|1.公司凿岩设备、硬岩掘进机、盾构机可应用于隧道施工。公司设备已参与项目前期地质处理，后续公司仍将积极配合合作伙伴参与雅下水电项目。
+2.公司参股企业山河星航研制各型工业级无人机，包括多旋翼军警用无人机、多旋翼植保机、无人直升机、固定翼无人机。</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>盾构机, 军工</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>国际半导体产业协会（SEMI）的最新数据显示，2025年第二季度全球硅晶圆出货量达到3327百万平方英寸，与2024年同期的3035百万平方英寸相比增长9.6%。</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>sh688110</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>东芯股份</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>68.88</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>5天3板</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片|公司投资的上海砺算坚持自研架构，产品可实现端、云、边的主流图形渲染和AI加速，对标主流GPU架构，与外部生态无缝兼容，力争解决国产主流完整GPU架构自主可控的关键问题。</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>ST股</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>sz000691</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>*ST亚太</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>21天11板</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="B44" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>sh603389</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">*ST亚振 </t>
         </is>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G44" s="2" t="n">
         <v>24.86</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H44" s="2" t="n">
         <v>4.98</v>
       </c>
-      <c r="I24" s="2" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>ST股 | 1.欧式家具龙头，以沙发和橱柜作为核心业务，主导产品为“亚振”、“亚振·利维亚”和“亚振·乔治亚”品牌系列欧式风格家具。
 2.公司入选“2022年度上海市首发经济引领性品牌”榜单。</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="K44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>ST股</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="B45" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>sz002693</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>*ST双成</t>
         </is>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G45" s="2" t="n">
         <v>9.16</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H45" s="2" t="n">
         <v>5.050000000000001</v>
       </c>
-      <c r="I25" s="2" t="inlineStr">
+      <c r="I45" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
+      <c r="J45" s="2" t="inlineStr">
         <is>
           <t>ST股 | 地处海南省海口市，专业从事化学合成多肽药品。</t>
         </is>
       </c>
-      <c r="K25" s="2" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="K45" s="2" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>ST股</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="B46" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>sz002199</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>*ST东晶</t>
         </is>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G46" s="2" t="n">
         <v>9.48</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H46" s="2" t="n">
         <v>4.98</v>
       </c>
-      <c r="I26" s="2" t="inlineStr">
+      <c r="I46" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="J46" s="2" t="inlineStr">
         <is>
           <t>ST股 | 公司致力于高精度、高稳定性、高品质石英晶体元器件系列产品的研发、设计与生产。公司与日本松下、索尼、东芝、夏普、 JVC，以及韩国三星、LG 和国内华为、中兴、 OPPO、小米等公司保持长期稳定的战略合作关系。</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>ST股</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="B47" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>sz002289</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>*ST宇顺</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>sh600696</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST岩石 </t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.公司主要从事商业保理、融资租赁、不动产运营管理和大宗商品贸易。
+2.公司持有江西章贡酒业有限责任公司25%股权。章贡酒业是全国白酒工业百强企业，江西省重点酿酒企业。</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>sz002168</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>*ST惠程</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司旗下控股子公司哆可梦以基于大数据精细化营销的流量经营业务和移动游戏的研发、发行及游戏平台的运营为主营业务</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>sh600289</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST信通  </t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司在智能交通领域继续保持稳健发展，着重提升项目的盈利能力。</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>sh603869</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST智知  </t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 2019年2月28日公司在互动平台表示，上海新氦类脑智能科技有限公司，由新奥集团下属的新智数字科技有限公司、复旦大学及杨浦区政府共同出资组建，是类脑芯片与片上智能系统研发与转化功能型平台的承载主体。</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>sh600193</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST创兴 </t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 围绕算力服务业务，公司目前已在江苏苏州、浙江杭州、北京等地部署了算力资源池，主要用于机器视觉类应用和游戏项目的测试工作。</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>sz002592</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>ST八菱</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司配套氢燃料电池客车的产品技术目前已经形成商业化，广泛应用于燃气客车、混合动力客车和军车等领域。</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>sh600381</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST春天 </t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>5.029999999999999</v>
+      </c>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 在大健康业务方面，公司已基本完成了涵盖保健食品、药品等冬虫夏草高效利用产品的储备和战略布局。</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>sz002214</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>*ST大立</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司整合在红外监控、光电惯导、图像识别及人工智能等领域的技术储备和研发投入，成功研发多型巡检机器人。</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>sh600421</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST华嵘 </t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司实控人是中天控股集团下属浙江恒顺投资，集团旗下中天氟硅2023年撤回ipo，原计划通过IPO募集14.42亿元资金，用于30万吨/年有机硅单体扩能技改及综合利用项目。</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>sz002898</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr">
         <is>
           <t>*ST赛隆</t>
         </is>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G57" s="2" t="n">
         <v>15.67</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H57" s="2" t="n">
         <v>5.029999999999999</v>
       </c>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr">
         <is>
           <t>ST股 | 公司已建成集医药中间体、原料药、制剂的研发、生产、营销和技术服务为一体的医药全产业链的现代化制药企业。</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>sz002168</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>*ST惠程</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司旗下控股子公司哆可梦以基于大数据精细化营销的流量经营业务和移动游戏的研发、发行及游戏平台的运营为主营业务</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>sh600289</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ST信通  </t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司在智能交通领域继续保持稳健发展，着重提升项目的盈利能力。</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>盾构机</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>sz002097</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>山河智能</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="H30" s="2" t="n">
+      <c r="K57" s="2" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>sz001331</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>胜通能源</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="H58" s="2" t="n">
         <v>10.01</v>
       </c>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>盾构机+军工|1.公司凿岩设备、硬岩掘进机、盾构机可应用于隧道施工。公司设备已参与项目前期地质处理，后续公司仍将积极配合合作伙伴参与雅下水电项目。
-2.公司参股企业山河星航研制各型工业级无人机，包括多旋翼军警用无人机、多旋翼植保机、无人直升机、固定翼无人机。</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>盾构机, 军工</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>sh603211</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>晋拓股份</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>19.97</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>油气+物流|公司主营业务为LNG的采购、运输、销售以及原油、普货的运输服务。公司凭借自身稳定规模化的LNG槽车运载能力，依托覆盖全国的LNG采销业务网络，运用高效的信息化互联网管理平台，为工业燃料、城镇燃气、交通燃料等应用领域客户提供一站式LNG运贸解决方案。</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>油气, 物流</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>sz001331</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>胜通能源</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="H32" s="2" t="n">
+      <c r="C59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>sz002775</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>文科股份</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>7天4板</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>重组预期|2025年7月23日盘后公告，公司为减少业务回款的不确定性风险，加快应收款项收回，拟与多家房地产公司进行债权重组和债务重组。</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>重组预期</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>sh603059</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">倍加洁  </t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>37.16</v>
+      </c>
+      <c r="H60" s="2" t="n">
         <v>10.01</v>
       </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>油气+物流|公司主营业务为LNG的采购、运输、销售以及原油、普货的运输服务。公司凭借自身稳定规模化的LNG槽车运载能力，依托覆盖全国的LNG采销业务网络，运用高效的信息化互联网管理平台，为工业燃料、城镇燃气、交通燃料等应用领域客户提供一站式LNG运贸解决方案。</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>油气, 物流</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>婴童|公司口腔护理类产品有儿童牙刷、儿童牙膏等适合婴童的产品；湿巾类产品有婴儿湿巾类产品。</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>婴童</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>sz002775</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>文科股份</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>7天4板</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>重组预期|2025年7月23日盘后公告，公司为减少业务回款的不确定性风险，加快应收款项收回，拟与多家房地产公司进行债权重组和债务重组。</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>重组预期</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>sz300289</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>利德曼</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>并购重组|2025年7月30日公告，公司正在筹划以支付现金方式收购北京先声祥瑞生物制品股份有限公司部分股东持有的目标公司合计不超过70%的股份。本次交易预计构成重大资产重组。目标公司是一家主要从事体内诊断试剂及人用疫苗的企业，主要产品为结核菌素纯蛋白衍生物，卡介菌纯蛋白衍生物，结核分枝杆菌特异性细胞免疫反应检测试剂盒，主要应用于结核筛查、诊断、治疗及创新疫苗领域。</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>并购重组</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>sh603059</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">倍加洁  </t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>37.16</v>
-      </c>
-      <c r="H34" s="2" t="n">
+      <c r="C62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>sh600651</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>飞乐音响</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>参股上海智能算力|公司控股股东上海仪电集团与阶跃星辰共同参股上海智能算力科技公司。</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>参股上海智能算力</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>sh601929</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>吉视传媒</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>电影《731》|备受关注的电影《731》宣布将于9月18日上映。长影集团为《731》制作方，长影集团与吉视传媒等签署合作协议，涉及影视 IP 开发、数字内容生产等新兴领域。</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>电影《731》</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr"/>
+      <c r="D64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>sz002248</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>华东数控</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="H64" s="2" t="n">
         <v>10.01</v>
       </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>婴童|公司口腔护理类产品有儿童牙刷、儿童牙膏等适合婴童的产品；湿巾类产品有婴儿湿巾类产品。</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>婴童</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>新型工业化|公司是中国机床行业生产、销售数控龙门导轨磨床数量最多、规模最大的机床制造企业，以研发和生产经营数控机床、普通机床及其关键功能部件为主营业务，产品有数控龙门铣床（龙门加工中心）、数控龙门磨床、数控外圆磨床、万能摇臂铣床、平面磨床、动静压主轴等机床和功能部件产品。</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>新型工业化</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>sh600651</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>飞乐音响</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>参股上海智能算力|公司控股股东上海仪电集团与阶跃星辰共同参股上海智能算力科技公司。</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>参股上海智能算力</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>sh605298</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>必得科技</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>高铁|公司主营中高速动车组列车、城轨列车等轨道交通车辆配套产品的研发、生产与销售，主要产品包括车辆通风系统、电缆保护系统和智能控制撒砂系统等系统化、系列化产品及其他轨道交通车辆配套产品。</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>高铁</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>sh601929</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>吉视传媒</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>电影《731》|备受关注的电影《731》宣布将于9月18日上映。长影集团为《731》制作方，长影集团与吉视传媒等签署合作协议，涉及影视 IP 开发、数字内容生产等新兴领域。</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>电影《731》</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>sh603150</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>万朗磁塑</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>稀土永磁|公司正在研发的钐铁氮稀土永磁材料目前处于中试阶段，未来形成的产品可应用在电机上。</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>稀土永磁</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>sz002248</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>华东数控</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>新型工业化|公司是中国机床行业生产、销售数控龙门导轨磨床数量最多、规模最大的机床制造企业，以研发和生产经营数控机床、普通机床及其关键功能部件为主营业务，产品有数控龙门铣床（龙门加工中心）、数控龙门磨床、数控外圆磨床、万能摇臂铣床、平面磨床、动静压主轴等机床和功能部件产品。</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>新型工业化</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr"/>
+      <c r="D67" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>sz003023</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>彩虹集团</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>电热蚊香|彩虹集团是国内家用柔性取暖和家用卫生杀虫行业的知名企业，其“彩虹”商标获得驰名商标认定，电热蚊香和电热毯曾被授予“中国名牌产品”称号。</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>电热蚊香</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>sh605298</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>必得科技</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>高铁|公司主营中高速动车组列车、城轨列车等轨道交通车辆配套产品的研发、生产与销售，主要产品包括车辆通风系统、电缆保护系统和智能控制撒砂系统等系统化、系列化产品及其他轨道交通车辆配套产品。</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>高铁</t>
+      <c r="C68" s="2" t="inlineStr"/>
+      <c r="D68" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>sh600203</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>福日电子</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>华为+消费电子|公司全资子公司中诺通讯为华为提供智能手机等智能终端产品的ODM/JDM服务。</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>华为, 消费电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>sh600232</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>金鹰股份</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>锂电池|公司业务包括锂电池正极材料的研发、生产与销售，产品包括三元正极材料系列产品以及锰酸锂系列产品。</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>锂电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>sh600211</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>西藏药业</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>46.19</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>西藏+医药|公司产品涵盖生物制药、藏药、中药和化学药领域，已成长为集研发、生产、销售为一体的现代化医药企业。</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>西藏, 医药</t>
         </is>
       </c>
     </row>
@@ -2210,7 +3624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2261,12 +3675,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sh603059</t>
+          <t>sz002775</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">倍加洁  </t>
+          <t>文科股份</t>
         </is>
       </c>
     </row>
@@ -2276,27 +3690,27 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sz002775</t>
+          <t>sh603059</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>文科股份</t>
+          <t xml:space="preserve">倍加洁  </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sz000534</t>
+          <t>sz300289</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>万泽股份</t>
+          <t>利德曼</t>
         </is>
       </c>
     </row>
@@ -2306,12 +3720,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sh603767</t>
+          <t>sh603286</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>中马传动</t>
+          <t>日盈电子</t>
         </is>
       </c>
     </row>
@@ -2342,6 +3756,36 @@
       <c r="C8" s="2" t="inlineStr">
         <is>
           <t>东杰智能</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>sz000534</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>万泽股份</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>sh603767</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>中马传动</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="90" customWidth="1" min="3" max="3"/>
+    <col width="87" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="192" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="266" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,15 +557,15 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -573,49 +573,48 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sz000534</t>
+          <t>sh603767</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>万泽股份</t>
+          <t>中马传动</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>17.31</v>
+        <v>24.09</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>9.969999999999999</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>5天4板</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>创新药+军工|1.公司主要产品金双歧和定君生均为独家创新药，受集采降价影响较小。
-2.公司作为航空发动机产业的供应商，承担了对国产商用大飞机发动机用单晶、等轴类涡轮叶片的研制与生产任务。</t>
+          <t>机器人|公司招股说明书显示，将以现有汽车变速器齿轮、汽车转向器齿轮、汽车油泵轴齿轮、汽车发动机齿轮、摩托车发动机齿轮、农机变速器齿轮为发展基础，大力开拓汽车自动变速器行星齿轮、工业机器人减速器齿轮等高精度齿轮产品领域。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>创新药, 军工</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -623,48 +622,49 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sh601606</t>
+          <t>sz300486</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>长城军工</t>
+          <t>东杰智能</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>38.83</v>
+        <v>20.39</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>10</v>
+        <v>20.01</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>军工|公司自成立以来，在保证军品业务的同时，不断开拓民品市场，民品业务保持稳步增长。多年以来，公司军品订货量保持全国地方军工订货量的领先地位。</t>
+          <t>机器人+签订大单|1.公司是一家研制开发的工业机器人及柔性自动化生产线采用先进的现场总线和实时智能控制系统的公司。
+2.东杰智能公告称，公司境外全资子公司Oriental Material Handling(Malaysia)Sdn.Bhd.获得PTT LOGISTICS SDN BHD采购订单，订单总金额37,090,000马来西亚林吉特，按公告日汇率约合人民币6250万元。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人, 签订大单</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -672,48 +672,49 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sz300965</t>
+          <t>sz002148</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>恒宇信通</t>
+          <t>北纬科技</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>76.09</v>
+        <v>8.57</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>20</v>
+        <v>10.01</v>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>军工|公司是我国主要的军用直升机综合显示控制设备领域一体化系统集成及技术解决方案综合提供商，主要产品包括机载多功能显示控制设备及嵌入式计算机模块等航空电子产品。</t>
+          <t>机器人+车联网|1.参股的天宇经纬公司自主研发的天宇云盒和御空低空智能管控平台，可协助无人机、机器狗等设备实现实时联网、远程控制、信息回传等作业功能，目前天宇经纬从客户需求出发，与宇树科技在机器狗应用领域开展生态合作，为行业客户提供解决方案。
+2.在物联网业务的车联网应用层面，公司积累了蔚来汽车、福田汽车、享道出行、特来电、毫末智行、海纳川等众多优质客户。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人, 车联网</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -721,45 +722,49 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sh600879</t>
+          <t>sz002046</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>航天电子</t>
+          <t>国机精工</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>10.79</v>
+        <v>23.33</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I5" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>军工+低空经济|1.公司航天电子信息产品主要包括综合信息系统、惯性导航、集成电路、机电组件等领域。
-2.公司控股子公司航天时代飞鸿技术有限公司主要从事无人机业务研发生产。</t>
+          <t>机器人+工业母机|1.公司有部分轴承产品可用于机器人领域。
+2.公司生产用于数控机床的精密轴承。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>军工, 低空经济</t>
+          <t>机器人, 工业母机</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -767,16 +772,16 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sh600192</t>
+          <t>sz002676</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>长城电工</t>
+          <t>顺威股份</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>10.86</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>10.03</v>
@@ -784,28 +789,27 @@
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>核电+军工|1.公司是我国领先的高中低压开关成套设备、压电器元件等电工电器产品厂商，在取得核电项目多项业绩的同时，2020年在核岛项目上取得突破，中标中国核工业集团有限公司漳州核电厂1、2号机组核岛中压配电项目。
-2.公司建成了低压电器元件全产业链“全功能工厂”，为军舰、军车、军工、核能、电梯、工程机械等领域国产替代提供高质量的产品。</t>
+          <t>机器人|公司凭借自主研发的“贯流风叶焊接和动平衡补偿”自动化解决方案，成功入选广东省人工智能与机器人产业创新发展工作领导小组办公室公布的“2025年‘机器人+’典型应用场景案例名单（第一批）”。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>核电, 军工</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -813,44 +817,45 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sz300696</t>
+          <t>sz002403</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>爱乐达</t>
+          <t>爱仕达</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30.12</v>
+        <v>15.64</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>20</v>
+        <v>9.99</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>军工|主要从事军用飞机和民用客机零部件的精密制造，以及航空地面工装的设计制造业务。产品涉及中航工业下属企业的多种机型，以及中国商飞C919、ARJ21，中航通飞AG600，波音B737、B737-Max等机型。</t>
+          <t>机器人+家电|1.4月7日中国人形机器人生态联合体在上海智能谷成立，爱仕达人形机器人应用创新研究院正式揭牌。
+2.公司是一家主要生产厨房炊具、厨房小家电及机器人本体、机器人应用的企业。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人, 家电</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -858,44 +863,44 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sz002651</t>
+          <t>sh603611</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>利君股份</t>
+          <t>诺力股份</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>12.94</v>
+        <v>25.85</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>10.03</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>军工|公司子公司成都德坤航空设备制造有限公司主营航空零件及工装设计制造业务，主要从事航空钣金零件的开发制造，航空精密零件数控加工，航空飞行器零部件的工装模具设计制造及装配，航空试验件及非标产品制造等，产品主要应用于军用，民用航空飞行器制造。</t>
+          <t xml:space="preserve">机器人|旗下上海诺力智能科技是一家专业从事工业物流机器人（AGV）和智慧物流集成解决方案的高新技术企业，主要业务范围有：AGV非标车体定制、AGV产品及物流软件、物流机器人项目整体解决方案等。 </t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -903,44 +908,45 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sh688788</t>
+          <t>sz002313</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>科思科技</t>
+          <t>日海智能</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>72.73</v>
+        <v>11.24</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>20</v>
+        <v>9.98</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>军工信息化|公司主要从事军用电子信息装备及相关模块的研发、生产和销售。</t>
+          <t>机器人+液冷IDC|1.公司通信模组可应用于送餐机器人、方舱机器人等设备。
+2.公司拥有自制的液冷机柜和冷通道，主要应用于数据中心。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>军工信息化</t>
+          <t>机器人, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -948,45 +954,44 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sz002977</t>
+          <t>sz002921</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>天箭科技</t>
+          <t>联诚精密</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>39.33</v>
+        <v>17.77</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>10.01</v>
+        <v>10.03</v>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>军工+商业航天|1.公司当前主要代表产品为弹载固态发射机、新型相控阵天线及其他固态发射机产品，其在军事领域的应用包括雷达制导导弹精确制导系统、其它雷达系统、卫星通信和电子对抗等。
-2.公司产品在卫星通信领域的应用主要为卫星地面固定站、移动站等设施装备中的大功率发射系统。</t>
+          <t>机器人|公司目前已向国内工业机器人头部企业批量供应相关零件产品。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>军工, 商业航天</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -994,44 +999,44 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sz002265</t>
+          <t>sz002767</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>建设工业</t>
+          <t>先锋电子</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>40.28</v>
+        <v>21.08</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>9.99</v>
+        <v>10.02</v>
       </c>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>军工机器人|公司在第十五届中国国际航空航天博览会轻武器展区展出的多功能足式机器人、小型室内清剿机器人、小型智能察打机器人、便携式无人飞行枪械系统、班组多旋翼察打无人机等。</t>
+          <t>机器人+传感器|参股公司智驰华芯主营业务为汽车、工业和机器人等控制机构和探测模块的核心传感器，从传感器芯片到传感器系统完整的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>军工机器人</t>
+          <t>机器人, 传感器</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -1039,44 +1044,44 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sh688081</t>
+          <t>sz300916</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>兴图新科</t>
+          <t>朗特智能</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>26.46</v>
+        <v>42.73</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>20</v>
+        <v>19.99</v>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>军工|公司是一家基于网络通信的军队专用视频指挥控制系统提供商，已经成为军队视频指挥领域的重要供应商，主要产品包括视频指挥控制系统、视频预警控制系统，重点应用于国防军队，并延伸至监狱、油田等行业。</t>
+          <t>机器人|公司在机器人领域主要专注于扫地机器人智能控制器、清洁机器人及服务型机器人的组装及代工等。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>近年来，全球正面临着错综复杂的地缘政治挑战，俄乌、印巴、巴以、泰柬等冲突相继发生。</t>
+          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1084,16 +1089,16 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sz301357</t>
+          <t>sh688585</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>北方长龙</t>
+          <t>上纬新材</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>114.78</v>
+        <v>110.48</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>20</v>
@@ -1101,466 +1106,459 @@
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>军工|公司专注于军事装备领域,主要从事以非金属复合材料的性能研究、工艺结构设计和应用技术为核心的军用车辆配套装备的研发、设计、生产和销售业务。</t>
+          <t>智元机器人拟入主|上纬新材8日盘后公告，智元恒岳与致远新创合伙拟以协议转让的方式受让SWANCOR萨摩亚和金风投控所持有的公司29.99%的股份。本次权益变动后，公司控股股东将由SWANCOR萨摩亚变更为智元恒岳。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>智元机器人拟入主</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.36</v>
+        <v>1.46</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>据中国机械工业联合会消息，今年上半年，新能源汽车市场渗透率达44.3%，创同期历史新高。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sh603767</t>
+          <t>sh603179</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>中马传动</t>
+          <t>新泉股份</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>21.9</v>
+        <v>46.2</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司招股说明书显示，将以现有汽车变速器齿轮、汽车转向器齿轮、汽车油泵轴齿轮、汽车发动机齿轮、摩托车发动机齿轮、农机变速器齿轮为发展基础，大力开拓汽车自动变速器行星齿轮、工业机器人减速器齿轮等高精度齿轮产品领域。</t>
+          <t>汽车零部件|公司是汽车饰件整体解决方案提供商，拥有较为完善的汽车饰件产品系列，主要产品包括仪表板总成、顶置文件柜总成、门内护板总成、立柱护板总成、流水槽盖板总成和保险杠总成等。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.36</v>
+        <v>1.46</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>据中国机械工业联合会消息，今年上半年，新能源汽车市场渗透率达44.3%，创同期历史新高。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sz300486</t>
+          <t>sh600626</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>东杰智能</t>
+          <t>申达股份</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>16.99</v>
+        <v>4.46</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.12</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>机器人+签订大单|1.公司是一家研制开发的工业机器人及柔性自动化生产线采用先进的现场总线和实时智能控制系统的公司。
-2.东杰智能公告称，公司境外全资子公司Oriental Material Handling(Malaysia)Sdn.Bhd.获得PTT LOGISTICS SDN BHD采购订单，订单总金额37,090,000马来西亚林吉特，按公告日汇率约合人民币6250万元。</t>
+          <t>纺织+汽车|公司是一家以进出口贸易、产业用纺织品研发与制造为主的多元化经营上市公司，主要业务包括以汽车内件及声学元件和纺织新材料业务为主的产业用纺织品业务、以及纺织品为主的外贸进出口和国内贸易业务。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>机器人, 签订大单</t>
+          <t>纺织, 汽车</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.36</v>
+        <v>1.46</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>据中国机械工业联合会消息，今年上半年，新能源汽车市场渗透率达44.3%，创同期历史新高。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sh603286</t>
+          <t>sh603655</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>日盈电子</t>
+          <t>朗博科技</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>33.85</v>
+        <v>34.32</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>电子皮肤|公司看好汽车零部件企业进军人形机器人领域的产业机遇，积极投入以柔性触觉传感电子皮肤为代表的新产品开发，公司压阻式的电子皮肤样品已研发成功。</t>
+          <t>汽车零部件|公司产品主要是橡胶密封件，用于汽车空调系统、动力总成系统、制动系统等。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>电子皮肤</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.36</v>
+        <v>1.46</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>据中国机械工业联合会消息，今年上半年，新能源汽车市场渗透率达44.3%，创同期历史新高。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sz002901</t>
+          <t>sh603089</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>大博医疗</t>
+          <t>正裕工业</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>49.15</v>
+        <v>17.66</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>10</v>
+        <v>10.03</v>
       </c>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>手术机器人|旗下大博创新科技研发中心致力于生物医用材料、增材制造、手术机器人、再生医学等行业前沿技术研究及行业共性问题解决。</t>
+          <t>汽车零部件|专业从事汽车悬架系统减震器的研发、生产与销售，主要是为中高档汽车售后市场及整车配套企业提供适配的悬架系统减震器系列产品和相关服务。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>手术机器人</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.36</v>
+        <v>1.46</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>据中国机械工业联合会消息，今年上半年，新能源汽车市场渗透率达44.3%，创同期历史新高。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sz002046</t>
+          <t>sh603400</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>国机精工</t>
+          <t xml:space="preserve">华之杰  </t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>21.21</v>
+        <v>60.5</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>10.01</v>
+        <v>10</v>
       </c>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>机器人+工业母机|1.公司有部分轴承产品可用于机器人领域。
-2.公司生产用于数控机床的精密轴承。</t>
+          <t>次新+汽车|公司设立汽车电子研发部，专注于锂电池电源管理、智能控制、无刷电机驱动和控制等技术在新能源汽车领域的应用研发。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>机器人, 工业母机</t>
+          <t>次新, 汽车</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.36</v>
+        <v>1.46</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>据中国机械工业联合会消息，今年上半年，新能源汽车市场渗透率达44.3%，创同期历史新高。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sh605118</t>
+          <t>sz000980</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>力鼎光电</t>
+          <t>众泰汽车</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>35.19</v>
+        <v>2.23</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>10</v>
+        <v>9.85</v>
       </c>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>无人机+机器人|1.公司在无人机镜头积累的技术经验为切入口，继续与合作伙伴共同推动低空经济领域产品的创新和投入，以公司在夜视光学硬件上的良好基础深度融合计算光学新思维，进一步深入民用微光夜视赛道，推进红外热成像、医疗健康相关产品研发和市场发展。
-2.公司镜头产品在AI或机器人领域的作用主要是为其提供更加清晰、完整、高效的视觉捕捉和视觉识别。</t>
+          <t>汽车整车+智能驾驶|1.公司是国内较早进入新能源汽车领域的车企，已具备新能源汽车完整的整车设计、试制、试验和零部件开发能力。
+2.公司推进新技术、新材料、核心零部件开发，加速OTA技术、智慧座舱、自动驾驶等智能科技研发，在智能网联和无人驾驶等项目实现创新，为智能出行领域提供有效解决方案。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>无人机, 机器人</t>
+          <t>汽车整车, 智能驾驶</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.36</v>
+        <v>1.08</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sz002148</t>
+          <t>sh601606</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>北纬科技</t>
+          <t>长城军工</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>7.79</v>
+        <v>42.71</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I20" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>机器人+车联网|1.参股的天宇经纬公司自主研发的天宇云盒和御空低空智能管控平台，可协助无人机、机器狗等设备实现实时联网、远程控制、信息回传等作业功能，目前天宇经纬从客户需求出发，与宇树科技在机器狗应用领域开展生态合作，为行业客户提供解决方案。
-2.在物联网业务的车联网应用层面，公司积累了蔚来汽车、福田汽车、享道出行、特来电、毫末智行、海纳川等众多优质客户。</t>
+          <t>军工|公司自成立以来，在保证军品业务的同时，不断开拓民品市场，民品业务保持稳步增长。多年以来，公司军品订货量保持全国地方军工订货量的领先地位。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>机器人, 车联网</t>
+          <t>军工</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.36</v>
+        <v>1.08</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sz001306</t>
+          <t>sh603516</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>夏厦精密</t>
+          <t>淳中科技</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>91.8</v>
+        <v>72.66</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>10.01</v>
       </c>
-      <c r="I21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>工业母机+机器人|1.全资子公司夏拓智能有数控机床、工业母机类产品。
- 2.减速机及其配件产品应用领域为机器人，主要用于机器人的关键传动部件。</t>
+          <t>军工+液冷IDC|1.公司推出的Poseidon(波塞冬)系统满足了军队对图像信息一体化的要求。公司先后参与完成了某军事科学院、某空军机场调度指挥中心、某战时指挥部、某军分区指挥中心等大量国防项目的建设。
+2.公司与N公司对接的业务主要是各类产品的测试与检测平台，目前正在对接的产品包括：液冷测试平台、基于AI的检测平台、各种测试板卡等。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>工业母机, 机器人</t>
+          <t>军工, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.36</v>
+        <v>1.08</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sz002026</t>
+          <t>sh600698</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>山东威达</t>
+          <t>湖南天雁</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>13.53</v>
+        <v>11.89</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>机器人|相继收购了上海拜骋电器有限公司、济南第一机床有限公司和苏州德迈科电气有限公司等，形成了精密机械零部件制造、中高档数控机床制造和机器人自动化三大互补的产业板块。</t>
+          <t>军工+汽车|公司控股股东是中国兵器装备集团旗下中国长安汽车集团，公司是国内最早生产车用涡轮增压器的企业。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>军工, 汽车</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.36</v>
+        <v>1.08</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sh603119</t>
+          <t>sz000901</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>浙江荣泰</t>
+          <t>航天科技</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>60.06</v>
+        <v>14.63</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>10</v>
@@ -1568,193 +1566,192 @@
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司已有产品通过直接或者间接的业务渠道向机器人的海外厂商供货或者进行相关产品的业务开发。</t>
+          <t>军工+商业航天|1.中国航天科工集团旗下上市公司，航天应用产品主要是以惯性导航加速度传感器、测试测控设备、专用电源、精密制造为主要业务方向，完成国家武器装备及载人航天配套任务。
+2.公司航天应用产品包括惯性导航加速度传感器、精密制造、测试测控设备、专用电源，部分可配套商业航天。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>军工, 商业航天</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>医药</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.36</v>
+        <v>-0.22</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>银河证券研报认为，医药板块估值经历较长时间调整，近期已呈现显著结构性修复趋势，但公募基金重仓持仓水平仍低于历史均值。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sh603667</t>
+          <t>sh603811</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>五洲新春</t>
+          <t>诚意药业</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>37.29</v>
+        <v>14.8</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I24" s="2" t="inlineStr"/>
+        <v>10.04</v>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>滚珠丝杠|公司成功研发多个滚珠丝杠相关产品，滚珠丝杠为人形机器人线性关节关键零部件之一。</t>
+          <t>创新药|公司坚持以海洋药物、中医药、生物医药为主的产品开发策略。在神经系统、内分泌系统等方面对创新药物与大健康类相关产品进行布局。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>滚珠丝杠</t>
+          <t>创新药</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>医药</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.36</v>
+        <v>-0.22</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2025世界机器人大会将于8月8日至12日在北京经济技术开发区举办，200余家国内外机器人企业的1500余件展品集中亮相，首发新品超100款，首发新品数量是去年的近2倍。</t>
+          <t>银河证券研报认为，医药板块估值经历较长时间调整，近期已呈现显著结构性修复趋势，但公募基金重仓持仓水平仍低于历史均值。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sz002009</t>
+          <t>sh600252</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>天奇股份</t>
+          <t>中恒集团</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>17.42</v>
+        <v>3.01</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>9.969999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>机器人+汽车拆解|1.公司工业人形机器人已进入新能源汽车工厂总装车间进行实景训练，人形机器人在汽车制造领域的应用落地稳步推进。
-2.公司报废汽车回收再利用业务以子公司宁波回收为核心开展，围绕宁波及周边地区开展报废汽车回收拆解业务。</t>
+          <t>受让药物技术|中恒集团公告称，公司全资子公司中恒创新以5500万元受让中国融通科研院在上海技术交易所公开挂牌转让的一种治疗慢性心力衰竭的药物技术（专利权）。该药物为中国人民解放军海军军医大学首次发现的可显著提升心肌组织能量代谢的全新靶点化合物，目前处于临床前研究阶段。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>机器人, 汽车拆解</t>
+          <t>受让药物技术</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>医药</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.16</v>
+        <v>-0.22</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
+          <t>银河证券研报认为，医药板块估值经历较长时间调整，近期已呈现显著结构性修复趋势，但公募基金重仓持仓水平仍低于历史均值。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sh601089</t>
+          <t>sz002022</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>福元医药</t>
+          <t>科华生物</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>29.19</v>
+        <v>7.7</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>5天3板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>辅助生殖+创新药|1.公司全资子公司浙江爱生药业有限公司生产的黄体酮软胶囊通过仿制药质量和疗效一致性评价，该药品用于治疗先兆流产和习惯性流产、经前期紧张综合症、无排卵型功血和无排卵型闭经、与雌激素联合使用治疗更年期综合症。
-2.公司创新药聚焦核酸类药物研发，截至2023年6月，公司创新药在研项目4个。</t>
+          <t>艾滋病检测|科华生物自主研发的HIV抗体检测试剂(胶体金法),采用先进的免疫层析技术,实现快速、精准和便捷的HIV抗体筛查,助力全球艾滋病防控。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>辅助生殖, 创新药</t>
+          <t>艾滋病检测</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>医药</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.16</v>
+        <v>-0.22</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
+          <t>银河证券研报认为，医药板块估值经历较长时间调整，近期已呈现显著结构性修复趋势，但公募基金重仓持仓水平仍低于历史均值。</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sh603811</t>
+          <t>sz002275</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>诚意药业</t>
+          <t>桂林三金</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>13.45</v>
+        <v>17.38</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>9.98</v>
+        <v>10</v>
       </c>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司坚持以海洋药物、中医药、生物医药为主的产品开发策略。在神经系统、内分泌系统等方面对创新药物与大健康类相关产品进行布局。</t>
+          <t>创新药|2025年5月，公司控股孙公司宝船生物收到国家药品监督管理局核准签发的BC006单抗注射液的临床试验批件，同意本品开展用于特发性肺纤维化适应症的临床试验。</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1766,375 +1763,377 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>eSIM</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.16</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
+          <t>近日，中国联通携手中兴通讯推出基于eSIM技术打造的云电脑PAD产品，侧面印证了电信运营商将重启eSIM业务的传闻。</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sz002020</t>
+          <t>sz002017</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>京新药业</t>
+          <t>东信和平</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>18.11</v>
+        <v>27.16</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司创新药布局主要集中在精神神经管线和心脑血管管线。公司第一个1类新药、适用于失眠患者短期治疗的京诺宁r（地达西尼胶囊）于2024年3月底实现了上市销售。截止2024年年报，JX11502MA胶囊和康复新肠溶胶囊均完成IIa阶段，获得预期效果。其中，JX11502MA胶囊在报告期末已经顺利开启IIb阶段的病例入组。</t>
+          <t>eSIM+稳定币|1.公司聚焦物联网及信息安全产业，为行业客户提供数字身份安全模块（eSIM、eSE、RFID产品）、数字安全管理平台及行业解决方案。
+2.上海树图区块链研究院与AnchorX、东信和平达成战略合作，将在“一带一路”共建国家共同推进离岸人民币稳定币发行、跨境结算、RWA等应用场景的海外标杆项目落地。</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>eSIM, 稳定币</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>eSIM</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.16</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
+          <t>近日，中国联通携手中兴通讯推出基于eSIM技术打造的云电脑PAD产品，侧面印证了电信运营商将重启eSIM业务的传闻。</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sh600513</t>
+          <t>sz300689</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>联环药业</t>
+          <t>澄天伟业</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>20.82</v>
+        <v>56.72</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>9.98</v>
+        <v>19.99</v>
       </c>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>创新药|主要产品有创新药物爱普列特片(川流)，新药依巴斯汀片(苏迪)、非洛地平片(联环尔定)、非洛地平缓释胶囊(联环笑定)等二十多个。</t>
+          <t>eSIM|公司是智能卡行业首家一站式服务供应商，可以对客户提供ESIM核心的数据处理、数据写入、个性化处理服务，可以满足ESIM卡数据个性化的市场需求。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>eSIM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>PEEK材料</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.16</v>
+        <v>3.93</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
+          <t>中金公司发布研报称，人形机器人轻量化大势所趋，越来越多的人形机器人厂商在产品迭代时加码轻量化。材料优化上，镁铝合金、peek材料各有所长。</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sz300199</t>
+          <t>sz002915</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>翰宇药业</t>
+          <t>中欣氟材</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>24.32</v>
+        <v>22.21</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>19.98</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司专注于多肽药物及小核酸领域，产品及业务覆盖多肽创新药，全球多肽制剂管线已有超过40种药品在不同阶段（上市、注册、临床、开发）获得批准。此外，公司与碳云智肽签署GLP-1R/GIPR/GCGR三重激动剂多肽创新药物联合开发协议。</t>
+          <t>PEEK|公司5000吨4,4’-二氟二苯酮（DFBP）项目已经于2023年5月建成并投入试生产，DFBP产品应用领域广泛，为PEEK材料上游主要原材料。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>PEEK</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>PEEK材料</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.16</v>
+        <v>3.93</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>国家医保局已制定“新上市药品首发价格机制”，支持高水平创新药上市初期获合理收益，并设价格稳定期，推行“联审通办”助助力药快速临床应用，有助于激励药企创新。</t>
+          <t>中金公司发布研报称，人形机器人轻量化大势所趋，越来越多的人形机器人厂商在产品迭代时加码轻量化。材料优化上，镁铝合金、peek材料各有所长。</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sh688265</t>
+          <t>sz301076</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>南模生物</t>
+          <t>新瀚新材</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>43.73</v>
+        <v>37.15</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>20.01</v>
+        <v>19.99</v>
       </c>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>创新药|截至2023年末，公司累计研发构建了超过18,000种模型，在抗体偶联药物（ADC）、双抗、多抗药物、小核酸类药物、细胞治疗等研究领域自主研发标准化模型超过11,000余种，为客户提供了超过7,500种的定制化模型，积累了深厚的基因修饰动物模型开发经验。</t>
+          <t>PEEK|公司产品DFBP是下游客户生产PEEK的主要原料，威格斯、索尔维、赢创、中研股份均是公司重要客户。</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>PEEK</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.89</v>
+        <v>1.97</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
+          <t>8月4日18时21分，我国在海南商业航天发射场使用长征十二号运载火箭，成功将卫星互联网低轨07组卫星发射升空。</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sh603859</t>
+          <t>sz300069</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>能科科技</t>
+          <t>金利华电</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>42.61</v>
+        <v>25.64</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>9.99</v>
+        <v>19.98</v>
       </c>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>AI智能体|公司的乐仓智能体（AI Agent）具备AI百科、AI创造及AI搜索能力，能够快速进行应用创造。</t>
+          <t>商业航天|公司拟并购标的海德利森高压流体配套装备在商业航天领域主要应用于低空运输、火箭回收、海上发射等场景。</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>AI智能体</t>
+          <t>商业航天</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.89</v>
+        <v>1.97</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
+          <t>8月4日18时21分，我国在海南商业航天发射场使用长征十二号运载火箭，成功将卫星互联网低轨07组卫星发射升空。</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sz002980</t>
+          <t>sz300943</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>华盛昌</t>
+          <t>春晖智控</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>23.87</v>
+        <v>18.62</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>10</v>
+        <v>19.97</v>
       </c>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>AI智能体|公司最新发布的AI-7760电能质量分析仪是基于该大模型创新性集成多个AI智能体，深度整合了行业知识图谱，涵盖产品手册、行业标准文档、学术论文、期刊文献以及丰富的行业问答数据等多维度信息，可结合RAG检索增强技术为行业用户提供专业的场景化的解答，该仪器可实时监测设备状态、深度理解用户指令、生成诊断分析报告、智能决策、自动高效执行。</t>
+          <t>商业航天+氢能|1.公司参股企业春晖仪表在商业航天领域产品主要为低轨卫星用的卫星解除装置，已完成产品的验证并已经供应少量产品用于客户进行卫星试验。
+2.公司氢气高压气态储运容器技术及装备研发是公司作为节能环保解决方案提供商及高端装备制造商在氢能领域的应用型项目。</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>AI智能体</t>
+          <t>商业航天, 氢能</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>天然气</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.89</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
+          <t>华泰证券研究指出，7月以来，北半球出行与发电需求支撑油价，当前的油价水平表明，实际原油市场的紧张程度或高于IEA供需平衡测算显示的庞大过剩。</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sz002558</t>
+          <t>sz002490</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>巨人网络</t>
+          <t>山东墨龙</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>26.53</v>
+        <v>6.39</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>9.99</v>
+        <v>9.98</v>
       </c>
       <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>游戏+AI|公司陆续搭建了一系列AI工具平台，涵盖视觉、语音、大语言模型等技术方向，对游戏策划、美术生产、程序开发、宣传发行、客户服务等业务环节进行赋能。</t>
+          <t>油气|全产业链石油钻采装备制造商，公司产品主要用于石油、天然气、煤层气、页岩气等能源的钻采，机械加工，城市管网等行业。</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>游戏, AI</t>
+          <t>油气</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>天然气</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.89</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>小米应用商店宣布与字节跳动旗下一站式AI Agent开发平台扣子达成合作，打通智能体一键发布能力，进一步拓展 AI 智能体分发服务体系。</t>
+          <t>华泰证券研究指出，7月以来，北半球出行与发电需求支撑油价，当前的油价水平表明，实际原油市场的紧张程度或高于IEA供需平衡测算显示的庞大过剩。</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sz300830</t>
+          <t>sh605169</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>金现代</t>
+          <t>洪通燃气</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>13.58</v>
+        <v>12.69</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>19.96</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>AI智能体|公司的AI智能问答产品-“小金智问”，是一款基于大语言模型研发的，支持私有化部署的智能问答产品。该产品可以作为插件，灵活的与企业的业务系统、移动APP、小程序等应用进行集成，从而将传统应用升级为智能化应用。小金智问是公司知识图谱、垂直大模型、图像识别、自然语言识别等AI技术成果的一个重要的体现，目前已在多个领域获得应用。</t>
+          <t>天然气|公司是一家专注清洁交通能源供应领域的天然气专业运营商，主营业务为LNG、CNG的生产、加工、储运和销售，以及居民用、商业用和工业用天然气的销售。</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>AI智能体</t>
+          <t>天然气</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>固态电池</t>
+          <t>超级水电</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.66</v>
+        <v>0.77</v>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>上汽确认全新MG4电动掀背车将成为全球首款搭载半固态电池的量产电动车，将于8月5日正式亮相。</t>
+          <t>7月19日，国家投资建设1.2万亿的超级水电项目正式宣布工程开工。</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -2142,45 +2141,49 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sh603200</t>
+          <t>sz002097</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>上海洗霸</t>
+          <t>山河智能</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>68.73999999999999</v>
+        <v>17.17</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I36" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>12天8板</t>
+        </is>
+      </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>固态电池+液冷IDC|1.公司生产的固态电解质粉体材料可以应用于锂离子固态电池，多形态固态电解质粉体材料（含油性、水性、浆料）年产50吨级产线主要采用的是氧化物技术路线，公司储备了硫化物、氯化物等固态电解质的其它固态电解质粉体技术路线。
-2.公司面向腾讯、华为、中国移动等重点客户数据中心提供循环水/空气蒸发冷却等专业服务。</t>
+          <t>盾构机+军工|1.公司凿岩设备、硬岩掘进机、盾构机可应用于隧道施工。公司设备已参与项目前期地质处理，后续公司仍将积极配合合作伙伴参与雅下水电项目。
+2.公司参股企业山河星航研制各型工业级无人机，包括多旋翼军警用无人机、多旋翼植保机、无人直升机、固定翼无人机。</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>固态电池, 液冷IDC</t>
+          <t>盾构机, 军工</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>固态电池</t>
+          <t>超级水电</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.66</v>
+        <v>0.77</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>上汽确认全新MG4电动掀背车将成为全球首款搭载半固态电池的量产电动车，将于8月5日正式亮相。</t>
+          <t>7月19日，国家投资建设1.2万亿的超级水电项目正式宣布工程开工。</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -2188,311 +2191,288 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sz300584</t>
+          <t>sz002775</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>海辰药业</t>
+          <t>文科股份</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>41.27</v>
+        <v>5.85</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="I37" s="2" t="inlineStr"/>
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>8天5板</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>创新药+固态电池|1.公司及关联方是NMS集团的重要股东，作为欧洲顶尖的肿瘤药研发机构，NMS集团具有药物研发“一站式”服务平台，具有药物早期发现到药物注册上市完整的产业链。
-2.子公司安庆汇辰科技与赛科动力共同投资设立的四川洛辰聚焦于包括固态电池在内的新能源电池相关粘合剂材料的开发、优化、及产业化。</t>
+          <t>重组预期+超级水电|1.2025年7月23日盘后公告，公司为减少业务回款的不确定性风险，加快应收款项收回，拟与多家房地产公司进行债权重组和债务重组。
+2.公司前期已经在跟进雅鲁藏布江项目的环境生态工程业务。</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>创新药, 固态电池</t>
+          <t>重组预期, 超级水电</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>数据中心</t>
+          <t>高速连接器</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.36</v>
+        <v>2.51</v>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
+          <t>英伟达昨晚收涨3.62%报每股180美元，再创收盘新高。</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sz000533</t>
+          <t>sh601869</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>顺钠股份</t>
+          <t>长飞光纤</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>7.68</v>
+        <v>57</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>10.03</v>
+        <v>10</v>
       </c>
       <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>数据中心变压器|公司控股孙公司顺特设备在超算中心和数据中心这两个领域提供过干式变压器产品，曾向阿里巴巴、秦淮数据有限公司、万国数据服务有限公司、数据港股份有限公司等客户提供过变压器设备。</t>
+          <t>光模块+铜连接|子公司博创科技10G PON OLT 光模块出货量国内领先，在数通市场，已向多家国内外互联网客户批量供货25G 至400G 速率的中短距光模块、有源光缆和高速铜缆。</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>数据中心变压器</t>
+          <t>光模块, 铜连接</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>数据中心</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
-        </is>
-      </c>
+        <v>0.88</v>
+      </c>
+      <c r="C39" s="2" t="inlineStr"/>
       <c r="D39" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sz002484</t>
+          <t>sz000691</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>江海股份</t>
+          <t>*ST亚太</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>26.18</v>
+        <v>7.14</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>22天11板</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>服务器电容器|江海股份在互动平台表示，从已知GB300的方案看，公司铝电解电容器（MLPC）、超级电容器都适配，完全可以有方案达到其性能、功用要求，并正与相关服务器设计生产商交流探讨。</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>服务器电容器</t>
-        </is>
-      </c>
+          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>多家机构研报指出，英伟达考虑将在Rubin Ultra架构上考虑新方案，使用CoWop工艺，将芯片直接封装在PCB上, 该技术将载板和PCB进一步融合，将显著提升PCB价值量。</t>
-        </is>
-      </c>
+        <v>0.88</v>
+      </c>
+      <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sh603124</t>
+          <t>sh603389</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>江南新材</t>
+          <t xml:space="preserve">*ST亚振 </t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>59.96</v>
+        <v>26.1</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>10</v>
+        <v>4.99</v>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>5天5板</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>铜基新材料|公司主要从事铜基新材料的研发、生产与销售。公司核心产品包括铜球系列、氧化铜粉系列及高精密铜基散热片系列三大产品类别。公司自主研发的铜球系列产品已应用于各种类型与工艺的PCB以及光伏电池板的镀铜制程等领域；氧化铜粉系列产品已应用于PCB镀铜制程、锂电池PET复合铜箔制造、有机硅单体合成催化剂等领域。</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>铜基新材料</t>
-        </is>
-      </c>
+          <t>ST股 | 1.欧式家具龙头，以沙发和橱柜作为核心业务，主导产品为“亚振”、“亚振·利维亚”和“亚振·乔治亚”品牌系列欧式风格家具。
+2.公司入选“2022年度上海市首发经济引领性品牌”榜单。</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>多家机构研报指出，英伟达考虑将在Rubin Ultra架构上考虑新方案，使用CoWop工艺，将芯片直接封装在PCB上, 该技术将载板和PCB进一步融合，将显著提升PCB价值量。</t>
-        </is>
-      </c>
+        <v>0.88</v>
+      </c>
+      <c r="C41" s="2" t="inlineStr"/>
       <c r="D41" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sz301389</t>
+          <t>sh600696</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>隆扬电子</t>
+          <t xml:space="preserve">*ST岩石 </t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>51.72</v>
+        <v>6.33</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I41" s="2" t="inlineStr"/>
+        <v>4.98</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司是一家电磁屏蔽材料专业制造商，致力于为客户提供高质量的电磁屏蔽材料及完善的电磁干扰解决方案。</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>PCB</t>
-        </is>
-      </c>
+          <t>ST股 | 1.公司主要从事商业保理、融资租赁、不动产运营管理和大宗商品贸易。
+2.公司持有江西章贡酒业有限责任公司25%股权。章贡酒业是全国白酒工业百强企业，江西省重点酿酒企业。</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>盾构机</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>截至2025年，中国"一带一路"盾构机出口销量连续三年复合增长率超过30%，累计订单已超过100台，占总出口量的80%以上。</t>
-        </is>
-      </c>
+        <v>0.88</v>
+      </c>
+      <c r="C42" s="2" t="inlineStr"/>
       <c r="D42" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>sz002097</t>
+          <t>sz002199</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>山河智能</t>
+          <t>*ST东晶</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>15.61</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I42" s="2" t="inlineStr"/>
+        <v>4.96</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>盾构机+军工|1.公司凿岩设备、硬岩掘进机、盾构机可应用于隧道施工。公司设备已参与项目前期地质处理，后续公司仍将积极配合合作伙伴参与雅下水电项目。
-2.公司参股企业山河星航研制各型工业级无人机，包括多旋翼军警用无人机、多旋翼植保机、无人直升机、固定翼无人机。</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>盾构机, 军工</t>
-        </is>
-      </c>
+          <t>ST股 | 公司致力于高精度、高稳定性、高品质石英晶体元器件系列产品的研发、设计与生产。公司与日本松下、索尼、东芝、夏普、 JVC，以及韩国三星、LG 和国内华为、中兴、 OPPO、小米等公司保持长期稳定的战略合作关系。</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>国际半导体产业协会（SEMI）的最新数据显示，2025年第二季度全球硅晶圆出货量达到3327百万平方英寸，与2024年同期的3035百万平方英寸相比增长9.6%。</t>
-        </is>
-      </c>
+        <v>0.88</v>
+      </c>
+      <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sh688110</t>
+          <t>sz002289</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>东芯股份</t>
+          <t>*ST宇顺</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>68.88</v>
+        <v>22.45</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>5天3板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司投资的上海砺算坚持自研架构，产品可实现端、云、边的主流图形渲染和AI加速，对标主流GPU架构，与外部生态无缝兼容，力争解决国产主流完整GPU架构自主可控的关键问题。</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>算力芯片</t>
-        </is>
-      </c>
+          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2501,37 +2481,36 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>sh603389</t>
+          <t>sz002898</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST亚振 </t>
+          <t>*ST赛隆</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>24.86</v>
+        <v>16.45</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>4.98</v>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>6天3板</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.欧式家具龙头，以沙发和橱柜作为核心业务，主导产品为“亚振”、“亚振·利维亚”和“亚振·乔治亚”品牌系列欧式风格家具。
-2.公司入选“2022年度上海市首发经济引领性品牌”榜单。</t>
+          <t>ST股 | 公司已建成集医药中间体、原料药、制剂的研发、生产、营销和技术服务为一体的医药全产业链的现代化制药企业。</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr"/>
@@ -2543,36 +2522,36 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
       <c r="D45" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sz002693</t>
+          <t>sz002305</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>*ST双成</t>
+          <t>*ST南置</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>9.16</v>
+        <v>3.1</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>5.050000000000001</v>
+        <v>5.08</v>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 地处海南省海口市，专业从事化学合成多肽药品。</t>
+          <t>ST股 | 公司是一家武汉市以商业地产为引导的综合性物业开发企业。</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr"/>
@@ -2584,36 +2563,36 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
       <c r="D46" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sz002199</t>
+          <t>sz000851</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>*ST东晶</t>
+          <t>*ST高鸿</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>9.48</v>
+        <v>2.25</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>4.98</v>
+        <v>5.140000000000001</v>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天2板</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司致力于高精度、高稳定性、高品质石英晶体元器件系列产品的研发、设计与生产。公司与日本松下、索尼、东芝、夏普、 JVC，以及韩国三星、LG 和国内华为、中兴、 OPPO、小米等公司保持长期稳定的战略合作关系。</t>
+          <t>ST股 | 公司与全球领先的数据中心运营商Equinix成立的合资公司开始进行运作,目前在运营3个数据中心,在上海参建1个数据中心。</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr"/>
@@ -2625,36 +2604,32 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
       <c r="D47" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sz002289</t>
+          <t>sz002742</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>*ST宇顺</t>
+          <t>*ST三圣</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>21.38</v>
+        <v>5.41</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
+          <t>ST股 | 公司全资子公司辽源市百康药业有限责任公司对乙酰氨基酚的产能是5000吨/年，现在处于满产满销的状态。</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr"/>
@@ -2666,37 +2641,32 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
       <c r="D48" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sh600696</t>
+          <t>sz000972</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST岩石 </t>
+          <t>*ST中基</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>6.03</v>
+        <v>3.52</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>5.050000000000001</v>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>5.07</v>
+      </c>
+      <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.公司主要从事商业保理、融资租赁、不动产运营管理和大宗商品贸易。
-2.公司持有江西章贡酒业有限责任公司25%股权。章贡酒业是全国白酒工业百强企业，江西省重点酿酒企业。</t>
+          <t>ST股 | 公司依托新疆得天独厚的地域和自然优势，致力于发展番茄“红色产业”，产业规模居于前列，产品行销世界数十国家和地区，是全球主要食品企业长期、固定的原料供应商。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr"/>
@@ -2708,32 +2678,32 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
       <c r="D49" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>sz002168</t>
+          <t>sz002789</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>*ST惠程</t>
+          <t>*ST建艺</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>3.83</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>4.93</v>
+        <v>5.06</v>
       </c>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司旗下控股子公司哆可梦以基于大数据精细化营销的流量经营业务和移动游戏的研发、发行及游戏平台的运营为主营业务</t>
+          <t>ST股 | 公司是集施工、设计、资源矿产、科技工业园、高新技术建材产业、投融资为一体的规模化实体企业集团。</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr"/>
@@ -2745,32 +2715,32 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
       <c r="D50" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>sh600289</t>
+          <t>sh603828</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ST信通  </t>
+          <t>ST柯利达</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>6.74</v>
+        <v>5.05</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>4.98</v>
+        <v>4.99</v>
       </c>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司在智能交通领域继续保持稳健发展，着重提升项目的盈利能力。</t>
+          <t>ST股 | 公司主营业务为建筑幕墙与建筑装饰工程的设计与施工，形成建筑装饰、幕墙、设计、装配化装修、装配化制造、PPP\EPC项目等多产业架构。</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr"/>
@@ -2782,32 +2752,32 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
       <c r="D51" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>sh603869</t>
+          <t>sz002822</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ST智知  </t>
+          <t>ST中装</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>7.4</v>
+        <v>3.63</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>4.96</v>
+        <v>4.91</v>
       </c>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2019年2月28日公司在互动平台表示，上海新氦类脑智能科技有限公司，由新奥集团下属的新智数字科技有限公司、复旦大学及杨浦区政府共同出资组建，是类脑芯片与片上智能系统研发与转化功能型平台的承载主体。</t>
+          <t>ST股 | 公司是一家以建筑装饰主业为依托，围绕基础设施建设服务的上下游进行产业链延展创新，融合幕墙、智能、机电、园林、新能源、物业管理、IDC等业务为一体的城乡建设综合服务提供商。</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr"/>
@@ -2819,32 +2789,32 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="C52" s="2" t="inlineStr"/>
       <c r="D52" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>sh600193</t>
+          <t>sz000488</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST创兴 </t>
+          <t>ST晨鸣</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>4.38</v>
+        <v>2.15</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>5.04</v>
+        <v>4.88</v>
       </c>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 围绕算力服务业务，公司目前已在江苏苏州、浙江杭州、北京等地部署了算力资源池，主要用于机器视觉类应用和游戏项目的测试工作。</t>
+          <t>ST股 | 公司是全国唯一一家实现制浆和造纸平衡的大型浆纸一体化企业，率先布局全产业链，在山东、广东、湖北、江西、吉林等地建有6个生产基地，年浆纸产能达1100多万吨。</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr"/>
@@ -2856,32 +2826,32 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="C53" s="2" t="inlineStr"/>
       <c r="D53" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>sz002592</t>
+          <t>sz002005</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>ST八菱</t>
+          <t>ST德豪</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>7.37</v>
+        <v>2.58</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>4.99</v>
+        <v>4.88</v>
       </c>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司配套氢燃料电池客车的产品技术目前已经形成商业化，广泛应用于燃气客车、混合动力客车和军车等领域。</t>
+          <t>ST股 | 小家电及LED双主营业务。是国内拥有包括LED芯片、LED封装、LED应用产品(照明和显示)、照明品牌及渠道在内的LED全产业链布局的极少数企业之一。</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr"/>
@@ -2889,150 +2859,186 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>1.11</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C54" s="2" t="inlineStr"/>
       <c r="D54" s="2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>sh600381</t>
+          <t>sh603059</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST春天 </t>
+          <t xml:space="preserve">倍加洁  </t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>4.59</v>
+        <v>40.88</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>5.029999999999999</v>
-      </c>
-      <c r="I54" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 在大健康业务方面，公司已基本完成了涵盖保健食品、药品等冬虫夏草高效利用产品的储备和战略布局。</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr"/>
+          <t>婴童|公司口腔护理类产品有儿童牙刷、儿童牙膏等适合婴童的产品；湿巾类产品有婴儿湿巾类产品。</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>婴童</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>1.11</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>sz002214</t>
+          <t>sh600203</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>*ST大立</t>
+          <t>福日电子</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>10.73</v>
+        <v>12.9</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="I55" s="2" t="inlineStr"/>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司整合在红外监控、光电惯导、图像识别及人工智能等领域的技术储备和研发投入，成功研发多型巡检机器人。</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr"/>
+          <t>无人机|公司子公司中诺通讯为大疆提供部分无人机及配件代工服务，部分产品已完成交货。</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>无人机</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>1.11</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
       <c r="D56" s="2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>sh600421</t>
+          <t>sz002706</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST华嵘 </t>
+          <t>良信股份</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>6.42</v>
+        <v>10.03</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="I56" s="2" t="inlineStr"/>
+        <v>9.98</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司实控人是中天控股集团下属浙江恒顺投资，集团旗下中天氟硅2023年撤回ipo，原计划通过IPO募集14.42亿元资金，用于30万吨/年有机硅单体扩能技改及综合利用项目。</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr"/>
+          <t>IDC电源|公司与华为在5G应用、电源类产品提供了模块化、智能化产品方案，在数据中心绿电接入、储能配套等领域提供电气解决方案。</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>IDC电源</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>1.11</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
       <c r="D57" s="2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>sz002898</t>
+          <t>sh688659</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>*ST赛隆</t>
+          <t>元琛科技</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>15.67</v>
+        <v>11.53</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>5.029999999999999</v>
+        <v>19.98</v>
       </c>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司已建成集医药中间体、原料药、制剂的研发、生产、营销和技术服务为一体的医药全产业链的现代化制药企业。</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr"/>
+          <t>复合铜箔|复合铜箔方面，公司PET复合铜箔已产生小批量订单；复合铝箔方面，公司完成锂电充放倍率3C且长寿命循环，反射膜、耐温阻隔膜小批量投产。</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>复合铜箔</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3047,37 +3053,34 @@
       </c>
       <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>sz001331</t>
+          <t>sh603380</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>胜通能源</t>
+          <t xml:space="preserve">易德龙  </t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>15.39</v>
+        <v>33.11</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>油气+物流|公司主营业务为LNG的采购、运输、销售以及原油、普货的运输服务。公司凭借自身稳定规模化的LNG槽车运载能力，依托覆盖全国的LNG采销业务网络，运用高效的信息化互联网管理平台，为工业燃料、城镇燃气、交通燃料等应用领域客户提供一站式LNG运贸解决方案。</t>
+          <t>消费电子+算力|1.公司是一家主要面向全球高端客户的电子制造服务商，专注于通讯、工业控制、消费电子、医疗电子、汽车电子等领域。
+2.公司通讯类产品包括服务器信号接口板，主要客户为浪潮，产品应用于服务器。</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>油气, 物流</t>
+          <t>消费电子, 算力</t>
         </is>
       </c>
     </row>
@@ -3094,37 +3097,33 @@
       </c>
       <c r="C59" s="2" t="inlineStr"/>
       <c r="D59" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>sz002775</t>
+          <t>sh603176</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>文科股份</t>
+          <t>汇通集团</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>5.32</v>
+        <v>6.84</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>7天4板</t>
-        </is>
-      </c>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>重组预期|2025年7月23日盘后公告，公司为减少业务回款的不确定性风险，加快应收款项收回，拟与多家房地产公司进行债权重组和债务重组。</t>
+          <t>水利基建|公司具备水利水电工程施工总承包叁级资质，参与建设的水利工程项目有高碑店市2017年度地下水超采综合治理农村生活用水置换工程等。</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>重组预期</t>
+          <t>水利基建</t>
         </is>
       </c>
     </row>
@@ -3141,37 +3140,34 @@
       </c>
       <c r="C60" s="2" t="inlineStr"/>
       <c r="D60" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>sh603059</t>
+          <t>sh600808</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">倍加洁  </t>
+          <t>马钢股份</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>37.16</v>
+        <v>3.71</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>10.09</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>婴童|公司口腔护理类产品有儿童牙刷、儿童牙膏等适合婴童的产品；湿巾类产品有婴儿湿巾类产品。</t>
+          <t>钢铁+数据中心|1.公司主营业务为钢铁产品的生产和销售，是中国最大钢铁生产和销售商之一，生产过程主要有炼铁、炼钢、轧钢等。
+2.长三角数据中心项目由马钢集团通过其控股子公司飞马智科与中国联通安徽公司、联想集团和腾讯云共同策划建设，目前仍在前期准备阶段。公司持有飞马智科18.19% 的股权。</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>婴童</t>
+          <t>钢铁, 数据中心</t>
         </is>
       </c>
     </row>
@@ -3188,37 +3184,34 @@
       </c>
       <c r="C61" s="2" t="inlineStr"/>
       <c r="D61" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>sz300289</t>
+          <t>sh600475</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>利德曼</t>
+          <t>华光环能</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>10.14</v>
+        <v>15.92</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>10.02</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>并购重组|2025年7月30日公告，公司正在筹划以支付现金方式收购北京先声祥瑞生物制品股份有限公司部分股东持有的目标公司合计不超过70%的股份。本次交易预计构成重大资产重组。目标公司是一家主要从事体内诊断试剂及人用疫苗的企业，主要产品为结核菌素纯蛋白衍生物，卡介菌纯蛋白衍生物，结核分枝杆菌特异性细胞免疫反应检测试剂盒，主要应用于结核筛查、诊断、治疗及创新疫苗领域。</t>
+          <t>光伏+电力|1.子公司中设国联拥有光伏开发运营能力，能够提供专业的光伏发电服务和系统解决方案，截至2024年年报，开发运营有325MW光伏项目，区域覆盖江苏、安徽、山东、浙江、江西、广东等多省市地区。
+2.公司是无锡地区的热电运营龙头，公司占无锡市区热电联产供热市场的70%左右。</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>并购重组</t>
+          <t>光伏, 电力</t>
         </is>
       </c>
     </row>
@@ -3235,37 +3228,33 @@
       </c>
       <c r="C62" s="2" t="inlineStr"/>
       <c r="D62" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>sh600651</t>
+          <t>sz002795</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>飞乐音响</t>
+          <t>永和智控</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>6.12</v>
+        <v>6.55</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>10.08</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>参股上海智能算力|公司控股股东上海仪电集团与阶跃星辰共同参股上海智能算力科技公司。</t>
+          <t>医疗器械|子公司成都永和成医疗科技有限公司主营业务为医疗器械研发、租赁及销售。</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>参股上海智能算力</t>
+          <t>医疗器械</t>
         </is>
       </c>
     </row>
@@ -3282,33 +3271,34 @@
       </c>
       <c r="C63" s="2" t="inlineStr"/>
       <c r="D63" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>sh601929</t>
+          <t>sz000665</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>湖北广电</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>2.12</v>
+        <v>6.22</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>9.84</v>
+        <v>10.09</v>
       </c>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>电影《731》|备受关注的电影《731》宣布将于9月18日上映。长影集团为《731》制作方，长影集团与吉视传媒等签署合作协议，涉及影视 IP 开发、数字内容生产等新兴领域。</t>
+          <t>数据要素+算力|1.公司建设运营国家文化大数据华中区域云平台。国家文化大数据华中区域中心是国家文化大数据体系八大区域中心之一，上联国家文化大数据全国中心，下接行政大区内省域中心，负责华中区域内五省之间的数据、信息、产品等交易和结算。
+2.2024年6月12日公告，公司拟以全资子公司湖北广电网络数字科技有限公司作为平台和载体，与武汉华鑫信股权投资集团有限公司共同投资建设光谷智算中心，以支撑广电以及互联网等企事业的AI算力需求，预计部署算力规模不少于25000P，基建投资为25亿元，后期将根据项目具体落实情况适度扩大建设规模。</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>电影《731》</t>
+          <t>数据要素, 算力</t>
         </is>
       </c>
     </row>
@@ -3325,33 +3315,33 @@
       </c>
       <c r="C64" s="2" t="inlineStr"/>
       <c r="D64" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>sz002248</t>
+          <t>sh600610</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>华东数控</t>
+          <t xml:space="preserve">中毅达  </t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>10.11</v>
+        <v>13.6</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>10.01</v>
+        <v>10.03</v>
       </c>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>新型工业化|公司是中国机床行业生产、销售数控龙门导轨磨床数量最多、规模最大的机床制造企业，以研发和生产经营数控机床、普通机床及其关键功能部件为主营业务，产品有数控龙门铣床（龙门加工中心）、数控龙门磨床、数控外圆磨床、万能摇臂铣床、平面磨床、动静压主轴等机床和功能部件产品。</t>
+          <t>化工|公司主要经营主体为全资子公司赤峰瑞阳，主营业务为精细化工产品的生产与销售，产品为工业用季戊四醇、工业用双季戊四醇、工业用三季戊四醇、特级品季戊四醇等季戊四醇系列产品，工业用三羟甲基丙烷、工业用双三羟甲基丙烷等三羟甲基丙烷系列产品，食用酒精及主联副产品DDGS饲料等。</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>新型工业化</t>
+          <t>化工</t>
         </is>
       </c>
     </row>
@@ -3368,33 +3358,34 @@
       </c>
       <c r="C65" s="2" t="inlineStr"/>
       <c r="D65" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>sh605298</t>
+          <t>sz002173</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>必得科技</t>
+          <t>创新医疗</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>16.8</v>
+        <v>16.23</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>10.02</v>
+        <v>10.03</v>
       </c>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>高铁|公司主营中高速动车组列车、城轨列车等轨道交通车辆配套产品的研发、生产与销售，主要产品包括车辆通风系统、电缆保护系统和智能控制撒砂系统等系统化、系列化产品及其他轨道交通车辆配套产品。</t>
+          <t>AI医疗+脑机接口|1.参股全诊医学自主研发的全诊医疗大模型及AI产品已在国内多家知名医院成功应用。
+2.公司通过参股脑机接口技术公司——杭州博灵医疗科技有限公司的方式，间接介入到了该前沿技术领域。</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>高铁</t>
+          <t>AI医疗, 脑机接口</t>
         </is>
       </c>
     </row>
@@ -3411,33 +3402,33 @@
       </c>
       <c r="C66" s="2" t="inlineStr"/>
       <c r="D66" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>sh603150</t>
+          <t>sh605189</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>万朗磁塑</t>
+          <t>富春染织</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>38.4</v>
+        <v>16.4</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁|公司正在研发的钐铁氮稀土永磁材料目前处于中试阶段，未来形成的产品可应用在电机上。</t>
+          <t>纺织|公司是国内领先的色纱生产企业之一，主营业务为色纱的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>纺织</t>
         </is>
       </c>
     </row>
@@ -3454,33 +3445,33 @@
       </c>
       <c r="C67" s="2" t="inlineStr"/>
       <c r="D67" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>sz003023</t>
+          <t>sh603181</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>彩虹集团</t>
+          <t>皇马科技</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>28.42</v>
+        <v>15.04</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>9.98</v>
+        <v>10.02</v>
       </c>
       <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>电热蚊香|彩虹集团是国内家用柔性取暖和家用卫生杀虫行业的知名企业，其“彩虹”商标获得驰名商标认定，电热蚊香和电热毯曾被授予“中国名牌产品”称号。</t>
+          <t>化工|公司自成立以来一直专注于特种表面活性剂的研发、生产和销售，具有年产20万吨以上特种表面活性剂生产能力，是目前国内生产规模最大、品种最全、科技含量较高的特种表面活性剂生产企业之一。</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
-          <t>电热蚊香</t>
+          <t>化工</t>
         </is>
       </c>
     </row>
@@ -3497,33 +3488,34 @@
       </c>
       <c r="C68" s="2" t="inlineStr"/>
       <c r="D68" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>sh600203</t>
+          <t>sz300960</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>福日电子</t>
+          <t>通业科技</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>11.73</v>
+        <v>33.92</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>10.04</v>
+        <v>19.99</v>
       </c>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr">
         <is>
-          <t>华为+消费电子|公司全资子公司中诺通讯为华为提供智能手机等智能终端产品的ODM/JDM服务。</t>
+          <t>高铁+超级电容|1.公司主要从事轨道交通机车车辆电气产品的研发、生产、销售和维保服务，形成了电源产品、智能控制产品、电机及风机产品三大产品类型。
+2.公司的超级电容充电机作为超级电容储能式有轨、无轨电车的充电装置，主要是为以超级电容为储能器件的电车进站后30秒内将超级电容充电完毕。</t>
         </is>
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
-          <t>华为, 消费电子</t>
+          <t>高铁, 超级电容</t>
         </is>
       </c>
     </row>
@@ -3540,76 +3532,33 @@
       </c>
       <c r="C69" s="2" t="inlineStr"/>
       <c r="D69" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>sh600232</t>
+          <t>sh600748</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>金鹰股份</t>
+          <t>上实发展</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>6.95</v>
+        <v>3.72</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>9.969999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>锂电池|公司业务包括锂电池正极材料的研发、生产与销售，产品包括三元正极材料系列产品以及锰酸锂系列产品。</t>
+          <t>房地产|公司控股股东为上海实业控股有限公司，公司主营业务为房地产开发与经营。</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr"/>
-      <c r="D70" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>sh600211</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>西藏药业</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>46.19</v>
-      </c>
-      <c r="H70" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>西藏+医药|公司产品涵盖生物制药、藏药、中药和化学药领域，已成长为集研发、生产、销售为一体的现代化医药企业。</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="inlineStr">
-        <is>
-          <t>西藏, 医药</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3660,18 +3609,18 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>sz001331</t>
+          <t>sh603059</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>胜通能源</t>
+          <t xml:space="preserve">倍加洁  </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -3690,12 +3639,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sh603059</t>
+          <t>sh603767</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">倍加洁  </t>
+          <t>中马传动</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3654,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sz300289</t>
+          <t>sz300486</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>利德曼</t>
+          <t>东杰智能</t>
         </is>
       </c>
     </row>
@@ -3720,12 +3669,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sh603286</t>
+          <t>sh603811</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>日盈电子</t>
+          <t>诚意药业</t>
         </is>
       </c>
     </row>
@@ -3735,12 +3684,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sh601089</t>
+          <t>sh600203</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>福元医药</t>
+          <t>福日电子</t>
         </is>
       </c>
     </row>
@@ -3750,12 +3699,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sz300486</t>
+          <t>sz002148</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>东杰智能</t>
+          <t>北纬科技</t>
         </is>
       </c>
     </row>
@@ -3765,12 +3714,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sz000534</t>
+          <t>sz002097</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>万泽股份</t>
+          <t>山河智能</t>
         </is>
       </c>
     </row>
@@ -3780,12 +3729,27 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sh603767</t>
+          <t>sh601606</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>中马传动</t>
+          <t>长城军工</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>sz002046</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>国机精工</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="100" customWidth="1" min="3" max="3"/>
+    <col width="95" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="292" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="201" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,15 +557,15 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.97</v>
+        <v>4.05</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>美国半导体行业协会（SIA）宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -573,48 +573,48 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sh688110</t>
+          <t>sh605169</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>东芯股份</t>
+          <t>洪通燃气</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>73.2</v>
+        <v>16.9</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>20</v>
+        <v>10.03</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>8天4板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司投资的上海砺算坚持自研架构，产品可实现端、云、边的主流图形渲染和AI加速，对标主流GPU架构，与外部生态无缝兼容，力争解决国产主流完整GPU架构自主可控的关键问题。</t>
+          <t>新疆+天然气|地处新疆巴州库尔勒市，专注清洁交通能源供应领域的天然气专业运营商。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>新疆, 天然气</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.97</v>
+        <v>4.05</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>美国半导体行业协会（SIA）宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -622,48 +622,44 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sh600619</t>
+          <t>sz002941</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>海立股份</t>
+          <t>新疆交建</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>19.71</v>
+        <v>13.81</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.04</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr"/>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>光刻机|海立集团与微电子装备集团双方领导以封装光刻机得冷却系统配套为起点，逐步从零部件级供应合作提升为系统级供应合作。</t>
+          <t>新疆+基建|地处新疆乌鲁木齐市，新疆地区资质最全、资质等级最高的路桥工程施工企业之一，业务范围辐射西藏、四川、青海、贵州等中西部地区。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>光刻机</t>
+          <t>新疆, 基建</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.97</v>
+        <v>4.05</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>美国半导体行业协会（SIA）宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -671,48 +667,44 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sh600651</t>
+          <t>sz002307</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>飞乐音响</t>
+          <t>北新路桥</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.28</v>
+        <v>4.61</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>10.02</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>芯片测试|模块封装及芯片测试服务业务以全资子公司上海仪电智能电子有限公司为主体，聚焦智能卡模块封测和芯片测试服务，模块封测业务产品主要包括接触式模块、非接触式模块、双界面模块三大类。</t>
+          <t>新疆+基建|公司是新疆最大的路桥施工企业之一，实力最强的大型公路工程施工企业之一，拥有国家公路工程施工总承包一级资质。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>芯片测试</t>
+          <t>新疆, 基建</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.97</v>
+        <v>4.05</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>美国半导体行业协会（SIA）宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -720,44 +712,44 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sz300671</t>
+          <t>sz002800</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>富满微</t>
+          <t>天顺股份</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>40.2</v>
+        <v>15.92</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>20</v>
+        <v>10.02</v>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>芯片|公司主要产品包括电源管理类芯片、LED控制及驱动类芯片、MOSFET类芯片及其他芯片等。</t>
+          <t>新疆+物流|地处新疆乌鲁木齐市，疆内第三方物流、供应链管理的龙头企业。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>芯片</t>
+          <t>新疆, 物流</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.97</v>
+        <v>4.05</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>美国半导体行业协会（SIA）宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -765,44 +757,44 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sz000670</t>
+          <t>sh600425</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>盈方微</t>
+          <t>青松建化</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.44</v>
+        <v>4.41</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>10.04</v>
+        <v>9.98</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>SoC芯片|公司专注于智能终端SoC芯片系统集成设计、图像信号处理（ISP）以及智能视频算法等核心技术研发、设计，现阶段主要产品为影像类SoC芯片，应用于智能家居、视频监控、运动相机、消费级无人机、教育机器人等领域。</t>
+          <t>新疆+水泥|新疆生产建设兵团旗下最大的水泥生产企业，南疆水泥龙头，拥有水泥产能超过1800万吨，全为新型干法水泥产能，对该区域内水泥销售价格的形成有较大影响力。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>SoC芯片</t>
+          <t>新疆, 水泥</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.97</v>
+        <v>4.05</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>美国半导体行业协会（SIA）宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -810,44 +802,44 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sz301129</t>
+          <t>sh600581</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>瑞纳智能</t>
+          <t>八一钢铁</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>34.06</v>
+        <v>4.24</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>20.01</v>
+        <v>10.13</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>第三代半导体|全资子公司合肥高纳半导体科技有限责任公司主要从事第三代半导体SiC单晶生长和设备研发、SiC衬底加工、SiC外延生产销售。目前有8英寸电阻炉和电感炉10台。</t>
+          <t>新疆+钢铁|新疆唯一的钢铁上市公司，拥有完整优质的炼铁、炼钢及轧钢生产系统，产品以高速线材、螺纹钢、热轧板卷、冷轧薄板、中厚板等建筑及工业用钢为主。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>第三代半导体</t>
+          <t>新疆, 钢铁</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.97</v>
+        <v>4.05</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>美国半导体行业协会（SIA）宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -855,44 +847,44 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sh603163</t>
+          <t>sh603080</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>圣晖集成</t>
+          <t>新疆火炬</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>35.48</v>
+        <v>22.1</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>洁净室系统集成|公司系为先进制造业提供洁净室系统集成工程整体解决方案的一站式专业服务商，涵盖洁净室厂房建造规划、设计建议等相关服务。</t>
+          <t>新疆+天然气|地处新疆喀什市，喀什地区供气量最大、覆盖区域最广的城市燃气综合服务商。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>洁净室系统集成</t>
+          <t>新疆, 天然气</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.97</v>
+        <v>4.05</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>美国半导体行业协会（SIA）宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -900,44 +892,44 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz300706</t>
+          <t>sz002205</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>阿石创</t>
+          <t>国统股份</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>47.66</v>
+        <v>14.37</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>19.99</v>
+        <v>10.03</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>半导体材料|公司是国内PVD镀膜材料行业产品品种较为齐全、工艺技术较为全面的综合型PVD镀膜材料生产商，产品主要分溅射靶材和蒸镀材料两个系列。</t>
+          <t>新疆+建材|公司地处新疆，主营业务为预应力钢筒混凝土管（PCCP）、各种输水管道及其异型管件和配件、地铁管片、PC构件、铁路轨道板、风电塔筒等高端混凝土制品的制造、运输及相关的技术开发和咨询服务，已参与部分水利工程配套项目。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>半导体材料</t>
+          <t>新疆, 建材</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.97</v>
+        <v>4.05</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>美国半导体行业协会（SIA）宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -945,45 +937,44 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sz001298</t>
+          <t>sz002302</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>好上好</t>
+          <t>西部建设</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>32.16</v>
+        <v>7.05</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>9.99</v>
+        <v>9.98</v>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>芯片+AI眼镜|1.公司是国内知名的电子元器件分销商，目前销售的存储芯片主要有晶豪（ESMT）、复旦微、Giantec（聚辰）、GigaDevice （兆易创新）等品牌的DRAM、eMMC、FLASH等存储器。
-2.公司基于TWS蓝牙芯片开发的TWS智能眼镜方案，具有兼容SBC、AAC、LPTX等多种音频格式，支持无缝主从切功能，高品质的音乐和逆声场声学系统，及通话降噪、支持AI语音等特点，项目进展为批量交付。</t>
+          <t>新疆+水泥|全国规模最大、研发能力最强的专业商品混凝土企业。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>芯片, AI眼镜</t>
+          <t>新疆, 水泥</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.97</v>
+        <v>4.05</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>美国半导体行业协会（SIA）宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -991,44 +982,44 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sh603290</t>
+          <t>sz300859</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>斯达半导</t>
+          <t>西域旅游</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>94.2</v>
+        <v>45.19</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>10</v>
+        <v>19.99</v>
       </c>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>功率半导体|公司主营业务是以IGBT为主的功率半导体芯片和模块的设计研发和生产，作为国内IGBT行业领军企业，2018年底公司已量产所有型号的IGBT芯片。</t>
+          <t>新疆+旅游|公司天山天池景区冬季冰雪娱乐项目主要有冰上龙舟赛、碰碰车、雪爬犁、滑雪圈、电动雪地摩托等近20项冰上项目。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>功率半导体</t>
+          <t>新疆, 旅游</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.97</v>
+        <v>4.05</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>美国半导体行业协会（SIA）宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -1036,29 +1027,29 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sz002213</t>
+          <t>sz000877</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>大为股份</t>
+          <t>天山股份</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>18.87</v>
+        <v>5.8</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>10.03</v>
+        <v>10.06</v>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>存储芯片|子公司深圳市大为创芯微电子科技有限公司主要产品有NAND、DRAM存储两大系列。目前大为创芯的DDR4以及LPDDR4X是嵌入式市场的主流方案，大为创芯LPDDR4X产品已通过RK3566、Amlogic S905系列平台认证，同时融合新兴技术，如人工智能、物联网、拓展存储、Chat GPT、AI手机、AI PC、AI服务器等对于存储解决方案的需求。</t>
+          <t>新疆+水泥|地处新疆乌鲁木齐市，西北地区最大的水泥生产企业，新疆第二大商品混凝土生产企业，西北地区最大的油井水泥生产基地。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>存储芯片</t>
+          <t>新疆, 水泥</t>
         </is>
       </c>
     </row>
@@ -1069,11 +1060,11 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.44</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8月6日，上海具身智能企业傅利叶正式发布全尺寸人形Care-bot GR-3，主打交互陪伴以及“可触摸”特性。</t>
+          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1081,33 +1072,34 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sh603767</t>
+          <t>sh600366</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>中马传动</t>
+          <t>宁波韵升</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>29.15</v>
+        <v>14.49</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7天6板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司招股说明书显示，将以现有汽车变速器齿轮、汽车转向器齿轮、汽车油泵轴齿轮、汽车发动机齿轮、摩托车发动机齿轮、农机变速器齿轮为发展基础，大力开拓汽车自动变速器行星齿轮、工业机器人减速器齿轮等高精度齿轮产品领域。</t>
+          <t>稀土永磁+机器人|1.国内钕铁硼龙头，专业从事稀土永磁材料（钕铁硼）的研发、制造和销售。具有年产坯料10000吨的生产能力，是中国主要的稀土永磁材料制造商之一。
+2.公司高度关注未来钕铁硼永磁材料应用可能出现大幅增长的新兴领域，如XR、人形机器人、eVTOL（电动垂直起降飞行器）等，向客户提供从磁材设计到磁材生产，再到磁组件的全流程服务，针对国内某人形机器人客户，已达到量产供货状态。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>稀土永磁, 机器人</t>
         </is>
       </c>
     </row>
@@ -1118,11 +1110,11 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.44</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8月6日，上海具身智能企业傅利叶正式发布全尺寸人形Care-bot GR-3，主打交互陪伴以及“可触摸”特性。</t>
+          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -1130,33 +1122,29 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sz002148</t>
+          <t>sz002164</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>北纬科技</t>
+          <t>宁波东力</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>10.37</v>
+        <v>10.51</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
+        <v>10.05</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>宇树科技机器狗|参股的天宇经纬公司自主研发的天宇云盒和御空低空智能管控平台，可协助无人机、机器狗等设备实现实时联网、远程控制、信息回传等作业功能，目前天宇经纬从客户需求出发，与宇树科技在机器狗应用领域开展生态合作，为行业客户提供解决方案。</t>
+          <t>机器人|公司的产品包括行星减速器等，杭州湾电机、减速器部分车间已投入生产。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>宇树科技机器狗</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
@@ -1167,11 +1155,11 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.44</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8月6日，上海具身智能企业傅利叶正式发布全尺寸人形Care-bot GR-3，主打交互陪伴以及“可触摸”特性。</t>
+          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -1179,34 +1167,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sz002046</t>
+          <t>sh600503</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>国机精工</t>
+          <t>华丽家族</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>28.23</v>
+        <v>2.94</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
+        <v>10.11</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>机器人+军工|1.公司有部分轴承产品可用于机器人领域。
-2.公司特种轴承主要服务于我国国防军工行业，应用于航空航天领域，包括超低温自润滑火箭发动机轴承、卫星能源系统轴承、宇宙飞船生命维持系统轴承、陀螺仪高灵敏轴承、偏置动量轮高可靠性、长寿命轴承及其组件等。</t>
+          <t>机器人|持有南江机器人50.82%的股权，是全产业链机器人公司；主要产品为面向智能制造和智能物流的智能移动机器人IAGV和智能搬运几期二年ICARRIER系列机器人。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>机器人, 军工</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
@@ -1217,11 +1200,11 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.44</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8月6日，上海具身智能企业傅利叶正式发布全尺寸人形Care-bot GR-3，主打交互陪伴以及“可触摸”特性。</t>
+          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -1229,28 +1212,24 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sz001380</t>
+          <t>sz002664</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>华纬科技</t>
+          <t>信质集团</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>25.12</v>
+        <v>24.42</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司主要从事弹簧的研发、生产和销售，公司生产的阀类及异形弹簧应用领域非常广泛，涉及乘用车、商用车、轨道交通、机器人等多个行业领域。</t>
+          <t>机器人|公司旗下鸿辉智能机器人产品线涵盖无框力矩电机、手部微型电机、无刷微电机（含齿槽）等，专注于人形机器人电机及机器人关节电机核心零部件的研发与生产。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1266,11 +1245,11 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.44</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8月6日，上海具身智能企业傅利叶正式发布全尺寸人形Care-bot GR-3，主打交互陪伴以及“可触摸”特性。</t>
+          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -1278,33 +1257,29 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sh603130</t>
+          <t>sh688577</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">云中马  </t>
+          <t>浙海德曼</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>42.72</v>
+        <v>69.8</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>19.99</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>机器人|参股公司中玺新材料（安徽）有限公司主营超高分子量聚乙烯的生产和销售，是超高分子量聚乙烯纤维的核心原材料。除了应用于超高纤维之外，该种材料下游应用还有管材、板材、滤材、锂电池隔膜、人工关节等。</t>
+          <t>机器人+工业母机|公司目前已经掌握了精密数控车床和高精密数控车床的制造技术，并形成了批量生产能力，在机器人行业得到了广泛应用。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>机器人, 工业母机</t>
         </is>
       </c>
     </row>
@@ -1315,11 +1290,11 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.44</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8月6日，上海具身智能企业傅利叶正式发布全尺寸人形Care-bot GR-3，主打交互陪伴以及“可触摸”特性。</t>
+          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -1327,33 +1302,30 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sz002611</t>
+          <t>sh603319</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>东方精工</t>
+          <t>美湖股份</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>17.2</v>
+        <v>32.66</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>机器人+英伟达|东方精工目前持有嘉腾机器人19.8366%的股权，英伟达NVIDIA曾在CES上展示嘉腾提供的AI大模型在AMR上的应用案例。</t>
+          <t>机器人|公司子公司衡山齿轮生产的减速机主要应用于陶瓷机械，有四大系列硬齿面减速机。
+2025年3月23日公告，公司拟与重庆市沙坪坝区招商投资促进中心签订《项目合作协议书》，计划总投资约7亿元建设美湖智造西部生产研发基地项目，主要开展可变排量泵、电子泵、谐波减速器、关节模组四大类产品的研发及生产。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>机器人, 英伟达</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
@@ -1364,11 +1336,11 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.44</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8月6日，上海具身智能企业傅利叶正式发布全尺寸人形Care-bot GR-3，主打交互陪伴以及“可触摸”特性。</t>
+          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -1376,24 +1348,24 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sh603648</t>
+          <t>sz001278</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>畅联股份</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>12.39</v>
+        <v>20.23</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>10.04</v>
+        <v>10.01</v>
       </c>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司先后为多家客户设计样品管理系统、UDI追溯管理系统、无纸化仓储操作系统、智能标签管理系统、智能出库等多项智能系统，以及自动码垛机械臂设备、AGV自动分拣机器人、智能顶载机器人、穿梭式货架、亮灯设备、立体库等智能设备，最大程度满足客户的个性化需求。</t>
+          <t>机器人|公司通过参股共青城民生创新智能投资合伙企业（有限合伙）间接投资法奥意威（苏州）机器人系统有限公司，持股比例为1.28%。法奥机器人主营全零部件自研协作机器人研发、制造及销售，产品主要应用场景有:3D 焊接机器人、移动焊接机器人、移动码垛工作站、螺丝锁付工作站、井字棋游戏机器人以及喷涂、上下料、餐饮制作等应用场景。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1409,11 +1381,11 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.44</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8月6日，上海具身智能企业傅利叶正式发布全尺寸人形Care-bot GR-3，主打交互陪伴以及“可触摸”特性。</t>
+          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -1421,210 +1393,212 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sh603959</t>
+          <t>sz301112</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>百利科技</t>
+          <t>信邦智能</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5.85</v>
+        <v>51.24</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>9.959999999999999</v>
+        <v>20</v>
       </c>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>机器人+固态电池|1.旗下无锡百擎智能机器人科技有限公司经营范围包括智能机器人的研发；工业机器人制造；工业机器人销售；智能机器人销售等。
-2.子公司百利锂电牵头制定了国内首部锂电池三元材料行业生产线建设标准，并承接了固态电池中硅碳负极产线的建设。</t>
+          <t xml:space="preserve">机器人|公司是一家以工业机器人及相关智能技术为核心的智能制造解决方案及装备的综合集成服务商，主营业务是从事汽车智能化、自动化生产线及成套装备等的设计、研发、制造、装配和销售。
+</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>机器人, 固态电池</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>中信建投研报指出，未来医疗器械板块中越来越多的投资机会来自国际化，多家企业25年国际业务有望实现高增长、业务收入占比持续提升，国际业务长期空间大的公司也有望迎来估值重塑。</t>
+          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sz300289</t>
+          <t>sz002046</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>利德曼</t>
+          <t>国机精工</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>9.77</v>
+        <v>31.05</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>20.02</v>
+        <v>9.99</v>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6天4板</t>
+          <t>5天5板</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>并购重组+医疗器械|2025年7月30日公告，公司正在筹划以支付现金方式收购北京先声祥瑞生物制品股份有限公司部分股东持有的目标公司合计不超过70%的股份。本次交易预计构成重大资产重组。目标公司是一家主要从事体内诊断试剂及人用疫苗的企业，主要产品为结核菌素纯蛋白衍生物，卡介菌纯蛋白衍生物，结核分枝杆菌特异性细胞免疫反应检测试剂盒，主要应用于结核筛查、诊断、治疗及创新疫苗领域。</t>
+          <t>机器人+商业航天|1.公司有部分轴承产品可用于机器人领域。
+2.公司特种轴承主要服务于我国国防军工行业，应用于航空航天领域，包括超低温自润滑火箭发动机轴承、卫星能源系统轴承、宇宙飞船生命维持系统轴承、陀螺仪高灵敏轴承、偏置动量轮高可靠性、长寿命轴承及其组件等。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>并购重组, 医疗器械</t>
+          <t>机器人, 商业航天</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>中信建投研报指出，未来医疗器械板块中越来越多的投资机会来自国际化，多家企业25年国际业务有望实现高增长、业务收入占比持续提升，国际业务长期空间大的公司也有望迎来估值重塑。</t>
+          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sz002022</t>
+          <t>sz000901</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>科华生物</t>
+          <t>航天科技</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>7.95</v>
+        <v>16.95</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>9.959999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>医疗器械|公司是国内首家在深圳证券交易所中小板上市的诊断用品专业公司，融产品研发、生产、销售于一体，拥有医疗诊断领域完整产业链。</t>
+          <t>军工+商业航天|1.中国航天科工集团旗下上市公司，航天应用产品主要是以惯性导航加速度传感器、测试测控设备、专用电源、精密制造为主要业务方向，完成国家武器装备及载人航天配套任务。
+2.公司航天应用产品包括惯性导航加速度传感器、精密制造、测试测控设备、专用电源，部分可配套商业航天。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>军工, 商业航天</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>中信建投研报指出，未来医疗器械板块中越来越多的投资机会来自国际化，多家企业25年国际业务有望实现高增长、业务收入占比持续提升，国际业务长期空间大的公司也有望迎来估值重塑。</t>
+          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sz002901</t>
+          <t>sh605598</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>大博医疗</t>
+          <t>上海港湾</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>57.4</v>
+        <v>29.32</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>机器人+医疗器械|1.旗下大博创新科技研发中心致力于生物医用材料、增材制造、手术机器人、再生医学等行业前沿技术研究及行业共性问题解决。
-2.骨科植入类的国内龙头，主营业务系医用高值耗材的产研销,主要产品包括骨科创伤类植入耗材、脊柱类植入耗材及神经外科类植入耗材。</t>
+          <t>基建+商业航天|1.公司地处上海，为全球客户提供集勘察、设计、施工、监测于一体的岩土工程综合服务。
+2.2025年上半年，公司卫星电源系统业务呈现快速增长态势，订单储备丰盈且增速亮眼，已构建起“研发创新-工程验证–成功交付”的良性发展闭环。当前，公司同步推进卫星电源系统的技术研发与场景应用，核心产品关键指标通过航天级严苛环境测试。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>机器人, 医疗器械</t>
+          <t>基建, 商业航天</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>中信建投研报指出，未来医疗器械板块中越来越多的投资机会来自国际化，多家企业25年国际业务有望实现高增长、业务收入占比持续提升，国际业务长期空间大的公司也有望迎来估值重塑。</t>
+          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sh688108</t>
+          <t>sz301232</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>赛诺医疗</t>
+          <t>飞沃科技</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>17.03</v>
+        <v>42.1</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>20.01</v>
@@ -1632,166 +1606,166 @@
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>产品获FDA认定|赛诺医疗公告称，子公司产品获美国FDA突破性医疗器械认定，是美国FDA历史上全球首个颅内动脉粥样硬化狭窄治疗产品。</t>
+          <t>机器人+商业航天|1.公子公司罗博普仑合作研发的激光导航风电叶片自动打磨机器人，能够对风电叶片实现全自动化机器打磨。
+2.公司是一家专业从事高强度紧固件研发、制造及为客户提供整体紧固系统解决方案的企业，在航天航空行业，已中标中国航发中传机械有限公司钢制件和齿轮件，开始批量供货</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>产品获FDA认定</t>
+          <t>机器人, 商业航天</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>中信建投研报指出，未来医疗器械板块中越来越多的投资机会来自国际化，多家企业25年国际业务有望实现高增长、业务收入占比持续提升，国际业务长期空间大的公司也有望迎来估值重塑。</t>
+          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sz002551</t>
+          <t>sz002471</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>尚荣医疗</t>
+          <t>中超控股</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.22</v>
+        <v>4.97</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>9.9</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>医疗器械|公司已搭建覆盖医疗产品、医疗服务和健康产业三大板块业务的医疗平台，医疗产品业务包括医疗设备的研发、生产、销售，医疗手术包及手术耗材，防护产品，骨科植入耗材的研发、生产、销售及提供专业的医院数字化解决方案。</t>
+          <t>机器人+商业航天|1.子公司中超电缆已拥有“耐扭转耐腐蚀型高柔性智能机器人电缆”实用新型专利证书。
+2.孙公司江苏精铸专业从事高温合金精密铸件的制造，转化上海交大前期航空发动机及燃气轮机、航天特种飞行器、运载火箭等关键热端零部件的技术研发成果，并进一步研究优化高温合金精密铸件批量化生产工艺。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>机器人, 商业航天</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>中信建投研报指出，未来医疗器械板块中越来越多的投资机会来自国际化，多家企业25年国际业务有望实现高增长、业务收入占比持续提升，国际业务长期空间大的公司也有望迎来估值重塑。</t>
+          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sz300981</t>
+          <t>sz300780</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>中红医疗</t>
+          <t>德恩精工</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>16.21</v>
+        <v>21.26</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>19.99</v>
+        <v>19.98</v>
       </c>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>医疗器械|公司主要从事高品质丁腈手套、PVC手套等医用及工业用一次性防护手套的研发、生产与销售。</t>
+          <t>商业航天+机器人|1.公司持有德恩航天57%股权，标的公司从事火箭发射设备的研发和制造以及火箭发动机的研发和制造。
+2.公司主营业务包括机械传动与传动联结件、机械非标定制件、工业机器人、数控机床和产业互联网平台服务五大业务板块。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>商业航天, 机器人</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.18</v>
+        <v>0.88</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
+          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sh601606</t>
+          <t>sh603131</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>长城军工</t>
+          <t>上海沪工</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>51.68</v>
+        <v>21.62</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>6天5板</t>
-        </is>
-      </c>
+        <v>10.03</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>军工|公司自成立以来，在保证军品业务的同时，不断开拓民品市场，民品业务保持稳步增长。多年以来，公司军品订货量保持全国地方军工订货量的领先地位。</t>
+          <t>商业航天+机器人|1.公司旗下航天华宇是航天装备制造平台，是我国多家航天总装单位的核心供应单位。同时，公司设立沪航卫星作为卫星业务平台，为商业卫星提供配套产品及服务。
+2.拥有机器人及自动化焊接(切割)成套设备，与全球最大机器人公司之一的FANUC结成合作伙伴。</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>商业航天, 机器人</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.18</v>
+        <v>0.48</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
+          <t>近期创新药出海消息不断，迪哲医药公告称，公司在研产品DZD8586获美国FDA授予“快速通道认定”。</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -1799,49 +1773,48 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sz301117</t>
+          <t>sh603811</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>佳缘科技</t>
+          <t>诚意药业</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>42.86</v>
+        <v>16.61</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>19.99</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>5天3板</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>军工+商业航天|1.公司是一家专注于网络信息安全产品和信息化综合解决方案的提供商，业务专注于国防军工、医疗健康和政务服务领域。
-2.公司官网显示，公司拥有商业航天综合管理系统，对应元器件型号配套和模块关系，并形成一站式资料存储，辅助设计师在元器件选型时做出准确决策。</t>
+          <t>创新药|公司坚持以海洋药物、中医药、生物医药为主的产品开发策略。在神经系统、内分泌系统等方面对创新药物与大健康类相关产品进行布局。</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>军工, 商业航天</t>
+          <t>创新药</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.18</v>
+        <v>0.48</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
+          <t>近期创新药出海消息不断，迪哲医药公告称，公司在研产品DZD8586获美国FDA授予“快速通道认定”。</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -1849,44 +1822,44 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sz000026</t>
+          <t>sh688265</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>飞亚达</t>
+          <t>南模生物</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>18.87</v>
+        <v>51.92</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>10.03</v>
+        <v>19.99</v>
       </c>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>军工央企|公司控股股东是中国航空工业集团子公司中国航空技术国际控股有限公司旗下中航国际控股有限公司，公司主要从事“飞亚达”表的经营和世界名表的商业连锁销售。</t>
+          <t>创新药|公司主要从事基因修饰动物模型及相关技术服务。公司以“编辑基因，解码生命”为己任，打造了以模式生物基因组精准修饰、基因功能表型分析、药物筛选与评价为核心的技术平台，为客户提供定制化模型、标准化模型等基因修饰动物模型，以及模型繁育、药效评价及表型分析、饲养服务等相关技术服务。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>军工央企</t>
+          <t>创新药</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.18</v>
+        <v>0.48</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
+          <t>近期创新药出海消息不断，迪哲医药公告称，公司在研产品DZD8586获美国FDA授予“快速通道认定”。</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -1894,44 +1867,45 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sh603712</t>
+          <t>sh601089</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">七一二  </t>
+          <t>福元医药</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>25.31</v>
+        <v>29.61</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>军工|公司是我国军、民用专网无线通信产品和整体解决方案的核心供应商，主营业务包括军用无线通信、民用无线通信及环保监测三大领域。</t>
+          <t>辅助生殖+创新药|1.公司全资子公司浙江爱生药业有限公司生产的黄体酮软胶囊通过仿制药质量和疗效一致性评价，该药品用于治疗先兆流产和习惯性流产、经前期紧张综合症、无排卵型功血和无排卵型闭经、与雌激素联合使用治疗更年期综合症。
+2.公司创新药聚焦核酸类药物研发，截至2023年6月，公司创新药在研项目4个。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>辅助生殖, 创新药</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.18</v>
+        <v>0.48</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
+          <t>近期创新药出海消息不断，迪哲医药公告称，公司在研产品DZD8586获美国FDA授予“快速通道认定”。</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -1939,280 +1913,276 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sh601718</t>
+          <t>sz000534</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>际华集团</t>
+          <t>万泽股份</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.8</v>
+        <v>17.25</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>10.09</v>
+        <v>10.01</v>
       </c>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr">
         <is>
+          <t>创新药+军工|1.公司主要产品金双歧和定君生均为独家创新药，受集采降价影响较小。
+2.公司作为航空发动机产业的供应商，承担了对国产商用大飞机发动机用单晶、等轴类涡轮叶片的研制与生产任务。</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>创新药, 军工</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>近期创新药出海消息不断，迪哲医药公告称，公司在研产品DZD8586获美国FDA授予“快速通道认定”。</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>sh600513</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>联环药业</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>创新药|主要产品有创新药物爱普列特片(川流)，新药依巴斯汀片(苏迪)、非洛地平片(联环尔定)、非洛地平缓释胶囊(联环笑定)等二十多个。</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>高铁轨交</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>sh603500</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>祥和实业</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>高铁|公司主要的业务为高铁轨道扣件中的非金属部件，产品最终的使用方为各高铁专线项目公司。</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>高铁</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>高铁轨交</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>sz301048</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>金鹰重工</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>高铁|公司是国内领先的轨道工程装备产品供应商，是国铁集团系统内唯一取得相关产品型号合格证和制造许可并能够研制并生产轨道工程装备的企业。</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>高铁</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>高铁轨交</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>sh600268</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>国电南自</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>高铁+超级水电|1.公司主要产品系列包括电网自动化产品、电厂自动化产品、新能源产品、节能减排产品、水电自动化产品、轨道交通自动化产品、信息安防产品服务、智能一次设备产品、输变电总承包业务等。
+2.国电南自的“华电睿信”系统已经在华电集团内外18个水电站、2个集控中心实现了规模化应用，还实现了国内首套自主可控系统在20万千瓦、60万千瓦水电机组与集控中心的示范应用。</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>高铁, 超级水电</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>sh601718</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>际华集团</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
           <t>军工+核污染防治|1.公司是中国军队、武警部队军需品采购的核心供应商，是中国最强最大的军需品、职业装、职业鞋靴研发和生产基地。
 2.公司核污染防护产品有全套核污染防护服、鞋等。</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
+      <c r="K36" s="2" t="inlineStr">
         <is>
           <t>军工, 核污染防治</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>IP经济</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>港股IP经济明星股泡泡玛特日内一度涨近6%，创出历史新高。</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>sh601929</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>吉视传媒</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>电影+IP经济|备受关注的电影《731》宣布将于9月18日上映。长影集团为《731》制作方，长影集团与吉视传媒等签署合作协议，涉及影视IP开发、数字内容生产等新兴领域。</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>电影, IP经济</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>IP经济</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>港股IP经济明星股泡泡玛特日内一度涨近6%，创出历史新高。</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>sh603518</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>锦泓集团</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">童装+IP经济|1.公司旗下品牌及IP授权业务产品已在小红书开设了多个官方账号，具体包括：Teenie Weenie、Teenie Weenie Kids、Teenie Weenie Men、Teenie Weenie 家居馆、VGRASS、南京历代云锦博物馆、南京云锦研究所等。
-2.公司持续对 Teenie Weenie 品牌IP资产进行开发和推广，迭代设计出符合年轻消费群体审美的小熊家族卡通和潮玩形象、延续开发小熊家族系列故事，短视频的创作，并对TeenieWeenie 的IP公司携手跨界品牌及产品联名，不断提升Teenie Weenie 品牌IP资产的价值和影响力。 </t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>童装, IP经济</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>IP经济</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>港股IP经济明星股泡泡玛特日内一度涨近6%，创出历史新高。</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>sh603900</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>莱绅通灵</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>黄金珠宝+IP经济|1.公司主要从事珠宝首饰的品牌运营管理、产品设计研发及零售，产品涵盖了婚嫁、礼赠、收藏、悦己等消费场景。公司开辟“欧金”新赛道，积极拓展黄金品类业务。
-2.公司秉持品牌王室IP核心优势，旗下拥有传世金、王后珍珠系列、传奇系列、王室庄园系列、蓝火真心钻系列等全品类珠宝产品矩阵。</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>黄金珠宝, IP经济</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>IP经济</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>港股IP经济明星股泡泡玛特日内一度涨近6%，创出历史新高。</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>sz003010</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>若羽臣</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>53.79</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>电商+IP经济|公司凭借对某国际知名IP品牌项目的全链路、全渠道品牌管理优势能力,成功摘获“淘宝天猫玩具潮玩2023年度优秀合作伙伴”殊荣。</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>电商, IP经济</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>消费电子</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>苹果公司宣布未来四年在美投资总额将达6000亿美元，通过实施“美国制造计划”加速在美国的生产，受此刺激，苹果股价昨晚大涨超5%。</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>sh600203</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>福日电子</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>消费电子|公司主营业务为通讯及智慧家电、LED光电、内外贸三大产业。通讯及智慧家电业务主要企业为全资子公司中诺通讯，主要为全球知名手机企业、移动运营商提供ODM服务。</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>消费电子</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.41</v>
+        <v>0.01</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>苹果公司宣布未来四年在美投资总额将达6000亿美元，通过实施“美国制造计划”加速在美国的生产，受此刺激，苹果股价昨晚大涨超5%。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -2220,44 +2190,44 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sz002981</t>
+          <t>sz002760</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>朝阳科技</t>
+          <t>凤形股份</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>30.33</v>
+        <v>23.23</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>10.01</v>
+        <v>9.99</v>
       </c>
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>消费电子+果链|公司作为电声产品及电声配件专业生产企业，进入了苹果等知名智能终端及耳机品牌商的供应链。</t>
+          <t>军工|子公司康富科技主要产品为船电系统解决方案及特种电机，船电系统解决方案主要应用于船电装备领域，特种电机主要应用于军用、轨道交通、核电及数据中心等市场。</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>消费电子, 果链</t>
+          <t>军工</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.41</v>
+        <v>0.01</v>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>苹果公司宣布未来四年在美投资总额将达6000亿美元，通过实施“美国制造计划”加速在美国的生产，受此刺激，苹果股价昨晚大涨超5%。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -2265,180 +2235,191 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sz000536</t>
+          <t>sh600184</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>华映科技</t>
+          <t>光电股份</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>5.24</v>
+        <v>22.83</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>10.08</v>
+        <v>10.02</v>
       </c>
       <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>消费电子|公司显示面板业务主要生产中小尺寸显示面板，产品主要应用于笔记本电脑、平板电脑、智能手机、POS 机、工业控制屏等领域，已成功进入传音、联想、三星、 vivo、 HMD(诺基亚)、中兴、华为、荣耀等世界知名品牌的供应商体系。</t>
+          <t>军工+机器人|1.中国兵器工业集团旗下上市公司，公司防务业务板块涵盖以大型武器系统、精确制导导引头、光电信息装备为代表的光电防务类产品的研发、设计、生产和销售。
+2.公司高性能光学材料及先进元件最终应用到下游车载镜头、消费电子、安防监控、投影成像，以及工业自动控制系统、工业机器人、机器人的光学成像、视觉传感系统中。</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>军工, 机器人</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AI智能体</t>
+          <t>超级水电</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.17</v>
+        <v>2.88</v>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>OpenAI官方账号在社交平台X上发文称，将于太平洋时间周四上午10点（北京时间周五凌晨1点）举办直播活动。</t>
+          <t>7月19日，国家投资建设1.2万亿的超级水电项目正式宣布工程开工。</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sh600410</t>
+          <t>sz002097</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>山河智能</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>13.19</v>
+        <v>17.33</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr"/>
+        <v>10.03</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>15天9板</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>华为+算力+AI|1.公司与华为深度合作人工智能算力中心解决方案，携手鲲鹏、昇腾助力人工智能领域发展，共同参与多个省市智算中心规划建设项目。
-2.公司打造了AI驱动的企业投标系统投标大王，通过引入大模型技术和Multi-Agent架构，形成高效的模型交互策略，实现了招标文件智能解读、资源精准匹配、风险科学评估和标书全面审核等关键功能。</t>
+          <t>盾构机+军工|1.公司凿岩设备、硬岩掘进机、盾构机可应用于隧道施工。公司设备已参与项目前期地质处理，后续公司仍将积极配合合作伙伴参与雅下水电项目。
+2.公司参股企业山河星航研制各型工业级无人机，包括多旋翼军警用无人机、多旋翼植保机、无人直升机、固定翼无人机。</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>华为, 算力, AI</t>
+          <t>盾构机, 军工</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>AI智能体</t>
+          <t>超级水电</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.17</v>
+        <v>2.88</v>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>OpenAI官方账号在社交平台X上发文称，将于太平洋时间周四上午10点（北京时间周五凌晨1点）举办直播活动。</t>
+          <t>7月19日，国家投资建设1.2万亿的超级水电项目正式宣布工程开工。</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sh605398</t>
+          <t>sz301038</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>新炬网络</t>
+          <t>深水规院</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>34.72</v>
+        <v>34.98</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>10.01</v>
+        <v>20</v>
       </c>
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>AI智能体|公司作为一家专业的多云全栈智能运维服务商，深耕企业级智能运维领域，积极推进大模型与运维场景的深度融合,集成大语言模型LLM、人工智能代理AI Agent、检索增强生成RAG以及多模态等技术,逐步探索构建起集自主感知、决策、执行三大核心能力为一体的大模型智能平台。</t>
+          <t>超级水电|公司作为国内较早具备水利行业和市政给排水专业双甲级资质的勘测设计企业之一。公司已在西藏设立分公司，其主营业务是勘测设计、规划咨询、项目运管等。</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>AI智能体</t>
+          <t>超级水电</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>AI智能体</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>OpenAI官方账号在社交平台X上发文称，将于太平洋时间周四上午10点（北京时间周五凌晨1点）举办直播活动。</t>
+          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sz002354</t>
+          <t>sz002313</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>天娱数科</t>
+          <t>日海智能</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>7.45</v>
+        <v>14.96</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I41" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>AI智能体|在空间智能MaaS平台基础上，公司融合数据采集硬件、多模态数据处理技术、云边端算力，着力推进具身智能通用平台Behavision的建设，打造通用的大脑+小脑开发平台，以强大算力、高集成度和快速部署等优势，打造软硬一体、基垂融合的智能体新样板，为空间计算、具身智能、人形机器人等多场景应用提供通用智能化解决方案。</t>
+          <t>机器人+液冷IDC|1.公司通信模组可应用于送餐机器人、方舱机器人等设备。
+2.子公司芯讯通与英飞凌和Kigen携手推出最小eSIM模组解决方案。
+3.公司拥有自制的液冷机柜和冷通道，主要应用于数据中心。</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>AI智能体</t>
+          <t>机器人, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3.53</v>
+        <v>1.69</v>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>内蒙古包头市的稀土新材料技术创新中心获悉，国内首条稀土盘式电机智能示范线在该中心建成投产。</t>
+          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -2446,45 +2427,44 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>sh600366</t>
+          <t>sz002837</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>宁波韵升</t>
+          <t>英维克</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>13.17</v>
+        <v>46.39</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>10.03</v>
+        <v>10.01</v>
       </c>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁+机器人|1.国内钕铁硼龙头，专业从事稀土永磁材料（钕铁硼）的研发、制造和销售。具有年产坯料10000吨的生产能力，是中国主要的稀土永磁材料制造商之一。
-2.公司高度关注未来钕铁硼永磁材料应用可能出现大幅增长的新兴领域，如XR、人形机器人、eVTOL（电动垂直起降飞行器）等，向客户提供从磁材设计到磁材生产，再到磁组件的全流程服务，针对国内某人形机器人客户，已达到量产供货状态。</t>
+          <t>液冷IDC|公司已推出针对算力设备和数据中心的Coolinside液冷机柜及全链条液冷解决方案，相关产品涉及冷源、管路连接、CDU分配、快换接头、Manifold、冷板等已规模商用，“端到端、全链条”的平台化布局已成为公司在液冷业务领域的重要核心竞争优势。</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁, 机器人</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>新型城镇化</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3.53</v>
+        <v>1.1</v>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>内蒙古包头市的稀土新材料技术创新中心获悉，国内首条稀土盘式电机智能示范线在该中心建成投产。</t>
+          <t>7月19日，国家投资建设1.2万亿的超级水电项目正式宣布工程开工。</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -2492,45 +2472,48 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sz300224</t>
+          <t>sh603176</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>正海磁材</t>
+          <t>汇通集团</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>19.01</v>
+        <v>7.33</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="I43" s="2" t="inlineStr"/>
+        <v>10.06</v>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁+机器人|1.公司是国内高性能钕铁硼永磁材料行业的主要企业，产品主要应用在节能环保和新能源领域，包括汽车、家用电器、风力发电、节能电梯、自动化和智能消费电子等。
-2.公司产品可以用于人形机器人的空心杯电机和无框力矩电机，目前公司已与多家下游客户开展联合研发、供样等工作。</t>
+          <t>水利基建|公司具备水利水电工程施工总承包叁级资质，参与建设的水利工程项目有高碑店市2017年度地下水超采综合治理农村生活用水置换工程等。</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁, 机器人</t>
+          <t>水利基建</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>eSIM</t>
+          <t>新型城镇化</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.42</v>
+        <v>1.1</v>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>近日，中国联通已在官方App及部分线上渠道上线了eSIM手机业务的开通办理页面。</t>
+          <t>7月19日，国家投资建设1.2万亿的超级水电项目正式宣布工程开工。</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -2538,50 +2521,45 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>sz002313</t>
+          <t>sz000010</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>日海智能</t>
+          <t>美丽生态</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>13.6</v>
+        <v>4.64</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>9.950000000000001</v>
+      </c>
+      <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>eSIM+液冷IDC|1.公司通信模组可应用于送餐机器人、方舱机器人等设备。
-2.子公司芯讯通与英飞凌和Kigen携手推出最小eSIM模组解决方案。
-3.公司拥有自制的液冷机柜和冷通道，主要应用于数据中心。</t>
+          <t>光伏+基建|1.公司打造公司新能源产业品牌，快速拓展以光伏产业为主的第二赛道，整合并建立优质的光伏组件等资源库，优化各类业务材料供应商结构，培养供应链组件供应商，建立自有供应链管理体系。
+2.公司主要从事园林绿化工程施工、园林景观设计、园林养护及绿化苗木种植等。</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>eSIM, 液冷IDC</t>
+          <t>光伏, 基建</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>eSIM</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.42</v>
+        <v>1.1</v>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>近日，中国联通已在官方App及部分线上渠道上线了eSIM手机业务的开通办理页面。</t>
+          <t>8月6日，国家电网官网显示，本周以来，国家电网公司经营区电力负荷两创历史新高，单日用电负荷涨幅超7000万千瓦，最大负荷达12.29亿千瓦，较去年极值增长4.1%。</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -2589,49 +2567,49 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sz002017</t>
+          <t>sh600475</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>东信和平</t>
+          <t>华光环能</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>30.72</v>
+        <v>21.19</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>9.99</v>
+        <v>10.02</v>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>eSIM+稳定币|1.公司聚焦物联网及信息安全产业，为行业客户提供数字身份安全模块（eSIM、eSE、RFID产品）、数字安全管理平台及行业解决方案。
-2.上海树图区块链研究院与AnchorX、东信和平达成战略合作，将在“一带一路”共建国家共同推进离岸人民币稳定币发行、跨境结算、RWA等应用场景的海外标杆项目落地。</t>
+          <t>光伏+电力|1.子公司中设国联拥有光伏开发运营能力，能够提供专业的光伏发电服务和系统解决方案，截至2024年年报，开发运营有325MW光伏项目，区域覆盖江苏、安徽、山东、浙江、江西、广东等多省市地区。
+2.公司是无锡地区的热电运营龙头，公司占无锡市区热电联产供热市场的70%左右。</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>eSIM, 稳定币</t>
+          <t>光伏, 电力</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.03</v>
+        <v>1.1</v>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
+          <t>8月6日，国家电网官网显示，本周以来，国家电网公司经营区电力负荷两创历史新高，单日用电负荷涨幅超7000万千瓦，最大负荷达12.29亿千瓦，较去年极值增长4.1%。</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
@@ -2639,49 +2617,44 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sh603516</t>
+          <t>sh600744</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>淳中科技</t>
+          <t>华银电力</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>86.8</v>
+        <v>7.73</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>军工+液冷IDC|1.公司推出的Poseidon(波塞冬)系统满足了军队对图像信息一体化的要求。公司先后参与完成了某军事科学院、某空军机场调度指挥中心、某战时指挥部、某军分区指挥中心等大量国防项目的建设。
-2.公司与N公司对接的业务主要是各类产品的测试与检测平台，目前正在对接的产品包括：液冷测试平台、基于AI的检测平台、各种测试板卡等。</t>
+          <t>电力|作为湖南省火电装机主要发电企业，公司主要从事火力发电业务，同时经营水电、风电、太阳能业务以及电力销售业务。</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>军工, 液冷IDC</t>
+          <t>电力</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>医疗器械</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
+          <t>中信建投研报指出，未来医疗器械板块中越来越多的投资机会来自国际化，多家企业25年国际业务有望实现高增长、业务收入占比持续提升，国际业务长期空间大的公司也有望迎来估值重塑。</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -2689,171 +2662,175 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sz300322</t>
+          <t>sz002551</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>硕贝德</t>
+          <t>尚荣医疗</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>26.1</v>
+        <v>4.64</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I47" s="2" t="inlineStr"/>
+        <v>9.950000000000001</v>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司液冷散热产品可应用于服务器、路由器、交换机以及光伏储能新能源汽车等领域。</t>
+          <t>医疗器械|公司已搭建覆盖医疗产品、医疗服务和健康产业三大板块业务的医疗平台，医疗产品业务包括医疗设备的研发、生产、销售，医疗手术包及手术耗材，防护产品，骨科植入耗材的研发、生产、销售及提供专业的医院数字化解决方案。</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>医疗器械</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>人脑工程</t>
+          <t>医疗器械</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.05</v>
+        <v>0.26</v>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>七部门发布关于推动脑机接口产业创新发展的实施意见，到2027年，脑机接口关键技术取得突破，初步建立先进的技术体系、产业体系和标准体系。</t>
+          <t>中信建投研报指出，未来医疗器械板块中越来越多的投资机会来自国际化，多家企业25年国际业务有望实现高增长、业务收入占比持续提升，国际业务长期空间大的公司也有望迎来估值重塑。</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sz002173</t>
+          <t>sh688108</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>创新医疗</t>
+          <t>赛诺医疗</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>17.47</v>
+        <v>20.44</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>10.01</v>
+        <v>20.02</v>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>AI医疗+脑机接口|1.参股全诊医学自主研发的全诊医疗大模型及AI产品已在国内多家知名医院成功应用。
-2.公司通过参股脑机接口技术公司——杭州博灵医疗科技有限公司的方式，间接介入到了该前沿技术领域。</t>
+          <t>产品获FDA认定|赛诺医疗公告称，子公司产品获美国FDA突破性医疗器械认定，是美国FDA历史上全球首个颅内动脉粥样硬化狭窄治疗产品。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>AI医疗, 脑机接口</t>
+          <t>产品获FDA认定</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料</t>
+          <t>数字货币</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>根据沙利文咨询的相关预测，在假设我国PEEK材料主要终端应用产品维持不变的情况下，2022年至2027年，国内PEEK材料市场需求量将由2334吨提升至5079吨，对应年复合增长率约为16.8%。</t>
+          <t>RWA注册登记平台7日正式在香港上线，同日Web3.0三项标准立项，包括《RWA代币化业务指南》《RWA代币化技术规范》。</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>sz002915</t>
+          <t>sz002908</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>中欣氟材</t>
+          <t>德生科技</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>26.87</v>
+        <v>12.08</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>10.02</v>
+      </c>
+      <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料|公司已构建一体化的PEEK核心原材料产业，已布局5000吨PEEK核心中间体的产能DFBP，并围绕DFBP布局有氟苯、4-氟苯甲酰氯、氢氟酸、萤石矿的一体化产业链。</t>
+          <t>人力资源+数字货币|1.公司以民生场景需求为牵引，深耕数据融合应用，打造了就业监测、政策找人、职业背调等十余款数据产品。公司旗下金色华勤主要以互联网方式从事人力资源服务，其面向的客户群体为中小微企业及个人。
+2.公司参股的子公司北京惠民数字科技有限公司是冬奥会数字货币的重要实施者，是冬奥通的系统建设方。</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料</t>
+          <t>人力资源, 数字货币</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>数字货币</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C50" s="2" t="inlineStr"/>
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>RWA注册登记平台7日正式在香港上线，同日Web3.0三项标准立项，包括《RWA代币化业务指南》《RWA代币化技术规范》。</t>
+        </is>
+      </c>
       <c r="D50" s="2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>sz002199</t>
+          <t>sz003040</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>*ST东晶</t>
+          <t>楚天龙</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>10.97</v>
+        <v>26.21</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>5天5板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司致力于高精度、高稳定性、高品质石英晶体元器件系列产品的研发、设计与生产。公司与日本松下、索尼、东芝、夏普、 JVC，以及韩国三星、LG 和国内华为、中兴、 OPPO、小米等公司保持长期稳定的战略合作关系。</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr"/>
+          <t>稳定币|楚天龙发布投资者关系活动记录表公告称，公司在技术实力、客户群体、服务经验以及成功案例等方面，具备参与香港地区法币稳定币相关业务的能力，随着公司出海战略的稳步推进，有望在嵌入式安全产品及创新金融服务等领域落地更多场景项目。</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>稳定币</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -2862,36 +2839,36 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.96</v>
+        <v>0.41</v>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
       <c r="D51" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>sz002289</t>
+          <t>sz000691</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>*ST宇顺</t>
+          <t>*ST亚太</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>24.75</v>
+        <v>7.33</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>5.01</v>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>5天5板</t>
+          <t>18天9板</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
+          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr"/>
@@ -2903,36 +2880,36 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.96</v>
+        <v>0.41</v>
       </c>
       <c r="C52" s="2" t="inlineStr"/>
       <c r="D52" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>sz000488</t>
+          <t>sz002289</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>ST晨鸣</t>
+          <t>*ST宇顺</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>2.37</v>
+        <v>25.99</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>4.87</v>
+        <v>5.01</v>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>6天6板</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司是全国唯一一家实现制浆和造纸平衡的大型浆纸一体化企业，率先布局全产业链，在山东、广东、湖北、江西、吉林等地建有6个生产基地，年浆纸产能达1100多万吨。</t>
+          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr"/>
@@ -2944,36 +2921,37 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.96</v>
+        <v>0.41</v>
       </c>
       <c r="C53" s="2" t="inlineStr"/>
       <c r="D53" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>sz002231</t>
+          <t>sh600696</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>*ST奥维</t>
+          <t xml:space="preserve">*ST岩石 </t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>3.38</v>
+        <v>6.55</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>4.97</v>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>6天4板</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司在军工业务方面坚持国产自主可控的发展方向，聚焦野战通信与单兵信息化系统领域，主要产品包括无线宽带传输系统、自主可控国产化设备等。</t>
+          <t>ST股 | 1.公司主要从事商业保理、融资租赁、不动产运营管理和大宗商品贸易。
+2.公司持有江西章贡酒业有限责任公司25%股权。章贡酒业是全国白酒工业百强企业，江西省重点酿酒企业。</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr"/>
@@ -2985,36 +2963,36 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.96</v>
+        <v>0.41</v>
       </c>
       <c r="C54" s="2" t="inlineStr"/>
       <c r="D54" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>sz000752</t>
+          <t>sz002231</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>ST西发</t>
+          <t>*ST奥维</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>10.13</v>
+        <v>3.55</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>4.97</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司啤酒目前在拉萨地区市场占有率约为85%，在西藏市场占有率为50%。</t>
+          <t>ST股 | 公司在军工业务方面坚持国产自主可控的发展方向，聚焦野战通信与单兵信息化系统领域，主要产品包括无线宽带传输系统、自主可控国产化设备等。</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr"/>
@@ -3026,33 +3004,36 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.96</v>
+        <v>0.41</v>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>sh603388</t>
+          <t>sz000752</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST元成 </t>
+          <t>ST西发</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>2.37</v>
+        <v>10.64</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="I55" s="2" t="inlineStr"/>
+        <v>5.029999999999999</v>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.公司服务于大型市政基础设施建设工程，生态景观工程、污染治理及生态修复工程、高端休闲旅游度假工程等项目。
-2.公司于2022年12月收购半导体清洗设备厂商硅密电子51%股权，正式切入半导体设备领域。</t>
+          <t>ST股 | 公司啤酒目前在拉萨地区市场占有率约为85%，在西藏市场占有率为50%。</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr"/>
@@ -3064,32 +3045,36 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.96</v>
+        <v>0.41</v>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
       <c r="D56" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>sh600599</t>
+          <t>sz002898</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST熊猫 </t>
+          <t>*ST赛隆</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>8.119999999999999</v>
+        <v>16.81</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>5.050000000000001</v>
-      </c>
-      <c r="I56" s="2" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>5天3板</t>
+        </is>
+      </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司地处中国烟花之乡浏阳，经过3多年的发展已成为中国最大的出口鞭炮烟花公司。</t>
+          <t>ST股 | 公司已建成集医药中间体、原料药、制剂的研发、生产、营销和技术服务为一体的医药全产业链的现代化制药企业。</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr"/>
@@ -3101,32 +3086,32 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.96</v>
+        <v>0.41</v>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
       <c r="D57" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>sz002047</t>
+          <t>sh603268</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>*ST宝鹰</t>
+          <t xml:space="preserve">*ST松发 </t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>2.14</v>
+        <v>52.36</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>4.9</v>
+        <v>4.99</v>
       </c>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 宝鹰股份公告，公司正在筹划重大资产出售事项，拟向控股股东大横琴集团出售所持有的宝鹰建设100%股权。本次交易构成关联交易，预计构成重大资产重组。</t>
+          <t>ST股 | 拟收购恒力重工主营船舶及高端装备的研发、生产及销售，已确定排产新造船舶140艘，货值约108亿美元，船型包含散货船、VLCC、VLOC 和集装箱船等。</t>
         </is>
       </c>
       <c r="K57" s="2" t="inlineStr"/>
@@ -3138,32 +3123,32 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.96</v>
+        <v>0.41</v>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>sz300225</t>
+          <t>sh600289</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>*ST金泰</t>
+          <t xml:space="preserve">ST信通  </t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>4.28</v>
+        <v>6.99</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>19.89</v>
+        <v>4.95</v>
       </c>
       <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司旗下全资子公司金杜新材料核心技术纳米陶瓷化是一种铝、镁和钛合金表面纳米陶瓷功能膜制备技术，可广泛应用于光刻机零部件所需的铝合金黑色光学工艺表面处理。</t>
+          <t>ST股 | 公司在智能交通领域继续保持稳健发展，着重提升项目的盈利能力。</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr"/>
@@ -3175,32 +3160,32 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.96</v>
+        <v>0.41</v>
       </c>
       <c r="C59" s="2" t="inlineStr"/>
       <c r="D59" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>sh600200</t>
+          <t>sz002868</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST苏吴 </t>
+          <t>*ST绿康</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1.13</v>
+        <v>27.57</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>4.63</v>
+        <v>4.99</v>
       </c>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
+          <t>ST股 | 绿康生化公告称，公司收到通知，公司控股股东上海康怡投资有限公司、股东杭州义睿投资合伙企业（有限合伙）、上饶市长鑫贰号企业管理中心（有限合伙）、杭州皓赢投资合伙企业（有限合伙）与福建纵腾网络有限公司签署了《股份转让协议》，约定由上述股份转让方向纵腾网络转让上市公司46,608,397股普通股股份，占上市公司总股本的29.99%。</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr"/>
@@ -3212,32 +3197,32 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.96</v>
+        <v>0.41</v>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
       <c r="D60" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>sz002528</t>
+          <t>sz000669</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>ST英飞拓</t>
+          <t>ST金鸿</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>4.9</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 英飞拓推出5G多功能智慧灯杆，支持节能照明、视频监控、新能源充电、公共WIFI、环境监测、信息发布、应急报警、5G微基站等模块，实现多种类型的感知数据采集、分析、仿真预测，提升城市综合治理。</t>
+          <t>ST股 | 主营气源开发与输送、长输管网建设与管理、城市燃气经营与销售、车用加气站投资与运营、LNG点供、分布式能源项目开发与建设等。</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr"/>
@@ -3249,32 +3234,32 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.96</v>
+        <v>0.41</v>
       </c>
       <c r="C61" s="2" t="inlineStr"/>
       <c r="D61" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>sh603838</t>
+          <t>sz000504</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST四通 </t>
+          <t>*ST生物</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>6.14</v>
+        <v>11.94</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>4.96</v>
+        <v>5.01</v>
       </c>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司是一家集研发、设计、生产、销售于一体的新型家居生活陶瓷供应商，产品覆盖日用陶瓷、卫生陶瓷、艺术陶瓷、建筑装饰等全系列家居生活用瓷。</t>
+          <t>ST股 | 公司是目前国内一家国资控股的干细胞、免疫细胞及组织工程产业主板上市公司，“生物医药”板块业务包括干细胞储存服务、化妆品的生产和销售、医疗器械设备及耗材的代理和销售。</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr"/>
@@ -3282,77 +3267,97 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>0.96</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C62" s="2" t="inlineStr"/>
       <c r="D62" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>sh600753</t>
+          <t>sh601929</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST海钦 </t>
+          <t>吉视传媒</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>6.96</v>
+        <v>2.7</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="I62" s="2" t="inlineStr"/>
+        <v>10.2</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>5天3板</t>
+        </is>
+      </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司目前的主营业务为煤炭（含焦炭）、天然气等大宗商品供应链管理业务。</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="inlineStr"/>
+          <t>电影《731》|备受关注的电影《731》宣布将于9月18日上映。长影集团为《731》制作方，长影集团与吉视传媒等签署合作协议，涉及影视IP开发、数字内容生产等新兴领域。</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>电影《731》</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>0.96</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
       <c r="D63" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>sh603398</t>
+          <t>sh603800</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST沐邦 </t>
+          <t>洪田股份</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>5.71</v>
+        <v>42.46</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="I63" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.沐邦高科公告，与铜陵狮子山高新技术产业开发区管理委员会、铜陵高新发展投资有限公司签订《项目投资协议书》，项目名称为年产10GW-N型高效电池片、10GW切片生产基地项目。
-2.公司上市的IP产品 “樱桃小丸子”第一期为“盲盒”类产品。</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="inlineStr"/>
+          <t>半导体+固态电池|1.子公司洪星真空科技有限公司是高端制程真空设备方案提供商，能为包括芯片封装、光学、消费电子、厨电厨卫等多个领域提供精准、高效的解决方案，主要客户有：鼎华芯泰、志天纳米、高登电子、福兰特等。
+2.洪田科技在复合铜铝箔设备领域提供的“一步法干法”解决方案可用于固态电池产业链，主要产品包括真空磁控溅射一体机、真空磁控溅射蒸发一体机、真空蒸发镀铝设备，可以为客户提供整厂全套解决方案。</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>半导体, 固态电池</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -3367,38 +3372,37 @@
       </c>
       <c r="C64" s="2" t="inlineStr"/>
       <c r="D64" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>sh600475</t>
+          <t>sz002706</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>华光环能</t>
+          <t>良信股份</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>19.26</v>
+        <v>11.15</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>9.99</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>4天2板</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>光伏+电力|1.子公司中设国联拥有光伏开发运营能力，能够提供专业的光伏发电服务和系统解决方案，截至2024年年报，开发运营有325MW光伏项目，区域覆盖江苏、安徽、山东、浙江、江西、广东等多省市地区。
-2.公司是无锡地区的热电运营龙头，公司占无锡市区热电联产供热市场的70%左右。</t>
+          <t>IDC电源|公司与华为在5G应用、电源类产品提供了模块化、智能化产品方案，在数据中心绿电接入、储能配套等领域提供电气解决方案。</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>光伏, 电力</t>
+          <t>IDC电源</t>
         </is>
       </c>
     </row>
@@ -3415,37 +3419,33 @@
       </c>
       <c r="C65" s="2" t="inlineStr"/>
       <c r="D65" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>sh605169</t>
+          <t>sz000501</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>洪通燃气</t>
+          <t>武商集团</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>15.36</v>
+        <v>11.68</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>9.98</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>天然气|公司是一家专注清洁交通能源供应领域的天然气专业运营商，主营业务为LNG、CNG的生产、加工、储运和销售，以及居民用、商业用和工业用天然气的销售。</t>
+          <t>江豚会员店|公司是湖北省商业龙头企业，主要从事购物中心及超市业态的商品销售业务。7月23日，武商集团宣布，旗下会员制商店——WS江豚会员店将于7月29日开业。</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>天然气</t>
+          <t>江豚会员店</t>
         </is>
       </c>
     </row>
@@ -3462,33 +3462,33 @@
       </c>
       <c r="C66" s="2" t="inlineStr"/>
       <c r="D66" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>sz002377</t>
+          <t>sh688551</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>国创高新</t>
+          <t xml:space="preserve">科威尔  </t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>3.37</v>
+        <v>43.2</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>10.13</v>
+        <v>20</v>
       </c>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>沥青|公司自成立以来主要从事路面改性沥青系列产品的研发、生产及销售。公司产品主要用于高速公路、国省道公路、城市主干道、机场跑道以及市政专用道路等工程的路面铺设、养护。公司已成为国内改性沥青行业的一流企业，也是全国研发、生产和销售高等级公路新材料专业沥青的龙头企业之一。</t>
+          <t>功率半导体|通过收购汉先科技，科威尔完成在IGBT模块封装领域的第二个关键工艺设备的布局，有利于提升公司为IGBT领域内下游客户提供整线解决方案的竞争力。</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
-          <t>沥青</t>
+          <t>功率半导体</t>
         </is>
       </c>
     </row>
@@ -3505,34 +3505,33 @@
       </c>
       <c r="C67" s="2" t="inlineStr"/>
       <c r="D67" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>sz002923</t>
+          <t>sh603773</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>润都股份</t>
+          <t>沃格光电</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>15.54</v>
+        <v>31.13</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>9.98</v>
+        <v>10</v>
       </c>
       <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>创新药+烟碱|1.公司1类创新药盐酸去甲乌药碱注射液可作为心脏负荷试验药物用于核素心肌灌注显像，以辅助诊断和评估心肌缺血。
-2.子公司润都制药（荆门）有限公司生产的电子烟用烟碱品质获得客户普遍认可，并已形成商业化销售。</t>
+          <t>复合铜箔|公司作为同时具备PI膜材技术和镀铜技术的企业，目前基于改性后PI材料的复合铜箔降本技术路径已基本确认，基膜性能符合电池厂要求规格。</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
-          <t>创新药, 烟碱</t>
+          <t>复合铜箔</t>
         </is>
       </c>
     </row>
@@ -3549,33 +3548,33 @@
       </c>
       <c r="C68" s="2" t="inlineStr"/>
       <c r="D68" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>sz002353</t>
+          <t>sz002674</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>杰瑞股份</t>
+          <t>兴业科技</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44.3</v>
+        <v>11.78</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>10.01</v>
+        <v>9.99</v>
       </c>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr">
         <is>
-          <t>业绩|杰瑞股份公告称，杰瑞股份发布2025年半年度报告摘要，报告期内公司实现营业收入69.01亿元，同比增长39.21%；实现归属于上市公司股东的净利润12.41亿元，同比增长14.04%。公司拟每10股派发现金红利1.5元（含税），不进行公积金转增股本。</t>
+          <t>纺织|公司是中国天然皮革鞣制行业首家A股上市公司、中国制革工业龙头企业之一、高新技术企业，是中国皮革行业纳税大户。</t>
         </is>
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>纺织</t>
         </is>
       </c>
     </row>
@@ -3592,20 +3591,20 @@
       </c>
       <c r="C69" s="2" t="inlineStr"/>
       <c r="D69" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>sh603630</t>
+          <t>sh605180</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>拉芳家化</t>
+          <t>华生科技</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>24.46</v>
+        <v>16.53</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>9.98</v>
@@ -3613,12 +3612,12 @@
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>日化+婴童|国内民族日化行业的龙头企业，聚焦于洗护类产品，该产品市场份额为 3.4%，居民族品牌榜首。一方面，增资宿迁百宝，拥抱 IP 电商，乘母婴经济和社交内容电商东风；另一方面，拟收购蜜妆信息 26.8%股权，步入自媒体和美妆领域。</t>
+          <t>电容薄膜|根据2024年半年报，“年产5,700吨超薄特种电容薄膜建设项目”是公司基于战略规划目标作出的决策，有利于丰富公司的产品线，优化公司产业结构，开拓创新，发展新领域，把握绿色科技、超薄电容薄膜市场机遇。</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
-          <t>日化, 婴童</t>
+          <t>电容薄膜</t>
         </is>
       </c>
     </row>
@@ -3635,33 +3634,33 @@
       </c>
       <c r="C70" s="2" t="inlineStr"/>
       <c r="D70" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>sz002072</t>
+          <t>sh605055</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>凯瑞德</t>
+          <t>迎丰股份</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>7.14</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>煤炭贸易|公司主要从事煤炭贸易业务，并以自营和代理两种模式开展，其中主要通过自营模式开展、代理模式为辅。</t>
+          <t>纺织|公司主要从事纺织品的印染加工业务，主要包括针织面料印染和梭织面料印染两大系列。</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
-          <t>煤炭贸易</t>
+          <t>纺织</t>
         </is>
       </c>
     </row>
@@ -3678,34 +3677,33 @@
       </c>
       <c r="C71" s="2" t="inlineStr"/>
       <c r="D71" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>sz000510</t>
+          <t>sh603538</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>新金路</t>
+          <t xml:space="preserve">美诺华  </t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>5.32</v>
+        <v>26.07</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>9.92</v>
+        <v>10</v>
       </c>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>化工+石英|1.公司主要从事氯碱化工、电石、PVC软制品的生产经营及仓储、物流等经营、运输业务，其中，氯碱化工是公司核心业务，主要产品包括PVC树脂、烧碱、钾碱、电石等。
-2.新金路在互动平台表示，公司石英砂项目有序推进之中，目前，产品正在积极进行市场拓展，有极少量产品销售。</t>
+          <t>原料药上市获批|美诺华公告称，子公司安徽美诺华收到国家药监局核准签发的盐酸鲁拉西酮原料药《化学原料药上市申请批准通知书》。该产品已通过CDE技术审评。</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
         <is>
-          <t>化工, 石英</t>
+          <t>原料药上市获批</t>
         </is>
       </c>
     </row>
@@ -3722,33 +3720,33 @@
       </c>
       <c r="C72" s="2" t="inlineStr"/>
       <c r="D72" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>sh605598</t>
+          <t>sh600246</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>上海港湾</t>
+          <t>万通发展</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>26.65</v>
+        <v>7.63</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>9.99</v>
+        <v>9.94</v>
       </c>
       <c r="I72" s="2" t="inlineStr"/>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>基建|公司地处上海，为全球客户提供集勘察、设计、施工、监测于一体的岩土工程综合服务</t>
+          <t>卫星通信+芯片|公司控股子公司知融科技专注微波毫米波芯片和宽带卫星通信相控阵天线整体解决方案的研发和销售，具备CMOS、SOI、GaAs、GaN等多种工艺的毫米波射频芯片开发能力，已发布涵盖Ku、Ka频段的数十款芯片产品，产品包含相控阵BFIC芯片、功率放大器芯片、低噪声放大器芯片等。</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
         <is>
-          <t>基建</t>
+          <t>卫星通信, 芯片</t>
         </is>
       </c>
     </row>
@@ -3765,77 +3763,33 @@
       </c>
       <c r="C73" s="2" t="inlineStr"/>
       <c r="D73" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>sz002120</t>
+          <t>sz000702</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>韵达股份</t>
+          <t>正虹科技</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>8.82</v>
+        <v>8.43</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>9.98</v>
+        <v>10.05</v>
       </c>
       <c r="I73" s="2" t="inlineStr"/>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>快递|公司是国内领先的快递综合服务提供商，业务涵盖快递、仓配、国际业务、云便利、商业及新业务。</t>
+          <t>猪肉产业|公司生猪养殖业以种猪繁育、生猪养殖为主，主要产品为种猪、仔猪和肥猪，经营模式主要为自育自繁自养模式和“公司+农户”订单养殖模式，自繁自养模式主要为仔猪繁育及销售。</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
-          <t>快递</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr"/>
-      <c r="D74" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>sz000070</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>特发信息</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="H74" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I74" s="2" t="inlineStr"/>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>CPO+算力|1.公司控股子公司四川华拓的光模块、光器件平台技术可以适用于CPO开发和拓展，同平台产品应用于数据中心领域，目前已出货。
-2.公司除自营数据中心项目外，还曾承接鹏城云脑二期项目Atlas900 AI计算集群及通用计算与存储系统的建设集成项目。</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="inlineStr">
-        <is>
-          <t>CPO, 算力</t>
+          <t>猪肉产业</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3886,12 +3840,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>sh603767</t>
+          <t>sz002046</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>中马传动</t>
+          <t>国机精工</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3855,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sh600203</t>
+          <t>sz002313</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>福日电子</t>
+          <t>日海智能</t>
         </is>
       </c>
     </row>
@@ -3916,12 +3870,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sz002148</t>
+          <t>sh600475</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>北纬科技</t>
+          <t>华光环能</t>
         </is>
       </c>
     </row>
@@ -3931,87 +3885,87 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sh601606</t>
+          <t>sh605169</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>长城军工</t>
+          <t>洪通燃气</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sz002046</t>
+          <t>sh600366</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>国机精工</t>
+          <t>宁波韵升</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sz002313</t>
+          <t>sz002551</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>日海智能</t>
+          <t>尚荣医疗</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sz002915</t>
+          <t>sh601929</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>中欣氟材</t>
+          <t>吉视传媒</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sh600475</t>
+          <t>sh601718</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>华光环能</t>
+          <t>际华集团</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sh605169</t>
+          <t>sh688108</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>洪通燃气</t>
+          <t>赛诺医疗</t>
         </is>
       </c>
     </row>
@@ -4021,72 +3975,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>sh600619</t>
+          <t>sh605598</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>海立股份</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>sz001380</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>华纬科技</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>sh603130</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">云中马  </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>sz301117</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>佳缘科技</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>sz002611</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>东方精工</t>
+          <t>上海港湾</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="95" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="100" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="201" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="229" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,409 +557,417 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>锂电池</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4.05</v>
+        <v>2.18</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sh605169</t>
+          <t>sh603800</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>洪通燃气</t>
+          <t>洪田股份</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>16.9</v>
+        <v>46.71</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>10.03</v>
+        <v>10.01</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>新疆+天然气|地处新疆巴州库尔勒市，专注清洁交通能源供应领域的天然气专业运营商。</t>
+          <t>半导体+锂电铜箔|1.子公司洪星真空科技有限公司是高端制程真空设备方案提供商，能为包括芯片封装、光学、消费电子、厨电厨卫等多个领域提供精准、高效的解决方案，主要客户有：鼎华芯泰、志天纳米、高登电子、福兰特等。
+2.公司已发展成为国内电解铜箔设备龙头供应商，已实现3.5μm-100μm锂电极薄、电子电路超厚解铜箔生产装备的产业化。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>新疆, 天然气</t>
+          <t>半导体, 锂电铜箔</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>锂电池</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4.05</v>
+        <v>2.18</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sz002941</t>
+          <t>sh605378</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>新疆交建</t>
+          <t>野马电池</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>13.81</v>
+        <v>27.64</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I3" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>新疆+基建|地处新疆乌鲁木齐市，新疆地区资质最全、资质等级最高的路桥工程施工企业之一，业务范围辐射西藏、四川、青海、贵州等中西部地区。</t>
+          <t xml:space="preserve">锂电池|公司销售的锂电池主要为纽扣电池，应用于微型电子产品等。
+</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>新疆, 基建</t>
+          <t>锂电池</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>锂电池</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>4.05</v>
+        <v>2.18</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sz002307</t>
+          <t>sz002176</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>北新路桥</t>
+          <t>江特电机</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.61</v>
+        <v>8.68</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>10.02</v>
+        <v>10.01</v>
       </c>
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>新疆+基建|公司是新疆最大的路桥施工企业之一，实力最强的大型公路工程施工企业之一，拥有国家公路工程施工总承包一级资质。</t>
+          <t>锂矿+机器人|1.公司全资子公司银锂新能源是利用锂云母、锂辉石制备高纯度碳酸锂、氢氧化锂的锂电新能源高新技术企业。
+2.子公司米格电机是一家面向全球市场的电机研发、生产、销售于一体的国家重点扶持的高新技术企业，核心产品包括交流伺服电机、混合式步进电机及驱动器。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>新疆, 基建</t>
+          <t>锂矿, 机器人</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>锂电池</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4.05</v>
+        <v>2.18</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sz002800</t>
+          <t>sh600232</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>天顺股份</t>
+          <t>金鹰股份</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>15.92</v>
+        <v>7.83</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>10.02</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>新疆+物流|地处新疆乌鲁木齐市，疆内第三方物流、供应链管理的龙头企业。</t>
+          <t>锂电|公司业务包括锂电池正极材料的研发、生产与销售，产品包括三元正极材料系列产品以及锰酸锂系列产品。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>新疆, 物流</t>
+          <t>锂电</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>锂电池</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>4.05</v>
+        <v>2.18</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sh600425</t>
+          <t>sz002240</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>青松建化</t>
+          <t>盛新锂能</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.41</v>
+        <v>18.44</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>9.98</v>
+        <v>10.02</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>新疆+水泥|新疆生产建设兵团旗下最大的水泥生产企业，南疆水泥龙头，拥有水泥产能超过1800万吨，全为新型干法水泥产能，对该区域内水泥销售价格的形成有较大影响力。</t>
+          <t>锂矿+固态电池|1.我国在四川雅江探获锂资源近百万吨，是亚洲迄今探明最大规模伟晶岩型单体锂矿。盛新锂能旗下公司拥有木绒矿探矿权。
+2.公司在固态电池上游关键材料金属锂方面有业务布局，已建成金属锂产能500吨，超薄超宽锂带已实现批量生产。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>新疆, 水泥</t>
+          <t>锂矿, 固态电池</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>锂电池</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>4.05</v>
+        <v>2.18</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sh600581</t>
+          <t>sz002466</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>八一钢铁</t>
+          <t>天齐锂业</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.24</v>
+        <v>44.91</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10.13</v>
+        <v>9.99</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>新疆+钢铁|新疆唯一的钢铁上市公司，拥有完整优质的炼铁、炼钢及轧钢生产系统，产品以高速线材、螺纹钢、热轧板卷、冷轧薄板、中厚板等建筑及工业用钢为主。</t>
+          <t>锂矿|公司是中国和全球领先、以锂为核心的新能源材料企业，业务涵盖锂产业链的关键阶段，包括硬岩型锂矿资源的开发、锂精矿加工销售以及锂化工产品的生产销售。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>新疆, 钢铁</t>
+          <t>锂矿</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>锂电池</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>4.05</v>
+        <v>2.18</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sh603080</t>
+          <t>sh688683</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>新疆火炬</t>
+          <t>莱尔科技</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>22.1</v>
+        <v>33.29</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>10</v>
+        <v>20.01</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>新疆+天然气|地处新疆喀什市，喀什地区供气量最大、覆盖区域最广的城市燃气综合服务商。</t>
+          <t>锂电|2022年12月1日公告，公司与子公司佛山大为、神火集团下属公司神隆宝鼎拟签订《合作投资协议》，共同出资成立项目公司投资建设年产6万吨涂碳箔项目，项目预计投资金额约6亿元。佛山大为和项目公司将神隆宝鼎作为主要的电池箔供应商，神隆宝鼎保证佛山大为和项目公司的电池箔需求的稳定供应。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>新疆, 天然气</t>
+          <t>锂电</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>锂电池</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>4.05</v>
+        <v>2.18</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz002205</t>
+          <t>sz002052</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>国统股份</t>
+          <t>同洲电子</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>14.37</v>
+        <v>10.87</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10.03</v>
+        <v>10.02</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>新疆+建材|公司地处新疆，主营业务为预应力钢筒混凝土管（PCCP）、各种输水管道及其异型管件和配件、地铁管片、PC构件、铁路轨道板、风电塔筒等高端混凝土制品的制造、运输及相关的技术开发和咨询服务，已参与部分水利工程配套项目。</t>
+          <t>锂电池|公司生产的锂电池主要为18650型柱状电池，主要用于消费电子产品。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>新疆, 建材</t>
+          <t>锂电池</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>锂电池</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>4.05</v>
+        <v>2.18</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sz002302</t>
+          <t>sz002460</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>西部建设</t>
+          <t>赣锋锂业</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.05</v>
+        <v>40.51</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>9.98</v>
+        <v>9.99</v>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>新疆+水泥|全国规模最大、研发能力最强的专业商品混凝土企业。</t>
+          <t>锂矿|公司是世界领先的锂生态企业，拥有五大类逾40种锂化合物及金属锂产品的生产能力，是锂系列产品供应最齐全的制造商之一，完善的产品供应组合能够满足客户独特且多元化的需求。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>新疆, 水泥</t>
+          <t>锂矿</t>
         </is>
       </c>
     </row>
@@ -970,41 +978,45 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>4.05</v>
+        <v>2.08</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sz300859</t>
+          <t>sz002941</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>西域旅游</t>
+          <t>新疆交建</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45.19</v>
+        <v>15.19</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="I11" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>新疆+旅游|公司天山天池景区冬季冰雪娱乐项目主要有冰上龙舟赛、碰碰车、雪爬犁、滑雪圈、电动雪地摩托等近20项冰上项目。</t>
+          <t>新疆+基建|地处新疆乌鲁木齐市，新疆地区资质最全、资质等级最高的路桥工程施工企业之一，业务范围辐射西藏、四川、青海、贵州等中西部地区。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>新疆, 旅游</t>
+          <t>新疆, 基建</t>
         </is>
       </c>
     </row>
@@ -1015,56 +1027,60 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>4.05</v>
+        <v>2.08</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
+          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sz000877</t>
+          <t>sz002307</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>天山股份</t>
+          <t>北新路桥</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.8</v>
+        <v>5.07</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="I12" s="2" t="inlineStr"/>
+        <v>9.98</v>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>新疆+水泥|地处新疆乌鲁木齐市，西北地区最大的水泥生产企业，新疆第二大商品混凝土生产企业，西北地区最大的油井水泥生产基地。</t>
+          <t>新疆+基建|公司是新疆最大的路桥施工企业之一，实力最强的大型公路工程施工企业之一，拥有国家公路工程施工总承包一级资质。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>新疆, 水泥</t>
+          <t>新疆, 基建</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.44</v>
+        <v>2.08</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
+          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1072,19 +1088,19 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sh600366</t>
+          <t>sz002800</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>宁波韵升</t>
+          <t>天顺股份</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>14.49</v>
+        <v>17.51</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>10.02</v>
+        <v>9.99</v>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
@@ -1093,28 +1109,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁+机器人|1.国内钕铁硼龙头，专业从事稀土永磁材料（钕铁硼）的研发、制造和销售。具有年产坯料10000吨的生产能力，是中国主要的稀土永磁材料制造商之一。
-2.公司高度关注未来钕铁硼永磁材料应用可能出现大幅增长的新兴领域，如XR、人形机器人、eVTOL（电动垂直起降飞行器）等，向客户提供从磁材设计到磁材生产，再到磁组件的全流程服务，针对国内某人形机器人客户，已达到量产供货状态。</t>
+          <t>新疆+物流|地处新疆乌鲁木齐市，疆内第三方物流、供应链管理的龙头企业。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁, 机器人</t>
+          <t>新疆, 物流</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.44</v>
+        <v>2.08</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
+          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -1122,44 +1137,48 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sz002164</t>
+          <t>sh600581</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>宁波东力</t>
+          <t>八一钢铁</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>10.51</v>
+        <v>4.66</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="I14" s="2" t="inlineStr"/>
+        <v>9.91</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司的产品包括行星减速器等，杭州湾电机、减速器部分车间已投入生产。</t>
+          <t>新疆+钢铁|新疆唯一的钢铁上市公司，拥有完整优质的炼铁、炼钢及轧钢生产系统，产品以高速线材、螺纹钢、热轧板卷、冷轧薄板、中厚板等建筑及工业用钢为主。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新疆, 钢铁</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.44</v>
+        <v>2.08</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
+          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -1167,44 +1186,48 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sh600503</t>
+          <t>sh603080</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>华丽家族</t>
+          <t>新疆火炬</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.94</v>
+        <v>24.31</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="I15" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>机器人|持有南江机器人50.82%的股权，是全产业链机器人公司；主要产品为面向智能制造和智能物流的智能移动机器人IAGV和智能搬运几期二年ICARRIER系列机器人。</t>
+          <t>新疆+天然气|地处新疆喀什市，喀什地区供气量最大、覆盖区域最广的城市燃气综合服务商。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新疆, 天然气</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.44</v>
+        <v>2.08</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
+          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -1212,44 +1235,48 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sz002664</t>
+          <t>sz002205</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>信质集团</t>
+          <t>国统股份</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>24.42</v>
+        <v>15.81</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr"/>
+        <v>10.02</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司旗下鸿辉智能机器人产品线涵盖无框力矩电机、手部微型电机、无刷微电机（含齿槽）等，专注于人形机器人电机及机器人关节电机核心零部件的研发与生产。</t>
+          <t>新疆+建材|公司注册地位于乌鲁木齐市，是国内最大的PCCP管道及配件的专业制造供应商之一。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新疆, 建材</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.44</v>
+        <v>2.08</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
+          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -1257,44 +1284,48 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sh688577</t>
+          <t>sz002302</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>浙海德曼</t>
+          <t>西部建设</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>69.8</v>
+        <v>7.76</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr"/>
+        <v>10.07</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>机器人+工业母机|公司目前已经掌握了精密数控车床和高精密数控车床的制造技术，并形成了批量生产能力，在机器人行业得到了广泛应用。</t>
+          <t>新疆+水泥|全国规模最大、研发能力最强的专业商品混凝土企业。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>机器人, 工业母机</t>
+          <t>新疆, 水泥</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.44</v>
+        <v>2.08</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
+          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -1302,30 +1333,33 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sh603319</t>
+          <t>sh600425</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>美湖股份</t>
+          <t>青松建化</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>32.66</v>
+        <v>4.85</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr"/>
+        <v>9.98</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司子公司衡山齿轮生产的减速机主要应用于陶瓷机械，有四大系列硬齿面减速机。
-2025年3月23日公告，公司拟与重庆市沙坪坝区招商投资促进中心签订《项目合作协议书》，计划总投资约7亿元建设美湖智造西部生产研发基地项目，主要开展可变排量泵、电子泵、谐波减速器、关节模组四大类产品的研发及生产。</t>
+          <t>新疆+水泥|新疆生产建设兵团旗下最大的水泥生产企业，南疆水泥龙头，拥有水泥产能超过1800万吨，全为新型干法水泥产能，对该区域内水泥销售价格的形成有较大影响力。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新疆, 水泥</t>
         </is>
       </c>
     </row>
@@ -1336,41 +1370,45 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.44</v>
+        <v>1.6</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
+          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sz001278</t>
+          <t>sz002148</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>一彬科技</t>
+          <t>北纬科技</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>20.23</v>
+        <v>10.41</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I19" s="2" t="inlineStr"/>
+        <v>10.04</v>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司通过参股共青城民生创新智能投资合伙企业（有限合伙）间接投资法奥意威（苏州）机器人系统有限公司，持股比例为1.28%。法奥机器人主营全零部件自研协作机器人研发、制造及销售，产品主要应用场景有:3D 焊接机器人、移动焊接机器人、移动码垛工作站、螺丝锁付工作站、井字棋游戏机器人以及喷涂、上下料、餐饮制作等应用场景。</t>
+          <t>宇树科技机器狗|参股的天宇经纬公司自主研发的天宇云盒和御空低空智能管控平台，可协助无人机、机器狗等设备实现实时联网、远程控制、信息回传等作业功能，目前天宇经纬从客户需求出发，与宇树科技在机器狗应用领域开展生态合作，为行业客户提供解决方案。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>宇树科技机器狗</t>
         </is>
       </c>
     </row>
@@ -1381,37 +1419,36 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.44</v>
+        <v>1.6</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>为期5天的2025世界机器人大会今天（8日）将在北京开幕。</t>
+          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sz301112</t>
+          <t>sh603617</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>信邦智能</t>
+          <t>君禾股份</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>51.24</v>
+        <v>8.65</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>20</v>
+        <v>10.05</v>
       </c>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">机器人|公司是一家以工业机器人及相关智能技术为核心的智能制造解决方案及装备的综合集成服务商，主营业务是从事汽车智能化、自动化生产线及成套装备等的设计、研发、制造、装配和销售。
-</t>
+          <t>机器人|公司的池底清洁机器人是针对泳池清洁领域开发的水下清洁工具，实现了“高效清洁，一次搞定”、“便捷操作，一键搞定”等功能。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1423,15 +1460,15 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.88</v>
+        <v>1.6</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
+          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -1439,49 +1476,45 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sz002046</t>
+          <t>sh603579</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>国机精工</t>
+          <t>荣泰健康</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>31.05</v>
+        <v>40.49</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>5天5板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>机器人+商业航天|1.公司有部分轴承产品可用于机器人领域。
-2.公司特种轴承主要服务于我国国防军工行业，应用于航空航天领域，包括超低温自润滑火箭发动机轴承、卫星能源系统轴承、宇宙飞船生命维持系统轴承、陀螺仪高灵敏轴承、偏置动量轮高可靠性、长寿命轴承及其组件等。</t>
+          <t>机器人+脑机接口|1.公司于2025年3月13日成立上海阿而泰机器人有限公司，经营范围包含：特殊作业机器人制造；工业机器人制造；智能机器人的研发；人工智能应用软件开发等。
+2.2025年4月21日，公司与神经科技领域创新先锋上海傲意信息科技有限公司在上海举行战略合作签约仪式，正式宣布共建 “脑机交互联合实验室”，共同推进脑机融合技术和仿生机械手在智能健康领域的应用。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>机器人, 商业航天</t>
+          <t>机器人, 脑机接口</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.88</v>
+        <v>1.6</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
+          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -1489,2137 +1522,2176 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sz000901</t>
+          <t>sz002841</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>航天科技</t>
+          <t>视源股份</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>16.95</v>
+        <v>38.98</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>9.99</v>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+      <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>机器人|公司在机器人业务方面已具备一定技术储备，涵盖视觉感知与导航、触觉感知与反馈、机器学习、电机及驱动、运动控制、整机设计等核心研究方向，机器人相关专利申请总量超600项。</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>sz002782</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>可立克</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>机器人|公司有供应机器人充电站里的电源控制板、机器狗的充电电源产品。</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>sz003028</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>振邦智能</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">机器人|2024年1月8日公司接受调研时表示，公司目前主要布局清洁机器人、割草机器人。
+</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>sz301502</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>华阳智能</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>54.12</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>机器人|公司的无框电机可应用于机器人、协作机器人及高端医疗器械等领域。</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>算力工程</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>sz002908</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>德生科技</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>人力资源+算力|1.公司以民生场景需求为牵引，深耕数据融合应用，打造了就业监测、政策找人、职业背调等十余款数据产品。公司旗下金色华勤主要以互联网方式从事人力资源服务，其面向的客户群体为中小微企业及个人。
+2.公司在算力领域采用自有算力和云算力租赁相结合，在算力基础设施上，公司具备云计算的能力。</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>人力资源, 算力</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>算力工程</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>sz000010</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>美丽生态</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>光伏+算力|1.公司打造公司新能源产业品牌，快速拓展以光伏产业为主的第二赛道，整合并建立优质的光伏组件等资源库，优化各类业务材料供应商结构，培养供应链组件供应商，建立自有供应链管理体系。
+2.公司逐步拓展主营延伸业务向大数据算力等新兴产业倾斜，设立美丽算力科技运营（海南）有限公司。</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>光伏, 算力</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>算力工程</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>sz000070</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>特发信息</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>光模块+算力|1.公司控股子公司四川华拓的光模块、光器件平台技术可以适用于CPO开发和拓展，同平台产品应用于数据中心领域，目前已出货。
+2.公司除自营数据中心项目外，还曾承接鹏城云脑二期项目Atlas900 AI计算集群及通用计算与存储系统的建设集成项目。</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>光模块, 算力</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>算力工程</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>sh600410</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>华为+算力|1.公司与华为深度合作人工智能算力中心解决方案，携手鲲鹏、昇腾助力人工智能领域发展，共同参与多个省市智算中心规划建设项目。
+2.公司打造了AI驱动的企业投标系统投标大王，通过引入大模型技术和Multi-Agent架构，形成高效的模型交互策略，实现了招标文件智能解读、资源精准匹配、风险科学评估和标书全面审核等关键功能。</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>华为, 算力</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>算力工程</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>sh600666</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">奥瑞德  </t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>RWA+算力|1.公司参与编写由中国信通院和蚂蚁数科牵头发起的《可信区块链实体资产可信上链技术规范》。
+2.2023年10月17日公告，根据公司业务拓展需要，公司拟投资建设算力集群向客户提供算力租赁服务，项目投资约1.79亿元。</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>RWA, 算力</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>算力工程</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>sz002174</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>游族网络</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>算力+RWA+游戏|1.2025年7月27日，游族网络、长城科技、深圳机密计算签署战略合作协议，三方将深度融合自主可控算力、机密计算技术、全球化产业应用优势，携手构建“国产算力+密态安全+场景创新”三位一体的自主可控算力安全技术底座，为文化、科技、金融、能源、制造等重点产业领域的安全算力需求和RWA等创新场景需求提供自主可控跨境算力安全解决方案。
+2.公司是一家全球性的游戏研发与发行公司，主营业务包括移动游戏和网页游戏的研发、发行和运营。</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>算力, RWA, 游戏</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>财联社记者近日多方采访获悉，PCB行业市场景气度较去年同期显著改善，尤其是高端产品，市场需求量较大。</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>sh603186</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>华正新材</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>35.07</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>PCB+固态电池|1.公司主要从事覆铜板及粘结片、复合材料和膜材料等产品的设计、研发、生产及销售，其中覆铜板产品直接下游客户为PCB企业。
+2.公司铝塑膜产品正积极拓展和布局在固态和半固态电池的应用。</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>PCB, 固态电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>财联社记者近日多方采访获悉，PCB行业市场景气度较去年同期显著改善，尤其是高端产品，市场需求量较大。</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>sz002008</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>大族激光</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>33.88</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>PCB+机器人|1.公司构建了覆盖多层板、HDI板、IC封装基板、挠性板及刚挠结合板等不同细分PCB市场及层压、钻孔、曝光、成型、检测等关键工序的立体化产品矩阵，为PCB不同细分领域的客户提供差异化的一站式工序解决方案。
+2.公司与华昌达共同成立合资公司，进一步拓展工业激光加工与机器人领域的协同发展。</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>PCB, 机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>财联社记者近日多方采访获悉，PCB行业市场景气度较去年同期显著改善，尤其是高端产品，市场需求量较大。</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>sz301251</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>威尔高</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>55.69</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>PCB|公司主营业务是印制电路板的研发、生产和销售，公司海外客户主要包括施耐德、台达电子、三星电子、富士康、立讯等。</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>财联社记者近日多方采访获悉，PCB行业市场景气度较去年同期显著改善，尤其是高端产品，市场需求量较大。</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>sz000016</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>深康佳Ａ</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>消费电子+PCB|1.公司的Micro LED产品可应用于包括AR眼镜在内的各类显示设备。
+2.公司PCB业务由深圳市康佳电路有限责任公司作为统一管理运营主体，产品涉及金属基板、双面板、多层板、5G高频高速板及HDI（高密度互连技术）等。</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>消费电子, PCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>财联社记者近日多方采访获悉，PCB行业市场景气度较去年同期显著改善，尤其是高端产品，市场需求量较大。</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>sz000823</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>超声电子</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>PCB|公司主要从事印制线路板、液晶显示器及触摸屏、超薄及特种覆铜板、超声电子仪器的研制、生产和销售。印制线路板是电子产品的基础元器件，广泛应用于通讯产品、汽车电子产品、消费电子产品、家电产品、工业及医疗电子、电脑及周边设备等众多领域。</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>PEEK材料</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>根据沙利文咨询的相关预测，在假设我国PEEK材料主要终端应用产品维持不变的情况下，2022年至2027年，国内PEEK材料市场需求量将由2334吨提升至5079吨，对应年复合增长率约为16.8%。</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>sz002915</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>中欣氟材</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>PEEK材料|公司已构建一体化的PEEK核心原材料产业，已布局5000吨PEEK核心中间体的产能DFBP，并围绕DFBP布局有氟苯、4-氟苯甲酰氯、氢氟酸、萤石矿的一体化产业链。</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>PEEK材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>PEEK材料</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>根据沙利文咨询的相关预测，在假设我国PEEK材料主要终端应用产品维持不变的情况下，2022年至2027年，国内PEEK材料市场需求量将由2334吨提升至5079吨，对应年复合增长率约为16.8%。</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>sz301005</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>超捷股份</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>55.87</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>PEEK+商业航天|1.公司PEEK材质的产品主要为发动机相关的连杆、齿轮等塑料零部件。
+2.公司已设立专门商业航天业务团队，业务主要为商业火箭箭体结构件制造，包括壳段、整流罩、发动机阀门等，2024年5月已完成产线建设。</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>PEEK, 商业航天</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>PEEK材料</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>根据沙利文咨询的相关预测，在假设我国PEEK材料主要终端应用产品维持不变的情况下，2022年至2027年，国内PEEK材料市场需求量将由2334吨提升至5079吨，对应年复合增长率约为16.8%。</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>sz301022</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>海泰科</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>PEEK材料|公司在轻量化高分子材料解决方案（主要包括PEEK-CF50、PEEK-SL20和PEEK-HT300等材料）方面进行了相应的技术储备，公司通过在PEEK材料中创新性添加50%碳纤维、PEEK+石墨和陶瓷纤维+碳纤维，进一步提升PEEK材料性能，实现产品轻量化、自润滑、耐高温等性能。</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>PEEK材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>PEEK材料</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>根据沙利文咨询的相关预测，在假设我国PEEK材料主要终端应用产品维持不变的情况下，2022年至2027年，国内PEEK材料市场需求量将由2334吨提升至5079吨，对应年复合增长率约为16.8%。</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>sh600143</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>金发科技</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>PEEK材料|公司拥有自主研发的PEEK聚合技术能力，相关改性产品主要应用于汽车、电子电器、机械等多个领域。</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>PEEK材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>商业航天</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>近日，我国卫星密集发射，其中8月9日，我国太原卫星发射中心在山东日照附近海域使用捷龙三号运载火箭，成功将吉利星座04组卫星发射升空。</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>sz000901</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>航天科技</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
         <is>
           <t>军工+商业航天|1.中国航天科工集团旗下上市公司，航天应用产品主要是以惯性导航加速度传感器、测试测控设备、专用电源、精密制造为主要业务方向，完成国家武器装备及载人航天配套任务。
 2.公司航天应用产品包括惯性导航加速度传感器、精密制造、测试测控设备、专用电源，部分可配套商业航天。</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
+      <c r="K41" s="2" t="inlineStr">
         <is>
           <t>军工, 商业航天</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>商业航天</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="B42" s="2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>近日，我国卫星密集发射，其中8月9日，我国太原卫星发射中心在山东日照附近海域使用捷龙三号运载火箭，成功将吉利星座04组卫星发射升空。</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>sh605598</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr">
         <is>
           <t>上海港湾</t>
         </is>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
+      <c r="G42" s="2" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>基建+商业航天|1.公司地处上海，为全球客户提供集勘察、设计、施工、监测于一体的岩土工程综合服务。
 2.2025年上半年，公司卫星电源系统业务呈现快速增长态势，订单储备丰盈且增速亮眼，已构建起“研发创新-工程验证–成功交付”的良性发展闭环。当前，公司同步推进卫星电源系统的技术研发与场景应用，核心产品关键指标通过航天级严苛环境测试。</t>
         </is>
       </c>
-      <c r="K23" s="2" t="inlineStr">
+      <c r="K42" s="2" t="inlineStr">
         <is>
           <t>基建, 商业航天</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>商业航天</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>sz301232</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>飞沃科技</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>机器人+商业航天|1.公子公司罗博普仑合作研发的激光导航风电叶片自动打磨机器人，能够对风电叶片实现全自动化机器打磨。
-2.公司是一家专业从事高强度紧固件研发、制造及为客户提供整体紧固系统解决方案的企业，在航天航空行业，已中标中国航发中传机械有限公司钢制件和齿轮件，开始批量供货</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>机器人, 商业航天</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>商业航天</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>sz002471</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>中超控股</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>机器人+商业航天|1.子公司中超电缆已拥有“耐扭转耐腐蚀型高柔性智能机器人电缆”实用新型专利证书。
-2.孙公司江苏精铸专业从事高温合金精密铸件的制造，转化上海交大前期航空发动机及燃气轮机、航天特种飞行器、运载火箭等关键热端零部件的技术研发成果，并进一步研究优化高温合金精密铸件批量化生产工艺。</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>机器人, 商业航天</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>商业航天</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>sz300780</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>德恩精工</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>19.98</v>
-      </c>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>商业航天+机器人|1.公司持有德恩航天57%股权，标的公司从事火箭发射设备的研发和制造以及火箭发动机的研发和制造。
-2.公司主营业务包括机械传动与传动联结件、机械非标定制件、工业机器人、数控机床和产业互联网平台服务五大业务板块。</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>商业航天, 机器人</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>商业航天</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>中国载人航天工程办公室今日官宣，北京时间2025年8月6日，揽月月面着陆器着陆起飞综合验证试验在位于河北省怀来县的地外天体着陆试验场圆满完成。</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>sh603131</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>上海沪工</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>商业航天+机器人|1.公司旗下航天华宇是航天装备制造平台，是我国多家航天总装单位的核心供应单位。同时，公司设立沪航卫星作为卫星业务平台，为商业卫星提供配套产品及服务。
-2.拥有机器人及自动化焊接(切割)成套设备，与全球最大机器人公司之一的FANUC结成合作伙伴。</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>商业航天, 机器人</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>创新药</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>近期创新药出海消息不断，迪哲医药公告称，公司在研产品DZD8586获美国FDA授予“快速通道认定”。</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>sh603811</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>诚意药业</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>16.61</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>5天3板</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>创新药|公司坚持以海洋药物、中医药、生物医药为主的产品开发策略。在神经系统、内分泌系统等方面对创新药物与大健康类相关产品进行布局。</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>创新药</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>创新药</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>近期创新药出海消息不断，迪哲医药公告称，公司在研产品DZD8586获美国FDA授予“快速通道认定”。</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>sh688265</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>南模生物</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>51.92</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>创新药|公司主要从事基因修饰动物模型及相关技术服务。公司以“编辑基因，解码生命”为己任，打造了以模式生物基因组精准修饰、基因功能表型分析、药物筛选与评价为核心的技术平台，为客户提供定制化模型、标准化模型等基因修饰动物模型，以及模型繁育、药效评价及表型分析、饲养服务等相关技术服务。</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>创新药</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>创新药</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>近期创新药出海消息不断，迪哲医药公告称，公司在研产品DZD8586获美国FDA授予“快速通道认定”。</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>sh601089</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>福元医药</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>29.61</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>辅助生殖+创新药|1.公司全资子公司浙江爱生药业有限公司生产的黄体酮软胶囊通过仿制药质量和疗效一致性评价，该药品用于治疗先兆流产和习惯性流产、经前期紧张综合症、无排卵型功血和无排卵型闭经、与雌激素联合使用治疗更年期综合症。
-2.公司创新药聚焦核酸类药物研发，截至2023年6月，公司创新药在研项目4个。</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>辅助生殖, 创新药</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>创新药</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>近期创新药出海消息不断，迪哲医药公告称，公司在研产品DZD8586获美国FDA授予“快速通道认定”。</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>sz000534</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>万泽股份</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>创新药+军工|1.公司主要产品金双歧和定君生均为独家创新药，受集采降价影响较小。
-2.公司作为航空发动机产业的供应商，承担了对国产商用大飞机发动机用单晶、等轴类涡轮叶片的研制与生产任务。</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>创新药, 军工</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>创新药</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>近期创新药出海消息不断，迪哲医药公告称，公司在研产品DZD8586获美国FDA授予“快速通道认定”。</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>sh600513</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>联环药业</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>创新药|主要产品有创新药物爱普列特片(川流)，新药依巴斯汀片(苏迪)、非洛地平片(联环尔定)、非洛地平缓释胶囊(联环笑定)等二十多个。</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>创新药</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>高铁轨交</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>sh603500</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>祥和实业</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>高铁|公司主要的业务为高铁轨道扣件中的非金属部件，产品最终的使用方为各高铁专线项目公司。</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>高铁</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>高铁轨交</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>sz301048</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>金鹰重工</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>高铁|公司是国内领先的轨道工程装备产品供应商，是国铁集团系统内唯一取得相关产品型号合格证和制造许可并能够研制并生产轨道工程装备的企业。</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>高铁</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>高铁轨交</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>天眼查工商信息显示，近日，新藏铁路有限公司成立，注册资本950亿人民币。股东信息显示，该公司由中国国家铁路集团有限公司全资持股。</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>sh600268</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>国电南自</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>高铁+超级水电|1.公司主要产品系列包括电网自动化产品、电厂自动化产品、新能源产品、节能减排产品、水电自动化产品、轨道交通自动化产品、信息安防产品服务、智能一次设备产品、输变电总承包业务等。
-2.国电南自的“华电睿信”系统已经在华电集团内外18个水电站、2个集控中心实现了规模化应用，还实现了国内首套自主可控系统在20万千瓦、60万千瓦水电机组与集控中心的示范应用。</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>高铁, 超级水电</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>sh601718</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>际华集团</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>军工+核污染防治|1.公司是中国军队、武警部队军需品采购的核心供应商，是中国最强最大的军需品、职业装、职业鞋靴研发和生产基地。
-2.公司核污染防护产品有全套核污染防护服、鞋等。</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>军工, 核污染防治</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>sz002760</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>凤形股份</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>军工|子公司康富科技主要产品为船电系统解决方案及特种电机，船电系统解决方案主要应用于船电装备领域，特种电机主要应用于军用、轨道交通、核电及数据中心等市场。</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>sh600184</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>光电股份</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>军工+机器人|1.中国兵器工业集团旗下上市公司，公司防务业务板块涵盖以大型武器系统、精确制导导引头、光电信息装备为代表的光电防务类产品的研发、设计、生产和销售。
-2.公司高性能光学材料及先进元件最终应用到下游车载镜头、消费电子、安防监控、投影成像，以及工业自动控制系统、工业机器人、机器人的光学成像、视觉传感系统中。</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>军工, 机器人</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>超级水电</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>7月19日，国家投资建设1.2万亿的超级水电项目正式宣布工程开工。</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>sz002097</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>山河智能</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>17.33</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>15天9板</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>盾构机+军工|1.公司凿岩设备、硬岩掘进机、盾构机可应用于隧道施工。公司设备已参与项目前期地质处理，后续公司仍将积极配合合作伙伴参与雅下水电项目。
-2.公司参股企业山河星航研制各型工业级无人机，包括多旋翼军警用无人机、多旋翼植保机、无人直升机、固定翼无人机。</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>盾构机, 军工</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>超级水电</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>7月19日，国家投资建设1.2万亿的超级水电项目正式宣布工程开工。</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>sz301038</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>深水规院</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>34.98</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>超级水电|公司作为国内较早具备水利行业和市政给排水专业双甲级资质的勘测设计企业之一。公司已在西藏设立分公司，其主营业务是勘测设计、规划咨询、项目运管等。</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>超级水电</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>液冷IDC</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>sz002313</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>日海智能</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>机器人+液冷IDC|1.公司通信模组可应用于送餐机器人、方舱机器人等设备。
-2.子公司芯讯通与英飞凌和Kigen携手推出最小eSIM模组解决方案。
-3.公司拥有自制的液冷机柜和冷通道，主要应用于数据中心。</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>机器人, 液冷IDC</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>液冷IDC</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>sz002837</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>英维克</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>46.39</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>液冷IDC|公司已推出针对算力设备和数据中心的Coolinside液冷机柜及全链条液冷解决方案，相关产品涉及冷源、管路连接、CDU分配、快换接头、Manifold、冷板等已规模商用，“端到端、全链条”的平台化布局已成为公司在液冷业务领域的重要核心竞争优势。</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>新型城镇化</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.1</v>
+        <v>1.59</v>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>7月19日，国家投资建设1.2万亿的超级水电项目正式宣布工程开工。</t>
+          <t>近日，我国卫星密集发射，其中8月9日，我国太原卫星发射中心在山东日照附近海域使用捷龙三号运载火箭，成功将吉利星座04组卫星发射升空。</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sh603176</t>
+          <t>sh600877</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>汇通集团</t>
+          <t>电科芯片</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>7.33</v>
+        <v>13.96</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>水利基建|公司具备水利水电工程施工总承包叁级资质，参与建设的水利工程项目有高碑店市2017年度地下水超采综合治理农村生活用水置换工程等。</t>
+          <t>半导体+商业航天|公司持续关注商业航天领域的发展，公司北斗短报文、窄带语音通信芯片以及宽带卫星互联网通信芯片产品在技术方面与商业航天应用是一致的，可以根据商业航天领域具体需求，在适当的时机可实现产品的快速开发及产业化落地。</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>水利基建</t>
+          <t>半导体, 商业航天</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>新型城镇化</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.1</v>
+        <v>1.59</v>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>7月19日，国家投资建设1.2万亿的超级水电项目正式宣布工程开工。</t>
+          <t>近日，我国卫星密集发射，其中8月9日，我国太原卫星发射中心在山东日照附近海域使用捷龙三号运载火箭，成功将吉利星座04组卫星发射升空。</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>sz000010</t>
+          <t>sz002565</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>美丽生态</t>
+          <t>顺灏股份</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>4.64</v>
+        <v>8.23</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>9.950000000000001</v>
+        <v>10.03</v>
       </c>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>光伏+基建|1.公司打造公司新能源产业品牌，快速拓展以光伏产业为主的第二赛道，整合并建立优质的光伏组件等资源库，优化各类业务材料供应商结构，培养供应链组件供应商，建立自有供应链管理体系。
-2.公司主要从事园林绿化工程施工、园林景观设计、园林养护及绿化苗木种植等。</t>
+          <t>商业航天|公司作为独投方投资人民币1.1亿元于北京轨道辰光科技有限公司的加轮融资，轨道辰光是北京星空院首个孵化落地的产业项目，是“926工程”（晨昏轨道巨型算力卫星星座项目）建设和运营主体。</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>光伏, 基建</t>
+          <t>商业航天</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>8月6日，国家电网官网显示，本周以来，国家电网公司经营区电力负荷两创历史新高，单日用电负荷涨幅超7000万千瓦，最大负荷达12.29亿千瓦，较去年极值增长4.1%。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sh600475</t>
+          <t>sh601606</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>华光环能</t>
+          <t>长城军工</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>21.19</v>
+        <v>57.07</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>8天6板</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>光伏+电力|1.子公司中设国联拥有光伏开发运营能力，能够提供专业的光伏发电服务和系统解决方案，截至2024年年报，开发运营有325MW光伏项目，区域覆盖江苏、安徽、山东、浙江、江西、广东等多省市地区。
-2.公司是无锡地区的热电运营龙头，公司占无锡市区热电联产供热市场的70%左右。</t>
+          <t>军工|公司自成立以来，在保证军品业务的同时，不断开拓民品市场，民品业务保持稳步增长。多年以来，公司军品订货量保持全国地方军工订货量的领先地位。</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>光伏, 电力</t>
+          <t>军工</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>8月6日，国家电网官网显示，本周以来，国家电网公司经营区电力负荷两创历史新高，单日用电负荷涨幅超7000万千瓦，最大负荷达12.29亿千瓦，较去年极值增长4.1%。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sh600744</t>
+          <t>sz000026</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>华银电力</t>
+          <t>飞亚达</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>7.73</v>
+        <v>19.49</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I46" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>电力|作为湖南省火电装机主要发电企业，公司主要从事火力发电业务，同时经营水电、风电、太阳能业务以及电力销售业务。</t>
+          <t>军工央企+手表|公司控股股东是中国航空工业集团子公司中国航空技术国际控股有限公司旗下中航国际控股有限公司，公司主要从事“飞亚达”表的经营和世界名表的商业连锁销售。</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>军工央企, 手表</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.26</v>
+        <v>1.22</v>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>中信建投研报指出，未来医疗器械板块中越来越多的投资机会来自国际化，多家企业25年国际业务有望实现高增长、业务收入占比持续提升，国际业务长期空间大的公司也有望迎来估值重塑。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sz002551</t>
+          <t>sz002331</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>尚荣医疗</t>
+          <t>皖通科技</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>4.64</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>9.950000000000001</v>
+        <v>10.06</v>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天2板</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>医疗器械|公司已搭建覆盖医疗产品、医疗服务和健康产业三大板块业务的医疗平台，医疗产品业务包括医疗设备的研发、生产、销售，医疗手术包及手术耗材，防护产品，骨科植入耗材的研发、生产、销售及提供专业的医院数字化解决方案。</t>
+          <t>华为+军工|1.子公司华东电子微信公众号发布，华东电子携手华为昇腾A1，把人工智能带进港口，结合码头岸边理货作业场景，推出基于昇腾Al的边缘计算联合解决方案--智能理货系统，从“站位盯箱”到“远程作业”，极大地提升港口岸边理货质量与作业效率。
+2.公司子公司赛英科技专业从事嵌入软件式微波混合集成电路、微波混合集成电路及雷达相关整机、系统产品的开发设计、生产、销售与服务，服务于机载、舰载、弹载等多种武器平台，产品主要为雷达、电子对抗和通信系统提供配套。</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>华为, 军工</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.26</v>
+        <v>1.22</v>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>中信建投研报指出，未来医疗器械板块中越来越多的投资机会来自国际化，多家企业25年国际业务有望实现高增长、业务收入占比持续提升，国际业务长期空间大的公司也有望迎来估值重塑。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sh688108</t>
+          <t>sz002246</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>赛诺医疗</t>
+          <t>北化股份</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>20.44</v>
+        <v>19.6</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>产品获FDA认定|赛诺医疗公告称，子公司产品获美国FDA突破性医疗器械认定，是美国FDA历史上全球首个颅内动脉粥样硬化狭窄治疗产品。</t>
+          <t>硝化棉+化工|1.公司是全球生产规模最大的硝化棉生产企业，产销量连续多年排在世界首位。
+2.公司参股广州北方化工涉及TDI产品贸易业务。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>产品获FDA认定</t>
+          <t>硝化棉, 化工</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>IDC电源</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.7000000000000001</v>
+        <v>4.34</v>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>RWA注册登记平台7日正式在香港上线，同日Web3.0三项标准立项，包括《RWA代币化业务指南》《RWA代币化技术规范》。</t>
+          <t>华泰证券研报称，当前应重视数据中心相关硬件板块机会，看好相关板块机会，包括柴油发电机组、服务器电源、UPS、HVDC等。</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>sz002908</t>
+          <t>sz002364</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>德生科技</t>
+          <t>中恒电气</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>12.08</v>
+        <v>18.3</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>10.02</v>
+        <v>9.98</v>
       </c>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>人力资源+数字货币|1.公司以民生场景需求为牵引，深耕数据融合应用，打造了就业监测、政策找人、职业背调等十余款数据产品。公司旗下金色华勤主要以互联网方式从事人力资源服务，其面向的客户群体为中小微企业及个人。
-2.公司参股的子公司北京惠民数字科技有限公司是冬奥会数字货币的重要实施者，是冬奥通的系统建设方。</t>
+          <t>数据中心HVDC|公司面向ICT行业能源网络建设提供数据中心HVDC直流供配电、预制化Panama电力模组，5G全栈式站点高效能源等产品及解决方案。</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>人力资源, 数字货币</t>
+          <t>数据中心HVDC</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>IDC电源</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.7000000000000001</v>
+        <v>4.34</v>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>RWA注册登记平台7日正式在香港上线，同日Web3.0三项标准立项，包括《RWA代币化业务指南》《RWA代币化技术规范》。</t>
+          <t>华泰证券研报称，当前应重视数据中心相关硬件板块机会，看好相关板块机会，包括柴油发电机组、服务器电源、UPS、HVDC等。</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>sz003040</t>
+          <t>sz300870</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>楚天龙</t>
+          <t>欧陆通</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>26.21</v>
+        <v>163.38</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>9.99</v>
+        <v>20</v>
       </c>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>稳定币|楚天龙发布投资者关系活动记录表公告称，公司在技术实力、客户群体、服务经验以及成功案例等方面，具备参与香港地区法币稳定币相关业务的能力，随着公司出海战略的稳步推进，有望在嵌入式安全产品及创新金融服务等领域落地更多场景项目。</t>
+          <t>IDC电源+液冷|1.公司已经成为主要的境内数据中心电源生产制造企业之一，涵盖了800W以下、800-2000W、2000W以上等全功率段产品系列，陆续为浪潮信息、富士康、华勤、联想、中兴、新华三等国内知名服务器系统厂商出货。
+2.公司的服务器电源产品包括风冷、浸没式液冷在内的两大类电源产品及解决方案，覆盖60w到30kw瓦数段，可应用于数据中心各类型服务器等设备。</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>稳定币</t>
+          <t>IDC电源, 液冷</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>IDC电源</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C51" s="2" t="inlineStr"/>
+        <v>4.34</v>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券研报称，当前应重视数据中心相关硬件板块机会，看好相关板块机会，包括柴油发电机组、服务器电源、UPS、HVDC等。</t>
+        </is>
+      </c>
       <c r="D51" s="2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>sz000691</t>
+          <t>sz002851</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>*ST亚太</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>7.33</v>
+        <v>67.63</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>18天9板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr"/>
+          <t>英伟达+IDC电源|1.2024年10月17日公告，公司正参与国际头部科技公司英伟达Blackwell GB200系统的创新设计与合作建设。
+2.公司电源产品中的服务器电源一般在数据中心的服务器机柜、服务器、交换机、路由器、存储设备中，是一种将交流电转换为直流电的装置。</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>英伟达, IDC电源</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>兴业证券研报称，创新药板块景气度可持续，“创新+国际化”的创新药产业趋势不变，始终是医药板块的核心方向。</t>
+        </is>
+      </c>
       <c r="D52" s="2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>sz002289</t>
+          <t>sz000590</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>*ST宇顺</t>
+          <t>启迪药业</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>25.99</v>
+        <v>13.09</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>6天6板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr"/>
+          <t>创新药|公司主要开展的科研创新项目有古代经典名方中药复方制剂研究及产品工艺改进研究。</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C53" s="2" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>兴业证券研报称，创新药板块景气度可持续，“创新+国际化”的创新药产业趋势不变，始终是医药板块的核心方向。</t>
+        </is>
+      </c>
       <c r="D53" s="2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>sh600696</t>
+          <t>sh603716</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST岩石 </t>
+          <t>塞力医疗</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>6.55</v>
+        <v>30.36</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="I53" s="2" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.公司主要从事商业保理、融资租赁、不动产运营管理和大宗商品贸易。
-2.公司持有江西章贡酒业有限责任公司25%股权。章贡酒业是全国白酒工业百强企业，江西省重点酿酒企业。</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr"/>
+          <t>创新药+AI医疗|1.公司战略投资的心血管领域长效治疗性疫苗的创新性研发公司——武汉华纪元生物技术开发有限公司，其自主研发国家1类生物创新药HJY-ATRQβ-001正式获得国家药品监督管理局（NMPA）的新药临床试验申请（IND）受理通知书。
+2.公司作为以“人工智能+医疗大数据”为基础的智慧医疗综合体系建设供应商，始终聚焦医疗技术更新迭代与医疗领域应用场景的创新融合。</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>创新药, AI医疗</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C54" s="2" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>兴业证券研报称，创新药板块景气度可持续，“创新+国际化”的创新药产业趋势不变，始终是医药板块的核心方向。</t>
+        </is>
+      </c>
       <c r="D54" s="2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>sz002231</t>
+          <t>sz300158</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>*ST奥维</t>
+          <t>振东制药</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>3.55</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>5.029999999999999</v>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司在军工业务方面坚持国产自主可控的发展方向，聚焦野战通信与单兵信息化系统领域，主要产品包括无线宽带传输系统、自主可控国产化设备等。</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr"/>
+          <t>创新药|公司在创新药领域持续深耕，重点围绕肿瘤、皮肤等管线布局研发。在研新药抗肿瘤领域有治疗胃癌的ZD09、治疗乳腺癌骨转移的ZDH02等，皮肤领域有治疗特应性皮炎的SH003等。</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C55" s="2" t="inlineStr"/>
+        <v>1.79</v>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>SIA宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+        </is>
+      </c>
       <c r="D55" s="2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>sz000752</t>
+          <t>sh600619</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>ST西发</t>
+          <t>海立股份</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>10.64</v>
+        <v>20.89</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>5.029999999999999</v>
+        <v>10.01</v>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司啤酒目前在拉萨地区市场占有率约为85%，在西藏市场占有率为50%。</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr"/>
+          <t>光刻机|海立集团与微电子装备集团双方领导以封装光刻机得冷却系统配套为起点，逐步从零部件级供应合作提升为系统级供应合作。</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>光刻机</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C56" s="2" t="inlineStr"/>
+        <v>1.79</v>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>SIA宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+        </is>
+      </c>
       <c r="D56" s="2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>sz002898</t>
+          <t>sh600246</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>*ST赛隆</t>
+          <t>万通发展</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>16.81</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>5</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>5天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司已建成集医药中间体、原料药、制剂的研发、生产、营销和技术服务为一体的医药全产业链的现代化制药企业。</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr"/>
+          <t>注入优质芯片资产|万通发展公告称，公司拟通过增资及股权转让方式合计投资8.54亿元取得数渡科技62.98%股权。投资完成后，数渡科技将成为公司控股子公司并纳入合并报表。标的公司主要从事高速互连芯片设计与研发以及提供ASIC芯片定制设计服务。</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>注入优质芯片资产</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C57" s="2" t="inlineStr"/>
+        <v>1.79</v>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>SIA宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
+        </is>
+      </c>
       <c r="D57" s="2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>sh603268</t>
+          <t>sz000628</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST松发 </t>
+          <t>高新发展</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>52.36</v>
+        <v>50.12</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>4.99</v>
+        <v>10.01</v>
       </c>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 拟收购恒力重工主营船舶及高端装备的研发、生产及销售，已确定排产新造船舶140艘，货值约108亿美元，船型包含散货船、VLCC、VLOC 和集装箱船等。</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr"/>
+          <t>功率半导体|公司拟2.82亿元购买成都森未科技有限公司股权及其上层股东权益，交易完成后，公司以直接和间接方式控制森未科技69.4%的股权；以195.97万元购买成都高投芯未半导体有限公司98%的股权，购买芯未半导体控股权以购买森未科技控股权的成功实施为前提。交易完成以后，公司将具备功率半导体IGBT的研发及设计能力，主营业务将会增加功率半导体设计与销售等业务。</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>功率半导体</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C58" s="2" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>下半年，诸多旗舰品牌的新品发布、海内外节日的活跃因素，都将带动消费电子进入传统旺季。</t>
+        </is>
+      </c>
       <c r="D58" s="2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>sh600289</t>
+          <t>sz002981</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ST信通  </t>
+          <t>朝阳科技</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>6.99</v>
+        <v>31.8</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="I58" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司在智能交通领域继续保持稳健发展，着重提升项目的盈利能力。</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="inlineStr"/>
+          <t>消费电子+果链|公司作为电声产品及电声配件专业生产企业，进入了苹果等知名智能终端及耳机品牌商的供应链。</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>消费电子, 果链</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C59" s="2" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>下半年，诸多旗舰品牌的新品发布、海内外节日的活跃因素，都将带动消费电子进入传统旺季。</t>
+        </is>
+      </c>
       <c r="D59" s="2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>sz002868</t>
+          <t>sz300752</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>*ST绿康</t>
+          <t>隆利科技</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>27.57</v>
+        <v>24.12</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>4.99</v>
+        <v>20</v>
       </c>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 绿康生化公告称，公司收到通知，公司控股股东上海康怡投资有限公司、股东杭州义睿投资合伙企业（有限合伙）、上饶市长鑫贰号企业管理中心（有限合伙）、杭州皓赢投资合伙企业（有限合伙）与福建纵腾网络有限公司签署了《股份转让协议》，约定由上述股份转让方向纵腾网络转让上市公司46,608,397股普通股股份，占上市公司总股本的29.99%。</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr"/>
+          <t>消费电子|公司是国内研发实力较强、生产规模较大的重要背光显示模组企业之一，主要产品为中小尺寸LED背光显示模组，最终应用于智能手机、平板电脑、笔记本、车载、工控、智能穿戴等领域。</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>消费电子</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C60" s="2" t="inlineStr"/>
+        <v>2.07</v>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>受益GB300在今年三季度放量以及Rubin/RubinUltra持续迭代驱动的功率密度显著提升，单台服务器液冷价值量边际价值量激增。</t>
+        </is>
+      </c>
       <c r="D60" s="2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>sz000669</t>
+          <t>sz002418</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>ST金鸿</t>
+          <t>康盛股份</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>3.47</v>
+        <v>4.2</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>5.149999999999999</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 主营气源开发与输送、长输管网建设与管理、城市燃气经营与销售、车用加气站投资与运营、LNG点供、分布式能源项目开发与建设等。</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="inlineStr"/>
+          <t>液冷IDC|公司目前已具备浸没式液冷+储能+分布算力的商业模式闭环。数据中心液冷产品主要有8U/10kw、16U/15kw、21U/30kw高性能液冷机柜、8U/4kw 5G液冷机柜、16U/8kw 5G液冷机柜、21U/10kw 5G液冷机柜、干冷器产品系列、CDU产品系列、冷却液等；储能领域主要产品有8kw储能空调、60kw储能空调等。</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>液冷IDC</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C61" s="2" t="inlineStr"/>
+        <v>2.07</v>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>受益GB300在今年三季度放量以及Rubin/RubinUltra持续迭代驱动的功率密度显著提升，单台服务器液冷价值量边际价值量激增。</t>
+        </is>
+      </c>
       <c r="D61" s="2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>sz000504</t>
+          <t>sh603757</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>*ST生物</t>
+          <t>大元泵业</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>11.94</v>
+        <v>32.19</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>5.01</v>
+        <v>10.01</v>
       </c>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司是目前国内一家国资控股的干细胞、免疫细胞及组织工程产业主板上市公司，“生物医药”板块业务包括干细胞储存服务、化妆品的生产和销售、医疗器械设备及耗材的代理和销售。</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr"/>
+          <t>液冷IDC|公司高压电子水泵及相关屏蔽泵产品能够应用在IDC温控领域，下游客户包括维谛技术、英维克、中兴通讯、曙光数创、同飞股份等。</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>液冷IDC</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr"/>
+          <t>高铁轨交</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
+        </is>
+      </c>
       <c r="D62" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>sh601929</t>
+          <t>sh605298</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>必得科技</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>2.7</v>
+        <v>19.68</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>5天3板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>电影《731》|备受关注的电影《731》宣布将于9月18日上映。长影集团为《731》制作方，长影集团与吉视传媒等签署合作协议，涉及影视IP开发、数字内容生产等新兴领域。</t>
+          <t>高铁|公司主营中高速动车组列车、城轨列车等轨道交通车辆配套产品的研发、生产与销售，主要产品包括车辆通风系统、电缆保护系统和智能控制撒砂系统等系统化、系列化产品及其他轨道交通车辆配套产品。</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>电影《731》</t>
+          <t>高铁</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr"/>
+          <t>高铁轨交</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
+        </is>
+      </c>
       <c r="D63" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>sh603800</t>
+          <t>sh600495</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>洪田股份</t>
+          <t>晋西车轴</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>42.46</v>
+        <v>6</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
+        <v>10.09</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>半导体+固态电池|1.子公司洪星真空科技有限公司是高端制程真空设备方案提供商，能为包括芯片封装、光学、消费电子、厨电厨卫等多个领域提供精准、高效的解决方案，主要客户有：鼎华芯泰、志天纳米、高登电子、福兰特等。
-2.洪田科技在复合铜铝箔设备领域提供的“一步法干法”解决方案可用于固态电池产业链，主要产品包括真空磁控溅射一体机、真空磁控溅射蒸发一体机、真空蒸发镀铝设备，可以为客户提供整厂全套解决方案。</t>
+          <t>军工央企+高铁|公司控股股东是中国兵器工业集团旗下晋西工业集团，公司是国内外铁路装备行业车轴细分领域中最具影响力的供应商之一。</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>半导体, 固态电池</t>
+          <t>军工央企, 高铁</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>0.22</v>
       </c>
       <c r="C64" s="2" t="inlineStr"/>
       <c r="D64" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>sz002706</t>
+          <t>sh600193</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>良信股份</t>
+          <t xml:space="preserve">*ST创兴 </t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>11.15</v>
+        <v>4.94</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>9.959999999999999</v>
+        <v>5.11</v>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>4天2板</t>
+          <t>6天3板</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>IDC电源|公司与华为在5G应用、电源类产品提供了模块化、智能化产品方案，在数据中心绿电接入、储能配套等领域提供电气解决方案。</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="inlineStr">
-        <is>
-          <t>IDC电源</t>
-        </is>
-      </c>
+          <t>ST股 | 围绕算力服务业务，公司目前已在江苏苏州、浙江杭州、北京等地部署了算力资源池，主要用于机器视觉类应用和游戏项目的测试工作。</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>0.22</v>
       </c>
       <c r="C65" s="2" t="inlineStr"/>
       <c r="D65" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>sz000501</t>
+          <t>sz000504</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>武商集团</t>
+          <t>*ST生物</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>11.68</v>
+        <v>12.54</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I65" s="2" t="inlineStr"/>
+        <v>5.029999999999999</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>江豚会员店|公司是湖北省商业龙头企业，主要从事购物中心及超市业态的商品销售业务。7月23日，武商集团宣布，旗下会员制商店——WS江豚会员店将于7月29日开业。</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="inlineStr">
-        <is>
-          <t>江豚会员店</t>
-        </is>
-      </c>
+          <t>ST股 | 公司是目前国内一家国资控股的干细胞、免疫细胞及组织工程产业主板上市公司，“生物医药”板块业务包括干细胞储存服务、化妆品的生产和销售、医疗器械设备及耗材的代理和销售。</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>0.22</v>
       </c>
       <c r="C66" s="2" t="inlineStr"/>
       <c r="D66" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>sh688551</t>
+          <t>sz000627</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">科威尔  </t>
+          <t>*ST天茂</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>43.2</v>
+        <v>1.52</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>20</v>
+        <v>4.83</v>
       </c>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>功率半导体|通过收购汉先科技，科威尔完成在IGBT模块封装领域的第二个关键工艺设备的布局，有利于提升公司为IGBT领域内下游客户提供整线解决方案的竞争力。</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="inlineStr">
-        <is>
-          <t>功率半导体</t>
-        </is>
-      </c>
+          <t>ST股 | 公司母公司作为投资控股型公司，主要通过控股子公司国华人寿从事保险业务，主要经营为人寿保险、健康保险、意外伤害保险等各类人身保险业务。</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>0.22</v>
       </c>
       <c r="C67" s="2" t="inlineStr"/>
       <c r="D67" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>sh603773</t>
+          <t>sz002808</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>沃格光电</t>
+          <t>*ST恒久</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>31.13</v>
+        <v>5.45</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>10</v>
+        <v>5.01</v>
       </c>
       <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>复合铜箔|公司作为同时具备PI膜材技术和镀铜技术的企业，目前基于改性后PI材料的复合铜箔降本技术路径已基本确认，基膜性能符合电池厂要求规格。</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="inlineStr">
-        <is>
-          <t>复合铜箔</t>
-        </is>
-      </c>
+          <t>ST股 | 公司的控股子公司福建省闽保信息技术有限公司是一家从事信息安全领域软件开发及系统集成的高新技术企业。</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>0.22</v>
       </c>
       <c r="C68" s="2" t="inlineStr"/>
       <c r="D68" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>sz002674</t>
+          <t>sz000903</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>兴业科技</t>
+          <t>ST云动</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>11.78</v>
+        <v>3.16</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>9.99</v>
+        <v>4.98</v>
       </c>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr">
         <is>
-          <t>纺织|公司是中国天然皮革鞣制行业首家A股上市公司、中国制革工业龙头企业之一、高新技术企业，是中国皮革行业纳税大户。</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="inlineStr">
-        <is>
-          <t>纺织</t>
-        </is>
-      </c>
+          <t>ST股 | 公司于2024年9月14日公告披露与九识智能签署了《战略合作协议》，开展L4级智能配送机器人业务，正在按照战略协议要求开展相关准备工作。此外，公司生产的智能物流配送样车正在申请道路测试。</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>0.22</v>
       </c>
       <c r="C69" s="2" t="inlineStr"/>
       <c r="D69" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>sh605180</t>
+          <t>sh600355</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>华生科技</t>
+          <t xml:space="preserve">*ST精伦 </t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>16.53</v>
+        <v>2.97</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>9.98</v>
+        <v>4.95</v>
       </c>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>电容薄膜|根据2024年半年报，“年产5,700吨超薄特种电容薄膜建设项目”是公司基于战略规划目标作出的决策，有利于丰富公司的产品线，优化公司产业结构，开拓创新，发展新领域，把握绿色科技、超薄电容薄膜市场机遇。</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="inlineStr">
-        <is>
-          <t>电容薄膜</t>
-        </is>
-      </c>
+          <t>ST股 | 公司智能控制产品是公司全资子公司上海鲍麦克斯电子科技有限公司的主营产品，鲍麦克斯专业从事通用及专用伺服驱动系统、数控系统、 缝制机器人的系列化产品研发及销售。</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -3634,33 +3706,37 @@
       </c>
       <c r="C70" s="2" t="inlineStr"/>
       <c r="D70" s="2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>sh605055</t>
+          <t>sh601929</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>迎丰股份</t>
+          <t>吉视传媒</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>8.140000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>6天4板</t>
+        </is>
+      </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>纺织|公司主要从事纺织品的印染加工业务，主要包括针织面料印染和梭织面料印染两大系列。</t>
+          <t>电影+IP经济|备受关注的电影《731》宣布将于9月18日上映。长影集团为《731》制作方，长影集团与吉视传媒等签署合作协议，涉及影视IP开发、数字内容生产等新兴领域。</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
-          <t>纺织</t>
+          <t>电影, IP经济</t>
         </is>
       </c>
     </row>
@@ -3677,33 +3753,37 @@
       </c>
       <c r="C71" s="2" t="inlineStr"/>
       <c r="D71" s="2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>sh603538</t>
+          <t>sh688108</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">美诺华  </t>
+          <t>赛诺医疗</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>26.07</v>
+        <v>24.53</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I71" s="2" t="inlineStr"/>
+        <v>20.01</v>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>原料药上市获批|美诺华公告称，子公司安徽美诺华收到国家药监局核准签发的盐酸鲁拉西酮原料药《化学原料药上市申请批准通知书》。该产品已通过CDE技术审评。</t>
+          <t>产品获美国FDA认定|赛诺医疗公告称，子公司产品获美国FDA突破性医疗器械认定，是美国FDA历史上全球首个颅内动脉粥样硬化狭窄治疗产品。</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
         <is>
-          <t>原料药上市获批</t>
+          <t>产品获美国FDA认定</t>
         </is>
       </c>
     </row>
@@ -3720,33 +3800,37 @@
       </c>
       <c r="C72" s="2" t="inlineStr"/>
       <c r="D72" s="2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>sh600246</t>
+          <t>sh603538</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>万通发展</t>
+          <t xml:space="preserve">美诺华  </t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>7.63</v>
+        <v>28.68</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="I72" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>卫星通信+芯片|公司控股子公司知融科技专注微波毫米波芯片和宽带卫星通信相控阵天线整体解决方案的研发和销售，具备CMOS、SOI、GaAs、GaN等多种工艺的毫米波射频芯片开发能力，已发布涵盖Ku、Ka频段的数十款芯片产品，产品包含相控阵BFIC芯片、功率放大器芯片、低噪声放大器芯片等。</t>
+          <t>原料药上市获批|美诺华公告称，子公司安徽美诺华收到国家药监局核准签发的盐酸鲁拉西酮原料药《化学原料药上市申请批准通知书》。该产品已通过CDE技术审评。</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
         <is>
-          <t>卫星通信, 芯片</t>
+          <t>原料药上市获批</t>
         </is>
       </c>
     </row>
@@ -3763,33 +3847,550 @@
       </c>
       <c r="C73" s="2" t="inlineStr"/>
       <c r="D73" s="2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>sz000702</t>
+          <t>sz300304</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>正虹科技</t>
+          <t>云意电气</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>8.43</v>
+        <v>13.3</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>10.05</v>
+        <v>20.04</v>
       </c>
       <c r="I73" s="2" t="inlineStr"/>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>猪肉产业|公司生猪养殖业以种猪繁育、生猪养殖为主，主要产品为种猪、仔猪和肥猪，经营模式主要为自育自繁自养模式和“公司+农户”订单养殖模式，自繁自养模式主要为仔猪繁育及销售。</t>
+          <t>携手长安开拓智驾|云意电气8月8日公告称，公司与辰致汽车科技集团有限公司签署《合资合作备忘录》，双方拟依托各自核心优势，深度聚焦汽车及摩托车电子电器产品领域，共同出资设立合资公司，满足辰致集团及其下属企业的相关产品配套要求并面向外部市场拓展相关业务。</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
-          <t>猪肉产业</t>
+          <t>携手长安开拓智驾</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr"/>
+      <c r="D74" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>sz002890</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>弘宇股份</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I74" s="2" t="inlineStr"/>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>农机|领先的中大马力拖拉机液压提升器生产商。主要产品为中、大马力拖拉机液压提升器总成、液压油缸、分配阀等拖拉机液压提升器系列产品。</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>农机</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr"/>
+      <c r="D75" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>sz000880</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>潍柴重机</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>46.41</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>数据中心发电机|公司主要开发、制造和销售船舶动力和发电设备市场用30-13600马力的发动机及动力集成系统、发电机组及电力集成系统，并具有提供整套动力解决方案及电力解决方案的能力。其中公司发电机组产品被广泛应用于船舶、通讯、油田、医疗、数据中心等行业。</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>数据中心发电机</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>业绩|双一科技公告称，2025年上半年营业收入5.25亿元，同比增长44.57%。净利润9987.03万元，同比增长324.50%。公司计划不派发现金红利，不送红股，不以公积金转增股本。</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>sz300993</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>玉马科技</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>遮阳材料|公司专注于功能性遮阳材料的研发、生产和销售，主要产品包括遮光面料、可调光面料和阳光面料。</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>遮阳材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr"/>
+      <c r="D78" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>sh603216</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>梦天家居</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I78" s="2" t="inlineStr"/>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>家居|公司主要从事木门、墙板、柜类等定制化木质家具的设计、研发、生产和销售，为客户提供家居的整体空间解决方案。</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>家居</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr"/>
+      <c r="D79" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>sh603126</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>中材节能</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="I79" s="2" t="inlineStr"/>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>建材+储能|1.中国建材集团旗下上市公司，主营业务为节能环保工程、建筑节能材料、装备制造。
+2.公司在储能方面有布局，并已成立专业化储能公司。</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>建材, 储能</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr"/>
+      <c r="D80" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>sh605188</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>国光连锁</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr"/>
+      <c r="D81" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>sz000011</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>深物业A</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I81" s="2" t="inlineStr"/>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>房地产|公司经过多年发展，已形成了以房地产开发为主业，物业管理、物业租赁、出租汽车营运、餐饮服务、物流仓储、工程监理等为辅的跨行业、多元化的经营格局。</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>sz002826</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>易明医药</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I82" s="2" t="inlineStr"/>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>西藏+医药|公司注册地址为西藏自治区拉萨市堆龙德庆区经济技术开发区林琼岗路6号，主要从事化学药(原料药和制剂)以及中成药的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t>西藏, 医药</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>sz002820</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>桂发祥</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I83" s="2" t="inlineStr"/>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>休闲食品|公司是专业从事传统特色及其他休闲食品的研发、生产和销售的中华老字号企业，自产产品包括麻花、糕点、节令食品、天津风味方便食品等。</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>休闲食品</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr"/>
+      <c r="D84" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>sh600113</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I84" s="2" t="inlineStr"/>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>脑机接口|持有培安美40%的股份，培安美与首都医科大学就脑机接口技术的创新研发与临床应用达成战略合作意向，医工结合，共同推进“血管内脑机接口”、“胶囊脑机”、“静脉内脑机接口”以及“缺血缺氧应急管理系统”等前沿技术的科研攻关与产业化落地。</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>脑机接口</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>sh600053</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>九鼎投资</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I85" s="2" t="inlineStr"/>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>创投|首家纯PE机构，主要从事客户资产管理和自由资金投资业务。</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t>创投</t>
         </is>
       </c>
     </row>
@@ -3804,7 +4405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3836,61 +4437,61 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>sz002046</t>
+          <t>sh601929</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>国机精工</t>
+          <t>吉视传媒</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sz002313</t>
+          <t>sh688108</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>日海智能</t>
+          <t>赛诺医疗</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sh600475</t>
+          <t>sh605598</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>华光环能</t>
+          <t>上海港湾</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sh605169</t>
+          <t>sz002908</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>洪通燃气</t>
+          <t>德生科技</t>
         </is>
       </c>
     </row>
@@ -3900,12 +4501,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sh600366</t>
+          <t>sz002205</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>宁波韵升</t>
+          <t>国统股份</t>
         </is>
       </c>
     </row>
@@ -3915,12 +4516,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sz002551</t>
+          <t>sh603538</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>尚荣医疗</t>
+          <t xml:space="preserve">美诺华  </t>
         </is>
       </c>
     </row>
@@ -3930,12 +4531,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sh601929</t>
+          <t>sz002941</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>新疆交建</t>
         </is>
       </c>
     </row>
@@ -3945,12 +4546,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sh601718</t>
+          <t>sz002307</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>际华集团</t>
+          <t>北新路桥</t>
         </is>
       </c>
     </row>
@@ -3960,12 +4561,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sh688108</t>
+          <t>sh600581</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>赛诺医疗</t>
+          <t>八一钢铁</t>
         </is>
       </c>
     </row>
@@ -3975,12 +4576,117 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>sh605598</t>
+          <t>sz000010</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>上海港湾</t>
+          <t>美丽生态</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>sh600425</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>青松建化</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>sh600246</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>万通发展</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>sz002800</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>天顺股份</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>sz000901</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>航天科技</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>sz002302</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>西部建设</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>sh603080</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>新疆火炬</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>sh603800</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>洪田股份</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="100" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="95" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="229" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="218" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,119 +557,118 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.18</v>
+        <v>-0.12</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
+          <t>杭州市司法局发布公告，市发改委起草了《杭州市促进具身智能机器人产业发展条例（草案）》，现公开征求意见。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sh603800</t>
+          <t>sz002148</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>洪田股份</t>
+          <t>北纬科技</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>46.71</v>
+        <v>11.45</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>10.01</v>
+        <v>9.99</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>4天3板</t>
+          <t>7天6板</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>半导体+锂电铜箔|1.子公司洪星真空科技有限公司是高端制程真空设备方案提供商，能为包括芯片封装、光学、消费电子、厨电厨卫等多个领域提供精准、高效的解决方案，主要客户有：鼎华芯泰、志天纳米、高登电子、福兰特等。
-2.公司已发展成为国内电解铜箔设备龙头供应商，已实现3.5μm-100μm锂电极薄、电子电路超厚解铜箔生产装备的产业化。</t>
+          <t>宇树科技机器狗|参股的天宇经纬公司自主研发的天宇云盒和御空低空智能管控平台，可协助无人机、机器狗等设备实现实时联网、远程控制、信息回传等作业功能，目前天宇经纬从客户需求出发，与宇树科技在机器狗应用领域开展生态合作，为行业客户提供解决方案。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>半导体, 锂电铜箔</t>
+          <t>宇树科技机器狗</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.18</v>
+        <v>-0.12</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
+          <t>杭州市司法局发布公告，市发改委起草了《杭州市促进具身智能机器人产业发展条例（草案）》，现公开征求意见。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sh605378</t>
+          <t>sz000026</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>野马电池</t>
+          <t>飞亚达</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>27.64</v>
+        <v>21.44</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>4天2板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">锂电池|公司销售的锂电池主要为纽扣电池，应用于微型电子产品等。
-</t>
+          <t>军工央企+机器人|公司控股股东是中国航空工业集团子公司中国航空技术1.国际控股有限公司旗下中航国际控股有限公司，公司主要从事“飞亚达”表的经营和世界名表的商业连锁销售。
+2.公司正在有序推进收购长空齿轮股权的相关工作，长空齿轮目前具备人形机器人相关配套产品（精密齿轮、精密减速器）的生产能力。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>军工央企, 机器人</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.18</v>
+        <v>-0.12</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
+          <t>杭州市司法局发布公告，市发改委起草了《杭州市促进具身智能机器人产业发展条例（草案）》，现公开征求意见。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -682,12 +681,16 @@
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.68</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr"/>
+        <v>10.02</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
           <t>锂矿+机器人|1.公司全资子公司银锂新能源是利用锂云母、锂辉石制备高纯度碳酸锂、氢氧化锂的锂电新能源高新技术企业。
@@ -703,271 +706,276 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.18</v>
+        <v>-0.12</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
+          <t>杭州市司法局发布公告，市发改委起草了《杭州市促进具身智能机器人产业发展条例（草案）》，现公开征求意见。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sh600232</t>
+          <t>sz300815</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>金鹰股份</t>
+          <t>玉禾田</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.83</v>
+        <v>29.5</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>9.969999999999999</v>
+        <v>20.02</v>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>锂电|公司业务包括锂电池正极材料的研发、生产与销售，产品包括三元正极材料系列产品以及锰酸锂系列产品。</t>
+          <t>智元机器人|玉禾田旗下子公司玉树智能发生工商变更，新增股东智元创新（上海）科技有限公司，持股比例5%，注册资本由5000万元增至5263.16万元。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>锂电</t>
+          <t>智元机器人</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.18</v>
+        <v>-0.12</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
+          <t>杭州市司法局发布公告，市发改委起草了《杭州市促进具身智能机器人产业发展条例（草案）》，现公开征求意见。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sz002240</t>
+          <t>sz002676</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>盛新锂能</t>
+          <t>顺威股份</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>18.44</v>
+        <v>10.48</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>10.02</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>锂矿+固态电池|1.我国在四川雅江探获锂资源近百万吨，是亚洲迄今探明最大规模伟晶岩型单体锂矿。盛新锂能旗下公司拥有木绒矿探矿权。
-2.公司在固态电池上游关键材料金属锂方面有业务布局，已建成金属锂产能500吨，超薄超宽锂带已实现批量生产。</t>
+          <t>机器人|公司凭借自主研发的“贯流风叶焊接和动平衡补偿”自动化解决方案，成功入选广东省人工智能与机器人产业创新发展工作领导小组办公室公布的“2025年‘机器人+’典型应用场景案例名单（第一批）”。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>锂矿, 固态电池</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.18</v>
+        <v>-0.12</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
+          <t>杭州市司法局发布公告，市发改委起草了《杭州市促进具身智能机器人产业发展条例（草案）》，现公开征求意见。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sz002466</t>
+          <t>sz002270</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>天齐锂业</t>
+          <t>华明装备</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44.91</v>
+        <v>20.09</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>9.99</v>
+        <v>10.02</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>锂矿|公司是中国和全球领先、以锂为核心的新能源材料企业，业务涵盖锂产业链的关键阶段，包括硬岩型锂矿资源的开发、锂精矿加工销售以及锂化工产品的生产销售。</t>
+          <t>机器人|旗下山东法因数控机械设备有限公司经营范围包括工业机器人制造。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>锂矿</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.18</v>
+        <v>-0.12</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
+          <t>杭州市司法局发布公告，市发改委起草了《杭州市促进具身智能机器人产业发展条例（草案）》，现公开征求意见。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sh688683</t>
+          <t>sh601137</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>莱尔科技</t>
+          <t>博威合金</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>33.29</v>
+        <v>22.18</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>20.01</v>
+        <v>10.02</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>锂电|2022年12月1日公告，公司与子公司佛山大为、神火集团下属公司神隆宝鼎拟签订《合作投资协议》，共同出资成立项目公司投资建设年产6万吨涂碳箔项目，项目预计投资金额约6亿元。佛山大为和项目公司将神隆宝鼎作为主要的电池箔供应商，神隆宝鼎保证佛山大为和项目公司的电池箔需求的稳定供应。</t>
+          <t>机器人+铜连接|1.公司一直以来坚持在铜基合金材料领域的研发，工业机器人、人形机器人是公司连接器材料、合金线束材料的主要应用场景，机器人各个关节的控制及执行元器件上都会用到公司的材料。
+2.公司是铜基特殊合金材料的龙头公司之一，公司生产的高速连接器已经通过国内及国际连接器厂商供应给N公司、H公司的算力装备。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>锂电</t>
+          <t>机器人, 铜连接</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.18</v>
+        <v>-0.12</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
+          <t>杭州市司法局发布公告，市发改委起草了《杭州市促进具身智能机器人产业发展条例（草案）》，现公开征求意见。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz002052</t>
+          <t>sz002104</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>同洲电子</t>
+          <t>恒宝股份</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>10.87</v>
+        <v>22.33</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>锂电池|公司生产的锂电池主要为18650型柱状电池，主要用于消费电子产品。</t>
+          <t>数字货币+机器人|1.公司将会紧跟国家战略和数字化业务布局，积极探讨数字人民币的跨境支付和境外支付的应用场景，借助公司跟海外银行的长期合作关系，积极与海外当地银行合作，在未来推动数字人民币跨境和境外支付应用。
+2.间接参股南京天创机器人，旗下T-BOT智能机器人包含五大系列产品，综合应用了大数据、边缘计算、AI识别算法、5G融合等前沿技术。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>数字货币, 机器人</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.18</v>
+        <v>1.13</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>宁德时代宜春项目采矿许可证8月9日到期后已暂停开采作业，正按相关规定尽快办理采矿证延续申请。</t>
+          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sz002460</t>
+          <t>sh605169</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>赣锋锂业</t>
+          <t>洪通燃气</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>40.51</v>
+        <v>17.97</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr"/>
+        <v>9.98</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>锂矿|公司是世界领先的锂生态企业，拥有五大类逾40种锂化合物及金属锂产品的生产能力，是锂系列产品供应最齐全的制造商之一，完善的产品供应组合能够满足客户独特且多元化的需求。</t>
+          <t>新疆+天然气|地处新疆巴州库尔勒市，专注清洁交通能源供应领域的天然气专业运营商。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>锂矿</t>
+          <t>新疆, 天然气</t>
         </is>
       </c>
     </row>
@@ -978,7 +986,7 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.08</v>
+        <v>1.13</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
@@ -986,7 +994,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -999,14 +1007,14 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>15.19</v>
+        <v>16.71</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1027,7 +1035,7 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.08</v>
+        <v>1.13</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
@@ -1035,7 +1043,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1048,14 +1056,14 @@
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.07</v>
+        <v>5.58</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>9.98</v>
+        <v>10.06</v>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1076,7 +1084,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.08</v>
+        <v>1.13</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
@@ -1084,37 +1092,37 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sz002800</t>
+          <t>sh603080</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>天顺股份</t>
+          <t>新疆火炬</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>17.51</v>
+        <v>26.74</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>9.99</v>
+        <v>10</v>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>新疆+物流|地处新疆乌鲁木齐市，疆内第三方物流、供应链管理的龙头企业。</t>
+          <t>新疆+天然气|地处新疆喀什市，喀什地区供气量最大、覆盖区域最广的城市燃气综合服务商。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>新疆, 物流</t>
+          <t>新疆, 天然气</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1133,7 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.08</v>
+        <v>1.13</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
@@ -1133,7 +1141,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -1146,14 +1154,14 @@
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.66</v>
+        <v>5.13</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>9.91</v>
+        <v>10.09</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1174,7 +1182,7 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.08</v>
+        <v>1.13</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
@@ -1182,555 +1190,547 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sh603080</t>
+          <t>sh603706</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>新疆火炬</t>
+          <t>东方环宇</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>24.31</v>
+        <v>24.52</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+      <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>新疆+天然气|地处新疆喀什市，喀什地区供气量最大、覆盖区域最广的城市燃气综合服务商。</t>
+          <t>新疆+燃气|公司注册地位于昌吉州，专注于城市燃气供应、城市集中供热。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>新疆, 天然气</t>
+          <t>新疆, 燃气</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.08</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
+          <t>中信智库在2025WAIC发布报告显示，随着国内算力消耗快速增长，国产芯片今年将迎来发展大年。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sz002205</t>
+          <t>sh600619</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>国统股份</t>
+          <t>海立股份</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>15.81</v>
+        <v>22.98</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>5天4板</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>新疆+建材|公司注册地位于乌鲁木齐市，是国内最大的PCCP管道及配件的专业制造供应商之一。</t>
+          <t>光刻机|海立集团与微电子装备集团双方领导以封装光刻机得冷却系统配套为起点，逐步从零部件级供应合作提升为系统级供应合作。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>新疆, 建材</t>
+          <t>光刻机</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.08</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
+          <t>中信智库在2025WAIC发布报告显示，随着国内算力消耗快速增长，国产芯片今年将迎来发展大年。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sz002302</t>
+          <t>sh688584</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>西部建设</t>
+          <t>上海合晶</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.76</v>
+        <v>22.86</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>新疆+水泥|全国规模最大、研发能力最强的专业商品混凝土企业。</t>
+          <t>半导体硅外延片|主要产品为半导体硅外延片。公司的外延片主要用于制作MOSFET、IGBT等功率器件和PMIC、CIS等模拟芯片，被广泛应用于汽车、工业、通讯、办公等领域。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>新疆, 水泥</t>
+          <t>半导体硅外延片</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.08</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
+          <t>中信智库在2025WAIC发布报告显示，随着国内算力消耗快速增长，国产芯片今年将迎来发展大年。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sh600425</t>
+          <t>sz002549</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>青松建化</t>
+          <t>凯美特气</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.85</v>
+        <v>13.65</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>新疆+水泥|新疆生产建设兵团旗下最大的水泥生产企业，南疆水泥龙头，拥有水泥产能超过1800万吨，全为新型干法水泥产能，对该区域内水泥销售价格的形成有较大影响力。</t>
+          <t>光刻气|公司光刻气产品通过ASML子公司Cymer的合格供应商认证。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>新疆, 水泥</t>
+          <t>光刻气</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.6</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
+          <t>中信智库在2025WAIC发布报告显示，随着国内算力消耗快速增长，国产芯片今年将迎来发展大年。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sz002148</t>
+          <t>sh600658</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>北纬科技</t>
+          <t xml:space="preserve">电子城  </t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>10.41</v>
+        <v>5.74</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>6天5板</t>
-        </is>
-      </c>
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>宇树科技机器狗|参股的天宇经纬公司自主研发的天宇云盒和御空低空智能管控平台，可协助无人机、机器狗等设备实现实时联网、远程控制、信息回传等作业功能，目前天宇经纬从客户需求出发，与宇树科技在机器狗应用领域开展生态合作，为行业客户提供解决方案。</t>
+          <t>芯片+算力|1.电子城IC/PIC创新中心作为北京市首个集成电路与集成光路“双集成”创新示范园，园区生态不断完善，30余家集成电路上下游企业及硅光设计企业入驻，持续整合产业链上下游优质服务资源，为客户提供流片验证、检测分析、EDA服务、芯片定制设计、光电封测开发等专业化产业服务。
+2.公司持有知鱼智联36.36%股份，知鱼智联根据战略发展规划和经营需要，参与了公司控股股东北京电控基于产业和城市数字化的北京数字经济算力中心项目。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>宇树科技机器狗</t>
+          <t>芯片, 算力</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.6</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
+          <t>中信智库在2025WAIC发布报告显示，随着国内算力消耗快速增长，国产芯片今年将迎来发展大年。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sh603617</t>
+          <t>sh688256</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>君禾股份</t>
+          <t>寒武纪-U</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>8.65</v>
+        <v>848.88</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>10.05</v>
+        <v>20</v>
       </c>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司的池底清洁机器人是针对泳池清洁领域开发的水下清洁工具，实现了“高效清洁，一次搞定”、“便捷操作，一键搞定”等功能。</t>
+          <t>算力芯片|公司专注于人工智能芯片产品的研发与技术创新，致力于打造人工智能领域的核心处理器芯片，是同时具备人工智能推理和训练智能芯片产品的企业，也是国内少数具有先进集成电路工艺（7nm）下复杂芯片设计经验的企业之一。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>算力芯片</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>人脑工程</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
+          <t>工信部等七部门近日发布《关于推动脑机接口产业创新发展的实施意见》。其中提出，到2027年，脑机接口关键技术取得突破，初步建立先进的技术体系、产业体系和标准体系。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sh603579</t>
+          <t>sz002173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>荣泰健康</t>
+          <t>创新医疗</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>40.49</v>
+        <v>20.59</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6天3板</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>机器人+脑机接口|1.公司于2025年3月13日成立上海阿而泰机器人有限公司，经营范围包含：特殊作业机器人制造；工业机器人制造；智能机器人的研发；人工智能应用软件开发等。
-2.2025年4月21日，公司与神经科技领域创新先锋上海傲意信息科技有限公司在上海举行战略合作签约仪式，正式宣布共建 “脑机交互联合实验室”，共同推进脑机融合技术和仿生机械手在智能健康领域的应用。</t>
+          <t>AI医疗+脑机接口|1.参股全诊医学自主研发的全诊医疗大模型及AI产品已在国内多家知名医院成功应用。
+2.公司通过参股脑机接口技术公司——杭州博灵医疗科技有限公司的方式，间接介入到了该前沿技术领域。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>机器人, 脑机接口</t>
+          <t>AI医疗, 脑机接口</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>人脑工程</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
+          <t>工信部等七部门近日发布《关于推动脑机接口产业创新发展的实施意见》。其中提出，到2027年，脑机接口关键技术取得突破，初步建立先进的技术体系、产业体系和标准体系。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sz002841</t>
+          <t>sh600113</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>视源股份</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>38.98</v>
+        <v>39.71</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I22" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司在机器人业务方面已具备一定技术储备，涵盖视觉感知与导航、触觉感知与反馈、机器学习、电机及驱动、运动控制、整机设计等核心研究方向，机器人相关专利申请总量超600项。</t>
+          <t>脑机接口|持有培安美40%的股份，培安美与首都医科大学就脑机接口技术的创新研发与临床应用达成战略合作意向，医工结合，共同推进“血管内脑机接口”、“胶囊脑机”、“静脉内脑机接口”以及“缺血缺氧应急管理系统”等前沿技术的科研攻关与产业化落地。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>脑机接口</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>人脑工程</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
+          <t>工信部等七部门近日发布《关于推动脑机接口产业创新发展的实施意见》。其中提出，到2027年，脑机接口关键技术取得突破，初步建立先进的技术体系、产业体系和标准体系。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sz002782</t>
+          <t>sh603610</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>可立克</t>
+          <t>麒盛科技</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>16.14</v>
+        <v>14.4</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>10.02</v>
+        <v>10.01</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司有供应机器人充电站里的电源控制板、机器狗的充电电源产品。</t>
+          <t>华为鸿蒙+脑机接口|1.公司通过多年的智能床研发经验联合华为鸿蒙数字空间将重新定义睡眠，帮助用户获得更舒适的睡眠环境和姿态，帮助用户获得更优质的睡眠。
+2.公司对外投资睡眠产业相关的技术与平台，包括双向脑机交互技术，该技术能够应用于智能家居领域。脑机接口在智能家居领域的应用主要集中在“补充”方向。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>华为鸿蒙, 脑机接口</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
+          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sz003028</t>
+          <t>sh603757</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>振邦智能</t>
+          <t>大元泵业</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>36.21</v>
+        <v>35.41</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I24" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">机器人|2024年1月8日公司接受调研时表示，公司目前主要布局清洁机器人、割草机器人。
-</t>
+          <t>液冷IDC|公司高压电子水泵及相关屏蔽泵产品能够应用在IDC温控领域，下游客户包括维谛技术、英维克、中兴通讯、曙光数创、同飞股份等。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>在2025世界机器人大会“产业发展”主论坛上，北京亦庄发布“具身智能机器人十条”，全方位支持企业发展。</t>
+          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sz301502</t>
+          <t>sz002328</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>华阳智能</t>
+          <t>新朋股份</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>54.12</v>
+        <v>6.81</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>20</v>
+        <v>10.02</v>
       </c>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司的无框电机可应用于机器人、协作机器人及高端医疗器械等领域。</t>
+          <t>液冷IDC|液冷机柜是公司的战略发展方向，公司未来可提供智算中心基础架构的整体解决方案，将机柜、PDU、CDU、供回液歧管和监控系统等集成在一起，向客户提供AI数据中心液冷散热所需的多种产品组合。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.21</v>
+        <v>1.74</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sz002908</t>
+          <t>sh603090</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>德生科技</t>
+          <t>宏盛股份</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>13.29</v>
+        <v>35.35</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>人力资源+算力|1.公司以民生场景需求为牵引，深耕数据融合应用，打造了就业监测、政策找人、职业背调等十余款数据产品。公司旗下金色华勤主要以互联网方式从事人力资源服务，其面向的客户群体为中小微企业及个人。
-2.公司在算力领域采用自有算力和云算力租赁相结合，在算力基础设施上，公司具备云计算的能力。</t>
+          <t>液冷IDC|公司掌握液冷散热技术，能够为多种场景提供解决方案，同时，公司与苏州和信精密科技股份有限公司合资成立了无锡和宏智散热科技有限公司，和信精密是行业内领先的数据中心设备供应商，双方通过设立合资公司的形式，拓展数据中心环境温度控制业务。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>人力资源, 算力</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
@@ -1741,46 +1741,46 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.21</v>
+        <v>0.89</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+          <t>高盛近期预计，2025年、2026年800G光模块销量将分别达到1990万和3350万单位，较此前预测分别上调10%和58%。</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sz000010</t>
+          <t>sh600410</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>美丽生态</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>5.1</v>
+        <v>15.62</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>9.91</v>
+        <v>10</v>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>光伏+算力|1.公司打造公司新能源产业品牌，快速拓展以光伏产业为主的第二赛道，整合并建立优质的光伏组件等资源库，优化各类业务材料供应商结构，培养供应链组件供应商，建立自有供应链管理体系。
-2.公司逐步拓展主营延伸业务向大数据算力等新兴产业倾斜，设立美丽算力科技运营（海南）有限公司。</t>
+          <t>华为+算力|1.公司与华为深度合作人工智能算力中心解决方案，携手鲲鹏、昇腾助力人工智能领域发展，共同参与多个省市智算中心规划建设项目。
+2.公司打造了AI驱动的企业投标系统投标大王，通过引入大模型技术和Multi-Agent架构，形成高效的模型交互策略，实现了招标文件智能解读、资源精准匹配、风险科学评估和标书全面审核等关键功能。</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>光伏, 算力</t>
+          <t>华为, 算力</t>
         </is>
       </c>
     </row>
@@ -1791,46 +1791,43 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.21</v>
+        <v>0.89</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+          <t>高盛近期预计，2025年、2026年800G光模块销量将分别达到1990万和3350万单位，较此前预测分别上调10%和58%。</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sz000070</t>
+          <t>sz002298</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>特发信息</t>
+          <t>中电鑫龙</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>9.050000000000001</v>
+        <v>8.56</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
+        <v>10.03</v>
+      </c>
+      <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>光模块+算力|1.公司控股子公司四川华拓的光模块、光器件平台技术可以适用于CPO开发和拓展，同平台产品应用于数据中心领域，目前已出货。
-2.公司除自营数据中心项目外，还曾承接鹏城云脑二期项目Atlas900 AI计算集群及通用计算与存储系统的建设集成项目。</t>
+          <t>华为+存储+算力|1.公司与HUAWEI公司签订了战略合作协议，双方在智慧城市、大数据中心等领域进行合作，双方积极推动智慧城市、大数据中心等项目落地。
+2.公司在2022年半年报中透露，公司专用磁存储产品具备存储密度高、使用能耗低、数据安全高的特点，有望成为长期存储大规模冷数据的更优选择。
+3.公司研发的超融合云存储节点以及AI异构计算服务器等产品已应用于多个大数据算力中心项目。</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>光模块, 算力</t>
+          <t>华为, 存储, 算力</t>
         </is>
       </c>
     </row>
@@ -1841,2556 +1838,1430 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.21</v>
+        <v>0.89</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+          <t>高盛近期预计，2025年、2026年800G光模块销量将分别达到1990万和3350万单位，较此前预测分别上调10%和58%。</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sh600410</t>
+          <t>sz301486</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>致尚科技</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>14.2</v>
+        <v>91.97</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>华为+算力|1.公司与华为深度合作人工智能算力中心解决方案，携手鲲鹏、昇腾助力人工智能领域发展，共同参与多个省市智算中心规划建设项目。
-2.公司打造了AI驱动的企业投标系统投标大王，通过引入大模型技术和Multi-Agent架构，形成高效的模型交互策略，实现了招标文件智能解读、资源精准匹配、风险科学评估和标书全面审核等关键功能。</t>
+          <t>铜连接+算力|1.公司光纤连接器产品包括单芯及多芯MPO光纤跳线等，主要服务于4G/5G通讯，应用场景包括数据中心、FTTH及FTTA等，客户包括SENKO、特发信息等知名企业。
+2.2025年4月21日公告，公司拟通过发行股份及支付现金方式购买恒扬数据99.8583%的股权。经交易各方初步商定，恒扬数据100%股权的定价区间为11.5亿元至13亿元。恒扬数据是国内优秀的AI智算中心、云计算数据中心及边缘计算核心基础设施供应商。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>华为, 算力</t>
+          <t>铜连接, 算力</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>并购重组</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.21</v>
+        <v>0.18</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+          <t>证监会将坚定不移把全面深化资本市场改革推向前进，不断完善上市公司全链条的监管制度安排，抓好并购重组改革落地。</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sh600666</t>
+          <t>sh600246</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">奥瑞德  </t>
+          <t>万通发展</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.16</v>
+        <v>9.23</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="I30" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>RWA+算力|1.公司参与编写由中国信通院和蚂蚁数科牵头发起的《可信区块链实体资产可信上链技术规范》。
-2.2023年10月17日公告，根据公司业务拓展需要，公司拟投资建设算力集群向客户提供算力租赁服务，项目投资约1.79亿元。</t>
+          <t>并购重组|万通发展公告称，公司拟通过增资及股权转让方式合计投资8.54亿元取得数渡科技62.98%股权。投资完成后，数渡科技将成为公司控股子公司并纳入合并报表。标的公司主要从事高速互连芯片设计与研发以及提供ASIC芯片定制设计服务。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>RWA, 算力</t>
+          <t>并购重组</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>并购重组</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.21</v>
+        <v>0.18</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>华为将于8月12日在2025金融AI推理应用落地与发展论坛上，发布AI推理领域的突破性技术成果。</t>
+          <t>证监会将坚定不移把全面深化资本市场改革推向前进，不断完善上市公司全链条的监管制度安排，抓好并购重组改革落地。</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sz002174</t>
+          <t>sh600053</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>游族网络</t>
+          <t>九鼎投资</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>15.88</v>
+        <v>19.67</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>算力+RWA+游戏|1.2025年7月27日，游族网络、长城科技、深圳机密计算签署战略合作协议，三方将深度融合自主可控算力、机密计算技术、全球化产业应用优势，携手构建“国产算力+密态安全+场景创新”三位一体的自主可控算力安全技术底座，为文化、科技、金融、能源、制造等重点产业领域的安全算力需求和RWA等创新场景需求提供自主可控跨境算力安全解决方案。
-2.公司是一家全球性的游戏研发与发行公司，主营业务包括移动游戏和网页游戏的研发、发行和运营。</t>
+          <t>并购重组|九鼎投资公告称，公司拟通过收购股权及增资方式，以2.13亿元获得南京神源生智能科技53.2897%股权。本次交易是公司积极响应国家鼓励上市公司通过并购重组实现高质量发展政策导向的重要举措，旨在拓展产业布局，培育新的业绩增长点。</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>算力, RWA, 游戏</t>
+          <t>并购重组</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>并购重组</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.49</v>
+        <v>0.18</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>财联社记者近日多方采访获悉，PCB行业市场景气度较去年同期显著改善，尤其是高端产品，市场需求量较大。</t>
+          <t>证监会将坚定不移把全面深化资本市场改革推向前进，不断完善上市公司全链条的监管制度安排，抓好并购重组改革落地。</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sh603186</t>
+          <t>sz300620</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>华正新材</t>
+          <t>光库科技</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>35.07</v>
+        <v>66.08</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>10.01</v>
+        <v>19.99</v>
       </c>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>PCB+固态电池|1.公司主要从事覆铜板及粘结片、复合材料和膜材料等产品的设计、研发、生产及销售，其中覆铜板产品直接下游客户为PCB企业。
-2.公司铝塑膜产品正积极拓展和布局在固态和半固态电池的应用。</t>
+          <t>并购重组|光库科技公告称，公司拟以发行股份、可转换公司债券及支付现金的方式向张关明、苏州讯诺投资合伙企业（有限合伙）、刘晓明、杜文刚等6名交易对方购买其合计所持有的苏州安捷讯光电科技股份有限公司100%股权，并拟向不超过35名特定投资者发行股份募集配套资金。本次交易预计构成重大资产重组。</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>PCB, 固态电池</t>
+          <t>并购重组</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>3.49</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>财联社记者近日多方采访获悉，PCB行业市场景气度较去年同期显著改善，尤其是高端产品，市场需求量较大。</t>
+          <t>国家统计局发布数据显示，7月份全国居民消费价格同比持平，环比上涨0.4%。</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sz002008</t>
+          <t>sh605188</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>大族激光</t>
+          <t>国光连锁</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>33.88</v>
+        <v>13.3</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I33" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>PCB+机器人|1.公司构建了覆盖多层板、HDI板、IC封装基板、挠性板及刚挠结合板等不同细分PCB市场及层压、钻孔、曝光、成型、检测等关键工序的立体化产品矩阵，为PCB不同细分领域的客户提供差异化的一站式工序解决方案。
-2.公司与华昌达共同成立合资公司，进一步拓展工业激光加工与机器人领域的协同发展。</t>
+          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>PCB, 机器人</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.49</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>财联社记者近日多方采访获悉，PCB行业市场景气度较去年同期显著改善，尤其是高端产品，市场需求量较大。</t>
+          <t>国家统计局发布数据显示，7月份全国居民消费价格同比持平，环比上涨0.4%。</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sz301251</t>
+          <t>sz000417</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>威尔高</t>
+          <t>合百集团</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>55.69</v>
+        <v>6.28</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>20</v>
+        <v>9.98</v>
       </c>
       <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司主营业务是印制电路板的研发、生产和销售，公司海外客户主要包括施耐德、台达电子、三星电子、富士康、立讯等。</t>
+          <t>零售|公司零售业包括百货、家电、超市连锁、电子商务等细分业态，百货、家电、超市三业态共有251家实体经营门店。</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>3.49</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>财联社记者近日多方采访获悉，PCB行业市场景气度较去年同期显著改善，尤其是高端产品，市场需求量较大。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sz000016</t>
+          <t>sz000561</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>深康佳Ａ</t>
+          <t>烽火电子</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>5.42</v>
+        <v>11.36</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>9.94</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>消费电子+PCB|1.公司的Micro LED产品可应用于包括AR眼镜在内的各类显示设备。
-2.公司PCB业务由深圳市康佳电路有限责任公司作为统一管理运营主体，产品涉及金属基板、双面板、多层板、5G高频高速板及HDI（高密度互连技术）等。</t>
+          <t>军工+商业航天|1.公司是国家军民用通信装备及电声器材科研生产骨干企业，拥有军工科研生产资质及专业汽车生产企业资质。公司主导产品有短波通信设备、超短波通信设备、航空搜救定位设备、车机内音频控制系统、电声器材等。
+2.公司自主研制的空间站舱外航天服送受话器组件（航天通信帽）以及话音处理装置助力神州飞船载人航天任务，伴随航天员出舱遨游的全过程，担负起航天员与空间站、航天员与地面指挥中心语音通话的重要任务。</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>消费电子, PCB</t>
+          <t>军工, 商业航天</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>3.49</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>财联社记者近日多方采访获悉，PCB行业市场景气度较去年同期显著改善，尤其是高端产品，市场需求量较大。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sz000823</t>
+          <t>sz002501</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>超声电子</t>
+          <t>利源股份</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>14.28</v>
+        <v>2.24</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>10.02</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司主要从事印制线路板、液晶显示器及触摸屏、超薄及特种覆铜板、超声电子仪器的研制、生产和销售。印制线路板是电子产品的基础元器件，广泛应用于通讯产品、汽车电子产品、消费电子产品、家电产品、工业及医疗电子、电脑及周边设备等众多领域。</t>
+          <t>军工+高铁|公司主要从事铝型材，其在建筑装饰、汽车轻量化、轨道交通、医疗、航天军工等众多领域都有着不可替代的重要作用。</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>军工, 高铁</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料</t>
+          <t>医疗器械</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>6.18</v>
+        <v>0.42</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>根据沙利文咨询的相关预测，在假设我国PEEK材料主要终端应用产品维持不变的情况下，2022年至2027年，国内PEEK材料市场需求量将由2334吨提升至5079吨，对应年复合增长率约为16.8%。</t>
+          <t>中信证券研报称，近来高层多次明确提出“反内卷”、“集采优化不再唯低价论”等原则，支持创新药械产业发展，产业政策拐点信号明确，医疗器械板块估值和业绩有望迎来修复。</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sz002915</t>
+          <t>sh600211</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>中欣氟材</t>
+          <t>西藏药业</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>28.83</v>
+        <v>48.04</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>5天4板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料|公司已构建一体化的PEEK核心原材料产业，已布局5000吨PEEK核心中间体的产能DFBP，并围绕DFBP布局有氟苯、4-氟苯甲酰氯、氢氟酸、萤石矿的一体化产业链。</t>
+          <t>西藏+医疗器械|1.公司产品涵盖生物制药、藏药、中药和化学药领域，已成长为集研发、生产、销售为一体的现代化医药企业。
+2.公司持有阿迈特总股本的9.86%，阿迈特是从事心血管植/介入产品研发的高科技公司，拥有全球领先的3D4轴精密快速打印专利技术。</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料</t>
+          <t>西藏, 医疗器械</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>根据沙利文咨询的相关预测，在假设我国PEEK材料主要终端应用产品维持不变的情况下，2022年至2027年，国内PEEK材料市场需求量将由2334吨提升至5079吨，对应年复合增长率约为16.8%。</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="C38" s="2" t="inlineStr"/>
       <c r="D38" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sz301005</t>
+          <t>sz002231</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>超捷股份</t>
+          <t>*ST奥维</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>55.87</v>
+        <v>3.62</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I38" s="2" t="inlineStr"/>
+        <v>4.93</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>PEEK+商业航天|1.公司PEEK材质的产品主要为发动机相关的连杆、齿轮等塑料零部件。
-2.公司已设立专门商业航天业务团队，业务主要为商业火箭箭体结构件制造，包括壳段、整流罩、发动机阀门等，2024年5月已完成产线建设。</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>PEEK, 商业航天</t>
-        </is>
-      </c>
+          <t>ST股 | 公司在军工业务方面坚持国产自主可控的发展方向，聚焦野战通信与单兵信息化系统领域，主要产品包括无线宽带传输系统、自主可控国产化设备等。</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>根据沙利文咨询的相关预测，在假设我国PEEK材料主要终端应用产品维持不变的情况下，2022年至2027年，国内PEEK材料市场需求量将由2334吨提升至5079吨，对应年复合增长率约为16.8%。</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="C39" s="2" t="inlineStr"/>
       <c r="D39" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sz301022</t>
+          <t>sh600355</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>海泰科</t>
+          <t xml:space="preserve">*ST精伦 </t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>47.82</v>
+        <v>3.12</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr"/>
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料|公司在轻量化高分子材料解决方案（主要包括PEEK-CF50、PEEK-SL20和PEEK-HT300等材料）方面进行了相应的技术储备，公司通过在PEEK材料中创新性添加50%碳纤维、PEEK+石墨和陶瓷纤维+碳纤维，进一步提升PEEK材料性能，实现产品轻量化、自润滑、耐高温等性能。</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>PEEK材料</t>
-        </is>
-      </c>
+          <t>ST股 | 公司智能控制产品是公司全资子公司上海鲍麦克斯电子科技有限公司的主营产品，鲍麦克斯专业从事通用及专用伺服驱动系统、数控系统、 缝制机器人的系列化产品研发及销售。</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>根据沙利文咨询的相关预测，在假设我国PEEK材料主要终端应用产品维持不变的情况下，2022年至2027年，国内PEEK材料市场需求量将由2334吨提升至5079吨，对应年复合增长率约为16.8%。</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sh600143</t>
+          <t>sz002047</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>金发科技</t>
+          <t>*ST宝鹰</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>14.97</v>
+        <v>2.22</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I40" s="2" t="inlineStr"/>
+        <v>5.21</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料|公司拥有自主研发的PEEK聚合技术能力，相关改性产品主要应用于汽车、电子电器、机械等多个领域。</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>PEEK材料</t>
-        </is>
-      </c>
+          <t>ST股 | 宝鹰股份公告，公司正在筹划重大资产出售事项，拟向控股股东大横琴集团出售所持有的宝鹰建设100%股权。本次交易构成关联交易，预计构成重大资产重组。</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>近日，我国卫星密集发射，其中8月9日，我国太原卫星发射中心在山东日照附近海域使用捷龙三号运载火箭，成功将吉利星座04组卫星发射升空。</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="C41" s="2" t="inlineStr"/>
       <c r="D41" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sz000901</t>
+          <t>sh600421</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>航天科技</t>
+          <t xml:space="preserve">*ST华嵘 </t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>18.65</v>
+        <v>6.74</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>5天4板</t>
-        </is>
-      </c>
+        <v>4.98</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>军工+商业航天|1.中国航天科工集团旗下上市公司，航天应用产品主要是以惯性导航加速度传感器、测试测控设备、专用电源、精密制造为主要业务方向，完成国家武器装备及载人航天配套任务。
-2.公司航天应用产品包括惯性导航加速度传感器、精密制造、测试测控设备、专用电源，部分可配套商业航天。</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>军工, 商业航天</t>
-        </is>
-      </c>
+          <t>ST股 | 公司实控人是中天控股集团下属浙江恒顺投资，集团旗下中天氟硅2023年撤回ipo，原计划通过IPO募集14.42亿元资金，用于30万吨/年有机硅单体扩能技改及综合利用项目。</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>近日，我国卫星密集发射，其中8月9日，我国太原卫星发射中心在山东日照附近海域使用捷龙三号运载火箭，成功将吉利星座04组卫星发射升空。</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="C42" s="2" t="inlineStr"/>
       <c r="D42" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>sh605598</t>
+          <t>sz002586</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>上海港湾</t>
+          <t>*ST围海</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>32.25</v>
+        <v>3.33</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>基建+商业航天|1.公司地处上海，为全球客户提供集勘察、设计、施工、监测于一体的岩土工程综合服务。
-2.2025年上半年，公司卫星电源系统业务呈现快速增长态势，订单储备丰盈且增速亮眼，已构建起“研发创新-工程验证–成功交付”的良性发展闭环。当前，公司同步推进卫星电源系统的技术研发与场景应用，核心产品关键指标通过航天级严苛环境测试。</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>基建, 商业航天</t>
-        </is>
-      </c>
+          <t>ST股 | 公司是国内最早专业从事海堤围垦建设的公司之一，主营业务为生态环保工程、城市防洪工程、河道工程、水库工程、城市防洪工程及其他水利工程。</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>近日，我国卫星密集发射，其中8月9日，我国太原卫星发射中心在山东日照附近海域使用捷龙三号运载火箭，成功将吉利星座04组卫星发射升空。</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sh600877</t>
+          <t>sh600636</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>电科芯片</t>
+          <t xml:space="preserve">*ST国化 </t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>13.96</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>10.01</v>
+        <v>4.97</v>
       </c>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>半导体+商业航天|公司持续关注商业航天领域的发展，公司北斗短报文、窄带语音通信芯片以及宽带卫星互联网通信芯片产品在技术方面与商业航天应用是一致的，可以根据商业航天领域具体需求，在适当的时机可实现产品的快速开发及产业化落地。</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>半导体, 商业航天</t>
-        </is>
-      </c>
+          <t>ST股 | 子公司奥威亚采用全栈自研音频处理、语音分析、行为分析等多模态AI分析技术，结合布鲁姆教育目标分类法、麦卡锡4MAT、学习金字塔等专业教学模型，实现教、学、管、评、测全场景数据采集、分析、应用。</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>近日，我国卫星密集发射，其中8月9日，我国太原卫星发射中心在山东日照附近海域使用捷龙三号运载火箭，成功将吉利星座04组卫星发射升空。</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>sz002565</t>
+          <t>sh600568</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>顺灏股份</t>
+          <t xml:space="preserve">ST中珠  </t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>8.23</v>
+        <v>1.88</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>10.03</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>商业航天|公司作为独投方投资人民币1.1亿元于北京轨道辰光科技有限公司的加轮融资，轨道辰光是北京星空院首个孵化落地的产业项目，是“926工程”（晨昏轨道巨型算力卫星星座项目）建设和运营主体。</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>商业航天</t>
-        </is>
-      </c>
+          <t>ST股 | 以眼科领域的专用药品为主，主要有珍珠明目滴眼液、阿昔洛韦滴眼液等。</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="C45" s="2" t="inlineStr"/>
       <c r="D45" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sh601606</t>
+          <t>sh600360</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>长城军工</t>
+          <t xml:space="preserve">*ST华微 </t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>57.07</v>
+        <v>9</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>8天6板</t>
-        </is>
-      </c>
+        <v>5.02</v>
+      </c>
+      <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>军工|公司自成立以来，在保证军品业务的同时，不断开拓民品市场，民品业务保持稳步增长。多年以来，公司军品订货量保持全国地方军工订货量的领先地位。</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
+          <t>ST股 | 公司是国内技术领先、产品种类最为齐全的功率半导体器件IDM公司，已建立从高端二极管、单双向可控硅、MOS系列产品到第六代IGBT的功率半导体器件产品体系。</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="C46" s="2" t="inlineStr"/>
       <c r="D46" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sz000026</t>
+          <t>sz002305</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>飞亚达</t>
+          <t>*ST南置</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>19.49</v>
+        <v>3.58</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
+        <v>4.99</v>
+      </c>
+      <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>军工央企+手表|公司控股股东是中国航空工业集团子公司中国航空技术国际控股有限公司旗下中航国际控股有限公司，公司主要从事“飞亚达”表的经营和世界名表的商业连锁销售。</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>军工央企, 手表</t>
-        </is>
-      </c>
+          <t>ST股 | 公司是一家武汉市以商业地产为引导的综合性物业开发企业。</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr"/>
       <c r="D47" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sz002331</t>
+          <t>sh601929</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>皖通科技</t>
+          <t>吉视传媒</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>9.300000000000001</v>
+        <v>3.27</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>10.06</v>
+        <v>10.1</v>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>4天2板</t>
+          <t>7天5板</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>华为+军工|1.子公司华东电子微信公众号发布，华东电子携手华为昇腾A1，把人工智能带进港口，结合码头岸边理货作业场景，推出基于昇腾Al的边缘计算联合解决方案--智能理货系统，从“站位盯箱”到“远程作业”，极大地提升港口岸边理货质量与作业效率。
-2.公司子公司赛英科技专业从事嵌入软件式微波混合集成电路、微波混合集成电路及雷达相关整机、系统产品的开发设计、生产、销售与服务，服务于机载、舰载、弹载等多种武器平台，产品主要为雷达、电子对抗和通信系统提供配套。</t>
+          <t>影视|备受关注的电影《731》宣布将于9月18日上映。长影集团为《731》制作方，长影集团与吉视传媒等签署合作协议，涉及影视IP开发、数字内容生产等新兴领域。</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>华为, 军工</t>
+          <t>影视</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr"/>
       <c r="D48" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sz002246</t>
+          <t>sh600203</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>北化股份</t>
+          <t>福日电子</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>19.6</v>
+        <v>17.34</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I48" s="2" t="inlineStr"/>
+        <v>10.03</v>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>7天5板</t>
+        </is>
+      </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>硝化棉+化工|1.公司是全球生产规模最大的硝化棉生产企业，产销量连续多年排在世界首位。
-2.公司参股广州北方化工涉及TDI产品贸易业务。</t>
+          <t>消费电子|公司主营业务为通讯及智慧家电、LED光电、内外贸三大产业。通讯及智慧家电业务主要企业为全资子公司中诺通讯，主要为全球知名手机企业、移动运营商提供ODM服务。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>硝化棉, 化工</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>IDC电源</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>华泰证券研报称，当前应重视数据中心相关硬件板块机会，看好相关板块机会，包括柴油发电机组、服务器电源、UPS、HVDC等。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr"/>
       <c r="D49" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>sz002364</t>
+          <t>sz002052</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>中恒电气</t>
+          <t>同洲电子</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>18.3</v>
+        <v>11.96</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I49" s="2" t="inlineStr"/>
+        <v>10.03</v>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>数据中心HVDC|公司面向ICT行业能源网络建设提供数据中心HVDC直流供配电、预制化Panama电力模组，5G全栈式站点高效能源等产品及解决方案。</t>
+          <t>锂电池+消费电子|公司生产的锂电池主要为18650型柱状电池，主要用于消费电子产品。</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>数据中心HVDC</t>
+          <t>锂电池, 消费电子</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>IDC电源</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>华泰证券研报称，当前应重视数据中心相关硬件板块机会，看好相关板块机会，包括柴油发电机组、服务器电源、UPS、HVDC等。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
       <c r="D50" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>sz300870</t>
+          <t>sh605298</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>欧陆通</t>
+          <t>必得科技</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>163.38</v>
+        <v>21.65</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I50" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>IDC电源+液冷|1.公司已经成为主要的境内数据中心电源生产制造企业之一，涵盖了800W以下、800-2000W、2000W以上等全功率段产品系列，陆续为浪潮信息、富士康、华勤、联想、中兴、新华三等国内知名服务器系统厂商出货。
-2.公司的服务器电源产品包括风冷、浸没式液冷在内的两大类电源产品及解决方案，覆盖60w到30kw瓦数段，可应用于数据中心各类型服务器等设备。</t>
+          <t>高铁|公司主营中高速动车组列车、城轨列车等轨道交通车辆配套产品的研发、生产与销售，主要产品包括车辆通风系统、电缆保护系统和智能控制撒砂系统等系统化、系列化产品及其他轨道交通车辆配套产品。</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>IDC电源, 液冷</t>
+          <t>高铁</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>IDC电源</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>华泰证券研报称，当前应重视数据中心相关硬件板块机会，看好相关板块机会，包括柴油发电机组、服务器电源、UPS、HVDC等。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr"/>
       <c r="D51" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>sz002851</t>
+          <t>sz000011</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>深物业A</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>67.63</v>
+        <v>10.52</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I51" s="2" t="inlineStr"/>
+        <v>10.04</v>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>英伟达+IDC电源|1.2024年10月17日公告，公司正参与国际头部科技公司英伟达Blackwell GB200系统的创新设计与合作建设。
-2.公司电源产品中的服务器电源一般在数据中心的服务器机柜、服务器、交换机、路由器、存储设备中，是一种将交流电转换为直流电的装置。</t>
+          <t>深圳+房地产|公司经过多年发展，已形成了以房地产开发为主业，物业管理、物业租赁、出租汽车营运、餐饮服务、物流仓储、工程监理等为辅的跨行业、多元化的经营格局。</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>英伟达, IDC电源</t>
+          <t>深圳, 房地产</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>兴业证券研报称，创新药板块景气度可持续，“创新+国际化”的创新药产业趋势不变，始终是医药板块的核心方向。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
       <c r="D52" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>sz000590</t>
+          <t>sz002820</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>启迪药业</t>
+          <t>桂发祥</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>13.09</v>
+        <v>13.68</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I52" s="2" t="inlineStr"/>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司主要开展的科研创新项目有古代经典名方中药复方制剂研究及产品工艺改进研究。</t>
+          <t>休闲食品|公司是专业从事传统特色及其他休闲食品的研发、生产和销售的中华老字号企业，自产产品包括麻花、糕点、节令食品、天津风味方便食品等。</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>休闲食品</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>兴业证券研报称，创新药板块景气度可持续，“创新+国际化”的创新药产业趋势不变，始终是医药板块的核心方向。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr"/>
       <c r="D53" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>sh603716</t>
+          <t>sz300637</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>塞力医疗</t>
+          <t>扬帆新材</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>30.36</v>
+        <v>14.64</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>创新药+AI医疗|1.公司战略投资的心血管领域长效治疗性疫苗的创新性研发公司——武汉华纪元生物技术开发有限公司，其自主研发国家1类生物创新药HJY-ATRQβ-001正式获得国家药品监督管理局（NMPA）的新药临床试验申请（IND）受理通知书。
-2.公司作为以“人工智能+医疗大数据”为基础的智慧医疗综合体系建设供应商，始终聚焦医疗技术更新迭代与医疗领域应用场景的创新融合。</t>
+          <t>光引发剂|公司是全球光引发剂及巯基化合物主要生产供应商之一，主要产品为光引发剂、巯基化合物系列产品等。</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>创新药, AI医疗</t>
+          <t>光引发剂</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>兴业证券研报称，创新药板块景气度可持续，“创新+国际化”的创新药产业趋势不变，始终是医药板块的核心方向。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr"/>
       <c r="D54" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>sz300158</t>
+          <t>sz003017</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>振东制药</t>
+          <t>大洋生物</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>8.699999999999999</v>
+        <v>34.87</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司在创新药领域持续深耕，重点围绕肿瘤、皮肤等管线布局研发。在研新药抗肿瘤领域有治疗胃癌的ZD09、治疗乳腺癌骨转移的ZDH02等，皮肤领域有治疗特应性皮炎的SH003等。</t>
+          <t>PEEK|公司生产的氟苯产品为PEEK的中间体4，4-二氟二苯甲酮生产原料。</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>PEEK</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>SIA宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>sh600619</t>
+          <t>sz002622</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>海立股份</t>
+          <t>皓宸医疗</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>20.89</v>
+        <v>3.56</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+        <v>9.879999999999999</v>
+      </c>
+      <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>光刻机|海立集团与微电子装备集团双方领导以封装光刻机得冷却系统配套为起点，逐步从零部件级供应合作提升为系统级供应合作。</t>
+          <t>口腔医疗|公司购买德伦医疗51.00%股权。德伦医疗是一家以口腔医疗服务连锁经营为核心，专注于口腔疾病的诊断、治疗以及口腔保健、修复服务等口腔医疗服务的企业。</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>光刻机</t>
+          <t>口腔医疗</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>SIA宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr"/>
       <c r="D56" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>sh600246</t>
+          <t>sz000014</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>万通发展</t>
+          <t>沙河股份</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>14.25</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.04</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>注入优质芯片资产|万通发展公告称，公司拟通过增资及股权转让方式合计投资8.54亿元取得数渡科技62.98%股权。投资完成后，数渡科技将成为公司控股子公司并纳入合并报表。标的公司主要从事高速互连芯片设计与研发以及提供ASIC芯片定制设计服务。</t>
+          <t>房地产|地处深圳南山区，深业集团成员企业，主要从事房地产开发与经营、现代服务型产业用房运营与管理。</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>注入优质芯片资产</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>SIA宣布，2025年第二季度全球半导体销售额为1797亿美元，同比增长近20%，环比增长7.8%。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr"/>
       <c r="D57" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>sz000628</t>
+          <t>sh600984</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>高新发展</t>
+          <t>建设机械</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>50.12</v>
+        <v>3.8</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>10.01</v>
+        <v>10.14</v>
       </c>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>功率半导体|公司拟2.82亿元购买成都森未科技有限公司股权及其上层股东权益，交易完成后，公司以直接和间接方式控制森未科技69.4%的股权；以195.97万元购买成都高投芯未半导体有限公司98%的股权，购买芯未半导体控股权以购买森未科技控股权的成功实施为前提。交易完成以后，公司将具备功率半导体IGBT的研发及设计能力，主营业务将会增加功率半导体设计与销售等业务。</t>
+          <t>工程机械|公司主营工程机械制造和工程机械租赁，主要产品有：适用于路面施工设备的沥青混凝土摊铺机、压路机、铣刨机、稳定土拌合机、沥青搅拌站等。</t>
         </is>
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
-          <t>功率半导体</t>
+          <t>工程机械</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>消费电子</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>下半年，诸多旗舰品牌的新品发布、海内外节日的活跃因素，都将带动消费电子进入传统旺季。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>sz002981</t>
+          <t>sz002670</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>朝阳科技</t>
+          <t>国盛金控</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>31.8</v>
+        <v>17.74</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
+        <v>9.98</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>消费电子+果链|公司作为电声产品及电声配件专业生产企业，进入了苹果等知名智能终端及耳机品牌商的供应链。</t>
+          <t>券商|公司以证券业务为主，运营实体为全资子公司国盛证券及其下属企业国盛期货、国盛资管、国盛弘远。公司证券业务类型涉及经纪与财富管理、投资银行、投资与交易、资产管理、资本中介等。</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>消费电子, 果链</t>
+          <t>券商</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>消费电子</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>下半年，诸多旗舰品牌的新品发布、海内外节日的活跃因素，都将带动消费电子进入传统旺季。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr"/>
       <c r="D59" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>sz300752</t>
+          <t>sz002040</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>隆利科技</t>
+          <t>南 京 港</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>24.12</v>
+        <v>10.69</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>20</v>
+        <v>9.98</v>
       </c>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>消费电子|公司是国内研发实力较强、生产规模较大的重要背光显示模组企业之一，主要产品为中小尺寸LED背光显示模组，最终应用于智能手机、平板电脑、笔记本、车载、工控、智能穿戴等领域。</t>
+          <t>港口|中国内河最大的石油、液体化工产品中转港之一。本集团的主要经营业务为：提供原油、成品油、液体化工产品及普通货物的装卸、仓储服务。</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>港口</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>受益GB300在今年三季度放量以及Rubin/RubinUltra持续迭代驱动的功率密度显著提升，单台服务器液冷价值量边际价值量激增。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr"/>
       <c r="D60" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>sz002418</t>
+          <t>sz000006</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>康盛股份</t>
+          <t>深振业Ａ</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>4.2</v>
+        <v>7.46</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>9.950000000000001</v>
+        <v>10.03</v>
       </c>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司目前已具备浸没式液冷+储能+分布算力的商业模式闭环。数据中心液冷产品主要有8U/10kw、16U/15kw、21U/30kw高性能液冷机柜、8U/4kw 5G液冷机柜、16U/8kw 5G液冷机柜、21U/10kw 5G液冷机柜、干冷器产品系列、CDU产品系列、冷却液等；储能领域主要产品有8kw储能空调、60kw储能空调等。</t>
+          <t>深圳+房地产|公司以房地产开发经营为主营业务，在深圳、广州、天津、南宁、长沙、惠州、西安、东莞、深汕合作区等地分别设立地区公司开展房地产开发业务。</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>深圳, 房地产</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>受益GB300在今年三季度放量以及Rubin/RubinUltra持续迭代驱动的功率密度显著提升，单台服务器液冷价值量边际价值量激增。</t>
-        </is>
-      </c>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr"/>
       <c r="D61" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>sh603757</t>
+          <t>sh603023</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>大元泵业</t>
+          <t>威帝股份</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>32.19</v>
+        <v>4.62</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>10.01</v>
+        <v>10</v>
       </c>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司高压电子水泵及相关屏蔽泵产品能够应用在IDC温控领域，下游客户包括维谛技术、英维克、中兴通讯、曙光数创、同飞股份等。</t>
+          <t>汽车|公司是国内汽车电子控制产品供应商，主要生产CAN总线产品、控制器等客车车身电子产品。</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>高铁轨交</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>sh605298</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>必得科技</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I62" s="2" t="inlineStr"/>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>高铁|公司主营中高速动车组列车、城轨列车等轨道交通车辆配套产品的研发、生产与销售，主要产品包括车辆通风系统、电缆保护系统和智能控制撒砂系统等系统化、系列化产品及其他轨道交通车辆配套产品。</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="inlineStr">
-        <is>
-          <t>高铁</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>高铁轨交</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>近日，国铁集团新藏铁路有限公司宣告成立，注册资本达950亿人民币。</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>sh600495</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>晋西车轴</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H63" s="2" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="I63" s="2" t="inlineStr"/>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>军工央企+高铁|公司控股股东是中国兵器工业集团旗下晋西工业集团，公司是国内外铁路装备行业车轴细分领域中最具影响力的供应商之一。</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="inlineStr">
-        <is>
-          <t>军工央企, 高铁</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C64" s="2" t="inlineStr"/>
-      <c r="D64" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>sh600193</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*ST创兴 </t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="H64" s="2" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>6天3板</t>
-        </is>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 围绕算力服务业务，公司目前已在江苏苏州、浙江杭州、北京等地部署了算力资源池，主要用于机器视觉类应用和游戏项目的测试工作。</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C65" s="2" t="inlineStr"/>
-      <c r="D65" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>sz000504</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>*ST生物</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="H65" s="2" t="n">
-        <v>5.029999999999999</v>
-      </c>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司是目前国内一家国资控股的干细胞、免疫细胞及组织工程产业主板上市公司，“生物医药”板块业务包括干细胞储存服务、化妆品的生产和销售、医疗器械设备及耗材的代理和销售。</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C66" s="2" t="inlineStr"/>
-      <c r="D66" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>sz000627</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>*ST天茂</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H66" s="2" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司母公司作为投资控股型公司，主要通过控股子公司国华人寿从事保险业务，主要经营为人寿保险、健康保险、意外伤害保险等各类人身保险业务。</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C67" s="2" t="inlineStr"/>
-      <c r="D67" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>sz002808</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>*ST恒久</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司的控股子公司福建省闽保信息技术有限公司是一家从事信息安全领域软件开发及系统集成的高新技术企业。</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C68" s="2" t="inlineStr"/>
-      <c r="D68" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>sz000903</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>ST云动</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="H68" s="2" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="I68" s="2" t="inlineStr"/>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司于2024年9月14日公告披露与九识智能签署了《战略合作协议》，开展L4级智能配送机器人业务，正在按照战略协议要求开展相关准备工作。此外，公司生产的智能物流配送样车正在申请道路测试。</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C69" s="2" t="inlineStr"/>
-      <c r="D69" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>sh600355</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*ST精伦 </t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="H69" s="2" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司智能控制产品是公司全资子公司上海鲍麦克斯电子科技有限公司的主营产品，鲍麦克斯专业从事通用及专用伺服驱动系统、数控系统、 缝制机器人的系列化产品研发及销售。</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr"/>
-      <c r="D70" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>sh601929</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>吉视传媒</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="H70" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>电影+IP经济|备受关注的电影《731》宣布将于9月18日上映。长影集团为《731》制作方，长影集团与吉视传媒等签署合作协议，涉及影视IP开发、数字内容生产等新兴领域。</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="inlineStr">
-        <is>
-          <t>电影, IP经济</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr"/>
-      <c r="D71" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>sh688108</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>赛诺医疗</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>24.53</v>
-      </c>
-      <c r="H71" s="2" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>产品获美国FDA认定|赛诺医疗公告称，子公司产品获美国FDA突破性医疗器械认定，是美国FDA历史上全球首个颅内动脉粥样硬化狭窄治疗产品。</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="inlineStr">
-        <is>
-          <t>产品获美国FDA认定</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr"/>
-      <c r="D72" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>sh603538</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">美诺华  </t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>28.68</v>
-      </c>
-      <c r="H72" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>原料药上市获批|美诺华公告称，子公司安徽美诺华收到国家药监局核准签发的盐酸鲁拉西酮原料药《化学原料药上市申请批准通知书》。该产品已通过CDE技术审评。</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="inlineStr">
-        <is>
-          <t>原料药上市获批</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr"/>
-      <c r="D73" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>sz300304</t>
-        </is>
-      </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>云意电气</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="H73" s="2" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="I73" s="2" t="inlineStr"/>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>携手长安开拓智驾|云意电气8月8日公告称，公司与辰致汽车科技集团有限公司签署《合资合作备忘录》，双方拟依托各自核心优势，深度聚焦汽车及摩托车电子电器产品领域，共同出资设立合资公司，满足辰致集团及其下属企业的相关产品配套要求并面向外部市场拓展相关业务。</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="inlineStr">
-        <is>
-          <t>携手长安开拓智驾</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr"/>
-      <c r="D74" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>sz002890</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>弘宇股份</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="H74" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I74" s="2" t="inlineStr"/>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>农机|领先的中大马力拖拉机液压提升器生产商。主要产品为中、大马力拖拉机液压提升器总成、液压油缸、分配阀等拖拉机液压提升器系列产品。</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="inlineStr">
-        <is>
-          <t>农机</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr"/>
-      <c r="D75" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>sz000880</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>潍柴重机</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="n">
-        <v>46.41</v>
-      </c>
-      <c r="H75" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I75" s="2" t="inlineStr"/>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>数据中心发电机|公司主要开发、制造和销售船舶动力和发电设备市场用30-13600马力的发动机及动力集成系统、发电机组及电力集成系统，并具有提供整套动力解决方案及电力解决方案的能力。其中公司发电机组产品被广泛应用于船舶、通讯、油田、医疗、数据中心等行业。</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="inlineStr">
-        <is>
-          <t>数据中心发电机</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr"/>
-      <c r="D76" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>sz300690</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>双一科技</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="n">
-        <v>32.88</v>
-      </c>
-      <c r="H76" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I76" s="2" t="inlineStr"/>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>业绩|双一科技公告称，2025年上半年营业收入5.25亿元，同比增长44.57%。净利润9987.03万元，同比增长324.50%。公司计划不派发现金红利，不送红股，不以公积金转增股本。</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="inlineStr">
-        <is>
-          <t>业绩</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr"/>
-      <c r="D77" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>sz300993</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>玉马科技</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="H77" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="I77" s="2" t="inlineStr"/>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>遮阳材料|公司专注于功能性遮阳材料的研发、生产和销售，主要产品包括遮光面料、可调光面料和阳光面料。</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="inlineStr">
-        <is>
-          <t>遮阳材料</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr"/>
-      <c r="D78" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>sh603216</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>梦天家居</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="H78" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I78" s="2" t="inlineStr"/>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>家居|公司主要从事木门、墙板、柜类等定制化木质家具的设计、研发、生产和销售，为客户提供家居的整体空间解决方案。</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="inlineStr">
-        <is>
-          <t>家居</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr"/>
-      <c r="D79" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>sh603126</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>中材节能</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="H79" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I79" s="2" t="inlineStr"/>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>建材+储能|1.中国建材集团旗下上市公司，主营业务为节能环保工程、建筑节能材料、装备制造。
-2.公司在储能方面有布局，并已成立专业化储能公司。</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="inlineStr">
-        <is>
-          <t>建材, 储能</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr"/>
-      <c r="D80" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>sh605188</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>国光连锁</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="H80" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I80" s="2" t="inlineStr"/>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="inlineStr">
-        <is>
-          <t>零售</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr"/>
-      <c r="D81" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>sz000011</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>深物业A</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="H81" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I81" s="2" t="inlineStr"/>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>房地产|公司经过多年发展，已形成了以房地产开发为主业，物业管理、物业租赁、出租汽车营运、餐饮服务、物流仓储、工程监理等为辅的跨行业、多元化的经营格局。</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr"/>
-      <c r="D82" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>sz002826</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>易明医药</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="H82" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I82" s="2" t="inlineStr"/>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>西藏+医药|公司注册地址为西藏自治区拉萨市堆龙德庆区经济技术开发区林琼岗路6号，主要从事化学药(原料药和制剂)以及中成药的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="inlineStr">
-        <is>
-          <t>西藏, 医药</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr"/>
-      <c r="D83" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>sz002820</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>桂发祥</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="H83" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I83" s="2" t="inlineStr"/>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>休闲食品|公司是专业从事传统特色及其他休闲食品的研发、生产和销售的中华老字号企业，自产产品包括麻花、糕点、节令食品、天津风味方便食品等。</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="inlineStr">
-        <is>
-          <t>休闲食品</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr"/>
-      <c r="D84" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>sh600113</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>浙江东日</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="H84" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I84" s="2" t="inlineStr"/>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>脑机接口|持有培安美40%的股份，培安美与首都医科大学就脑机接口技术的创新研发与临床应用达成战略合作意向，医工结合，共同推进“血管内脑机接口”、“胶囊脑机”、“静脉内脑机接口”以及“缺血缺氧应急管理系统”等前沿技术的科研攻关与产业化落地。</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="inlineStr">
-        <is>
-          <t>脑机接口</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr"/>
-      <c r="D85" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>sh600053</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>九鼎投资</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="H85" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I85" s="2" t="inlineStr"/>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>创投|首家纯PE机构，主要从事客户资产管理和自由资金投资业务。</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="inlineStr">
-        <is>
-          <t>创投</t>
+          <t>汽车</t>
         </is>
       </c>
     </row>
@@ -4405,7 +3276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4437,7 +3308,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -4456,12 +3327,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sh688108</t>
+          <t>sh600246</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>赛诺医疗</t>
+          <t>万通发展</t>
         </is>
       </c>
     </row>
@@ -4471,57 +3342,57 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sh605598</t>
+          <t>sz002941</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>上海港湾</t>
+          <t>新疆交建</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sz002908</t>
+          <t>sz002307</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>德生科技</t>
+          <t>北新路桥</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sz002205</t>
+          <t>sh603080</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>国统股份</t>
+          <t>新疆火炬</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sh603538</t>
+          <t>sh600581</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">美诺华  </t>
+          <t>八一钢铁</t>
         </is>
       </c>
     </row>
@@ -4531,12 +3402,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sz002941</t>
+          <t>sh600619</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>新疆交建</t>
+          <t>海立股份</t>
         </is>
       </c>
     </row>
@@ -4546,12 +3417,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sz002307</t>
+          <t>sh605298</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>北新路桥</t>
+          <t>必得科技</t>
         </is>
       </c>
     </row>
@@ -4561,12 +3432,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sh600581</t>
+          <t>sz002052</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>八一钢铁</t>
+          <t>同洲电子</t>
         </is>
       </c>
     </row>
@@ -4576,12 +3447,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>sz000010</t>
+          <t>sz002176</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>美丽生态</t>
+          <t>江特电机</t>
         </is>
       </c>
     </row>
@@ -4591,12 +3462,12 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>sh600425</t>
+          <t>sh600410</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>青松建化</t>
+          <t>华胜天成</t>
         </is>
       </c>
     </row>
@@ -4606,12 +3477,12 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>sh600246</t>
+          <t>sh603757</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>万通发展</t>
+          <t>大元泵业</t>
         </is>
       </c>
     </row>
@@ -4621,12 +3492,12 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>sz002800</t>
+          <t>sz000011</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>天顺股份</t>
+          <t>深物业A</t>
         </is>
       </c>
     </row>
@@ -4636,12 +3507,12 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>sz000901</t>
+          <t>sh600053</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>航天科技</t>
+          <t>九鼎投资</t>
         </is>
       </c>
     </row>
@@ -4651,12 +3522,12 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>sz002302</t>
+          <t>sz002148</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>西部建设</t>
+          <t>北纬科技</t>
         </is>
       </c>
     </row>
@@ -4666,12 +3537,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>sh603080</t>
+          <t>sz000026</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>新疆火炬</t>
+          <t>飞亚达</t>
         </is>
       </c>
     </row>
@@ -4681,12 +3552,42 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>sh603800</t>
+          <t>sh600113</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>洪田股份</t>
+          <t>浙江东日</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>sh605188</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>国光连锁</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>sz002820</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>桂发祥</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,15 +485,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="95" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="87" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="240" customWidth="1" min="10" max="10"/>
+    <col width="202" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -557,35 +557,35 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.59</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>比特币在北京时间周四早间一度突破12.4万美元，再度刷新历史新高。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sz002104</t>
+          <t>sh603256</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>恒宝股份</t>
+          <t>宏和科技</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>27.02</v>
+        <v>32.86</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>10.02</v>
+        <v>10.01</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
@@ -594,577 +594,561 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>数字货币+机器人|1.公司将会紧跟国家战略和数字化业务布局，积极探讨数字人民币的跨境支付和境外支付的应用场景，借助公司跟海外银行的长期合作关系，积极与海外当地银行合作，在未来推动数字人民币跨境和境外支付应用。
-2.间接参股南京天创机器人，旗下T-BOT智能机器人包含五大系列产品，综合应用了大数据、边缘计算、AI识别算法、5G融合等前沿技术。</t>
+          <t>电子玻纤布|公司是全球领先的中高端电子级玻璃纤维布专业厂商，是全球少数具备极薄布生产能力的厂商之一。公司主要产品为中高端电子级玻璃纤维布系列产品，为制造电子产品核心铜箔基板的重要原料。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>数字货币, 机器人</t>
+          <t>电子玻纤布</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.59</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>比特币在北京时间周四早间一度突破12.4万美元，再度刷新历史新高。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sz002951</t>
+          <t>sh601208</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>金时科技</t>
+          <t>东材科技</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>16.73</v>
+        <v>19.22</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I3" s="2" t="inlineStr"/>
+        <v>10.02</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>RWA|2025年1月2日，公司与蚂蚁数科签署了一项合作协议，双方将携手打造全球新能源生态圈，通过深化新能源项目RWA合作，助推数字能源发展，为全球能源行业的绿色转型注入新活力。</t>
+          <t>PCB+光刻胶|1.公司的双马树脂、活性酯等产品已被广泛应用于5G/5.5G/6G通信、高端算力、服务器等领域的PCB基板生产环节，并通过台光、生益科技等国内外一线覆铜板厂商供应到华为、苹果、英伟达（NVIDIA）、英特尔（intel）、思科（Cisco）等主流产业链体系。
+2.2023年9月6日公司在互动平台表示，公司与Chemax、种亿化学成立成都东凯芯半导体材料公司，重点开展高端光刻胶项目。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>PCB, 光刻胶</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.59</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>比特币在北京时间周四早间一度突破12.4万美元，再度刷新历史新高。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sz003029</t>
+          <t>sz002080</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>吉大正元</t>
+          <t>中材科技</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>28.95</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9.99</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>数字货币|公司为央行、国有银行等金融机构提供信息PKI密码安全基础设施、身份安全、数据保护、签验等产品、技术及解决方案，公司积极关注数字货币的发展趋势，持续推进面向数字货币的新业务应用及技术研究项目，为数字货币提供可信安全支撑。</t>
+          <t>PCB|公司自主研发的应用于高端PCB的第一代低介电产品获得国内知名客户“PCB多元化项目技术突破奖”，已量产量供。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.59</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>比特币在北京时间周四早间一度突破12.4万美元，再度刷新历史新高。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sz002657</t>
+          <t>sz001359</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>中科金财</t>
+          <t>平安电工</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>34.12</v>
+        <v>52.31</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>数字货币+智能体|1.公司区块链探索的综合解决方案应用场景包括数字货币、账户上链、大额电子支付、大数据隐私保护、数字身份认证、海关监管、诚信安检、知识产权保护、商品溯源、动态股权等。
-2.公司是棱镜全息在AI领域的战略合作伙伴，公司自主研发的汽车智能座舱Agent可提供被动响应和主动服务的汽车座舱超级助理，引入了短期记忆和长期记忆，基于用户的过往交互、观点和态度，为每个用户量身打造，在响应需求时准确理解用户意图，同时能够通过即时捕捉环境信息，提供主动式服务。</t>
+          <t>PCB+固态电池|1.公司玻纤布产品主要分为工业级玻纤布和电子级玻纤布。其中电子级玻纤布可使基板具备优质的电气特性及机械强度，是主要用于印制电路覆铜板的绝缘增强材料。
+2.公司对固态电池行业的发展动态和趋势保持密切关注。云母是天然的高绝缘材料，耐高温、耐绝缘等特性可以在固态电池、人形机器人中有潜在的应用价值。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>数字货币, 智能体</t>
+          <t>PCB, 固态电池</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.59</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>比特币在北京时间周四早间一度突破12.4万美元，再度刷新历史新高。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sz002987</t>
+          <t>sz300814</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>京北方</t>
+          <t>中富电路</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>22.8</v>
+        <v>45.89</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>9.99</v>
+        <v>20.01</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>数字货币+跨境支付|1.京北方在投资者关系活动记录表中称，公司近日与国富量子创新有限公司签署战略合作协议，双方将聚焦虚拟资产及数字货币业务，围绕IT技术创新、虚拟资产及稳定币生态圈合作创新、金融业务创新三个层面展开深度合作。
-2.公司参与了多家银行的支付结算系统建设，包括协助部分客户接入SWIFT系统、CIPS系统，拥有丰富的案例以及相关技术、人才储备。</t>
+          <t>PCB+CPO|1.公司主要从事印制电路板的研发、生产和销售，生产的PCB产品包括单面板、双面板和多层板等。
+2.公司具备光模块板的制程能力，在光模块领域拥有4项自主研发的光模块板核心技术，其中3项都已经申请专利。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>数字货币, 跨境支付</t>
+          <t>PCB, CPO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-1.73</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>世界人形机器人运动会今日开幕，此次赛事涵盖跑步、跳高、足球等传统项目，以及考验机器人综合能力的场景赛。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sh601609</t>
+          <t>sh600110</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>金田股份</t>
+          <t>诺德股份</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>10.35</v>
+        <v>7</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.06</v>
+      </c>
+      <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">机器人+PEEK|1.公司电磁线产品与稀土永磁材料在人形机器人空心杯电机、无框力矩电机、减速电机等多个场景实现量产。
-2.2024年5月23日公司在互动平台表示，凭借高压领域的高端技术解决方案，公司PEEK线产品目前已具备产品竞争优势及进口替代能力，已取得部分高端新能源汽车厂商的定点。
-</t>
+          <t>PCB+固态电池|1.公司紧跟AI算力设备对高频材料的需求升级，新一代HVLP铜箔产品已通过部分客户认证，可满足高速覆铜板（CCL）对低损耗、高稳定性的要求。
+2.公司开发了一批适用于固态电池的集流体产品，其中包括耐高温铜箔集流体、多孔铜箔集流体、极薄双功能铜箔集流体、双面毛铜箔集流体、高耐腐蚀性合金铜箔集流体及泡沫铜箔集流体，为固态电池多路线发展提供材料支撑。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>机器人, PEEK</t>
+          <t>PCB, 固态电池</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-1.73</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>世界人形机器人运动会今日开幕，此次赛事涵盖跑步、跳高、足球等传统项目，以及考验机器人综合能力的场景赛。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sh603350</t>
+          <t>sz301526</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">安乃达  </t>
+          <t>国际复材</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>43.87</v>
+        <v>6.38</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>10.01</v>
+        <v>19.92</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>机器人|在广义的轮式机器人项目上，公司有批量供应或在研的电机产品。</t>
+          <t>电子玻纤|公司生产的电子级玻璃纤维是制作覆铜板（CCL）和印制电路板（PCB）的关键材料，具有电绝缘性能好、防火阻燃、耐老化等特点，主要应用于电子电器、汽车电子、5G通讯等领域。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>电子玻纤</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-1.73</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>世界人形机器人运动会今日开幕，此次赛事涵盖跑步、跳高、足球等传统项目，以及考验机器人综合能力的场景赛。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sh600678</t>
+          <t>sh600601</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>四川金顶</t>
+          <t>方正科技</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>10.56</v>
+        <v>6.75</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10</v>
+        <v>9.93</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>建材+机器人|1.公司已剥离水泥业务，现已形成石灰石开采、加工、产品销售及仓储物流的产业链条，目前正在推进石灰石矿山年产800万吨技改项目，主要客户为四川水泥企业。
-2.旗下四川新工绿氢推出了第一代自动驾驶储充机器人产品天工一号。它不同于固定式充电桩，具有较丰富的应用场景，可以为用户提供经济、绿色、柔性、智能的充电保电服务。</t>
+          <t>PCB|公司已批量生产PCB产品应用于10G-100G-200G-400G-800G等光模块产品，同时，针对1.6T连接器和光模块产品，公司PCB产品已完成打样并具备批量生产能力。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>建材, 机器人</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-1.73</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>世界人形机器人运动会今日开幕，此次赛事涵盖跑步、跳高、足球等传统项目，以及考验机器人综合能力的场景赛。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sh603280</t>
+          <t>sz002636</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>南方路机</t>
+          <t>金安国纪</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>59.4</v>
+        <v>13.55</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>工程机械+机器人|1.公司的工程搅拌设备主要应用于建筑材料及筑路材料生产，包括水泥混凝土生产设备、干混砂浆生产设备、沥青混合料生产设备等。
-2.公司的建筑垃圾资源化处理设备的智能分拣机器人，能高效应对混合建筑垃圾、建筑混合废弃物、橡胶、木头等物料进行分拣，实现对建筑垃圾、装修垃圾等物料的分类回收和再利用。</t>
+          <t>PCB+医疗器械|1.公司主要从事电子行业基础材料覆铜板的研发、生产和销售，主要产品包括各种FR-5、FR-4、CEM-3、铝基覆铜板及半固化片。
+2.公司持有上海埃尔顿医疗器械有限公司60%股权，其主要从事研发、生产内镜诊治器械的医疗器械生产。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>工程机械, 机器人</t>
+          <t>PCB, 医疗器械</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-1.73</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>世界人形机器人运动会今日开幕，此次赛事涵盖跑步、跳高、足球等传统项目，以及考验机器人综合能力的场景赛。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sh600580</t>
+          <t>sh603002</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>宏昌电子</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>27.62</v>
+        <v>7.87</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>10</v>
+        <v>10.07</v>
       </c>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>机器人|1.公司无框力矩电机以及多种关节模组产品已与多家仿生机器人下游客户开展联合研发，送样测试等工作，部分客户已形成小批量订单。
-2.卧龙电驱通过金石投资间接持有宇树科技0.1525%的股份。</t>
+          <t>PCB|公司主要从事电子级环氧树脂、覆铜板两大类产品的生产和销售，覆铜板主营产品为多层板用环氧玻璃布覆铜板、多层板用环氧玻璃布半固化片。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-1.56</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sh603757</t>
+          <t>sh688519</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>大元泵业</t>
+          <t>南亚新材</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>42.85</v>
+        <v>54.31</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司高压电子水泵及相关屏蔽泵产品能够应用在IDC温控领域，下游客户包括维谛技术、英维克、中兴通讯、曙光数创、同飞股份等。</t>
+          <t>覆铜板|公司主营业务系覆铜板和粘结片等复合材料及其制品的设计、研发、生产及销售。覆铜板是制作印制电路板的核心材料，印制电路板是电子元器件电气连接的载体。公司产品品类齐全，在AI算力等相关产品也均有产品布局。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>覆铜板</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-1.56</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sz002536</t>
+          <t>sz002203</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>海亮股份</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>26.93</v>
+        <v>13.35</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">液冷IDC|公司的数据中心液冷产品在芜湖飞龙、郑州飞龙已建有专门生产线。
-</t>
+          <t>PCB|公司标准铜箔用于制造覆铜板、印制电路板，起导电、散热作用。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-1.56</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
+          <t>AI服务器对PCB产品的性能要求日益提高，进一步推动了HDI市场需求的大幅增长。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sz002418</t>
+          <t>sh600183</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>康盛股份</t>
+          <t>生益科技</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.65</v>
+        <v>44.83</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司目前已具备浸没式液冷+储能+分布算力的商业模式闭环。数据中心液冷产品主要有8U/10kw、16U/15kw、21U/30kw高性能液冷机柜、8U/4kw 5G液冷机柜、16U/8kw 5G液冷机柜、21U/10kw 5G液冷机柜、干冷器产品系列、CDU产品系列、冷却液等；储能领域主要产品有8kw储能空调、60kw储能空调等。</t>
+          <t>PCB|公司从事的主要业务为：设计、生产和销售覆铜板和粘结片、印制线路板。产品主要供制作单、双面及多层线路板。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
@@ -1175,1757 +1159,4033 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-1.56</v>
+        <v>4.67</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>根据浙商证券测算，英伟达GPU，及云厂商自研ASIC芯片共同驱动液冷市场快速增长，2025-2027年液冷市场规模大约分别为354/716/1082亿元，2027年有望突破千亿市场空间。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sz002598</t>
+          <t>sh603757</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>山东章鼓</t>
+          <t>大元泵业</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>12.05</v>
+        <v>47.14</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="I15" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>超级电容+液冷IDC|1.公司于2020年2月26日在互动平台表示，公司参股的山东艾诺冈新能源技术有限公司目前定位于集物联网户外智能系统、物联网储能电源系统以及长寿命的储能电源为一体的系统集成商，其中的长寿命的储能电源包括超级电容器与钛酸锂电池。
-2.参股公司章鼓高孚的磁悬浮压缩机和空气悬浮压缩机已经完成系列化，为数据中心提供冷源。</t>
+          <t>液冷IDC|公司高压电子水泵及相关屏蔽泵产品能够应用在IDC温控领域，下游客户包括维谛技术、英维克、中兴通讯、曙光数创、同飞股份等。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>超级电容, 液冷IDC</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>人脑工程</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.44</v>
+        <v>4.67</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>中信证券发布研报称，脑机接口行业生态正在快速演进，商业化路径日益清晰。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sz002173</t>
+          <t>sh601609</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>创新医疗</t>
+          <t>金田股份</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>24.92</v>
+        <v>11.39</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10.02</v>
+        <v>10.05</v>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8天5板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>AI医疗+脑机接口|1.参股全诊医学自主研发的全诊医疗大模型及AI产品已在国内多家知名医院成功应用。
-2.公司通过参股脑机接口技术公司——杭州博灵医疗科技有限公司的方式，间接介入到了该前沿技术领域。</t>
+          <t>稀土+液冷IDC|1.公司电磁线产品与稀土永磁材料在人形机器人空心杯电机、无框力矩电机、减速电机等多个场景实现量产。
+2.公司自主研发的铜热管、液冷铜管等产品已成功导入多家头部企业算力服务器产品中。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>AI医疗, 脑机接口</t>
+          <t>稀土, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>人脑工程</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.44</v>
+        <v>4.67</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>中信证券发布研报称，脑机接口行业生态正在快速演进，商业化路径日益清晰。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sh688767</t>
+          <t>sz002536</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>博拓生物</t>
+          <t>飞龙股份</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45.13</v>
+        <v>29.62</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>脑机接口|公司通过博肽智投投资青石永隽并获5%股权，后者由浙大侵入式脑机接口团队创办，是南湖脑机交叉研究院首个科技成果转化企业。</t>
+          <t xml:space="preserve">液冷IDC|公司电子泵及温控阀系列产品可以应用在服务器液冷领域。
+</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>脑机接口</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>人脑工程</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.44</v>
+        <v>4.67</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>中信证券发布研报称，脑机接口行业生态正在快速演进，商业化路径日益清晰。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sh600775</t>
+          <t>sz002598</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>南京熊猫</t>
+          <t>山东章鼓</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>13.41</v>
+        <v>13.26</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr"/>
+        <v>10.04</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>脑机接口|公司脑机接口方面主要是基于脑机接口技术的多模态人机交互系统集成关键技术研发。</t>
+          <t>固态电池+液冷IDC|1.公司参股的喀什安德主要致力于新型半固态、固态电解质膜的开发和应用，主要生产的产品为46120半固态高压镍锰酸锂电池和80160水系半固态锌离子两种类型的电池。
+2.参股公司章鼓高孚的磁悬浮压缩机和空气悬浮压缩机已经完成系列化，为数据中心提供冷源。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>脑机接口</t>
+          <t>固态电池, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>新型城镇化</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-1.73</v>
+        <v>4.67</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>专家表示，下半年，在项目充裕及专项债等资金加快发行等利好条件下，基建投资增速有望提升。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sh603098</t>
+          <t>sz002272</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>森特股份</t>
+          <t>川润股份</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>12.66</v>
+        <v>14.89</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>BIPV+基建|1.公司主要致力于光伏系统、光伏电站项目的投资、开发、设计、销售、系统运行维护、售后服务。
-2.公司已成长为行业内领先的建筑金属围护系统一体化服务商，主要承接金属围护系统工程（屋面系统、墙面系统）和声屏障系统工程，提供从工程咨询、设计、专用材料供应和加工制作到安装施工全过程的工程承包服务。</t>
+          <t>液冷IDC|公司液冷技术在能源、工业等领域有多年成熟应用，在储能、数据中心、云计算、算力设备、通信网络、电力电网、电源转换等领域为客户提供液冷产品和温控节能解决方案。公司已实现服务器浸没式液冷产品“零”突破。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>BIPV, 基建</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>新型城镇化</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-1.73</v>
+        <v>4.67</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>专家表示，下半年，在项目充裕及专项债等资金加快发行等利好条件下，基建投资增速有望提升。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sz002871</t>
+          <t>sh600673</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>伟隆股份</t>
+          <t xml:space="preserve">东阳光  </t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>12.87</v>
+        <v>17.03</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>水利基建|公司的阀门产品主要应用于市政给排水系统、城镇燃气管网系统、消防给水系统、空调暖通系统以及污水处理系统等五大领域，为国内外拥有国际认证较多的企业之一。</t>
+          <t>液冷IDC|公司已积极布局第四代制冷剂及以数据中心用电子氟化液领域相关产品。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>水利基建</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>新型城镇化</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-1.73</v>
+        <v>4.67</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>专家表示，下半年，在项目充裕及专项债等资金加快发行等利好条件下，基建投资增速有望提升。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sh603955</t>
+          <t>sz300547</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>大千生态</t>
+          <t>川环科技</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>43.35</v>
+        <v>48.48</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>实控人变更+基建|1.大千生态公告，公司控股股东大千投资、实际控制人栾剑洪、范荷娣与苏州步步高签署了《股份转让协议》，大千投资拟向苏州步步高协议转让其持有的大千生态2454.89万股股份（占公司已发行股份总数的18.09%），转让价格为15元/股，总价款为3.68亿元。本次交易完成后，公司控股股东将由大千投资变更为苏州步步高，实际控制人将由栾剑洪、范荷娣夫妇变更为张源。
-2.公司现已发展成为一家集生态景观、市政工程、生态治理、文化旅游等多领域业务于一身的生态景观建设企业。</t>
+          <t>液冷IDC|公司液冷服务器所用的液冷管路系统相关技术指标已经达到了V0标准，目前已经通过了美国UL认证。该领域的产品在1号客户的基础上正稳步拓展中，目前已经进入了迅强、兴奇宏、飞荣达、英维克、中航光电等供应商体系。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>实控人变更, 基建</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-1.83</v>
+        <v>4.67</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>上周、日本关东电化涩川工厂发生爆炸，该工厂主要生产半导体制造的蚀刻气体。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sh600658</t>
+          <t>sz002909</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">电子城  </t>
+          <t>集泰股份</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.94</v>
+        <v>6.95</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>半导体+算力|1.电子城IC/PIC创新中心作为北京市首个集成电路与集成光路“双集成”创新示范园，园区生态不断完善，30余家集成电路上下游企业及硅光设计企业入驻，持续整合产业链上下游优质服务资源，为客户提供流片验证、检测分析、EDA服务、芯片定制设计、光电封测开发等专业化产业服务。
-2.公司持有知鱼智联36.36%股份，知鱼智联根据战略发展规划和经营需要，参与了公司控股股东北京电控基于产业和城市数字化的北京数字经济算力中心项目。</t>
+          <t>液冷IDC|公司当前研发的液冷导热硅油，其应用主要聚焦于数据中心及储能领域的热管理解决方案。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>半导体, 算力</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-1.83</v>
+        <v>4.67</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>上周、日本关东电化涩川工厂发生爆炸，该工厂主要生产半导体制造的蚀刻气体。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sh605588</t>
+          <t>sz002518</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>冠石科技</t>
+          <t>科士达</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>57.34</v>
+        <v>28.82</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>9.99</v>
+        <v>10</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>光掩膜版|公司与宁波前湾新区管理委员会签署《投资协议书》。拟投资约20亿元建设冠石科技光掩膜版制造项目，主要生产45-28nm成熟制程的半导体光掩膜版。</t>
+          <t>液冷IDC|公司致力于为数据中心基础建设提供IDC电源保障设备、温控设备、蓄电池，微模块等，同时公司数据中心温控产品已有液冷技术储备。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>光掩膜版</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-1.83</v>
+        <v>4.67</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>上周、日本关东电化涩川工厂发生爆炸，该工厂主要生产半导体制造的蚀刻气体。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sh603155</t>
+          <t>sh688448</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">新亚强  </t>
+          <t>磁谷科技</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>18.32</v>
+        <v>56.04</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>10.03</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>半导体+有机硅|1.公司电子级六甲基二硅氮烷在电子芯片行业用于硅晶圆的表面改性，作为芯片光刻抗蚀剂的助黏剂和清洗剂用于半导体领域，已完成研发并开始生产销售。
-2.公司主要从事有机硅精细化学品研发、生产及销售，主要产品包括以六甲基二硅氮烷为核心的有机硅功能性助剂和苯基氯硅烷两大产品类别，包含十多种有机硅产品。</t>
+          <t>液冷IDC|公司磁悬浮冷水机组可用于办公大楼、酒店、医院、商场、学校等对舒适性有要求的场所及工业制造、数据中心、实验室、食品、农业等对工艺和环境温度有要求的场所。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>半导体, 有机硅</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-1.26</v>
+        <v>4.67</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>我国数字基础设施在规模、技术等方面处于世界领先地位，截至2025年6月底，5G基站总数达到455万个，千兆宽带用户达2.26亿户，算力总规模位居全球第二。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sh600410</t>
+          <t>sz002011</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>盾安环境</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>17.81</v>
+        <v>13.56</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
+        <v>9.98</v>
+      </c>
+      <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>华为+算力|1.公司与华为深度合作人工智能算力中心解决方案，携手鲲鹏、昇腾助力人工智能领域发展，共同参与多个省市智算中心规划建设项目。
-2.公司打造了AI驱动的企业投标系统投标大王，通过引入大模型技术和Multi-Agent架构，形成高效的模型交互策略，实现了招标文件智能解读、资源精准匹配、风险科学评估和标书全面审核等关键功能。</t>
+          <t>液冷IDC|公司是全球制冷元器件行业龙头企业，是全球多家知名空调厂商的战略合作伙伴，公司的阀件、换热器以及相关的组件类产品已应用于数据中心温控领域。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>华为, 算力</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-1.26</v>
+        <v>2.5</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>我国数字基础设施在规模、技术等方面处于世界领先地位，截至2025年6月底，5G基站总数达到455万个，千兆宽带用户达2.26亿户，算力总规模位居全球第二。</t>
+          <t>人形机器人要从“表演”过渡到“干活”，如今已成为行业共识。近期，工厂千万级订单正在密集落地。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sh688159</t>
+          <t>sh600580</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>有方科技</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>71.86</v>
+        <v>30.38</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="I26" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>AI服务器+机器人|1.全资子公司有方数据与瑞驰信息和大普微签署《联合开发分布式存储服务器等项目的合作框架协议》，三方拟围绕自主可控的ARM高密度存储服务器、阵列式AI服务器、分布式存储软件、视频AI算法等项目开展研发合作。
-2.公司模组可以适配并应用于机器人上。</t>
+          <t>机器人|子公司希尔机器人是公司电动汽车电机的主要设备提供商之一，为特斯拉提供机器人生产线。
+公司无框力矩电机以及多种关节模组产品已与多家仿生机器人下游客户开展联合研发，送样测试等工作，部分客户已形成小批量订单。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>AI服务器, 机器人</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>并购重组</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-1.72</v>
+        <v>2.5</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>业内人士认为，科创板第五套标准重启、并购重组新规落地等政策红利持续释放，为券商投行业务注入新动能，资本市场服务实体经济质效进一步提升。</t>
+          <t>人形机器人要从“表演”过渡到“干活”，如今已成为行业共识。近期，工厂千万级订单正在密集落地。</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sh600208</t>
+          <t>sz002879</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>衢州发展</t>
+          <t>长缆科技</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.98</v>
+        <v>19.21</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>9.93</v>
+        <v>10.02</v>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>并购重组|衢州发展披露重组预案，公司拟通过发行股份的方式，向先导稀材、中金先导等购买先导电科95.46%股份，并募集配套资金，此次交易价格尚未确定。先导电科100%股权预估值不超过120亿元。</t>
+          <t>机器人|公司的智能管道可视化机器人可以对管道内部的情况进行实时影像监测、缺陷记录、AI故障判断、数据库对比分析、视频回放、图像抓拍等，无需人员进入管内即可了解管道内部状况，为制定养护、修复方案提供重要依据，并可以对管道内部进行清理及简单修复，适用于电力管道、排水管道、供水管道、工业管道、燃气管道等多种场景。</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>并购重组</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>并购重组</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-1.72</v>
+        <v>2.5</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>业内人士认为，科创板第五套标准重启、并购重组新规落地等政策红利持续释放，为券商投行业务注入新动能，资本市场服务实体经济质效进一步提升。</t>
+          <t>人形机器人要从“表演”过渡到“干活”，如今已成为行业共识。近期，工厂千万级订单正在密集落地。</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sz000545</t>
+          <t>sh688648</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>金浦钛业</t>
+          <t>中邮科技</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.22</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="I28" s="2" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>并购重组|金浦钛业公告称公司正在筹划通过重大资产置换、发行股份及支付现金的方式购买南京金浦东裕投资有限公司、南京恒誉泰和投资合伙企业(有限合伙)持有的南京利德东方橡塑科技有限公司100%股权并同时募集配套资金。本次交易预计构成上市公司重大资产重组，并构成关联交易，不会导致公司实际控制人发生变更。</t>
+          <t>机器人|公司及子公司拥有的已授权专利情况包括：一种双承载分拣机器人（实用新型）、一种基于智能机器人的自动分拣矩阵系统（实用新型）。</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>并购重组</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-2.26</v>
+        <v>2.5</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>高盛近期预计，2025年、2026年800G光模块销量将分别达到1990万和3350万单位，较此前预测分别上调10%和58%。</t>
+          <t>人形机器人要从“表演”过渡到“干活”，如今已成为行业共识。近期，工厂千万级订单正在密集落地。</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sz000070</t>
+          <t>sh603686</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>特发信息</t>
+          <t xml:space="preserve">福龙马  </t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>10.99</v>
+        <v>19.71</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>光模块+算力|1.公司控股子公司四川华拓的光模块、光器件平台技术可以适用于CPO开发和拓展，同平台产品应用于数据中心领域，目前已出货。
-2.公司除自营数据中心项目外，还曾承接鹏城云脑二期项目Atlas900 AI计算集群及通用计算与存储系统的建设集成项目。</t>
+          <t>无人清扫机器人|公司的无人清扫机器人为城市环卫智慧化转型升级提供了强大的技术支撑，目前已投放北京、广州、沈阳、厦门等十多个城市进行作业。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>光模块, 算力</t>
+          <t>无人清扫机器人</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-2.26</v>
+        <v>2.5</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>高盛近期预计，2025年、2026年800G光模块销量将分别达到1990万和3350万单位，较此前预测分别上调10%和58%。</t>
+          <t>人形机器人要从“表演”过渡到“干活”，如今已成为行业共识。近期，工厂千万级订单正在密集落地。</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sz002491</t>
+          <t>sh688306</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>通鼎互联</t>
+          <t>均普智能</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>5.58</v>
+        <v>12.48</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>10.06</v>
+        <v>20</v>
       </c>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>CPO|公司与南京大学的大规模光子集成联合实验室结合通鼎互联自身先进的光纤研发、制造体系和高安全性的通信网络设备，依托基于REC及PWB的大规模光子集成技术，发展规模化量产25G/50G/100G/400G/800G bps等各种高速产品。</t>
+          <t>机器人+AI|1.公司在滚珠丝杠总装及测试，角度/角位传感器、测距传感器、加速度传感器等装配与测试等方面具备丰富的经验与技术优势，公司正持续积极研究探索人形机器人领域的业务机会，以进行规划和布局。
+2.均普智能在微信公众号发文称，均普智能联合微软共同研发，不断喂养、训练机器视觉，目前已形成“视觉AI”行业领域模型。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>CPO</t>
+          <t>机器人, AI</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-2.61</v>
+        <v>2.5</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>中国电子信息产业发展研究院军民所表示，中国商业航天产业规模2025年将增至2.8万亿元。</t>
+          <t>人形机器人要从“表演”过渡到“干活”，如今已成为行业共识。近期，工厂千万级订单正在密集落地。</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sh605598</t>
+          <t>sh603153</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>上海港湾</t>
+          <t>上海建科</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>30.31</v>
+        <v>20.42</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>10.02</v>
       </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
+      <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>基建+商业航天|1.公司地处上海，为全球客户提供集勘察、设计、施工、监测于一体的岩土工程综合服务。
-2.2025年上半年，公司卫星电源系统业务呈现快速增长态势，订单储备丰盈且增速亮眼，已构建起“研发创新-工程验证–成功交付”的良性发展闭环。当前，公司同步推进卫星电源系统的技术研发与场景应用，核心产品关键指标通过航天级严苛环境测试。</t>
+          <t>机器人|旗下上海建科深水港检验有限公司拥有建筑外立面检测机器人专利。</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>基建, 商业航天</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-2.61</v>
+        <v>2.5</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>中国电子信息产业发展研究院军民所表示，中国商业航天产业规模2025年将增至2.8万亿元。</t>
+          <t>人形机器人要从“表演”过渡到“干活”，如今已成为行业共识。近期，工厂千万级订单正在密集落地。</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sz000561</t>
+          <t>sz003033</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>烽火电子</t>
+          <t>征和工业</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>13.75</v>
+        <v>48.99</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>军工+商业航天|1.公司是国家军民用通信装备及电声器材科研生产骨干企业，拥有军工科研生产资质及专业汽车生产企业资质。公司主导产品有短波通信设备、超短波通信设备、航空搜救定位设备、车机内音频控制系统、电声器材等。
-2.公司自主研制的空间站舱外航天服送受话器组件（航天通信帽）以及话音处理装置助力神州飞船载人航天任务，伴随航天员出舱遨游的全过程，担负起航天员与空间站、航天员与地面指挥中心语音通话的重要任务。</t>
+          <t>机器人|2025年4月28日公司在调研中表示，公司研发的的微型链系统项目，重点攻关机器人灵巧手传动技术，尚处于早期技术探索与储备阶段。</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>军工, 商业航天</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-2.9</v>
+        <v>2.5</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>中金公司研报认为，海外算力需求高企，驱动PCB量价齐升，市场规模迅速扩容，预计2025/2026年AI PCB市场规模有望达56/100亿美元。</t>
+          <t>人形机器人要从“表演”过渡到“干活”，如今已成为行业共识。近期，工厂千万级订单正在密集落地。</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sh603256</t>
+          <t>sh600860</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>宏和科技</t>
+          <t>京城股份</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>29.87</v>
+        <v>14.17</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>10.02</v>
       </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>电子玻纤布|公司是全球领先的中高端电子级玻璃纤维布专业厂商，是全球少数具备极薄布生产能力的厂商之一。公司主要产品为中高端电子级玻璃纤维布系列产品，为制造电子产品核心铜箔基板的重要原料。</t>
+          <t>氢能+机器人|1.公司所生产的70MPa高压铝内胆碳纤维全缠绕复合气瓶（储氢气瓶）已批量应用于氢燃料电池汽车、燃料电池备用电源领域。
+2.公司持有北洋天青80.00%的股权，北洋天青立足于家电和3C行业，是一家生产线的智能化升级改造行业解决方案提供商，为制造企业提供基于云端、算法驱动、灵活可配置的多平台实时协同系统，搭配机器人应用、自动化设备、智能物流等硬件设施。</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>电子玻纤布</t>
+          <t>氢能, 机器人</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-2.9</v>
+        <v>2.5</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>中金公司研报认为，海外算力需求高企，驱动PCB量价齐升，市场规模迅速扩容，预计2025/2026年AI PCB市场规模有望达56/100亿美元。</t>
+          <t>人形机器人要从“表演”过渡到“干活”，如今已成为行业共识。近期，工厂千万级订单正在密集落地。</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sh605006</t>
+          <t>sz300539</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>山东玻纤</t>
+          <t>横河精密</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>8.23</v>
+        <v>30.46</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>10.03</v>
+        <v>20.02</v>
       </c>
       <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>玻纤电子纱|公司主要从事玻璃纤维及其制品的研发、生产与销售，其玻璃纤维电子纱产品可应用于PCB制造。</t>
+          <t>机器人|公司齿轮箱/减速器类产品主要应用在智能扫地机器人等领域。</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>玻纤电子纱</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.74</v>
+        <v>2.59</v>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>中信证券表示，下半年围绕创新驱动和国际化+自主可控+院外营销模式改革三个领域进行布局，尤其是最具贝塔效应的创新药领域，长期坚定看好创新药板块。</t>
+          <t>近日，作为基地首批签约孵化项目之一，全国首台国产商业电子束光刻机“羲之”已进入应用测试，其精度比肩国际主流设备。</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sz000989</t>
+          <t>sh600208</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>九芝堂</t>
+          <t>衢州发展</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>12.24</v>
+        <v>5.48</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr"/>
+        <v>10.04</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司主要开展创新药抗凝一类新药YB209项目、创新型环脂肽类抗生素 YB211 项目的研发以及干细胞项目的研发。</t>
+          <t>并购重组+半导体|衢州发展披露重组预案，公司拟通过发行股份的方式，向先导稀材、中金先导等购买先导电科95.46%股份，并募集配套资金，此次交易价格尚未确定。先导电科100%股权预估值不超过120亿元。</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>并购重组, 半导体</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="C36" s="2" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>近日，作为基地首批签约孵化项目之一，全国首台国产商业电子束光刻机“羲之”已进入应用测试，其精度比肩国际主流设备。</t>
+        </is>
+      </c>
       <c r="D36" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sz002231</t>
+          <t>sz002549</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>*ST奥维</t>
+          <t>凯美特气</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3.99</v>
+        <v>16.68</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>5</v>
+        <v>10.03</v>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>7天6板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司在军工业务方面坚持国产自主可控的发展方向，聚焦野战通信与单兵信息化系统领域，主要产品包括无线宽带传输系统、自主可控国产化设备等。</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr"/>
+          <t>光刻气+商业航天|1.公司光刻气产品通过ASML子公司Cymer的合格供应商认证。
+2.公司设立海南子公司生产液氮、液氧、液氢、液体甲烷、氦气，支持国家航天事业的发展。</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>光刻气, 商业航天</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="C37" s="2" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>近日，作为基地首批签约孵化项目之一，全国首台国产商业电子束光刻机“羲之”已进入应用测试，其精度比肩国际主流设备。</t>
+        </is>
+      </c>
       <c r="D37" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sz002305</t>
+          <t>sh605588</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>*ST南置</t>
+          <t>冠石科技</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>3.95</v>
+        <v>63.07</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>5.050000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>10天6板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司是一家武汉市以商业地产为引导的综合性物业开发企业。</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr"/>
+          <t>光掩膜版|公司与宁波前湾新区管理委员会签署《投资协议书》。拟投资约20亿元建设冠石科技光掩膜版制造项目，主要生产45-28nm成熟制程的半导体光掩膜版。</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>光掩膜版</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="C38" s="2" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>近日，作为基地首批签约孵化项目之一，全国首台国产商业电子束光刻机“羲之”已进入应用测试，其精度比肩国际主流设备。</t>
+        </is>
+      </c>
       <c r="D38" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sh600421</t>
+          <t>sh603607</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST华嵘 </t>
+          <t>京华激光</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>7.43</v>
+        <v>27.35</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>10.02</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司实控人是中天控股集团下属浙江恒顺投资，集团旗下中天氟硅2023年撤回ipo，原计划通过IPO募集14.42亿元资金，用于30万吨/年有机硅单体扩能技改及综合利用项目。</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr"/>
+          <t>IP经济+光刻机|1.公司主要为国内卡游龙头提供卡牌深加工服务，配套的IP包括“奥特曼”“叶罗丽”“名侦探柯南”“三国”“仙剑奇侠传”“小马宝莉”等。
+2.公司控股的美国菲涅尔制版科技公司是一家多年从事微结构光学技术研发及相关设备制造和维护的企业，先后研发出多台技术先进、性能突出、与光学制版有关的光刻机设备。</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>IP经济, 光刻机</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="C39" s="2" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>近日，作为基地首批签约孵化项目之一，全国首台国产商业电子束光刻机“羲之”已进入应用测试，其精度比肩国际主流设备。</t>
+        </is>
+      </c>
       <c r="D39" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sh600355</t>
+          <t>sh688199</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST精伦 </t>
+          <t>久日新材</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>3.36</v>
+        <v>30.62</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+        <v>19.98</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司智能控制产品是公司全资子公司上海鲍麦克斯电子科技有限公司的主营产品，鲍麦克斯专业从事通用及专用伺服驱动系统、数控系统、 缝制机器人的系列化产品研发及销售。</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr"/>
+          <t>光引发剂|公司主要从事系列光引发剂的研发、生产和销售，是全国产量最大、品种最全的光引发剂生产供应商，光引发剂业务市场占有率约30%，在光固化领域具有全球影响力。</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>光引发剂</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="C40" s="2" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>近日，作为基地首批签约孵化项目之一，全国首台国产商业电子束光刻机“羲之”已进入应用测试，其精度比肩国际主流设备。</t>
+        </is>
+      </c>
       <c r="D40" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sh600777</t>
+          <t>sh688141</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST新潮 </t>
+          <t xml:space="preserve">杰华特  </t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4.16</v>
+        <v>35.51</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>5.050000000000001</v>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>20.01</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司在美国德克萨斯州拥有Hoople油田资产（常规油田）、Howard和Borden油田资产（页岩油藏）两处油田资产；公司主营业务为：石油及天然气的勘探、开采和销售。</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr"/>
+          <t>半导体|公司是以虚拟IDM为主要经营模式的模拟集成电路设计企业，专业从事模拟集成电路的研发与销售。</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>半导体</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="C41" s="2" t="inlineStr"/>
+        <v>2.3</v>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>国泰海通证券认为，近期多部门表示要加快破除“内卷式”竞争，政策的重视程度高。光伏行业有望在政策的助推下落实相关改革举措，板块具备持续性布局的机会。</t>
+        </is>
+      </c>
       <c r="D41" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sz002808</t>
+          <t>sz001269</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>*ST恒久</t>
+          <t>欧晶科技</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>5.7</v>
+        <v>29</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>10.02</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司的控股子公司福建省闽保信息技术有限公司是一家从事信息安全领域软件开发及系统集成的高新技术企业。</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr"/>
+          <t>光伏+半导体|公司主要产品为直拉单晶硅用电弧石英坩埚，产品主要应用于光伏和半导体领域，可支持太阳能和半导体用户高温条件下连续拉晶。</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>光伏, 半导体</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
+        <v>2.3</v>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>国泰海通证券认为，近期多部门表示要加快破除“内卷式”竞争，政策的重视程度高。光伏行业有望在政策的助推下落实相关改革举措，板块具备持续性布局的机会。</t>
+        </is>
+      </c>
       <c r="D42" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>sh600107</t>
+          <t>sh605196</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ST尔雅  </t>
+          <t>华通线缆</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>4.14</v>
+        <v>22.43</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>5.08</v>
+        <v>10</v>
       </c>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司的主营业务为服装、服饰和纺织品研发、设计、制造和销售。</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr"/>
+          <t xml:space="preserve">光伏电缆|公司有光伏电缆生产，产品广泛用于光伏电站领域，已经取得UL、TUV相关认证。
+</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>光伏电缆</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="C43" s="2" t="inlineStr"/>
+        <v>2.3</v>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>国泰海通证券认为，近期多部门表示要加快破除“内卷式”竞争，政策的重视程度高。光伏行业有望在政策的助推下落实相关改革举措，板块具备持续性布局的机会。</t>
+        </is>
+      </c>
       <c r="D43" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sh600228</t>
+          <t>sz003022</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST返利 </t>
+          <t>联泓新科</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>4.62</v>
+        <v>18.48</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司在华为鸿蒙系统发布了“返利”APP，包含“如意AI导购智能体”相关功能。消费者可以基于鸿蒙系统的“返利”APP进行体验，目前仅支持部分类目产品的智能导购、推荐服务等。</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr"/>
+          <t>光伏+PEEK|1.在光伏料领域，公司开出了光伏膜料产品FL02528，打破了国外垄断。
+2.公司已完成PEEK相关技术开发和产品中试，已具备产业化条件。</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>光伏, PEEK</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr"/>
+          <t>光伏</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>国泰海通证券认为，近期多部门表示要加快破除“内卷式”竞争，政策的重视程度高。光伏行业有望在政策的助推下落实相关改革举措，板块具备持续性布局的机会。</t>
+        </is>
+      </c>
       <c r="D44" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>sh603221</t>
+          <t>sh603688</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>爱丽家居</t>
+          <t>石英股份</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>13.93</v>
+        <v>38.92</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>家居|公司是国内领先的PVC塑料地板生产及出口企业之一，主营业务为PVC塑料地板的研发、生产和销售。</t>
+          <t>光伏+半导体|公司系高端石英制品龙头，产品主要应用于光源、光伏、光纤、半导体、光学等领域。2020年1月，公司生产的半导体领域用系列石英产品通过日本东京电子株式会社（TEL）官方认证。</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>家居</t>
+          <t>光伏, 半导体</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr"/>
+          <t>光伏</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>国泰海通证券认为，近期多部门表示要加快破除“内卷式”竞争，政策的重视程度高。光伏行业有望在政策的助推下落实相关改革举措，板块具备持续性布局的机会。</t>
+        </is>
+      </c>
       <c r="D45" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sh603158</t>
+          <t>sz002660</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>腾龙股份</t>
+          <t>茂硕电源</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>10.23</v>
+        <v>10.38</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>汽车热管理|公司热管理管路系统相关产品可应用于新能源车。</t>
+          <t xml:space="preserve">光伏逆变器|公司经营范围包含提供新能源和再生能源的储能系统解决方案，目前有少量的光伏逆变器业务。
+</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>汽车热管理</t>
+          <t>光伏逆变器</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr"/>
+          <t>光伏</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>国泰海通证券认为，近期多部门表示要加快破除“内卷式”竞争，政策的重视程度高。光伏行业有望在政策的助推下落实相关改革举措，板块具备持续性布局的机会。</t>
+        </is>
+      </c>
       <c r="D46" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sz000700</t>
+          <t>sz002158</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>模塑科技</t>
+          <t>汉钟精机</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>9.81</v>
+        <v>19.71</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>汽车零部件|公司的主要产品是中高档轿车用保险杠、防擦条、门槛、轮眉、扰流板等汽车装饰件，采用优良配方的注塑制品以高档漆表面涂装而成。</t>
+          <t>光伏+半导体|1.公司真空产品在太阳能光伏产业已深耕多年，主要应用于拉晶及电池片制程。
+2.公司已有能满足半导体最先进工艺的全系列中真空干式真空泵产品，并拥有SEMI安全基准验证证书。</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>光伏, 半导体</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr"/>
+          <t>IDC电源</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
+        </is>
+      </c>
       <c r="D47" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sz002939</t>
+          <t>sz002052</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>同洲电子</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>10.96</v>
+        <v>15.08</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>10.04</v>
+        <v>9.99</v>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>5天4板</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>券商|公司拥有全牌照、综合性的业务平台，覆盖各类证券业务，向个人、机构及企业客户提供多元、全方位的金融产品和服务，并从事自营投资与交易。</t>
+          <t>服务器开关电源|公司高功率电源产品为开关电源产品，主要应用于算力服务器领域。</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>券商</t>
+          <t>服务器开关电源</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr"/>
+          <t>IDC电源</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
+        </is>
+      </c>
       <c r="D48" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sz002259</t>
+          <t>sz002364</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>升达林业</t>
+          <t>中恒电气</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>4.6</v>
+        <v>20.64</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>10.05</v>
+        <v>10.02</v>
       </c>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>重组预期|升达林业大股东华宝信托是华宝证券第二大股东，华宝信托控股股东宝武集团是华宝证券第一大股东，2024年6月28日华宝证券撤回发行上市申请华宝证券。</t>
+          <t>数据中心HVDC|公司面向ICT行业能源网络建设提供数据中心HVDC直流供配电、预制化Panama电力模组，5G全栈式站点高效能源等产品及解决方案。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>重组预期</t>
+          <t>数据中心HVDC</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr"/>
+          <t>IDC电源</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
+        </is>
+      </c>
       <c r="D49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>sz002993</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>奥海科技</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>49.83</v>
+      </c>
+      <c r="H49" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>sh600737</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>中粮糖业</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>10.03</v>
       </c>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>新疆+食品饮料|公司注册地位于昌吉州，拥有食糖和番茄两大产业，是国内最大的食糖生产和贸易企业、国内最大番茄制品生产企业。</t>
+          <t>服务器冗余电源|公司致力于CRPS服务器通用冗余电源研发、生产和销售，服务器电源、算力电源、服务器PDB电源等产品实现批量出货，出货及在研功率范围覆盖550W至8000W。</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>新疆, 食品饮料</t>
+          <t>服务器冗余电源</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr"/>
+          <t>稀土永磁</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>随着人形机器人的发展对轻量化、耐高温属性的要求提升，预计到2030年，机器人量产将带来约80亿的市场空间给整个行业及30亿左右给钐铁氮材料。</t>
+        </is>
+      </c>
       <c r="D50" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>sz002492</t>
+          <t>sz002645</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华宏科技</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>7.69</v>
+        <v>14.92</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>10.01</v>
+        <v>10.03</v>
       </c>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>石化物流|公司是专业的第三方石化物流服务提供商，业务辐射国内石化工业最发达的珠三角地区、长三角地区和华中地区。</t>
+          <t>稀土+机器人|1.公司旗下全资子公司鑫泰科技主营业务为稀土废料的综合利用，即通过钕铁硼废料、荧光粉废料生产高纯稀土氧化物，其全资子公司中杭新材从事稀土永磁材料生产业务。
+2.公司生产的高性能磁材产品已经应用于新能源汽车电机、工业机器人电机、3C电子等高科技领域。</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>石化物流</t>
+          <t>稀土, 机器人</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr"/>
+          <t>稀土永磁</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>随着人形机器人的发展对轻量化、耐高温属性的要求提升，预计到2030年，机器人量产将带来约80亿的市场空间给整个行业及30亿左右给钐铁氮材料。</t>
+        </is>
+      </c>
       <c r="D51" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>sh603036</t>
+          <t>sh600416</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>如通股份</t>
+          <t>湘电股份</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>19.84</v>
+        <v>15.06</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>油气+高铁|1.公司主营业务为石油钻采井口装备的研发、生产与销售，主要产品为提升设备、卡持设备和旋扣设备。
-2.子公司江苏北方轨道交通科技生产的BFA02型轴装制动盘已取得CRCC出具的《铁路产品认证证书》，首批订单已完成交货。</t>
+          <t>稀土永磁|公司参股公司湖南稀土新能源材料公司现有稀土照明和稀土磁材两大业务板块及全资子公司湖南稀土院有限责任公司，稀土磁材业务以高性能烧结钕铁硼材料为主业。</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>油气, 高铁</t>
+          <t>稀土永磁</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
+          <t>稀土永磁</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>随着人形机器人的发展对轻量化、耐高温属性的要求提升，预计到2030年，机器人量产将带来约80亿的市场空间给整个行业及30亿左右给钐铁氮材料。</t>
+        </is>
+      </c>
       <c r="D52" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>sh603222</t>
+          <t>sz000970</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>济民健康</t>
+          <t>中科三环</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>8.1</v>
+        <v>15.11</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>10.05</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr">
         <is>
+          <t>稀土永磁|中科院旗下北京三环新材料高技术公司所属上市公司，公司系国内稀土永磁领域的领军企业，主要从事钕铁硼稀土永磁材料。</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>稀土永磁</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>算力工程</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>国家统计局新闻发言人付凌晖表示，新质生产力积极发展。人工智能大模型的广泛应用显著提升了算力需求，带动服务器产量大幅增长。</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>sz002298</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>中电鑫龙</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>华为+存储+算力|1.公司与HUAWEI公司签订了战略合作协议，双方在智慧城市、大数据中心等领域进行合作，双方积极推动智慧城市、大数据中心等项目落地。
+2.公司在2022年半年报中透露，公司专用磁存储产品具备存储密度高、使用能耗低、数据安全高的特点，有望成为长期存储大规模冷数据的更优选择。
+3.公司研发的超融合云存储节点以及AI异构计算服务器等产品已应用于多个大数据算力中心项目。</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>华为, 存储, 算力</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>算力工程</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>国家统计局新闻发言人付凌晖表示，新质生产力积极发展。人工智能大模型的广泛应用显著提升了算力需求，带动服务器产量大幅增长。</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>sz002782</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>可立克</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>5天3板</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>机器人+算力服务器|1.公司有供应机器人充电站里的电源控制板、机器狗的充电电源产品。
+2.公司的磁性元件产品能间接应用于算力服务器、AI相关产品上。</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>机器人, 算力服务器</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>算力工程</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>国家统计局新闻发言人付凌晖表示，新质生产力积极发展。人工智能大模型的广泛应用显著提升了算力需求，带动服务器产量大幅增长。</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>sh603380</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">易德龙  </t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>PCB+服务器|1.公司是科沃斯机器人的PCBA供应商。
+2.公司通讯类产品包括服务器信号接口板，主要客户为浪潮，产品应用于服务器。</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>PCB, 服务器</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>金融科技</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>据媒体报道，8月13日参与融资融券交易的投资者数量为52.34万名创年内新高，环比增长9.67%。融资融券市场活跃度提升显示市场风险偏好增强，支撑高成长板块流动性。</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>sh601519</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">大智慧  </t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>金融科技|公司是国内领先的互联网金融信息服务提供商，主要业务聚焦在证券信息服务平台、大数据及数据工程服务和境外业务三大板块。</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>金融科技</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>金融科技</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>据媒体报道，8月13日参与融资融券交易的投资者数量为52.34万名创年内新高，环比增长9.67%。融资融券市场活跃度提升显示市场风险偏好增强，支撑高成长板块流动性。</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>sz300803</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>指南针</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>109.87</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>证券行情软件|公司的主营业务为以证券工具型软件终端为载体，以互联网为工具，向投资者提供及时、专业的金融数据分析和证券投资咨询服务。</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>证券行情软件</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>数字货币</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>比特币、以太坊等虚拟币近期持续大涨，比特币突破12.4万美元，续刷历史新高。</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>sz002951</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>金时科技</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>RWA|2025年1月2日，公司与蚂蚁数科签署了一项合作协议，双方将携手打造全球新能源生态圈，通过深化新能源项目RWA合作，助推数字能源发展，为全球能源行业的绿色转型注入新活力。</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>数字货币</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>比特币、以太坊等虚拟币近期持续大涨，比特币突破12.4万美元，续刷历史新高。</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>sz300730</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>科创信息</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>数字货币|在数字货币方面，公司通过与银行合作，推动数字人民币的场景化应用开发。</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>数字货币</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>大金融</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>东海证券指出，活跃资本市场的长逻辑不变，建议关注资本实力雄厚且业务经营稳健的大型券商配置机遇。</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>sz002939</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>券商|公司拥有全牌照、综合性的业务平台，覆盖各类证券业务，向个人、机构及企业客户提供多元、全方位的金融产品和服务，并从事自营投资与交易。</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>券商</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>大金融</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>东海证券指出，活跃资本市场的长逻辑不变，建议关注资本实力雄厚且业务经营稳健的大型券商配置机遇。</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>sh601162</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>天风证券</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>券商|公司实控人为湖北省财政厅，属于地方政府。公司拥有98家批准设立并已开业的证券营业部及16家分公司；拥有主要控股一级子公司2家，即天风期货股份有限公司、天风天睿投资股份有限公司。</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>券商</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>光通信</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>高盛近期预计，2025年、2026年800G光模块销量将分别达到1990万和3350万单位，较此前预测分别上调10%和58%。</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>sh600255</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>鑫科材料</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>铜连接|2024年12月10日公告，全资子公司鑫梓能科拟以自筹资金8750万元在四川省三台县建设年产4万公里通信高速铜连接用铜缆项目。</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>铜连接</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>商业航天</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>长江证券指出，低轨宽带卫星互联网星座启动建设或将带动小卫星及商业发射需求爆发式增长，进而推动火箭、小微卫星制造业快速扩张，从而带动我国商业航天产业进入全面升级期。</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>sh600592</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>机器人+商业航天|1.公司的关节轴承是机器人的主要配套件。
+2.公司主营产品关节轴承主要应用于工程机械、载重汽车和航空航天等领域。</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>机器人, 商业航天</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>中信证券表示，下半年围绕创新驱动和国际化+自主可控+院外营销模式改革三个领域进行布局，尤其是最具贝塔效应的创新药领域，长期坚定看好创新药板块。</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>sz002873</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>新天药业</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>创新药|公司目前主要从事现代中药创新药的研发、生产和销售，主要优势产品有和颜®坤泰胶囊、坤立舒®苦参凝胶、宁泌泰®宁泌泰胶囊、即瑞®夏枯草口服液等，产品主要应用于妇科类和泌尿系统疾病，同时覆盖清热类、补血类、口腔类、抗感冒类等领域疾病。</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>sz002231</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>*ST奥维</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>8天7板</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司在军工业务方面坚持国产自主可控的发展方向，聚焦野战通信与单兵信息化系统领域，主要产品包括无线宽带传输系统、自主可控国产化设备等。</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>sz002305</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>*ST南置</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>11天7板</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司是一家武汉市以商业地产为引导的综合性物业开发企业。</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C67" s="2" t="inlineStr"/>
+      <c r="D67" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>sh600421</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST华嵘 </t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司实控人是中天控股集团下属浙江恒顺投资，集团旗下中天氟硅2023年撤回ipo，原计划通过IPO募集14.42亿元资金，用于30万吨/年有机硅单体扩能技改及综合利用项目。</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C68" s="2" t="inlineStr"/>
+      <c r="D68" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>sh600777</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST新潮 </t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司在美国德克萨斯州拥有Hoople油田资产（常规油田）、Howard和Borden油田资产（页岩油藏）两处油田资产；公司主营业务为：石油及天然气的勘探、开采和销售。</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>sh603789</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST星农 </t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司拥有包括水稻、小麦、玉米等粮食作物的收获机，以及棉花、花生等经济作物的收获机，并覆盖旋耕、收割、打捆、烘干等主要农业生产环节。</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>sh603021</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST华鹏  </t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司是国内日用玻璃行业的企业之一，主营业务为研发、生产和销售玻璃器皿产品和玻璃瓶罐。</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>sh600243</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST海华 </t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 青海华鼎与源鑫隆昌、茫崖源鑫签署增资协议，约定青海华鼎以现金增资5083.88万元取得茫崖源鑫51%的股权。上市公司称，茫崖源鑫所处的天然气行业具有良好的发展前景。</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C72" s="2" t="inlineStr"/>
+      <c r="D72" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>sz002211</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>ST宏达</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.公司主营业务主要分为硅橡胶及其制品的加工销售、专网通信设备的加工、组装、检测及销售业务等。
+2.公司目前于量子领域在产的产品有量子随机数发生器，其可基于量子物理原理产生随机数，可应用于量子通信、量子信息、传统信息安全、密码学、蒙特卡洛模拟、数值计算、随机抽样、神经网络计算等。</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>sz002592</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>ST八菱</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="I73" s="2" t="inlineStr"/>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司配套氢燃料电池客车的产品技术目前已经形成商业化，广泛应用于燃气客车、混合动力客车和军车等领域。</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C74" s="2" t="inlineStr"/>
+      <c r="D74" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>sz002848</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>*ST高斯</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="I74" s="2" t="inlineStr"/>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.公司在卫星互联网方面有ka波段天馈系统的相关技术储备。
+2.公司高频、高速覆铜板产品在智能机器人领域里属基础材料类。</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C75" s="2" t="inlineStr"/>
+      <c r="D75" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>sz002306</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>*ST云网</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>5.029999999999999</v>
+      </c>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.“湘鄂情”品牌是全国仅有的几个中餐类“中国驰名商标”之一，为跻身于北京市专营连锁餐饮类企业前五名中的唯一民族品牌。
+2.公司拟分二期在超高效N型晶硅电池研发和生产。</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>sz000004</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>*ST国华</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司旗下全资子公司智游网安为专业移动应用安全综合服务提供商。</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>sh600365</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST通葡  </t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 以果露酒、葡萄酒制造、销售为主营业务。公司产品涵盖干酒、冰酒、甜酒、葡萄烈酒等。</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C78" s="2" t="inlineStr"/>
+      <c r="D78" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>sh603007</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST花王 </t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="I78" s="2" t="inlineStr"/>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司是一家集园林景观、市政工程、河湖整治、生态治理、文体文旅等多领域业务于一体的生态工程建设企业。</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C79" s="2" t="inlineStr"/>
+      <c r="D79" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>sz000752</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>ST西发</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="I79" s="2" t="inlineStr"/>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司啤酒目前在拉萨地区市场占有率约为85%，在西藏市场占有率为50%。</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C80" s="2" t="inlineStr"/>
+      <c r="D80" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>sz000609</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>ST中迪</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司房地产项目位于重庆、成都、达州，重庆的“两江中迪广场”主要为商业项目。</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C81" s="2" t="inlineStr"/>
+      <c r="D81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>sz002316</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>ST亚联</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="I81" s="2" t="inlineStr"/>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司基于华为Atlas人工智能计算平台开发的“无人值守变电站智能运检系统V6”及基于华为Tai Shan 200系列开发的“变电站智能网关系统V1.1”获得华为技术认证书，并且在南方电网顺利投放使用。</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>sz000691</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>*ST亚太</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="I82" s="2" t="inlineStr"/>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>sh605169</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>洪通燃气</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>9天7板</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>新疆+天然气|地处新疆巴州库尔勒市，专注清洁交通能源供应领域的天然气专业运营商。</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>新疆, 天然气</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr"/>
+      <c r="D84" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>sh600113</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>脑机接口|持有培安美40%的股份，培安美与首都医科大学就脑机接口技术的创新研发与临床应用达成战略合作意向，医工结合，共同推进“血管内脑机接口”、“胶囊脑机”、“静脉内脑机接口”以及“缺血缺氧应急管理系统”等前沿技术的科研攻关与产业化落地。</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>脑机接口</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>sh603221</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>爱丽家居</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>家居|公司是国内领先的PVC塑料地板生产及出口企业之一，主营业务为PVC塑料地板的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t>家居</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>sh603158</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>腾龙股份</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>汽车热管理|公司热管理管路系统相关产品可应用于新能源车。</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>汽车热管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr"/>
+      <c r="D87" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>sh603222</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>济民健康</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
           <t>医疗器械+细胞治疗|1.主要产品为各种品规的非PVC软袋大输液、塑料瓶大输液以及安全注射器、无菌注射器和输液器等产品。
 2.公司旗下博鳌国际医院拥有国内唯一一家通过日本国厚生省认证的国际再生医学实验室，建成了包括细胞存储、国际标准细胞制备、细胞治疗临床研究、干细胞与再生医学技术转化四大核心技术平台。</t>
         </is>
       </c>
-      <c r="K52" s="2" t="inlineStr">
+      <c r="K87" s="2" t="inlineStr">
         <is>
           <t>医疗器械, 细胞治疗</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr"/>
-      <c r="D53" s="2" t="n">
+      <c r="C88" s="2" t="inlineStr"/>
+      <c r="D88" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>sh600737</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>中粮糖业</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>新疆+食品饮料|公司注册地位于昌吉州，拥有食糖和番茄两大产业，是国内最大的食糖生产和贸易企业、国内最大番茄制品生产企业。</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t>新疆, 食品饮料</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr"/>
+      <c r="D89" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>sz002911</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>佛燃能源</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>SOFC|公司重视科技研发工作，在固体氧化物燃料电池、氢能装备制造、窑炉热工装备制造与节能减排、管道检测等领域精耕细作，建立从技术研发、产品研制、示范验证到应用推广的创新模式。</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr">
+        <is>
+          <t>SOFC</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr"/>
+      <c r="D90" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>sh603626</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>科森科技</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I90" s="2" t="inlineStr"/>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>消费电子+固态电池|1.公司消费电子产品包括智能手机、笔记本电脑、平板电脑的外壳、中框、中板、按键、标志、转轴（铰链）等。
+2.公司参股公司清陶能源发展为从事固态电池研发、生产的企业，但公司参股比例较低，占比不足1%。</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>消费电子, 固态电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr"/>
+      <c r="D91" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>sz002551</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>尚荣医疗</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="I91" s="2" t="inlineStr"/>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>医疗器械|公司已搭建覆盖医疗产品、医疗服务和健康产业三大板块业务的医疗平台，医疗产品业务包括医疗设备的研发、生产、销售，医疗手术包及手术耗材，防护产品，骨科植入耗材的研发、生产、销售及提供专业的医院数字化解决方案。</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr"/>
+      <c r="D92" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>sh603903</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I92" s="2" t="inlineStr"/>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>实控人拟变更|中持股份公告称，持股24.73%的股东长江生态环保集团有限公司，拟通过公开征集转让方式协议转让所持公司的全部股份。长江环保集团为公司第一大股东，若本次公开征集转让实施完成，将导致公司第一大股东变更。</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="inlineStr">
+        <is>
+          <t>实控人拟变更</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr"/>
+      <c r="D93" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>sh603025</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>大豪科技</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I93" s="2" t="inlineStr"/>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>业绩|大豪科技8月14日晚披露2025年半年度报告，报告期内，公司实现营业收入14.83亿元，同比增长13.31%；实现归属于上市公司股东的净利润3.99亿元，同比增长24.05%。</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr"/>
+      <c r="D94" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>sh600076</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>康欣新材</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I94" s="2" t="inlineStr"/>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>集装箱底板|集装箱底板龙头，公司主要从事集装箱底板研发、生产和销售，以及营林造林和优质种苗培育，主要产品包括集装箱底板、环保板和多种林产。</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="inlineStr">
+        <is>
+          <t>集装箱底板</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr"/>
+      <c r="D95" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>sz000068</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>华控赛格</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="I95" s="2" t="inlineStr"/>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>深圳本地|地处深圳大工业区，国内卓越的环境综合治理服务的高科技环保企业。</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="inlineStr">
+        <is>
+          <t>深圳本地</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr"/>
+      <c r="D96" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>sh600657</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>信达地产</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="I96" s="2" t="inlineStr"/>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>房地产|中国信达资产管理股份有限公司旗下上市公司，中国信达房地产开发业务运作平台。</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr"/>
+      <c r="D97" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>430476.BJ</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>海能技术</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="I97" s="2" t="inlineStr"/>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>液相色谱|海能技术发布投资者关系活动记录表，液相色谱是国内科学仪器市场需求和市场潜力最大的单品之一，色谱光谱系列产品也是公司近年重点投入的产品。</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="inlineStr">
+        <is>
+          <t>液相色谱</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr"/>
+      <c r="D98" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>sh603601</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>再升科技</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="I98" s="2" t="inlineStr"/>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>微纤玻璃棉|公司的主营业务为微纤维玻璃棉制品的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="inlineStr">
+        <is>
+          <t>微纤玻璃棉</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr"/>
+      <c r="D99" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>sh688775</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>影石创新</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>224.42</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I99" s="2" t="inlineStr"/>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>全景无人机|影石创新科技股份有限公司消费级无人机品牌“影翎Antigravity”及品牌标识官宣亮相，计划推出全新品类——全球首款“全景无人机”。</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="inlineStr">
+        <is>
+          <t>全景无人机</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr"/>
+      <c r="D100" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>sh600021</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>上海电力</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I100" s="2" t="inlineStr"/>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>重组预期|电投国际与上海电力关系紧密，二者均为国家电投旗下企业，电投国际整合了国家电投的海外资源，上海电力是国家电投控股的上市公司，也是集团国际化的主要平台之一。</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="inlineStr">
+        <is>
+          <t>重组预期</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr"/>
+      <c r="D101" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>sh603373</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>安邦护卫</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I101" s="2" t="inlineStr"/>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>低空经济|下属子公司衢州安邦和衢州通航开展的无人机业务包含无人机驾驶员培训（民航培训、警航培训）、大气移动监测服务、低空管制服务、无人机测绘，公司自主研发的“零距离”空地一体无人机5G飞行平台还运用到消防救援等，均为低空经济范畴。</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="inlineStr">
+        <is>
+          <t>低空经济</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr"/>
+      <c r="D102" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>sz000501</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>武商集团</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H102" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>sz002342</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>巨力索具</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>9.950000000000001</v>
-      </c>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>军工+深海科技|1.公司涉足海洋捕捞业、海洋油气开发、海上风电、海洋船舶工业、海洋交通运输业等领域，围绕海洋装备领域研发海洋物探节点连接器、海洋系泊系统等产品。
-2.公司是目前国内规模大、品种齐全、制造专业的索具制造公司，凭借索具行业龙头地位已经和军工企业保持了长期良好的合作，其吊装方案及产品成功应用于神州飞船、蛟龙号等。</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>军工, 深海科技</t>
+      <c r="I102" s="2" t="inlineStr"/>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>零售|公司是湖北省商业龙头企业，主要从事购物中心及超市业态的商品销售业务，两大业态的主要经营模式包括联营、自营、代销和物业分租等。</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr"/>
+      <c r="D103" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>sz002715</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>登云股份</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I103" s="2" t="inlineStr"/>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>汽车+黄金|1.2022年6月9日公司在投资者互动平台表示，公司气门产品主要适用于燃油发动机，相关产品也适用于混合动力、燃气发动机等新能源汽车。
+2.公司直接持有北京黄龙100%股权。北京黄龙的主要资产为子公司汉阴黄龙100%的股权，汉阴黄龙主要从事黄金矿采选等业务，拥有汉阴县黄龙金矿采矿权。</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="inlineStr">
+        <is>
+          <t>汽车, 黄金</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr"/>
+      <c r="D104" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>sh688098</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>申联生物</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="I104" s="2" t="inlineStr"/>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>疫苗|7月31日，申联生物公告称，近日，公司与中国农业科学院兰州兽医研究所等单位签订了项目合同，拟共同开发猪用口蹄疫等三种疫病多联多价疫苗及牛用口蹄疫等三种疫病多联多价疫苗。</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="inlineStr">
+        <is>
+          <t>疫苗</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr"/>
+      <c r="D105" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>sz003020</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>立方制药</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I105" s="2" t="inlineStr"/>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>医药|公司主要从事的业务包含医药工业及医药商业。医药工业方面，主要包括药品制剂及原料药的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="inlineStr">
+        <is>
+          <t>医药</t>
         </is>
       </c>
     </row>
@@ -2940,7 +5200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2972,7 +5232,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -2991,12 +5251,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sz002173</t>
+          <t>sz002536</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>创新医疗</t>
+          <t>飞龙股份</t>
         </is>
       </c>
     </row>
@@ -3006,12 +5266,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sz002104</t>
+          <t>sh600208</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>恒宝股份</t>
+          <t>衢州发展</t>
         </is>
       </c>
     </row>
@@ -3021,12 +5281,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sh600658</t>
+          <t>sh601609</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">电子城  </t>
+          <t>金田股份</t>
         </is>
       </c>
     </row>
@@ -3036,57 +5296,57 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sz000561</t>
+          <t>sh603158</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>烽火电子</t>
+          <t>腾龙股份</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sz002536</t>
+          <t>sz002939</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>长城证券</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sh601609</t>
+          <t>sh603256</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>金田股份</t>
+          <t>宏和科技</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sh603158</t>
+          <t>sh603221</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>腾龙股份</t>
+          <t>爱丽家居</t>
         </is>
       </c>
     </row>
@@ -3096,12 +5356,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sz002939</t>
+          <t>sz002951</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>金时科技</t>
         </is>
       </c>
     </row>
@@ -3111,12 +5371,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>sh603256</t>
+          <t>sh600737</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>宏和科技</t>
+          <t>中粮糖业</t>
         </is>
       </c>
     </row>
@@ -3126,12 +5386,12 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>sh603221</t>
+          <t>sz002598</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>爱丽家居</t>
+          <t>山东章鼓</t>
         </is>
       </c>
     </row>
@@ -3141,12 +5401,12 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>sz000070</t>
+          <t>sh600580</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>特发信息</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
     </row>
@@ -3156,12 +5416,12 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>sh600208</t>
+          <t>sh603222</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>衢州发展</t>
+          <t>济民健康</t>
         </is>
       </c>
     </row>
@@ -3171,27 +5431,12 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>sh603098</t>
+          <t>sh605588</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>森特股份</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>sz000700</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>模塑科技</t>
+          <t>冠石科技</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -4254,7 +4254,7 @@
       </c>
       <c r="J84" s="2" t="inlineStr">
         <is>
-          <t>脑机接口|持有培安美40%的股份，培安美与首都医科大学就脑机接口技术的创新研发与临床应用达成战略合作意向，医工结合，共同推进“血管内脑机接口”、“胶囊脑机”、“静脉内脑机接口”以及“缺血缺氧应急管理系统”等前沿技术的科研攻关与产业化落地。</t>
+          <t>脑机接口|据2025年6月20日互动，培安美(浙江科技为我公司参股公司，持股比例为40%。经本公司了解，前期培安美公司相关人员拜访首都医科大学开展业务洽谈，未形成书面合作协议。此前6月16日培安美官微发表文章，与首都医科大学达成意向合作，携手推进脑机接口技术研发与产业化。6月24日发布股票交易风险提示公告，目前日常经营不涉及“脑机接口”业务。</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr">

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
     <col width="87" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="241" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="218" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
@@ -569,38 +569,37 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sh603626</t>
+          <t>sz002553</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>科森科技</t>
+          <t>南方精工</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>11.46</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>9.98</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>机器人+消费电子|1.公司为某品牌家用机器人提供相关结构件。
-2.公司消费电子产品包括智能手机、笔记本电脑、平板电脑的外壳、中框、中板、按键、标志、转轴（铰链）等。</t>
+          <t>机器人|公司在国内RV减速机配套轴承等组件供应领域占据绝对的市场份额，双环，中大力德，秦川，恒丰泰，南通振康，北京智同，珠海飞马等均是公司的主要客户。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>机器人, 消费电子</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
@@ -611,7 +610,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
@@ -619,23 +618,23 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sh600400</t>
+          <t>sh600503</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>红豆股份</t>
+          <t>华丽家族</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.67</v>
+        <v>3.59</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>9.879999999999999</v>
+        <v>10.12</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
@@ -644,7 +643,7 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>机器人|参股无锡福芯机器人有限公司经营范围包含：服务消费机器人制造、智能机器人销售、人工智能硬件销售、智能机器人的研发、人工智能应用软件开发、人工智能行业应用系统集成服务、大数据服务等。</t>
+          <t>机器人|持有南江机器人50.82%的股权，是全产业链机器人公司；主要产品为面向智能制造和智能物流的智能移动机器人IAGV和智能搬运几期二年ICARRIER系列机器人。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -660,7 +659,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -668,38 +667,37 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sz002046</t>
+          <t>sz002164</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>国机精工</t>
+          <t>宁波东力</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>36.81</v>
+        <v>13.21</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>10.01</v>
+        <v>9.99</v>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>机器人+商业航天|1.公司有部分轴承产品可用于机器人领域。
-2.公司特种轴承主要服务于我国国防军工行业，应用于航空航天领域，包括超低温自润滑火箭发动机轴承、卫星能源系统轴承、宇宙飞船生命维持系统轴承、陀螺仪高灵敏轴承、偏置动量轮高可靠性、长寿命轴承及其组件等。</t>
+          <t>机器人|公司的产品包括行星减速器等，杭州湾电机、减速器部分车间已投入生产。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>机器人, 商业航天</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
@@ -710,7 +708,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
@@ -718,37 +716,38 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sh605068</t>
+          <t>sz002823</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>明新旭腾</t>
+          <t>凯中精密</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>25.54</v>
+        <v>18.9</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>电子皮肤|基于公司仿生电子皮肤的业务规划和发展需要，公司在浙江省嘉兴市设立全资子公司明新智源，依托在汽车功能材料领域的技术积累，推进仿生电子皮肤的研发与产业化。</t>
+          <t>机器人+SOFC|1.参股武汉数字化设计与制造创新中心有限公司的经营范围包括智能机器人的研发、智能机器人销售。
+2.公司正在为行业知名客户研发雨刮簧片、固体氧化物燃料电池（SOFC）的热交换器等新产品。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>电子皮肤</t>
+          <t>机器人, SOFC</t>
         </is>
       </c>
     </row>
@@ -759,7 +758,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
@@ -767,33 +766,33 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sz003019</t>
+          <t>sz000420</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>宸展光电</t>
+          <t>吉林化纤</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>39.59</v>
+        <v>4.64</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>10</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司主要产品涵盖触控显示器和触控模组等，可应用于人形机器人等智能终端上。</t>
+          <t>碳纤维+机器人|公司涉及的碳纤维产品处于产业链上游，可用于机器人制造。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>碳纤维, 机器人</t>
         </is>
       </c>
     </row>
@@ -804,7 +803,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -812,28 +811,28 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sh600835</t>
+          <t>sz300701</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>上海机电</t>
+          <t>森霸传感</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30.27</v>
+        <v>13.54</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>9.99</v>
+        <v>20.04</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司精密减速器产品主要应用于工业机器人。上海机电与日本Naktesco(纳博特斯克)合作成立有两家从事RV减速器生产、销售的企业。</t>
+          <t>机器人|公司的火焰探测红外传感器可应用于消防机器人及其他人形机器人。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -849,7 +848,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
@@ -857,33 +856,34 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sh600503</t>
+          <t>sh600156</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>华丽家族</t>
+          <t>华升股份</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.26</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>10.14</v>
+        <v>10.05</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>机器人|持有南江机器人50.82%的股权，是全产业链机器人公司；主要产品为面向智能制造和智能物流的智能移动机器人IAGV和智能搬运几期二年ICARRIER系列机器人。</t>
+          <t>机器人+纺织|1.参股24%的湖南英捷高科技有限责任公司的MIM(金属粉末注射)可以用于消费电子和人行机器人。
+2.公司是专业从事麻类纺织品生产和出口的企业，主要出口至欧盟、美国、韩国、日本及南美等国家和地区。2023年境外销售收入占比72.20%。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>机器人, 纺织</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
@@ -902,28 +902,28 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz002553</t>
+          <t>sz301008</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>南方精工</t>
+          <t>宏昌科技</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30</v>
+        <v>30.64</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10.01</v>
+        <v>20.02</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司在国内RV减速机配套轴承等组件供应领域占据绝对的市场份额，双环，中大力德，秦川，恒丰泰，南通振康，北京智同，珠海飞马等均是公司的主要客户。</t>
+          <t>机器人|公司出资1500万元增资广东良质关节科技有限公司，增资完成后，持有该公司15%股权。良质关节是国内少数同时具备高精度谐波减速器、行星减速器及行星关节和谐波模组研发、生产的公司。其产品可以应用于协作机器人、人形机器人、机器狗、高端数控设备、工业母机机床四五轴等领域。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
@@ -947,28 +947,28 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sh603219</t>
+          <t>830839.BJ</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>富佳股份</t>
+          <t>万通液压</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>20.68</v>
+        <v>51.74</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>机器人|子公司宁波益佳电子有限公司为乐聚机器人代工各类线路板。乐聚机器人是一家致力于高端智能人形机器人研发、制造和销售的高科技企业。</t>
+          <t>机器人|公司的电动缸可以广泛应用于工业自动化、精密机床、汽车、机器人、新能源、工程机械、医疗器械、航空等领域。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -980,124 +980,131 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.12</v>
+        <v>1.98</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>鸿海将在11月举行的鸿海科技日中，推出与英伟达合作开发的最新一代人形机器人以及实际场景应用案例。</t>
+          <t>8月19日，有媒体称，苹果iPhone 17已进入大规模量产阶段，作为苹果iPhone的主要代工生产商，富士康郑州厂区正同步启动旺季招工，为产能爬坡做足准备。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sz002062</t>
+          <t>sh603626</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>宏润建设</t>
+          <t>科森科技</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.28</v>
+        <v>12.61</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I11" s="2" t="inlineStr"/>
+        <v>10.03</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>机器人+盾构机|1.公司和上海大学联合研发的盾构换刀机器人，取得三项相关专利证书，可取代人工作业，解决地下换刀作业难度大、危险系数高、换刀效率差的问题，填补了我国盾构机换刀机器人领域的空白，该技术目前为公司生产自用。
-2.公司新中标杭州市博奥过江隧道，进入大盾构新领域；中标合肥、广州、苏州、金华、杭州、宁波、上海等轨道交通工程；中标宁波、安庆、上海等重大市政及地下工程。公司轨道交通工程进入全国18大城市，轨道交通、地下工程及市政、路桥承接业务占比为90%，业务结构持续优化。</t>
+          <t>机器人+消费电子|1.公司不生产机器人产品，公司为某品牌家用机器人提供相关结构件。
+2.公司消费电子产品包括智能手机、笔记本电脑、平板电脑的外壳、中框、中板、按键、标志、转轴（铰链）等。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>机器人, 盾构机</t>
+          <t>机器人, 消费电子</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.12</v>
+        <v>1.98</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>鸿海将在11月举行的鸿海科技日中，推出与英伟达合作开发的最新一代人形机器人以及实际场景应用案例。</t>
+          <t>8月19日，有媒体称，苹果iPhone 17已进入大规模量产阶段，作为苹果iPhone的主要代工生产商，富士康郑州厂区正同步启动旺季招工，为产能爬坡做足准备。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sh688381</t>
+          <t>sz002981</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">帝奥微  </t>
+          <t>朝阳科技</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>29.76</v>
+        <v>37.47</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>芯片+机器人|1.公司是一家专注于从事高性能模拟芯片的研发、设计和销售的集成电路设计企业。公司产品主要分为信号链模拟芯片和电源管理模拟芯片两大系列，主要应用于消费电子、智能LED照明、通讯设备、工控和安防以及医疗器械等领域。
-2.公司的低电压/超低功耗USB3.2 Gen1 Redriver产品已经应用到国内头部机器人厂商宇树科技中。</t>
+          <t>消费电子+果链|公司作为电声产品及电声配件专业生产企业，进入了苹果等知名智能终端及耳机品牌商的供应链。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>芯片, 机器人</t>
+          <t>消费电子, 果链</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.12</v>
+        <v>1.98</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>鸿海将在11月举行的鸿海科技日中，推出与英伟达合作开发的最新一代人形机器人以及实际场景应用案例。</t>
+          <t>8月19日，有媒体称，苹果iPhone 17已进入大规模量产阶段，作为苹果iPhone的主要代工生产商，富士康郑州厂区正同步启动旺季招工，为产能爬坡做足准备。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sz002283</t>
+          <t>sz000536</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>天润工业</t>
+          <t>华映科技</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.99</v>
+        <v>5.57</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>10.08</v>
@@ -1105,211 +1112,209 @@
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>汽车+机器人|1.公司主要产品有曲轴、连杆、毛坯、铸件、锻件。公司是以生产“天”牌内燃机曲轴为主导产品的中国规模最大的曲轴专业生产企业，是中国内燃机工业协会副理事长和中国曲轴连杆及高强度螺栓行业理事长单位。
-2.公司铸件产品中包括转盘、底座、摇杆等工业机器人类铸件毛坯和成品。</t>
+          <t>消费电子+华为|公司显示面板业务主要生产中小尺寸显示面板，产品主要应用于笔记本电脑、平板电脑、智能手机、POS 机、工业控制屏等领域，已成功进入传音、联想、三星、 vivo、 HMD(诺基亚)、中兴、华为、荣耀等世界知名品牌的供应商体系。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>汽车, 机器人</t>
+          <t>消费电子, 华为</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.12</v>
+        <v>1.98</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>鸿海将在11月举行的鸿海科技日中，推出与英伟达合作开发的最新一代人形机器人以及实际场景应用案例。</t>
+          <t>8月19日，有媒体称，苹果iPhone 17已进入大规模量产阶段，作为苹果iPhone的主要代工生产商，富士康郑州厂区正同步启动旺季招工，为产能爬坡做足准备。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sz301632</t>
+          <t>sz002635</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>广东建科</t>
+          <t>安洁科技</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44.36</v>
+        <v>15.72</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>19.99</v>
+        <v>10.01</v>
       </c>
       <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>次新+机器人|公司已研发全地形隧道检测机器人、智慧巡检哨兵机器、LuxBot智能照度巡检机器人等。</t>
+          <t>消费电子+果链|公司主营业务为消费电子精密功能性器件、精密金属零件相关产品的研发、生产与销售。为苹果提供功能性器件和光电胶。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>次新, 机器人</t>
+          <t>消费电子, 果链</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.12</v>
+        <v>1.98</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>鸿海将在11月举行的鸿海科技日中，推出与英伟达合作开发的最新一代人形机器人以及实际场景应用案例。</t>
+          <t>8月19日，有媒体称，苹果iPhone 17已进入大规模量产阶段，作为苹果iPhone的主要代工生产商，富士康郑州厂区正同步启动旺季招工，为产能爬坡做足准备。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sz001306</t>
+          <t>sz002888</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>夏厦精密</t>
+          <t>惠威科技</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>110.57</v>
+        <v>21.2</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>工业母机+机器人|1.全资子公司夏拓智能有数控机床、工业母机类产品。
- 2.减速机及其配件产品应用领域为机器人，主要用于机器人的关键传动部件。</t>
+          <t>消费电子|公司是一家以电子设备制造为核心业务领域，主要从事各类音响设备、扬声器的研发、生产和销售一体化的高新技术企业。公司旗下产品包括无线耳机。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>工业母机, 机器人</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.12</v>
+        <v>1.98</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>鸿海将在11月举行的鸿海科技日中，推出与英伟达合作开发的最新一代人形机器人以及实际场景应用案例。</t>
+          <t>8月19日，有媒体称，苹果iPhone 17已进入大规模量产阶段，作为苹果iPhone的主要代工生产商，富士康郑州厂区正同步启动旺季招工，为产能爬坡做足准备。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sh601689</t>
+          <t>sz002217</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>拓普集团</t>
+          <t>合力泰</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>54.79</v>
+        <v>2.88</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10</v>
+        <v>9.92</v>
       </c>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>汽车+机器人|1.为特斯拉Model3提供轻量化铝合金底盘结构件。
-2.公司积极布局机器人产业，运动执行器是机器人的核心部件之一。</t>
+          <t xml:space="preserve">消费电子+机器人|1.公司主要业务包括全面屏模组、触摸屏模组、液晶显示模组、电子纸模组、摄像头模组、指纹识别模组、无线充电模组核心零部件
+2.2022年5月12日公司在互动平台表示，公司在服务型机器人领域有摄像头产品布局，已经研发成功。
+</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>汽车, 机器人</t>
+          <t>消费电子, 机器人</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.12</v>
+        <v>1.98</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>鸿海将在11月举行的鸿海科技日中，推出与英伟达合作开发的最新一代人形机器人以及实际场景应用案例。</t>
+          <t>8月19日，有媒体称，苹果iPhone 17已进入大规模量产阶段，作为苹果iPhone的主要代工生产商，富士康郑州厂区正同步启动旺季招工，为产能爬坡做足准备。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sz300328</t>
+          <t>sz300686</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>宜安科技</t>
+          <t>智动力</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>16.98</v>
+        <v>13.37</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>20</v>
+        <v>20.02</v>
       </c>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>折叠屏+机器人|1.公司生产的液态金属铰链结构件已在折叠屏手机上得到批量应用。
-2.公司向客户主要供货智能机器人壳体和结构件。</t>
+          <t>消费电子|公司主要从事消费电子功能性及结构性器件的研发、生产和销售，致力于为智能手机、平板电脑、智能穿戴、智能家居等中高端消费电子产品及新能源汽车提供精密器件平台型一体化解决方案。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>折叠屏, 机器人</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.8200000000000001</v>
+        <v>1.98</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>诺和诺德宣布司美格鲁肽的补充新药申请获FDA批准，用于结合减少卡路里的饮食和增加体力活动，治疗伴有中晚期肝纤维化的代谢功能障碍相关性脂肪性肝炎患者。</t>
+          <t>8月19日，有媒体称，苹果iPhone 17已进入大规模量产阶段，作为苹果iPhone的主要代工生产商，富士康郑州厂区正同步启动旺季招工，为产能爬坡做足准备。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -1317,1106 +1322,1069 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sh688098</t>
+          <t>sh600361</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>申联生物</t>
+          <t>创新新材</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>15.4</v>
+        <v>4.72</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>10.02</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司已经搭建完善的灭活疫苗技术平台，基于灭活疫苗技术平台，公司已成功开发猪口蹄疫O型、A型二价灭活疫苗（Re-O/MYA98/JSCZ/2013株+Re-A/WH/09株）、猪圆环病毒2型亚单位疫苗（重组杆状病毒OKM株）、牛羊用口蹄疫O型、A型二价灭活疫苗及牛结节性皮肤病灭活疫苗等新型灭活疫苗产品并实现上市销售。</t>
+          <t>消费电子+有色|公司是专注铝合金及制品研究开发和生产加工的技术型企业，为铝合金加工领域提供综合解决方案，产品种类主要包括3C消费电子铝型材、汽车轻量化铝型材、板带箔、铝杆及线缆、铝合金棒材、结构件等，应用于3C消费电子、汽车轻量化、建筑工业、新能源等领域。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>消费电子, 有色</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>诺和诺德宣布司美格鲁肽的补充新药申请获FDA批准，用于结合减少卡路里的饮食和增加体力活动，治疗伴有中晚期肝纤维化的代谢功能障碍相关性脂肪性肝炎患者。</t>
+          <t>小米集团在中期业绩发布电话会上表示，2025年第二季度交付汽车达到81302辆，小米汽车预计在2027年正式进入欧洲市场。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sz002873</t>
+          <t>sh603158</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>新天药业</t>
+          <t>腾龙股份</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>15.19</v>
+        <v>14.14</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>9.99</v>
+        <v>10.04</v>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>6天5板</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司目前主要从事现代中药创新药的研发、生产和销售，主要优势产品有和颜®坤泰胶囊、坤立舒®苦参凝胶、宁泌泰®宁泌泰胶囊、即瑞®夏枯草口服液等，产品主要应用于妇科类和泌尿系统疾病，同时覆盖清热类、补血类、口腔类、抗感冒类等领域疾病。</t>
+          <t>汽车热管理|公司热管理管路系统相关产品可应用于新能源车。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>汽车热管理</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>诺和诺德宣布司美格鲁肽的补充新药申请获FDA批准，用于结合减少卡路里的饮食和增加体力活动，治疗伴有中晚期肝纤维化的代谢功能障碍相关性脂肪性肝炎患者。</t>
+          <t>小米集团在中期业绩发布电话会上表示，2025年第二季度交付汽车达到81302辆，小米汽车预计在2027年正式进入欧洲市场。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sz300049</t>
+          <t>sz000700</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>福瑞股份</t>
+          <t>模塑科技</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>72.23</v>
+        <v>10.41</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.04</v>
+      </c>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>创新药|在脂肪肝领域，公司与国际大型药企紧密合作，推动FibroScan在代谢相关脂肪性肝炎（MASH）药物临床研发中的应用，包括患者的入组初筛和临床疗效评估。2024年3月，全球首款MASH治疗新药Rezdiffra获FDA批准上市，其说明书将FibroScan列为脂肪肝疗效评价的标准。同年9月，美国肝病研究学会（AASLD）更新实践指南，推荐使用FibroScan筛选MASH新药治疗目标人群并评估疗效，FibroScan正逐步成为全球脂肪肝治疗过程中不可或缺的重要工具。</t>
+          <t>汽车零部件|公司的主要产品是中高档轿车用保险杠、防擦条、门槛、轮眉、扰流板等汽车装饰件，采用优良配方的注塑制品以高档漆表面涂装而成。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>诺和诺德宣布司美格鲁肽的补充新药申请获FDA批准，用于结合减少卡路里的饮食和增加体力活动，治疗伴有中晚期肝纤维化的代谢功能障碍相关性脂肪性肝炎患者。</t>
+          <t>小米集团在中期业绩发布电话会上表示，2025年第二季度交付汽车达到81302辆，小米汽车预计在2027年正式进入欧洲市场。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sz003020</t>
+          <t>sh603926</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>立方制药</t>
+          <t>铁流股份</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>37</v>
+        <v>14.56</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司已获得两项 EDB 单链抗体融合蛋白专利，正在进入多用途、多模式的创新药开发中，多项试验业已证明该融合蛋白在肿瘤靶向性上的突出优势，以及富集于肿瘤部位的长效性特征，而广谱性特征进一步为融合蛋白的应用提供了更多选择。</t>
+          <t>汽车零部件|公司离合器是国内龙头，主要产品为干摩擦式汽车离合器总成，包括盖总成、从动盘总成。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>诺和诺德宣布司美格鲁肽的补充新药申请获FDA批准，用于结合减少卡路里的饮食和增加体力活动，治疗伴有中晚期肝纤维化的代谢功能障碍相关性脂肪性肝炎患者。</t>
+          <t>小米集团在中期业绩发布电话会上表示，2025年第二季度交付汽车达到81302辆，小米汽车预计在2027年正式进入欧洲市场。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sh600682</t>
+          <t>sh603586</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>南京新百</t>
+          <t xml:space="preserve">金麒麟  </t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>8.82</v>
+        <v>21.95</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>9.98</v>
+        <v>10.03</v>
       </c>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>零售+创新药|1.公司主要业务涉及现代商业、健康养老与生物医疗领域，覆盖百货零售、物业租赁、健康养老服务、脐带血造血干细胞储存以及细胞免疫等业务范围。
-2.子公司丹瑞美国是一家致力于研究肿瘤细胞免疫治疗的生物制药公司，拥有包括知识产权、生产工艺、研发团队在内的完整细胞免疫治疗产业化体系，其主营业务是肿瘤细胞免疫治疗产品的研发、生产和销售。</t>
+          <t>汽车零部件|公司主要从事摩擦材料及制动产品的研发、生产和销售，主要产品为汽车刹车片（也称制动片或制动衬片）和汽车刹车盘（也称制动盘），主要应用于汽车制动部件。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>零售, 创新药</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>诺和诺德宣布司美格鲁肽的补充新药申请获FDA批准，用于结合减少卡路里的饮食和增加体力活动，治疗伴有中晚期肝纤维化的代谢功能障碍相关性脂肪性肝炎患者。</t>
+          <t>小米集团在中期业绩发布电话会上表示，2025年第二季度交付汽车达到81302辆，小米汽车预计在2027年正式进入欧洲市场。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sh600594</t>
+          <t>sh600104</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>益佰制药</t>
+          <t>上汽集团</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.59</v>
+        <v>19.8</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>10.07</v>
+        <v>10</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司苗药相关研发工作有民族药珍珠滴丸Ⅲ期临床研究、苗药理气活血滴丸产业化应用研究等。</t>
+          <t>汽车+华为合作|1.控股股东为上海汽车工业（集团）总公司。公司是目前国内产销规模最大的汽车集团。
+2.记者从多位知情人士处获悉，上汽通用五菱与华为之间的合作将进一步升级，其中宝骏品牌或采用Hi模式。对此上汽通用五菱方面回应称，以官方发布为准。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>汽车, 华为合作</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>诺和诺德宣布司美格鲁肽的补充新药申请获FDA批准，用于结合减少卡路里的饮食和增加体力活动，治疗伴有中晚期肝纤维化的代谢功能障碍相关性脂肪性肝炎患者。</t>
+          <t>小米集团在中期业绩发布电话会上表示，2025年第二季度交付汽车达到81302辆，小米汽车预计在2027年正式进入欧洲市场。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sh603811</t>
+          <t>sh603013</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>诚意药业</t>
+          <t>亚普股份</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>16.82</v>
+        <v>23.93</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>10.01</v>
+        <v>10.02</v>
       </c>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司坚持以海洋药物、中医药、生物医药为主的产品开发策略。在神经系统、内分泌系统等方面对创新药物与大健康类相关产品进行布局。</t>
+          <t>汽车|公司积极拓展新能源业务并争取新项目。以混动汽车高压燃油系统为代表的新技术产品已进入市场成熟增长阶段，不断获得新项目定点，经济效益逐步显现。在纯电动汽车业务领域，公司开发的轻量化动力电池包壳体产品日渐获得市场认可，部分项目已进入量产阶段。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>汽车</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>新能源汽车</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>诺和诺德宣布司美格鲁肽的补充新药申请获FDA批准，用于结合减少卡路里的饮食和增加体力活动，治疗伴有中晚期肝纤维化的代谢功能障碍相关性脂肪性肝炎患者。</t>
+          <t>小米集团在中期业绩发布电话会上表示，2025年第二季度交付汽车达到81302辆，小米汽车预计在2027年正式进入欧洲市场。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sh600557</t>
+          <t>sh603159</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>康缘药业</t>
+          <t>上海亚虹</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>19.83</v>
+        <v>22.39</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>9.98</v>
+        <v>10.02</v>
       </c>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>创新药|主要产品线聚焦呼吸系统、妇科、心脑血管、骨科等中医优势的疾病领域。拥有热毒宁注射液、金振口服液、桂枝茯苓胶囊、散结镇痛胶囊等创新中药代表品种，同时还拥有银杏二萜内酯葡胺注射液、龙血通络胶囊、苁蓉总苷胶囊、淫羊藿总黄酮胶囊等新获批上市的创新中药品种。</t>
+          <t>汽车零部件|公司是汽车零部件二级供应商，已与延锋伟世通、延锋安道拓、保隆科技、上实交通、大陆汽车等全球知名汽车零部件一级供应商形成了长期战略合作关系。公司有生产部分汽车零部件产品间接供货给特斯拉，包括进口和国产车型，公司目前提供的产品主要应用于特斯拉汽车座椅和胎压监测装置。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>华为产业链</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.7799999999999999</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>8月16日，央视《对话》聚焦鸿蒙生态的最新进展，华为常务董事、终端BG董事长余承东首先披露了鸿蒙最新进展，目前，鸿蒙5.0终端数量已突破一千万。</t>
+          <t>中国银河证券表示，近期市场行情展现出积极信号，中报披露期把握业绩确定性较强的配置机会。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sh600410</t>
+          <t>sz002004</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>华邦健康</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>22.75</v>
+        <v>5.01</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>9天6板</t>
-        </is>
-      </c>
+        <v>10.11</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>华为+算力|公司建设了以华为昇腾芯片为核心的天津市河北区人工智能新型基础设施建设项目EPC工程总承包一、二、三期项目。</t>
+          <t>业绩|华邦健康公告称，华邦健康发布2025年半年度报告，公司实现营业收入59.45亿元，同比增长0.39%；归属于上市公司股东的净利润为3.88亿元，同比增长23.90%。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>华为, 算力</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>华为产业链</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.7799999999999999</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>8月16日，央视《对话》聚焦鸿蒙生态的最新进展，华为常务董事、终端BG董事长余承东首先披露了鸿蒙最新进展，目前，鸿蒙5.0终端数量已突破一千万。</t>
+          <t>中国银河证券表示，近期市场行情展现出积极信号，中报披露期把握业绩确定性较强的配置机会。</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sz002298</t>
+          <t>sz300893</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>中电鑫龙</t>
+          <t>松原安全</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>12.44</v>
+        <v>31.98</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>华为+存储+算力|1.公司与HUAWEI公司签订了战略合作协议，双方在智慧城市、大数据中心等领域进行合作，双方积极推动智慧城市、大数据中心等项目落地。
-2.公司在2022年半年报中透露，公司专用磁存储产品具备存储密度高、使用能耗低、数据安全高的特点，有望成为长期存储大规模冷数据的更优选择。
-3.公司研发的超融合云存储节点以及AI异构计算服务器等产品已应用于多个大数据算力中心项目。</t>
+          <t>业绩|松原安全公告称，松原股份发布2025年半年度报告摘要，报告期内实现营业收入11.48亿元，同比增长42.87%；归属于上市公司股东的净利润为1.61亿元，同比增长30.85%。向全体股东每10股转增4股。</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>华为, 存储, 算力</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>华为产业链</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.7799999999999999</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>8月16日，央视《对话》聚焦鸿蒙生态的最新进展，华为常务董事、终端BG董事长余承东首先披露了鸿蒙最新进展，目前，鸿蒙5.0终端数量已突破一千万。</t>
+          <t>中国银河证券表示，近期市场行情展现出积极信号，中报披露期把握业绩确定性较强的配置机会。</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sz002421</t>
+          <t>sh603444</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>达实智能</t>
+          <t xml:space="preserve">吉比特  </t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.8</v>
+        <v>421.19</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>10.14</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>机器人+华为|1.达实久信医用物流机器人由达实久信旗下达实久信物流公司与第三方科研机构联合研发，达实久信负责运行调度程序的开发工作，并与手术室管理系统协同应用，目前已在试点医院落地运行。
-2.公司是国内领先的物联网产品及解决方案服务商，公司与华为建立了深度合作关系。在智慧空间业务领域，双方在智慧建筑及园区、轨道交通、数据中心等多个领域密切合作。</t>
+          <t>业绩|吉比特公告称，上半年实现营业收入25.18亿元，同比增长28.49%；归属于上市公司股东的净利润6.45亿元，同比增长24.50%。公司拟向全体股东每10股派发现金红利66元（含税），合计派发现金红利预计为4.74亿元（含税）。</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>机器人, 华为</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>华为产业链</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.7799999999999999</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>8月16日，央视《对话》聚焦鸿蒙生态的最新进展，华为常务董事、终端BG董事长余承东首先披露了鸿蒙最新进展，目前，鸿蒙5.0终端数量已突破一千万。</t>
+          <t>中国银河证券表示，近期市场行情展现出积极信号，中报披露期把握业绩确定性较强的配置机会。</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sz300598</t>
+          <t>sh600660</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>诚迈科技</t>
+          <t>福耀玻璃</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>55.39</v>
+        <v>61.35</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>20</v>
+        <v>10.01</v>
       </c>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>华为产业链|公司已发布基于OpenHarmony（开源鸿蒙）的商业发行版操作系统——HongZOS（鸿诚志远）V1.0和V2.0，并将紧跟OpenHarmony社区节奏持续迭代。华为EulerOS开源后，针对鲲鹏适配，公司也发布了Euler版本。</t>
+          <t>业绩+光伏玻璃|1.福耀玻璃披露2025年半年报，公司上半年实现营业收入214.47亿元，同比增长16.94%；归母净利润为48.05亿元，同比增长37.33%。
+2.公司位于美国的全资子公司福耀玻璃伊利诺伊有限公司有生产太阳能电池的组件之一背板玻璃。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>华为产业链</t>
+          <t>业绩, 光伏玻璃</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>华为产业链</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.7799999999999999</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8月16日，央视《对话》聚焦鸿蒙生态的最新进展，华为常务董事、终端BG董事长余承东首先披露了鸿蒙最新进展，目前，鸿蒙5.0终端数量已突破一千万。</t>
+          <t>中国银河证券表示，近期市场行情展现出积极信号，中报披露期把握业绩确定性较强的配置机会。</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sh600839</t>
+          <t>sh603909</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>四川长虹</t>
+          <t>建发合诚</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>11.67</v>
+        <v>11.33</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>9.99</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>华为+算力|公司参股企业华鲲振宇提供的天宫计算产品包括天宫PC和天宫服务器，属于提供算力的工具。</t>
+          <t>业绩|公司2025年1-6月实现营业收入33.93亿元，同比增长7.67%；归母净利润0.45亿元，同比增长32.33%。报告期工程管理和综合管养业务毛利增长。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>华为, 算力</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>华为产业链</t>
+          <t>AI眼镜</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.7799999999999999</v>
+        <v>2.34</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>8月16日，央视《对话》聚焦鸿蒙生态的最新进展，华为常务董事、终端BG董事长余承东首先披露了鸿蒙最新进展，目前，鸿蒙5.0终端数量已突破一千万。</t>
+          <t>上海市经济和信息化委员会等三部门19日联合发布《上海市加快推动“AI+制造”发展的实施方案》。其中提出，推动AI计算机、AI眼镜和AI手机等新型智能消费终端迭代升级。</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sh603038</t>
+          <t>sz000650</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>华立股份</t>
+          <t>仁和药业</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>15.9</v>
+        <v>6.38</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>10.03</v>
+        <v>10</v>
       </c>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>华为鸿蒙|华立康茂与华为合作涉及到鸿蒙系统的分为两部分：1、华为自有鸿蒙产品，如ideahub鸿蒙版；2、华立康茂应用鸿蒙智联技术开发智能家居产品。</t>
+          <t>脑机交互智能眼镜|仁和药业在互动平台表示，公司的子公司（闪亮明眸公司）与合作方联合研发了全球首款ULook脑机交互智能眼镜。该眼镜系脑机接口技术与眼健康领域的深度融合，实现了“脑眼协同”，是全球首台“戴在鼻梁上的脑机”。</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>华为鸿蒙</t>
+          <t>脑机交互智能眼镜</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>AI眼镜</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.59</v>
+        <v>2.34</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>据媒体报道，2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>上海市经济和信息化委员会等三部门19日联合发布《上海市加快推动“AI+制造”发展的实施方案》。其中提出，推动AI计算机、AI眼镜和AI手机等新型智能消费终端迭代升级。</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sh600658</t>
+          <t>sh600703</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">电子城  </t>
+          <t>三安光电</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>7.71</v>
+        <v>14.43</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
+        <v>9.98</v>
+      </c>
+      <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>光通信+算力|1.电子城IC/PIC创新中心作为北京市首个集成电路与集成光路“双集成”创新示范园，园区生态不断完善，30余家集成电路上下游企业及硅光设计企业入驻，持续整合产业链上下游优质服务资源，为客户提供流片验证、检测分析、EDA服务、芯片定制设计、光电封测开发等专业化产业服务。
-2.公司持有知鱼智联36.36%股份，知鱼智联根据战略发展规划和经营需要，参与了公司控股股东北京电控基于产业和城市数字化的北京数字经济算力中心项目。</t>
+          <t>磷化铟+AI眼镜|1.三安光电 公司主要从事化合物半导体材料的研发与应用,以砷化镓、氮化镓、碳化硅、磷化铟、氮化铝、蓝宝石等半导体新材料所涉及的外延片、芯片为核心主业。
+2.公司Micro LED产品与国内外AR眼镜、AI眼镜领域终端厂商紧密合作，产品早已送样验证，部分客户验证结束后进入方案升级优化阶段。</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>光通信, 算力</t>
+          <t>磷化铟, AI眼镜</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>AI眼镜</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.59</v>
+        <v>2.34</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>据媒体报道，2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>上海市经济和信息化委员会等三部门19日联合发布《上海市加快推动“AI+制造”发展的实施方案》。其中提出，推动AI计算机、AI眼镜和AI手机等新型智能消费终端迭代升级。</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sh605303</t>
+          <t>sz002722</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>园林股份</t>
+          <t>物产金轮</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>15.05</v>
+        <v>19.35</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>10.01</v>
       </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>算力|公司实控人吴光洪持有浙江云针信息科技40%的股份，浙江云针旗下拥有x86服务器，ARM服务器，GPU服务器等产品。</t>
+          <t>参股灵伴科技|公司参股的北京灵伴即时智能科技有限公司专注于人工智能领域基础技术研发和智能技术的产业升级。关联企业灵伴科技推出了Rokid AR Lite，是一款轻便时尚的增强现实眼镜，融合了前沿的AR技术与智能语音交互系统，支持多块虚拟屏幕同时显示，提供沉浸式的视觉体验和便捷的操作方式。</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>算力</t>
+          <t>参股灵伴科技</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>AI眼镜</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.59</v>
+        <v>2.34</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>据媒体报道，2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>上海市经济和信息化委员会等三部门19日联合发布《上海市加快推动“AI+制造”发展的实施方案》。其中提出，推动AI计算机、AI眼镜和AI手机等新型智能消费终端迭代升级。</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sz301321</t>
+          <t>sz002980</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>翰博高新</t>
+          <t>华盛昌</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19.32</v>
+        <v>26.97</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>20</v>
+        <v>9.99</v>
       </c>
       <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>AI服务器|2024年5月23日公告，子公司博晶科技（滁州）有限公司拟投资2.6亿元，与南京雅南科技有限公司合作设立新公司，标的公司开展服务器总装制造业务，提供服务器总装制造服务。标的公司主要满足大数据、大模型、物联网、人工智能与机器学习等相关产业对于服务器的蓬勃需求。</t>
+          <t>AI眼镜+华为|1.公司拟投资设立深圳市深境智能技术有限公司，旨在加速推进公司在人工智能眼镜的战略布局，重点构建新一代专业领域测试测量仪器仪表应用新生态。
+2. 作为纯血鸿蒙的生态合作伙伴，公司在系统公测前夕率先推出产品“CEM 健康”APP，并入驻鸿蒙应用商店。同时，公司推出全球首款专为鸿蒙生态设计的血压计。</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>AI服务器</t>
+          <t>AI眼镜, 华为</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.59</v>
+        <v>1.57</v>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>据媒体报道，2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>国务院第九次全体会议上指出，要持续激发消费潜力，系统清理消费领域限制性措施。</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sz300536</t>
+          <t>sz000799</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>农尚环境</t>
+          <t>酒鬼酒</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>11.63</v>
+        <v>63.47</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>算力租赁|2023年12月22日公告，全资子公司武汉芯连微电子有限公司于2023年12月21日与爱尚游（北京）科技股份有限公司签订了《采购合同》。芯连微向爱尚游采购算力设备，本次交易合同总价款（含税）1.48亿元。
-2024年3月22日公告，公司签署算力服务租赁协议，客户A基于业务发展需要租赁武汉芯连微共计54台算力服务器，合同总金额（含税）为1.16亿元</t>
+          <t>胖东来+白酒|胖东来创始人于东来在其抖音账号发布了胖东来与酒鬼酒的联名产品——“酒鬼酒自由爱”。于东来介绍，“湘西的精神，湘西的传奇和胖东来的作品，让生活像艺术一样浪漫与唯美，马上与大家见面了，美丽湘西！”</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>算力租赁</t>
+          <t>胖东来, 白酒</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.59</v>
+        <v>1.57</v>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>据媒体报道，2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>国务院第九次全体会议上指出，要持续激发消费潜力，系统清理消费领域限制性措施。</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sh601138</t>
+          <t>sz000721</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>工业富联</t>
+          <t>西安饮食</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>48.91</v>
+        <v>9.85</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>10.01</v>
+        <v>10.06</v>
       </c>
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>AI服务器|公司AI服务器自2017年发展已迭代至第四代，并于2023年开始为客户开发并量产英伟达的H100及H800等高性能AI服务器。</t>
+          <t>食品饮料|公司控股子公司西安大业食品有限公司主要从事工业化食品生产及销售，产品主要分为糕点烘焙类、肉制品类、速冻食品类、方便食品类、半成品类、饮品酿造类等6大系列、百余个品种的老字号特色食品。</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>AI服务器</t>
+          <t>食品饮料</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.05</v>
+        <v>1.57</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
+          <t>国务院第九次全体会议上指出，要持续激发消费潜力，系统清理消费领域限制性措施。</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sz002272</t>
+          <t>sh605179</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>川润股份</t>
+          <t>一鸣食品</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>18.02</v>
+        <v>22.91</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司液冷技术在能源、工业等领域有多年成熟应用，在储能、数据中心、云计算、算力设备、通信网络、电力电网、电源转换等领域为客户提供液冷产品和温控节能解决方案。公司已实现服务器浸没式液冷产品“零”突破。</t>
+          <t>乳业|公司主要从事新鲜乳品与烘焙食品的研发、生产、销售及连锁经营业务。</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>乳业</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.05</v>
+        <v>1.57</v>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
+          <t>国务院第九次全体会议上指出，要持续激发消费潜力，系统清理消费领域限制性措施。</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sz002158</t>
+          <t>sh601579</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>汉钟精机</t>
+          <t xml:space="preserve">会稽山  </t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>23.85</v>
+        <v>21.69</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司离心式和磁悬浮离心式压缩机产品可应用于数据中心等行业的“液冷技术”相关领域。</t>
+          <t>黄酒|公司主要从事黄酒的生产、销售和研发等业务，公司及下属子公司主要拥有“会稽山”、“西塘”、“乌毡帽”、“唐宋”等主品牌。</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>黄酒</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.05</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
+          <t>工信部等六部门19日联合召开光伏产业座谈会，部署进一步规范光伏产业竞争秩序工作。</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sh603339</t>
+          <t>sz003022</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>四方科技</t>
+          <t>联泓新科</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>16.04</v>
+        <v>21.22</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>10.01</v>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天2板</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司具有翅片套管空气冷却换热器、蒸发冷却换热器的研发、制造能力，并有相关产品销售。产品可配套用于数据中心液冷系统中液体冷却。</t>
+          <t>光伏+PEEK|1.在光伏料领域，公司开出了光伏膜料产品FL02528，打破了国外垄断。
+2.公司已完成PEEK相关技术开发和产品中试，已具备产业化条件。</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>光伏, PEEK</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.05</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
+          <t>工信部等六部门19日联合召开光伏产业座谈会，部署进一步规范光伏产业竞争秩序工作。</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sz002600</t>
+          <t>sz002953</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>日丰股份</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>12.24</v>
+        <v>12.61</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.03</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>机器人+液冷IDC|1.公司拥有伺服电机、减速器、驱动器、运动控制器等人形机器人执行层的核心技术，可提供模切结构件、金属结构件、注塑结构件、软包结构件等，已为人形机器人客户提供头部总成、灵巧手总成、四肢总成、高功率充电和散热解决方案等核心硬件。
-2.公司已为AMD等国际客户批量出货散热模组，也已全面具备CDU、液冷模组、液冷板、空冷散热模组、热管、均热板、石墨片等产品及系统性散热解决方案的研发、生产能力，应用于人形机器人、服务器、光模块等各类产品。</t>
+          <t>光伏+机器人|1.2021年12月8日公司在互动平台表示，公司全资子公司有容蒂康拥有相关光伏产品的认证，原有批量生产，现主要生产4G、5G等通讯装备组件，光伏产品销量较小，业务占比不高。目前正逐步扩张有容蒂康的产能，将会重新评估光伏产品市场，视情况扩大光伏产品投入和产出。
+2.公司已提前布局并自主研发机器人动力及信号电缆，相关技术获得了国家的专利授权。该电缆于机器人本体及体外使用，满足电能供给和探测数据、运行数据的反馈等作用。</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>机器人, 液冷IDC</t>
+          <t>光伏, 机器人</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.05</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
+          <t>工信部等六部门19日联合召开光伏产业座谈会，部署进一步规范光伏产业竞争秩序工作。</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sh603798</t>
+          <t>sh605288</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">康普顿  </t>
+          <t>凯迪股份</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>13.75</v>
+        <v>64.88</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>10</v>
@@ -2424,27 +2392,28 @@
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司基于防冻冷却液产品多年的生产研发技术经验，在数据中心冷液方面已有相应的技术储备，可根据客户需求定向开发相关产品。</t>
+          <t>光伏+机器人|1.公司生产的光伏支架产品已基本符合产业要求。
+2.公司主要产品为线性驱动系统，可以应用在机器人上。</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>光伏, 机器人</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>IDC电源</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.02</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>业内人士分析，新一代算力芯片功耗大幅提升，对数据中心电源系统和液冷技术的要求显著提高，国内相关电源、液冷及储能企业有望深度受益，订单增长预期强劲。</t>
+          <t>工信部等六部门19日联合召开光伏产业座谈会，部署进一步规范光伏产业竞争秩序工作。</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -2452,48 +2421,45 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>sz002052</t>
+          <t>sh603366</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>同洲电子</t>
+          <t>日出东方</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>18.25</v>
+        <v>10.76</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>7天6板</t>
-        </is>
-      </c>
+        <v>10.02</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>IDC电源|公司高功率电源产品为开关电源产品，主要应用于算力服务器领域。</t>
+          <t>光伏+华为|1.公司光伏业务主要为分布式户用光伏业务和分布式工商业光伏业务。
+2.由港城企业日出东方和华为数字能源技术有限公司联合打造的苏北首座光储充一体化新能源汽车超充站全面建成投用。该充电站年发电量可达60万度，每年可节约标准煤180吨，减少二氧化碳排放量494吨。</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>IDC电源</t>
+          <t>光伏, 华为</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>IDC电源</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.02</v>
+        <v>0.64</v>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>业内人士分析，新一代算力芯片功耗大幅提升，对数据中心电源系统和液冷技术的要求显著提高，国内相关电源、液冷及储能企业有望深度受益，订单增长预期强劲。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -2501,48 +2467,49 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sz002364</t>
+          <t>sh600590</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>中恒电气</t>
+          <t>泰豪科技</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>24.97</v>
+        <v>12.89</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>7天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>数据中心HVDC|公司面向ICT行业能源网络建设提供数据中心HVDC直流供配电、预制化Panama电力模组，5G全栈式站点高效能源等产品及解决方案。作为数据中心高压直流（HVDC）绿色供电技术方案先行者，公司牵头制订了《信息通信用240V/336V直流供电系统技术要求和试验方法》国家标准。</t>
+          <t>军工+IDC电源|1.公司军工装备产业围绕武器装备信息化方向开展业务，主要产品包括车载通信指挥系统、舰载作战辅助系统、军用电站等。
+2.公司智能应急电源产品广泛应用于数据中心、通信等行业，与华为、三大运营商及苹果等均有业务合作。</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>数据中心HVDC</t>
+          <t>军工, IDC电源</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>IDC电源</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.02</v>
+        <v>0.64</v>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>业内人士分析，新一代算力芯片功耗大幅提升，对数据中心电源系统和液冷技术的要求显著提高，国内相关电源、液冷及储能企业有望深度受益，订单增长预期强劲。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -2550,48 +2517,44 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>sz002518</t>
+          <t>sz002190</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>科士达</t>
+          <t>成飞集成</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>33.74</v>
+        <v>40.32</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>10.01</v>
       </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
+      <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>IDC电源+液冷IDC|公司致力于为数据中心基础建设提供IDC电源保障设备、温控设备、蓄电池，微模块等，同时公司数据中心温控产品已有液冷技术储备。</t>
+          <t>军工|公司数控零件加工业务主要是航空零部件数控加工，公司有承接无人机零件数控加工业务。</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>IDC电源, 液冷IDC</t>
+          <t>军工</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>IDC电源</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.02</v>
+        <v>0.64</v>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>业内人士分析，新一代算力芯片功耗大幅提升，对数据中心电源系统和液冷技术的要求显著提高，国内相关电源、液冷及储能企业有望深度受益，订单增长预期强劲。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -2599,90 +2562,90 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sh600590</t>
+          <t>sh603332</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>泰豪科技</t>
+          <t>苏州龙杰</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>11.72</v>
+        <v>15.83</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>10.05</v>
+        <v>10.01</v>
       </c>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>军工+IDC电源|1.公司军工装备产业围绕武器装备信息化方向开展业务，主要产品包括车载通信指挥系统、舰载作战辅助系统、军用电站等。
-2.公司智能应急电源产品广泛应用于数据中心、通信等行业，与华为、三大运营商及苹果等均有业务合作。</t>
+          <t>纺织+军工|专注于差别化涤纶长丝、PTT纤维等差别化、新型聚酯纤维长丝的研发、生产及销售。公司产品在军工领域的应用主要是军队服装面料前道原料纤维的生产、研发与销售。</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>军工, IDC电源</t>
+          <t>纺织, 军工</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>发电机概念</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.98</v>
+        <v>0.64</v>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>广发证券研报指出，海外柴发的价格比国内更高，当前国产柴发在国内价格300万左右、出海价格400万左右，单台利润中枢加快拔升。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sh600841</t>
+          <t>sz002625</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>动力新科</t>
+          <t>光启技术</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>7.58</v>
+        <v>49.53</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>10.01</v>
+        <v>9.99</v>
       </c>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>数据中心发电机|公司“船电新一代大马力发动机类项目”包括12VK/16VK及16V135电站产品等3个项目，重点聚焦大马力高端电站市场，主要应用场景包括数据中心等。</t>
+          <t>军工+低空经济|1.公司旗下子公司光启尖端致力于从事超材料前沿技术研究和军工超材料解决方案提供及产品生产。
+2.公司2024年3月15日在互动平台表示，公司的核心技术对于赋能低空经济领域的新型航空器有着重大的支撑赋能作用，并已在积极与行业内企业交流合作。</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>数据中心发电机</t>
+          <t>军工, 低空经济</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>发电机概念</t>
+          <t>华为产业链</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.98</v>
+        <v>0.83</v>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>广发证券研报指出，海外柴发的价格比国内更高，当前国产柴发在国内价格300万左右、出海价格400万左右，单台利润中枢加快拔升。</t>
+          <t>华为常务董事、终端BG董事长余承东首先披露了鸿蒙最新进展，目前，鸿蒙5.0终端数量已突破一千万。</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -2690,44 +2653,48 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sh600218</t>
+          <t>sh603038</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>全柴动力</t>
+          <t>华立股份</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>9.960000000000001</v>
+        <v>17.49</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="I47" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>发电机|公司部分产品可用于发电机组等特定的作业场景。</t>
+          <t>华为+智能家居|华立康茂与华为合作涉及到鸿蒙系统的分为两部分：1、华为自有鸿蒙产品，如ideahub鸿蒙版；2、华立康茂应用鸿蒙智联技术开发智能家居产品。</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>发电机</t>
+          <t>华为, 智能家居</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>发电机概念</t>
+          <t>华为产业链</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.98</v>
+        <v>0.83</v>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>广发证券研报指出，海外柴发的价格比国内更高，当前国产柴发在国内价格300万左右、出海价格400万左右，单台利润中枢加快拔升。</t>
+          <t>华为常务董事、终端BG董事长余承东首先披露了鸿蒙最新进展，目前，鸿蒙5.0终端数量已突破一千万。</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -2735,44 +2702,44 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sh605100</t>
+          <t>sh688657</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>华丰股份</t>
+          <t>浩辰软件</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>23.78</v>
+        <v>62.71</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>9.99</v>
+        <v>20</v>
       </c>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>数据中心柴发|公司智能化发电机组可为数据中心提供备用电源，曾多次中标中国联通数据中心柴油发电机组招标项目。</t>
+          <t>华为+软件|公司是国内领先的研发设计类工业软件提供商，主要从事CAD相关软件的研发及推广销售业务。公司为华为提供浩辰CAD、浩辰3D、浩辰CAD看图王等产品。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>数据中心柴发</t>
+          <t>华为, 软件</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>华为产业链</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.21</v>
+        <v>0.83</v>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院第九次全体会议上指出，要持续激发消费潜力，系统清理消费领域限制性措施。</t>
+          <t>华为常务董事、终端BG董事长余承东首先披露了鸿蒙最新进展，目前，鸿蒙5.0终端数量已突破一千万。</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -2780,44 +2747,45 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>sz002820</t>
+          <t>sz002583</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>桂发祥</t>
+          <t>海能达</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>15.86</v>
+        <v>13.86</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>9.99</v>
+        <v>10</v>
       </c>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>休闲食品|公司是专业从事传统特色及其他休闲食品的研发、生产和销售的中华老字号企业，自产产品包括麻花、糕点、节令食品、天津风味方便食品等。</t>
+          <t>对讲机+华为星闪|1.公司提供对讲机，PDT防爆对讲机，警用，无线，保安，酒店，数字，公网，智能等对讲机。
+2.公司作为星闪联盟的会员单位，对相关技术研究、标准制定及产业落地等保持积极跟踪。</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>休闲食品</t>
+          <t>对讲机, 华为星闪</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.21</v>
+        <v>0.39</v>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院第九次全体会议上指出，要持续激发消费潜力，系统清理消费领域限制性措施。</t>
+          <t>据媒体报道，2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
@@ -2825,44 +2793,49 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>sh605337</t>
+          <t>sh600658</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">李子园  </t>
+          <t xml:space="preserve">电子城  </t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>14.05</v>
+        <v>8.48</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I50" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>7天5板</t>
+        </is>
+      </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>乳业|公司主营业务为甜牛奶乳饮料系列等含乳饮料和其他饮料的研发、生产与销售，主要产品包括含乳饮料、复合蛋白饮料、乳味风味饮料等。</t>
+          <t>半导体+算力|1.电子城IC/PIC创新中心作为北京市首个集成电路与集成光路“双集成”创新示范园，园区生态不断完善，30余家集成电路上下游企业及硅光设计企业入驻，持续整合产业链上下游优质服务资源，为客户提供流片验证、检测分析、EDA服务、芯片定制设计、光电封测开发等专业化产业服务。
+2.公司持有知鱼智联36.36%股份，知鱼智联根据战略发展规划和经营需要，参与了公司控股股东北京电控基于产业和城市数字化的北京数字经济算力中心项目。</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>乳业</t>
+          <t>半导体, 算力</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.21</v>
+        <v>0.39</v>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院第九次全体会议上指出，要持续激发消费潜力，系统清理消费领域限制性措施。</t>
+          <t>据媒体报道，2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -2870,44 +2843,48 @@
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>sz000799</t>
+          <t>sh605303</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>酒鬼酒</t>
+          <t>园林股份</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>57.7</v>
+        <v>16.56</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I51" s="2" t="inlineStr"/>
+        <v>10.03</v>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>白酒|公司是中国馥郁香型工艺白酒的始创者，成就了“内参”、“酒鬼”、“湘泉”三大系列产品。</t>
+          <t>参股云针科技|公司控股子公司芸合科技参股云针科技15%股权，公司实控人吴光洪持有浙江云针信息科技40%的股份，浙江云针旗下拥有x86服务器，ARM服务器，GPU服务器等产品。</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>白酒</t>
+          <t>参股云针科技</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>下半年港股互联网巨头或将加大AI基础设施领域的资本投入，大模型迭代与AI应用落地进度有望提速。</t>
+          <t>据媒体报道，2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
@@ -2915,49 +2892,44 @@
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>sz002871</t>
+          <t>sz002575</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>伟隆股份</t>
+          <t>群兴玩具</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>16.98</v>
+        <v>8.84</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+        <v>9.950000000000001</v>
+      </c>
+      <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>军工+AI应用|1.公司于2016年已取得中央军委装备发展部颁发的从事军品制造资格的《装备承制单位注册证书》和国军标GJB9001B质量管理体系认证，成为第三类装备承制单位。公司阀门产品主要服务领域为海军舰艇装备及军事基地建设设施配套。
-2.公司在智慧节能阀门项目中，逐步应用人工智能、互联网、物联网等先进技术，使阀门具有自适应、自调节、自诊断、远程监控等功能。</t>
+          <t>算力|群兴玩具公告，公司与天宽科技股东签署了《股权收购框架协议》，拟以现金方式收购天宽科技不低于51%的股权。交易完成后，天宽科技将成为公司控股子公司。本次交易预计构成重大资产重组，但不构成关联交易。天宽科技主营业务为人工智能计算中心的建设和运营、为行业客户提供数字化转型服务解决方案、为客户提供端云一体的数字化、智能化产品等。</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>军工, AI应用</t>
+          <t>算力</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>下半年港股互联网巨头或将加大AI基础设施领域的资本投入，大模型迭代与AI应用落地进度有望提速。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -2965,48 +2937,49 @@
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>sz002131</t>
+          <t>sz002158</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>利欧股份</t>
+          <t>汉钟精机</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>4.88</v>
+        <v>26.24</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>9.91</v>
+        <v>10.02</v>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>AI+营销|4月18日，利欧股份正式发布广告行业首个MCP服务，并宣布旗下开放API服务工具全面支持MCP协议，标志着公司在“AI+营销”深度融合领域再进一步，开启广告行业AI智能化转型的新篇章。</t>
+          <t>半导体+液冷IDC|1.汉钟精机在互动平台表示，公司半导体真空泵已通过部分国内芯片制造商的认可并开始批量供货，同时部分新客户和新工艺仍在配合测试验证中。
+2.公司离心式和磁悬浮离心式压缩机产品可应用于数据中心等行业的“液冷技术”相关领域。</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>AI, 营销</t>
+          <t>半导体, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>下半年港股互联网巨头或将加大AI基础设施领域的资本投入，大模型迭代与AI应用落地进度有望提速。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
@@ -3014,44 +2987,45 @@
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>sz002161</t>
+          <t>sz000977</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>远 望 谷</t>
+          <t>浪潮信息</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>9.31</v>
+        <v>65.95</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>10.05</v>
+        <v>10.01</v>
       </c>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>AI+智能宠物|公司积极把握人工智能（AI）与物联网（IoT）深度融合的产业机遇，基于公司现有产业优势，一是结合宠物经济赛道爆发的机会，打造AI agent赋能的智能宠物硬件设备，并持续推动形成硬件+AI+生态的全周期运营模式，相关智能宠物设备及APP已经在海外上线发售；二是将推动AI+空间的智慧解决方案，与公司现有主业实现综合解决方案，持续拓展智慧空间新商业模式。</t>
+          <t>液冷+AI服务器|1.2024年上半年国内液冷服务器市占率超过50%，稳居第一；公司将“All in 液冷”纳入公司发展战略，具备从整体数据中心的规划、建设到实施全套的绿色化解决方案。
+2.公司已形成具有自主知识产权、涵盖高中低端各类型服务器的云计算Iaas层系列产品，服务器在全球市占率超10%，位居第二，在中国市占率36.4%，保持第一。</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>AI, 智能宠物</t>
+          <t>液冷, AI服务器</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，近来高层多次明确提出“反内卷”、“集采优化不再唯低价论”等原则，支持创新药械产业发展，产业政策拐点信号明确，医疗器械板块估值和业绩有望迎来修复。</t>
+          <t>天风证券认为，NVL72单机柜液冷价值量约10万美元，随着GB200/300高密度功率机柜出货放量，AI数据中心液冷渗透率有望从B200~10%提升至GB300~90%。</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -3059,1530 +3033,1545 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>sh603222</t>
+          <t>sz002281</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>济民健康</t>
+          <t>光迅科技</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>10.78</v>
+        <v>60.5</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I55" s="2" t="inlineStr">
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>液冷光模块|公司可以提供全套的液冷光模块产品，同时公司是浸没液冷智算产业发展联盟会员单位，是相关标准、工艺研究和实践的重要参与者之一。</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>液冷光模块</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报称，覆铜板涨价潮起，建滔、威利邦、宏瑞兴8月15日齐涨5—10元/张。AI需求带动PCB钻针、铜箔同步涨价。</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>sh603002</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>宏昌电子</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>覆铜板|公司主要从事电子级环氧树脂、覆铜板两大类产品的生产和销售，覆铜板主营产品为多层板用环氧玻璃布覆铜板、多层板用环氧玻璃布半固化片。</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>覆铜板</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报称，覆铜板涨价潮起，建滔、威利邦、宏瑞兴8月15日齐涨5—10元/张。AI需求带动PCB钻针、铜箔同步涨价。</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>sz301041</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>金百泽</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>34.04</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>PCB+机器人|1.公司主营印制电路板、电子制造服务和电子设计服务，印制电路板产品类型覆盖高多层电路板、HDI板、刚挠结合板、高频板、金属基板、厚铜电路板等。
+2.公司的产品和服务有应用于机器人领域。</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>PCB, 机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报称，覆铜板涨价潮起，建滔、威利邦、宏瑞兴8月15日齐涨5—10元/张。AI需求带动PCB钻针、铜箔同步涨价。</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>sz002141</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>贤丰控股</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>覆铜板|公司旗下高硕航宇与上下游协同运作构建起了完整覆铜板产业链，主要产品包括常规FR-4/CEM-3系列覆铜板、无铅无卤FR-4系列覆铜板等，具备60万余张/月覆铜板产能。</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>覆铜板</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>发电机概念</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>广发证券研报指出，海外柴发的价格比国内更高，当前国产柴发在国内价格300万左右、出海价格400万左右，单台利润中枢加快拔升。</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>sh600218</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>全柴动力</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>发电机组|公司部分产品可用于发电机组等特定的作业场景。</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>发电机组</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>发电机概念</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>广发证券研报指出，海外柴发的价格比国内更高，当前国产柴发在国内价格300万左右、出海价格400万左右，单台利润中枢加快拔升。</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>sz002576</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>通达动力</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>机器人+发电机|1.公司生产的伺服电机铁芯可以应用于机器人领域。
+2.公司主要生产电机定转子铁芯，能够应用于不同种类和型号的电动机和发电机。</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>机器人, 发电机</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>有色金属概念</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>中信建投证券研报指出，除却美联储处于降息通道带来的货币宽松外，国内正在推行的“反内卷”优化生产要素，提升各环节盈利能力和改善市场预期，有利于金属价格上涨向下游的传导。</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>sz002428</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>云南锗业</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>磷化铟|九峰山实验室官微消息，九峰山实验室近日在磷化铟（InP）材料领域取得重要技术突破，成功开发出6英寸磷化铟（InP）基PIN结构探测器和FP结构激光器的外延生长工艺，关键性能指标达到国际领先水平。九峰山实验室本次技术突破中6英寸磷化铟（InP）衬底合作方云南鑫耀的6英寸高品质磷化铟单晶片产业化关键技术已实现突破，量产在即。云南鑫耀为公司控股子公司。</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>磷化铟</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>有色金属概念</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>中信建投证券研报指出，除却美联储处于降息通道带来的货币宽松外，国内正在推行的“反内卷”优化生产要素，提升各环节盈利能力和改善市场预期，有利于金属价格上涨向下游的传导。</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>sz002114</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>罗平锌电</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>锌|公司主营业务为铅锌矿石采选、锌冶炼、水力发电和资源综合利用项目。公司拥有锌矿开采、水力发电、锌冶炼及锌产品加工相结合的主导产品产业链。</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>锌</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>中原证券指出，半导体产业链核心环节自主可控需求仍然迫切，国产替代有望加速推进，国内半导体产业链国产化率较低的环节有望充分受益。</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>sh688702</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>盛科通信-U</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>以太网交换芯片|公司为国内领先的以太网交换芯片设计企业，主营业务为以太网交换芯片及配套产品的研发、设计和销售。</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>以太网交换芯片</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>中原证券指出，半导体产业链核心环节自主可控需求仍然迫切，国产替代有望加速推进，国内半导体产业链国产化率较低的环节有望充分受益。</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>sh603800</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>洪田股份</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>53.34</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>光刻机+铜箔|1.旗下洪镭光学获得来自半导体掩模版资深制造厂商的高解析直写光刻机采购订单。
+2.公司已发展成为国内电解铜箔设备龙头供应商，已实现3.5μm-100μm锂电极薄、电子电路超厚解铜箔生产装备的产业化。</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>光刻机, 铜箔</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>商业零售</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>国家统计局数据显示，7月份，社会消费品零售总额38780亿元，同比增长3.7%。</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>sh605188</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>国光连锁</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>商业零售</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>国家统计局数据显示，7月份，社会消费品零售总额38780亿元，同比增长3.7%。</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>sh603101</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>汇嘉时代</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>新疆+零售|地处新疆乌鲁木齐市，新疆地区百货零售连锁企业。</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>新疆, 零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>稀土永磁</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券研报称，重视稀土战略地位，看好价格上行。预期2025—2026年稀土价格中枢有望持续上行。</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>sh600980</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>北矿科技</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>稀土永磁|公司旗下全资子公司北矿磁材是国内最早从事铁氧体磁性材料开发和生产的单位之一，是国内最大的铁氧体预烧料制造商之一。</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>稀土永磁</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>稀土永磁</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券研报称，重视稀土战略地位，看好价格上行。预期2025—2026年稀土价格中枢有望持续上行。</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>sz002167</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>稀土+固态电池|1.旗下澳大利亚三个矿产资源项目都可分选出独居石，独居石是一种含有铈和镧的磷酸盐矿物，是一种稀土矿物，中文学名“磷铈镧矿”，（Ce，Y，La，Th）PO4是提炼铈、镧的主要矿物，商业钚的主要来源。
+2.公司成立了专门的技术研发小组，加大对应用于固态电池电解质的氧化锆产品的技术研发和投入，提供的样品已获得部分固态电池材料厂家研发试用初步认可。</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>稀土, 固态电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>商业航天</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>广东省人民政府办公厅印发《广东省推动商业航天高质量发展若干政策措施（2025—2028年）》。规划对于商业航天基建端的多个环节，真金白银给出补贴和税收优惠。</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>sz003009</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>中天火箭</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>59.76</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>商业航天|公司形成了增雨防雹火箭、探空火箭、小型制导火箭等系列化小型固体火箭业务。</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>商业航天</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>商业航天</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>广东省人民政府办公厅印发《广东省推动商业航天高质量发展若干政策措施（2025—2028年）》。规划对于商业航天基建端的多个环节，真金白银给出补贴和税收优惠。</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>sz002792</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>通宇通讯</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>商业航天|蓝箭鸿擎是国内唯三有万颗卫星发射计划的公司之一，拥有鸿鹄星座计划，申报了1万颗卫星。公司投资参股北京蓝箭鸿擎科技公司以强化协同效应。</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>商业航天</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>专家认为，当前中国创新药产业正迎来全链条创新优势凸显、国际化进程提速、政策持续发力的多重利好。</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>sh603998</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>方盛制药</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>收购创新药专利|方盛制药公告称，公司拟以8000万元购买中国药科大学和中国医学科学院药物研究所的化药1类创新药物IMM-H024原料药及制剂项目的专利权。</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>收购创新药专利</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>专家认为，当前中国创新药产业正迎来全链条创新优势凸显、国际化进程提速、政策持续发力的多重利好。</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>sh600521</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>华海药业</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>创新药|以心脑血管类、神经系统类、抗病毒类等为主导的产品系列，主要产品有甲磺酸帕罗西汀胶囊、强力霉素缓释片、缬沙坦片、氯沙坦钾片、盐酸帕罗西汀片、安非他酮缓释片等。据公告，单克隆抗体注射液获药物临床试验批件。持续获得ANDA批文，美国制剂业务有望扭亏。公司已有10个品种通过一致性评价。</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>sh603021</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST华鹏  </t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司是国内日用玻璃行业的企业之一，主营业务为研发、生产和销售玻璃器皿产品和玻璃瓶罐。</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C74" s="2" t="inlineStr"/>
+      <c r="D74" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>sh600107</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST尔雅  </t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司的主营业务为服装、服饰和纺织品研发、设计、制造和销售。</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C75" s="2" t="inlineStr"/>
+      <c r="D75" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>sz000691</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>*ST亚太</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>sh600360</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST华微 </t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司是国内技术领先、产品种类最为齐全的功率半导体器件IDM公司，已建立从高端二极管、单双向可控硅、MOS系列产品到第六代IGBT的功率半导体器件产品体系。</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>sh603377</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST东时  </t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司持有海若通航55%的股权，海若通航是一家具备CCAR-91部通航作业，CCAR-141部飞行培训，CCAR-145部航空器维修资质的通用航空运营商。</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C78" s="2" t="inlineStr"/>
+      <c r="D78" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>sh600696</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST岩石 </t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.公司主要从事商业保理、融资租赁、不动产运营管理和大宗商品贸易。
+2.公司持有江西章贡酒业有限责任公司25%股权。章贡酒业是全国白酒工业百强企业，江西省重点酿酒企业。</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C79" s="2" t="inlineStr"/>
+      <c r="D79" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>sz002197</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>ST证通</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司基于OpenHarmony 的“1+N”产业布局，主要围绕金融支付产品线、数智终端产品线、行业自助产品线，在金融、教育、制造、能源、安平等多领域能够一站式为行业客户提供基于 OpenHarmony 的数字化转型服务</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C80" s="2" t="inlineStr"/>
+      <c r="D80" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>sz000609</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>ST中迪</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>5.149999999999999</v>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司房地产项目位于重庆、成都、达州，重庆的“两江中迪广场”主要为商业项目。</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C81" s="2" t="inlineStr"/>
+      <c r="D81" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>sz002306</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>*ST云网</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.“湘鄂情”品牌是全国仅有的几个中餐类“中国驰名商标”之一，为跻身于北京市专营连锁餐饮类企业前五名中的唯一民族品牌。
+2.公司拟分二期在超高效N型晶硅电池研发和生产。</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>sz002789</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>*ST建艺</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="I82" s="2" t="inlineStr"/>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司是集施工、设计、资源矿产、科技工业园、高新技术建材产业、投融资为一体的规模化实体企业集团。</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>sh603843</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST正平 </t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="I83" s="2" t="inlineStr"/>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 2025年2月21日公司官微披露，旗下正平智算参加海东市绿色算力产业集中签约暨推介活动并签订算电协同产业园框架协议。</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C84" s="2" t="inlineStr"/>
+      <c r="D84" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>sz002742</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>*ST三圣</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I84" s="2" t="inlineStr"/>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司全资子公司辽源市百康药业有限责任公司对乙酰氨基酚的产能是5000吨/年，现在处于满产满销的状态。</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>sz002289</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>*ST宇顺</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I85" s="2" t="inlineStr"/>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>sz002630</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>ST华西</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I86" s="2" t="inlineStr"/>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 目前公司核电业务主要集中在核三废处理领域，为业主项目提供核废物处理系统以及配套件。</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C87" s="2" t="inlineStr"/>
+      <c r="D87" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>sz000929</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>*ST兰黄</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="I87" s="2" t="inlineStr"/>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 主营业务啤酒、麦芽、饮料的生产、加工与销售,主要产品“黄河”、“青海湖”系列啤酒和“黄河”麦芽等。</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C88" s="2" t="inlineStr"/>
+      <c r="D88" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>sh600238</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST椰岛 </t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="I88" s="2" t="inlineStr"/>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 地处海南省海口市，实际控制人仍为海口国资委，保健酒产业先行者。</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr"/>
+      <c r="D89" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>sh603222</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>济民健康</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
         <is>
           <t>医疗器械+细胞治疗|1.主要产品为各种品规的非PVC软袋大输液、塑料瓶大输液以及安全注射器、无菌注射器和输液器等产品。
 2.公司旗下博鳌国际医院拥有国内唯一一家通过日本国厚生省认证的国际再生医学实验室，建成了包括细胞存储、国际标准细胞制备、细胞治疗临床研究、干细胞与再生医学技术转化四大核心技术平台。</t>
         </is>
       </c>
-      <c r="K55" s="2" t="inlineStr">
+      <c r="K89" s="2" t="inlineStr">
         <is>
           <t>医疗器械, 细胞治疗</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>中信证券研报称，近来高层多次明确提出“反内卷”、“集采优化不再唯低价论”等原则，支持创新药械产业发展，产业政策拐点信号明确，医疗器械板块估值和业绩有望迎来修复。</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>sz300642</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>透景生命</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>医疗器械|公司产品从检测原理可分为免疫、分子、生化诊断产品三个大类。</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>中信证券研报称，近来高层多次明确提出“反内卷”、“集采优化不再唯低价论”等原则，支持创新药械产业发展，产业政策拐点信号明确，医疗器械板块估值和业绩有望迎来修复。</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>sz002382</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>蓝帆医疗</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>9.950000000000001</v>
-      </c>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>医疗器械|公司是中低值耗材和高值耗材完整布局的医疗器械龙头企业。</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>sz300810</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>中科海讯</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>65.47</v>
-      </c>
-      <c r="H58" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>军工|公司长期专注于声纳领域相关产品的研发、生产和销售，主要为客户提供信号处理平台、声纳系统、水声大数据与仿真系统、无人探测系统等声纳领域相关产品。公司产品主要应用于国家特种电子信息行业声纳装备领域，声纳装备主要作用为水声目标探测与识别、水声通信与数据传输、水声导航与测绘等，最终用户为国家特种部门。</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>sh600990</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>四创电子</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>35.07</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>军工+商业航天|1.中国电子科技集团旗下上市公司，是中电科中电博微的唯一上市平台，作为雷达产业重要制造商之一，公司雷达产品主要为气象雷达、航管雷达和低空警戒雷达。
-2.公司PCB系列产品可应用于商业航天领域，如PCB产品已应用于“海丝一号”商业SAR卫星。</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>军工, 商业航天</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>sz002428</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>云南锗业</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="H60" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I60" s="2" t="inlineStr"/>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>锗+军工|1.1.公司是集锗矿开采、火法富集、湿法提纯、区熔精炼、精深加工及研究开发一体化产业链的锗生产企业，材料级锗产品主要为区熔锗锭、二氧化锗。
-2.公司红外锗镜头、太阳能电池用锗单晶片等可作为国防军工、航空航天用的精、深加工材料。</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="inlineStr">
-        <is>
-          <t>锗, 军工</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>中国海关数据显示，中国7月份稀土及其制品出口量为12416吨，同比增14.5%。</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>sz002645</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>华宏科技</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁+机器人|1.公司旗下全资子公司鑫泰科技主营业务为稀土废料的综合利用，即通过钕铁硼废料、荧光粉废料生产高纯稀土氧化物，其全资子公司中杭新材从事稀土永磁材料生产业务。
-2.公司生产的高性能磁材产品已经应用于新能源汽车电机、工业机器人电机、3C电子等高科技领域。</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁, 机器人</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>中国海关数据显示，中国7月份稀土及其制品出口量为12416吨，同比增14.5%。</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>sh600980</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>北矿科技</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>25.47</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I62" s="2" t="inlineStr"/>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁|公司旗下全资子公司北矿磁材是国内最早从事铁氧体磁性材料开发和生产的单位之一，是国内最大的铁氧体预烧料制造商之一。</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>影视</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>国家广播电视总局近日印发实施《进一步丰富电视大屏内容 促进广电视听内容供给的若干举措》。《若干举措》强调，要多措并举加强内容建设，增加优质广电视听内容供给。</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>sz002343</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>慈文传媒</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="H63" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>影视+短剧|公司在影视内容创作和生产上，始终坚持创新，积极推进包括短剧、互动剧等形式在内的多类型、差异化的项目研发、孵化和制作，努力提升内容的持续创新力。公司全资子公司江西慈文影视文化传媒有限公司的网络微短剧《多情剑客无情剑》于2023年11月通过国家广电总局全国重点网络微短剧规划备案。</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="inlineStr">
-        <is>
-          <t>影视, 短剧</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>影视</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>国家广播电视总局近日印发实施《进一步丰富电视大屏内容 促进广电视听内容供给的若干举措》。《若干举措》强调，要多措并举加强内容建设，增加优质广电视听内容供给。</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>sz002445</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>中南文化</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H64" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I64" s="2" t="inlineStr"/>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>影视|公司文化板块主要业务包括电视剧、电影项目的投资、策划、制作、发行、营销及其衍生品开发业务；艺人培养和艺人经纪等。</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="inlineStr">
-        <is>
-          <t>影视</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>数字货币</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>韩国金融监管机构将在10月提交关于稳定币的监管法案。日本稳定币发行商JPYC获得日本政府批准发行稳定币。</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>sz002657</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>中科金财</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="n">
-        <v>42.74</v>
-      </c>
-      <c r="H65" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>数字货币+算力|1.公司区块链探索的综合解决方案应用场景包括数字货币、账户上链、大额电子支付、大数据隐私保护、数字身份认证、海关监管、诚信安检、知识产权保护、商品溯源、动态股权等。
-2.旗下北京中科金财智算科技有限公司主营业务为算力中心的咨询、建设、运维及算力租赁、运维等。</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="inlineStr">
-        <is>
-          <t>数字货币, 算力</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>数字货币</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>韩国金融监管机构将在10月提交关于稳定币的监管法案。日本稳定币发行商JPYC获得日本政府批准发行稳定币。</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>sz002177</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>御银股份</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="H66" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>数字货币|公司是金融设备整体解决服务商，在ATM设备产能和销售规模在国内ATM制造厂商中位居前列。公司于2020年2月17日在互动平台表示，公司有数字货币ATM机上交易的相关技术储备。</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="inlineStr">
-        <is>
-          <t>数字货币</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>PCB</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>中信证券研报指出，随着AI算力基础设施建设提速，印制电路板（PCB）需求爆发。</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>sh600110</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>诺德股份</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I67" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>PCB+固态电池|1.公司紧跟AI算力设备对高频材料的需求升级，新一代HVLP铜箔产品已通过部分客户认证，可满足高速覆铜板（CCL）对低损耗、高稳定性的要求。
-2.公司开发了一批适用于固态电池的集流体产品，其中包括耐高温铜箔集流体、多孔铜箔集流体、极薄双功能铜箔集流体、双面毛铜箔集流体、高耐腐蚀性合金铜箔集流体及泡沫铜箔集流体，为固态电池多路线发展提供材料支撑。</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="inlineStr">
-        <is>
-          <t>PCB, 固态电池</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>PCB</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>中信证券研报指出，随着AI算力基础设施建设提速，印制电路板（PCB）需求爆发。</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>sh603186</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>华正新材</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="n">
-        <v>43.21</v>
-      </c>
-      <c r="H68" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I68" s="2" t="inlineStr"/>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>PCB+固态电池|1.公司主要从事覆铜板及粘结片、复合材料和膜材料等产品的设计、研发、生产及销售，其中覆铜板产品直接下游客户为PCB企业。
-2.公司铝塑膜产品正积极拓展和布局在固态和半固态电池的应用。</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="inlineStr">
-        <is>
-          <t>PCB, 固态电池</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>CRO/CMO</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>国家药监局药品注册管理司司长杨霆表示，在研发管线方面，中国目前创新药的研发管线占到了全球的大约1/4，在临床试验上每年有大概3000个项目正在开展临床试验。</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>sz300404</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>博济医药</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="H69" s="2" t="n">
-        <v>19.98</v>
-      </c>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>CRO|公司是一家专业的CRO服务提供商，是国内为数不多的能够提供一站式全流程服务的CRO企业，为国内外医药企业提供药品、保健品、医疗器械研发与生产全流程“一站式”外包服务（CRO）。</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="inlineStr">
-        <is>
-          <t>CRO</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>CRO/CMO</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>国家药监局药品注册管理司司长杨霆表示，在研发管线方面，中国目前创新药的研发管线占到了全球的大约1/4，在临床试验上每年有大概3000个项目正在开展临床试验。</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>sh603520</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">司太立  </t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="H70" s="2" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>CMO/CDMO|公司持续布局原料药和中间体CMO/CDMO业务，依托在特色原料药领域积累的技术，培育专业的CMO/CDMO平台。</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="inlineStr">
-        <is>
-          <t>CMO/CDMO</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>光通信</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>7月机构调研热潮涌动，AI算力赛道成关注焦点之一。部分国内光模块龙头企业上半年业绩预告亮眼，获基金公司密集调研。</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>sh603083</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>剑桥科技</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>64.83</v>
-      </c>
-      <c r="H71" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>光模块|剑桥科技在互动平台表示，公司对于800G光模块是有长期发展规划和坚定信心的。在良率方面，公司从研发端到生产端都进行了大量的投入和反复的验证测试，当前各规格产品的良率达到产品设计的预期。</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="inlineStr">
-        <is>
-          <t>光模块</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C72" s="2" t="inlineStr"/>
-      <c r="D72" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>sz002231</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>*ST奥维</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="H72" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>10天9板</t>
-        </is>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司在军工业务方面坚持国产自主可控的发展方向，聚焦野战通信与单兵信息化系统领域，主要产品包括无线宽带传输系统、自主可控国产化设备等。</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C73" s="2" t="inlineStr"/>
-      <c r="D73" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>sh600421</t>
-        </is>
-      </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*ST华嵘 </t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H73" s="2" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I73" s="2" t="inlineStr">
-        <is>
-          <t>6天6板</t>
-        </is>
-      </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司实控人是中天控股集团下属浙江恒顺投资，集团旗下中天氟硅2023年撤回ipo，原计划通过IPO募集14.42亿元资金，用于30万吨/年有机硅单体扩能技改及综合利用项目。</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C74" s="2" t="inlineStr"/>
-      <c r="D74" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>sh603021</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ST华鹏  </t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="H74" s="2" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司是国内日用玻璃行业的企业之一，主营业务为研发、生产和销售玻璃器皿产品和玻璃瓶罐。</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C75" s="2" t="inlineStr"/>
-      <c r="D75" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>sh600107</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ST尔雅  </t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="H75" s="2" t="n">
-        <v>5.050000000000001</v>
-      </c>
-      <c r="I75" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司的主营业务为服装、服饰和纺织品研发、设计、制造和销售。</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C76" s="2" t="inlineStr"/>
-      <c r="D76" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>sh600265</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ST景谷  </t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="H76" s="2" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="I76" s="2" t="inlineStr">
-        <is>
-          <t>5天3板</t>
-        </is>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司是云南省林业产业化、农业产业化和国家重点扶贫龙头企业。公司主要从事林化产品加工和人造板制造、森林资源培育、木材采运、加工及林业技术研发等业务。</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C77" s="2" t="inlineStr"/>
-      <c r="D77" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>sh600165</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ST宁科  </t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="H77" s="2" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="I77" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司购买中国科学院微生物研究所的月桂二酸生产技术，通过设立子公司恒力新材建设5万吨/年产月桂二酸项目。</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C78" s="2" t="inlineStr"/>
-      <c r="D78" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>sh603268</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*ST松发 </t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="H78" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I78" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 拟收购恒力重工主营船舶及高端装备的研发、生产及销售，已确定排产新造船舶140艘，货值约108亿美元，船型包含散货船、VLCC、VLOC 和集装箱船等。</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C79" s="2" t="inlineStr"/>
-      <c r="D79" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>sh600243</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*ST海华 </t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="H79" s="2" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="I79" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 青海华鼎与源鑫隆昌、茫崖源鑫签署增资协议，约定青海华鼎以现金增资5083.88万元取得茫崖源鑫51%的股权。上市公司称，茫崖源鑫所处的天然气行业具有良好的发展前景。</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C80" s="2" t="inlineStr"/>
-      <c r="D80" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>sz000691</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>*ST亚太</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H80" s="2" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C81" s="2" t="inlineStr"/>
-      <c r="D81" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>sh603377</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ST东时  </t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H81" s="2" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="I81" s="2" t="inlineStr"/>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司持有海若通航55%的股权，海若通航是一家具备CCAR-91部通航作业，CCAR-141部飞行培训，CCAR-145部航空器维修资质的通用航空运营商。</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C82" s="2" t="inlineStr"/>
-      <c r="D82" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>sh600360</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*ST华微 </t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="H82" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I82" s="2" t="inlineStr"/>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司是国内技术领先、产品种类最为齐全的功率半导体器件IDM公司，已建立从高端二极管、单双向可控硅、MOS系列产品到第六代IGBT的功率半导体器件产品体系。</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C83" s="2" t="inlineStr"/>
-      <c r="D83" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>sz002199</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>*ST东晶</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="H83" s="2" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I83" s="2" t="inlineStr"/>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司致力于高精度、高稳定性、高品质石英晶体元器件系列产品的研发、设计与生产。公司与日本松下、索尼、东芝、夏普、 JVC，以及韩国三星、LG 和国内华为、中兴、 OPPO、小米等公司保持长期稳定的战略合作关系。</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C84" s="2" t="inlineStr"/>
-      <c r="D84" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>sh600696</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*ST岩石 </t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="H84" s="2" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="I84" s="2" t="inlineStr"/>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 1.公司主要从事商业保理、融资租赁、不动产运营管理和大宗商品贸易。
-2.公司持有江西章贡酒业有限责任公司25%股权。章贡酒业是全国白酒工业百强企业，江西省重点酿酒企业。</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C85" s="2" t="inlineStr"/>
-      <c r="D85" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>sz002581</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>ST未名</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="H85" s="2" t="n">
-        <v>5.050000000000001</v>
-      </c>
-      <c r="I85" s="2" t="inlineStr"/>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司全资子公司山东衍渡以自主创新建立的高表达重组蛋白平台为依托，构建了多个生物制品药物研发体系，涵盖眼科、儿科、神内科等等。</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C86" s="2" t="inlineStr"/>
-      <c r="D86" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>sz002898</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>*ST赛隆</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="H86" s="2" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="I86" s="2" t="inlineStr"/>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司已建成集医药中间体、原料药、制剂的研发、生产、营销和技术服务为一体的医药全产业链的现代化制药企业。</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C87" s="2" t="inlineStr"/>
-      <c r="D87" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>sz000668</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>*ST荣控</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="H87" s="2" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="I87" s="2" t="inlineStr"/>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司主营业务为房地产开发，经营模式以自主开发销售为主，曾推出国内第一个小户型楼盘，第一家运动主题社区，在业内产生较大影响。</t>
-        </is>
-      </c>
-      <c r="K87" s="2" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C88" s="2" t="inlineStr"/>
-      <c r="D88" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>sz300147</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>ST香雪</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="H88" s="2" t="n">
-        <v>20.05</v>
-      </c>
-      <c r="I88" s="2" t="inlineStr"/>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司长期专注于以抗病毒口服液、板蓝根颗粒为主导产品的感冒中成药领域，目前可生产片剂、胶囊剂、颗粒剂、口服液、气雾剂等5种剂型。</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="C89" s="2" t="inlineStr"/>
-      <c r="D89" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>sz002058</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>*ST威尔</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="H89" s="2" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="I89" s="2" t="inlineStr"/>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司控股子公司紫燕机械下属的紫燕模具为特斯拉提供汽车检具方面的服务。</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>0.8500000000000001</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C90" s="2" t="inlineStr"/>
       <c r="D90" s="2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>sz002197</t>
+          <t>sh605028</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>ST证通</t>
+          <t>世茂能源</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>8.01</v>
+        <v>24.42</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="I90" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J90" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司基于OpenHarmony 的“1+N”产业布局，主要围绕金融支付产品线、数智终端产品线、行业自助产品线，在金融、教育、制造、能源、安平等多领域能够一站式为行业客户提供基于 OpenHarmony 的数字化转型服务</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="inlineStr"/>
+          <t>电力|公司是以生活垃圾和燃煤为主要原材料的热电联产企业，为客户提供工业用蒸汽并发电上网。</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -4601,33 +4590,33 @@
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>sh603158</t>
+          <t>sz002177</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>腾龙股份</t>
+          <t>御银股份</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>12.85</v>
+        <v>8.26</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>10.02</v>
+        <v>9.99</v>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>5天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J91" s="2" t="inlineStr">
         <is>
-          <t>汽车热管理|公司热管理管路系统相关产品可应用于新能源车。</t>
+          <t>数字货币|公司是金融设备整体解决服务商，在ATM设备产能和销售规模在国内ATM制造厂商中位居前列。公司于2020年2月17日在互动平台表示，公司有数字货币ATM机上交易的相关技术储备。</t>
         </is>
       </c>
       <c r="K91" s="2" t="inlineStr">
         <is>
-          <t>汽车热管理</t>
+          <t>数字货币</t>
         </is>
       </c>
     </row>
@@ -4648,33 +4637,30 @@
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>sh603192</t>
+          <t>sh603928</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>汇得科技</t>
+          <t>兴业股份</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>27.45</v>
+        <v>17.67</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>10.02</v>
       </c>
-      <c r="I92" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+      <c r="I92" s="2" t="inlineStr"/>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>TPU|公司主营业务为聚氨酯树脂产品的研发、生产、销售与技术服务，主要产品为合成革用聚氨酯（PU）、聚氨酯弹性体原液和聚酯多元醇。</t>
+          <t>固态电池+光刻胶|1.公司已成功研发酚醛树脂，酚醛树脂在电池负极材料的应用有着显著的进步，是未来固态电池、钾离子电池等颠覆性技术的“核心材料基石”。
+2.公司已研发成功半导体光刻胶用酚醛树脂、特种半导体封装用酚醛树脂等一批特种有机合成功能新材料。</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
         <is>
-          <t>TPU</t>
+          <t>固态电池, 光刻胶</t>
         </is>
       </c>
     </row>
@@ -4695,33 +4681,29 @@
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>sh600076</t>
+          <t>sz002066</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>康欣新材</t>
+          <t>瑞泰科技</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>2.97</v>
+        <v>14.63</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I93" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
+      <c r="I93" s="2" t="inlineStr"/>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>集装箱底板|集装箱底板龙头，公司主要从事集装箱底板研发、生产和销售，以及营林造林和优质种苗培育，主要产品包括集装箱底板、环保板和多种林产。</t>
+          <t>耐火材料|中国建材集团旗下上市公司，主营业务为定形和不定形耐火材料以及各类耐磨材料的研发、生产、销售以及综合服务。</t>
         </is>
       </c>
       <c r="K93" s="2" t="inlineStr">
         <is>
-          <t>集装箱底板</t>
+          <t>耐火材料</t>
         </is>
       </c>
     </row>
@@ -4742,29 +4724,29 @@
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>sh600805</t>
+          <t>sh600671</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>悦达投资</t>
+          <t>天目药业</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>5.91</v>
+        <v>18.58</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>10.06</v>
+        <v>10.01</v>
       </c>
       <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>无人车|公司所属悦达专用车公司已开发了18T纯电动无人驾驶洗扫车，该车辆已达到L4级别，可以独立进行无人驾驶洗扫和清洗作业，主要在公园、机场、码头、矿区、工厂厂区和旅游景区等低速限定场景进行运营。</t>
+          <t>中药|公司主要从事医药健康产业，从事药品及保健食品的研发、制造及中药材种植，是集药品研发、制造、销售于一体的医药企业。</t>
         </is>
       </c>
       <c r="K94" s="2" t="inlineStr">
         <is>
-          <t>无人车</t>
+          <t>中药</t>
         </is>
       </c>
     </row>
@@ -4785,16 +4767,16 @@
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>sh603139</t>
+          <t>sz002622</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>康惠制药</t>
+          <t>皓宸医疗</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>25.18</v>
+        <v>3.96</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>10</v>
@@ -4802,12 +4784,12 @@
       <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>实控人拟变更|康惠制药公告称，公司控股股东康惠控股与悦合智创签署股份转让协议，康惠控股拟向悦合智创协议转让公司股份2197.36万股（占公司股份总数的22%），转让价格24.7元/股，总价款5.43亿元。若交易顺利完成，公司控股股东将由康惠控股变更为悦合智创，实控人将由王延岭变更为李红明、王雪芳夫妇。</t>
+          <t>口腔医疗|公司购买德伦医疗51.00%股权。德伦医疗是一家以口腔医疗服务连锁经营为核心，专注于口腔疾病的诊断、治疗以及口腔保健、修复服务等口腔医疗服务的企业。</t>
         </is>
       </c>
       <c r="K95" s="2" t="inlineStr">
         <is>
-          <t>实控人拟变更</t>
+          <t>口腔医疗</t>
         </is>
       </c>
     </row>
@@ -4828,29 +4810,29 @@
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>sz002397</t>
+          <t>sh600510</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>梦洁股份</t>
+          <t xml:space="preserve">黑牡丹  </t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>3.96</v>
+        <v>7.71</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="I96" s="2" t="inlineStr"/>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>纺织|公司自有品牌“梦洁宝贝”为行业内首个儿童家纺品牌，一直专注于为儿童提供健康快乐的家居生活体验，能满足儿童家居生活的不同需求。</t>
+          <t>基建+纺织|黑牡丹(集团)股份有限公司始建于1940年，2002年于上交所上市，是一家业务涵盖新基建、新型城镇化建设和纺织服装三大板块的国有控股上市公司。</t>
         </is>
       </c>
       <c r="K96" s="2" t="inlineStr">
         <is>
-          <t>纺织</t>
+          <t>基建, 纺织</t>
         </is>
       </c>
     </row>
@@ -4871,16 +4853,16 @@
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>sh605028</t>
+          <t>sz002725</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>世茂能源</t>
+          <t>跃岭股份</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>22.2</v>
+        <v>16.04</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>10.01</v>
@@ -4888,12 +4870,12 @@
       <c r="I97" s="2" t="inlineStr"/>
       <c r="J97" s="2" t="inlineStr">
         <is>
-          <t>电力|公司是以生活垃圾和燃煤为主要原材料的热电联产企业，为客户提供工业用蒸汽并发电上网。</t>
+          <t>磷化铟|参股公司中石光芯自主掌握InP外延结构设计、材料生长工艺及精细化工程控制技术，可生产高纯度的磷化铟(InP)外延片，支撑光芯片的高性能需求。</t>
         </is>
       </c>
       <c r="K97" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>磷化铟</t>
         </is>
       </c>
     </row>
@@ -4914,29 +4896,30 @@
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>sh603213</t>
+          <t>sz003010</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>镇洋发展</t>
+          <t>若羽臣</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>15.29</v>
+        <v>59.43</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="I98" s="2" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr">
         <is>
-          <t>化工|公司主营业务为氯碱相关产品的研发、生产与销售，采用国家产业政策鼓励的零极距离子膜法盐水电解工艺生产烧碱，联产出氯气、氢气，并以此为基础发展自身的碱、氯、氢三大产品链，具体包括氯碱类产品、MIBK类产品和其他产品。</t>
+          <t>日化+电商|1.若羽臣旗下斐萃已与多家头部原料企业达成战略合作，依托合成生物技术推进原料和产品的深度联合研发，并在全球范围内发掘了“红宝石油”这一兼具抗氧、抗炎以及提升代谢等多重功效的超级原料。
+2.公司是面向全球优质消费品牌的电子商务综合服务提供商，致主要业务包括线上代运营、渠道分销以及品牌策划，服务内容涵盖品牌定位、店铺运营、渠道分销、整合营销、数据挖掘、供应链管理等。</t>
         </is>
       </c>
       <c r="K98" s="2" t="inlineStr">
         <is>
-          <t>化工</t>
+          <t>日化, 电商</t>
         </is>
       </c>
     </row>
@@ -4957,29 +4940,29 @@
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>sh603657</t>
+          <t>sz002476</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>春光科技</t>
+          <t>宝莫股份</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>38.7</v>
+        <v>5.67</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>10.01</v>
+        <v>10.1</v>
       </c>
       <c r="I99" s="2" t="inlineStr"/>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>家电|公司主营业务为吸尘器零件、橡塑软管、塑料制品、小家电的研发、制造和销售及自营进出口业务。</t>
+          <t>油气|公司是行业领先的三次采油和水处理聚丙烯酰胺生产供应商，勘探开发业务主要包括加拿大锐利能源油气开发和新疆布尔津区块勘探。</t>
         </is>
       </c>
       <c r="K99" s="2" t="inlineStr">
         <is>
-          <t>家电</t>
+          <t>油气</t>
         </is>
       </c>
     </row>
@@ -5000,29 +4983,29 @@
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>sh603115</t>
+          <t>sh600651</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>海星股份</t>
+          <t>飞乐音响</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>18.9</v>
+        <v>7.08</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>10.01</v>
+        <v>9.94</v>
       </c>
       <c r="I100" s="2" t="inlineStr"/>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>电极箔|公司是国内规模领先、技术领先的铝电解电容器用电极箔生产企业，为国内少数具备铝电解电容器用低压、中高压全系列电极箔生产能力，产品规格较全、技术水平较高的企业之一。</t>
+          <t>阶跃星辰|公司控股股东上海仪电集团与阶跃星辰共同参股上海智能算力科技公司。</t>
         </is>
       </c>
       <c r="K100" s="2" t="inlineStr">
         <is>
-          <t>电极箔</t>
+          <t>阶跃星辰</t>
         </is>
       </c>
     </row>
@@ -5043,29 +5026,29 @@
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>sh605376</t>
+          <t>sh600722</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>博迁新材</t>
+          <t>金牛化工</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>46.24</v>
+        <v>6.8</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>9.99</v>
+        <v>10.03</v>
       </c>
       <c r="I101" s="2" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>光伏|公司凭借在高端纳米粉体技术方面的积累拓展银包铜粉，银包铜粉如替代部分银粉应用在HJT异质结电池中，可降低电池片成本，公司此类产品目前处于量产设备优化升级阶段，数家下游浆料客户与光伏组件厂家针对公司银包铜粉的各项性能正在评测验证。</t>
+          <t>化工|公司的主要业务为甲醇的生产和销售。公司的主要业务由持股50%的控股子公司金牛旭阳经营，金牛旭阳拥有的甲醇生产能力为20万吨/年。</t>
         </is>
       </c>
       <c r="K101" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>化工</t>
         </is>
       </c>
     </row>
@@ -5086,30 +5069,29 @@
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>sz002510</t>
+          <t>sz002468</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>天汽模</t>
+          <t>申通快递</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>7.6</v>
+        <v>19.01</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
       <c r="I102" s="2" t="inlineStr"/>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>汽车+大飞机|1.公司已成为全球生产规模最大的汽车覆盖件模具企业，特斯拉是公司新能源汽车模具客户之一。
-2.子公司沈阳天汽模为C919提供了部分机身钣金零部件产品。</t>
+          <t>快递|主要从事以快递业务为核心的综合物流服务。积极整合出口专线产品。</t>
         </is>
       </c>
       <c r="K102" s="2" t="inlineStr">
         <is>
-          <t>汽车, 大飞机</t>
+          <t>快递</t>
         </is>
       </c>
     </row>
@@ -5130,115 +5112,29 @@
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>sh603336</t>
+          <t>sh600864</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>宏辉果蔬</t>
+          <t>哈投股份</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>9.17</v>
+        <v>8.24</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>9.950000000000001</v>
+        <v>10.01</v>
       </c>
       <c r="I103" s="2" t="inlineStr"/>
       <c r="J103" s="2" t="inlineStr">
         <is>
-          <t>果蔬|公司是一家集果蔬产品的种植管理、采后收购、产地预冷、冷冻仓储、预选分级、加工包装、冷链配送于一体的专业生鲜产品服务商，主要产品包括约46个品类的水果、约43个品类的蔬菜以及部分品类的水产品，品种涵盖全国南北及进口的各式特色果蔬。</t>
+          <t>券商|公司全资子公司江海证券业务范围涵盖了证券公司所有传统业务类型，包括证券承销与保荐、证券资产管理、证券经纪、证券自营、证券投资咨询、融资融券、证券投资基金代销、代销金融产品等，并已开拓部分创新业务。</t>
         </is>
       </c>
       <c r="K103" s="2" t="inlineStr">
         <is>
-          <t>果蔬</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr"/>
-      <c r="D104" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E104" s="2" t="inlineStr">
-        <is>
-          <t>sh600619</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>海立股份</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="H104" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I104" s="2" t="inlineStr"/>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>光刻机|海立集团与微电子装备集团双方领导以封装光刻机得冷却系统配套为起点，逐步从零部件级供应合作提升为系统级供应合作。</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="inlineStr">
-        <is>
-          <t>光刻机</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="inlineStr"/>
-      <c r="D105" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>sz000617</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>中油资本</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="H105" s="2" t="n">
-        <v>9.950000000000001</v>
-      </c>
-      <c r="I105" s="2" t="inlineStr"/>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>跨境支付|公司为昆仑银行大股东，昆仑银行是参与CIPS的银行机构之一。</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="inlineStr">
-        <is>
-          <t>跨境支付</t>
+          <t>券商</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5285,7 +5181,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -5300,31 +5196,31 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sz002873</t>
+          <t>sh603626</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>新天药业</t>
+          <t>科森科技</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sz002272</t>
+          <t>sz002158</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>川润股份</t>
+          <t>汉钟精机</t>
         </is>
       </c>
     </row>
@@ -5334,102 +5230,102 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sh603626</t>
+          <t>sh605303</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>科森科技</t>
+          <t>园林股份</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sz002158</t>
+          <t>sh600980</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>汉钟精机</t>
+          <t>北矿科技</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sz002364</t>
+          <t>sh600590</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>中恒电气</t>
+          <t>泰豪科技</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sh600110</t>
+          <t>sh600658</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>诺德股份</t>
+          <t xml:space="preserve">电子城  </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sz002052</t>
+          <t>sz002428</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>同洲电子</t>
+          <t>云南锗业</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sh688098</t>
+          <t>sz002553</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>申联生物</t>
+          <t>南方精工</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>sz002645</t>
+          <t>sz000799</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>华宏科技</t>
+          <t>酒鬼酒</t>
         </is>
       </c>
     </row>
@@ -5439,12 +5335,12 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>sh605068</t>
+          <t>sh600503</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>明新旭腾</t>
+          <t>华丽家族</t>
         </is>
       </c>
     </row>
@@ -5454,12 +5350,12 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>sh603192</t>
+          <t>sh603158</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>汇得科技</t>
+          <t>腾龙股份</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5365,12 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>sz300810</t>
+          <t>sh605028</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>中科海讯</t>
+          <t>世茂能源</t>
         </is>
       </c>
     </row>
@@ -5484,12 +5380,12 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>sh603083</t>
+          <t>sz002177</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>剑桥科技</t>
+          <t>御银股份</t>
         </is>
       </c>
     </row>
@@ -5499,12 +5395,12 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>sh603339</t>
+          <t>sh600218</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>四方科技</t>
+          <t>全柴动力</t>
         </is>
       </c>
     </row>
@@ -5514,162 +5410,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>sh605303</t>
+          <t>sh603038</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>园林股份</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>sz002343</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>慈文传媒</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>sz002131</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>利欧股份</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>sz002600</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>领益智造</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>sh600400</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>红豆股份</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>sh600410</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>sh600990</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>四创电子</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>sz002657</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>中科金财</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>sz002871</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>伟隆股份</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>sz002046</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>国机精工</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>sz300049</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>福瑞股份</t>
+          <t>华立股份</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="104" customWidth="1" min="3" max="3"/>
+    <col width="101" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="202" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="257" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,1042 +557,1072 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sh600246</t>
+          <t>sh605303</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>万通发展</t>
+          <t>园林股份</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>11.61</v>
+        <v>22.04</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>10.05</v>
+        <v>9.98</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>6天6板</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>拟收购数渡科技|万通发展公告称，公司拟通过增资及股权转让方式合计投资8.54亿元取得数渡科技62.98%股权。投资完成后，数渡科技将成为公司控股子公司并纳入合并报表。标的公司主要从事高速互连芯片设计与研发以及提供ASIC芯片定制设计服务。</t>
+          <t>参股云针科技|公司控股子公司芸合科技参股云针科技15%股权，公司实控人吴光洪持有浙江云针信息科技40%的股份，浙江云针旗下拥有x86服务器，ARM服务器，GPU服务器等产品。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>拟收购数渡科技</t>
+          <t>参股云针科技</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sz300192</t>
+          <t>sz002217</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>科德教育</t>
+          <t>合力泰</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>21.59</v>
+        <v>3.38</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="I3" s="2" t="inlineStr"/>
+        <v>10.1</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>参股中昊芯英|参股的中昊芯英是国内掌握TPU架构训推一体AI芯片核心技术的公司，致力于打造“自研训练芯片+超算集群+预训练大模型”的产业价值链。</t>
+          <t>算力+机器人|1.公司与重整投资人杭州骋风而来共设合资公司智泰驰骋，致力于开发算力底座、算力平台运营及算力应用服务等业务。
+2.2022年5月12日公司在互动平台表示，公司在服务型机器人领域有摄像头产品布局，已经研发成功。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>参股中昊芯英</t>
+          <t>算力, 机器人</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sh605255</t>
+          <t>sh600728</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>天普股份</t>
+          <t>佳都科技</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>29.3</v>
+        <v>7.5</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr"/>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英持股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
+          <t>算力|公司在2024年年报中透露，公司基于FP8混合精度预训练等技术，实现知行大模型训练效率较2024年初提升超150%，并在国产千卡GPU集群上完成了大模型优化训练方法的验证。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英持股</t>
+          <t>算力</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sh688343</t>
+          <t>sh603019</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>云天励飞-U</t>
+          <t>中科曙光</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>79.09</v>
+        <v>91.11</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司自研芯片DeepEye1000已于2019年起实现独立商用，已与海康威视、阿里巴巴平头哥等建立了业务合作关系。DeepEye1000单芯片提供2Tops可编程运算能力，该芯片具有可编程、高效率、智升级等特点，应用DeepEye1000的厂商不仅能够直接应用云天励飞自研的上百种计算机视觉算法，也能够通过公司的开放的工具链，搭载自研或第三方厂商的算法。</t>
+          <t>AI服务器|中科院旗下计算技术研究所所属上市公司，公司在高端计算领域开发了基于国产处理器的多款服务器、工作站，于2019年起布局AI算力服务。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>AI服务器</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sh688227</t>
+          <t>sh688228</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>品高股份</t>
+          <t xml:space="preserve">开普云  </t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>39.43</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>19.99</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>代理算力芯片|公司是江原科技的投资人和其产品境外销售独家代理商。江原科技D10芯片作为国内首个全国产且量产的AI算力芯片，其芯片性能已达预期。</t>
+          <t>算力+并购重组|1.2024年1月25日公告，公司拟与成都华创鲲航科技合伙企业（有限合伙）共同出资设立合资公司。合资公司注册资本2亿元，开普云拟出资1.2亿元，占比60%。合资公司以提供行业大模型、人工智能大模型与算力软硬件一体化融合产品、人工智能算力运营服务、人工智能算力优化调度平台、人工智能大模型MaaS/SaaS服务等。
+2.开普云公告称，公司拟通过支付现金的方式向深圳金泰克购买南宁泰克半导体有限公司70%股权，交易价格尚未确定，交易对方深圳金泰克将其存储产品业务的经营性资产转移至南宁泰克。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>代理算力芯片</t>
+          <t>算力, 并购重组</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sz002685</t>
+          <t>sz301396</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>华东重机</t>
+          <t>宏景科技</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.619999999999999</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>9.950000000000001</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|子公司厦门锐信图芯的GPU已经与国内主流CPU、操作系统等生态厂商完成适配，在国产化台式机、一体机、笔记本和平板电脑当中批量应用，产品已切入到党政办公、交通、教育、税务、电力和轨道交通等行业。</t>
+          <t>算力租赁|宏景科技公告，公司与Y公司签署《智算项目服务合同》，合同总金额为7.21亿元，合同期限为五年。合同内容包括公司向Y公司提供服务器、组网配套服务以及对服务器进行必要的改配服务，并提供算力服务。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力租赁</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sz002290</t>
+          <t>sh600415</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>禾盛新材</t>
+          <t>小商品城</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>32.89</v>
+        <v>23.02</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>参股熠知电子|2025年6月11日公告，公司拟以自有资金或自筹资金2.5亿元向熠知电子增资，增资后预计持有熠知电子10%股权。熠知电子系国内少数已商业落地ARM服务器处理器芯片公司，熠知TF7000系列实测性能达到国内先进水平，可同时覆盖人工智能、云计算、边缘计算多场景。熠知电子则是国产化CPU领域的核心企业之一，拥有先进的ARM架构。</t>
+          <t>算力+跨境支付|1.2023年4月24日公告，公司与浙江联通签订《战略合作框架协议》，拟合作建设运营“一带一路”国际数据中心；为推动国际数据中心项目尽快落地，公司拟投资5亿元设立义乌云带路数据科技有限公司。国际数据中心项目一期规划机柜3000架，计算能力约12万VCPU,智算能力约50Pflops。
+2.公司于2022年7月完成了对快捷通支付牌照的收购，收购完成后公司对支付牌照正式启用了中文品牌名“义支付”，英文品牌名“Yiwu Pay”，并获批跨境人民币备案资格。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>参股熠知电子</t>
+          <t>算力, 跨境支付</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>《稀土开采和稀土冶炼分离总量调控管理暂行办法》8月22日发布。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sh688041</t>
+          <t>sz002378</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>海光信息</t>
+          <t>章源钨业</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>186.06</v>
+        <v>13.38</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="inlineStr"/>
+        <v>10.03</v>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司在国内率先完成了高端通用处理器和协处理器产品成功流片，产品包括海光通用处理器（CPU）和海光协处理器（DCU）。海光CPU产品规划为海光7000系列、海光5000系列和海光3000系列；海光DCU协处理器全面兼容ROCm GPU计算生态。</t>
+          <t>钨+稀土|1.公司建立了从钨上游采矿、选矿，中游冶炼至下游精深加工的完整一体化生产体系，是国内钨行业产业链完整的厂商之一。
+2.公司主营包括各种稀土氧化物、稀土金属、稀土发光材料、磁性材料等研发、生产和销售。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>钨, 稀土</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>《稀土开采和稀土冶炼分离总量调控管理暂行办法》8月22日发布。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sz300418</t>
+          <t>sz002057</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>昆仑万维</t>
+          <t>中钢天源</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44.38</v>
+        <v>11.45</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>20.01</v>
+        <v>9.99</v>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>算力芯片+数字货币|1.旗下艾捷科芯致力于推动算力芯片技术的突破，为人工智能、数据中心和高性能计算等领域提供强有力的硬件支持。
-2.公司于2019年10月31日在互动平台上称，Opera新推出的浏览器版本具备数字货币加密钱包功能。昆仑万维与董事长周亚伟合计持有Opera65.1%股份。</t>
+          <t>稀土+机器人|1.公司的永磁器件业务包括永磁铁氧体和烧结钕铁硼器件。永磁铁氧体器件是通过陶瓷工艺法制造而成的复合氧化物。
+2.公司生产制造的电池级四氧化三锰产品是较为理想的新能源电池正极材料，稀土永磁产品广泛应用于新能源汽车、绿色电力、机器人自动化、3C等相关领域，目前细分市场订单有涉及无人机与人形机器人领域。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>算力芯片, 数字货币</t>
+          <t>稀土, 机器人</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>《稀土开采和稀土冶炼分离总量调控管理暂行办法》8月22日发布。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sz002402</t>
+          <t>sh600010</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>和而泰</t>
+          <t>包钢股份</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>36.14</v>
+        <v>2.99</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>10.02</v>
+        <v>9.93</v>
       </c>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>参股摩尔线程|公司持有摩尔线程1.244%股份。摩尔线程以全功能GPU为核心，致力于向全球提供加速计算的基础设施和一站式解决方案，为各行各业的数智化转型提供强大的AI计算支持。</t>
+          <t>稀土永磁|公司主要从事矿产资源开发利用、钢铁产品的生产与销售，主要产品有稀土精矿、萤石精矿等矿产品。控股股东包钢集团拥有的白云鄂博矿是世界闻名的资源宝库，已探明的铁矿石储量为14亿吨，稀土储量居世界第一位，铌储量居世界第二位。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>参股摩尔线程</t>
+          <t>稀土永磁</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>《稀土开采和稀土冶炼分离总量调控管理暂行办法》8月22日发布。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sz301259</t>
+          <t>sz300748</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>艾布鲁</t>
+          <t>金力永磁</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>51.62</v>
+        <v>36.36</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>19.99</v>
+        <v>20</v>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>参股中昊芯英|2025年8月16日公告，子公司星罗中昊拟与中昊芯英及其股东签署《增资协议》和《股东协议》，星罗中昊将以自有资金出资9004.9632万元对中昊芯英进行货币增资。本次交易完成后，星罗中昊持有中昊芯英的股权比例由5.9076%增加至9.7346%。</t>
+          <t>稀土永磁+机器人|1.公司是集研发、生产和销售高性能钦铁硼永磁材料干一体的高新技术企业，是国内新能源和节能环保领域核心应用材料的领先供应商。
+2.公司一直十分关注机器人行业的发展，已在机器人及工业伺服电机领域深耕多年，具有深厚的技术积累，以及优质的客户资源，公司亦有信心把握未来市场机遇。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>参股中昊芯英</t>
+          <t>稀土永磁, 机器人</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>《稀土开采和稀土冶炼分离总量调控管理暂行办法》8月22日发布。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sh688256</t>
+          <t>836263.BJ</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>寒武纪-U</t>
+          <t>中航泰达</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1243.2</v>
+        <v>20.37</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>20</v>
+        <v>29.99</v>
       </c>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司专注于人工智能芯片产品的研发与技术创新，致力于打造人工智能领域的核心处理器芯片，是同时具备人工智能推理和训练智能芯片产品的企业，也是国内少数具有先进集成电路工艺（7nm）下复杂芯片设计经验的企业之一。</t>
+          <t>稀土永磁|参股公司包钢节能旗下绿冶环能公司“新建50000吨高性能钕铁硼速凝合金项目节能报告”顺利通过评审。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>稀土永磁</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.9</v>
+        <v>1.23</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>英伟达机器人账号在社交平台发布预热推文，8月25日英伟达机器人“新大脑”即将揭晓。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sh605303</t>
+          <t>sh605288</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>园林股份</t>
+          <t>凯迪股份</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>20.04</v>
+        <v>71.56</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5天5板</t>
+          <t>4天2板</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>参股服务器厂商|公司控股子公司芸合科技参股云针科技15%股权，公司实控人吴光洪持有浙江云针信息科技40%的股份，浙江云针旗下拥有x86服务器，ARM服务器，GPU服务器等产品。</t>
+          <t>光伏+机器人|1.公司生产的光伏支架产品已基本符合产业要求。
+2.公司主要产品为线性驱动系统，可以应用在机器人上。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>参股服务器厂商</t>
+          <t>光伏, 机器人</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.9</v>
+        <v>1.23</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>英伟达机器人账号在社交平台发布预热推文，8月25日英伟达机器人“新大脑”即将揭晓。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sz002217</t>
+          <t>sh603111</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>合力泰</t>
+          <t>康尼机电</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.07</v>
+        <v>7.47</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>算力+机器人|1.公司与重整投资人杭州骋风而来共设合资公司智泰驰骋，致力于开发算力底座、算力平台运营及算力应用服务等业务。
-2.2022年5月12日公司在互动平台表示，公司在服务型机器人领域有摄像头产品布局，已经研发成功。</t>
+          <t>高铁+机器人|1.公司是以轨道车辆现代化装备研发和制造为主、行业优势明显的高科技企业，是中国轨道车辆门系统国产化研发和制造基地。
+2.子公司康尼智控主要业务为电控技术研发、智能设备、机器人、仪器仪表、电动工具销售等，公司联合申报的《下肢功能康复训练》成功入选国家工信部《医疗领域机器人典型应用场景名单》。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>算力, 机器人</t>
+          <t>高铁, 机器人</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.9</v>
+        <v>1.23</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>英伟达机器人账号在社交平台发布预热推文，8月25日英伟达机器人“新大脑”即将揭晓。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sz002575</t>
+          <t>sz002611</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>群兴玩具</t>
+          <t>东方精工</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>9.32</v>
+        <v>20.22</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>算力租赁|公司成立图灵引擎战略涉足智能算力服务业务，运营的智算资源服务池算力规模不低于48PFlops（FP32）或1440PFlops（FP16），总显存不低于56TB。</t>
+          <t>机器人+英伟达|东方精工目前持有嘉腾机器人19.8366%的股权，英伟达NVIDIA曾在CES上展示嘉腾提供的AI大模型在AMR上的应用案例。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>算力租赁</t>
+          <t>机器人, 英伟达</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.9</v>
+        <v>1.23</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>英伟达机器人账号在社交平台发布预热推文，8月25日英伟达机器人“新大脑”即将揭晓。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sh600728</t>
+          <t>sz002277</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>佳都科技</t>
+          <t>友阿股份</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.82</v>
+        <v>7.19</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>10</v>
+        <v>9.94</v>
       </c>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>算力|公司作为最早一批将AI技术产品化并进行产品落地的人工智能软件和算法提供商，在算力、算法、数据等方面均有一定的积累。目前，佳都科技形成了智慧轨道交通、智慧城市交通、应急管理、公共安全四大板块的各类产品以及行业解决方案。公司自建的研发算力中心满足目前主流训练参数量的研发训练。</t>
+          <t>机器人+零售+芯片|1.公司出资7875万元认购隆深机器人15%股份。佛山隆深机器人有限公司是一家专业从事工业机器人系统集成、非标自动化设备及整线设计制造、机器人本体、控制器研发及智能制造服务的企业。
+2.公司是长沙及湖南省规模最大的百货零售企业，以百货零售为主要业务。
+3.2025年5月27日公告，公司拟通过发行股份及支付现金的方式购买深圳尚阳通科技股份有限公司100%股权，尚阳通专注于高端半导体功率器件芯片的研发设计。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>算力</t>
+          <t>机器人, 零售, 芯片</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.9</v>
+        <v>1.23</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>英伟达机器人账号在社交平台发布预热推文，8月25日英伟达机器人“新大脑”即将揭晓。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sz000818</t>
+          <t>sz300503</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>航锦科技</t>
+          <t>昊志机电</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>26.39</v>
+        <v>33.54</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>算力+DS概念|1.2024年2月6日公告，全资子公司航锦人工智能近期分别与迈异科技、易起联科技、泛超数字签订了《算力服务合同》，向迈异科技、易起联科技、泛超数字提供算力服务。
-2.幻方量化是公司旗下人工智能核心产品与整体解决方案提供商超擎数智的合作伙伴。</t>
+          <t>机器人|公司的主要产品包括主轴、转台、减速器、直线电机、伺服电机、伺服驱动、运动控制器等高端装备核心功能部件，其下游应用领域为数控机床、工业机器人及运动控制领域。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>算力, DS概念</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>算力芯片</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.9</v>
+        <v>3.98</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sh603019</t>
+          <t>sh600246</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>中科曙光</t>
+          <t>万通发展</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>82.83</v>
+        <v>12.77</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>算力服务器|中科院旗下计算技术研究所所属上市公司，公司在高端计算领域开发了基于国产处理器的多款服务器、工作站，于2019年起布局AI算力服务。</t>
+          <t>拟收购数渡科技|万通发展公告称，公司拟通过增资及股权转让方式合计投资8.54亿元取得数渡科技62.98%股权。投资完成后，数渡科技将成为公司控股子公司并纳入合并报表。标的公司主要从事高速互连芯片设计与研发以及提供ASIC芯片定制设计服务。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>算力服务器</t>
+          <t>拟收购数渡科技</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>算力芯片</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.9</v>
+        <v>3.98</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sz300113</t>
+          <t>sz300192</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>顺网科技</t>
+          <t>科德教育</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>27.24</v>
+        <v>25.91</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="inlineStr"/>
+        <v>20.01</v>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>算力租赁|公司自2017年以来已有布局，已落地300+个算力云边缘机房，将原来提供行业垂直算力服务的顺网雲升级为提供多层次算力服务的顺网算力，升级后的顺网算力将由算力云业务和智算中心业务共同组成；同时推出顺网算力塔、顺网算力市场等产品。</t>
+          <t>参股中昊芯英|参股的中昊芯英是国内掌握TPU架构训推一体AI芯片核心技术的公司，致力于打造“自研训练芯片+超算集群+预训练大模型”的产业价值链。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>算力租赁</t>
+          <t>参股中昊芯英</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>算力芯片</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.9</v>
+        <v>3.98</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sh600353</t>
+          <t>sh605255</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>旭光电子</t>
+          <t>天普股份</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>16.57</v>
+        <v>32.23</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I21" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>光刻机+算力|1.公司用于光刻机、等离子清洗/抛光等半导体设备领域的发射管产品已经客户验证通过，并实现批量销售。
-2.公司控股子公司睿控创合将DeepSeek大模型与边缘计算深度融合，推出睿智系列AI智算工控机，构建了从7B、14B、70B等不同容量参数模型运行环境。</t>
+          <t>股权转让+中昊芯英|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>光刻机, 算力</t>
+          <t>股权转让, 中昊芯英</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>算力芯片</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.9</v>
+        <v>3.98</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2025中国算力大会将于8月22日至24日在大同举行，本届大会以“算网筑基 智引未来”为主题。</t>
+          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sh600797</t>
+          <t>sz002402</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>浙大网新</t>
+          <t>和而泰</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>11.95</v>
+        <v>39.75</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I22" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>算力|公司旗下控股子公司华通云数据（持股比例80%）是一家国内技术领先的新型互联网综合服务提供商，主营业务包括IDC托管服务、互联网资源加速服务和云计算服务。目前已成为阿里巴巴的重要战略合作伙伴，是杭州市政府数据中心托管服务提供商。</t>
+          <t>参股摩尔线程|公司持有摩尔线程1.244%股份。摩尔线程以全功能GPU为核心，致力于向全球提供加速计算的基础设施和一站式解决方案，为各行各业的数智化转型提供强大的AI计算支持。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>算力</t>
+          <t>参股摩尔线程</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
+          <t>天风证券研报指出，混合精度（如FP8+FP16）技术通过降低传输频次减少能耗，但单次传输数据量显著增加，导致总传输量上升，推动液冷系统、高速光模块等配套设施需求增长。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sz002692</t>
+          <t>sh601869</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>远程股份</t>
+          <t>长飞光纤</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5.64</v>
+        <v>64.88</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>9.94</v>
+        <v>10</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>半导体|2025年1月17日公告，公司拟与新鼎纪元基金、苏新投资共同投资江苏新纪元半导体有限公司。新纪元公司注册资本为2.6亿元，后续三方拟增资入股。新纪元公司是一家IDM模式的半导体产品公司，于2024年10月8日注册成立，截至目前暂未实际经营。</t>
+          <t>光模块|子公司博创科技10G PON OLT 光模块出货量国内领先，在数通市场，已向多家国内外互联网客户批量供货25G 至400G 速率的中短距光模块、有源光缆和高速铜缆。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>光模块</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
+          <t>天风证券研报指出，混合精度（如FP8+FP16）技术通过降低传输频次减少能耗，但单次传输数据量显著增加，导致总传输量上升，推动液冷系统、高速光模块等配套设施需求增长。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sz000628</t>
+          <t>sh603083</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>高新发展</t>
+          <t>剑桥科技</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>61.33</v>
+        <v>72.88</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>10.01</v>
@@ -1600,90 +1630,90 @@
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>功率半导体|公司拟2.82亿元购买成都森未科技有限公司股权及其上层股东权益，交易完成后，公司以直接和间接方式控制森未科技69.4%的股权；以195.97万元购买成都高投芯未半导体有限公司98%的股权，购买芯未半导体控股权以购买森未科技控股权的成功实施为前提。交易完成以后，公司将具备功率半导体IGBT的研发及设计能力，主营业务将会增加功率半导体设计与销售等业务。</t>
+          <t>光模块|剑桥科技在互动平台表示，公司对于800G光模块是有长期发展规划和坚定信心的。在良率方面，公司从研发端到生产端都进行了大量的投入和反复的验证测试，当前各规格产品的良率达到产品设计的预期。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>功率半导体</t>
+          <t>光模块</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
+          <t>天风证券研报指出，混合精度（如FP8+FP16）技术通过降低传输频次减少能耗，但单次传输数据量显著增加，导致总传输量上升，推动液冷系统、高速光模块等配套设施需求增长。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sz001298</t>
+          <t>sz000070</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>好上好</t>
+          <t>特发信息</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>38.74</v>
+        <v>10.51</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>9.99</v>
+        <v>10.05</v>
       </c>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>华为海思+芯片分销|1.子公司天午科技为海思代理。
-2.公司是国内知名的电子元器件分销商，公司代理的芯片产品主要包括SoC芯片等。</t>
+          <t>光模块+算力|1.公司控股子公司四川华拓的光模块、光器件平台技术可以适用于CPO开发和拓展，同平台产品应用于数据中心领域，目前已出货。
+2.公司除自营数据中心项目外，还曾承接鹏城云脑二期项目Atlas900 AI计算集群及通用计算与存储系统的建设集成项目。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>华为海思, 芯片分销</t>
+          <t>光模块, 算力</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
+          <t>天风证券研报指出，混合精度（如FP8+FP16）技术通过降低传输频次减少能耗，但单次传输数据量显著增加，导致总传输量上升，推动液冷系统、高速光模块等配套设施需求增长。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sh688082</t>
+          <t>sz300757</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>盛美上海</t>
+          <t>罗博特科</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>142.21</v>
+        <v>270.36</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>20</v>
@@ -1691,102 +1721,105 @@
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>半导体设备|公司主要从事半导体专用设备的研发、生产和销售，主要产品包括半导体清洗设备、半导体电镀设备和先进封装湿法设备等。</t>
+          <t>CPO+半导体+光伏|1.2023年9月7日公司在互动平台表示，公司参股公司ficonTEC与华为海思合作业务涉及光测试和组装业务。
+2.公司购买斐控泰克、FSG和FAG各100%股权。目标公司是全球光子及半导体自动化封装和测试领域的领先设备制造商之一，其生产的设备主要用于光子半导体的微组装及测试。
+3.公司是一家研制高端自动化装备和基于工业互联网技术的智能制造执行系统软件（MES）的高新技术企业，产品主要应用于光伏电池领域。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>半导体设备</t>
+          <t>CPO, 半导体, 光伏</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
+          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。在此背景下，高多层板、高密度互连板(HDI板)、IC载板规划产值增长较快。</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sh603986</t>
+          <t>sz000016</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>兆易创新</t>
+          <t>深康佳Ａ</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>150.88</v>
+        <v>6.12</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>10</v>
+        <v>10.07</v>
       </c>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>存储芯片|公司是目前中国大陆领先的闪存芯片设计企业，主要业务为闪存芯片及其衍生产品、微控制器产品和传感器模块的研发、技术支持和销售。</t>
+          <t>消费电子+PCB|1.公司的Micro LED产品可应用于包括AR眼镜在内的各类显示设备。
+2.公司PCB业务由深圳市康佳电路有限责任公司作为统一管理运营主体，产品涉及金属基板、双面板、多层板、5G高频高速板及HDI（高密度互连技术）等。</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>存储芯片</t>
+          <t>消费电子, PCB</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
+          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。在此背景下，高多层板、高密度互连板(HDI板)、IC载板规划产值增长较快。</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sh688709</t>
+          <t>sh603228</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>成都华微</t>
+          <t>景旺电子</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>47.04</v>
+        <v>59.6</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>模拟芯片|公司专注于特种集成电路的研发、设计、测试与销售，主要产品涵盖特种数字及模拟集成电路两大领域。</t>
+          <t>PCB|公司专注于印制电路板行业，主要从事印制电路板的研发、生产和销售业务。公司主要产品种类包括双面及多层刚性电路板、柔性电路板（含贴装）和金属基电路板。</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>模拟芯片</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1830,7 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.66</v>
+        <v>2.25</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
@@ -1805,33 +1838,34 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sh603256</t>
+          <t>sz001359</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>宏和科技</t>
+          <t>平安电工</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>40.5</v>
+        <v>56.55</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>9.99</v>
+        <v>10</v>
       </c>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>电子玻纤布|公司是全球领先的中高端电子级玻璃纤维布专业厂商，是全球少数具备极薄布生产能力的厂商之一。公司主要产品为中高端电子级玻璃纤维布系列产品，为制造电子产品核心铜箔基板的重要原料。</t>
+          <t>PCB+固态电池|1.公司玻纤布产品主要分为工业级玻纤布和电子级玻纤布。其中电子级玻纤布可使基板具备优质的电气特性及机械强度，是主要用于印制电路覆铜板的绝缘增强材料。
+2.公司对固态电池行业的发展动态和趋势保持密切关注。云母是天然的高绝缘材料，耐高温、耐绝缘等特性可以在固态电池、人形机器人中有潜在的应用价值。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>电子玻纤布</t>
+          <t>PCB, 固态电池</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1876,7 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.66</v>
+        <v>2.25</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
@@ -1850,28 +1884,28 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sh600601</t>
+          <t>sh603124</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>方正科技</t>
+          <t>江南新材</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>7.89</v>
+        <v>83.70999999999999</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>10.04</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司已批量生产PCB产品应用于10G-100G-200G-400G-800G等光模块产品，同时，针对1.6T连接器和光模块产品，公司PCB产品已完成打样并具备批量生产能力。</t>
+          <t>PCB|公司主要从事铜基新材料的研发、生产与销售。公司核心产品包括铜球系列、氧化铜粉系列及高精密铜基散热片系列三大产品类别。公司自主研发的铜球系列产品已应用于各种类型与工艺的PCB以及光伏电池板的镀铜制程等领域；氧化铜粉系列产品已应用于PCB镀铜制程、锂电池PET复合铜箔制造、有机硅单体合成催化剂等领域。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -1883,152 +1917,155 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.66</v>
+        <v>2.16</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。在此背景下，高多层板、高密度互连板(HDI板)、IC载板规划产值增长较快。</t>
+          <t>国家药监局日前介绍，目前，我国医药产业规模位居全球第二位，在研创新药数目达到全球30%左右。</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sz002080</t>
+          <t>sh603716</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>中材科技</t>
+          <t>塞力医疗</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>35.29</v>
+        <v>34.67</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司自主研发的应用于高端PCB的第一代低介电产品获得国内知名客户“PCB多元化项目技术突破奖”，已量产量供。</t>
+          <t>创新药+AI医疗|1.公司战略投资的心血管领域长效治疗性疫苗的创新性研发公司——武汉华纪元生物技术开发有限公司，其自主研发国家1类生物创新药HJY-ATRQβ-001正式获得国家药品监督管理局（NMPA）的新药临床试验申请（IND）受理通知书。
+2.公司作为以“人工智能+医疗大数据”为基础的智慧医疗综合体系建设供应商，始终聚焦医疗技术更新迭代与医疗领域应用场景的创新融合。</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>创新药, AI医疗</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.66</v>
+        <v>2.16</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。在此背景下，高多层板、高密度互连板(HDI板)、IC载板规划产值增长较快。</t>
+          <t>国家药监局日前介绍，目前，我国医药产业规模位居全球第二位，在研创新药数目达到全球30%左右。</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sz301377</t>
+          <t>sh603669</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>鼎泰高科</t>
+          <t>灵康药业</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>68.06</v>
+        <v>6.26</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>19.99</v>
+        <v>10.02</v>
       </c>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>机器人+PCB|1.子公司广东鼎泰机器人科技有限公司被广东省工业和信息化厅评为“广东省机器人培育企业”。
-2.公司是一家专业为PCB、数控精密机件等领域的企业提供工具、材料、装备的一体化解决方案，具有自主研发和创新能力的高新技术企业。</t>
+          <t>创新药|公司在2025年半年报中透露，公司产品布局由普通仿制药转向高难度仿制药和创新药，紧抓政策机遇，积极布局改良型新药品种，2.2类新药品种艾司奥美拉唑镁碳酸氢钠干混悬剂（I）已获得临床试验批件，进一步丰富产品管线。</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>机器人, PCB</t>
+          <t>创新药</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.66</v>
+        <v>2.16</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。在此背景下，高多层板、高密度互连板(HDI板)、IC载板规划产值增长较快。</t>
+          <t>国家药监局日前介绍，目前，我国医药产业规模位居全球第二位，在研创新药数目达到全球30%左右。</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sh601208</t>
+          <t>sz002940</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>东材科技</t>
+          <t>昂利康</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>19.15</v>
+        <v>55.62</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>PCB+半导体|1.公司的双马树脂、活性酯等产品已被广泛应用于5G/5.5G/6G通信、高端算力、服务器等领域的PCB基板生产环节，并通过台光、生益科技等国内外一线覆铜板厂商供应到华为、苹果、英伟达（NVIDIA）、英特尔（intel）、思科（Cisco）等主流产业链体系。
-2.2023年9月6日公司在互动平台表示，公司与Chemax、种亿化学成立成都东凯芯半导体材料公司，重点开展高端光刻胶项目。</t>
+          <t>创新药|公司目前正在进行的创新药研发项目为注射用ALK-N001，该药物是一种创新的肿瘤微环境激活型的小分子偶联药物，已于2025年2月收到国家药品监督管理局签发的境内生产药品注册临床试验《受理通知书》。</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>PCB, 半导体</t>
+          <t>创新药</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.51</v>
+        <v>2.16</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>8月21日，DeepSeek发布DeepSeek-V3.1。据介绍，相比DeepSeek-R1-0528，DeepSeek-V3.1-Think能在更短时间内给出答案。</t>
+          <t>国家药监局日前介绍，目前，我国医药产业规模位居全球第二位，在研创新药数目达到全球30%左右。</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -2036,49 +2073,44 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sz002871</t>
+          <t>sz300683</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>伟隆股份</t>
+          <t>海特生物</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>18.43</v>
+        <v>59.41</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>7天4板</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>军工+AI|1.公司于2016年已取得中央军委装备发展部颁发的从事军品制造资格的《装备承制单位注册证书》和国军标GJB9001B质量管理体系认证，成为第三类装备承制单位。公司阀门产品主要服务领域为海军舰艇装备及军事基地建设设施配套。
-2.公司在智慧节能阀门项目中，逐步应用人工智能、互联网、物联网等先进技术，使阀门具有自适应、自调节、自诊断、远程监控等功能。</t>
+          <t>创新药|公司是一家以创建一流生物创新药企业为目标的湖北省高新技术生物制药企业，主营业务为生物制品(注射用鼠神经生长因子冻干粉针剂、注射用抗乙肝转移因子冻干粉针剂)、凝血酶和其他化学药品的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>军工, AI</t>
+          <t>创新药</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>8月21日，DeepSeek发布DeepSeek-V3.1。据介绍，相比DeepSeek-R1-0528，DeepSeek-V3.1-Think能在更短时间内给出答案。</t>
+          <t>国家统计局数据显示，7月份，社会消费品零售总额38780亿元，同比增长3.7%；其中，7月全国烟酒类零售总额433亿元，同比增长2.7%；1-7月，全国烟酒类零售总额3740亿元，同比增长5.2%。</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -2086,44 +2118,48 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sz000710</t>
+          <t>sh601579</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>贝瑞基因</t>
+          <t xml:space="preserve">会稽山  </t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>15.79</v>
+        <v>23.2</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>AI医疗|公司自主研发NLPearl遗传疾病人工智能临床决策支持系统、CNVisi智能报告解读系统，为科研和临床工作者提供智能决策支持。</t>
+          <t>黄酒|公司主要从事黄酒的生产、销售和研发等业务，公司及下属子公司主要拥有“会稽山”、“西塘”、“乌毡帽”、“唐宋”等主品牌。</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>AI医疗</t>
+          <t>黄酒</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>8月21日，DeepSeek发布DeepSeek-V3.1。据介绍，相比DeepSeek-R1-0528，DeepSeek-V3.1-Think能在更短时间内给出答案。</t>
+          <t>国家统计局数据显示，7月份，社会消费品零售总额38780亿元，同比增长3.7%；其中，7月全国烟酒类零售总额433亿元，同比增长2.7%；1-7月，全国烟酒类零售总额3740亿元，同比增长5.2%。</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -2131,44 +2167,44 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sh603171</t>
+          <t>sh600702</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>税友股份</t>
+          <t>舍得酒业</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>60.01</v>
+        <v>67</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>10.01</v>
+        <v>10</v>
       </c>
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>AI智能体|公司“犀友”AI智能体应用平台通过API调用，将通义千问大模型应用于数智化运营、财税咨询、爱搜税等多个AI SaaS场景中。</t>
+          <t>白酒|公司是“中国名酒”企业和川酒“六朵金花”之一，拥有“沱牌”、“舍得”两大中国驰名白酒品牌。</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>AI智能体</t>
+          <t>白酒</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>8月21日，DeepSeek发布DeepSeek-V3.1。据介绍，相比DeepSeek-R1-0528，DeepSeek-V3.1-Think能在更短时间内给出答案。</t>
+          <t>国家统计局数据显示，7月份，社会消费品零售总额38780亿元，同比增长3.7%；其中，7月全国烟酒类零售总额433亿元，同比增长2.7%；1-7月，全国烟酒类零售总额3740亿元，同比增长5.2%。</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -2176,45 +2212,44 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sh603716</t>
+          <t>sz002186</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>塞力医疗</t>
+          <t>全 聚 德</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>31.52</v>
+        <v>13.74</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>10.02</v>
+        <v>10.01</v>
       </c>
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>创新药+AI医疗|1.公司战略投资的心血管领域长效治疗性疫苗的创新性研发公司——武汉华纪元生物技术开发有限公司，其自主研发国家1类生物创新药HJY-ATRQβ-001正式获得国家药品监督管理局（NMPA）的新药临床试验申请（IND）受理通知书。
-2.公司作为以“人工智能+医疗大数据”为基础的智慧医疗综合体系建设供应商，始终聚焦医疗技术更新迭代与医疗领域应用场景的创新融合。</t>
+          <t>食品饮料|公司食品产业主要为鸭坯及其它食品的研发、生产与销售，设立了全聚德仿膳食品公司和全聚德三元金星食品公司两大生产基地。</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>创新药, AI医疗</t>
+          <t>食品饮料</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>据报道，2025年中国国际服务贸易交易会金融服务专题将于9月10日-9月14日在北京首钢园举办。</t>
+          <t>国家统计局数据显示，7月份，社会消费品零售总额38780亿元，同比增长3.7%；其中，7月全国烟酒类零售总额433亿元，同比增长2.7%；1-7月，全国烟酒类零售总额3740亿元，同比增长5.2%。</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -2222,48 +2257,44 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sz002177</t>
+          <t>sh603057</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>御银股份</t>
+          <t>紫燕食品</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>10</v>
+        <v>24.12</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>数字货币|公司是金融设备整体解决服务商，在ATM设备产能和销售规模在国内ATM制造厂商中位居前列。公司于2020年2月17日在互动平台表示，公司有数字货币ATM机上交易的相关技术储备。</t>
+          <t>卤制食品|公司是国内规模化的卤制食品生产企业，主营业务为卤制食品的研发、生产和销售，主要产品为夫妻肺片、百味鸡、藤椒鸡等以鸡、鸭、牛、猪等禽畜产品以及蔬菜、水产品、豆制品为原材料的卤制食品。</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>卤制食品</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>家居装饰</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>据报道，2025年中国国际服务贸易交易会金融服务专题将于9月10日-9月14日在北京首钢园举办。</t>
+          <t>央行第二季度中国货币政策执行报告指出，下一阶段要持续巩固房地产市场稳定态势，完善房地产金融基础性制度，助力构建房地产发展新模式。</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -2271,48 +2302,44 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sz000617</t>
+          <t>sz002830</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>中油资本</t>
+          <t>名雕股份</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>11.96</v>
+        <v>19.14</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>数字货币|公司及所属金融企业开展数字人民币方面的研究规划，参股企业昆仑数智联合出资成立的鲲鹏快付公司正在开展数字人民币支付业务；昆仑银行已完成数字人民币业务基础平台技术研发和建设工作。</t>
+          <t>家居|公司是一家面向中高端客户的、产业链最完整的家装及家居综合服务提供商。</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>家居</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>家居装饰</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>据报道，2025年中国国际服务贸易交易会金融服务专题将于9月10日-9月14日在北京首钢园举办。</t>
+          <t>央行第二季度中国货币政策执行报告指出，下一阶段要持续巩固房地产市场稳定态势，完善房地产金融基础性制度，助力构建房地产发展新模式。</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -2320,49 +2347,44 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sz002212</t>
+          <t>sh600539</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>狮头股份</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>10.15</v>
+        <v>11.97</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.02</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>稳定币+算力|1.公司构建防御、防护、监测、阻断于一体的全链条全方位“挖矿”专项治理方案，并推出了数据安全运营、数据分类分级、数据隐私保护、数据防泄漏、数据跨境安全合规等相关产品，可为稳定币相关场景提供安全保障。
-2.公司DeepSeek安全智算一体机可广泛应用于智算中心系统建设、DeepSeek本地私有化部署、大模型推理与训练、大模型安全防护等场景中。</t>
+          <t>家居|子公司龙净水业主要业务为净水龙头及配件，各类产品通过NSF、ROHS等检测，并获得GMC环球制造商认证、ISO9001质量体系认证、ISO14001环境体系认证等。</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>稳定币, 算力</t>
+          <t>家居</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>家居装饰</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>据报道，2025年中国国际服务贸易交易会金融服务专题将于9月10日-9月14日在北京首钢园举办。</t>
+          <t>央行第二季度中国货币政策执行报告指出，下一阶段要持续巩固房地产市场稳定态势，完善房地产金融基础性制度，助力构建房地产发展新模式。</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -2370,44 +2392,44 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sz000676</t>
+          <t>sz002918</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>智度股份</t>
+          <t>蒙娜丽莎</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>10.88</v>
+        <v>12.72</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>10.01</v>
+        <v>10.03</v>
       </c>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>数字货币|公司拥有智链底层区块链平台、多链动态委员会调度模块、节点监控套件及管理后台、智链区块链浏览器等19项区块链核心产品，覆盖了共识、密码、智能合约、跨链等所有区块链的核心模块。参股公司比特大陆是全球领先的超算芯片和人工智能芯片提供商，全球最大的比特币矿机ASIC定制芯片和集成系统供应商。</t>
+          <t>家居|公司致力于高品质建筑陶瓷产品研发、生产和销售，主要产品可分为陶瓷砖、陶瓷板、薄型陶瓷砖。</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>家居</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>家居装饰</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>据央视新闻，2025年上海合作组织峰会将于8月31日至9月1日在天津举行，这将是中国第五次主办上合组织峰会，也将是上合组织成立以来规模最大的一届峰会。</t>
+          <t>央行第二季度中国货币政策执行报告指出，下一阶段要持续巩固房地产市场稳定态势，完善房地产金融基础性制度，助力构建房地产发展新模式。</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -2415,48 +2437,44 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>sh603101</t>
+          <t>sh605003</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>汇嘉时代</t>
+          <t>众望布艺</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>11.45</v>
+        <v>27.21</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>9.98</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>新疆+零售|地处新疆乌鲁木齐市，新疆地区百货零售连锁企业。</t>
+          <t>家居|公司主营业务为中高档装饰面料及制品的研发、设计、生产与销售。</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>新疆, 零售</t>
+          <t>家居</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.11</v>
+        <v>0.84</v>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>据央视新闻，2025年上海合作组织峰会将于8月31日至9月1日在天津举行，这将是中国第五次主办上合组织峰会，也将是上合组织成立以来规模最大的一届峰会。</t>
+          <t>8月22日，中国光伏行业协会发布《关于进一步加强行业自律，共同维护公平竞争、优胜劣汰的光伏市场秩序的倡议》，再次重申坚决抵制以低于成本的价格开展恶性竞争。</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -2464,44 +2482,48 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sz000877</t>
+          <t>sz000753</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>天山股份</t>
+          <t>漳州发展</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>6.58</v>
+        <v>7.28</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I43" s="2" t="inlineStr"/>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>新疆+水泥|地处新疆乌鲁木齐市，西北地区最大的水泥生产企业，新疆第二大商品混凝土生产企业，西北地区最大的油井水泥生产基地。</t>
+          <t>光伏|公司全资子公司漳发新能源、东山开投与一道新能源(衢州)共同设立一道新能源科技(漳州)有限公司，合资公司建设内容为5GW的光伏组件生产线及配套设施。</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>新疆, 水泥</t>
+          <t>光伏</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.11</v>
+        <v>0.84</v>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>据央视新闻，2025年上海合作组织峰会将于8月31日至9月1日在天津举行，这将是中国第五次主办上合组织峰会，也将是上合组织成立以来规模最大的一届峰会。</t>
+          <t>8月22日，中国光伏行业协会发布《关于进一步加强行业自律，共同维护公平竞争、优胜劣汰的光伏市场秩序的倡议》，再次重申坚决抵制以低于成本的价格开展恶性竞争。</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -2509,44 +2531,44 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>sh603227</t>
+          <t>sh603815</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>雪峰科技</t>
+          <t>交建股份</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>9.789999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>新疆+民爆|公司是国内从事民用爆炸物品研发、生产、销售、运输及爆破服务的集团化企业，上下游产业链完善，生产规模位居新疆地区首位，拥有生产、爆破、武装护卫等业务的科学管控体系和专业运营团队。</t>
+          <t>光伏|2023年9月11日公司披露重组预案显示，公司拟以发行股份及支付现金的方式，购买无锡博达新能科技有限公司70%股权，博达新能主营光伏电池及组件业务。</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>新疆, 民爆</t>
+          <t>光伏</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.11</v>
+        <v>0.84</v>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>据央视新闻，2025年上海合作组织峰会将于8月31日至9月1日在天津举行，这将是中国第五次主办上合组织峰会，也将是上合组织成立以来规模最大的一届峰会。</t>
+          <t>8月22日，中国光伏行业协会发布《关于进一步加强行业自律，共同维护公平竞争、优胜劣汰的光伏市场秩序的倡议》，再次重申坚决抵制以低于成本的价格开展恶性竞争。</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -2554,94 +2576,91 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sh600425</t>
+          <t>sh603098</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>青松建化</t>
+          <t>森特股份</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>4.74</v>
+        <v>14.73</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>新疆+水泥|新疆生产建设兵团旗下最大的水泥生产企业，南疆水泥龙头，拥有水泥产能超过1800万吨，全为新型干法水泥产能，对该区域内水泥销售价格的形成有较大影响力。</t>
+          <t>光伏+基建|1.公司主要致力于光伏系统、光伏电站项目的投资、开发、设计、销售、系统运行维护、售后服务。
+2.公司已成长为行业内领先的建筑金属围护系统一体化服务商，主要承接金属围护系统工程（屋面系统、墙面系统）和声屏障系统工程，提供从工程咨询、设计、专用材料供应和加工制作到安装施工全过程的工程承包服务。</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>新疆, 水泥</t>
+          <t>光伏, 基建</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.9900000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>智元机器人预计今年会有数千台的出货量，明年会有数万台的出货；智元机器人希望在未来几年，每年出货量可达到数十万台。</t>
+          <t>8月22日，中国光伏行业协会发布《关于进一步加强行业自律，共同维护公平竞争、优胜劣汰的光伏市场秩序的倡议》，再次重申坚决抵制以低于成本的价格开展恶性竞争。</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sh603626</t>
+          <t>sz001212</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>科森科技</t>
+          <t>中旗新材</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>15.26</v>
+        <v>61.49</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>6天6板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>机器人+消费电子|1.公司不生产机器人产品，公司为某品牌家用机器人提供相关结构件。
-2.公司消费电子产品包括智能手机、笔记本电脑、平板电脑的外壳、中框、中板、按键、标志、转轴（铰链）等。</t>
+          <t>股权转让+石英|1.中旗新材公告称，星空科技与公司控股股东海南羽明华、实际控制人周军及青岛明琴签署了《股份转让协议》，星空科技拟协议收购转让方持有的合计3049.89万股公司股份，占公司股份总数的24.97%。本次股份转让完成后，公司控股股东将由海南羽明华变更为星空科技，上市公司实际控制人将由周军变更为贺荣明。
+2.公司子公司罗城晶硅新材料研发开发制造一体化项目取得了罗城县2000万吨脉石英矿采矿权，项目全部建成达产后年产高端石英硅晶产品100万吨，高端石英是光伏拉晶钳锅重要原材料。</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>机器人, 消费电子</t>
+          <t>股权转让, 石英</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.9900000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>智元机器人预计今年会有数千台的出货量，明年会有数万台的出货；智元机器人希望在未来几年，每年出货量可达到数十万台。</t>
+          <t>记者获悉，相关部门近期将会发放卫星互联网牌照。</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -2649,49 +2668,44 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sz002838</t>
+          <t>sh688066</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>道恩股份</t>
+          <t>航天宏图</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>28.62</v>
+        <v>31.98</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>机器人+PEEK|1.公司有应用到机器人制造上的改性材料，如机器人手臂尼龙材料、合金材料等。
-2.公司突破PEEK材料加工难题，优化碳纤维与PEEK的结合，提高打印件的力学性能、耐热性和耐腐蚀性。</t>
+          <t>商业航天|公司通过建设分布式干涉雷达卫星星座计划和无人机产线建设，构建空天地全息感知体系，为不同行业提供智能决策。</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>机器人, PEEK</t>
+          <t>商业航天</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.9900000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>智元机器人预计今年会有数千台的出货量，明年会有数万台的出货；智元机器人希望在未来几年，每年出货量可达到数十万台。</t>
+          <t>记者获悉，相关部门近期将会发放卫星互联网牌照。</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -2699,16 +2713,16 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sh605133</t>
+          <t>sh600345</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>嵘泰股份</t>
+          <t>长江通信</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>38.59</v>
+        <v>29.66</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>10.01</v>
@@ -2716,415 +2730,409 @@
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>机器人|2025年4月10日公告，公司拟与江苏润孚动力科技有限公司共同出资设立“江苏润泰机器人科技有限公司”，注册资本为人民币6500万元，公司认缴出资2925万元，实缴出资6500万元，占合资公司45%的股权。合资公司的业务领域限于应用于人形机器人和汽车底盘系统的行星滚柱丝杠、滚珠丝杠的研发、生产、销售业务。</t>
+          <t>商业航天|公司全资子公司迪爱斯中标的上海垣信卫星科技有限公司的项目主要是卫星地面站园区建设和信关站建设。公司主要提供低轨卫星地面运控中心网络控制管理和指挥系统，以及按照客户要求提供地面卫星通信设备、卫星通信机房及其他软硬件设备等集成服务。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>商业航天</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.56</v>
+        <v>2.3</v>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+          <t>记者获悉，相关部门近期将会发放卫星互联网牌照。</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>sz002272</t>
+          <t>sh600118</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>川润股份</t>
+          <t>中国卫星</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>18.98</v>
+        <v>33.3</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC+华为|1.公司液冷技术在能源、工业等领域有多年成熟应用，在储能、数据中心、云计算、算力设备、通信网络、电力电网、电源转换等领域为客户提供液冷产品和温控节能解决方案。公司已实现服务器浸没式液冷产品“零”突破。
-2.2024年3月11日公司官微透露，华夏鲲鹏与川润在华灏鲲鹏西部产业基地隆重举行战略合作签约仪式。双方将在数字能源领域实现深度合作。</t>
+          <t>商业航天+低空经济|1.中国东方红卫星股份有限公司的主营业务是宇航制造和卫星应用业务。公司主要产品有卫星系统研制、宇航部组件制造、卫星通导遥终端产品制造等。
+2.公司积极参与低空经济建设与发展，适用于商用飞机搭载的机载多模导航接收机项目完成验收与地面集成测试，无人值守无人机等产品实现多场景应用和批量交付。</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC, 华为</t>
+          <t>商业航天, 低空经济</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>有色金属概念</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.56</v>
+        <v>2.18</v>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+          <t>美联储主席鲍威尔在杰克逊霍尔年会上表示，尽管通胀仍受关注，但就业市场风险上升可能使美联储在9月降息。</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>sh600979</t>
+          <t>sz000737</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>广安爱众</t>
+          <t>北方铜业</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>5.53</v>
+        <v>12.5</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>9.94</v>
+        <v>10.04</v>
       </c>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>电力+液冷IDC|1.公司主营业务为水力发电、供电、天然气供应、生活饮用水、水电气仪表校验安装和调试。
-2.公司参股20%重庆亿众旗下子公司于青海省海东市建设“丝绸云谷”低碳算力产业园，计划一期建设容量为180MW的液冷芯能舱，投建7.2万个标准机架，为9万台高性能服务器提供稳健的运行环境。</t>
+          <t>铜|北方铜业主营铜金属的开采、选矿、冶炼及销售等，是全国前十大的铜矿采选冶炼企业，业务覆盖铜业务主要产业链，主要产品为阴极铜、金锭、银锭，副产品为硫酸等。</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>电力, 液冷IDC</t>
+          <t>铜</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>大金融</t>
+          <t>有色金属概念</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.22</v>
+        <v>2.18</v>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>国泰海通非银团队预计，A股上市券商上半年营业收入或将同比增长30.29%至2384.80亿元，归母净利润或将同比增长61.23%至1015.88亿元。</t>
+          <t>美联储主席鲍威尔在杰克逊霍尔年会上表示，尽管通胀仍受关注，但就业市场风险上升可能使美联储在9月降息。</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>sh601059</t>
+          <t>sz002716</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>信达证券</t>
+          <t>湖南白银</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>19.72</v>
+        <v>5.39</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>9.98</v>
+        <v>10</v>
       </c>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>券商|公司证券经纪业务主要分为传统证券经纪业务和信用交易业务，截至2022年6月30日，公司在全国17个省、自治区、直辖市共设有分支机构102家，包括18家分公司、84家证券营业部。</t>
+          <t>贵金属+铅锌|1.公司主要产品为白银、电铅、黄金及其他综合回收产品。
+2.旗下西藏俊龙矿业有限公司在拉萨地区拥有优质铅锌矿产资源。</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>券商</t>
+          <t>贵金属, 铅锌</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>大金融</t>
+          <t>有色金属概念</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.22</v>
+        <v>2.18</v>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>国泰海通非银团队预计，A股上市券商上半年营业收入或将同比增长30.29%至2384.80亿元，归母净利润或将同比增长61.23%至1015.88亿元。</t>
+          <t>美联储主席鲍威尔在杰克逊霍尔年会上表示，尽管通胀仍受关注，但就业市场风险上升可能使美联储在9月降息。</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>sh601788</t>
+          <t>sz002842</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>光大证券</t>
+          <t>翔鹭钨业</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>20.78</v>
+        <v>12.13</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>10.01</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>券商|公司以投资银行业务为主体，拥有证券领域全牌照，旗下子公司业务范围涉及资产管理、公募基金、私募基金等</t>
+          <t>钨|公司一直专注于钨制品的开发、生产与销售，主要产品包括各种规格的氧化钨、钨粉、碳化钨粉、钨合金粉及钨硬质合金等。</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>券商</t>
+          <t>钨</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.11</v>
+        <v>2.13</v>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>根据百川盈孚数据，截至8月21日，氧化镨报价65.75万元/吨，相比月初上涨11万元/吨，涨幅超20%，年内涨幅超58%。氧化钕报价65.75万元/吨，相比月初上涨11.5万元/吨，年内涨幅62.95%。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>sz300066</t>
+          <t>sh603200</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>三川智慧</t>
+          <t>上海洗霸</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>8.44</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>20.06</v>
+        <v>10</v>
       </c>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁|子公司天和永磁主要是通过处理钕铁硼废料和熔盐渣生产高纯度稀土氧化物，包括氧化镨钕、氧化镝、氧化铽、氧化钆、氧化钬等稀土氧化物，其中氧化镨钕为主要产品。</t>
+          <t>固态电池+液冷IDC|1.公司生产的固态电解质粉体材料可以应用于锂离子固态电池，多形态固态电解质粉体材料（含油性、水性、浆料）年产50吨级产线主要采用的是氧化物技术路线，公司储备了硫化物、氯化物等固态电解质的其它固态电解质粉体技术路线。
+2.公司面向腾讯、华为、中国移动等重点客户数据中心提供循环水/空气蒸发冷却等专业服务。</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>固态电池, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.11</v>
+        <v>2.13</v>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>根据百川盈孚数据，截至8月21日，氧化镨报价65.75万元/吨，相比月初上涨11万元/吨，涨幅超20%，年内涨幅超58%。氧化钕报价65.75万元/吨，相比月初上涨11.5万元/吨，年内涨幅62.95%。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>sz002378</t>
+          <t>sz002600</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>章源钨业</t>
+          <t>领益智造</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>12.16</v>
+        <v>13.56</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>10.05</v>
+        <v>9.98</v>
       </c>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>钨+稀土|1.公司建立了从钨上游采矿、选矿，中游冶炼至下游精深加工的完整一体化生产体系，是国内钨行业产业链完整的厂商之一。
-2.公司主营包括各种稀土氧化物、稀土金属、稀土发光材料、磁性材料等研发、生产和销售。</t>
+          <t>机器人+液冷IDC|1.公司拥有伺服电机、减速器、驱动器、运动控制器等人形机器人执行层的核心技术，可提供模切结构件、金属结构件、注塑结构件、软包结构件等，已为人形机器人客户提供头部总成、灵巧手总成、四肢总成、高功率充电和散热解决方案等核心硬件。
+2.公司已为AMD等国际客户批量出货散热模组，也已全面具备CDU、液冷模组、液冷板、空冷散热模组、热管、均热板、石墨片等产品及系统性散热解决方案的研发、生产能力，应用于人形机器人、服务器、光模块等各类产品。</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>钨, 稀土</t>
+          <t>机器人, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>IDC电源</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>业内人士分析，新一代算力芯片功耗大幅提升，对数据中心电源系统和液冷技术的要求显著提高，国内相关电源、液冷及储能企业有望深度受益，订单增长预期强劲。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>sz002993</t>
+          <t>sz301128</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>奥海科技</t>
+          <t>强瑞技术</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>52.45</v>
+        <v>117.98</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>服务器冗余电源|公司致力于CRPS服务器通用冗余电源研发、生产和销售，服务器电源、算力电源、服务器PDB电源等产品实现批量出货，出货及在研功率范围覆盖550W至8000W。</t>
+          <t>机器人+液冷IDC|1.公司已经通过立讯精密向部分客户提供工业领域使用的机器人相关产品。
+2.公司已向客户交付多款服务器液冷机柜相关产品，包括液冷机柜排水烘干注氮装备、液冷机柜注液测试装备等。</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>服务器冗余电源</t>
+          <t>机器人, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.26</v>
+        <v>0.91</v>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>国新办介绍阅兵准备工作有关情况，高超声速、防空反导、战略导弹，我军新一代武器装备将集中亮相。</t>
+          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>sz002190</t>
+          <t>sz002191</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>成飞集成</t>
+          <t>劲嘉股份</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>48.79</v>
+        <v>4.59</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>10.07</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>军工|公司数控零件加工业务主要是航空零部件数控加工，公司有承接无人机零件数控加工业务。</t>
+          <t>半导体材料|2023年9月20日公告，公司拟出资5亿元设立全资子公司，名称为深圳劲嘉新源科技集团有限公司，劲嘉新源定位为聚焦电子材料发展的平台公司，开展研发、投资、管理具有高附加值的半导体材料和功能性薄膜等领域的电子材料相关业务。</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>半导体材料</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>中国光伏行业协会拟于2025年9月18日—19日在安徽省滁州市举办“光伏储能产业创新成果对接会”。本次会议主题为“光储融合应用 筑就零碳未来”。</t>
+          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>sh603031</t>
+          <t>sh603929</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>安孚科技</t>
+          <t>亚翔集成</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>39.55</v>
+        <v>38.59</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>10.01</v>
@@ -3132,981 +3140,1554 @@
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>储能|公司于2022年7月18日公告，近日与长孚新能源共同投资设立合肥合孚智慧能源有限公司，用以投资储能研发及集成产线基地项目。</t>
+          <t>洁净室系统集成|公司作为一站式洁净室系统集成工程服务的专业提供商，主营业务为IC半导体、光电等高科技电子产业及生物医药、云计算中心等相关领域的建厂工程提供洁净室工程服务。</t>
         </is>
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>洁净室系统集成</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C58" s="2" t="inlineStr"/>
+        <v>0.91</v>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
+        </is>
+      </c>
       <c r="D58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>sh603163</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>圣晖集成</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>38.83</v>
+      </c>
+      <c r="H58" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>sz002231</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>*ST奥维</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H58" s="2" t="n">
-        <v>5.029999999999999</v>
-      </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>13天10板</t>
-        </is>
-      </c>
+      <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司在军工业务方面坚持国产自主可控的发展方向，聚焦野战通信与单兵信息化系统领域，主要产品包括无线宽带传输系统、自主可控国产化设备等。</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="inlineStr"/>
+          <t>洁净室系统集成|公司系为先进制造业提供洁净室系统集成工程整体解决方案的一站式专业服务商，涵盖洁净室厂房建造规划、设计建议等相关服务。</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>洁净室系统集成</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>文化传媒</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C59" s="2" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>据网络平台数据，2025年暑期档（6月—8月）电影总票房（含预售）已突破110亿元。其中，《南京照相馆》《浪浪山小妖怪》《长安的荔枝》 暂列档期票房榜前3名。</t>
+        </is>
+      </c>
       <c r="D59" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>sh603021</t>
+          <t>sz300364</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ST华鹏  </t>
+          <t>中文在线</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>4.83</v>
+        <v>33.95</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>6天5板</t>
-        </is>
-      </c>
+        <v>20.01</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司是国内日用玻璃行业的企业之一，主营业务为研发、生产和销售玻璃器皿产品和玻璃瓶罐。</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr"/>
+          <t>短剧+AI|1.在中短剧方面，根据公司旗下四月天小说网、17K小说网平合IP改编的作品初具规模，已经推出众多改编自公司内容IP的微短剧上线抖音、快手、B站等平台。
+2.公司“中文逍遥”大模型大幅提升创作者的效率，可实现一键生成万字，一张图写出一部小说，一次读懂100万字小说。</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>短剧, AI</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>文化传媒</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C60" s="2" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>据网络平台数据，2025年暑期档（6月—8月）电影总票房（含预售）已突破110亿元。其中，《南京照相馆》《浪浪山小妖怪》《长安的荔枝》 暂列档期票房榜前3名。</t>
+        </is>
+      </c>
       <c r="D60" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>sh603377</t>
+          <t>sz001330</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ST东时  </t>
+          <t>博纳影业</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>3.59</v>
+        <v>5.59</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
+        <v>10.04</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司持有海若通航55%的股权，海若通航是一家具备CCAR-91部通航作业，CCAR-141部飞行培训，CCAR-145部航空器维修资质的通用航空运营商。</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="inlineStr"/>
+          <t>影视+AI|1.公司是国内首家从事电影发行业务的民营企业，深耕影视行业多年，不断向产业链上下游延伸，现已成为行业知名的全产业链布局的电影集团公司。
+2.公司已经进入AIGC（人工智能生成内容）短剧领域，并正在打造AI短剧。具体而言，公司与抖音集团合作，推出了AIGC科幻短剧《三星堆·未来启示录》。</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>影视, AI</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>文化传媒</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C61" s="2" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>据网络平台数据，2025年暑期档（6月—8月）电影总票房（含预售）已突破110亿元。其中，《南京照相馆》《浪浪山小妖怪》《长安的荔枝》 暂列档期票房榜前3名。</t>
+        </is>
+      </c>
       <c r="D61" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>sh600715</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>文投控股</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H61" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>sz000609</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>ST中迪</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
+      <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司房地产项目位于重庆、成都、达州，重庆的“两江中迪广场”主要为商业项目。</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr"/>
+          <t>影视+游戏|公司主要从事业务涵盖影视和游戏两个行业及其衍生“文化+”业务，主营业务板块包括院线及影城运营管理、影视投资制作及发行等。</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>影视, 游戏</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C62" s="2" t="inlineStr"/>
+        <v>1.4</v>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>国盛证券认为2025年作为“十四五”收官之年，军工装备订单即将批量落地。</t>
+        </is>
+      </c>
       <c r="D62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>sz002190</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>成飞集成</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>53.67</v>
+      </c>
+      <c r="H62" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>sh600696</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*ST岩石 </t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>4天3板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.公司主要从事商业保理、融资租赁、不动产运营管理和大宗商品贸易。
-2.公司持有江西章贡酒业有限责任公司25%股权。章贡酒业是全国白酒工业百强企业，江西省重点酿酒企业。</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="inlineStr"/>
+          <t>军工|公司数控零件加工业务主要是航空零部件数控加工，公司有承接无人机零件数控加工业务。</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C63" s="2" t="inlineStr"/>
+        <v>1.4</v>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>国盛证券认为2025年作为“十四五”收官之年，军工装备订单即将批量落地。</t>
+        </is>
+      </c>
       <c r="D63" s="2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>sh600200</t>
+          <t>sz000576</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST苏吴 </t>
+          <t>甘化科工</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>1.01</v>
+        <v>12.24</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="inlineStr"/>
+          <t>军工+芯片|1.公司通过收购沈阳含能控股权和升华电源100%股权新增军工业务板块。升华电源主要产品服务于机载、舰载、弹载等多种武器平台，主要客户涵盖国内知名军工企业、军工科研院所、军工厂等。
+2.公司参股公司锴威特半导体专注于智能功率器件与功率集成芯片的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>军工, 芯片</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>风电</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C64" s="2" t="inlineStr"/>
+        <v>1.19</v>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>金风科技2025年半年报显示，公司上半年归母净利润14.88亿元，同比增长7.26%。</t>
+        </is>
+      </c>
       <c r="D64" s="2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>sh603813</t>
+          <t>sz002202</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST原尚 </t>
+          <t>金风科技</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>16.13</v>
+        <v>11.62</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>5.01</v>
+        <v>10.04</v>
       </c>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司参股公司广东原锋新能源科技的股东之一锋源是国内极少的集全套自主知识产权氢燃料电池电堆以及核心零部件膜电极、催化剂、金属双极板等研发、生产、销售一体的公司。</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="inlineStr"/>
+          <t>业绩+风电|1.金风科技2025年半年报显示，公司上半年归母净利润14.88亿元，同比增长7.26%。
+2.公司是国内最大风力发电机组整机制造商之一，拥有风机制造、风电服务、风电场投资与开发三大主营业务以及水务等其他业务。</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>业绩, 风电</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>风电</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C65" s="2" t="inlineStr"/>
+        <v>1.19</v>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>金风科技2025年半年报显示，公司上半年归母净利润14.88亿元，同比增长7.26%。</t>
+        </is>
+      </c>
       <c r="D65" s="2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>sh600355</t>
+          <t>sh600869</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST精伦 </t>
+          <t>远东股份</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>3.69</v>
+        <v>7.13</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>5.13</v>
+        <v>10.03</v>
       </c>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司智能控制产品是公司全资子公司上海鲍麦克斯电子科技有限公司的主营产品，鲍麦克斯专业从事通用及专用伺服驱动系统、数控系统、 缝制机器人的系列化产品研发及销售。</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="inlineStr"/>
+          <t>风电+机器人|1.海上风电的迅猛发展促使海缆行业迎来高速发展，公司从2013年开始着手准备，已具备±200kV柔性直流、±320kV柔性直流、35kV/66kV光电复合海缆及软接头等多项海缆技术能力。
+2.公司目前生产加强型拖链电缆和柔性拖链电缆用于机器人领域，为其传输动能和控制信号。</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>风电, 机器人</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>华为产业链</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C66" s="2" t="inlineStr"/>
+        <v>1.13</v>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>《科创板日报》记者从知情人士获悉，华为云调整组织架构，将聚焦“3+2+1”业务，其中：3包括通算、智算、存储；2包括AI PaaS、数据库；1则主要为安全业务。</t>
+        </is>
+      </c>
       <c r="D66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>sz001339</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>70.27</v>
+      </c>
+      <c r="H66" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>sz000518</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>*ST四环</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="H66" s="2" t="n">
-        <v>4.82</v>
       </c>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr">
         <is>
+          <t>华为+算力|1.公司可为行业端侧和边缘侧提供多款可适配OpenHarmony的产品线，包括OPS模块、物联网模块、边缘融合终端和平板等，多款产品已适配开源鸿蒙系统并完成产品兼容性认证；基于飞腾D20008核心CPU的IPC-510-FD2K工控机加载了开源鸿蒙系统。
+2.公司智算业务包括AI算力规划与设计、GPU及高性能服务器设备交付、运维调优、算力调度与优化管理平台服务、算力租赁+MaaS、算力及网络设备售后及置换等，为客户提供端到端的智算中心全流程服务，致力于成为AIGC基础设施全生命周期综合服务商。</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>华为, 算力</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>华为产业链</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>《科创板日报》记者从知情人士获悉，华为云调整组织架构，将聚焦“3+2+1”业务，其中：3包括通算、智算、存储；2包括AI PaaS、数据库；1则主要为安全业务。</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>sh600410</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>华为+算力|公司建设了以华为昇腾芯片为核心的天津市河北区人工智能新型基础设施建设项目EPC工程总承包一、二、三期项目。</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>华为, 算力</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>人脑工程</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>业内人士认为，脑机接口技术路径丰富，处于技术加速变革期，产业链中上游的技术进步带来下游应用端不断突破，国内脑机接口公司有望逐步实现商业化应用。</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>sh600113</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>脑机接口|据2025年6月20日互动，培安美(浙江科技为我公司参股公司，持股比例为40%。经本公司了解，前期培安美公司相关人员拜访首都医科大学开展业务洽谈，未形成书面合作协议。此前6月16日培安美官微发表文章，与首都医科大学达成意向合作，携手推进脑机接口技术研发与产业化。6月24日发布股票交易风险提示公告，目前日常经营不涉及“脑机接口”业务。</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>脑机接口</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>IDC电源</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>sz002706</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>良信股份</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>光伏+IDC电源|1.公司2021年9月30日在互动平台表示，公司的旋转开关主要用于分布式光伏行业。
+2.公司与华为在5G应用、电源类产品提供了模块化、智能化产品方案，在数据中心绿电接入、储能配套等领域提供电气解决方案。</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>光伏, IDC电源</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>sh600107</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST尔雅  </t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>8天6板</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司的主营业务为服装、服饰和纺织品研发、设计、制造和销售。</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>sh603377</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST东时  </t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司持有海若通航55%的股权，海若通航是一家具备CCAR-91部通航作业，CCAR-141部飞行培训，CCAR-145部航空器维修资质的通用航空运营商。</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C72" s="2" t="inlineStr"/>
+      <c r="D72" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>sz000609</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>ST中迪</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>7天5板</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司房地产项目位于重庆、成都、达州，重庆的“两江中迪广场”主要为商业项目。</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>sh600200</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST苏吴 </t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C74" s="2" t="inlineStr"/>
+      <c r="D74" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>sh603813</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST原尚 </t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司参股公司广东原锋新能源科技的股东之一锋源是国内极少的集全套自主知识产权氢燃料电池电堆以及核心零部件膜电极、催化剂、金属双极板等研发、生产、销售一体的公司。</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C75" s="2" t="inlineStr"/>
+      <c r="D75" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>sz002620</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司主要从事政府机构、房地产开发商、大型企业、高档酒店、交通枢纽、园林绿化等综合性专业化装饰设计、工程施工业务以及光伏电站运营、光伏项目施工安装等。</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>sz000518</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>*ST四环</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
           <t>ST股 | 1.公司是一家以生物医学技术及传统医药相结合的药品生产企业，主营肝炎诊断试剂、注射剂、体外诊断试剂等。
 2.2023年公司研发项目包括新型干细胞培养技术，目的为通过对干细胞培养技术的研究，以期在未来将干细胞技术应用于人类疾病的治疗。</t>
         </is>
       </c>
-      <c r="K66" s="2" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C67" s="2" t="inlineStr"/>
-      <c r="D67" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>sz002620</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>ST瑞和</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司主要从事政府机构、房地产开发商、大型企业、高档酒店、交通枢纽、园林绿化等综合性专业化装饰设计、工程施工业务以及光伏电站运营、光伏项目施工安装等。</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr"/>
-      <c r="D68" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>sh605028</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>世茂能源</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="n">
-        <v>29.55</v>
-      </c>
-      <c r="H68" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>电力|公司是以生活垃圾和燃煤为主要原材料的热电联产企业，为客户提供工业用蒸汽并发电上网。</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="inlineStr">
-        <is>
-          <t>电力</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr"/>
-      <c r="D69" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>sh600475</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>华光环能</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="H69" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>光伏+电力|1.子公司中设国联拥有光伏开发运营能力，能够提供专业的光伏发电服务和系统解决方案，截至2024年年报，开发运营有325MW光伏项目，区域覆盖江苏、安徽、山东、浙江、江西、广东等多省市地区。
-2.公司是无锡地区的热电运营龙头，公司占无锡市区热电联产供热市场的70%左右。</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="inlineStr">
-        <is>
-          <t>光伏, 电力</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr"/>
-      <c r="D70" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>sz002622</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>皓宸医疗</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="H70" s="2" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>口腔医疗|公司购买德伦医疗51.00%股权。德伦医疗是一家以口腔医疗服务连锁经营为核心，专注于口腔疾病的诊断、治疗以及口腔保健、修复服务等口腔医疗服务的企业。</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="inlineStr">
-        <is>
-          <t>口腔医疗</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr"/>
-      <c r="D71" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>sh600637</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>东方明珠</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="H71" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I71" s="2" t="inlineStr"/>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>传媒|公司是控股股东SMG统一的产业平台和资本平台，SMG自身业务主要涵盖广播电视媒体运营、内容研发制作及版权拥有、广电媒体运维、现场演艺、文化投资等，是中国目前产业门类最多、产业规模最大的省级广电媒体及综合文化产业集团。</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="inlineStr">
-        <is>
-          <t>传媒</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr"/>
-      <c r="D72" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>sh603106</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>恒银科技</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="H72" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I72" s="2" t="inlineStr"/>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>金融科技|公司是国内领先的以金融自助设备为核心的智慧银行解决方案提供商。公司致力于提供传统银行向智慧银行转型升级过程中所需的现金类、非现金类、支付安全类等全方位的智能产品、技术和服务，通过“智能产品、先进技术、优质服务”相结合的运营模式，满足客户在智慧银行建设和运营过程中的各类个性化需求。</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="inlineStr">
-        <is>
-          <t>金融科技</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr"/>
-      <c r="D73" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>sh600315</t>
-        </is>
-      </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>上海家化</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="H73" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I73" s="2" t="inlineStr"/>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>业绩|上海家化公告称，2025年半年度实现营业收入34.78亿元，同比增长4.75%；实现归属于上市公司股东的净利润2.66亿元，同比增长11.66%。公司拟每股派发0.039元现金红利（含税）。</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="inlineStr">
-        <is>
-          <t>业绩</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr"/>
-      <c r="D74" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>sz002568</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>百润股份</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>28.27</v>
-      </c>
-      <c r="H74" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I74" s="2" t="inlineStr"/>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>鸡尾酒+白酒|1.公司主要从事预调鸡尾酒和香精香料的研发、生产和销售业务，旗下的“RIO（锐澳）”牌预调鸡尾酒国内预调鸡尾酒行业市场占有率第一。
-2.公司于2023年8月24日披露2023年非公开发行A股股票预案，拟定增募资不超过20.25亿元，用于产能扩建项目、上海巴克斯酒业有限公司二期项目、巴克斯酒业（成都）研发检测中心项目。</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="inlineStr">
-        <is>
-          <t>鸡尾酒, 白酒</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr"/>
-      <c r="D75" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>sh600058</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>五矿发展</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="H75" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I75" s="2" t="inlineStr"/>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>金属贸易|公司的主营业务是资源贸易、金属贸易、供应链服务。公司的主要产品是钢材、铁矿石、铁合金、煤炭、焦炭。</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="inlineStr">
-        <is>
-          <t>金属贸易</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr"/>
-      <c r="D76" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>sz001317</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>三羊马</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="n">
-        <v>51.48</v>
-      </c>
-      <c r="H76" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I76" s="2" t="inlineStr"/>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>物流|公司是一家主要通过公铁联运方式为汽车行业和啤酒、饮料、洗涤用品等非汽车行业提供综合服务的第三方物流企业。</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="inlineStr">
-        <is>
-          <t>物流</t>
-        </is>
-      </c>
+      <c r="K76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>0.14</v>
       </c>
       <c r="C77" s="2" t="inlineStr"/>
       <c r="D77" s="2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>sh600284</t>
+          <t>sh600355</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>浦东建设</t>
+          <t xml:space="preserve">*ST精伦 </t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>8.44</v>
+        <v>3.87</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I77" s="2" t="inlineStr"/>
+        <v>4.88</v>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>基建|公司控股股东为上海浦东发展(集团)有限公司，在工程建设方面公司较好地完成了浦东新区及无锡、常州、诸暨等长三角地区多省市快速路、骨干路、高架立交等一系列重大公共基础设施项目的建设。</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="inlineStr">
-        <is>
-          <t>基建</t>
-        </is>
-      </c>
+          <t>ST股 | 公司智能控制产品是公司全资子公司上海鲍麦克斯电子科技有限公司的主营产品，鲍麦克斯专业从事通用及专用伺服驱动系统、数控系统、 缝制机器人的系列化产品研发及销售。</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>0.14</v>
       </c>
       <c r="C78" s="2" t="inlineStr"/>
       <c r="D78" s="2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>sz002109</t>
+          <t>sz002630</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>兴化股份</t>
+          <t>ST华西</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>3.97</v>
+        <v>2.76</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I78" s="2" t="inlineStr"/>
+        <v>4.94</v>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>化工|公司子公司兴化化工主营业务为合成氨、甲醇、甲胺、DMF的生产与销售。</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="inlineStr">
-        <is>
-          <t>化工</t>
-        </is>
-      </c>
+          <t>ST股 | 目前公司核电业务主要集中在核三废处理领域，为业主项目提供核废物处理系统以及配套件。</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>0.14</v>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
       <c r="D79" s="2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>sh600490</t>
+          <t>sz300096</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>鹏欣资源</t>
+          <t>ST易联众</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>5.69</v>
+        <v>4.82</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>10.06</v>
+        <v>19.9</v>
       </c>
       <c r="I79" s="2" t="inlineStr"/>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>钴|公司通过在SMCO新建氢氧化钴一期生产线项目、钴矿石交易中心及投资CleanTeQ公司，布局动力电池原料上游产业。</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="inlineStr">
-        <is>
-          <t>钴</t>
-        </is>
-      </c>
+          <t>ST股 | 公司依托鸿蒙系统研发公司的软件和系统</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>0.14</v>
       </c>
       <c r="C80" s="2" t="inlineStr"/>
       <c r="D80" s="2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>sz300767</t>
+          <t>sh603398</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>震安科技</t>
+          <t xml:space="preserve">*ST沐邦 </t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>25.34</v>
+        <v>5.5</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>19.98</v>
+        <v>4.96</v>
       </c>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>建筑减震|公司是国内较早研发建筑减隔震产品的企业，也是目前国内为数不多的专业提供建筑减隔震整体解决方案的企业之一。</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="inlineStr">
-        <is>
-          <t>建筑减震</t>
+          <t>ST股 | 1.沐邦高科公告，与铜陵狮子山高新技术产业开发区管理委员会、铜陵高新发展投资有限公司签订《项目投资协议书》，项目名称为年产10GW-N型高效电池片、10GW切片生产基地项目。
+2.公司上市的IP产品 “樱桃小丸子”第一期为“盲盒”类产品。</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C81" s="2" t="inlineStr"/>
+      <c r="D81" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>sz002717</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>ST岭南</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>4.850000000000001</v>
+      </c>
+      <c r="I81" s="2" t="inlineStr"/>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 2022年2月16日公司在互动平台表示，岭南股份文化旅游业务涵盖主题文化旅游的规划设计，主题文化景区主题公园的创意设计、旅游投资、景区建设、策划营销和运营。</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>sz002650</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>ST加加</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I82" s="2" t="inlineStr"/>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 主营业务涉及酱油、植物油、食醋、味精、鸡精、蚝油等的生产及销售。</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>sz002211</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>ST宏达</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>5.029999999999999</v>
+      </c>
+      <c r="I83" s="2" t="inlineStr"/>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.公司主营业务主要分为硅橡胶及其制品的加工销售、专网通信设备的加工、组装、检测及销售业务等。
+2.公司目前于量子领域在产的产品有量子随机数发生器，其可基于量子物理原理产生随机数，可应用于量子通信、量子信息、传统信息安全、密码学、蒙特卡洛模拟、数值计算、随机抽样、神经网络计算等。</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C84" s="2" t="inlineStr"/>
+      <c r="D84" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>sh600243</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST海华 </t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I84" s="2" t="inlineStr"/>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 青海华鼎与源鑫隆昌、茫崖源鑫签署增资协议，约定青海华鼎以现金增资5083.88万元取得茫崖源鑫51%的股权。上市公司称，茫崖源鑫所处的天然气行业具有良好的发展前景。</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>sz000877</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>天山股份</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>新疆+水泥|地处新疆乌鲁木齐市，西北地区最大的水泥生产企业，新疆第二大商品混凝土生产企业，西北地区最大的油井水泥生产基地。</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t>新疆, 水泥</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>sh600671</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>天目药业</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>中药|公司主要从事医药健康产业，从事药品及保健食品的研发、制造及中药材种植，是集药品研发、制造、销售于一体的医药企业。</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>中药</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr"/>
+      <c r="D87" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>sz000682</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>东方电子</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I87" s="2" t="inlineStr"/>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t>业绩|东方电子在2025年上半年的主营收入达到了31.62亿元，同比上升了12.18%。而在利润方面，归母净利润为3.02亿元，同比增长了19.65%。扣除非经常性损益后的净利润为2.95亿元，同比上升了24.88%。</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr"/>
+      <c r="D88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>sz002091</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>江苏国泰</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I88" s="2" t="inlineStr"/>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>拟120亿理财|江苏国泰公告称，公司及下属子公司拟使用不超过120亿元闲置自有资金进行委托理财，用于购买安全性高、流动性好的中低风险理财产品，包括但不限于结构性存款、收益凭证、大额存单、国债逆回购等。</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t>拟120亿理财</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr"/>
+      <c r="D89" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>sh600179</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>安通控股</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="I89" s="2" t="inlineStr"/>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>物流|公司形成“水运+铁路+公路”全方位的多式联运模式，近年来加大对多式联运布局的投入，加快了综合物流服务平台的建设进程，并且延伸了对接“一带一路”的外贸航线。</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr">
+        <is>
+          <t>物流</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr"/>
+      <c r="D90" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>sz000555</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>神州信息</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I90" s="2" t="inlineStr"/>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>数字货币+跨境支付|1.公司自主研发的智能区块链平台Sm@rtGAS，目前已领先市场推出了供应链金融、数字货币、数字钱包、区块链发票、对账清算、预付卡、积分通兑等系列产品。
+2.公司拥有CIPS相关技术储备，在跨境、外币相关系统方面已有项目落地，具备提供人民银行现代化支付体系相关系统完整的解决方案能力。</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>数字货币, 跨境支付</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr"/>
+      <c r="D91" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>sz003013</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>地铁设计</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I91" s="2" t="inlineStr"/>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>业绩|地铁设计公告称，公司上半年实现营业收入13.17亿元，同比增长5.31%；归母净利润2.21亿元，同比增长6.58%。</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr"/>
+      <c r="D92" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>sh603379</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>三美股份</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>60.63</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I92" s="2" t="inlineStr"/>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>制冷剂|公司现有HFC-134a产能6.5万吨、HFC-125产能5.2万吨、HFC-32产能4万吨、HFC-143a产能1万吨，拥有AHF产能13.1万吨，HFCs制冷剂和AHF产能位居行业前列。</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="inlineStr">
+        <is>
+          <t>制冷剂</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr"/>
+      <c r="D93" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>sz002715</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>登云股份</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I93" s="2" t="inlineStr"/>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>汽车+黄金|1.2022年6月9日公司在投资者互动平台表示，公司气门产品主要适用于燃油发动机，相关产品也适用于混合动力、燃气发动机等新能源汽车。
+2.公司直接持有北京黄龙100%股权。北京黄龙的主要资产为子公司汉阴黄龙100%的股权，汉阴黄龙主要从事黄金矿采选等业务，拥有汉阴县黄龙金矿采矿权。</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>汽车, 黄金</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4157,87 +4738,87 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>sh603626</t>
+          <t>sh605303</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>科森科技</t>
+          <t>园林股份</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sh605303</t>
+          <t>sz002190</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>园林股份</t>
+          <t>成飞集成</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sh605028</t>
+          <t>sh600246</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>世茂能源</t>
+          <t>万通发展</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sz002177</t>
+          <t>sz002402</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>御银股份</t>
+          <t>和而泰</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sz002190</t>
+          <t>sh600728</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>成飞集成</t>
+          <t>佳都科技</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sh603101</t>
+          <t>sz002217</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>汇嘉时代</t>
+          <t>合力泰</t>
         </is>
       </c>
     </row>
@@ -4247,12 +4828,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sz002838</t>
+          <t>sz002378</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>道恩股份</t>
+          <t>章源钨业</t>
         </is>
       </c>
     </row>
@@ -4262,12 +4843,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sz002212</t>
+          <t>sh605255</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>天普股份</t>
         </is>
       </c>
     </row>
@@ -4277,12 +4858,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sz000617</t>
+          <t>sh603716</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>中油资本</t>
+          <t>塞力医疗</t>
         </is>
       </c>
     </row>
@@ -4292,12 +4873,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>sh600246</t>
+          <t>sh603019</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>万通发展</t>
+          <t>中科曙光</t>
         </is>
       </c>
     </row>
@@ -4307,12 +4888,27 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>sh600475</t>
+          <t>sz300192</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>华光环能</t>
+          <t>科德教育</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>sz000877</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>天山股份</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="101" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="88" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="257" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="264" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,883 +557,869 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.92</v>
+        <v>0.22</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
+          <t>据记者统计，截至8月25日午间，近1700家A股公司半年报交卷，多个行业二季度业绩环比增长。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sh605303</t>
+          <t>sh603859</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>园林股份</t>
+          <t>能科科技</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>22.04</v>
+        <v>48.2</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>6天6板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr"/>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>参股云针科技|公司控股子公司芸合科技参股云针科技15%股权，公司实控人吴光洪持有浙江云针信息科技40%的股份，浙江云针旗下拥有x86服务器，ARM服务器，GPU服务器等产品。</t>
+          <t>业绩|公司2025年1-6月实现营业收入7.38亿元，同比增长4.91%；净利润1.11亿元，同比增长18.75%。报告期内，公司围绕“AI+工业”战略主线，构建了多款自主研发的AI产品，涵盖多个工业场景，推动了收入和毛利率的提升。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>参股云针科技</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
+          <t>业绩超预期</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>据记者统计，截至8月25日午间，近1700家A股公司半年报交卷，多个行业二季度业绩环比增长。</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>sz002232</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>启明信息</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>业绩|公司2025年1-6月实现营业收入3.3亿元，同比增长6.51%；净利润1418.81万元，同比增长2568.5%。</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>业绩超预期</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>据记者统计，截至8月25日午间，近1700家A股公司半年报交卷，多个行业二季度业绩环比增长。</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>sz301172</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>君逸数码</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>业绩|公司2025年1-6月实现营业收入为2.33亿元，同比增长23.81%；净利润2226.55万元，同比增长3.50%。</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>业绩超预期</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>据记者统计，截至8月25日午间，近1700家A股公司半年报交卷，多个行业二季度业绩环比增长。</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>sz002555</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>三七互娱</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>游戏+业绩|1.公司聚焦以手机游戏和网页游戏的研发、发行和运营为基础的文化创意业务。
+2.三七互娱上半年度净利润同比增长10.72%，拟每10股派2.1元。</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>游戏, 业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>业绩超预期</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>据记者统计，截至8月25日午间，近1700家A股公司半年报交卷，多个行业二季度业绩环比增长。</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>sz002690</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>美亚光电</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>业绩|公司2025年1-6月实现营业收入为10.23亿元，同比增长9.92%；净利润3.03亿元，同比增长11.34%。</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>业绩超预期</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>据记者统计，截至8月25日午间，近1700家A股公司半年报交卷，多个行业二季度业绩环比增长。</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>sh600262</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>北方股份</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>业绩|公司2025年1-6月实现营业收入16.9亿元，同比增长23.69%；净利润9979.49万元，同比增长33.24%。</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>业绩超预期</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>据记者统计，截至8月25日午间，近1700家A股公司半年报交卷，多个行业二季度业绩环比增长。</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>sz002593</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>日上集团</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>业绩|公司2025年1-6月实现营业收入17.06亿元，同比增长11.40%；净利润4229.21万元，同比增长17.49%。</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>业绩超预期</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>据记者统计，截至8月25日午间，近1700家A股公司半年报交卷，多个行业二季度业绩环比增长。</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>sh605138</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>盛泰集团</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>业绩|公司2025年1-6月实现营业收入为17.87亿元，同比下降6.17%；净利润3147.25万元，同比增长44.36%。</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>业绩超预期</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>据记者统计，截至8月25日午间，近1700家A股公司半年报交卷，多个行业二季度业绩环比增长。</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>sh603987</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">康德莱  </t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>业绩|公司2025年1-6月实现营业收入11.2亿元，同比上升0.2%；净利润为1.25亿元，同比上升18.9%。</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>业绩超预期</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>据记者统计，截至8月25日午间，近1700家A股公司半年报交卷，多个行业二季度业绩环比增长。</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>sh600704</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>物产中大</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>业绩|公司2025年1-6月实现营业收入2885.37亿元，同比下降1.92%；净利润20.4亿元，同比增长29.65%。</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>业绩超预期</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>据记者统计，截至8月25日午间，近1700家A股公司半年报交卷，多个行业二季度业绩环比增长。</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>sz002410</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>广联达</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>业绩|公司2025年1-6月实现营业收入为27.84亿元，同比下降5.23%；净利润2.37亿元，同比增长23.65%。</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
           <t>算力工程</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="B13" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>sh605303</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>园林股份</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7天7板</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>AI服务器|公司控股子公司芸合科技参股云针科技15%股权，公司实控人吴光洪持有浙江云针信息科技40%的股份，浙江云针旗下拥有x86服务器，ARM服务器，GPU服务器等产品。</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>AI服务器</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>算力工程</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>sz002217</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>合力泰</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="G14" s="2" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>算力+机器人|1.公司与重整投资人杭州骋风而来共设合资公司智泰驰骋，致力于开发算力底座、算力平台运营及算力应用服务等业务。
 2.2022年5月12日公司在互动平台表示，公司在服务型机器人领域有摄像头产品布局，已经研发成功。</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>算力, 机器人</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>算力工程</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>sh600728</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>佳都科技</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>算力|公司在2024年年报中透露，公司基于FP8混合精度预训练等技术，实现知行大模型训练效率较2024年初提升超150%，并在国产千卡GPU集群上完成了大模型优化训练方法的验证。</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>算力</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>算力工程</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>sh603019</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>中科曙光</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>91.11</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>AI服务器|中科院旗下计算技术研究所所属上市公司，公司在高端计算领域开发了基于国产处理器的多款服务器、工作站，于2019年起布局AI算力服务。</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>AI服务器</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>算力工程</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>sh688228</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">开普云  </t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>78.95999999999999</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>算力+并购重组|1.2024年1月25日公告，公司拟与成都华创鲲航科技合伙企业（有限合伙）共同出资设立合资公司。合资公司注册资本2亿元，开普云拟出资1.2亿元，占比60%。合资公司以提供行业大模型、人工智能大模型与算力软硬件一体化融合产品、人工智能算力运营服务、人工智能算力优化调度平台、人工智能大模型MaaS/SaaS服务等。
-2.开普云公告称，公司拟通过支付现金的方式向深圳金泰克购买南宁泰克半导体有限公司70%股权，交易价格尚未确定，交易对方深圳金泰克将其存储产品业务的经营性资产转移至南宁泰克。</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>算力, 并购重组</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>算力工程</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>sz301396</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>宏景科技</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>73.93000000000001</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>算力租赁|宏景科技公告，公司与Y公司签署《智算项目服务合同》，合同总金额为7.21亿元，合同期限为五年。合同内容包括公司向Y公司提供服务器、组网配套服务以及对服务器进行必要的改配服务，并提供算力服务。</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>算力租赁</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>算力工程</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>从2025中国算力大会上了解到，中国算力平台正加快建设。预计2025年，我国智能算力规模增长将超过40%。</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>sh600415</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>小商品城</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>23.02</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>算力+跨境支付|1.2023年4月24日公告，公司与浙江联通签订《战略合作框架协议》，拟合作建设运营“一带一路”国际数据中心；为推动国际数据中心项目尽快落地，公司拟投资5亿元设立义乌云带路数据科技有限公司。国际数据中心项目一期规划机柜3000架，计算能力约12万VCPU,智算能力约50Pflops。
-2.公司于2022年7月完成了对快捷通支付牌照的收购，收购完成后公司对支付牌照正式启用了中文品牌名“义支付”，英文品牌名“Yiwu Pay”，并获批跨境人民币备案资格。</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>算力, 跨境支付</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>《稀土开采和稀土冶炼分离总量调控管理暂行办法》8月22日发布。</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>sz002378</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>章源钨业</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>钨+稀土|1.公司建立了从钨上游采矿、选矿，中游冶炼至下游精深加工的完整一体化生产体系，是国内钨行业产业链完整的厂商之一。
-2.公司主营包括各种稀土氧化物、稀土金属、稀土发光材料、磁性材料等研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>钨, 稀土</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>《稀土开采和稀土冶炼分离总量调控管理暂行办法》8月22日发布。</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>sz002057</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>中钢天源</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>稀土+机器人|1.公司的永磁器件业务包括永磁铁氧体和烧结钕铁硼器件。永磁铁氧体器件是通过陶瓷工艺法制造而成的复合氧化物。
-2.公司生产制造的电池级四氧化三锰产品是较为理想的新能源电池正极材料，稀土永磁产品广泛应用于新能源汽车、绿色电力、机器人自动化、3C等相关领域，目前细分市场订单有涉及无人机与人形机器人领域。</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>稀土, 机器人</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>《稀土开采和稀土冶炼分离总量调控管理暂行办法》8月22日发布。</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>sh600010</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>包钢股份</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁|公司主要从事矿产资源开发利用、钢铁产品的生产与销售，主要产品有稀土精矿、萤石精矿等矿产品。控股股东包钢集团拥有的白云鄂博矿是世界闻名的资源宝库，已探明的铁矿石储量为14亿吨，稀土储量居世界第一位，铌储量居世界第二位。</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>《稀土开采和稀土冶炼分离总量调控管理暂行办法》8月22日发布。</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>sz300748</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>金力永磁</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>36.36</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁+机器人|1.公司是集研发、生产和销售高性能钦铁硼永磁材料干一体的高新技术企业，是国内新能源和节能环保领域核心应用材料的领先供应商。
-2.公司一直十分关注机器人行业的发展，已在机器人及工业伺服电机领域深耕多年，具有深厚的技术积累，以及优质的客户资源，公司亦有信心把握未来市场机遇。</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁, 机器人</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>《稀土开采和稀土冶炼分离总量调控管理暂行办法》8月22日发布。</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>836263.BJ</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>中航泰达</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁|参股公司包钢节能旗下绿冶环能公司“新建50000吨高性能钕铁硼速凝合金项目节能报告”顺利通过评审。</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>机器人</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>英伟达机器人账号在社交平台发布预热推文，8月25日英伟达机器人“新大脑”即将揭晓。</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>sh605288</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>凯迪股份</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>光伏+机器人|1.公司生产的光伏支架产品已基本符合产业要求。
-2.公司主要产品为线性驱动系统，可以应用在机器人上。</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>光伏, 机器人</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.23</v>
+        <v>0.3</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人账号在社交平台发布预热推文，8月25日英伟达机器人“新大脑”即将揭晓。</t>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sh603111</t>
+          <t>sh605255</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>康尼机电</t>
+          <t>天普股份</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.47</v>
+        <v>35.45</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I15" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>高铁+机器人|1.公司是以轨道车辆现代化装备研发和制造为主、行业优势明显的高科技企业，是中国轨道车辆门系统国产化研发和制造基地。
-2.子公司康尼智控主要业务为电控技术研发、智能设备、机器人、仪器仪表、电动工具销售等，公司联合申报的《下肢功能康复训练》成功入选国家工信部《医疗领域机器人典型应用场景名单》。</t>
+          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>高铁, 机器人</t>
+          <t>中昊芯英入股</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.23</v>
+        <v>0.3</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人账号在社交平台发布预热推文，8月25日英伟达机器人“新大脑”即将揭晓。</t>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sz002611</t>
+          <t>sh688228</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>东方精工</t>
+          <t xml:space="preserve">开普云  </t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>20.22</v>
+        <v>94.75</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>机器人+英伟达|东方精工目前持有嘉腾机器人19.8366%的股权，英伟达NVIDIA曾在CES上展示嘉腾提供的AI大模型在AMR上的应用案例。</t>
+          <t>并购重组+算力|1.开普云公告称，公司拟通过支付现金的方式向深圳金泰克购买南宁泰克半导体有限公司70%股权，交易价格尚未确定，交易对方深圳金泰克将其存储产品业务的经营性资产转移至南宁泰克。交易完成后，南宁泰克将成为公司的控股子公司，公司将新增存储产品相关业务。
+2.2024年1月25日公告，公司拟与成都华创鲲航科技合伙企业（有限合伙）共同出资设立合资公司。合资公司以提供行业大模型、人工智能大模型与算力软硬件一体化融合产品、人工智能算力运营服务、人工智能算力优化调度平台、人工智能大模型MaaS/SaaS服务等为业务方向。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>机器人, 英伟达</t>
+          <t>并购重组, 算力</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.23</v>
+        <v>0.3</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人账号在社交平台发布预热推文，8月25日英伟达机器人“新大脑”即将揭晓。</t>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sz002277</t>
+          <t>sz002685</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>友阿股份</t>
+          <t>华东重机</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.19</v>
+        <v>9.77</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr"/>
+        <v>10.02</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>机器人+零售+芯片|1.公司出资7875万元认购隆深机器人15%股份。佛山隆深机器人有限公司是一家专业从事工业机器人系统集成、非标自动化设备及整线设计制造、机器人本体、控制器研发及智能制造服务的企业。
-2.公司是长沙及湖南省规模最大的百货零售企业，以百货零售为主要业务。
-3.2025年5月27日公告，公司拟通过发行股份及支付现金的方式购买深圳尚阳通科技股份有限公司100%股权，尚阳通专注于高端半导体功率器件芯片的研发设计。</t>
+          <t>算力芯片|子公司厦门锐信图芯的GPU已经与国内主流CPU、操作系统等生态厂商完成适配，在国产化台式机、一体机、笔记本和平板电脑当中批量应用，产品已切入到党政办公、交通、教育、税务、电力和轨道交通等行业。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>机器人, 零售, 芯片</t>
+          <t>算力芯片</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.23</v>
+        <v>0.3</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人账号在社交平台发布预热推文，8月25日英伟达机器人“新大脑”即将揭晓。</t>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sz300503</t>
+          <t>sz002364</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>昊志机电</t>
+          <t>中恒电气</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>33.54</v>
+        <v>25.8</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>20</v>
+        <v>10.02</v>
       </c>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司的主要产品包括主轴、转台、减速器、直线电机、伺服电机、伺服驱动、运动控制器等高端装备核心功能部件，其下游应用领域为数控机床、工业机器人及运动控制领域。</t>
+          <t>数据中心HVDC|公司面向ICT行业能源网络建设提供数据中心HVDC直流供配电、预制化Panama电力模组，5G全栈式站点高效能源等产品及解决方案。作为数据中心高压直流（HVDC）绿色供电技术方案先行者，公司牵头制订了《信息通信用240V/336V直流供电系统技术要求和试验方法》国家标准。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>数据中心HVDC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.98</v>
+        <v>0.3</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sh600246</t>
+          <t>sh603685</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>万通发展</t>
+          <t>晨丰科技</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>12.77</v>
+        <v>18.5</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>9.99</v>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>拟收购数渡科技|万通发展公告称，公司拟通过增资及股权转让方式合计投资8.54亿元取得数渡科技62.98%股权。投资完成后，数渡科技将成为公司控股子公司并纳入合并报表。标的公司主要从事高速互连芯片设计与研发以及提供ASIC芯片定制设计服务。</t>
+          <t>PCB+算力|1.公司的印制电路板主要应用于照明市场及显示背光源市场。
+2.2025年7月21日公告，公司使用自有资金9000万元向全资子公司浙江北网智算科技有限公司增资。晨丰科技此次增资北网智算，意在打造依托增量配电网的一体化电算融合生态，整合算力中心的规划、建设与运营全链条，提供高绿电占比、低电价的整体解决方案，通过绿电支持算力、算力反哺绿电，构建良性循环。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>拟收购数渡科技</t>
+          <t>PCB, 算力</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.98</v>
+        <v>0.02</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sz300192</t>
+          <t>sh603929</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>科德教育</t>
+          <t>亚翔集成</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>25.91</v>
+        <v>42.45</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>20.01</v>
+        <v>10</v>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
@@ -1442,416 +1428,414 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>参股中昊芯英|参股的中昊芯英是国内掌握TPU架构训推一体AI芯片核心技术的公司，致力于打造“自研训练芯片+超算集群+预训练大模型”的产业价值链。</t>
+          <t>洁净室系统|公司作为一站式洁净室系统集成工程服务的专业提供商，主营业务为IC半导体、光电等高科技电子产业及生物医药、云计算中心等相关领域的建厂工程提供洁净室工程服务。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>参股中昊芯英</t>
+          <t>洁净室系统</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.98</v>
+        <v>0.02</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sh605255</t>
+          <t>sz001358</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>天普股份</t>
+          <t>兴欣新材</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>32.23</v>
+        <v>27.81</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>股权转让+中昊芯英|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
+          <t>光刻胶剥离液|公司在电子化学品领域的产品主要是 N-羟乙基哌嗪以及N,N-二甲基丙酰胺，主要用于生产面板的光刻胶剥离液。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>股权转让, 中昊芯英</t>
+          <t>光刻胶剥离液</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.98</v>
+        <v>0.02</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>DeepSeek在其官宣发布DeepSeek-V3.1的文章中提到，UE8M0 FP8是针对即将发布的下一代国产芯片设计。</t>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sz002402</t>
+          <t>sh603181</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>和而泰</t>
+          <t>皇马科技</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>39.75</v>
+        <v>17.23</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.03</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>参股摩尔线程|公司持有摩尔线程1.244%股份。摩尔线程以全功能GPU为核心，致力于向全球提供加速计算的基础设施和一站式解决方案，为各行各业的数智化转型提供强大的AI计算支持。</t>
+          <t>半导体材料|公司生产的表面活性剂产品应用在湿电子化学品中，可以起到功能性的作用。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>参股摩尔线程</t>
+          <t>半导体材料</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.58</v>
+        <v>0.02</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>天风证券研报指出，混合精度（如FP8+FP16）技术通过降低传输频次减少能耗，但单次传输数据量显著增加，导致总传输量上升，推动液冷系统、高速光模块等配套设施需求增长。</t>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sh601869</t>
+          <t>sh603360</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>长飞光纤</t>
+          <t>百傲化学</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>64.88</v>
+        <v>23.16</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>光模块|子公司博创科技10G PON OLT 光模块出货量国内领先，在数通市场，已向多家国内外互联网客户批量供货25G 至400G 速率的中短距光模块、有源光缆和高速铜缆。</t>
+          <t>光刻机|百傲化学公告，公司全资子公司芯傲华拟以7亿元增资芯慧联，增资后直接持有其46.6667%股权，并通过接受表决权委托方式合计控制其54.6342%股权的表决权。芯慧联主营涂胶显影机、光刻机等黄光制程设备。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>光刻机</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.58</v>
+        <v>0.02</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>天风证券研报指出，混合精度（如FP8+FP16）技术通过降低传输频次减少能耗，但单次传输数据量显著增加，导致总传输量上升，推动液冷系统、高速光模块等配套设施需求增长。</t>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sh603083</t>
+          <t>sh603823</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>剑桥科技</t>
+          <t xml:space="preserve">百合花  </t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>72.88</v>
+        <v>15.1</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>10.01</v>
+        <v>9.98</v>
       </c>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>光模块|剑桥科技在互动平台表示，公司对于800G光模块是有长期发展规划和坚定信心的。在良率方面，公司从研发端到生产端都进行了大量的投入和反复的验证测试，当前各规格产品的良率达到产品设计的预期。</t>
+          <t>光刻胶|公司生产的相关高性能颜料可应用于生产半导体领域液晶面板用光刻胶，该产品已实现吨级销售。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>光刻胶</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.58</v>
+        <v>-0.01</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>天风证券研报指出，混合精度（如FP8+FP16）技术通过降低传输频次减少能耗，但单次传输数据量显著增加，导致总传输量上升，推动液冷系统、高速光模块等配套设施需求增长。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sz000070</t>
+          <t>sz002272</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>特发信息</t>
+          <t>川润股份</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>10.51</v>
+        <v>21.37</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="I25" s="2" t="inlineStr"/>
+        <v>9.98</v>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>8天5板</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>光模块+算力|1.公司控股子公司四川华拓的光模块、光器件平台技术可以适用于CPO开发和拓展，同平台产品应用于数据中心领域，目前已出货。
-2.公司除自营数据中心项目外，还曾承接鹏城云脑二期项目Atlas900 AI计算集群及通用计算与存储系统的建设集成项目。</t>
+          <t>液冷IDC+华为|1.公司液冷技术在能源、工业等领域有多年成熟应用，在储能、数据中心、云计算、算力设备、通信网络、电力电网、电源转换等领域为客户提供液冷产品和温控节能解决方案。公司已实现服务器浸没式液冷产品“零”突破。
+2.2024年3月11日公司官微透露，华夏鲲鹏与川润在华灏鲲鹏西部产业基地隆重举行战略合作签约仪式。双方将在数字能源领域实现深度合作。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>光模块, 算力</t>
+          <t>液冷IDC, 华为</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.58</v>
+        <v>-0.01</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>天风证券研报指出，混合精度（如FP8+FP16）技术通过降低传输频次减少能耗，但单次传输数据量显著增加，导致总传输量上升，推动液冷系统、高速光模块等配套设施需求增长。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sz300757</t>
+          <t>sz002600</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>罗博特科</t>
+          <t>领益智造</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>270.36</v>
+        <v>14.92</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="inlineStr"/>
+        <v>10.03</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>7天4板</t>
+        </is>
+      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>CPO+半导体+光伏|1.2023年9月7日公司在互动平台表示，公司参股公司ficonTEC与华为海思合作业务涉及光测试和组装业务。
-2.公司购买斐控泰克、FSG和FAG各100%股权。目标公司是全球光子及半导体自动化封装和测试领域的领先设备制造商之一，其生产的设备主要用于光子半导体的微组装及测试。
-3.公司是一家研制高端自动化装备和基于工业互联网技术的智能制造执行系统软件（MES）的高新技术企业，产品主要应用于光伏电池领域。</t>
+          <t>机器人+液冷IDC|1.公司拥有伺服电机、减速器、驱动器、运动控制器等人形机器人执行层的核心技术，可提供模切结构件、金属结构件、注塑结构件、软包结构件等，已为人形机器人客户提供头部总成、灵巧手总成、四肢总成、高功率充电和散热解决方案等核心硬件。
+2.公司已为AMD等国际客户批量出货散热模组，也已全面具备CDU、液冷模组、液冷板、空冷散热模组、热管、均热板、石墨片等产品及系统性散热解决方案的研发、生产能力，应用于人形机器人、服务器、光模块等各类产品。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>CPO, 半导体, 光伏</t>
+          <t>机器人, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.25</v>
+        <v>-0.01</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。在此背景下，高多层板、高密度互连板(HDI板)、IC载板规划产值增长较快。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sz000016</t>
+          <t>sz002158</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>深康佳Ａ</t>
+          <t>汉钟精机</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>6.12</v>
+        <v>25.74</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>10.07</v>
+        <v>10</v>
       </c>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>消费电子+PCB|1.公司的Micro LED产品可应用于包括AR眼镜在内的各类显示设备。
-2.公司PCB业务由深圳市康佳电路有限责任公司作为统一管理运营主体，产品涉及金属基板、双面板、多层板、5G高频高速板及HDI（高密度互连技术）等。</t>
+          <t>液冷IDC|公司离心式和磁悬浮离心式压缩机产品可应用于数据中心等行业的“液冷技术”相关领域。</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>消费电子, PCB</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.25</v>
+        <v>-0.01</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。在此背景下，高多层板、高密度互连板(HDI板)、IC载板规划产值增长较快。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sh603228</t>
+          <t>sz002131</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>景旺电子</t>
+          <t>利欧股份</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>59.6</v>
+        <v>5.31</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>10</v>
+        <v>9.94</v>
       </c>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司专注于印制电路板行业，主要从事印制电路板的研发、生产和销售业务。公司主要产品种类包括双面及多层刚性电路板、柔性电路板（含贴装）和金属基电路板。</t>
+          <t>液冷IDC|公司在数据中心布局了全场景智慧冷却方案，涉及一次侧和二次侧的高效液冷用泵和健康检测系统，已对接国内主流液冷系统方案供应商。</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.25</v>
+        <v>-0.01</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。在此背景下，高多层板、高密度互连板(HDI板)、IC载板规划产值增长较快。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sz001359</t>
+          <t>sh603158</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>平安电工</t>
+          <t>腾龙股份</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>56.55</v>
+        <v>15.07</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>10</v>
@@ -1859,28 +1843,27 @@
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>PCB+固态电池|1.公司玻纤布产品主要分为工业级玻纤布和电子级玻纤布。其中电子级玻纤布可使基板具备优质的电气特性及机械强度，是主要用于印制电路覆铜板的绝缘增强材料。
-2.公司对固态电池行业的发展动态和趋势保持密切关注。云母是天然的高绝缘材料，耐高温、耐绝缘等特性可以在固态电池、人形机器人中有潜在的应用价值。</t>
+          <t>液冷IDC|公司电子水泵产品有向客户供货，间接应用于数据中心/服务器液冷领域。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>PCB, 固态电池</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.25</v>
+        <v>0.61</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。在此背景下，高多层板、高密度互连板(HDI板)、IC载板规划产值增长较快。</t>
+          <t>当地时间8月24日，据知名科技记者马克·古尔曼消息，苹果公司计划从今年9月发布的iPhone 17系列开始，开启一个为期三年的重大外观革新周期，旨在强化其旗舰产品的吸引力。</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -1888,44 +1871,45 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sh603124</t>
+          <t>sh603595</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>江南新材</t>
+          <t>东尼电子</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>83.70999999999999</v>
+        <v>22.04</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司主要从事铜基新材料的研发、生产与销售。公司核心产品包括铜球系列、氧化铜粉系列及高精密铜基散热片系列三大产品类别。公司自主研发的铜球系列产品已应用于各种类型与工艺的PCB以及光伏电池板的镀铜制程等领域；氧化铜粉系列产品已应用于PCB镀铜制程、锂电池PET复合铜箔制造、有机硅单体合成催化剂等领域。</t>
+          <t>半导体+消费电子|1.公司完成以24元/股的价格定增募集4.68亿元用于年产12万片碳化硅半导体材料项目、年产1亿对新能源软包动力电池用极耳项目和补充流动资金。
+2.公司消费电子行业产品主要包括超微细电子线材、无线充电隔磁材料。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>半导体, 消费电子</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.16</v>
+        <v>0.61</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>国家药监局日前介绍，目前，我国医药产业规模位居全球第二位，在研创新药数目达到全球30%左右。</t>
+          <t>当地时间8月24日，据知名科技记者马克·古尔曼消息，苹果公司计划从今年9月发布的iPhone 17系列开始，开启一个为期三年的重大外观革新周期，旨在强化其旗舰产品的吸引力。</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -1933,49 +1917,45 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sh603716</t>
+          <t>sz002681</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>塞力医疗</t>
+          <t>奋达科技</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>34.67</v>
+        <v>7.9</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.03</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>创新药+AI医疗|1.公司战略投资的心血管领域长效治疗性疫苗的创新性研发公司——武汉华纪元生物技术开发有限公司，其自主研发国家1类生物创新药HJY-ATRQβ-001正式获得国家药品监督管理局（NMPA）的新药临床试验申请（IND）受理通知书。
-2.公司作为以“人工智能+医疗大数据”为基础的智慧医疗综合体系建设供应商，始终聚焦医疗技术更新迭代与医疗领域应用场景的创新融合。</t>
+          <t>机器人+消费电子|1.公司一直以来重视前沿科技，密切关注人形机器人产业链商业机会，注册成立了深圳威尔新动力有限公司，致力于人形机器人关节等核心部件的研发、制造。
+2.公司主营消费电子整机及其核心部件的研发、设计、生产与销售，是智能硬件领域垂直一体化解决方案提供商。</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>创新药, AI医疗</t>
+          <t>机器人, 消费电子</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.16</v>
+        <v>0.61</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>国家药监局日前介绍，目前，我国医药产业规模位居全球第二位，在研创新药数目达到全球30%左右。</t>
+          <t>当地时间8月24日，据知名科技记者马克·古尔曼消息，苹果公司计划从今年9月发布的iPhone 17系列开始，开启一个为期三年的重大外观革新周期，旨在强化其旗舰产品的吸引力。</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -1983,44 +1963,44 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sh603669</t>
+          <t>sz002824</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>灵康药业</t>
+          <t>和胜股份</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>6.26</v>
+        <v>21.11</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>10.02</v>
+        <v>10.01</v>
       </c>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司在2025年半年报中透露，公司产品布局由普通仿制药转向高难度仿制药和创新药，紧抓政策机遇，积极布局改良型新药品种，2.2类新药品种艾司奥美拉唑镁碳酸氢钠干混悬剂（I）已获得临床试验批件，进一步丰富产品管线。</t>
+          <t>消费电子+华为|公司长期配合华为研发部门研发手机用铝合金新材料，开发出来的铝合金新材料已应用于华为手机中多款、多代高端旗舰机型。</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>消费电子, 华为</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.16</v>
+        <v>0.61</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>国家药监局日前介绍，目前，我国医药产业规模位居全球第二位，在研创新药数目达到全球30%左右。</t>
+          <t>当地时间8月24日，据知名科技记者马克·古尔曼消息，苹果公司计划从今年9月发布的iPhone 17系列开始，开启一个为期三年的重大外观革新周期，旨在强化其旗舰产品的吸引力。</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -2028,16 +2008,16 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sz002940</t>
+          <t>sz002241</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>昂利康</t>
+          <t>歌尔股份</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>55.62</v>
+        <v>34.06</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>10.01</v>
@@ -2045,138 +2025,140 @@
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司目前正在进行的创新药研发项目为注射用ALK-N001，该药物是一种创新的肿瘤微环境激活型的小分子偶联药物，已于2025年2月收到国家药品监督管理局签发的境内生产药品注册临床试验《受理通知书》。</t>
+          <t>消费电子|公司将主营业务分为精密零组件业务、智能声学整机业务和智能硬件业务。公司精密零组件业务主要产品为微型麦克风、微型扬声器、扬声器模组、天线模组、MEMS传感器及其他电子元器件等。</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>华为产业链</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.16</v>
+        <v>0.66</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>国家药监局日前介绍，目前，我国医药产业规模位居全球第二位，在研创新药数目达到全球30%左右。</t>
+          <t>华为云方面对《科创板日报》表示，在智能算力云的赛道上，华为云将投入更多的资源，加大对昇腾云、盘古大模型、数智融合等投入。</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sz300683</t>
+          <t>sh600410</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>海特生物</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>59.41</v>
+        <v>25.58</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I34" s="2" t="inlineStr"/>
+        <v>10.02</v>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>14天8板</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司是一家以创建一流生物创新药企业为目标的湖北省高新技术生物制药企业，主营业务为生物制品(注射用鼠神经生长因子冻干粉针剂、注射用抗乙肝转移因子冻干粉针剂)、凝血酶和其他化学药品的研发、生产和销售。</t>
+          <t>华为+算力|公司建设了以华为昇腾芯片为核心的天津市河北区人工智能新型基础设施建设项目EPC工程总承包一、二、三期项目。</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>华为, 算力</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>华为产业链</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.69</v>
+        <v>0.66</v>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>国家统计局数据显示，7月份，社会消费品零售总额38780亿元，同比增长3.7%；其中，7月全国烟酒类零售总额433亿元，同比增长2.7%；1-7月，全国烟酒类零售总额3740亿元，同比增长5.2%。</t>
+          <t>华为云方面对《科创板日报》表示，在智能算力云的赛道上，华为云将投入更多的资源，加大对昇腾云、盘古大模型、数智融合等投入。</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sh601579</t>
+          <t>sz002298</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">会稽山  </t>
+          <t>中电鑫龙</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>23.2</v>
+        <v>11.94</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>10.05</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>黄酒|公司主要从事黄酒的生产、销售和研发等业务，公司及下属子公司主要拥有“会稽山”、“西塘”、“乌毡帽”、“唐宋”等主品牌。</t>
+          <t>华为+存储+算力|1.公司与HUAWEI公司签订了战略合作协议，双方在智慧城市、大数据中心等领域进行合作，双方积极推动智慧城市、大数据中心等项目落地。
+2.公司在2022年半年报中透露，公司专用磁存储产品具备存储密度高、使用能耗低、数据安全高的特点，有望成为长期存储大规模冷数据的更优选择。
+3.公司研发的超融合云存储节点以及AI异构计算服务器等产品已应用于多个大数据算力中心项目。</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>黄酒</t>
+          <t>华为, 存储, 算力</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>华为产业链</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.69</v>
+        <v>0.66</v>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>国家统计局数据显示，7月份，社会消费品零售总额38780亿元，同比增长3.7%；其中，7月全国烟酒类零售总额433亿元，同比增长2.7%；1-7月，全国烟酒类零售总额3740亿元，同比增长5.2%。</t>
+          <t>华为云方面对《科创板日报》表示，在智能算力云的赛道上，华为云将投入更多的资源，加大对昇腾云、盘古大模型、数智融合等投入。</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sh600702</t>
+          <t>sz002261</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>舍得酒业</t>
+          <t>拓维信息</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>67</v>
+        <v>40.27</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>10</v>
@@ -2184,483 +2166,507 @@
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>白酒|公司是“中国名酒”企业和川酒“六朵金花”之一，拥有“沱牌”、“舍得”两大中国驰名白酒品牌。</t>
+          <t>华为+算力+业绩|1.截至2023年，公司成为华为唯一“鲲鹏/昇腾+鸿蒙”软硬一体战略伙伴，是华为在人工智能领域覆盖“软件+硬件生产+生态运营”的全方位深度合作的伙伴。2022年，公司携手华为在8大节点算力中心做了布局。
+2.拓维信息公告称，拓维信息发布2025年半年度报告，公司实现营业收入13.06亿元，同比下降24.42%；归属于上市公司股东的净利润为7880.59万元，同比增长2262.83%。</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>白酒</t>
+          <t>华为, 算力, 业绩</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.69</v>
+        <v>-0.08</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>国家统计局数据显示，7月份，社会消费品零售总额38780亿元，同比增长3.7%；其中，7月全国烟酒类零售总额433亿元，同比增长2.7%；1-7月，全国烟酒类零售总额3740亿元，同比增长5.2%。</t>
+          <t>多只CPO概念股昨晚发布中报，其中天孚通信上半年净利润8.99亿元，同比增长37%；剑桥科技上半年公司归母净利润1.21亿元，同比增长51.12%。</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sz002186</t>
+          <t>sh603083</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>全 聚 德</t>
+          <t>剑桥科技</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>13.74</v>
+        <v>80.17</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I37" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>7天4板</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>食品饮料|公司食品产业主要为鸭坯及其它食品的研发、生产与销售，设立了全聚德仿膳食品公司和全聚德三元金星食品公司两大生产基地。</t>
+          <t>光模块+产能紧张|1.剑桥科技在互动平台表示，公司对于800G光模块是有长期发展规划和坚定信心的。
+2.2025年8月25日晚公告纪要，公司当前最大的挑战在于产能，今年的产能已基本被现有的大客户占用，正持续推进扩产。</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>光模块, 产能紧张</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.69</v>
+        <v>-0.08</v>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>国家统计局数据显示，7月份，社会消费品零售总额38780亿元，同比增长3.7%；其中，7月全国烟酒类零售总额433亿元，同比增长2.7%；1-7月，全国烟酒类零售总额3740亿元，同比增长5.2%。</t>
+          <t>多只CPO概念股昨晚发布中报，其中天孚通信上半年净利润8.99亿元，同比增长37%；剑桥科技上半年公司归母净利润1.21亿元，同比增长51.12%。</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sh603057</t>
+          <t>sh601869</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>紫燕食品</t>
+          <t>XD长飞光</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>24.12</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I38" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>卤制食品|公司是国内规模化的卤制食品生产企业，主营业务为卤制食品的研发、生产和销售，主要产品为夫妻肺片、百味鸡、藤椒鸡等以鸡、鸭、牛、猪等禽畜产品以及蔬菜、水产品、豆制品为原材料的卤制食品。</t>
+          <t>光模块|子公司博创科技10G PON OLT 光模块出货量国内领先，在数通市场，已向多家国内外互联网客户批量供货25G 至400G 速率的中短距光模块、有源光缆和高速铜缆。</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>卤制食品</t>
+          <t>光模块</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>家居装饰</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.07</v>
+        <v>-0.08</v>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>央行第二季度中国货币政策执行报告指出，下一阶段要持续巩固房地产市场稳定态势，完善房地产金融基础性制度，助力构建房地产发展新模式。</t>
+          <t>多只CPO概念股昨晚发布中报，其中天孚通信上半年净利润8.99亿元，同比增长37%；剑桥科技上半年公司归母净利润1.21亿元，同比增长51.12%。</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sz002830</t>
+          <t>sz000070</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>名雕股份</t>
+          <t>特发信息</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>19.14</v>
+        <v>11.56</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>家居|公司是一家面向中高端客户的、产业链最完整的家装及家居综合服务提供商。</t>
+          <t>铜连接+算力|1.2025年8月1日互动，公司光通信领域相关进展主要集中在高速传输方面，包括数据中心的高速光连接，骨干传输网等。公司馈线电缆属于通信信号传输铜缆，公司MPO产品(多模光纤连接器)属于高速连接器。
+2.公司除自营数据中心项目外，还曾承接鹏城云脑二期项目Atlas900 AI计算集群及通用计算与存储系统的建设集成项目。</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>家居</t>
+          <t>铜连接, 算力</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>家居装饰</t>
+          <t>数字货币</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.07</v>
+        <v>-0.11</v>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>央行第二季度中国货币政策执行报告指出，下一阶段要持续巩固房地产市场稳定态势，完善房地产金融基础性制度，助力构建房地产发展新模式。</t>
+          <t>据报道，2025年中国国际服务贸易交易会金融服务专题将于9月10日-9月14日在北京首钢园举办。</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sh600539</t>
+          <t>sz002212</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>狮头股份</t>
+          <t>天融信</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>11.97</v>
+        <v>11.25</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I40" s="2" t="inlineStr"/>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>家居|子公司龙净水业主要业务为净水龙头及配件，各类产品通过NSF、ROHS等检测，并获得GMC环球制造商认证、ISO9001质量体系认证、ISO14001环境体系认证等。</t>
+          <t>数字货币+算力|1.公司构建防御、防护、监测、阻断于一体的全链条全方位“挖矿”专项治理方案，并推出了数据安全运营、数据分类分级、数据隐私保护、数据防泄漏、数据跨境安全合规等相关产品，可为稳定币相关场景提供安全保障。
+2.公司DeepSeek安全智算一体机可广泛应用于智算中心系统建设、DeepSeek本地私有化部署、大模型推理与训练、大模型安全防护等场景中。</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>家居</t>
+          <t>数字货币, 算力</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>家居装饰</t>
+          <t>数字货币</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.07</v>
+        <v>-0.11</v>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>央行第二季度中国货币政策执行报告指出，下一阶段要持续巩固房地产市场稳定态势，完善房地产金融基础性制度，助力构建房地产发展新模式。</t>
+          <t>据报道，2025年中国国际服务贸易交易会金融服务专题将于9月10日-9月14日在北京首钢园举办。</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sz002918</t>
+          <t>sz002537</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>蒙娜丽莎</t>
+          <t>海联金汇</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>12.72</v>
+        <v>11.76</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>10.03</v>
+        <v>10.01</v>
       </c>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>家居|公司致力于高品质建筑陶瓷产品研发、生产和销售，主要产品可分为陶瓷砖、陶瓷板、薄型陶瓷砖。</t>
+          <t>数字货币+跨境支付|1.公司金融科技板块主要从事第三方支付服务、大数据服务、移动信息服务、跨境电商服务及运营商计费结算服务业务。2019年9月公司在互动平台披露，公司曾参与并完成中国支付清算协会数字货币研究小组的相关课题。
+2.公司拥有“跨境外汇支付资质”和“跨境人民币支付许可”，能够实现进出口双向的跨境外汇及跨境人民币的结算；同时拥有“VISA国际卡网上收单服务提供商认证”，“香港金钱服务经营者牌照（MSO）”，可以助力更多的中国品牌出口海外，商品销售全球，实现便捷的外卡收单。</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>家居</t>
+          <t>数字货币, 跨境支付</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>家居装饰</t>
+          <t>数字货币</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.07</v>
+        <v>-0.11</v>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>央行第二季度中国货币政策执行报告指出，下一阶段要持续巩固房地产市场稳定态势，完善房地产金融基础性制度，助力构建房地产发展新模式。</t>
+          <t>据报道，2025年中国国际服务贸易交易会金融服务专题将于9月10日-9月14日在北京首钢园举办。</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>sh605003</t>
+          <t>sz300645</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>众望布艺</t>
+          <t>正元智慧</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>27.21</v>
+        <v>23.86</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>9.98</v>
+        <v>20.02</v>
       </c>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>家居|公司主营业务为中高档装饰面料及制品的研发、设计、生产与销售。</t>
+          <t>数字货币|公司已经完成了数字人民币智能终端的研发，即支持“卡码脸币”一体化的交易终端，以及数字人民币硬钱包双离线功能测试等技术积累。双离线支付在支付双方都无网络的情景下进行，是数字人民币创新场景的一个重要方向。</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>家居</t>
+          <t>数字货币</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.84</v>
+        <v>-0.28</v>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>8月22日，中国光伏行业协会发布《关于进一步加强行业自律，共同维护公平竞争、优胜劣汰的光伏市场秩序的倡议》，再次重申坚决抵制以低于成本的价格开展恶性竞争。</t>
+          <t>记者获悉，相关部门近期将会发放卫星互联网牌照。</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sz000753</t>
+          <t>sh600118</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>漳州发展</t>
+          <t>中国卫星</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>7.28</v>
+        <v>36.63</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>9.969999999999999</v>
+        <v>10</v>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>光伏|公司全资子公司漳发新能源、东山开投与一道新能源(衢州)共同设立一道新能源科技(漳州)有限公司，合资公司建设内容为5GW的光伏组件生产线及配套设施。</t>
+          <t>商业航天|旗下中国东方红卫星股份有限公司的主营业务是宇航制造和卫星应用业务。公司主要产品有卫星系统研制、宇航部组件制造、卫星通导遥终端产品制造、大型地面应用系统集成、无人机系统集成、卫星综合运营服务、信息系统及综合应用平台。</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>商业航天</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.84</v>
+        <v>-0.28</v>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>8月22日，中国光伏行业协会发布《关于进一步加强行业自律，共同维护公平竞争、优胜劣汰的光伏市场秩序的倡议》，再次重申坚决抵制以低于成本的价格开展恶性竞争。</t>
+          <t>记者获悉，相关部门近期将会发放卫星互联网牌照。</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>sh603815</t>
+          <t>sz300971</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>交建股份</t>
+          <t>博亚精工</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>9.34</v>
+        <v>26.44</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>10.01</v>
+        <v>20.02</v>
       </c>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>光伏|2023年9月11日公司披露重组预案显示，公司拟以发行股份及支付现金的方式，购买无锡博达新能科技有限公司70%股权，博达新能主营光伏电池及组件业务。</t>
+          <t>商业航天+业绩|1.公司有配套发射类装置应用于飞机，火箭等航空航天领域。
+2.博亚精工发布上半年业绩，归母净利润4431.69万元，同比增长61.26%。</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>商业航天, 业绩</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>商业航天</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.84</v>
+        <v>-0.28</v>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>8月22日，中国光伏行业协会发布《关于进一步加强行业自律，共同维护公平竞争、优胜劣汰的光伏市场秩序的倡议》，再次重申坚决抵制以低于成本的价格开展恶性竞争。</t>
+          <t>记者获悉，相关部门近期将会发放卫星互联网牌照。</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sh603098</t>
+          <t>sh600151</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>森特股份</t>
+          <t>航天机电</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>14.73</v>
+        <v>8.73</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>10.01</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>光伏+基建|1.公司主要致力于光伏系统、光伏电站项目的投资、开发、设计、销售、系统运行维护、售后服务。
-2.公司已成长为行业内领先的建筑金属围护系统一体化服务商，主要承接金属围护系统工程（屋面系统、墙面系统）和声屏障系统工程，提供从工程咨询、设计、专用材料供应和加工制作到安装施工全过程的工程承包服务。</t>
+          <t>商业航天|公司主要经营活动包括卫星及卫星应用、运载火箭应用及其他民用航天相关产品的研制开发。</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>光伏, 基建</t>
+          <t>商业航天</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.84</v>
+        <v>-0.3</v>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>8月22日，中国光伏行业协会发布《关于进一步加强行业自律，共同维护公平竞争、优胜劣汰的光伏市场秩序的倡议》，再次重申坚决抵制以低于成本的价格开展恶性竞争。</t>
+          <t>英伟达正式推出其专为机器人应用设计的计算平台Jetson AGX Thor开发者套件及量产模块，目前已正式全面上市。</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sz001212</t>
+          <t>sz002953</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>中旗新材</t>
+          <t>日丰股份</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>61.49</v>
+        <v>14.89</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I46" s="2" t="inlineStr"/>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>5天3板</t>
+        </is>
+      </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>股权转让+石英|1.中旗新材公告称，星空科技与公司控股股东海南羽明华、实际控制人周军及青岛明琴签署了《股份转让协议》，星空科技拟协议收购转让方持有的合计3049.89万股公司股份，占公司股份总数的24.97%。本次股份转让完成后，公司控股股东将由海南羽明华变更为星空科技，上市公司实际控制人将由周军变更为贺荣明。
-2.公司子公司罗城晶硅新材料研发开发制造一体化项目取得了罗城县2000万吨脉石英矿采矿权，项目全部建成达产后年产高端石英硅晶产品100万吨，高端石英是光伏拉晶钳锅重要原材料。</t>
+          <t>机器人|公司已提前布局并自主研发机器人动力及信号电缆，相关技术获得了国家的专利授权。该电缆于机器人本体及体外使用，满足电能供给和探测数据、运行数据的反馈等作用。</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>股权转让, 石英</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.3</v>
+        <v>-0.3</v>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>记者获悉，相关部门近期将会发放卫星互联网牌照。</t>
+          <t>英伟达正式推出其专为机器人应用设计的计算平台Jetson AGX Thor开发者套件及量产模块，目前已正式全面上市。</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -2668,44 +2674,45 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sh688066</t>
+          <t>sz002857</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>航天宏图</t>
+          <t>三晖电气</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>31.98</v>
+        <v>28.63</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>20</v>
+        <v>9.99</v>
       </c>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>商业航天|公司通过建设分布式干涉雷达卫星星座计划和无人机产线建设，构建空天地全息感知体系，为不同行业提供智能决策。</t>
+          <t>智能电网+机器人|1.公司围绕电网公司“计量资产全寿命周期管理”要求，建立了电能表标准检测设备、电能表自动化流水线型检定系统、电能表智能化仓储系统、用电信息采集系统、互感品等产品，覆盖电能表全生命周期。
+2.公司流水线智能巡检机器人及3D仿真监控项目针对计量生产作业过程的计量生产智能运维机器人及其无人化管控平台采用机器人巡检实现作业现场无人化巡检，提高计量中心运维的智能化水平。</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>智能电网, 机器人</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.3</v>
+        <v>-0.3</v>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>记者获悉，相关部门近期将会发放卫星互联网牌照。</t>
+          <t>英伟达正式推出其专为机器人应用设计的计算平台Jetson AGX Thor开发者套件及量产模块，目前已正式全面上市。</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -2713,16 +2720,16 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sh600345</t>
+          <t>sh603767</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>长江通信</t>
+          <t>中马传动</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>29.66</v>
+        <v>36.93</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>10.01</v>
@@ -2730,135 +2737,135 @@
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>商业航天|公司全资子公司迪爱斯中标的上海垣信卫星科技有限公司的项目主要是卫星地面站园区建设和信关站建设。公司主要提供低轨卫星地面运控中心网络控制管理和指挥系统，以及按照客户要求提供地面卫星通信设备、卫星通信机房及其他软硬件设备等集成服务。</t>
+          <t>机器人|公司招股说明书显示，将以现有汽车变速器齿轮、汽车转向器齿轮、汽车油泵轴齿轮、汽车发动机齿轮、摩托车发动机齿轮、农机变速器齿轮为发展基础，大力开拓汽车自动变速器行星齿轮、工业机器人减速器齿轮等高精度齿轮产品领域。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>商业航天</t>
+          <t>发电机概念</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.3</v>
+        <v>0.36</v>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>记者获悉，相关部门近期将会发放卫星互联网牌照。</t>
+          <t>广发证券研报指出，海外柴发的价格比国内更高，当前国产柴发在国内价格300万左右、出海价格400万左右，单台利润中枢加快拔升。</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>sh600118</t>
+          <t>sh605100</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>中国卫星</t>
+          <t>华丰股份</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>33.3</v>
+        <v>27.1</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>10.01</v>
+        <v>9.98</v>
       </c>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>商业航天+低空经济|1.中国东方红卫星股份有限公司的主营业务是宇航制造和卫星应用业务。公司主要产品有卫星系统研制、宇航部组件制造、卫星通导遥终端产品制造等。
-2.公司积极参与低空经济建设与发展，适用于商用飞机搭载的机载多模导航接收机项目完成验收与地面集成测试，无人值守无人机等产品实现多场景应用和批量交付。</t>
+          <t>数据中心发电机组|公司智能化发电机组可为数据中心提供备用电源，曾多次中标中国联通数据中心柴油发电机组招标项目。</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>商业航天, 低空经济</t>
+          <t>数据中心发电机组</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>有色金属概念</t>
+          <t>发电机概念</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.18</v>
+        <v>0.36</v>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>美联储主席鲍威尔在杰克逊霍尔年会上表示，尽管通胀仍受关注，但就业市场风险上升可能使美联储在9月降息。</t>
+          <t>广发证券研报指出，海外柴发的价格比国内更高，当前国产柴发在国内价格300万左右、出海价格400万左右，单台利润中枢加快拔升。</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>sz000737</t>
+          <t>sh603950</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>北方铜业</t>
+          <t>长源东谷</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>12.5</v>
+        <v>31.47</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>10.04</v>
+        <v>10</v>
       </c>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>铜|北方铜业主营铜金属的开采、选矿、冶炼及销售等，是全国前十大的铜矿采选冶炼企业，业务覆盖铜业务主要产业链，主要产品为阴极铜、金锭、银锭，副产品为硫酸等。</t>
+          <t>机器人+发电机|1.公司聚焦人形机器人关键部件的前瞻布局，重点推进灵巧手、机械臂等高性能核心模块的研发与工程化路径建设。
+2.2025年1月10日公告，公司与玉柴集团子公司金创公司共同出资成立合资公司玉柴长源科技，玉柴长源科技将聚焦算力中心发动机缸体零部件、船电、汽车零部件等核心业务的制造加工与研发。</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>铜</t>
+          <t>机器人, 发电机</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>有色金属概念</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>美联储主席鲍威尔在杰克逊霍尔年会上表示，尽管通胀仍受关注，但就业市场风险上升可能使美联储在9月降息。</t>
+          <t>东吴证券研报指出，消费级3D打印迎来奇点时刻。根据波士顿咨询预测，2030年消费级3D打印市场规模将突破300亿美元。</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>sz002716</t>
+          <t>sz001296</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>湖南白银</t>
+          <t>长江材料</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>5.39</v>
+        <v>22.99</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>10</v>
@@ -2866,1032 +2873,939 @@
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>贵金属+铅锌|1.公司主要产品为白银、电铅、黄金及其他综合回收产品。
-2.旗下西藏俊龙矿业有限公司在拉萨地区拥有优质铅锌矿产资源。</t>
+          <t xml:space="preserve">3D打印|公司生产的3D打印砂用于快速样件开发及部份铸造的砂芯生产。
+</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>贵金属, 铅锌</t>
+          <t>3D打印</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>有色金属概念</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>美联储主席鲍威尔在杰克逊霍尔年会上表示，尽管通胀仍受关注，但就业市场风险上升可能使美联储在9月降息。</t>
+          <t>东吴证券研报指出，消费级3D打印迎来奇点时刻。根据波士顿咨询预测，2030年消费级3D打印市场规模将突破300亿美元。</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>sz002842</t>
+          <t>sz002691</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>翔鹭钨业</t>
+          <t>冀凯股份</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>12.13</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>9.969999999999999</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>钨|公司一直专注于钨制品的开发、生产与销售，主要产品包括各种规格的氧化钨、钨粉、碳化钨粉、钨合金粉及钨硬质合金等。</t>
+          <t>3D打印+机器人|1.公司产品智能整铸刮板输送机采用国际首创的整铸工艺，创新应用公司自主研发的智能3D打印技术，实现整机90%以上部件一次铸造成型。
+2.公司产品防爆柴油机智能搬运机器人适用于准备巷道、掘进巷道非硬化地面的物料、配件及超长零件运输工作和辅助吊装工作。</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>钨</t>
+          <t>3D打印, 机器人</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>农林牧渔</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.13</v>
+        <v>1.37</v>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+          <t>据发改委，近日全国平均猪粮比价跌至6∶1以下，进入三级预警区间。为促进生猪市场平稳运行，近期国家发改委将会同有关部门开展中央冻猪肉储备收储。</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>sh603200</t>
+          <t>sh603363</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>上海洗霸</t>
+          <t>傲农生物</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>74.79000000000001</v>
+        <v>4.15</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>10</v>
+        <v>10.08</v>
       </c>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>固态电池+液冷IDC|1.公司生产的固态电解质粉体材料可以应用于锂离子固态电池，多形态固态电解质粉体材料（含油性、水性、浆料）年产50吨级产线主要采用的是氧化物技术路线，公司储备了硫化物、氯化物等固态电解质的其它固态电解质粉体技术路线。
-2.公司面向腾讯、华为、中国移动等重点客户数据中心提供循环水/空气蒸发冷却等专业服务。</t>
+          <t>猪肉+业绩|1.公司围绕以“猪”为核心布局产业链，打造“饲料、养猪、食品”主业，“供应链服务、农业互联网”配套业务，主要产品包括饲料、生猪、猪肉及肉制品等。
+2.公司2025年1-6月实现营业收入为39.57亿元，同比下降15.01%；净利润3.61亿元，同比扭亏，上年同期亏损5.4亿元。</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>固态电池, 液冷IDC</t>
+          <t>猪肉, 业绩</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
-        </is>
-      </c>
+        <v>1.41</v>
+      </c>
+      <c r="C54" s="2" t="inlineStr"/>
       <c r="D54" s="2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>sz002600</t>
+          <t>sh600107</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t xml:space="preserve">ST尔雅  </t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>13.56</v>
+        <v>5.99</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I54" s="2" t="inlineStr"/>
+        <v>5.09</v>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>9天7板</t>
+        </is>
+      </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>机器人+液冷IDC|1.公司拥有伺服电机、减速器、驱动器、运动控制器等人形机器人执行层的核心技术，可提供模切结构件、金属结构件、注塑结构件、软包结构件等，已为人形机器人客户提供头部总成、灵巧手总成、四肢总成、高功率充电和散热解决方案等核心硬件。
-2.公司已为AMD等国际客户批量出货散热模组，也已全面具备CDU、液冷模组、液冷板、空冷散热模组、热管、均热板、石墨片等产品及系统性散热解决方案的研发、生产能力，应用于人形机器人、服务器、光模块等各类产品。</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>机器人, 液冷IDC</t>
-        </is>
-      </c>
+          <t>ST股 | 公司的主营业务为服装、服饰和纺织品研发、设计、制造和销售。</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
-        </is>
-      </c>
+        <v>1.41</v>
+      </c>
+      <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>sz301128</t>
+          <t>sh603377</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>强瑞技术</t>
+          <t xml:space="preserve">ST东时  </t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>117.98</v>
+        <v>3.96</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I55" s="2" t="inlineStr"/>
+        <v>5.04</v>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>6天6板</t>
+        </is>
+      </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>机器人+液冷IDC|1.公司已经通过立讯精密向部分客户提供工业领域使用的机器人相关产品。
-2.公司已向客户交付多款服务器液冷机柜相关产品，包括液冷机柜排水烘干注氮装备、液冷机柜注液测试装备等。</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>机器人, 液冷IDC</t>
-        </is>
-      </c>
+          <t>ST股 | 公司持有海若通航55%的股权，海若通航是一家具备CCAR-91部通航作业，CCAR-141部飞行培训，CCAR-145部航空器维修资质的通用航空运营商。</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
-        </is>
-      </c>
+        <v>1.41</v>
+      </c>
+      <c r="C56" s="2" t="inlineStr"/>
       <c r="D56" s="2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>sz002191</t>
+          <t>sz000609</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>劲嘉股份</t>
+          <t>ST中迪</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>4.59</v>
+        <v>4.21</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="I56" s="2" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>8天6板</t>
+        </is>
+      </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>半导体材料|2023年9月20日公告，公司拟出资5亿元设立全资子公司，名称为深圳劲嘉新源科技集团有限公司，劲嘉新源定位为聚焦电子材料发展的平台公司，开展研发、投资、管理具有高附加值的半导体材料和功能性薄膜等领域的电子材料相关业务。</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t>半导体材料</t>
-        </is>
-      </c>
+          <t>ST股 | 公司房地产项目位于重庆、成都、达州，重庆的“两江中迪广场”主要为商业项目。</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
-        </is>
-      </c>
+        <v>1.41</v>
+      </c>
+      <c r="C57" s="2" t="inlineStr"/>
       <c r="D57" s="2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>sh603929</t>
+          <t>sh603021</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>亚翔集成</t>
+          <t xml:space="preserve">ST华鹏  </t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>38.59</v>
+        <v>4.82</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I57" s="2" t="inlineStr"/>
+        <v>5.01</v>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>8天6板</t>
+        </is>
+      </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>洁净室系统集成|公司作为一站式洁净室系统集成工程服务的专业提供商，主营业务为IC半导体、光电等高科技电子产业及生物医药、云计算中心等相关领域的建厂工程提供洁净室工程服务。</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>洁净室系统集成</t>
-        </is>
-      </c>
+          <t>ST股 | 公司是国内日用玻璃行业的企业之一，主营业务为研发、生产和销售玻璃器皿产品和玻璃瓶罐。</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>中信建投指出，AI 端侧应用兴起，高端芯片亟需国产，有望推动我国芯片厂商技术升级，加速AI芯片等高尖端科技领域突破。</t>
-        </is>
-      </c>
+        <v>1.41</v>
+      </c>
+      <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>sh603163</t>
+          <t>sh600200</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>圣晖集成</t>
+          <t xml:space="preserve">*ST苏吴 </t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>38.83</v>
+        <v>1.11</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I58" s="2" t="inlineStr"/>
+        <v>4.72</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>洁净室系统集成|公司系为先进制造业提供洁净室系统集成工程整体解决方案的一站式专业服务商，涵盖洁净室厂房建造规划、设计建议等相关服务。</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t>洁净室系统集成</t>
-        </is>
-      </c>
+          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>据网络平台数据，2025年暑期档（6月—8月）电影总票房（含预售）已突破110亿元。其中，《南京照相馆》《浪浪山小妖怪》《长安的荔枝》 暂列档期票房榜前3名。</t>
-        </is>
-      </c>
+        <v>1.41</v>
+      </c>
+      <c r="C59" s="2" t="inlineStr"/>
       <c r="D59" s="2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>sz300364</t>
+          <t>sh600243</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>中文在线</t>
+          <t xml:space="preserve">*ST海华 </t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>33.95</v>
+        <v>5.02</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="I59" s="2" t="inlineStr"/>
+        <v>5.02</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>8天4板</t>
+        </is>
+      </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>短剧+AI|1.在中短剧方面，根据公司旗下四月天小说网、17K小说网平合IP改编的作品初具规模，已经推出众多改编自公司内容IP的微短剧上线抖音、快手、B站等平台。
-2.公司“中文逍遥”大模型大幅提升创作者的效率，可实现一键生成万字，一张图写出一部小说，一次读懂100万字小说。</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>短剧, AI</t>
-        </is>
-      </c>
+          <t>ST股 | 青海华鼎与源鑫隆昌、茫崖源鑫签署增资协议，约定青海华鼎以现金增资5083.88万元取得茫崖源鑫51%的股权。上市公司称，茫崖源鑫所处的天然气行业具有良好的发展前景。</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>据网络平台数据，2025年暑期档（6月—8月）电影总票房（含预售）已突破110亿元。其中，《南京照相馆》《浪浪山小妖怪》《长安的荔枝》 暂列档期票房榜前3名。</t>
-        </is>
-      </c>
+        <v>1.41</v>
+      </c>
+      <c r="C60" s="2" t="inlineStr"/>
       <c r="D60" s="2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
+          <t>sh603398</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST沐邦 </t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.沐邦高科公告，与铜陵狮子山高新技术产业开发区管理委员会、铜陵高新发展投资有限公司签订《项目投资协议书》，项目名称为年产10GW-N型高效电池片、10GW切片生产基地项目。
+2.公司上市的IP产品 “樱桃小丸子”第一期为“盲盒”类产品。</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>sz002650</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>ST加加</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 主营业务涉及酱油、植物油、食醋、味精、鸡精、蚝油等的生产及销售。</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>sz300096</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>ST易联众</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 以大数据为核心，致力于成为国内领先的民生信息服务综合运营商。公司依托鸿蒙系统研发公司的软件和系统。</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>sh603389</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST亚振 </t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.欧式家具龙头，以沙发和橱柜作为核心业务，主导产品为“亚振”、“亚振·利维亚”和“亚振·乔治亚”品牌系列欧式风格家具。
+2.公司入选“2022年度上海市首发经济引领性品牌”榜单。</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C64" s="2" t="inlineStr"/>
+      <c r="D64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>sz000972</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>*ST中基</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司依托新疆得天独厚的地域和自然优势，致力于发展番茄“红色产业”，产业规模居于前列，产品行销世界数十国家和地区，是全球主要食品企业长期、固定的原料供应商。</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>sz000004</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>*ST国华</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司旗下全资子公司智游网安为专业移动应用安全综合服务提供商。</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>sz002529</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>*ST海源</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司拟收购赛维电源科技有限公司100%股权，赛维电源拥有先进的光伏组件研发生产技术，公司通过此次收购，将建立光伏组件方面的核心技术和管理团队，进入光伏组件领域。</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C67" s="2" t="inlineStr"/>
+      <c r="D67" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>sh600130</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST波导 </t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司参股公司深圳华大北斗科技有限公司专注从事导航定位芯片、算法及产品的自主设计、研发、销售及相关业务。</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C68" s="2" t="inlineStr"/>
+      <c r="D68" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>sh600421</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST华嵘 </t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司实控人是中天控股集团下属浙江恒顺投资，集团旗下中天氟硅2023年撤回ipo，原计划通过IPO募集14.42亿元资金，用于30万吨/年有机硅单体扩能技改及综合利用项目。</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>sz002047</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>*ST宝鹰</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 宝鹰股份公告，公司正在筹划重大资产出售事项，拟向控股股东大横琴集团出售所持有的宝鹰建设100%股权。本次交易构成关联交易，预计构成重大资产重组。</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>sh603828</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>ST柯利达</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司主营业务为建筑幕墙与建筑装饰工程的设计与施工，形成建筑装饰、幕墙、设计、装配化装修、装配化制造、PPP\EPC项目等多产业架构。</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>sz002058</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>*ST威尔</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司控股子公司紫燕机械下属的紫燕模具为特斯拉提供汽车检具方面的服务。</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C72" s="2" t="inlineStr"/>
+      <c r="D72" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>sz000638</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>*ST万方</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司业务主要包括军工产业、农业产业以及生物制品等业务。公司控股子公司万方迈捷以粮库收储为核心，深入研究粮食加工、研究土地流转、研究农民就业，万方迈捷作为乾安县唯一一家自主加工的大米企业。</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
           <t>sz001330</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr">
         <is>
           <t>博纳影业</t>
         </is>
       </c>
-      <c r="G60" s="2" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="H60" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I60" s="2" t="inlineStr"/>
-      <c r="J60" s="2" t="inlineStr">
+      <c r="G73" s="2" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
         <is>
           <t>影视+AI|1.公司是国内首家从事电影发行业务的民营企业，深耕影视行业多年，不断向产业链上下游延伸，现已成为行业知名的全产业链布局的电影集团公司。
 2.公司已经进入AIGC（人工智能生成内容）短剧领域，并正在打造AI短剧。具体而言，公司与抖音集团合作，推出了AIGC科幻短剧《三星堆·未来启示录》。</t>
         </is>
       </c>
-      <c r="K60" s="2" t="inlineStr">
+      <c r="K73" s="2" t="inlineStr">
         <is>
           <t>影视, AI</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>文化传媒</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>据网络平台数据，2025年暑期档（6月—8月）电影总票房（含预售）已突破110亿元。其中，《南京照相馆》《浪浪山小妖怪》《长安的荔枝》 暂列档期票房榜前3名。</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>sh600715</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>文投控股</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>影视+游戏|公司主要从事业务涵盖影视和游戏两个行业及其衍生“文化+”业务，主营业务板块包括院线及影城运营管理、影视投资制作及发行等。</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t>影视, 游戏</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>国盛证券认为2025年作为“十四五”收官之年，军工装备订单即将批量落地。</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>sz002190</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>成飞集成</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>53.67</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>军工|公司数控零件加工业务主要是航空零部件数控加工，公司有承接无人机零件数控加工业务。</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>国盛证券认为2025年作为“十四五”收官之年，军工装备订单即将批量落地。</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>sz000576</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>甘化科工</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="H63" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I63" s="2" t="inlineStr"/>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>军工+芯片|1.公司通过收购沈阳含能控股权和升华电源100%股权新增军工业务板块。升华电源主要产品服务于机载、舰载、弹载等多种武器平台，主要客户涵盖国内知名军工企业、军工科研院所、军工厂等。
-2.公司参股公司锴威特半导体专注于智能功率器件与功率集成芯片的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="inlineStr">
-        <is>
-          <t>军工, 芯片</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>风电</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>金风科技2025年半年报显示，公司上半年归母净利润14.88亿元，同比增长7.26%。</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>sz002202</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>金风科技</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="H64" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I64" s="2" t="inlineStr"/>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>业绩+风电|1.金风科技2025年半年报显示，公司上半年归母净利润14.88亿元，同比增长7.26%。
-2.公司是国内最大风力发电机组整机制造商之一，拥有风机制造、风电服务、风电场投资与开发三大主营业务以及水务等其他业务。</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="inlineStr">
-        <is>
-          <t>业绩, 风电</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>风电</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>金风科技2025年半年报显示，公司上半年归母净利润14.88亿元，同比增长7.26%。</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>sh600869</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>远东股份</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="H65" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I65" s="2" t="inlineStr"/>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>风电+机器人|1.海上风电的迅猛发展促使海缆行业迎来高速发展，公司从2013年开始着手准备，已具备±200kV柔性直流、±320kV柔性直流、35kV/66kV光电复合海缆及软接头等多项海缆技术能力。
-2.公司目前生产加强型拖链电缆和柔性拖链电缆用于机器人领域，为其传输动能和控制信号。</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="inlineStr">
-        <is>
-          <t>风电, 机器人</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>华为产业链</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>《科创板日报》记者从知情人士获悉，华为云调整组织架构，将聚焦“3+2+1”业务，其中：3包括通算、智算、存储；2包括AI PaaS、数据库；1则主要为安全业务。</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>sz001339</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>智微智能</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>70.27</v>
-      </c>
-      <c r="H66" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>华为+算力|1.公司可为行业端侧和边缘侧提供多款可适配OpenHarmony的产品线，包括OPS模块、物联网模块、边缘融合终端和平板等，多款产品已适配开源鸿蒙系统并完成产品兼容性认证；基于飞腾D20008核心CPU的IPC-510-FD2K工控机加载了开源鸿蒙系统。
-2.公司智算业务包括AI算力规划与设计、GPU及高性能服务器设备交付、运维调优、算力调度与优化管理平台服务、算力租赁+MaaS、算力及网络设备售后及置换等，为客户提供端到端的智算中心全流程服务，致力于成为AIGC基础设施全生命周期综合服务商。</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="inlineStr">
-        <is>
-          <t>华为, 算力</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>华为产业链</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>《科创板日报》记者从知情人士获悉，华为云调整组织架构，将聚焦“3+2+1”业务，其中：3包括通算、智算、存储；2包括AI PaaS、数据库；1则主要为安全业务。</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>sh600410</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>华为+算力|公司建设了以华为昇腾芯片为核心的天津市河北区人工智能新型基础设施建设项目EPC工程总承包一、二、三期项目。</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="inlineStr">
-        <is>
-          <t>华为, 算力</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>人脑工程</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>业内人士认为，脑机接口技术路径丰富，处于技术加速变革期，产业链中上游的技术进步带来下游应用端不断突破，国内脑机接口公司有望逐步实现商业化应用。</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>sh600113</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>浙江东日</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="n">
-        <v>54.51</v>
-      </c>
-      <c r="H68" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I68" s="2" t="inlineStr"/>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>脑机接口|据2025年6月20日互动，培安美(浙江科技为我公司参股公司，持股比例为40%。经本公司了解，前期培安美公司相关人员拜访首都医科大学开展业务洽谈，未形成书面合作协议。此前6月16日培安美官微发表文章，与首都医科大学达成意向合作，携手推进脑机接口技术研发与产业化。6月24日发布股票交易风险提示公告，目前日常经营不涉及“脑机接口”业务。</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="inlineStr">
-        <is>
-          <t>脑机接口</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>IDC电源</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>光大证券认为，随着AI产业快速发展，HVDC在AI数据中心优势凸显，其渗透率有望持续提升。</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>sz002706</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>良信股份</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="H69" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>光伏+IDC电源|1.公司2021年9月30日在互动平台表示，公司的旋转开关主要用于分布式光伏行业。
-2.公司与华为在5G应用、电源类产品提供了模块化、智能化产品方案，在数据中心绿电接入、储能配套等领域提供电气解决方案。</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="inlineStr">
-        <is>
-          <t>光伏, IDC电源</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C70" s="2" t="inlineStr"/>
-      <c r="D70" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>sh600107</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ST尔雅  </t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H70" s="2" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>8天6板</t>
-        </is>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司的主营业务为服装、服饰和纺织品研发、设计、制造和销售。</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C71" s="2" t="inlineStr"/>
-      <c r="D71" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>sh603377</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ST东时  </t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="H71" s="2" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>5天5板</t>
-        </is>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司持有海若通航55%的股权，海若通航是一家具备CCAR-91部通航作业，CCAR-141部飞行培训，CCAR-145部航空器维修资质的通用航空运营商。</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C72" s="2" t="inlineStr"/>
-      <c r="D72" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>sz000609</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>ST中迪</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="H72" s="2" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>7天5板</t>
-        </is>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司房地产项目位于重庆、成都、达州，重庆的“两江中迪广场”主要为商业项目。</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C73" s="2" t="inlineStr"/>
-      <c r="D73" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>sh600200</t>
-        </is>
-      </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*ST苏吴 </t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H73" s="2" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="I73" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>0.14</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C74" s="2" t="inlineStr"/>
       <c r="D74" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>sh603813</t>
+          <t>sh600113</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST原尚 </t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>16.94</v>
+        <v>59.96</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>5.02</v>
+        <v>10</v>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
@@ -3900,39 +3814,45 @@
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司参股公司广东原锋新能源科技的股东之一锋源是国内极少的集全套自主知识产权氢燃料电池电堆以及核心零部件膜电极、催化剂、金属双极板等研发、生产、销售一体的公司。</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="inlineStr"/>
+          <t>脑机接口|据2025年6月20日互动，培安美(浙江科技为我公司参股公司，持股比例为40%。经本公司了解，前期培安美公司相关人员拜访首都医科大学开展业务洽谈，未形成书面合作协议。此前6月16日培安美官微发表文章，与首都医科大学达成意向合作，携手推进脑机接口技术研发与产业化。6月24日发布股票交易风险提示公告，目前日常经营不涉及“脑机接口”业务。</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>脑机接口</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>0.14</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C75" s="2" t="inlineStr"/>
       <c r="D75" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>sz002620</t>
+          <t>sh603098</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>森特股份</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>4.92</v>
+        <v>16.2</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>4.9</v>
+        <v>9.98</v>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
@@ -3941,358 +3861,410 @@
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司主要从事政府机构、房地产开发商、大型企业、高档酒店、交通枢纽、园林绿化等综合性专业化装饰设计、工程施工业务以及光伏电站运营、光伏项目施工安装等。</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="inlineStr"/>
+          <t>印尼光储|森特股份与印尼国家电力公司（PLN）乡村合作体联盟（INDUK KUD）完成了互访。与INDUK KUD签署战略合作，共同推进印尼光储一体化场景。INDUK KUD是印尼最大的乡村合作体联盟，下属9437个村级合作社。</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>印尼光储</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>0.14</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C76" s="2" t="inlineStr"/>
       <c r="D76" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>sz000518</t>
+          <t>sz002145</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>*ST四环</t>
+          <t>中核钛白</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>2.51</v>
+        <v>5.27</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>5.02</v>
+        <v>10.02</v>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天2板</t>
         </is>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.公司是一家以生物医学技术及传统医药相结合的药品生产企业，主营肝炎诊断试剂、注射剂、体外诊断试剂等。
-2.2023年公司研发项目包括新型干细胞培养技术，目的为通过对干细胞培养技术的研究，以期在未来将干细胞技术应用于人类疾病的治疗。</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="inlineStr"/>
+          <t>钛白粉|公司主要从事金红石型钛白粉、氧化铁颜料的研发、生产和销售，是最早从国外引进全套金红石型钛白粉生产技术的企业。</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>钛白粉</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>0.14</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C77" s="2" t="inlineStr"/>
       <c r="D77" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>sh600355</t>
+          <t>sh600397</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST精伦 </t>
+          <t>安源煤业</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>3.87</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>4.88</v>
+        <v>10.03</v>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天2板</t>
         </is>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司智能控制产品是公司全资子公司上海鲍麦克斯电子科技有限公司的主营产品，鲍麦克斯专业从事通用及专用伺服驱动系统、数控系统、 缝制机器人的系列化产品研发及销售。</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="inlineStr"/>
+          <t>并购重组+稀土永磁|2025年4月2日公告，公司控股股东江钨控股拟将控股子公司江钨发展持有的金环磁选57%股份，与公司所持有的煤炭业务相关资产及负债进行置换，拟置入资产与拟置出资产交易价格的差额由一方向另一方以现金等方式补足。本次交易构成关联交易，预计将构成重大资产重组。金环磁选的SCT永磁筒式磁选机适用于于磁铁矿、磁黄铁矿、磁赤铁矿、钛磁铁矿、焙烧物料的粗选、扫选、精选作业。</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>并购重组, 稀土永磁</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>0.14</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C78" s="2" t="inlineStr"/>
       <c r="D78" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>sz002630</t>
+          <t>sh603161</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>ST华西</t>
+          <t>科华控股</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>2.76</v>
+        <v>15.53</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="I78" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I78" s="2" t="inlineStr"/>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 目前公司核电业务主要集中在核三废处理领域，为业主项目提供核废物处理系统以及配套件。</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="inlineStr"/>
+          <t>实控人变更|科华控股公告称，卢红萍、涂瀚拟以协议转让方式合计受让公司控股股东、实际控制人陈洪民及其一致行动人持有的公司3145.47万股股份。同时约定收购人将以不低于第一期协议转让的价格继续收购陈洪民及其一致行动人持有的公司976.61万股股份。公司的控股股东将由陈洪民变更为卢红萍，实际控制人将由陈洪民、陈小科变更为卢红萍、涂瀚。</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>实控人变更</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>0.14</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
       <c r="D79" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>sz300096</t>
+          <t>sh603382</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>ST易联众</t>
+          <t>海阳科技</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>4.82</v>
+        <v>35.94</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>19.9</v>
+        <v>10.01</v>
       </c>
       <c r="I79" s="2" t="inlineStr"/>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司依托鸿蒙系统研发公司的软件和系统</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="inlineStr"/>
+          <t>尼龙6|公司系国内从事尼龙6系列产品研发、生产和销售的主要企业之一。公司尼龙6切片产能32.1万吨，尼龙帘子布产能4万吨，涤纶帘子布产能3.6万吨，尼龙6丝产能6.2万吨。</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>尼龙6</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>0.14</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C80" s="2" t="inlineStr"/>
       <c r="D80" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>sh603398</t>
+          <t>sh603177</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST沐邦 </t>
+          <t>德创环保</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>5.5</v>
+        <v>10.89</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>4.96</v>
+        <v>10</v>
       </c>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.沐邦高科公告，与铜陵狮子山高新技术产业开发区管理委员会、铜陵高新发展投资有限公司签订《项目投资协议书》，项目名称为年产10GW-N型高效电池片、10GW切片生产基地项目。
-2.公司上市的IP产品 “樱桃小丸子”第一期为“盲盒”类产品。</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="inlineStr"/>
+          <t>环保+氢能|1.公司主营业务为大气治理业务、危废治理业务、钠电池正极材料业务。主要产品是烟气治理工程、脱硝催化剂、脱硫设备、除尘设备、废盐渣资源化利用处置、危险废物处理。
+2.2024年5月20日公司在互动易上表示，公司氢能项目千瓦级单电堆的放大测试有序进行中。</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>环保, 氢能</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>0.14</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C81" s="2" t="inlineStr"/>
       <c r="D81" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>sz002717</t>
+          <t>sz002356</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>ST岭南</t>
+          <t>赫美集团</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>1.73</v>
+        <v>3.62</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>4.850000000000001</v>
+        <v>10.03</v>
       </c>
       <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2022年2月16日公司在互动平台表示，岭南股份文化旅游业务涵盖主题文化旅游的规划设计，主题文化景区主题公园的创意设计、旅游投资、景区建设、策划营销和运营。</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="inlineStr"/>
+          <t>投资加氢站|2025年8月25日晚公告，公司控股子公司长治聚能拟投建沁源乔龙沟综合能源岛项目。预计投资4191.96 万元。工程建设周期16个月。项目主要建设加油、加气、加氢综合能源站。</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>投资加氢站</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>0.14</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C82" s="2" t="inlineStr"/>
       <c r="D82" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>sz002650</t>
+          <t>sz300955</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>ST加加</t>
+          <t>嘉亨家化</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>6.53</v>
+        <v>24.52</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>4.98</v>
+        <v>20.02</v>
       </c>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 主营业务涉及酱油、植物油、食醋、味精、鸡精、蚝油等的生产及销售。</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="inlineStr"/>
+          <t>日化用品包装|嘉亨家化公司专注于日化产品的OEM/ODM服务，涵盖护肤、洗护、香水等化妆品，以及香皂、消毒液、洗手液等家庭护理产品。公司通过一体化的研发、配制和灌装服务，为国内外知名品牌提供高效的产品解决方案。</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t>日化用品包装</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>0.14</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C83" s="2" t="inlineStr"/>
       <c r="D83" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>sz002211</t>
+          <t>sz002082</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>ST宏达</t>
+          <t>万邦德</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>3.34</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>5.029999999999999</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.公司主营业务主要分为硅橡胶及其制品的加工销售、专网通信设备的加工、组装、检测及销售业务等。
-2.公司目前于量子领域在产的产品有量子随机数发生器，其可基于量子物理原理产生随机数，可应用于量子通信、量子信息、传统信息安全、密码学、蒙特卡洛模拟、数值计算、随机抽样、神经网络计算等。</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="inlineStr"/>
+          <t xml:space="preserve">创新药|在研发端，公司探索人工智能在创新药设计、筛选、实验设计等环节的应用，目前全球首个治疗胃轻瘫的中药1.1类新药“理中消痞颗粒”正在开展临床研究。 </t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>创新药</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>0.14</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C84" s="2" t="inlineStr"/>
       <c r="D84" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>sh600243</t>
+          <t>sh600319</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST海华 </t>
+          <t>亚星化学</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>4.78</v>
+        <v>8.06</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>5.050000000000001</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 青海华鼎与源鑫隆昌、茫崖源鑫签署增资协议，约定青海华鼎以现金增资5083.88万元取得茫崖源鑫51%的股权。上市公司称，茫崖源鑫所处的天然气行业具有良好的发展前景。</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="inlineStr"/>
+          <t>化工|公司主营氯化聚乙烯（CPE）、离子膜烧碱、水合肼、ADC发泡剂等高科技化学产品，同时从事新型化学材料的开发和研究，是目前世界上最主要的含氯聚合物研发生产企业。</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>化工</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
@@ -4307,37 +4279,33 @@
       </c>
       <c r="C85" s="2" t="inlineStr"/>
       <c r="D85" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>sz000877</t>
+          <t>sh600725</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>天山股份</t>
+          <t>云维股份</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>7.24</v>
+        <v>3.74</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I85" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I85" s="2" t="inlineStr"/>
       <c r="J85" s="2" t="inlineStr">
         <is>
-          <t>新疆+水泥|地处新疆乌鲁木齐市，西北地区最大的水泥生产企业，新疆第二大商品混凝土生产企业，西北地区最大的油井水泥生产基地。</t>
+          <t>煤化工|公司已经形成了较完整的煤化工细分行业产业链条，产业布局涵盖了传统煤化工的三个领域，即煤焦化、煤电石化和煤气化。</t>
         </is>
       </c>
       <c r="K85" s="2" t="inlineStr">
         <is>
-          <t>新疆, 水泥</t>
+          <t>煤化工</t>
         </is>
       </c>
     </row>
@@ -4354,37 +4322,33 @@
       </c>
       <c r="C86" s="2" t="inlineStr"/>
       <c r="D86" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>sh600671</t>
+          <t>sh688660</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>天目药业</t>
+          <t>电气风电</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>19.8</v>
+        <v>22.32</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I86" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr">
         <is>
-          <t>中药|公司主要从事医药健康产业，从事药品及保健食品的研发、制造及中药材种植，是集药品研发、制造、销售于一体的医药企业。</t>
+          <t>借壳预期|网传上海电气旗下上海微电子或撤回了首次公开发行股票(IPO)并上市的辅导备案。公司是科创板上市公司，上海电气集团持股61.4%，与上海机电业务有重合，或有消除同业竞争的可能。市场预期电气风电或存在上海微电子上市的可能。</t>
         </is>
       </c>
       <c r="K86" s="2" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>借壳预期</t>
         </is>
       </c>
     </row>
@@ -4401,33 +4365,33 @@
       </c>
       <c r="C87" s="2" t="inlineStr"/>
       <c r="D87" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>sz000682</t>
+          <t>sz300994</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>东方电子</t>
+          <t>久祺股份</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>12.18</v>
+        <v>21.73</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>10.03</v>
+        <v>19.99</v>
       </c>
       <c r="I87" s="2" t="inlineStr"/>
       <c r="J87" s="2" t="inlineStr">
         <is>
-          <t>业绩|东方电子在2025年上半年的主营收入达到了31.62亿元，同比上升了12.18%。而在利润方面，归母净利润为3.02亿元，同比增长了19.65%。扣除非经常性损益后的净利润为2.95亿元，同比上升了24.88%。</t>
+          <t>自行车|公司是国内主要的自行车产品出口商之一，主要产品包括儿童自行车、成人自行车、助力电动自行车等整车及相关配件产品。</t>
         </is>
       </c>
       <c r="K87" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>自行车</t>
         </is>
       </c>
     </row>
@@ -4444,33 +4408,33 @@
       </c>
       <c r="C88" s="2" t="inlineStr"/>
       <c r="D88" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>sz002091</t>
+          <t>sz002539</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>江苏国泰</t>
+          <t>云图控股</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>8.359999999999999</v>
+        <v>11.53</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="I88" s="2" t="inlineStr"/>
       <c r="J88" s="2" t="inlineStr">
         <is>
-          <t>拟120亿理财|江苏国泰公告称，公司及下属子公司拟使用不超过120亿元闲置自有资金进行委托理财，用于购买安全性高、流动性好的中低风险理财产品，包括但不限于结构性存款、收益凭证、大额存单、国债逆回购等。</t>
+          <t>化肥|公司是中国复肥行业生产基地最多的供应商之一。公司已形成复合肥、联碱、磷化工及调味品（食用盐及川菜调味品）等协同发展的产业格局。</t>
         </is>
       </c>
       <c r="K88" s="2" t="inlineStr">
         <is>
-          <t>拟120亿理财</t>
+          <t>化肥</t>
         </is>
       </c>
     </row>
@@ -4487,33 +4451,33 @@
       </c>
       <c r="C89" s="2" t="inlineStr"/>
       <c r="D89" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>sh600179</t>
+          <t>sh605188</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>安通控股</t>
+          <t>国光连锁</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>3.58</v>
+        <v>15.28</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>10.15</v>
+        <v>10.01</v>
       </c>
       <c r="I89" s="2" t="inlineStr"/>
       <c r="J89" s="2" t="inlineStr">
         <is>
-          <t>物流|公司形成“水运+铁路+公路”全方位的多式联运模式，近年来加大对多式联运布局的投入，加快了综合物流服务平台的建设进程，并且延伸了对接“一带一路”的外贸航线。</t>
+          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
         </is>
       </c>
       <c r="K89" s="2" t="inlineStr">
         <is>
-          <t>物流</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
@@ -4530,20 +4494,20 @@
       </c>
       <c r="C90" s="2" t="inlineStr"/>
       <c r="D90" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>sz000555</t>
+          <t>sz002194</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>神州信息</t>
+          <t>武汉凡谷</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>15.86</v>
+        <v>16.29</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>9.99</v>
@@ -4551,13 +4515,12 @@
       <c r="I90" s="2" t="inlineStr"/>
       <c r="J90" s="2" t="inlineStr">
         <is>
-          <t>数字货币+跨境支付|1.公司自主研发的智能区块链平台Sm@rtGAS，目前已领先市场推出了供应链金融、数字货币、数字钱包、区块链发票、对账清算、预付卡、积分通兑等系列产品。
-2.公司拥有CIPS相关技术储备，在跨境、外币相关系统方面已有项目落地，具备提供人民银行现代化支付体系相关系统完整的解决方案能力。</t>
+          <t>5G|公司主要业务是从事射频器件和射频子系统的研发、生产、销售和服务，其主要产品为滤波器、双工器、射频等子系统，应用于2G、3G、4G、5G等通信网络。</t>
         </is>
       </c>
       <c r="K90" s="2" t="inlineStr">
         <is>
-          <t>数字货币, 跨境支付</t>
+          <t>5G</t>
         </is>
       </c>
     </row>
@@ -4574,120 +4537,33 @@
       </c>
       <c r="C91" s="2" t="inlineStr"/>
       <c r="D91" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>sz003013</t>
+          <t>sz000029</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>地铁设计</t>
+          <t>深深房Ａ</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>16.28</v>
+        <v>33.08</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
       <c r="I91" s="2" t="inlineStr"/>
       <c r="J91" s="2" t="inlineStr">
         <is>
-          <t>业绩|地铁设计公告称，公司上半年实现营业收入13.17亿元，同比增长5.31%；归母净利润2.21亿元，同比增长6.58%。</t>
+          <t>房地产|地处深圳罗湖区，房地产开发公司。公司主营业务为商品住宅销售、物业租赁及管理服务、酒店客房服务，以及建筑安装装修服务。</t>
         </is>
       </c>
       <c r="K91" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr"/>
-      <c r="D92" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>sh603379</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>三美股份</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="n">
-        <v>60.63</v>
-      </c>
-      <c r="H92" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I92" s="2" t="inlineStr"/>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>制冷剂|公司现有HFC-134a产能6.5万吨、HFC-125产能5.2万吨、HFC-32产能4万吨、HFC-143a产能1万吨，拥有AHF产能13.1万吨，HFCs制冷剂和AHF产能位居行业前列。</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="inlineStr">
-        <is>
-          <t>制冷剂</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr"/>
-      <c r="D93" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>sz002715</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>登云股份</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="H93" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I93" s="2" t="inlineStr"/>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>汽车+黄金|1.2022年6月9日公司在投资者互动平台表示，公司气门产品主要适用于燃油发动机，相关产品也适用于混合动力、燃气发动机等新能源汽车。
-2.公司直接持有北京黄龙100%股权。北京黄龙的主要资产为子公司汉阴黄龙100%的股权，汉阴黄龙主要从事黄金矿采选等业务，拥有汉阴县黄龙金矿采矿权。</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="inlineStr">
-        <is>
-          <t>汽车, 黄金</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4734,7 +4610,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -4749,16 +4625,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sz002190</t>
+          <t>sz002217</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>成飞集成</t>
+          <t>合力泰</t>
         </is>
       </c>
     </row>
@@ -4768,12 +4644,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sh600246</t>
+          <t>sh605255</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>万通发展</t>
+          <t>天普股份</t>
         </is>
       </c>
     </row>
@@ -4783,12 +4659,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sz002402</t>
+          <t>sh600118</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>和而泰</t>
+          <t>中国卫星</t>
         </is>
       </c>
     </row>
@@ -4798,12 +4674,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sh600728</t>
+          <t>sh603083</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>佳都科技</t>
+          <t>剑桥科技</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4689,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sz002217</t>
+          <t>sh688228</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>合力泰</t>
+          <t xml:space="preserve">开普云  </t>
         </is>
       </c>
     </row>
@@ -4828,12 +4704,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sz002378</t>
+          <t>sz001330</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>章源钨业</t>
+          <t>博纳影业</t>
         </is>
       </c>
     </row>
@@ -4843,12 +4719,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sh605255</t>
+          <t>sz000070</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>天普股份</t>
+          <t>特发信息</t>
         </is>
       </c>
     </row>
@@ -4858,12 +4734,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sh603716</t>
+          <t>sh600113</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>塞力医疗</t>
+          <t>浙江东日</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4749,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>sh603019</t>
+          <t>sh603098</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>中科曙光</t>
+          <t>森特股份</t>
         </is>
       </c>
     </row>
@@ -4888,12 +4764,12 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>sz300192</t>
+          <t>sh603929</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>科德教育</t>
+          <t>亚翔集成</t>
         </is>
       </c>
     </row>
@@ -4903,12 +4779,42 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>sz000877</t>
+          <t>sz002600</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>天山股份</t>
+          <t>领益智造</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>sh601869</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>XD长飞光</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>sh600410</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,12 +485,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
     <col width="89" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="264" customWidth="1" min="10" max="10"/>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
@@ -762,28 +762,28 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sz001216</t>
+          <t>sh601512</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>华瓷股份</t>
+          <t>中新集团</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>16.42</v>
+        <v>8.91</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>9.98</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入7.26亿元，同比增长25.10%；归母净利润1.2亿元，同比增长21.63%。</t>
+          <t>业绩|公司2025年1-6月实现营业收入21.04亿元，同比增长39.19%；归母净利润5.92亿元，同比增长5.32%。本期营业收入较上年同期增加，主要是本期土地开发业务收入增加。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -807,28 +807,28 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sh601512</t>
+          <t>sz003012</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>中新集团</t>
+          <t>东鹏控股</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.91</v>
+        <v>7.1</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10</v>
+        <v>10.08</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入21.04亿元，同比增长39.19%；归母净利润5.92亿元，同比增长5.32%。本期营业收入较上年同期增加，主要是本期土地开发业务收入增加。</t>
+          <t>业绩|公司2025年1-6月实现营业收入29.34亿元，归母净利润2.19亿元，同比增长3.85%。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
@@ -852,28 +852,28 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sz003012</t>
+          <t>sz002380</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>东鹏控股</t>
+          <t>科远智慧</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.1</v>
+        <v>29.92</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>10.08</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入29.34亿元，归母净利润2.19亿元，同比增长3.85%。</t>
+          <t>业绩|公司2025年1-6月实现营业收入9.8亿元，同比上升21.8%；归母净利润为1.36亿元，同比上升23.1%。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
@@ -897,28 +897,28 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz002256</t>
+          <t>sz002778</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>兆新股份</t>
+          <t>中晟高科</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.73</v>
+        <v>20.68</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10.08</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入2.08亿元，同比增长29.99%；归母净利润307.2万元，同比增长47.06%。</t>
+          <t>业绩|公司2025年1-6月实现营业收入6421.71万元，同比下降73.31%；归母净利润4700.99万元，同比扭亏，上年同期亏损1702万元。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -930,60 +930,65 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.97</v>
+        <v>0.48</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>临近8月底，上市公司半年报进入密集披露期，截至8月25日收盘，1233家公司上半年净利同比增长。</t>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sz002380</t>
+          <t>sz002212</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>科远智慧</t>
+          <t>天融信</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>29.92</v>
+        <v>12.38</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr"/>
+        <v>10.04</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入9.8亿元，同比上升21.8%；归母净利润为1.36亿元，同比上升23.1%。</t>
+          <t>数字货币+算力|1.公司构建防御、防护、监测、阻断于一体的全链条全方位“挖矿”专项治理方案，并推出了数据安全运营、数据分类分级、数据隐私保护、数据防泄漏、数据跨境安全合规等相关产品，可为稳定币相关场景提供安全保障。
+2.公司DeepSeek安全智算一体机可广泛应用于智算中心系统建设、DeepSeek本地私有化部署、大模型推理与训练、大模型安全防护等场景中。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>数字货币, 算力</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3.34</v>
+        <v>0.48</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -991,48 +996,49 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sh605255</t>
+          <t>sh688228</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>天普股份</t>
+          <t xml:space="preserve">开普云  </t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>39</v>
+        <v>113.7</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>10.01</v>
+        <v>20</v>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
+          <t>并购重组+算力|1.开普云公告称，公司拟通过支付现金的方式向深圳金泰克购买南宁泰克半导体有限公司70%股权，交易价格尚未确定，交易对方深圳金泰克将其存储产品业务的经营性资产转移至南宁泰克。交易完成后，南宁泰克将成为公司的控股子公司，公司将新增存储产品相关业务。
+2.2024年1月25日公告，公司拟与成都华创鲲航科技合伙企业（有限合伙）共同出资设立合资公司。合资公司以提供行业大模型、人工智能大模型与算力软硬件一体化融合产品、人工智能算力运营服务、人工智能算力优化调度平台、人工智能大模型MaaS/SaaS服务等为业务方向。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股</t>
+          <t>并购重组, 算力</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.34</v>
+        <v>0.48</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -1040,16 +1046,16 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sh603068</t>
+          <t>sz002851</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>博通集成</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>42.46</v>
+        <v>86.03</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>10</v>
@@ -1057,27 +1063,27 @@
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司拟将依托在AI无线通信的经验和技术积累，将研发资源拓展至端侧AI算力。公司发布的BK7259作为AIoT算力标杆，率先集成ARM Ethos-U65 microNPU的Wi-Fi 6 MCU，为边缘智能应用注入超强算力与卓越能效。</t>
+          <t>服务器电源|公司电源产品中的服务器电源一般在数据中心的服务器机柜、服务器、交换机、路由器、存储设备中，是一种将交流电转换为直流电的装置。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>服务器电源</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3.34</v>
+        <v>0.79</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1085,44 +1091,48 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sh603893</t>
+          <t>sh603083</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">瑞芯微  </t>
+          <t>剑桥科技</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>215.6</v>
+        <v>88.19</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8天5板</t>
+        </is>
+      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司能够为下游客户及生态伙伴提供从0.2TOPs到6TOPs的不同算力水平的AIoT芯片，其中RK3588、RK3576带有6TOPs NPU处理单元，支持端侧主流3B以下参数级别的模型部署。</t>
+          <t>光模块|剑桥科技在互动平台表示，公司对于800G光模块是有长期发展规划和坚定信心的。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>光模块</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -1130,48 +1140,49 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sh603181</t>
+          <t>sh600353</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>皇马科技</t>
+          <t>旭光电子</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>18.95</v>
+        <v>17.88</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>9.98</v>
+        <v>10.03</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天2板</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>半导体材料|公司生产的表面活性剂产品应用在湿电子化学品中，可以起到功能性的作用。</t>
+          <t>光刻机+光模块|1.公司用于光刻机、等离子清洗/抛光等半导体设备领域的发射管产品已经客户验证通过，并实现批量销售。
+2.参股32.55%的成都储翰科技是一家专注于接入网光模块和光组件生产及销售的高新技术企业，拥有从芯片封装到光电器件到光电模块的垂直整合产品线。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>半导体材料</t>
+          <t>光刻机, 光模块</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -1179,44 +1190,44 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sh603499</t>
+          <t>sz301183</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>翔港科技</t>
+          <t>东田微</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>19.97</v>
+        <v>96.23</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>10.03</v>
+        <v>20</v>
       </c>
       <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>存储芯片|公司参股企业金泰克是一家集研发、生产和自主品牌产品营销于一体的专业存储方案提供商，主要提供内存、SSD相关存储产品，产品涵盖消费级、工业控制级、企业级和嵌入式存储，能够为客户提供完整的存储产品解决方案。</t>
+          <t>滤光片|公司的光通信元件主要包括TO管帽和光器件（EPON/GPON)滤光片等。TO管帽作为光学接口，为通信设备封装的重要部件，需要对球面和非球面光学玻璃进行镀膜，具有较高的工艺难度。无源光纤网络光器件（EPON/GPON)作为光纤接入网的重要光器件可实现光电转化。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>存储芯片</t>
+          <t>滤光片</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>算力芯片</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.74</v>
+        <v>2.18</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -1224,404 +1235,398 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sh603607</t>
+          <t>sh605255</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>京华激光</t>
+          <t>天普股份</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>28.91</v>
+        <v>39</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>10.01</v>
       </c>
-      <c r="I16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
       <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>中昊芯英入股</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>sh603068</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>博通集成</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>42.46</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片|公司拟将依托在AI无线通信的经验和技术积累，将研发资源拓展至端侧AI算力。公司发布的BK7259作为AIoT算力标杆，率先集成ARM Ethos-U65 microNPU的Wi-Fi 6 MCU，为边缘智能应用注入超强算力与卓越能效。</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>sh603893</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">瑞芯微  </t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>215.6</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片|公司能够为下游客户及生态伙伴提供从0.2TOPs到6TOPs的不同算力水平的AIoT芯片，其中RK3588、RK3576带有6TOPs NPU处理单元，支持端侧主流3B以下参数级别的模型部署。</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>sh603181</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>皇马科技</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>半导体材料|公司生产的表面活性剂产品应用在湿电子化学品中，可以起到功能性的作用。</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>半导体材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>sh603499</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>翔港科技</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>存储芯片|公司参股企业金泰克是一家集研发、生产和自主品牌产品营销于一体的专业存储方案提供商，主要提供内存、SSD相关存储产品，产品涵盖消费级、工业控制级、企业级和嵌入式存储，能够为客户提供完整的存储产品解决方案。</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>存储芯片</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>sh603948</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>建业股份</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>半导体材料|公司主营产品之一的超纯氨是超净高纯电子化学品，是超大规模集成电路（即芯片）制作过程中的关键性基础化工材料之一。</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>半导体材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>sh603607</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>京华激光</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>IP经济+光刻机|1.公司主要为国内卡游龙头提供卡牌深加工服务，配套的IP包括“奥特曼”“叶罗丽”“名侦探柯南”“三国”“仙剑奇侠传”“小马宝莉”等。
 2.公司控股的美国菲涅尔制版科技公司是一家多年从事微结构光学技术研发及相关设备制造和维护的企业，先后研发出多台技术先进、性能突出、与光学制版有关的光刻机设备。</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>IP经济, 光刻机</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>光通信</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>sh603083</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>剑桥科技</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>88.19</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>8天5板</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>光模块|剑桥科技在互动平台表示，公司对于800G光模块是有长期发展规划和坚定信心的。</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>光模块</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>光通信</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>sz301183</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>东田微</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>96.23</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>滤光片|公司的光通信元件主要包括TO管帽和光器件（EPON/GPON)滤光片等。TO管帽作为光学接口，为通信设备封装的重要部件，需要对球面和非球面光学玻璃进行镀膜，具有较高的工艺难度。无源光纤网络光器件（EPON/GPON)作为光纤接入网的重要光器件可实现光电转化。</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>滤光片</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>机器人</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>sz301488</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>豪恩汽电</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>96.11</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>英伟达机器人合作|2025年8月26日微信公众号发布，豪恩汽电已与英伟达达成芯片战略合作，全面进入机器人大脑控制系统的开发，涵盖英伟达JetsonThor，Orin AGX，Orin NX和OrinNano全系列控制域。</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>英伟达机器人合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>机器人</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>sh603219</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>富佳股份</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>22.48</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>机器人|子公司宁波益佳电子有限公司为乐聚机器人代工各类线路板。乐聚机器人是一家致力于高端智能人形机器人研发、制造和销售的高科技企业。</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>机器人</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>算力工程</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>sz002212</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>天融信</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>5天4板</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>数字货币+算力|1.公司构建防御、防护、监测、阻断于一体的全链条全方位“挖矿”专项治理方案，并推出了数据安全运营、数据分类分级、数据隐私保护、数据防泄漏、数据跨境安全合规等相关产品，可为稳定币相关场景提供安全保障。
-2.公司DeepSeek安全智算一体机可广泛应用于智算中心系统建设、DeepSeek本地私有化部署、大模型推理与训练、大模型安全防护等场景中。</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>数字货币, 算力</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>算力工程</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>sh688228</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">开普云  </t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>113.7</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>并购重组+算力|1.开普云公告称，公司拟通过支付现金的方式向深圳金泰克购买南宁泰克半导体有限公司70%股权，交易价格尚未确定，交易对方深圳金泰克将其存储产品业务的经营性资产转移至南宁泰克。交易完成后，南宁泰克将成为公司的控股子公司，公司将新增存储产品相关业务。
-2.2024年1月25日公告，公司拟与成都华创鲲航科技合伙企业（有限合伙）共同出资设立合资公司。合资公司以提供行业大模型、人工智能大模型与算力软硬件一体化融合产品、人工智能算力运营服务、人工智能算力优化调度平台、人工智能大模型MaaS/SaaS服务等为业务方向。</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>并购重组, 算力</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.4</v>
+        <v>-0.5</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
+          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sz002851</t>
+          <t>sz301488</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>豪恩汽电</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>86.03</v>
+        <v>96.11</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>服务器电源|公司电源产品中的服务器电源一般在数据中心的服务器机柜、服务器、交换机、路由器、存储设备中，是一种将交流电转换为直流电的装置。</t>
+          <t>英伟达机器人合作|2025年8月26日微信公众号发布，豪恩汽电已与英伟达达成芯片战略合作，全面进入机器人大脑控制系统的开发，涵盖英伟达JetsonThor，Orin AGX，Orin NX和OrinNano全系列控制域。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>服务器电源</t>
+          <t>英伟达机器人合作</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.4</v>
+        <v>-0.5</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
+          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sh603236</t>
+          <t>sh603219</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>移远通信</t>
+          <t>富佳股份</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>113.04</v>
+        <v>22.48</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>智能AI模组|公司的智能模组产品线提供4G、5G、AI算力等不同系列的20多款产品。其中智能AI模组可被广泛应用于工业质检、智能相机、户外机器人、边缘计算盒子、无人机、智慧零售等领域，助力不同行业的AI客户产品落地。</t>
+          <t>机器人|子公司宁波益佳电子有限公司为乐聚机器人代工各类线路板。乐聚机器人是一家致力于高端智能人形机器人研发、制造和销售的高科技企业。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>智能AI模组</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1637,7 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
@@ -1640,7 +1645,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
@@ -1673,109 +1678,106 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.9400000000000001</v>
+        <v>-0.51</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sh603798</t>
+          <t>sz301389</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">康普顿  </t>
+          <t>隆扬电子</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>16.5</v>
+        <v>60.48</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司基于防冻冷却液产品多年的生产研发技术经验，在数据中心冷液方面已有相应的技术储备，可根据客户需求定向开发相关产品。</t>
+          <t>PCB|公司掌握并深耕的卷绕式真空磁控溅射及复合镀膜技术为核心，研发铜箔类材料产品，逐步丰富和拓展公司铜箔产品种类，主要包括锂电铜箔及电子电路铜箔，未来可广泛应用于锂电池行业、线路板（PCB）。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>AI应用</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.48</v>
+        <v>-0.79</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。</t>
+          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sh600601</t>
+          <t>sz002195</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>方正科技</t>
+          <t>岩山科技</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>8.699999999999999</v>
+        <v>7.32</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>10.08</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>PCB+光模块|公司已批量生产PCB产品应用于10G-100G-200G-400G-800G等光模块产品，同时，针对1.6T连接器和光模块产品，公司PCB产品已完成打样并具备批量生产能力。</t>
+          <t>AI应用+数字货币|1.黑芝麻智能与公司旗下RockAI联合发布基于武当C1200家族芯片的AI Agent解决方案，该方案将部署于未来的智能座舱应用中。
+2.子公司上海二三四五网络科技有限公司拥有一种分发数字货币的控制方法及控制装置的专利，目前处于实质审查阶段。</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>PCB, 光模块</t>
+          <t>AI应用, 数字货币</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.48</v>
+        <v>-0.8</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。</t>
+          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -1783,44 +1785,44 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sz301389</t>
+          <t>sz002053</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>隆扬电子</t>
+          <t>云南能投</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>60.48</v>
+        <v>12.39</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>20</v>
+        <v>10.04</v>
       </c>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司掌握并深耕的卷绕式真空磁控溅射及复合镀膜技术为核心，研发铜箔类材料产品，逐步丰富和拓展公司铜箔产品种类，主要包括锂电铜箔及电子电路铜箔，未来可广泛应用于锂电池行业、线路板（PCB）。</t>
+          <t>绿电|公司主营业务包括风力发电、光伏发电以及食盐、工业盐、日化盐、芒硝等系列产品的生产销售，天然气管网建设、运营、天然气销售、入户安装服务</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>绿电</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.08</v>
+        <v>-0.8</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
+          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -1828,45 +1830,44 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sz002195</t>
+          <t>sh600021</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>岩山科技</t>
+          <t>上海电力</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>7.32</v>
+        <v>14.93</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>10.08</v>
+        <v>10.02</v>
       </c>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>AI应用+数字货币|1.黑芝麻智能与公司旗下RockAI联合发布基于武当C1200家族芯片的AI Agent解决方案，该方案将部署于未来的智能座舱应用中。
-2.子公司上海二三四五网络科技有限公司拥有一种分发数字货币的控制方法及控制装置的专利，目前处于实质审查阶段。</t>
+          <t>电力|公司主要从事发电厂的开发、运营和管理，是我国五大发电集团之一国家电力投资集团有限公司最主要的上市公司之一，也是上海市最主要的电力能源企业之一。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>AI应用, 数字货币</t>
+          <t>电力</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.08</v>
+        <v>-2.06</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
+          <t>国金证券研报表示，中国创新药全面收获，ADC、双/多抗技术领先，管线数量全球第一。2023年License out首超License in，金额屡破纪录，海外MNC重金抢购。</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -1874,44 +1875,48 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sh603613</t>
+          <t>sz002082</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>国联股份</t>
+          <t>万邦德</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>29.13</v>
+        <v>9.58</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I30" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>AI应用|公司基于ChatGPT上线了qkCode平台，基于ChatGPT引擎，旨在为产品经理提供一个更为方便的产品设计思路，为开发人员提供一个更为便捷、快速地生成代码的方式。同时，公司也正在研究复旦大学的moss模型，将根据国联股份本身的数据基础（如行业资讯、招投标、报价指数、物流等数据），生成行业AI应用，目前正在测试阶段。另外，公司基于行业痛点，正在开发“产业AI全家桶”项目，包括十余款AI在线应用，会以收费的方式提供给用户使用。</t>
+          <t xml:space="preserve">AI+创新药|在研发端，公司探索人工智能在创新药设计、筛选、实验设计等环节的应用，目前全球首个治疗胃轻瘫的中药1.1类新药“理中消痞颗粒”正在开展临床研究。 </t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>AI, 创新药</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.4</v>
+        <v>-2.06</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
+          <t>国金证券研报表示，中国创新药全面收获，ADC、双/多抗技术领先，管线数量全球第一。2023年License out首超License in，金额屡破纪录，海外MNC重金抢购。</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -1919,89 +1924,89 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sz002053</t>
+          <t>sh688189</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>云南能投</t>
+          <t>南新制药</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>12.39</v>
+        <v>16.98</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>10.04</v>
+        <v>20</v>
       </c>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>绿电|公司主营业务包括风力发电、光伏发电以及食盐、工业盐、日化盐、芒硝等系列产品的生产销售，天然气管网建设、运营、天然气销售、入户安装服务</t>
+          <t>创新药+并购重组|南新制药公告称，公司与未来医药签署《收购意向协议》，拟以现金不超过4.8亿元收购未来医药持有的标的资产组，包括已上市标的品种“多种微量元素注射液（Ⅰ）”、“多种微量元素注射液（Ⅱ）”和在研标的品种“多种微量元素注射液（Ⅲ）”，以及相关研发和生产技术资料、商标、专利、客户资料等。本次交易预计构成重大资产重组。</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>绿电</t>
+          <t>创新药, 并购重组</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.4</v>
+        <v>1.51</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
+          <t>北方稀土昨晚发布半年报，公司上半年实现营业收入188.66亿元，同比增长45.24%；归属于上市公司股东的净利润9.31亿元，同比大幅增长1951.52%。</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sh600021</t>
+          <t>sh600980</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>上海电力</t>
+          <t>北矿科技</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>14.93</v>
+        <v>28.07</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>10.02</v>
+        <v>9.99</v>
       </c>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>电力|公司主要从事发电厂的开发、运营和管理，是我国五大发电集团之一国家电力投资集团有限公司最主要的上市公司之一，也是上海市最主要的电力能源企业之一。</t>
+          <t>稀土永磁|公司旗下全资子公司北矿磁材是国内最早从事铁氧体磁性材料开发和生产的单位之一，是国内最大的铁氧体预烧料制造商之一。</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>稀土永磁</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-1.55</v>
+        <v>-0.96</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报表示，中国创新药全面收获，ADC、双/多抗技术领先，管线数量全球第一。2023年License out首超License in，金额屡破纪录，海外MNC重金抢购。</t>
+          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -2009,48 +2014,48 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sz002082</t>
+          <t>sh605188</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>万邦德</t>
+          <t>国光连锁</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>9.58</v>
+        <v>16.81</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>6天3板</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">AI+创新药|在研发端，公司探索人工智能在创新药设计、筛选、实验设计等环节的应用，目前全球首个治疗胃轻瘫的中药1.1类新药“理中消痞颗粒”正在开展临床研究。 </t>
+          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>AI, 创新药</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-1.55</v>
+        <v>-0.96</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报表示，中国创新药全面收获，ADC、双/多抗技术领先，管线数量全球第一。2023年License out首超License in，金额屡破纪录，海外MNC重金抢购。</t>
+          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -2058,121 +2063,113 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sh688189</t>
+          <t>sz002251</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>南新制药</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>16.98</v>
+        <v>5.63</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>20</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>创新药+并购重组|南新制药公告称，公司与未来医药签署《收购意向协议》，拟以现金不超过4.8亿元收购未来医药持有的标的资产组，包括已上市标的品种“多种微量元素注射液（Ⅰ）”、“多种微量元素注射液（Ⅱ）”和在研标的品种“多种微量元素注射液（Ⅲ）”，以及相关研发和生产技术资料、商标、专利、客户资料等。本次交易预计构成重大资产重组。</t>
+          <t>零售|公司主要业务为商品零售，以超市、百货等零售业态为广大消费者提供商品零售服务。</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>创新药, 并购重组</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>北方稀土昨晚发布半年报，公司上半年实现营业收入188.66亿元，同比增长45.24%；归属于上市公司股东的净利润9.31亿元，同比大幅增长1951.52%。</t>
-        </is>
-      </c>
+        <v>-0.8099999999999999</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr"/>
       <c r="D35" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sh600980</t>
+          <t>sh600200</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>北矿科技</t>
+          <t xml:space="preserve">*ST苏吴 </t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>28.07</v>
+        <v>1.17</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr"/>
+        <v>5.41</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁|公司旗下全资子公司北矿磁材是国内最早从事铁氧体磁性材料开发和生产的单位之一，是国内最大的铁氧体预烧料制造商之一。</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
+          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>北方稀土昨晚发布半年报，公司上半年实现营业收入188.66亿元，同比增长45.24%；归属于上市公司股东的净利润9.31亿元，同比大幅增长1951.52%。</t>
-        </is>
-      </c>
+        <v>-0.8099999999999999</v>
+      </c>
+      <c r="C36" s="2" t="inlineStr"/>
       <c r="D36" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sh600111</t>
+          <t>sz000972</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>北方稀土</t>
+          <t>*ST中基</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>54.02</v>
+        <v>4.31</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I36" s="2" t="inlineStr"/>
+        <v>5.12</v>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>8天4板</t>
+        </is>
+      </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁|公司是中国乃至全球最大的轻稀土产品供应商，是我国稀土行业六大稀土集团之一，拥有稀土冶炼、功能材料、深加工应用产品的完整产业链。</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
+          <t>ST股 | 公司依托新疆得天独厚的地域和自然优势，致力于发展番茄“红色产业”，产业规模居于前列，产品行销世界数十国家和地区，是全球主要食品企业长期、固定的原料供应商。</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2181,7 +2178,7 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.8099999999999999</v>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="n">
@@ -2189,28 +2186,29 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sz000609</t>
+          <t>sh603398</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>ST中迪</t>
+          <t xml:space="preserve">*ST沐邦 </t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4.42</v>
+        <v>6.07</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>4.99</v>
+        <v>5.02</v>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>9天7板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司房地产项目位于重庆、成都、达州，重庆的“两江中迪广场”主要为商业项目。</t>
+          <t>ST股 | 1.沐邦高科公告，与铜陵狮子山高新技术产业开发区管理委员会、铜陵高新发展投资有限公司签订《项目投资协议书》，项目名称为年产10GW-N型高效电池片、10GW切片生产基地项目。
+2.公司上市的IP产品 “樱桃小丸子”第一期为“盲盒”类产品。</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr"/>
@@ -2222,7 +2220,7 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.8099999999999999</v>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
       <c r="D38" s="2" t="n">
@@ -2230,28 +2228,28 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sh600200</t>
+          <t>sz002620</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST苏吴 </t>
+          <t>ST瑞和</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1.17</v>
+        <v>5.36</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>5.41</v>
+        <v>5.1</v>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>5天5板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
+          <t>ST股 | 公司主要从事政府机构、房地产开发商、大型企业、高档酒店、交通枢纽、园林绿化等综合性专业化装饰设计、工程施工业务以及光伏电站运营、光伏项目施工安装等。</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr"/>
@@ -2263,7 +2261,7 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.8099999999999999</v>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
       <c r="D39" s="2" t="n">
@@ -2271,28 +2269,28 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sz000972</t>
+          <t>sz000004</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>*ST中基</t>
+          <t>*ST国华</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>4.31</v>
+        <v>11.29</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>5.12</v>
+        <v>5.02</v>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>8天4板</t>
+          <t>5天3板</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司依托新疆得天独厚的地域和自然优势，致力于发展番茄“红色产业”，产业规模居于前列，产品行销世界数十国家和地区，是全球主要食品企业长期、固定的原料供应商。</t>
+          <t>ST股 | 公司旗下全资子公司智游网安为专业移动应用安全综合服务提供商。</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr"/>
@@ -2304,7 +2302,7 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.8099999999999999</v>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="2" t="n">
@@ -2312,29 +2310,24 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sh603398</t>
+          <t>sz300125</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST沐邦 </t>
+          <t>*ST聆达</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>6.07</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>19.94</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.沐邦高科公告，与铜陵狮子山高新技术产业开发区管理委员会、铜陵高新发展投资有限公司签订《项目投资协议书》，项目名称为年产10GW-N型高效电池片、10GW切片生产基地项目。
-2.公司上市的IP产品 “樱桃小丸子”第一期为“盲盒”类产品。</t>
+          <t>ST股 | 公司从事的光伏产业链相关业务主要为全资子公司格尔木神光运营的合计53MW的并网光伏电站。公司收购嘉悦新能源70%股权，嘉悦新能源主营PERC单晶硅太阳能电池片。</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr"/>
@@ -2346,7 +2339,7 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.8099999999999999</v>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
       <c r="D41" s="2" t="n">
@@ -2354,28 +2347,24 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sz002620</t>
+          <t>sz002005</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>ST德豪</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>5.36</v>
+        <v>2.48</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+        <v>5.08</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司主要从事政府机构、房地产开发商、大型企业、高档酒店、交通枢纽、园林绿化等综合性专业化装饰设计、工程施工业务以及光伏电站运营、光伏项目施工安装等。</t>
+          <t>ST股 | 小家电及LED双主营业务。是国内拥有包括LED芯片、LED封装、LED应用产品(照明和显示)、照明品牌及渠道在内的LED全产业链布局的极少数企业之一。</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr"/>
@@ -2387,7 +2376,7 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.8099999999999999</v>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
       <c r="D42" s="2" t="n">
@@ -2395,28 +2384,24 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>sz000004</t>
+          <t>sz000595</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>*ST国华</t>
+          <t>*ST宝实</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>11.29</v>
+        <v>5.41</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>5天3板</t>
-        </is>
-      </c>
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司旗下全资子公司智游网安为专业移动应用安全综合服务提供商。</t>
+          <t>ST股 | 2022年8月12日公司在互动平台表示，公司全资子公司宁夏西北轴承装备制造有限公司承接业务涉及机器人立柱、行走轴加工业务。</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr"/>
@@ -2428,7 +2413,7 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.8099999999999999</v>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="2" t="n">
@@ -2436,24 +2421,24 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sz300125</t>
+          <t>sz000691</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>*ST聆达</t>
+          <t>*ST亚太</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>8.359999999999999</v>
+        <v>7.64</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>19.94</v>
+        <v>4.95</v>
       </c>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司从事的光伏产业链相关业务主要为全资子公司格尔木神光运营的合计53MW的并网光伏电站。公司收购嘉悦新能源70%股权，嘉悦新能源主营PERC单晶硅太阳能电池片。</t>
+          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr"/>
@@ -2461,142 +2446,183 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>-0.34</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>sz002005</t>
+          <t>sh603177</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>ST德豪</t>
+          <t>德创环保</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2.48</v>
+        <v>11.98</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="I44" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 小家电及LED双主营业务。是国内拥有包括LED芯片、LED封装、LED应用产品(照明和显示)、照明品牌及渠道在内的LED全产业链布局的极少数企业之一。</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr"/>
+          <t>环保+氢能|1.公司主营业务为大气治理业务、危废治理业务、钠电池正极材料业务。主要产品是烟气治理工程、脱硝催化剂、脱硫设备、除尘设备、废盐渣资源化利用处置、危险废物处理。
+2.2024年5月20日公司在互动易上表示，公司氢能项目千瓦级单电堆的放大测试有序进行中。</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>环保, 氢能</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>-0.34</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
       <c r="D45" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sz000595</t>
+          <t>sz002593</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>*ST宝实</t>
+          <t>日上集团</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>5.41</v>
+        <v>6.2</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>5.050000000000001</v>
-      </c>
-      <c r="I45" s="2" t="inlineStr"/>
+        <v>9.93</v>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2022年8月12日公司在互动平台表示，公司全资子公司宁夏西北轴承装备制造有限公司承接业务涉及机器人立柱、行走轴加工业务。</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr"/>
+          <t>汽车|公司的汽车车轮产品包含了无内胎钢轮、型钢钢轮与锻造铝轮，产品系列已基本满足全球卡客车用户的需求</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>汽车</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>石油化工</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>-1.2</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
       <c r="D46" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sz002778</t>
+          <t>sz000592</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>中晟高科</t>
+          <t>平潭发展</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>20.68</v>
+        <v>3.87</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>10</v>
+        <v>9.94</v>
       </c>
       <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>福建+林业|公司在林木业务方面已基本形成“林板一体化”的发展产业链，拥有经营林区近90万亩，在福建省处于行业领先龙头地位。</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>福建, 林业</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>-0.75</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
       <c r="D47" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sz002251</t>
+          <t>sz000061</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>农 产 品</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>5.63</v>
+        <v>7.66</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>9.959999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>农产品批发|公司开创农产品批发市场“网络化”经营模式，形成国内最具规模的农产品批发市场网络体系。</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>农产品批发</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -2611,37 +2637,33 @@
       </c>
       <c r="C48" s="2" t="inlineStr"/>
       <c r="D48" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sh605188</t>
+          <t>sh603903</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>国光连锁</t>
+          <t>中持股份</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>16.81</v>
+        <v>10.25</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>6天3板</t>
-        </is>
-      </c>
+        <v>9.98</v>
+      </c>
+      <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
+          <t>股权转让|中持股份公告称，持股24.73%的股东长江生态环保集团有限公司，拟通过公开征集转让方式协议转让所持公司的全部股份。长江环保集团为公司第一大股东，若本次公开征集转让实施完成，将导致公司第一大股东变更。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>股权转让</t>
         </is>
       </c>
     </row>
@@ -2658,38 +2680,33 @@
       </c>
       <c r="C49" s="2" t="inlineStr"/>
       <c r="D49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>sh603615</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>茶花股份</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="H49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>sh603177</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>德创环保</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+      <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>环保+氢能|1.公司主营业务为大气治理业务、危废治理业务、钠电池正极材料业务。主要产品是烟气治理工程、脱硝催化剂、脱硫设备、除尘设备、废盐渣资源化利用处置、危险废物处理。
-2.2024年5月20日公司在互动易上表示，公司氢能项目千瓦级单电堆的放大测试有序进行中。</t>
+          <t>家居|公司专注于以日用塑料制品为主的家居用品的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>环保, 氢能</t>
+          <t>家居</t>
         </is>
       </c>
     </row>
@@ -2706,33 +2723,33 @@
       </c>
       <c r="C50" s="2" t="inlineStr"/>
       <c r="D50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>sh603697</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>有友食品</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="H50" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>sz000592</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>平潭发展</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>9.94</v>
       </c>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>福建+林业|公司在林木业务方面已基本形成“林板一体化”的发展产业链，拥有经营林区近90万亩，在福建省处于行业领先龙头地位。</t>
+          <t>休闲食品|公司的主营业务为泡卤风味休闲食品的研发、生产和销售，主要产品包括泡椒凤爪、卤香火鸡翅及豆干、花生、竹笋等。</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>福建, 林业</t>
+          <t>休闲食品</t>
         </is>
       </c>
     </row>
@@ -2749,290 +2766,31 @@
       </c>
       <c r="C51" s="2" t="inlineStr"/>
       <c r="D51" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>sz000061</t>
+          <t>839680.BJ</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>农 产 品</t>
+          <t>*ST广道</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>7.66</v>
+        <v>10.66</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>10.06</v>
+        <v>30</v>
       </c>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>农产品批发|公司开创农产品批发市场“网络化”经营模式，形成国内最具规模的农产品批发市场网络体系。</t>
+          <t>北交所ST|公司通过入股唯特视，共同探索大数据技术在军工数字化的应用落地，联合推出了作战仿真推演平台、作战单元数字化建模平台等大数据智能化应用类产品。</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>农产品批发</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
-      <c r="D52" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>sh688280</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>精进电动-UW</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>汽车|公司是新能源汽车电驱动系统国内领军企业之一，从事电驱动系统的研发、生产、销售及服务，已对驱动电机、控制器、传动三大总成自主掌握核心技术和实现完整布局。</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>汽车</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr"/>
-      <c r="D53" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>sh603903</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>中持股份</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>股权转让|中持股份公告称，持股24.73%的股东长江生态环保集团有限公司，拟通过公开征集转让方式协议转让所持公司的全部股份。长江环保集团为公司第一大股东，若本次公开征集转让实施完成，将导致公司第一大股东变更。</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>股权转让</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr"/>
-      <c r="D54" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>sh603615</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>茶花股份</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>26.18</v>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>家居|公司专注于以日用塑料制品为主的家居用品的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>家居</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr"/>
-      <c r="D55" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>sh603697</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>有友食品</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>休闲食品|公司的主营业务为泡卤风味休闲食品的研发、生产和销售，主要产品包括泡椒凤爪、卤香火鸡翅及豆干、花生、竹笋等。</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>休闲食品</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr"/>
-      <c r="D56" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>sz002922</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>伊戈尔</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IDC电源|公司产品应用于数据中心电源及移相变压器领域，未来建成投产后，将进一步丰富并扩大公司产品线。
-</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t>IDC电源</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr"/>
-      <c r="D57" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>839680.BJ</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>*ST广道</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>北交所ST|公司通过入股唯特视，共同探索大数据技术在军工数字化的应用落地，联合推出了作战仿真推演平台、作战单元数字化建模平台等大数据智能化应用类产品。</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
         <is>
           <t>北交所ST</t>
         </is>
@@ -3049,7 +2807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3175,12 +2933,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sz002212</t>
+          <t>sz002593</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>日上集团</t>
         </is>
       </c>
     </row>
@@ -3190,12 +2948,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sz002082</t>
+          <t>sz002212</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>万邦德</t>
+          <t>天融信</t>
         </is>
       </c>
     </row>
@@ -3205,12 +2963,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sh603177</t>
+          <t>sz002082</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>德创环保</t>
+          <t>万邦德</t>
         </is>
       </c>
     </row>
@@ -3220,12 +2978,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>sz002232</t>
+          <t>sh603177</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>启明信息</t>
+          <t>德创环保</t>
         </is>
       </c>
     </row>
@@ -3235,10 +2993,25 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>sz002232</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>启明信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
           <t>sh605188</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>国光连锁</t>
         </is>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
     <col width="89" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.27</v>
+        <v>-0.37</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.27</v>
+        <v>-0.37</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
@@ -622,19 +622,19 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sz002232</t>
+          <t>sh603363</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>启明信息</t>
+          <t>傲农生物</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>23.49</v>
+        <v>4.57</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>10.02</v>
+        <v>10.12</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
@@ -643,12 +643,13 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入3.3亿元，同比增长6.51%；净利润1418.81万元，同比增长2568.5%。</t>
+          <t>猪肉+业绩|1.公司围绕以“猪”为核心布局产业链，打造“饲料、养猪、食品”主业，“供应链服务、农业互联网”配套业务，主要产品包括饲料、生猪、猪肉及肉制品等。
+2.公司2025年1-6月实现营业收入为39.57亿元，同比下降15.01%；净利润3.61亿元，同比扭亏，上年同期亏损5.4亿元。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>猪肉, 业绩</t>
         </is>
       </c>
     </row>
@@ -659,7 +660,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.27</v>
+        <v>-0.37</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -671,34 +672,29 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sh603363</t>
+          <t>sz002250</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>傲农生物</t>
+          <t>联化科技</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.57</v>
+        <v>11.65</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>猪肉+业绩|1.公司围绕以“猪”为核心布局产业链，打造“饲料、养猪、食品”主业，“供应链服务、农业互联网”配套业务，主要产品包括饲料、生猪、猪肉及肉制品等。
-2.公司2025年1-6月实现营业收入为39.57亿元，同比下降15.01%；净利润3.61亿元，同比扭亏，上年同期亏损5.4亿元。</t>
+          <t>业绩|公司2025年1-6月实现营业收入31.5亿元，同比增长5.76%；归母净利润2.24亿元，同比增长1481.94%。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>猪肉, 业绩</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
@@ -709,7 +705,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.27</v>
+        <v>-0.37</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
@@ -721,24 +717,24 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sz002250</t>
+          <t>sh601512</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>联化科技</t>
+          <t>中新集团</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>11.65</v>
+        <v>8.91</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>10.01</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入31.5亿元，同比增长5.76%；归母净利润2.24亿元，同比增长1481.94%。</t>
+          <t>业绩|公司2025年1-6月实现营业收入21.04亿元，同比增长39.19%；归母净利润5.92亿元，同比增长5.32%。本期营业收入较上年同期增加，主要是本期土地开发业务收入增加。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -754,7 +750,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.27</v>
+        <v>-0.37</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
@@ -766,24 +762,24 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sh601512</t>
+          <t>sz003012</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>中新集团</t>
+          <t>东鹏控股</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.91</v>
+        <v>7.1</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>10</v>
+        <v>10.08</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入21.04亿元，同比增长39.19%；归母净利润5.92亿元，同比增长5.32%。本期营业收入较上年同期增加，主要是本期土地开发业务收入增加。</t>
+          <t>业绩|公司2025年1-6月实现营业收入29.34亿元，归母净利润2.19亿元，同比增长3.85%。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -799,7 +795,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.27</v>
+        <v>-0.37</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -811,24 +807,24 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sz003012</t>
+          <t>sz002380</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>东鹏控股</t>
+          <t>科远智慧</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.1</v>
+        <v>29.92</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10.08</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入29.34亿元，归母净利润2.19亿元，同比增长3.85%。</t>
+          <t>业绩|公司2025年1-6月实现营业收入9.8亿元，同比上升21.8%；归母净利润为1.36亿元，同比上升23.1%。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -844,7 +840,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.27</v>
+        <v>-0.37</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
@@ -856,16 +852,16 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sz002380</t>
+          <t>sz002778</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>科远智慧</t>
+          <t>中晟高科</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>29.92</v>
+        <v>20.68</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>10</v>
@@ -873,7 +869,7 @@
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入9.8亿元，同比上升21.8%；归母净利润为1.36亿元，同比上升23.1%。</t>
+          <t>业绩|公司2025年1-6月实现营业收入6421.71万元，同比下降73.31%；归母净利润4700.99万元，同比扭亏，上年同期亏损1702万元。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -889,7 +885,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.27</v>
+        <v>-0.37</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
@@ -901,24 +897,24 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz002778</t>
+          <t>sz002950</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>中晟高科</t>
+          <t>奥美医疗</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20.68</v>
+        <v>10.74</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10</v>
+        <v>10.04</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入6421.71万元，同比下降73.31%；归母净利润4700.99万元，同比扭亏，上年同期亏损1702万元。</t>
+          <t>业绩|公司2025年1-6月实现营业收入16.76亿元，同比增长5.99%；归母净利润2.00亿元，同比增长6.87%。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -930,304 +926,300 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>-0.8200000000000001</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>sh603181</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>皇马科技</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>半导体材料|公司生产的表面活性剂产品应用在湿电子化学品中，可以起到功能性的作用。</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>半导体材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>-0.8200000000000001</v>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>sh603499</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>翔港科技</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>存储芯片|公司参股企业金泰克是一家集研发、生产和自主品牌产品营销于一体的专业存储方案提供商，主要提供内存、SSD相关存储产品，产品涵盖消费级、工业控制级、企业级和嵌入式存储，能够为客户提供完整的存储产品解决方案。</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>存储芯片</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>-0.8200000000000001</v>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>sh603948</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>建业股份</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>半导体材料|公司主营产品之一的超纯氨是超净高纯电子化学品，是超大规模集成电路（即芯片）制作过程中的关键性基础化工材料之一。</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>半导体材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>-0.8200000000000001</v>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>sh603607</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>京华激光</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>IP经济+光刻机|1.公司主要为国内卡游龙头提供卡牌深加工服务，配套的IP包括“奥特曼”“叶罗丽”“名侦探柯南”“三国”“仙剑奇侠传”“小马宝莉”等。
+2.公司控股的美国菲涅尔制版科技公司是一家多年从事微结构光学技术研发及相关设备制造和维护的企业，先后研发出多台技术先进、性能突出、与光学制版有关的光刻机设备。</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>IP经济, 光刻机</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
           <t>算力工程</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="B14" s="2" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>sz002212</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>天融信</t>
         </is>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G14" s="2" t="n">
         <v>12.38</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H14" s="2" t="n">
         <v>10.04</v>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>5天4板</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>数字货币+算力|1.公司构建防御、防护、监测、阻断于一体的全链条全方位“挖矿”专项治理方案，并推出了数据安全运营、数据分类分级、数据隐私保护、数据防泄漏、数据跨境安全合规等相关产品，可为稳定币相关场景提供安全保障。
 2.公司DeepSeek安全智算一体机可广泛应用于智算中心系统建设、DeepSeek本地私有化部署、大模型推理与训练、大模型安全防护等场景中。</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>数字货币, 算力</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>算力工程</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="B15" s="2" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>sh688228</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">开普云  </t>
         </is>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G15" s="2" t="n">
         <v>113.7</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H15" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>并购重组+算力|1.开普云公告称，公司拟通过支付现金的方式向深圳金泰克购买南宁泰克半导体有限公司70%股权，交易价格尚未确定，交易对方深圳金泰克将其存储产品业务的经营性资产转移至南宁泰克。交易完成后，南宁泰克将成为公司的控股子公司，公司将新增存储产品相关业务。
 2.2024年1月25日公告，公司拟与成都华创鲲航科技合伙企业（有限合伙）共同出资设立合资公司。合资公司以提供行业大模型、人工智能大模型与算力软硬件一体化融合产品、人工智能算力运营服务、人工智能算力优化调度平台、人工智能大模型MaaS/SaaS服务等为业务方向。</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>并购重组, 算力</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>算力工程</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>sz002851</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>86.03</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>服务器电源|公司电源产品中的服务器电源一般在数据中心的服务器机柜、服务器、交换机、路由器、存储设备中，是一种将交流电转换为直流电的装置。</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>服务器电源</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>光通信</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>sh603083</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>剑桥科技</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>88.19</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>8天5板</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>光模块|剑桥科技在互动平台表示，公司对于800G光模块是有长期发展规划和坚定信心的。</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>光模块</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>光通信</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>sh600353</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>旭光电子</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>光刻机+光模块|1.公司用于光刻机、等离子清洗/抛光等半导体设备领域的发射管产品已经客户验证通过，并实现批量销售。
-2.参股32.55%的成都储翰科技是一家专注于接入网光模块和光组件生产及销售的高新技术企业，拥有从芯片封装到光电器件到光电模块的垂直整合产品线。</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>光刻机, 光模块</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>光通信</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>sz301183</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>东田微</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>96.23</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>滤光片|公司的光通信元件主要包括TO管帽和光器件（EPON/GPON)滤光片等。TO管帽作为光学接口，为通信设备封装的重要部件，需要对球面和非球面光学玻璃进行镀膜，具有较高的工艺难度。无源光纤网络光器件（EPON/GPON)作为光纤接入网的重要光器件可实现光电转化。</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>滤光片</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.18</v>
+        <v>-0.19</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -1235,323 +1227,322 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sh605255</t>
+          <t>sz002851</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>天普股份</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>39</v>
+        <v>86.03</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
+          <t>服务器电源|公司电源产品中的服务器电源一般在数据中心的服务器机柜、服务器、交换机、路由器、存储设备中，是一种将交流电转换为直流电的装置。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股</t>
+          <t>服务器电源</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.18</v>
+        <v>0.11</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sh603068</t>
+          <t>sh603083</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>博通集成</t>
+          <t>剑桥科技</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>42.46</v>
+        <v>88.19</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8天5板</t>
+        </is>
+      </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司拟将依托在AI无线通信的经验和技术积累，将研发资源拓展至端侧AI算力。公司发布的BK7259作为AIoT算力标杆，率先集成ARM Ethos-U65 microNPU的Wi-Fi 6 MCU，为边缘智能应用注入超强算力与卓越能效。</t>
+          <t>光模块|剑桥科技在互动平台表示，公司对于800G光模块是有长期发展规划和坚定信心的。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>光模块</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.18</v>
+        <v>0.11</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sh603893</t>
+          <t>sz301183</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">瑞芯微  </t>
+          <t>东田微</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>215.6</v>
+        <v>96.23</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司能够为下游客户及生态伙伴提供从0.2TOPs到6TOPs的不同算力水平的AIoT芯片，其中RK3588、RK3576带有6TOPs NPU处理单元，支持端侧主流3B以下参数级别的模型部署。</t>
+          <t>滤光片|公司的光通信元件主要包括TO管帽和光器件（EPON/GPON)滤光片等。TO管帽作为光学接口，为通信设备封装的重要部件，需要对球面和非球面光学玻璃进行镀膜，具有较高的工艺难度。无源光纤网络光器件（EPON/GPON)作为光纤接入网的重要光器件可实现光电转化。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>滤光片</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>算力芯片</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.15</v>
+        <v>1.45</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sh603181</t>
+          <t>sh605255</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>皇马科技</t>
+          <t>天普股份</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>18.95</v>
+        <v>39</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>半导体材料|公司生产的表面活性剂产品应用在湿电子化学品中，可以起到功能性的作用。</t>
+          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>半导体材料</t>
+          <t>中昊芯英入股</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>算力芯片</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.15</v>
+        <v>1.45</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sh603499</t>
+          <t>sh603068</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>翔港科技</t>
+          <t>博通集成</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>19.97</v>
+        <v>42.46</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>10.03</v>
+        <v>10</v>
       </c>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>存储芯片|公司参股企业金泰克是一家集研发、生产和自主品牌产品营销于一体的专业存储方案提供商，主要提供内存、SSD相关存储产品，产品涵盖消费级、工业控制级、企业级和嵌入式存储，能够为客户提供完整的存储产品解决方案。</t>
+          <t>算力芯片|公司拟将依托在AI无线通信的经验和技术积累，将研发资源拓展至端侧AI算力。公司发布的BK7259作为AIoT算力标杆，率先集成ARM Ethos-U65 microNPU的Wi-Fi 6 MCU，为边缘智能应用注入超强算力与卓越能效。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>存储芯片</t>
+          <t>算力芯片</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>算力芯片</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.15</v>
+        <v>1.45</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sh603948</t>
+          <t>sh603893</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>建业股份</t>
+          <t xml:space="preserve">瑞芯微  </t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>24.11</v>
+        <v>215.6</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>9.99</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>半导体材料|公司主营产品之一的超纯氨是超净高纯电子化学品，是超大规模集成电路（即芯片）制作过程中的关键性基础化工材料之一。</t>
+          <t>算力芯片|公司能够为下游客户及生态伙伴提供从0.2TOPs到6TOPs的不同算力水平的AIoT芯片，其中RK3588、RK3576带有6TOPs NPU处理单元，支持端侧主流3B以下参数级别的模型部署。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>半导体材料</t>
+          <t>算力芯片</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.15</v>
+        <v>-1.09</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sh603607</t>
+          <t>sz002053</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>京华激光</t>
+          <t>云南能投</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>28.91</v>
+        <v>12.39</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>10.01</v>
+        <v>10.04</v>
       </c>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>IP经济+光刻机|1.公司主要为国内卡游龙头提供卡牌深加工服务，配套的IP包括“奥特曼”“叶罗丽”“名侦探柯南”“三国”“仙剑奇侠传”“小马宝莉”等。
-2.公司控股的美国菲涅尔制版科技公司是一家多年从事微结构光学技术研发及相关设备制造和维护的企业，先后研发出多台技术先进、性能突出、与光学制版有关的光刻机设备。</t>
+          <t>绿电|公司主营业务包括风力发电、光伏发电以及食盐、工业盐、日化盐、芒硝等系列产品的生产销售，天然气管网建设、运营、天然气销售、入户安装服务</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>IP经济, 光刻机</t>
+          <t>绿电</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.5</v>
+        <v>-1.09</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -1559,29 +1550,29 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sz301488</t>
+          <t>sh600021</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>豪恩汽电</t>
+          <t>上海电力</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>96.11</v>
+        <v>14.93</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>20</v>
+        <v>10.02</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人合作|2025年8月26日微信公众号发布，豪恩汽电已与英伟达达成芯片战略合作，全面进入机器人大脑控制系统的开发，涵盖英伟达JetsonThor，Orin AGX，Orin NX和OrinNano全系列控制域。</t>
+          <t>电力|公司主要从事发电厂的开发、运营和管理，是我国五大发电集团之一国家电力投资集团有限公司最主要的上市公司之一，也是上海市最主要的电力能源企业之一。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人合作</t>
+          <t>电力</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1583,7 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.5</v>
+        <v>-1.15</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
@@ -1604,89 +1595,89 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sh603219</t>
+          <t>sz301488</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>富佳股份</t>
+          <t>豪恩汽电</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>22.48</v>
+        <v>96.11</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>9.98</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>机器人|子公司宁波益佳电子有限公司为乐聚机器人代工各类线路板。乐聚机器人是一家致力于高端智能人形机器人研发、制造和销售的高科技企业。</t>
+          <t>英伟达机器人合作|2025年8月26日微信公众号发布，豪恩汽电已与英伟达达成芯片战略合作，全面进入机器人大脑控制系统的开发，涵盖英伟达JetsonThor，Orin AGX，Orin NX和OrinNano全系列控制域。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>英伟达机器人合作</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.11</v>
+        <v>-1.15</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sz002909</t>
+          <t>sh603219</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>集泰股份</t>
+          <t>富佳股份</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>7.66</v>
+        <v>22.48</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>10.06</v>
+        <v>9.98</v>
       </c>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司当前研发的液冷导热硅油，其应用主要聚焦于数据中心及储能领域的热管理解决方案。</t>
+          <t>机器人|子公司宁波益佳电子有限公司为乐聚机器人代工各类线路板。乐聚机器人是一家致力于高端智能人形机器人研发、制造和销售的高科技企业。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.51</v>
+        <v>-0.5</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -1694,180 +1685,184 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sz301389</t>
+          <t>sz002909</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>隆扬电子</t>
+          <t>集泰股份</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>60.48</v>
+        <v>7.66</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>20</v>
+        <v>10.06</v>
       </c>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司掌握并深耕的卷绕式真空磁控溅射及复合镀膜技术为核心，研发铜箔类材料产品，逐步丰富和拓展公司铜箔产品种类，主要包括锂电铜箔及电子电路铜箔，未来可广泛应用于锂电池行业、线路板（PCB）。</t>
+          <t>液冷IDC|公司当前研发的液冷导热硅油，其应用主要聚焦于数据中心及储能领域的热管理解决方案。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>sh600601</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>方正科技</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>PCB+光模块|公司已批量生产PCB产品应用于10G-100G-200G-400G-800G等光模块产品，同时，针对1.6T连接器和光模块产品，公司PCB产品已完成打样并具备批量生产能力。</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>PCB, 光模块</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>sz301389</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>隆扬电子</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>60.48</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>PCB|公司掌握并深耕的卷绕式真空磁控溅射及复合镀膜技术为核心，研发铜箔类材料产品，逐步丰富和拓展公司铜箔产品种类，主要包括锂电铜箔及电子电路铜箔，未来可广泛应用于锂电池行业、线路板（PCB）。</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
           <t>AI应用</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>-0.79</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="B29" s="2" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="D29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>sz002195</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr">
         <is>
           <t>岩山科技</t>
         </is>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G29" s="2" t="n">
         <v>7.32</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H29" s="2" t="n">
         <v>10.08</v>
       </c>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr">
         <is>
           <t>AI应用+数字货币|1.黑芝麻智能与公司旗下RockAI联合发布基于武当C1200家族芯片的AI Agent解决方案，该方案将部署于未来的智能座舱应用中。
 2.子公司上海二三四五网络科技有限公司拥有一种分发数字货币的控制方法及控制装置的专利，目前处于实质审查阶段。</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
+      <c r="K29" s="2" t="inlineStr">
         <is>
           <t>AI应用, 数字货币</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>电力</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>sz002053</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>云南能投</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>绿电|公司主营业务包括风力发电、光伏发电以及食盐、工业盐、日化盐、芒硝等系列产品的生产销售，天然气管网建设、运营、天然气销售、入户安装服务</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>绿电</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>电力</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>sh600021</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>上海电力</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>电力|公司主要从事发电厂的开发、运营和管理，是我国五大发电集团之一国家电力投资集团有限公司最主要的上市公司之一，也是上海市最主要的电力能源企业之一。</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>电力</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>AI应用</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-2.06</v>
+        <v>-1.42</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报表示，中国创新药全面收获，ADC、双/多抗技术领先，管线数量全球第一。2023年License out首超License in，金额屡破纪录，海外MNC重金抢购。</t>
+          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -1875,33 +1870,29 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sz002082</t>
+          <t>sh603613</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>万邦德</t>
+          <t>国联股份</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>9.58</v>
+        <v>29.13</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">AI+创新药|在研发端，公司探索人工智能在创新药设计、筛选、实验设计等环节的应用，目前全球首个治疗胃轻瘫的中药1.1类新药“理中消痞颗粒”正在开展临床研究。 </t>
+          <t>AI应用|公司基于ChatGPT上线了qkCode平台，基于ChatGPT引擎，旨在为产品经理提供一个更为方便的产品设计思路，为开发人员提供一个更为便捷、快速地生成代码的方式。同时，公司也正在研究复旦大学的moss模型，将根据国联股份本身的数据基础（如行业资讯、招投标、报价指数、物流等数据），生成行业AI应用，目前正在测试阶段。另外，公司基于行业痛点，正在开发“产业AI全家桶”项目，包括十余款AI在线应用，会以收费的方式提供给用户使用。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>AI, 创新药</t>
+          <t>AI应用</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1903,7 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-2.06</v>
+        <v>-2.44</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
@@ -1924,123 +1915,123 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sh688189</t>
+          <t>sz002082</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>南新制药</t>
+          <t>万邦德</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>16.98</v>
+        <v>9.58</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>创新药+并购重组|南新制药公告称，公司与未来医药签署《收购意向协议》，拟以现金不超过4.8亿元收购未来医药持有的标的资产组，包括已上市标的品种“多种微量元素注射液（Ⅰ）”、“多种微量元素注射液（Ⅱ）”和在研标的品种“多种微量元素注射液（Ⅲ）”，以及相关研发和生产技术资料、商标、专利、客户资料等。本次交易预计构成重大资产重组。</t>
+          <t xml:space="preserve">AI+创新药|在研发端，公司探索人工智能在创新药设计、筛选、实验设计等环节的应用，目前全球首个治疗胃轻瘫的中药1.1类新药“理中消痞颗粒”正在开展临床研究。 </t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>创新药, 并购重组</t>
+          <t>AI, 创新药</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.51</v>
+        <v>-2.44</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>北方稀土昨晚发布半年报，公司上半年实现营业收入188.66亿元，同比增长45.24%；归属于上市公司股东的净利润9.31亿元，同比大幅增长1951.52%。</t>
+          <t>国金证券研报表示，中国创新药全面收获，ADC、双/多抗技术领先，管线数量全球第一。2023年License out首超License in，金额屡破纪录，海外MNC重金抢购。</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sh600980</t>
+          <t>sh688189</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>北矿科技</t>
+          <t>南新制药</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>28.07</v>
+        <v>16.98</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>9.99</v>
+        <v>20</v>
       </c>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁|公司旗下全资子公司北矿磁材是国内最早从事铁氧体磁性材料开发和生产的单位之一，是国内最大的铁氧体预烧料制造商之一。</t>
+          <t>创新药+并购重组|南新制药公告称，公司与未来医药签署《收购意向协议》，拟以现金不超过4.8亿元收购未来医药持有的标的资产组，包括已上市标的品种“多种微量元素注射液（Ⅰ）”、“多种微量元素注射液（Ⅱ）”和在研标的品种“多种微量元素注射液（Ⅲ）”，以及相关研发和生产技术资料、商标、专利、客户资料等。本次交易预计构成重大资产重组。</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>创新药, 并购重组</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.96</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
+          <t>北方稀土昨晚发布半年报，公司上半年实现营业收入188.66亿元，同比增长45.24%；归属于上市公司股东的净利润9.31亿元，同比大幅增长1951.52%。</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sh605188</t>
+          <t>sh600980</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>国光连锁</t>
+          <t>北矿科技</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>16.81</v>
+        <v>28.07</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>6天3板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
+          <t>稀土永磁|公司旗下全资子公司北矿磁材是国内最早从事铁氧体磁性材料开发和生产的单位之一，是国内最大的铁氧体预烧料制造商之一。</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>稀土永磁</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2042,7 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.96</v>
+        <v>-1.39</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
@@ -2059,7 +2050,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
@@ -2096,36 +2087,36 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.8099999999999999</v>
+        <v>-1.04</v>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
       <c r="D35" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sh600200</t>
+          <t>sz000609</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST苏吴 </t>
+          <t>ST中迪</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.17</v>
+        <v>4.42</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>5.41</v>
+        <v>4.99</v>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>5天5板</t>
+          <t>9天7板</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
+          <t>ST股 | 公司房地产项目位于重庆、成都、达州，重庆的“两江中迪广场”主要为商业项目。</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr"/>
@@ -2137,36 +2128,36 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.8099999999999999</v>
+        <v>-1.04</v>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
       <c r="D36" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sz000972</t>
+          <t>sh600200</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>*ST中基</t>
+          <t xml:space="preserve">*ST苏吴 </t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>4.31</v>
+        <v>1.17</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>5.12</v>
+        <v>5.41</v>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>8天4板</t>
+          <t>5天5板</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司依托新疆得天独厚的地域和自然优势，致力于发展番茄“红色产业”，产业规模居于前列，产品行销世界数十国家和地区，是全球主要食品企业长期、固定的原料供应商。</t>
+          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr"/>
@@ -2178,37 +2169,36 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.8099999999999999</v>
+        <v>-1.04</v>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sh603398</t>
+          <t>sz002620</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST沐邦 </t>
+          <t>ST瑞和</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>6.07</v>
+        <v>5.36</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>5.02</v>
+        <v>5.1</v>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.沐邦高科公告，与铜陵狮子山高新技术产业开发区管理委员会、铜陵高新发展投资有限公司签订《项目投资协议书》，项目名称为年产10GW-N型高效电池片、10GW切片生产基地项目。
-2.公司上市的IP产品 “樱桃小丸子”第一期为“盲盒”类产品。</t>
+          <t>ST股 | 公司主要从事政府机构、房地产开发商、大型企业、高档酒店、交通枢纽、园林绿化等综合性专业化装饰设计、工程施工业务以及光伏电站运营、光伏项目施工安装等。</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr"/>
@@ -2220,36 +2210,36 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.8099999999999999</v>
+        <v>-1.04</v>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
       <c r="D38" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sz002620</t>
+          <t>sz000004</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>*ST国华</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>5.36</v>
+        <v>11.29</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>5.1</v>
+        <v>5.02</v>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>4天3板</t>
+          <t>5天3板</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司主要从事政府机构、房地产开发商、大型企业、高档酒店、交通枢纽、园林绿化等综合性专业化装饰设计、工程施工业务以及光伏电站运营、光伏项目施工安装等。</t>
+          <t>ST股 | 公司旗下全资子公司智游网安为专业移动应用安全综合服务提供商。</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr"/>
@@ -2261,36 +2251,32 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.8099999999999999</v>
+        <v>-1.04</v>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
       <c r="D39" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sz000004</t>
+          <t>sz300125</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>*ST国华</t>
+          <t>*ST聆达</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>11.29</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>5天3板</t>
-        </is>
-      </c>
+        <v>19.94</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司旗下全资子公司智游网安为专业移动应用安全综合服务提供商。</t>
+          <t>ST股 | 公司从事的光伏产业链相关业务主要为全资子公司格尔木神光运营的合计53MW的并网光伏电站。公司收购嘉悦新能源70%股权，嘉悦新能源主营PERC单晶硅太阳能电池片。</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr"/>
@@ -2302,32 +2288,32 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.8099999999999999</v>
+        <v>-1.04</v>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sz300125</t>
+          <t>sz002289</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>*ST聆达</t>
+          <t>*ST宇顺</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>8.359999999999999</v>
+        <v>28.7</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>19.94</v>
+        <v>5.01</v>
       </c>
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司从事的光伏产业链相关业务主要为全资子公司格尔木神光运营的合计53MW的并网光伏电站。公司收购嘉悦新能源70%股权，嘉悦新能源主营PERC单晶硅太阳能电池片。</t>
+          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr"/>
@@ -2339,32 +2325,32 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.8099999999999999</v>
+        <v>-1.04</v>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
       <c r="D41" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sz002005</t>
+          <t>sz000691</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>ST德豪</t>
+          <t>*ST亚太</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.48</v>
+        <v>7.64</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>5.08</v>
+        <v>4.95</v>
       </c>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 小家电及LED双主营业务。是国内拥有包括LED芯片、LED封装、LED应用产品(照明和显示)、照明品牌及渠道在内的LED全产业链布局的极少数企业之一。</t>
+          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr"/>
@@ -2372,76 +2358,82 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>医用耗材</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.8099999999999999</v>
+        <v>-2.4</v>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
       <c r="D42" s="2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>sz000595</t>
+          <t>sh603222</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>*ST宝实</t>
+          <t>济民健康</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>5.41</v>
+        <v>10.04</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>5.050000000000001</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 2022年8月12日公司在互动平台表示，公司全资子公司宁夏西北轴承装备制造有限公司承接业务涉及机器人立柱、行走轴加工业务。</t>
-        </is>
-      </c>
+      <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>-0.8099999999999999</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sz000691</t>
+          <t>sh605188</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>*ST亚太</t>
+          <t>国光连锁</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>7.64</v>
+        <v>16.81</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="I43" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>6天3板</t>
+        </is>
+      </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr"/>
+          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2508,33 +2500,29 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sz002593</t>
+          <t>sz000592</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>日上集团</t>
+          <t>平潭发展</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>6.2</v>
+        <v>3.87</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.94</v>
+      </c>
+      <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>汽车|公司的汽车车轮产品包含了无内胎钢轮、型钢钢轮与锻造铝轮，产品系列已基本满足全球卡客车用户的需求</t>
+          <t>福建+林业|公司在林木业务方面已基本形成“林板一体化”的发展产业链，拥有经营林区近90万亩，在福建省处于行业领先龙头地位。</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>汽车</t>
+          <t>福建, 林业</t>
         </is>
       </c>
     </row>
@@ -2555,29 +2543,29 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sz000592</t>
+          <t>sz000061</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>平潭发展</t>
+          <t>农 产 品</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>3.87</v>
+        <v>7.66</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>9.94</v>
+        <v>10.06</v>
       </c>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>福建+林业|公司在林木业务方面已基本形成“林板一体化”的发展产业链，拥有经营林区近90万亩，在福建省处于行业领先龙头地位。</t>
+          <t>农产品批发|公司开创农产品批发市场“网络化”经营模式，形成国内最具规模的农产品批发市场网络体系。</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>福建, 林业</t>
+          <t>农产品批发</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2586,29 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sz000061</t>
+          <t>sh603903</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>农 产 品</t>
+          <t>中持股份</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>7.66</v>
+        <v>10.25</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>10.06</v>
+        <v>9.98</v>
       </c>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>农产品批发|公司开创农产品批发市场“网络化”经营模式，形成国内最具规模的农产品批发市场网络体系。</t>
+          <t>股权转让|中持股份公告称，持股24.73%的股东长江生态环保集团有限公司，拟通过公开征集转让方式协议转让所持公司的全部股份。长江环保集团为公司第一大股东，若本次公开征集转让实施完成，将导致公司第一大股东变更。</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>农产品批发</t>
+          <t>股权转让</t>
         </is>
       </c>
     </row>
@@ -2641,29 +2629,29 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sh603903</t>
+          <t>sh603615</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>中持股份</t>
+          <t>茶花股份</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>10.25</v>
+        <v>26.18</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>9.98</v>
+        <v>10</v>
       </c>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>股权转让|中持股份公告称，持股24.73%的股东长江生态环保集团有限公司，拟通过公开征集转让方式协议转让所持公司的全部股份。长江环保集团为公司第一大股东，若本次公开征集转让实施完成，将导致公司第一大股东变更。</t>
+          <t>家居|公司专注于以日用塑料制品为主的家居用品的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>家居</t>
         </is>
       </c>
     </row>
@@ -2684,29 +2672,29 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>sh603615</t>
+          <t>839680.BJ</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>茶花股份</t>
+          <t>*ST广道</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>26.18</v>
+        <v>10.66</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>家居|公司专注于以日用塑料制品为主的家居用品的研发、生产和销售。</t>
+          <t>北交所ST|公司通过入股唯特视，共同探索大数据技术在军工数字化的应用落地，联合推出了作战仿真推演平台、作战单元数字化建模平台等大数据智能化应用类产品。</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>家居</t>
+          <t>北交所ST</t>
         </is>
       </c>
     </row>
@@ -2727,72 +2715,29 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>sh603697</t>
+          <t>sh688280</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>有友食品</t>
+          <t>精进电动-UW</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>14.52</v>
+        <v>10.2</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>休闲食品|公司的主营业务为泡卤风味休闲食品的研发、生产和销售，主要产品包括泡椒凤爪、卤香火鸡翅及豆干、花生、竹笋等。</t>
+          <t>汽车|公司是新能源汽车电驱动系统国内领军企业之一，从事电驱动系统的研发、生产、销售及服务，已对驱动电机、控制器、传动三大总成自主掌握核心技术和实现完整布局。</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>休闲食品</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr"/>
-      <c r="D51" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>839680.BJ</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>*ST广道</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>北交所ST|公司通过入股唯特视，共同探索大数据技术在军工数字化的应用落地，联合推出了作战仿真推演平台、作战单元数字化建模平台等大数据智能化应用类产品。</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>北交所ST</t>
+          <t>汽车</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,12 +2878,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sz002593</t>
+          <t>sz002212</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>日上集团</t>
+          <t>天融信</t>
         </is>
       </c>
     </row>
@@ -2948,12 +2893,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sz002212</t>
+          <t>sz002082</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>万邦德</t>
         </is>
       </c>
     </row>
@@ -2963,12 +2908,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sz002082</t>
+          <t>sh603177</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>万邦德</t>
+          <t>德创环保</t>
         </is>
       </c>
     </row>
@@ -2978,40 +2923,10 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>sh603177</t>
+          <t>sh605188</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>德创环保</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>sz002232</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>启明信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>sh605188</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>国光连锁</t>
         </is>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.37</v>
+        <v>-1.1</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.37</v>
+        <v>-1.1</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.37</v>
+        <v>-1.1</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -672,24 +672,28 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sz002250</t>
+          <t>sz002232</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>联化科技</t>
+          <t>启明信息</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>11.65</v>
+        <v>23.49</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr"/>
+        <v>10.02</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入31.5亿元，同比增长5.76%；归母净利润2.24亿元，同比增长1481.94%。</t>
+          <t>业绩|公司2025年1-6月实现营业收入3.3亿元，同比增长6.51%；净利润1418.81万元，同比增长2568.5%。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -705,7 +709,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.37</v>
+        <v>-1.1</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
@@ -717,24 +721,24 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sh601512</t>
+          <t>sz002250</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>中新集团</t>
+          <t>联化科技</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.91</v>
+        <v>11.65</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入21.04亿元，同比增长39.19%；归母净利润5.92亿元，同比增长5.32%。本期营业收入较上年同期增加，主要是本期土地开发业务收入增加。</t>
+          <t>业绩|公司2025年1-6月实现营业收入31.5亿元，同比增长5.76%；归母净利润2.24亿元，同比增长1481.94%。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -750,7 +754,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.37</v>
+        <v>-1.1</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
@@ -762,24 +766,24 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sz003012</t>
+          <t>sh601512</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>东鹏控股</t>
+          <t>中新集团</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.1</v>
+        <v>8.91</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>10.08</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入29.34亿元，归母净利润2.19亿元，同比增长3.85%。</t>
+          <t>业绩|公司2025年1-6月实现营业收入21.04亿元，同比增长39.19%；归母净利润5.92亿元，同比增长5.32%。本期营业收入较上年同期增加，主要是本期土地开发业务收入增加。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -795,7 +799,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.37</v>
+        <v>-1.1</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -807,24 +811,24 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sz002380</t>
+          <t>sz003012</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>科远智慧</t>
+          <t>东鹏控股</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>29.92</v>
+        <v>7.1</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10</v>
+        <v>10.08</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入9.8亿元，同比上升21.8%；归母净利润为1.36亿元，同比上升23.1%。</t>
+          <t>业绩|公司2025年1-6月实现营业收入29.34亿元，归母净利润2.19亿元，同比增长3.85%。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -840,7 +844,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.37</v>
+        <v>-1.1</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
@@ -852,16 +856,16 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sz002778</t>
+          <t>sz002380</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>中晟高科</t>
+          <t>科远智慧</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>20.68</v>
+        <v>29.92</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>10</v>
@@ -869,7 +873,7 @@
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入6421.71万元，同比下降73.31%；归母净利润4700.99万元，同比扭亏，上年同期亏损1702万元。</t>
+          <t>业绩|公司2025年1-6月实现营业收入9.8亿元，同比上升21.8%；归母净利润为1.36亿元，同比上升23.1%。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -885,7 +889,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.37</v>
+        <v>-1.1</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
@@ -897,24 +901,24 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz002950</t>
+          <t>sz002778</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>奥美医疗</t>
+          <t>中晟高科</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>10.74</v>
+        <v>20.68</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10.04</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入16.76亿元，同比增长5.99%；归母净利润2.00亿元，同比增长6.87%。</t>
+          <t>业绩|公司2025年1-6月实现营业收入6421.71万元，同比下降73.31%；归母净利润4700.99万元，同比扭亏，上年同期亏损1702万元。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -930,7 +934,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.8200000000000001</v>
+        <v>-1.72</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
@@ -979,7 +983,7 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.8200000000000001</v>
+        <v>-1.72</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
@@ -1024,7 +1028,7 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.8200000000000001</v>
+        <v>-1.72</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
@@ -1069,7 +1073,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.8200000000000001</v>
+        <v>-1.72</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
@@ -1111,15 +1115,15 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>算力芯片</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.19</v>
+        <v>0.53</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
+          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -1127,238 +1131,238 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>sh605255</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>天普股份</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>中昊芯英入股</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>sh603068</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>博通集成</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>42.46</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片|公司拟将依托在AI无线通信的经验和技术积累，将研发资源拓展至端侧AI算力。公司发布的BK7259作为AIoT算力标杆，率先集成ARM Ethos-U65 microNPU的Wi-Fi 6 MCU，为边缘智能应用注入超强算力与卓越能效。</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>sh603893</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">瑞芯微  </t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>215.6</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片|公司能够为下游客户及生态伙伴提供从0.2TOPs到6TOPs的不同算力水平的AIoT芯片，其中RK3588、RK3576带有6TOPs NPU处理单元，支持端侧主流3B以下参数级别的模型部署。</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>算力工程</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>sz002212</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>天融信</t>
         </is>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G17" s="2" t="n">
         <v>12.38</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H17" s="2" t="n">
         <v>10.04</v>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>5天4板</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>数字货币+算力|1.公司构建防御、防护、监测、阻断于一体的全链条全方位“挖矿”专项治理方案，并推出了数据安全运营、数据分类分级、数据隐私保护、数据防泄漏、数据跨境安全合规等相关产品，可为稳定币相关场景提供安全保障。
 2.公司DeepSeek安全智算一体机可广泛应用于智算中心系统建设、DeepSeek本地私有化部署、大模型推理与训练、大模型安全防护等场景中。</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>数字货币, 算力</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>算力工程</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="B18" s="2" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>sh688228</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">开普云  </t>
         </is>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G18" s="2" t="n">
         <v>113.7</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>并购重组+算力|1.开普云公告称，公司拟通过支付现金的方式向深圳金泰克购买南宁泰克半导体有限公司70%股权，交易价格尚未确定，交易对方深圳金泰克将其存储产品业务的经营性资产转移至南宁泰克。交易完成后，南宁泰克将成为公司的控股子公司，公司将新增存储产品相关业务。
 2.2024年1月25日公告，公司拟与成都华创鲲航科技合伙企业（有限合伙）共同出资设立合资公司。合资公司以提供行业大模型、人工智能大模型与算力软硬件一体化融合产品、人工智能算力运营服务、人工智能算力优化调度平台、人工智能大模型MaaS/SaaS服务等为业务方向。</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>并购重组, 算力</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>算力工程</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>sz002851</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>86.03</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>服务器电源|公司电源产品中的服务器电源一般在数据中心的服务器机柜、服务器、交换机、路由器、存储设备中，是一种将交流电转换为直流电的装置。</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>服务器电源</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>光通信</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>sh603083</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>剑桥科技</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>88.19</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>8天5板</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>光模块|剑桥科技在互动平台表示，公司对于800G光模块是有长期发展规划和坚定信心的。</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>光模块</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>光通信</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>sz301183</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>东田微</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>96.23</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>滤光片|公司的光通信元件主要包括TO管帽和光器件（EPON/GPON)滤光片等。TO管帽作为光学接口，为通信设备封装的重要部件，需要对球面和非球面光学玻璃进行镀膜，具有较高的工艺难度。无源光纤网络光器件（EPON/GPON)作为光纤接入网的重要光器件可实现光电转化。</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>滤光片</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.45</v>
+        <v>-1.11</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -1366,138 +1370,138 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sh605255</t>
+          <t>sz002851</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>天普股份</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>39</v>
+        <v>86.03</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
+          <t>服务器电源|公司电源产品中的服务器电源一般在数据中心的服务器机柜、服务器、交换机、路由器、存储设备中，是一种将交流电转换为直流电的装置。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股</t>
+          <t>服务器电源</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.45</v>
+        <v>-0.8200000000000001</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sh603068</t>
+          <t>sh603083</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>博通集成</t>
+          <t>剑桥科技</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>42.46</v>
+        <v>88.19</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8天5板</t>
+        </is>
+      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司拟将依托在AI无线通信的经验和技术积累，将研发资源拓展至端侧AI算力。公司发布的BK7259作为AIoT算力标杆，率先集成ARM Ethos-U65 microNPU的Wi-Fi 6 MCU，为边缘智能应用注入超强算力与卓越能效。</t>
+          <t>光模块|剑桥科技在互动平台表示，公司对于800G光模块是有长期发展规划和坚定信心的。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>光模块</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.45</v>
+        <v>-0.8200000000000001</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sh603893</t>
+          <t>sz301183</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">瑞芯微  </t>
+          <t>东田微</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>215.6</v>
+        <v>96.23</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司能够为下游客户及生态伙伴提供从0.2TOPs到6TOPs的不同算力水平的AIoT芯片，其中RK3588、RK3576带有6TOPs NPU处理单元，支持端侧主流3B以下参数级别的模型部署。</t>
+          <t>滤光片|公司的光通信元件主要包括TO管帽和光器件（EPON/GPON)滤光片等。TO管帽作为光学接口，为通信设备封装的重要部件，需要对球面和非球面光学玻璃进行镀膜，具有较高的工艺难度。无源光纤网络光器件（EPON/GPON)作为光纤接入网的重要光器件可实现光电转化。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>滤光片</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-1.09</v>
+        <v>-2.04</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
+          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -1505,44 +1509,44 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sz002053</t>
+          <t>sh603219</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>云南能投</t>
+          <t>富佳股份</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>12.39</v>
+        <v>22.48</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>10.04</v>
+        <v>9.98</v>
       </c>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>绿电|公司主营业务包括风力发电、光伏发电以及食盐、工业盐、日化盐、芒硝等系列产品的生产销售，天然气管网建设、运营、天然气销售、入户安装服务</t>
+          <t>机器人|子公司宁波益佳电子有限公司为乐聚机器人代工各类线路板。乐聚机器人是一家致力于高端智能人形机器人研发、制造和销售的高科技企业。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>绿电</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-1.09</v>
+        <v>-2.04</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
+          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -1550,44 +1554,44 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sh600021</t>
+          <t>sz301488</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>上海电力</t>
+          <t>豪恩汽电</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>14.93</v>
+        <v>96.11</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>10.02</v>
+        <v>20</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>电力|公司主要从事发电厂的开发、运营和管理，是我国五大发电集团之一国家电力投资集团有限公司最主要的上市公司之一，也是上海市最主要的电力能源企业之一。</t>
+          <t>英伟达机器人合作|2025年8月26日微信公众号发布，豪恩汽电已与英伟达达成芯片战略合作，全面进入机器人大脑控制系统的开发，涵盖英伟达JetsonThor，Orin AGX，Orin NX和OrinNano全系列控制域。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>英伟达机器人合作</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>AI应用</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -1595,44 +1599,45 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sz301488</t>
+          <t>sz002195</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>豪恩汽电</t>
+          <t>岩山科技</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>96.11</v>
+        <v>7.32</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>20</v>
+        <v>10.08</v>
       </c>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人合作|2025年8月26日微信公众号发布，豪恩汽电已与英伟达达成芯片战略合作，全面进入机器人大脑控制系统的开发，涵盖英伟达JetsonThor，Orin AGX，Orin NX和OrinNano全系列控制域。</t>
+          <t>AI应用+数字货币|1.黑芝麻智能与公司旗下RockAI联合发布基于武当C1200家族芯片的AI Agent解决方案，该方案将部署于未来的智能座舱应用中。
+2.子公司上海二三四五网络科技有限公司拥有一种分发数字货币的控制方法及控制装置的专利，目前处于实质审查阶段。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人合作</t>
+          <t>AI应用, 数字货币</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>AI应用</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -1640,89 +1645,89 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sh603219</t>
+          <t>sh603613</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>富佳股份</t>
+          <t>国联股份</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>22.48</v>
+        <v>29.13</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>机器人|子公司宁波益佳电子有限公司为乐聚机器人代工各类线路板。乐聚机器人是一家致力于高端智能人形机器人研发、制造和销售的高科技企业。</t>
+          <t>AI应用|公司基于ChatGPT上线了qkCode平台，基于ChatGPT引擎，旨在为产品经理提供一个更为方便的产品设计思路，为开发人员提供一个更为便捷、快速地生成代码的方式。同时，公司也正在研究复旦大学的moss模型，将根据国联股份本身的数据基础（如行业资讯、招投标、报价指数、物流等数据），生成行业AI应用，目前正在测试阶段。另外，公司基于行业痛点，正在开发“产业AI全家桶”项目，包括十余款AI在线应用，会以收费的方式提供给用户使用。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>AI应用</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.5</v>
+        <v>-1.45</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sz002909</t>
+          <t>sh600744</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>集泰股份</t>
+          <t>华银电力</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>7.66</v>
+        <v>8.57</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>10.06</v>
+        <v>10.01</v>
       </c>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司当前研发的液冷导热硅油，其应用主要聚焦于数据中心及储能领域的热管理解决方案。</t>
+          <t>电力|作为湖南省火电装机主要发电企业，公司主要从事火力发电业务，同时经营水电、风电、太阳能业务以及电力销售业务。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>电力</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-1.22</v>
+        <v>-1.45</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。</t>
+          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
@@ -1730,48 +1735,44 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sh600601</t>
+          <t>sz002053</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>方正科技</t>
+          <t>云南能投</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>8.699999999999999</v>
+        <v>12.39</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>10.04</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>PCB+光模块|公司已批量生产PCB产品应用于10G-100G-200G-400G-800G等光模块产品，同时，针对1.6T连接器和光模块产品，公司PCB产品已完成打样并具备批量生产能力。</t>
+          <t>绿电|公司主营业务包括风力发电、光伏发电以及食盐、工业盐、日化盐、芒硝等系列产品的生产销售，天然气管网建设、运营、天然气销售、入户安装服务</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>PCB, 光模块</t>
+          <t>绿电</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-1.22</v>
+        <v>-1.9</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>中信证券研报称，随着AI算力基础设施建设提速，印制电路板(PCB)需求爆发。</t>
+          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -1779,44 +1780,48 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sz301389</t>
+          <t>sh605188</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>隆扬电子</t>
+          <t>国光连锁</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>60.48</v>
+        <v>16.81</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>6天3板</t>
+        </is>
+      </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司掌握并深耕的卷绕式真空磁控溅射及复合镀膜技术为核心，研发铜箔类材料产品，逐步丰富和拓展公司铜箔产品种类，主要包括锂电铜箔及电子电路铜箔，未来可广泛应用于锂电池行业、线路板（PCB）。</t>
+          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-1.42</v>
+        <v>-1.9</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
+          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -1824,75 +1829,74 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sz002195</t>
+          <t>sz002251</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>岩山科技</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>7.32</v>
+        <v>5.63</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>10.08</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>AI应用+数字货币|1.黑芝麻智能与公司旗下RockAI联合发布基于武当C1200家族芯片的AI Agent解决方案，该方案将部署于未来的智能座舱应用中。
-2.子公司上海二三四五网络科技有限公司拥有一种分发数字货币的控制方法及控制装置的专利，目前处于实质审查阶段。</t>
+          <t>零售|公司主要业务为商品零售，以超市、百货等零售业态为广大消费者提供商品零售服务。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>AI应用, 数字货币</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-1.42</v>
+        <v>0.08</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
+          <t>北方稀土昨晚发布半年报，公司上半年实现营业收入188.66亿元，同比增长45.24%；归属于上市公司股东的净利润9.31亿元，同比大幅增长1951.52%。</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sh603613</t>
+          <t>sh600980</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>国联股份</t>
+          <t>北矿科技</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>29.13</v>
+        <v>28.07</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>10.01</v>
+        <v>9.99</v>
       </c>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>AI应用|公司基于ChatGPT上线了qkCode平台，基于ChatGPT引擎，旨在为产品经理提供一个更为方便的产品设计思路，为开发人员提供一个更为便捷、快速地生成代码的方式。同时，公司也正在研究复旦大学的moss模型，将根据国联股份本身的数据基础（如行业资讯、招投标、报价指数、物流等数据），生成行业AI应用，目前正在测试阶段。另外，公司基于行业痛点，正在开发“产业AI全家桶”项目，包括十余款AI在线应用，会以收费的方式提供给用户使用。</t>
+          <t>稀土永磁|公司旗下全资子公司北矿磁材是国内最早从事铁氧体磁性材料开发和生产的单位之一，是国内最大的铁氧体预烧料制造商之一。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>稀土永磁</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1907,7 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-2.44</v>
+        <v>-3.12</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
@@ -1911,174 +1915,158 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sz002082</t>
+          <t>sh688189</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>万邦德</t>
+          <t>南新制药</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>9.58</v>
+        <v>16.98</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">AI+创新药|在研发端，公司探索人工智能在创新药设计、筛选、实验设计等环节的应用，目前全球首个治疗胃轻瘫的中药1.1类新药“理中消痞颗粒”正在开展临床研究。 </t>
+          <t>创新药+并购重组|南新制药公告称，公司与未来医药签署《收购意向协议》，拟以现金不超过4.8亿元收购未来医药持有的标的资产组，包括已上市标的品种“多种微量元素注射液（Ⅰ）”、“多种微量元素注射液（Ⅱ）”和在研标的品种“多种微量元素注射液（Ⅲ）”，以及相关研发和生产技术资料、商标、专利、客户资料等。本次交易预计构成重大资产重组。</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>AI, 创新药</t>
+          <t>创新药, 并购重组</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-2.44</v>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>国金证券研报表示，中国创新药全面收获，ADC、双/多抗技术领先，管线数量全球第一。2023年License out首超License in，金额屡破纪录，海外MNC重金抢购。</t>
-        </is>
-      </c>
+        <v>-1.48</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sh688189</t>
+          <t>sh600200</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>南新制药</t>
+          <t xml:space="preserve">*ST苏吴 </t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>16.98</v>
+        <v>1.17</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I32" s="2" t="inlineStr"/>
+        <v>5.41</v>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>创新药+并购重组|南新制药公告称，公司与未来医药签署《收购意向协议》，拟以现金不超过4.8亿元收购未来医药持有的标的资产组，包括已上市标的品种“多种微量元素注射液（Ⅰ）”、“多种微量元素注射液（Ⅱ）”和在研标的品种“多种微量元素注射液（Ⅲ）”，以及相关研发和生产技术资料、商标、专利、客户资料等。本次交易预计构成重大资产重组。</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>创新药, 并购重组</t>
-        </is>
-      </c>
+          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.8699999999999999</v>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>北方稀土昨晚发布半年报，公司上半年实现营业收入188.66亿元，同比增长45.24%；归属于上市公司股东的净利润9.31亿元，同比大幅增长1951.52%。</t>
-        </is>
-      </c>
+        <v>-1.48</v>
+      </c>
+      <c r="C33" s="2" t="inlineStr"/>
       <c r="D33" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sh600980</t>
+          <t>sh603813</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>北矿科技</t>
+          <t xml:space="preserve">*ST原尚 </t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>28.07</v>
+        <v>18.43</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I33" s="2" t="inlineStr"/>
+        <v>5.01</v>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁|公司旗下全资子公司北矿磁材是国内最早从事铁氧体磁性材料开发和生产的单位之一，是国内最大的铁氧体预烧料制造商之一。</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>稀土永磁</t>
-        </is>
-      </c>
+          <t>ST股 | 公司参股公司广东原锋新能源科技的股东之一锋源是国内极少的集全套自主知识产权氢燃料电池电堆以及核心零部件膜电极、催化剂、金属双极板等研发、生产、销售一体的公司。</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-1.39</v>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
-        </is>
-      </c>
+        <v>-1.48</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr"/>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sz002251</t>
+          <t>sz000004</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>*ST国华</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>5.63</v>
+        <v>11.29</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I34" s="2" t="inlineStr"/>
+        <v>5.02</v>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>5天3板</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>零售|公司主要业务为商品零售，以超市、百货等零售业态为广大消费者提供商品零售服务。</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>零售</t>
-        </is>
-      </c>
+          <t>ST股 | 公司旗下全资子公司智游网安为专业移动应用安全综合服务提供商。</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2087,36 +2075,32 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-1.04</v>
+        <v>-1.48</v>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
       <c r="D35" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sz000609</t>
+          <t>sz300125</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>ST中迪</t>
+          <t>*ST聆达</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>4.42</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>9天7板</t>
-        </is>
-      </c>
+        <v>19.94</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司房地产项目位于重庆、成都、达州，重庆的“两江中迪广场”主要为商业项目。</t>
+          <t>ST股 | 公司从事的光伏产业链相关业务主要为全资子公司格尔木神光运营的合计53MW的并网光伏电站。公司收购嘉悦新能源70%股权，嘉悦新能源主营PERC单晶硅太阳能电池片。</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr"/>
@@ -2128,36 +2112,32 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-1.04</v>
+        <v>-1.48</v>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
       <c r="D36" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sh600200</t>
+          <t>sz002289</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST苏吴 </t>
+          <t>*ST宇顺</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.17</v>
+        <v>28.7</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>5天5板</t>
-        </is>
-      </c>
+        <v>5.01</v>
+      </c>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
+          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr"/>
@@ -2165,228 +2145,274 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>-1.04</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sz002620</t>
+          <t>sh603177</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>德创环保</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>5.36</v>
+        <v>11.98</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>5.1</v>
+        <v>10.01</v>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>4天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司主要从事政府机构、房地产开发商、大型企业、高档酒店、交通枢纽、园林绿化等综合性专业化装饰设计、工程施工业务以及光伏电站运营、光伏项目施工安装等。</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr"/>
+          <t>环保+氢能|1.公司主营业务为大气治理业务、危废治理业务、钠电池正极材料业务。主要产品是烟气治理工程、脱硝催化剂、脱硫设备、除尘设备、废盐渣资源化利用处置、危险废物处理。
+2.2024年5月20日公司在互动易上表示，公司氢能项目千瓦级单电堆的放大测试有序进行中。</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>环保, 氢能</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>-1.04</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
       <c r="D38" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sz000004</t>
+          <t>sh603382</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>*ST国华</t>
+          <t>海阳科技</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>11.29</v>
+        <v>39.53</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>5.02</v>
+        <v>9.99</v>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>5天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司旗下全资子公司智游网安为专业移动应用安全综合服务提供商。</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr"/>
+          <t>尼龙6|公司系国内从事尼龙6系列产品研发、生产和销售的主要企业之一。公司尼龙6切片产能32.1万吨，尼龙帘子布产能4万吨，涤纶帘子布产能3.6万吨，尼龙6丝产能6.2万吨。</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>尼龙6</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>-1.04</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
       <c r="D39" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sz300125</t>
+          <t>sz001296</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>*ST聆达</t>
+          <t>长江材料</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>8.359999999999999</v>
+        <v>25.29</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司从事的光伏产业链相关业务主要为全资子公司格尔木神光运营的合计53MW的并网光伏电站。公司收购嘉悦新能源70%股权，嘉悦新能源主营PERC单晶硅太阳能电池片。</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr"/>
+          <t>3D打印+石英|1.公司生产的3D打印砂用于快速样件开发及部份铸造的砂芯生产。
+2.公司在内蒙古科左后旗的子公司拥有自有的石英砂矿，开采的石英砂用于铸造材料和压裂支撑剂的生产。</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>3D打印, 石英</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>-1.04</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sz002289</t>
+          <t>sz000592</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>*ST宇顺</t>
+          <t>平潭发展</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>28.7</v>
+        <v>3.87</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>5.01</v>
+        <v>9.94</v>
       </c>
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr"/>
+          <t>福建+林业|公司在林木业务方面已基本形成“林板一体化”的发展产业链，拥有经营林区近90万亩，在福建省处于行业领先龙头地位。</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>福建, 林业</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>-1.04</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
       <c r="D41" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sz000691</t>
+          <t>sz301389</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>*ST亚太</t>
+          <t>隆扬电子</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>7.64</v>
+        <v>60.48</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>4.95</v>
+        <v>20</v>
       </c>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司地处甘肃，主要从事精细化工产品中的医药中间体、农药中间体的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr"/>
+          <t>PCB|公司掌握并深耕的卷绕式真空磁控溅射及复合镀膜技术为核心，研发铜箔类材料产品，逐步丰富和拓展公司铜箔产品种类，主要包括锂电铜箔及电子电路铜箔，未来可广泛应用于锂电池行业、线路板（PCB）。</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>医用耗材</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>-2.4</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
       <c r="D42" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>sh603222</t>
+          <t>sz002909</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>济民健康</t>
+          <t>集泰股份</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>10.04</v>
+        <v>7.66</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>9.969999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>液冷IDC|公司当前研发的液冷导热硅油，其应用主要聚焦于数据中心及储能领域的热管理解决方案。</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>液冷IDC</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2401,37 +2427,33 @@
       </c>
       <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sh605188</t>
+          <t>sz000061</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>国光连锁</t>
+          <t>农 产 品</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>16.81</v>
+        <v>7.66</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>6天3板</t>
-        </is>
-      </c>
+        <v>10.06</v>
+      </c>
+      <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
+          <t>农产品批发|公司开创农产品批发市场“网络化”经营模式，形成国内最具规模的农产品批发市场网络体系。</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>农产品批发</t>
         </is>
       </c>
     </row>
@@ -2448,38 +2470,33 @@
       </c>
       <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>sh603177</t>
+          <t>sh603615</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>德创环保</t>
+          <t>茶花股份</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>11.98</v>
+        <v>26.18</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>环保+氢能|1.公司主营业务为大气治理业务、危废治理业务、钠电池正极材料业务。主要产品是烟气治理工程、脱硝催化剂、脱硫设备、除尘设备、废盐渣资源化利用处置、危险废物处理。
-2.2024年5月20日公司在互动易上表示，公司氢能项目千瓦级单电堆的放大测试有序进行中。</t>
+          <t>家居|公司专注于以日用塑料制品为主的家居用品的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>环保, 氢能</t>
+          <t>家居</t>
         </is>
       </c>
     </row>
@@ -2496,33 +2513,33 @@
       </c>
       <c r="C45" s="2" t="inlineStr"/>
       <c r="D45" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sz000592</t>
+          <t>839680.BJ</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>平潭发展</t>
+          <t>*ST广道</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>3.87</v>
+        <v>10.66</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>9.94</v>
+        <v>30</v>
       </c>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>福建+林业|公司在林木业务方面已基本形成“林板一体化”的发展产业链，拥有经营林区近90万亩，在福建省处于行业领先龙头地位。</t>
+          <t>北交所ST|公司通过入股唯特视，共同探索大数据技术在军工数字化的应用落地，联合推出了作战仿真推演平台、作战单元数字化建模平台等大数据智能化应用类产品。</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>福建, 林业</t>
+          <t>北交所ST</t>
         </is>
       </c>
     </row>
@@ -2539,33 +2556,34 @@
       </c>
       <c r="C46" s="2" t="inlineStr"/>
       <c r="D46" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sz000061</t>
+          <t>sh603222</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>农 产 品</t>
+          <t>济民健康</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>7.66</v>
+        <v>10.04</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>10.06</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>农产品批发|公司开创农产品批发市场“网络化”经营模式，形成国内最具规模的农产品批发市场网络体系。</t>
+          <t>医疗器械+细胞治疗|1.主要产品为各种品规的非PVC软袋大输液、塑料瓶大输液以及安全注射器、无菌注射器和输液器等产品。
+2.公司旗下博鳌国际医院拥有国内唯一一家通过日本国厚生省认证的国际再生医学实验室，建成了包括细胞存储、国际标准细胞制备、细胞治疗临床研究、干细胞与再生医学技术转化四大核心技术平台。</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>农产品批发</t>
+          <t>医疗器械, 细胞治疗</t>
         </is>
       </c>
     </row>
@@ -2582,33 +2600,33 @@
       </c>
       <c r="C47" s="2" t="inlineStr"/>
       <c r="D47" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sh603903</t>
+          <t>sh688280</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>中持股份</t>
+          <t>精进电动-UW</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>10.25</v>
+        <v>10.2</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>9.98</v>
+        <v>20</v>
       </c>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>股权转让|中持股份公告称，持股24.73%的股东长江生态环保集团有限公司，拟通过公开征集转让方式协议转让所持公司的全部股份。长江环保集团为公司第一大股东，若本次公开征集转让实施完成，将导致公司第一大股东变更。</t>
+          <t>汽车|公司是新能源汽车电驱动系统国内领军企业之一，从事电驱动系统的研发、生产、销售及服务，已对驱动电机、控制器、传动三大总成自主掌握核心技术和实现完整布局。</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>汽车</t>
         </is>
       </c>
     </row>
@@ -2625,20 +2643,20 @@
       </c>
       <c r="C48" s="2" t="inlineStr"/>
       <c r="D48" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sh603615</t>
+          <t>sh603697</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>茶花股份</t>
+          <t>有友食品</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>26.18</v>
+        <v>14.52</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>10</v>
@@ -2646,98 +2664,12 @@
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>家居|公司专注于以日用塑料制品为主的家居用品的研发、生产和销售。</t>
+          <t>休闲食品|公司的主营业务为泡卤风味休闲食品的研发、生产和销售，主要产品包括泡椒凤爪、卤香火鸡翅及豆干、花生、竹笋等。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>家居</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>839680.BJ</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>*ST广道</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>北交所ST|公司通过入股唯特视，共同探索大数据技术在军工数字化的应用落地，联合推出了作战仿真推演平台、作战单元数字化建模平台等大数据智能化应用类产品。</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>北交所ST</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr"/>
-      <c r="D50" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>sh688280</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>精进电动-UW</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>汽车|公司是新能源汽车电驱动系统国内领军企业之一，从事电驱动系统的研发、生产、销售及服务，已对驱动电机、控制器、传动三大总成自主掌握核心技术和实现完整布局。</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>汽车</t>
+          <t>休闲食品</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2833,12 +2765,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sh603859</t>
+          <t>sh603382</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>能科科技</t>
+          <t>海阳科技</t>
         </is>
       </c>
     </row>
@@ -2848,12 +2780,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sh603363</t>
+          <t>sh603859</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>傲农生物</t>
+          <t>能科科技</t>
         </is>
       </c>
     </row>
@@ -2863,12 +2795,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sh603181</t>
+          <t>sh603363</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>皇马科技</t>
+          <t>傲农生物</t>
         </is>
       </c>
     </row>
@@ -2878,12 +2810,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sz002212</t>
+          <t>sh603181</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>皇马科技</t>
         </is>
       </c>
     </row>
@@ -2893,12 +2825,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sz002082</t>
+          <t>sz002212</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>万邦德</t>
+          <t>天融信</t>
         </is>
       </c>
     </row>
@@ -2908,12 +2840,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sh603177</t>
+          <t>sz002232</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>德创环保</t>
+          <t>启明信息</t>
         </is>
       </c>
     </row>
@@ -2923,10 +2855,40 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>sh603177</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>德创环保</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>sz001296</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>长江材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
           <t>sh605188</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>国光连锁</t>
         </is>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -166,7 +166,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7620000" cy="3810000"/>
+    <ext cx="15240000" cy="7620000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -565,7 +565,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>临近8月底，上市公司半年报进入密集披露期，截至8月25日收盘，1233家公司上半年净利同比增长。</t>
+          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -614,7 +614,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>临近8月底，上市公司半年报进入密集披露期，截至8月25日收盘，1233家公司上半年净利同比增长。</t>
+          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>临近8月底，上市公司半年报进入密集披露期，截至8月25日收盘，1233家公司上半年净利同比增长。</t>
+          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>临近8月底，上市公司半年报进入密集披露期，截至8月25日收盘，1233家公司上半年净利同比增长。</t>
+          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -758,7 +758,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>临近8月底，上市公司半年报进入密集披露期，截至8月25日收盘，1233家公司上半年净利同比增长。</t>
+          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>临近8月底，上市公司半年报进入密集披露期，截至8月25日收盘，1233家公司上半年净利同比增长。</t>
+          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>临近8月底，上市公司半年报进入密集披露期，截至8月25日收盘，1233家公司上半年净利同比增长。</t>
+          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>临近8月底，上市公司半年报进入密集披露期，截至8月25日收盘，1233家公司上半年净利同比增长。</t>
+          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -1493,15 +1493,15 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-2.04</v>
+        <v>-1.45</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -1509,44 +1509,44 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sh603219</t>
+          <t>sh600744</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>富佳股份</t>
+          <t>华银电力</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>22.48</v>
+        <v>8.57</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>机器人|子公司宁波益佳电子有限公司为乐聚机器人代工各类线路板。乐聚机器人是一家致力于高端智能人形机器人研发、制造和销售的高科技企业。</t>
+          <t>电力|作为湖南省火电装机主要发电企业，公司主要从事火力发电业务，同时经营水电、风电、太阳能业务以及电力销售业务。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>电力</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-2.04</v>
+        <v>-1.45</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -1554,44 +1554,44 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sz301488</t>
+          <t>sz002053</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>豪恩汽电</t>
+          <t>云南能投</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>96.11</v>
+        <v>12.39</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>20</v>
+        <v>10.04</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人合作|2025年8月26日微信公众号发布，豪恩汽电已与英伟达达成芯片战略合作，全面进入机器人大脑控制系统的开发，涵盖英伟达JetsonThor，Orin AGX，Orin NX和OrinNano全系列控制域。</t>
+          <t>绿电|公司主营业务包括风力发电、光伏发电以及食盐、工业盐、日化盐、芒硝等系列产品的生产销售，天然气管网建设、运营、天然气销售、入户安装服务</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人合作</t>
+          <t>绿电</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-2.3</v>
+        <v>-1.9</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
+          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -1599,229 +1599,229 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>sh605188</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>国光连锁</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6天3板</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>商业零售</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>sz002251</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>零售|公司主要业务为商品零售，以超市、百货等零售业态为广大消费者提供商品零售服务。</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>sh603219</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>富佳股份</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>机器人|子公司宁波益佳电子有限公司为乐聚机器人代工各类线路板。乐聚机器人是一家致力于高端智能人形机器人研发、制造和销售的高科技企业。</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>sz301488</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>豪恩汽电</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>96.11</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>英伟达机器人合作|2025年8月26日微信公众号发布，豪恩汽电已与英伟达达成芯片战略合作，全面进入机器人大脑控制系统的开发，涵盖英伟达JetsonThor，Orin AGX，Orin NX和OrinNano全系列控制域。</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>英伟达机器人合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>AI应用</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
           <t>sz002195</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>岩山科技</t>
         </is>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G28" s="2" t="n">
         <v>7.32</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H28" s="2" t="n">
         <v>10.08</v>
       </c>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>AI应用+数字货币|1.黑芝麻智能与公司旗下RockAI联合发布基于武当C1200家族芯片的AI Agent解决方案，该方案将部署于未来的智能座舱应用中。
 2.子公司上海二三四五网络科技有限公司拥有一种分发数字货币的控制方法及控制装置的专利，目前处于实质审查阶段。</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
+      <c r="K28" s="2" t="inlineStr">
         <is>
           <t>AI应用, 数字货币</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>AI应用</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>sh603613</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>国联股份</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>AI应用|公司基于ChatGPT上线了qkCode平台，基于ChatGPT引擎，旨在为产品经理提供一个更为方便的产品设计思路，为开发人员提供一个更为便捷、快速地生成代码的方式。同时，公司也正在研究复旦大学的moss模型，将根据国联股份本身的数据基础（如行业资讯、招投标、报价指数、物流等数据），生成行业AI应用，目前正在测试阶段。另外，公司基于行业痛点，正在开发“产业AI全家桶”项目，包括十余款AI在线应用，会以收费的方式提供给用户使用。</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>AI应用</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>电力</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>sh600744</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>华银电力</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>电力|作为湖南省火电装机主要发电企业，公司主要从事火力发电业务，同时经营水电、风电、太阳能业务以及电力销售业务。</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>电力</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>电力</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>sz002053</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>云南能投</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>绿电|公司主营业务包括风力发电、光伏发电以及食盐、工业盐、日化盐、芒硝等系列产品的生产销售，天然气管网建设、运营、天然气销售、入户安装服务</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>绿电</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>商业零售</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>sh605188</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>国光连锁</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>6天3板</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>零售</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
+          <t>AI应用</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-1.9</v>
+        <v>-2.3</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
+          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -1829,29 +1829,29 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sz002251</t>
+          <t>sh603613</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>国联股份</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>5.63</v>
+        <v>29.13</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>9.959999999999999</v>
+        <v>10.01</v>
       </c>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>零售|公司主要业务为商品零售，以超市、百货等零售业态为广大消费者提供商品零售服务。</t>
+          <t>AI应用|公司基于ChatGPT上线了qkCode平台，基于ChatGPT引擎，旨在为产品经理提供一个更为方便的产品设计思路，为开发人员提供一个更为便捷、快速地生成代码的方式。同时，公司也正在研究复旦大学的moss模型，将根据国联股份本身的数据基础（如行业资讯、招投标、报价指数、物流等数据），生成行业AI应用，目前正在测试阶段。另外，公司基于行业痛点，正在开发“产业AI全家桶”项目，包括十余款AI在线应用，会以收费的方式提供给用户使用。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>AI应用</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -166,7 +166,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="15240000" cy="7620000"/>
+    <ext cx="7620000" cy="3810000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,15 +485,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="89" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="84" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="264" customWidth="1" min="10" max="10"/>
+    <col width="228" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -557,32 +557,32 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-1.1</v>
+        <v>2.8</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
+          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sh603859</t>
+          <t>sh603948</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>能科科技</t>
+          <t>建业股份</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>53.02</v>
+        <v>26.52</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>10</v>
@@ -594,278 +594,272 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>业绩+AI工业|公司2025年1-6月实现营业收入7.38亿元，同比增长4.91%；净利润1.11亿元，同比增长18.75%。报告期内，公司围绕“AI+工业”战略主线，构建了多款自主研发的AI产品，涵盖多个工业场景，推动了收入和毛利率的提升。</t>
+          <t>半导体材料|公司主营产品之一的超纯氨是超净高纯电子化学品，是超大规模集成电路（即芯片）制作过程中的关键性基础化工材料之一。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>业绩, AI工业</t>
+          <t>半导体材料</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-1.1</v>
+        <v>2.8</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
+          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sh603363</t>
+          <t>sh600895</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>傲农生物</t>
+          <t>张江高科</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.57</v>
+        <v>38.67</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr"/>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>猪肉+业绩|1.公司围绕以“猪”为核心布局产业链，打造“饲料、养猪、食品”主业，“供应链服务、农业互联网”配套业务，主要产品包括饲料、生猪、猪肉及肉制品等。
-2.公司2025年1-6月实现营业收入为39.57亿元，同比下降15.01%；净利润3.61亿元，同比扭亏，上年同期亏损5.4亿元。</t>
+          <t>光刻机|公司通过旗下全资子公司上海张江浩成创业投资有限公司间接参股上海微电子装备(集团)股份有限公司（持股比例10.78%）。上海微电子旗下600系列光刻机可满足IC前道制造90nm、110nm、280nm关键层和非关键层的光刻工艺需求。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>猪肉, 业绩</t>
+          <t>光刻机</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-1.1</v>
+        <v>2.8</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
+          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sz002232</t>
+          <t>sz002165</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>启明信息</t>
+          <t>红 宝 丽</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>23.49</v>
+        <v>10.03</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.98</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入3.3亿元，同比增长6.51%；净利润1418.81万元，同比增长2568.5%。</t>
+          <t>光刻胶+环氧丙烷|1.公司异丙醇胺产品是一种绿色环保的精细化工原料，可应用于电子清洗行业，例如光刻胶在应用中的残留物清洗。
+2.公司泰兴环氧丙烷产业基地具备12万吨环氧丙烷产能，该项目采用具有自主知识产权的共氧化法新工艺，是国内首套工业化装置，整个生产过程仅产生少量的工业废水。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>光刻胶, 环氧丙烷</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-1.1</v>
+        <v>2.8</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
+          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sz002250</t>
+          <t>sh603773</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>联化科技</t>
+          <t>沃格光电</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>11.65</v>
+        <v>34.32</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>10.01</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入31.5亿元，同比增长5.76%；归母净利润2.24亿元，同比增长1481.94%。</t>
+          <t>芯片封装+铜箔|1.公司玻璃基板可应用于CPO 2.5D/3D封装的垂直封装载板interposer 以及下方实现光模块与芯片实现互连的封装基板。
+2.公司拥有PI/CPI膜材及浆料生产开发能力，超薄2μmPI薄膜可搭配镀铜组成锂电池复合铜箔。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>芯片封装, 铜箔</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-1.1</v>
+        <v>2.8</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
+          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sh601512</t>
+          <t>sz300797</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>中新集团</t>
+          <t>钢研纳克</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.91</v>
+        <v>18.6</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入21.04亿元，同比增长39.19%；归母净利润5.92亿元，同比增长5.32%。本期营业收入较上年同期增加，主要是本期土地开发业务收入增加。</t>
+          <t>商业航天+光刻胶|1.公司在商用飞机、航空航天等国家重大工程、重点项目中承担了金属材料检测等任务。
+2.子公司纳克微束的产品场发射扫描电镜可以用于光刻胶缺陷分析。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>商业航天, 光刻胶</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-1.1</v>
+        <v>2.8</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
+          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sz003012</t>
+          <t>sz002549</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>东鹏控股</t>
+          <t>凯美特气</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.1</v>
+        <v>16.76</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10.08</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入29.34亿元，归母净利润2.19亿元，同比增长3.85%。</t>
+          <t>光刻气|公司光刻气产品通过ASML子公司Cymer的合格供应商认证。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>光刻气</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-1.1</v>
+        <v>2.8</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
+          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sz002380</t>
+          <t>sh603290</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>科远智慧</t>
+          <t>斯达半导</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>29.92</v>
+        <v>108.04</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>10</v>
@@ -873,57 +867,58 @@
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入9.8亿元，同比上升21.8%；归母净利润为1.36亿元，同比上升23.1%。</t>
+          <t>功率半导体|公司主营业务是以IGBT为主的功率半导体芯片和模块的设计研发和生产，作为国内IGBT行业领军企业，2018年底公司已量产所有型号的IGBT芯片。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>功率半导体</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-1.1</v>
+        <v>2.8</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>伴随着中报季业绩披露的逐渐展开，部分业绩超预期个股受到资金关注。</t>
+          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz002778</t>
+          <t>sh600651</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>中晟高科</t>
+          <t>飞乐音响</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20.68</v>
+        <v>7.62</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入6421.71万元，同比下降73.31%；归母净利润4700.99万元，同比扭亏，上年同期亏损1702万元。</t>
+          <t>半导体+阶跃星辰|1.模块封装及芯片测试服务业务以全资子公司上海仪电智能电子有限公司为主体，聚焦智能卡模块封测和芯片测试服务，模块封测业务产品主要包括接触式模块、非接触式模块、双界面模块三大类。
+2.公司控股股东上海仪电集团与阶跃星辰共同参股上海智能算力科技公司。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>半导体, 阶跃星辰</t>
         </is>
       </c>
     </row>
@@ -934,45 +929,42 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-1.72</v>
+        <v>2.8</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sh603181</t>
+          <t>sh603800</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>皇马科技</t>
+          <t>洪田股份</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>18.95</v>
+        <v>49.72</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>半导体材料|公司生产的表面活性剂产品应用在湿电子化学品中，可以起到功能性的作用。</t>
+          <t>半导体+铜箔|1.旗下洪镭光学获得来自半导体掩模版资深制造厂商的高解析直写光刻机采购订单。
+2.公司已发展成为国内电解铜箔设备龙头供应商，已实现3.5μm-100μm锂电极薄、电子电路超厚解铜箔生产装备的产业化。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>半导体材料</t>
+          <t>半导体, 铜箔</t>
         </is>
       </c>
     </row>
@@ -983,41 +975,42 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-1.72</v>
+        <v>2.8</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sh603499</t>
+          <t>sz000981</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>翔港科技</t>
+          <t>山子高科</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>19.97</v>
+        <v>2.32</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>10.03</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>存储芯片|公司参股企业金泰克是一家集研发、生产和自主品牌产品营销于一体的专业存储方案提供商，主要提供内存、SSD相关存储产品，产品涵盖消费级、工业控制级、企业级和嵌入式存储，能够为客户提供完整的存储产品解决方案。</t>
+          <t>汽车+半导体|1.公司全资子公司南京邦奇拟与蔚然动力成立合资公司南京蔚邦，主要从事纯电动车变速器等新能源汽车零部件的研发、生产和销售。
+2.半导体业务中，公司下属企业普利赛思电子为半导体封装材料细分领域龙头企业康强电子第一大股东，康强电子主要从事半导体封装材料引线框架、键合丝等半导体封装材料的生产、销售。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>存储芯片</t>
+          <t>汽车, 半导体</t>
         </is>
       </c>
     </row>
@@ -1028,28 +1021,28 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-1.72</v>
+        <v>2.8</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sh603948</t>
+          <t>sz002077</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>建业股份</t>
+          <t>大港股份</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>24.11</v>
+        <v>16.18</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>9.99</v>
@@ -1057,184 +1050,187 @@
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>半导体材料|公司主营产品之一的超纯氨是超净高纯电子化学品，是超大规模集成电路（即芯片）制作过程中的关键性基础化工材料之一。</t>
+          <t>芯片封装|控股孙公司苏州科阳是少数掌握晶圆级芯片封装技术的公司之一，掌握了晶圆级芯片封装的TSV、micro-bumping（微凸点）和RDL等先进封装核心技术</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>半导体材料</t>
+          <t>芯片封装</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-1.72</v>
+        <v>5.4</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，半导体设备是半导体产业链的基石，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振，推动半导体设备板块业绩超预期。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sh603607</t>
+          <t>sz301389</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>京华激光</t>
+          <t>隆扬电子</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>28.91</v>
+        <v>72.58</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I13" s="2" t="inlineStr"/>
+        <v>20.01</v>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>IP经济+光刻机|1.公司主要为国内卡游龙头提供卡牌深加工服务，配套的IP包括“奥特曼”“叶罗丽”“名侦探柯南”“三国”“仙剑奇侠传”“小马宝莉”等。
-2.公司控股的美国菲涅尔制版科技公司是一家多年从事微结构光学技术研发及相关设备制造和维护的企业，先后研发出多台技术先进、性能突出、与光学制版有关的光刻机设备。</t>
+          <t>PCB|公司掌握并深耕的卷绕式真空磁控溅射及复合镀膜技术为核心，研发铜箔类材料产品，逐步丰富和拓展公司铜箔产品种类，主要包括锂电铜箔及电子电路铜箔，未来可广泛应用于锂电池行业、线路板（PCB）。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>IP经济, 光刻机</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.53</v>
+        <v>5.4</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sh605255</t>
+          <t>sh603124</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>天普股份</t>
+          <t>江南新材</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>39</v>
+        <v>86.63</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>10.01</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>4天2板</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
+          <t>PCB|公司核心产品包括铜球系列、氧化铜粉系列及高精密铜基散热片系列三大产品类别，应用于PCB镀铜制程，下游客户覆盖大多数境内外一线PCB制造企业，包括鹏鼎控股、东山精密、健鼎科技、深南电路、瀚宇博德、景旺电子、志超科技、奥士康、胜宏科技、崇达技术、定颖电子、博敏电子等。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.53</v>
+        <v>5.4</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sh603068</t>
+          <t>sz301526</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>博通集成</t>
+          <t>国际复材</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>42.46</v>
+        <v>7.87</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>10</v>
+        <v>19.97</v>
       </c>
       <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司拟将依托在AI无线通信的经验和技术积累，将研发资源拓展至端侧AI算力。公司发布的BK7259作为AIoT算力标杆，率先集成ARM Ethos-U65 microNPU的Wi-Fi 6 MCU，为边缘智能应用注入超强算力与卓越能效。</t>
+          <t>覆铜板|公司生产的电子级玻璃纤维是制作覆铜板（CCL）和印制电路板（PCB）的关键材料，具有电绝缘性能好、防火阻燃、耐老化等特点，主要应用于电子电器、汽车电子、5G通讯等领域。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>覆铜板</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.53</v>
+        <v>5.4</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>国务院发布关于深入实施“人工智能+”行动的意见。意见提出，强化智能算力统筹，支持人工智能芯片攻坚创新与使能软件生态培育。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sh603893</t>
+          <t>sz002384</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">瑞芯微  </t>
+          <t>东山精密</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>215.6</v>
+        <v>60.94</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>10</v>
@@ -1242,144 +1238,136 @@
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司能够为下游客户及生态伙伴提供从0.2TOPs到6TOPs的不同算力水平的AIoT芯片，其中RK3588、RK3576带有6TOPs NPU处理单元，支持端侧主流3B以下参数级别的模型部署。</t>
+          <t>消费电子+PCB|1.在光电显示领域，公司是行业知名的触控面板及液晶显示模组制造商和LED显示器件生产商，产品主要应用于中小尺寸的显示领域，包括手机、平板电脑等产品。
+2.公司已成为全球领先的印刷电路板全产业链覆盖企业之一，是目前PCB行业中为数不多的能提供柔性线路板、刚性线路板和软硬结合板的供应商。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>消费电子, PCB</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-1.11</v>
+        <v>5.4</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sz002212</t>
+          <t>sz002815</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>崇达技术</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>12.38</v>
+        <v>17.19</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>5天4板</t>
-        </is>
-      </c>
+        <v>9.98</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>数字货币+算力|1.公司构建防御、防护、监测、阻断于一体的全链条全方位“挖矿”专项治理方案，并推出了数据安全运营、数据分类分级、数据隐私保护、数据防泄漏、数据跨境安全合规等相关产品，可为稳定币相关场景提供安全保障。
-2.公司DeepSeek安全智算一体机可广泛应用于智算中心系统建设、DeepSeek本地私有化部署、大模型推理与训练、大模型安全防护等场景中。</t>
+          <t>PCB+服务器|1.公司部分工控PCB产品有应用在美的库卡机器人、ABB机器人上。
+2.公司服务器产品客户是中兴通讯、新华三、云尖等，产品包括服务器主板和AI服务器。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>数字货币, 算力</t>
+          <t>PCB, 服务器</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-1.11</v>
+        <v>5.4</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sh688228</t>
+          <t>sz002636</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">开普云  </t>
+          <t>金安国纪</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>113.7</v>
+        <v>14.6</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>10.02</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>并购重组+算力|1.开普云公告称，公司拟通过支付现金的方式向深圳金泰克购买南宁泰克半导体有限公司70%股权，交易价格尚未确定，交易对方深圳金泰克将其存储产品业务的经营性资产转移至南宁泰克。交易完成后，南宁泰克将成为公司的控股子公司，公司将新增存储产品相关业务。
-2.2024年1月25日公告，公司拟与成都华创鲲航科技合伙企业（有限合伙）共同出资设立合资公司。合资公司以提供行业大模型、人工智能大模型与算力软硬件一体化融合产品、人工智能算力运营服务、人工智能算力优化调度平台、人工智能大模型MaaS/SaaS服务等为业务方向。</t>
+          <t>覆铜板|公司主要产品包括各种通用FR-5、FR-4、CEM-3等系列覆铜板及铝基覆铜板、半固化片等和特殊指标要求的无卤环保、高阻燃、耐CAF、高TG、高CTI等系列覆铜板；此外，公司还从事覆铜板的原材料电子级玻纤布以及下游PCB产品的生产和销售。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>并购重组, 算力</t>
+          <t>覆铜板</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-1.11</v>
+        <v>5.4</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>华泰证券研报表示，Deepseek官方发布DeepSeek-V3.1版本，国产软硬件协同成果显著，国产算力的基础设施需求有望维持高景气。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sz002851</t>
+          <t>sz002916</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>深南电路</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>86.03</v>
+        <v>186.45</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>10</v>
@@ -1387,1289 +1375,2177 @@
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>服务器电源|公司电源产品中的服务器电源一般在数据中心的服务器机柜、服务器、交换机、路由器、存储设备中，是一种将交流电转换为直流电的装置。</t>
+          <t>PCB|公司专业从事高中端印制电路板的设计、研发及制造，拥有印制电路板、封装基板及电子装联三项业务，形成了业界独特的“3-In-One”业务布局。主要产品有背板、高速多层板、多功能金属基板、厚铜板、高频微波板、刚挠结合板、存储芯片封装基板（eMMC）、微机电系统封装基板（MEMS）、射频模块封装基板（RF）、WB-CSP、FC-CSP、高速通信封装基板、PCBA板级、功能性模块、整机产品/系统总装。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>服务器电源</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.8200000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sh603083</t>
+          <t>sh603256</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>剑桥科技</t>
+          <t>宏和科技</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>88.19</v>
+        <v>44.89</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>8天5板</t>
-        </is>
-      </c>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>光模块|剑桥科技在互动平台表示，公司对于800G光模块是有长期发展规划和坚定信心的。</t>
+          <t>电子级玻纤布|公司是全球领先的中高端电子级玻璃纤维布专业厂商，是全球少数具备极薄布生产能力的厂商之一。公司主要产品为中高端电子级玻璃纤维布系列产品，为制造电子产品核心铜箔基板的重要原料。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>电子级玻纤布</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.8200000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>高盛将中际旭创的12个月目标价上调至人民币392元，新易盛目标价上调至人民币398元。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sz301183</t>
+          <t>sz301123</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>东田微</t>
+          <t>奕东电子</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>96.23</v>
+        <v>47.81</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>20</v>
+        <v>20.01</v>
       </c>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>滤光片|公司的光通信元件主要包括TO管帽和光器件（EPON/GPON)滤光片等。TO管帽作为光学接口，为通信设备封装的重要部件，需要对球面和非球面光学玻璃进行镀膜，具有较高的工艺难度。无源光纤网络光器件（EPON/GPON)作为光纤接入网的重要光器件可实现光电转化。</t>
+          <t>铜连接+PCB|1.公司的高速连接器及相关产品终端应用于服务器、数据中心、通讯基站等领域。
+2.公司的线路板产品是FPC柔性线路板，该产品由于轻薄和可弯折等特性，可适用于多类型的智能电子产品，包括折叠屏手机等。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>滤光片</t>
+          <t>铜连接, PCB</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-1.45</v>
+        <v>5.4</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sh600744</t>
+          <t>sh601208</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>华银电力</t>
+          <t>东材科技</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>8.57</v>
+        <v>19.4</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>10.01</v>
+        <v>9.98</v>
       </c>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>电力|作为湖南省火电装机主要发电企业，公司主要从事火力发电业务，同时经营水电、风电、太阳能业务以及电力销售业务。</t>
+          <t>PCB+光刻胶|1.公司的双马树脂、活性酯等产品已被广泛应用于5G/5.5G/6G通信、高端算力、服务器等领域的PCB基板生产环节，并通过台光、生益科技等国内外一线覆铜板厂商供应到华为、苹果、英伟达（NVIDIA）、英特尔（intel）、思科（Cisco）等主流产业链体系。
+2.2023年9月6日公司在互动平台表示，公司与Chemax、种亿化学成立成都东凯芯半导体材料公司，重点开展高端光刻胶项目。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>PCB, 光刻胶</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-1.45</v>
+        <v>1.8</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>国家能源局数据显示，7月份，全社会用电量10226亿千瓦时，同比增长8.6%，突破万亿千瓦时大关，这在全球也属首次。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sz002053</t>
+          <t>sz002256</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>云南能投</t>
+          <t>兆新股份</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>12.39</v>
+        <v>2.93</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>10.04</v>
+        <v>10.15</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>绿电|公司主营业务包括风力发电、光伏发电以及食盐、工业盐、日化盐、芒硝等系列产品的生产销售，天然气管网建设、运营、天然气销售、入户安装服务</t>
+          <t>业绩|公司2025年1-6月实现营业收入2.08亿元，同比增长29.99%；归母净利润307.2万元，同比增长47.06%。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>绿电</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-1.9</v>
+        <v>1.8</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sh605188</t>
+          <t>sh603216</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>国光连锁</t>
+          <t>梦天家居</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>16.81</v>
+        <v>15.72</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>10.01</v>
       </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>6天3板</t>
-        </is>
-      </c>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
+          <t>业绩|公司2025年1-6月实现营业收入4.85亿元，同比下降2.20%；归母净利润3523.49万元，同比增长41.72%。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-1.9</v>
+        <v>1.8</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>商务部副部长盛秋平在新闻发布会上介绍，下个月，商务部还要出台扩大服务消费的若干政策措施，统筹利用财政、金融等手段，优化提升服务供给能力，激发服务消费新增量。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sz002251</t>
+          <t>sz300389</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>艾比森</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5.63</v>
+        <v>14.7</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>9.959999999999999</v>
+        <v>20</v>
       </c>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>零售|公司主要业务为商品零售，以超市、百货等零售业态为广大消费者提供商品零售服务。</t>
+          <t>业绩|公司2025年1-6月实现营业收入18.2亿元，同比上升1.1%；归母净利润为1.16亿元，同比上升30.8%。经营业务在报告期内没有重大变化，继续专注于LED显示技术及应用，保持全球领先地位。公司在海外市场表现稳定，尽管面临复杂的国际环境，但国内市场收入实现了10.40%的逆势增长。海外市场的营业收入微降1.51%，但出口销量显著增长15.23%。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-2.04</v>
+        <v>1.8</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sh603219</t>
+          <t>sh601877</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>富佳股份</t>
+          <t>正泰电器</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>22.48</v>
+        <v>27.86</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>9.98</v>
+        <v>9.99</v>
       </c>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>机器人|子公司宁波益佳电子有限公司为乐聚机器人代工各类线路板。乐聚机器人是一家致力于高端智能人形机器人研发、制造和销售的高科技企业。</t>
+          <t>业绩|正泰电器公告称，2025年上半年实现营业收入296.19亿元，同比增长2.18%；归属于上市公司股东的净利润25.54亿元，同比增长32.9%。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-2.04</v>
+        <v>1.8</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sz301488</t>
+          <t>sh600210</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>豪恩汽电</t>
+          <t>紫江企业</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>96.11</v>
+        <v>7.07</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>20</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人合作|2025年8月26日微信公众号发布，豪恩汽电已与英伟达达成芯片战略合作，全面进入机器人大脑控制系统的开发，涵盖英伟达JetsonThor，Orin AGX，Orin NX和OrinNano全系列控制域。</t>
+          <t>业绩|公司2025年1-6月实现营业收入52.48亿元，同比增长12.43%；归母净利润4.73亿元，同比增长33.39%。</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>英伟达机器人合作</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-2.3</v>
+        <v>1.8</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sz002195</t>
+          <t>sh603020</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>岩山科技</t>
+          <t>爱普股份</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>7.32</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>10.08</v>
+        <v>10.02</v>
       </c>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>AI应用+数字货币|1.黑芝麻智能与公司旗下RockAI联合发布基于武当C1200家族芯片的AI Agent解决方案，该方案将部署于未来的智能座舱应用中。
-2.子公司上海二三四五网络科技有限公司拥有一种分发数字货币的控制方法及控制装置的专利，目前处于实质审查阶段。</t>
+          <t>业绩|公司2025年1-6月实现营业收入12.36亿元，同比下降14.87%；归母净利润8310.49万元，同比增长33.85%。</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>AI应用, 数字货币</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-2.3</v>
+        <v>1.8</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>国务院日前印发《关于深入实施“人工智能+”行动的意见》，意见提到，到2027年新一代智能终端、智能体等应用普及率超70%。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sh603613</t>
+          <t>sz001222</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>国联股份</t>
+          <t>源飞宠物</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>29.13</v>
+        <v>24.08</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>10.01</v>
+        <v>10</v>
       </c>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>AI应用|公司基于ChatGPT上线了qkCode平台，基于ChatGPT引擎，旨在为产品经理提供一个更为方便的产品设计思路，为开发人员提供一个更为便捷、快速地生成代码的方式。同时，公司也正在研究复旦大学的moss模型，将根据国联股份本身的数据基础（如行业资讯、招投标、报价指数、物流等数据），生成行业AI应用，目前正在测试阶段。另外，公司基于行业痛点，正在开发“产业AI全家桶”项目，包括十余款AI在线应用，会以收费的方式提供给用户使用。</t>
+          <t>业绩|公司2025年1-6月实现营业收入7.92亿元，同比增长45.52%；归母净利润为7416.37万元，同比增长0.37%，其中二季度实现归母净利润4880万元，同比增长30.63%。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>AI应用</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>卫星互联网</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.08</v>
+        <v>3.28</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>北方稀土昨晚发布半年报，公司上半年实现营业收入188.66亿元，同比增长45.24%；归属于上市公司股东的净利润9.31亿元，同比大幅增长1951.52%。</t>
+          <t>工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，支持电信运营商通过与卫星企业共建、共享等模式，深入挖掘天通、北斗等高轨卫星应用潜力。</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sh600980</t>
+          <t>sz002232</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>北矿科技</t>
+          <t>启明信息</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>28.07</v>
+        <v>25.84</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I30" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁|公司旗下全资子公司北矿磁材是国内最早从事铁氧体磁性材料开发和生产的单位之一，是国内最大的铁氧体预烧料制造商之一。</t>
+          <t>业绩+卫星互联网|1.公司2025年1-6月实现营业收入3.3亿元，同比增长6.51%；净利润1418.81万元，同比增长2568.5%。
+2.公司具有“兼容型北斗导航车载终端的研发与产业化”项目。公司先后研发出具有自主知识产权国内一流GPS监控软件和车载信息系统，并建成全国最大GPS物流运营中心D_Partner服务中心。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>业绩, 卫星互联网</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>卫星互联网</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-3.12</v>
+        <v>3.28</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报表示，中国创新药全面收获，ADC、双/多抗技术领先，管线数量全球第一。2023年License out首超License in，金额屡破纪录，海外MNC重金抢购。</t>
+          <t>工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，支持电信运营商通过与卫星企业共建、共享等模式，深入挖掘天通、北斗等高轨卫星应用潜力。</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sh688189</t>
+          <t>sz000070</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>南新制药</t>
+          <t>特发信息</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>16.98</v>
+        <v>12.14</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr"/>
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>创新药+并购重组|南新制药公告称，公司与未来医药签署《收购意向协议》，拟以现金不超过4.8亿元收购未来医药持有的标的资产组，包括已上市标的品种“多种微量元素注射液（Ⅰ）”、“多种微量元素注射液（Ⅱ）”和在研标的品种“多种微量元素注射液（Ⅲ）”，以及相关研发和生产技术资料、商标、专利、客户资料等。本次交易预计构成重大资产重组。</t>
+          <t>光通信+卫星互联网|1.2025年8月1日互动，公司光通信领域相关进展主要集中在高速传输方面，包括数据中心的高速光连接，骨干传输网等。公司馈线电缆属于通信信号传输铜缆，公司MPO产品(多模光纤连接器)属于高速连接器。
+2.公司独资子公司成都傅立叶在卫星通信领域主要涉及地面终端（主要基于自主可控的天通卫星移动通信系统）、卫星解调设备、卫星态势感知系统等。</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>创新药, 并购重组</t>
+          <t>光通信, 卫星互联网</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>卫星互联网</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="C32" s="2" t="inlineStr"/>
+        <v>3.28</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，支持电信运营商通过与卫星企业共建、共享等模式，深入挖掘天通、北斗等高轨卫星应用潜力。</t>
+        </is>
+      </c>
       <c r="D32" s="2" t="n">
         <v>5</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sh600200</t>
+          <t>sh603068</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST苏吴 </t>
+          <t>博通集成</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.17</v>
+        <v>46.71</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>5.41</v>
+        <v>10.01</v>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>5天5板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
+          <t>算力芯片+卫星芯片|1.公司拟将依托在AI无线通信的经验和技术积累，将研发资源拓展至端侧AI算力。公司发布的BK7259作为AIoT算力标杆，率先集成ARM Ethos-U65 microNPU的Wi-Fi 6 MCU，为边缘智能应用注入超强算力与卓越能效。
+2.公司的卫星导航芯片已量产，产品支持GPS/北斗/GLONASS等多模接收，实现了较高的定位精度和超低功耗。</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片, 卫星芯片</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>卫星互联网</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="C33" s="2" t="inlineStr"/>
+        <v>3.28</v>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，支持电信运营商通过与卫星企业共建、共享等模式，深入挖掘天通、北斗等高轨卫星应用潜力。</t>
+        </is>
+      </c>
       <c r="D33" s="2" t="n">
         <v>5</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sh603813</t>
+          <t>sz002115</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST原尚 </t>
+          <t>三维通信</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>18.43</v>
+        <v>9.52</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+        <v>10.06</v>
+      </c>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司参股公司广东原锋新能源科技的股东之一锋源是国内极少的集全套自主知识产权氢燃料电池电堆以及核心零部件膜电极、催化剂、金属双极板等研发、生产、销售一体的公司。</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr"/>
+          <t>卫星互联网|子公司海卫通是国内第一家专业服务海事船舶终端客户的国际卫星运营商，拥有三千多艘船舶的卫星通信及船端信息化的运维经验以及明显的先发优势。</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>卫星互联网</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>卫星互联网</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="C34" s="2" t="inlineStr"/>
+        <v>3.28</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，支持电信运营商通过与卫星企业共建、共享等模式，深入挖掘天通、北斗等高轨卫星应用潜力。</t>
+        </is>
+      </c>
       <c r="D34" s="2" t="n">
         <v>5</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sz000004</t>
+          <t>sz002829</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>*ST国华</t>
+          <t>星网宇达</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>11.29</v>
+        <v>23.78</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>5天3板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司旗下全资子公司智游网安为专业移动应用安全综合服务提供商。</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr"/>
+          <t>卫星通信+机器人|1.卫星通信方面，公司在高通量应用领域，已成功研发交付多款车/船载卫通天线，并将在2025年推出新型高通量产品
+2.公司惯导产品可应用于人形机器人。</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>卫星通信, 机器人</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="C35" s="2" t="inlineStr"/>
+        <v>0.67</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+        </is>
+      </c>
       <c r="D35" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sz300125</t>
+          <t>sz301488</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>*ST聆达</t>
+          <t>豪恩汽电</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>8.359999999999999</v>
+        <v>115.33</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司从事的光伏产业链相关业务主要为全资子公司格尔木神光运营的合计53MW的并网光伏电站。公司收购嘉悦新能源70%股权，嘉悦新能源主营PERC单晶硅太阳能电池片。</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr"/>
+          <t>机器人|公司已与上海智元签署技术合作协议，双方将合作研究开发Genie02超声波传感器项目，定制满足要求的底盘超声波系统产品，此外与多家机器人厂家在洽谈交流中。另外公司已与英伟达达成芯片战略合作，全面进入机器人大脑控制系统的开发，涵盖英伟达Jetson Thor、Orin AGX、Orin NX和OrinNano全系列控制域。</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="C36" s="2" t="inlineStr"/>
+        <v>0.67</v>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+        </is>
+      </c>
       <c r="D36" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sz002289</t>
+          <t>sh600156</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>*ST宇顺</t>
+          <t>华升股份</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>28.7</v>
+        <v>9.56</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>5.01</v>
+        <v>10.01</v>
       </c>
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司主营业务为液晶显示屏及模组、触摸屏及模组、触摸显示一体化模组等产品的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr"/>
+          <t>机器人+算力|1.参股24%的湖南英捷高科技有限责任公司的MIM(金属粉末注射)可以用于消费电子和人行机器人。
+2.2025年6月9日公告，公司正在筹划通过发行股份及支付现金的方式购买深圳易信科技股份有限公司100%的股权，易信科技已在粤港澳大湾区、成渝、京津冀等区域自建绿色智算中心，满足训练、推理、科学计算等高算力场景需求，其智算中心全生命周期解决方案已经累计服务客户超10000家。</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>机器人, 算力</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>sz000599</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>青岛双星</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>机器人|公司建成的商用车胎全流程“工业4.0”智能化工厂实现了传统轮胎行业的转型升级，工厂中的设备包括11种智能机器人，80%由双星自主研发和生产，智能化工厂采用双星独创的MEP智能信息匹配系统，可实现物、人、设备、位置的信息智能匹配。</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>831906.BJ</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>舜宇精工</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>机器人+汽车|1.公司全资子公司舜宇贝尔进入高端装备制造领域，主要为整车制造提供AGV机器人及基于AGV机器人的集成解决方案。
+2.公司的智能车载摄像产品CARLOG已成功应用于智己L7车型。</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>机器人, 汽车</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>天风证券认为，预计国内大模型开发企业与互联网平台将逐步提高国产芯片的采购与使用规模。相应的国产芯片供应商及其配套产业链企业有望迎来发展机遇。</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>sh605255</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>天普股份</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>中昊芯英入股</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>天风证券认为，预计国内大模型开发企业与互联网平台将逐步提高国产芯片的采购与使用规模。相应的国产芯片供应商及其配套产业链企业有望迎来发展机遇。</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>sh600246</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>万通发展</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>6天4板</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>并购重组+算力芯片|万通发展公告称，公司拟通过增资及股权转让方式合计投资8.54亿元取得数渡科技62.98%股权。投资完成后，数渡科技将成为公司控股子公司并纳入合并报表。标的公司主要从事高速互连芯片设计与研发以及提供ASIC芯片定制设计服务。</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>并购重组, 算力芯片</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>天风证券认为，预计国内大模型开发企业与互联网平台将逐步提高国产芯片的采购与使用规模。相应的国产芯片供应商及其配套产业链企业有望迎来发展机遇。</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>sh603893</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">瑞芯微  </t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>237.16</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片|公司能够为下游客户及生态伙伴提供从0.2TOPs到6TOPs的不同算力水平的AIoT芯片，其中RK3588、RK3576带有6TOPs NPU处理单元，支持端侧主流3B以下参数级别的模型部署。</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>算力芯片</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>液冷IDC</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>sz002600</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>9天5板</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>机器人+液冷IDC|1.公司拥有伺服电机、减速器、驱动器、运动控制器等人形机器人执行层的核心技术，可提供模切结构件、金属结构件、注塑结构件、软包结构件等，已为人形机器人客户提供头部总成、灵巧手总成、四肢总成、高功率充电和散热解决方案等核心硬件。
+2.公司已为AMD等国际客户批量出货散热模组，也已全面具备CDU、液冷模组、液冷板、空冷散热模组、热管、均热板、石墨片等产品及系统性散热解决方案的研发、生产能力，应用于人形机器人、服务器、光模块等各类产品。</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>机器人, 液冷IDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>液冷IDC</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>sz002837</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>英维克</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>79.04000000000001</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>液冷IDC|公司已推出针对算力设备和数据中心的Coolinside液冷机柜及全链条液冷解决方案，相关产品涉及冷源、管路连接、CDU分配、快换接头、Manifold、冷板等已规模商用，“端到端、全链条”的平台化布局已成为公司在液冷业务领域的重要核心竞争优势。</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>液冷IDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>液冷IDC</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>sh688668</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>鼎通科技</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>127.36</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>铜连接+液冷IDC|1.公司生产的通讯连接器及其组件主要为客户提供高速背板连接器组件和I/O连接器组件，主要包括精密结构件和壳体（CAGE）等，是通讯连接器模块重要的组成部分，通讯连接器及光模块是云计算数据中心重要零部件。
+2.公司液冷散热器产品有小批量出货，目前客户有安费诺、莫仕、立讯和富士康。</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>铜连接, 液冷IDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>光通信</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>英伟达2026财年第二季度营收为467.4亿美元，同比增长56%；净利润为264.2亿美元，同比增长59%。</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>sh601869</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>长飞光纤</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>82.95</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>光模块|子公司博创科技10G PON OLT 光模块出货量国内领先，在数通市场，已向多家国内外互联网客户批量供货25G 至400G 速率的中短距光模块、有源光缆和高速铜缆。</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>光模块</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>光通信</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>英伟达2026财年第二季度营收为467.4亿美元，同比增长56%；净利润为264.2亿美元，同比增长59%。</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>sz300394</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>天孚通信</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>180.01</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>光模块|公司发展了OSA、BOX、COB、AOC、硅光等各种光模块有源组件&amp;引擎ODM/OEM业务。公司已成为各大主流光模块的供应商。</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>光模块</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>人脑工程</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>0.8699999999999999</v>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>中国科学院空天信息创新研究院传感器技术全国重点实验室与哈尔滨医科大学附属第一医院神经外科联合，近日成功完成“基于植入式微电极阵列的脑深部肿瘤边界精准定位”临床试验。</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>sz002195</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>岩山科技</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>智能体+脑机接口|1.黑芝麻智能与公司旗下RockAI联合发布基于武当C1200家族芯片的AI Agent解决方案，该方案将部署于未来的智能座舱应用中。
+2.公司旗下岩思类脑研究院以脑电大数据与脑电大模型为核心技术底座，面向脑科学和人工智能领域的前瞻性研究，开展脑机接口解码算法与系统、非器质性脑疾病（例如癫痫、抑郁症、严重失眠等）的诊断和评估、大脑内在状态调控等方向的科学研究和产品开发，推动研究成果商业化落地。</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>智能体, 脑机接口</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>人脑工程</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>0.8699999999999999</v>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>中国科学院空天信息创新研究院传感器技术全国重点实验室与哈尔滨医科大学附属第一医院神经外科联合，近日成功完成“基于植入式微电极阵列的脑深部肿瘤边界精准定位”临床试验。</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>sh603610</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>麒盛科技</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>华为鸿蒙+脑机接口|1.公司通过多年的智能床研发经验联合华为鸿蒙数字空间将重新定义睡眠，帮助用户获得更舒适的睡眠环境和姿态，帮助用户获得更优质的睡眠。
+2.公司对外投资睡眠产业相关的技术与平台，包括双向脑机交互技术，该技术能够应用于智能家居领域。脑机接口在智能家居领域的应用主要集中在“补充”方向。</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>华为鸿蒙, 脑机接口</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>sh603398</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST沐邦 </t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.沐邦高科公告，与铜陵狮子山高新技术产业开发区管理委员会、铜陵高新发展投资有限公司签订《项目投资协议书》，项目名称为年产10GW-N型高效电池片、10GW切片生产基地项目。
+2.公司上市的IP产品 “樱桃小丸子”第一期为“盲盒”类产品。</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>sz000972</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>*ST中基</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>6天3板</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司依托新疆得天独厚的地域和自然优势，致力于发展番茄“红色产业”，产业规模居于前列，产品行销世界数十国家和地区，是全球主要食品企业长期、固定的原料供应商。</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>sz002058</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>*ST威尔</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司控股子公司紫燕机械下属的紫燕模具为特斯拉提供汽车检具方面的服务。</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>sz000504</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>*ST生物</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司是目前国内一家国资控股的干细胞、免疫细胞及组织工程产业主板上市公司，“生物医药”板块业务包括干细胞储存服务、化妆品的生产和销售、医疗器械设备及耗材的代理和销售。</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>sz002168</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>*ST惠程</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司旗下控股子公司哆可梦以基于大数据精细化营销的流量经营业务和移动游戏的研发、发行及游戏平台的运营为主营业务</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>sz000595</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>*ST宝实</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 2022年8月12日公司在互动平台表示，公司全资子公司宁夏西北轴承装备制造有限公司承接业务涉及机器人立柱、行走轴加工业务。</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>sh600599</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST熊猫 </t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司地处中国烟花之乡浏阳，经过3多年的发展已成为中国最大的出口鞭炮烟花公司。</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>sz000929</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>*ST兰黄</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 主营业务啤酒、麦芽、饮料的生产、加工与销售,主要产品“黄河”、“青海湖”系列啤酒和“黄河”麦芽等。</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>sh605188</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>国光连锁</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>7天4板</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>sh603177</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>德创环保</t>
         </is>
       </c>
-      <c r="G37" s="2" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
+      <c r="G58" s="2" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
         <is>
           <t>环保+氢能|1.公司主营业务为大气治理业务、危废治理业务、钠电池正极材料业务。主要产品是烟气治理工程、脱硝催化剂、脱硫设备、除尘设备、废盐渣资源化利用处置、危险废物处理。
 2.2024年5月20日公司在互动易上表示，公司氢能项目千瓦级单电堆的放大测试有序进行中。</t>
         </is>
       </c>
-      <c r="K37" s="2" t="inlineStr">
+      <c r="K58" s="2" t="inlineStr">
         <is>
           <t>环保, 氢能</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>sh603382</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>海阳科技</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>39.53</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>sz000061</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>农 产 品</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>尼龙6|公司系国内从事尼龙6系列产品研发、生产和销售的主要企业之一。公司尼龙6切片产能32.1万吨，尼龙帘子布产能4万吨，涤纶帘子布产能3.6万吨，尼龙6丝产能6.2万吨。</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>尼龙6</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>农产品批发|公司开创农产品批发市场“网络化”经营模式，形成国内最具规模的农产品批发市场网络体系。</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>农产品批发</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>sz001296</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>长江材料</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>25.29</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>sz002053</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>云南能投</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>3D打印+石英|1.公司生产的3D打印砂用于快速样件开发及部份铸造的砂芯生产。
-2.公司在内蒙古科左后旗的子公司拥有自有的石英砂矿，开采的石英砂用于铸造材料和压裂支撑剂的生产。</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>3D打印, 石英</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>绿电|公司主营业务包括风力发电、光伏发电以及食盐、工业盐、日化盐、芒硝等系列产品的生产销售，天然气管网建设、运营、天然气销售、入户安装服务</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>绿电</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>sz000592</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>平潭发展</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>福建+林业|公司在林木业务方面已基本形成“林板一体化”的发展产业链，拥有经营林区近90万亩，在福建省处于行业领先龙头地位。</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>福建, 林业</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>sz301389</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>隆扬电子</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>60.48</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>PCB|公司掌握并深耕的卷绕式真空磁控溅射及复合镀膜技术为核心，研发铜箔类材料产品，逐步丰富和拓展公司铜箔产品种类，主要包括锂电铜箔及电子电路铜箔，未来可广泛应用于锂电池行业、线路板（PCB）。</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>PCB</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>sz002909</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>集泰股份</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>液冷IDC|公司当前研发的液冷导热硅油，其应用主要聚焦于数据中心及储能领域的热管理解决方案。</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>液冷IDC</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>sz000061</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>农 产 品</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>农产品批发|公司开创农产品批发市场“网络化”经营模式，形成国内最具规模的农产品批发市场网络体系。</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>农产品批发</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>sh603615</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>茶花股份</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>26.18</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>家居|公司专注于以日用塑料制品为主的家居用品的研发、生产和销售。</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>家居</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>839680.BJ</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>*ST广道</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>北交所ST|公司通过入股唯特视，共同探索大数据技术在军工数字化的应用落地，联合推出了作战仿真推演平台、作战单元数字化建模平台等大数据智能化应用类产品。</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>北交所ST</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>sh603222</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>济民健康</t>
         </is>
       </c>
-      <c r="G46" s="2" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="G61" s="2" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
         <is>
           <t>医疗器械+细胞治疗|1.主要产品为各种品规的非PVC软袋大输液、塑料瓶大输液以及安全注射器、无菌注射器和输液器等产品。
 2.公司旗下博鳌国际医院拥有国内唯一一家通过日本国厚生省认证的国际再生医学实验室，建成了包括细胞存储、国际标准细胞制备、细胞治疗临床研究、干细胞与再生医学技术转化四大核心技术平台。</t>
         </is>
       </c>
-      <c r="K46" s="2" t="inlineStr">
+      <c r="K61" s="2" t="inlineStr">
         <is>
           <t>医疗器械, 细胞治疗</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>sh688280</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>精进电动-UW</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>汽车|公司是新能源汽车电驱动系统国内领军企业之一，从事电驱动系统的研发、生产、销售及服务，已对驱动电机、控制器、传动三大总成自主掌握核心技术和实现完整布局。</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>汽车</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>sz002842</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>翔鹭钨业</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>钨|公司一直专注于钨制品的开发、生产与销售，主要产品包括各种规格的氧化钨、钨粉、碳化钨粉、钨合金粉及钨硬质合金等。</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>钨</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>sh603697</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>有友食品</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="H48" s="2" t="n">
+      <c r="C63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>sh603395</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">红四方  </t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>39.16</v>
+      </c>
+      <c r="H63" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>休闲食品|公司的主营业务为泡卤风味休闲食品的研发、生产和销售，主要产品包括泡椒凤爪、卤香火鸡翅及豆干、花生、竹笋等。</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>休闲食品</t>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>次新+化肥|公司隶属于中盐集团，是专业从事复合肥和氮肥产品研发、生产、销售和服务的化肥生产企业，为中盐集团农肥业务板块的运营主体，入选国务院国资委“双百企业”名单。公司已形成以复合肥产品为主，并向上游氮肥产业延伸的完整的研发、生产、销售和农化服务体系。</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>次新, 化肥</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr"/>
+      <c r="D64" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>sz000831</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>稀土永磁|公司现为国内最大的南方离子型稀土分离加工企业之一，通过开采和外购稀土原料等方式进行分离加工，主导产品包括混合碳酸稀土、稀土氧化物混合精矿、高纯的单一稀土氧化物及稀土富集物等。</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>稀土永磁</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>sz002423</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>中粮资本</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>多元金融|中粮资本是中粮集团旗下运营管理金融业务的专业化公司，拥有信托、期货、保险、银行等多项业务的投资控股平台。</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>多元金融</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>sz300491</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>通合科技</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>数据中心HVDC|数据中心HVDC产品是公司智能电网领域的主要产品之一。</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>数据中心HVDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr"/>
+      <c r="D67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>sz002109</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>兴化股份</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>重组预期|2025年8月22日盘中讯，陕西省工业和信息化领域招标投标监管服务平台发布《兴化股份资产重组专项财务顾问服务》，招标公告招标人为兴化股份，招标范围包括对资产重组标的资产进行尽职调查，全面评估此次资产重组活动涉及的风险。</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>重组预期</t>
         </is>
       </c>
     </row>
@@ -2684,7 +3560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2716,7 +3592,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -2735,12 +3611,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sh603083</t>
+          <t>sz002232</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>剑桥科技</t>
+          <t>启明信息</t>
         </is>
       </c>
     </row>
@@ -2750,27 +3626,27 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sh688228</t>
+          <t>sh603177</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">开普云  </t>
+          <t>德创环保</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sh603382</t>
+          <t>sh605188</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>海阳科技</t>
+          <t>国光连锁</t>
         </is>
       </c>
     </row>
@@ -2780,12 +3656,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sh603859</t>
+          <t>sz002195</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>能科科技</t>
+          <t>岩山科技</t>
         </is>
       </c>
     </row>
@@ -2795,12 +3671,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sh603363</t>
+          <t>sz301488</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>傲农生物</t>
+          <t>豪恩汽电</t>
         </is>
       </c>
     </row>
@@ -2810,12 +3686,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sh603181</t>
+          <t>sh603893</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>皇马科技</t>
+          <t xml:space="preserve">瑞芯微  </t>
         </is>
       </c>
     </row>
@@ -2825,12 +3701,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sz002212</t>
+          <t>sh603068</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>博通集成</t>
         </is>
       </c>
     </row>
@@ -2840,12 +3716,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sz002232</t>
+          <t>sz301389</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>启明信息</t>
+          <t>隆扬电子</t>
         </is>
       </c>
     </row>
@@ -2855,12 +3731,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>sh603177</t>
+          <t>sz000061</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>德创环保</t>
+          <t>农 产 品</t>
         </is>
       </c>
     </row>
@@ -2870,12 +3746,12 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>sz001296</t>
+          <t>sh603948</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>长江材料</t>
+          <t>建业股份</t>
         </is>
       </c>
     </row>
@@ -2885,12 +3761,27 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>sh605188</t>
+          <t>sz002053</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>国光连锁</t>
+          <t>云南能投</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>sh603222</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>济民健康</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="84" customWidth="1" min="3" max="3"/>
+    <col width="109" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="228" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="215" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,862 +557,860 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
+          <t>先导智能发布的2025年半年报显示，上半年归属于上市公司股东的净利润约7.4亿元，同比增加61.19%，其中第二季度单季净利润同比增长456.29%。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sh603948</t>
+          <t>sh688006</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>建业股份</t>
+          <t>杭可科技</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>26.52</v>
+        <v>25.74</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr"/>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>半导体材料|公司主营产品之一的超纯氨是超净高纯电子化学品，是超大规模集成电路（即芯片）制作过程中的关键性基础化工材料之一。</t>
+          <t>固态电池|公司已与国内外多家相关厂商就半固态电池的中试线展开合作，并积极开展固态电池后处理设备相关的技术研发。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>半导体材料</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
+          <t>先导智能发布的2025年半年报显示，上半年归属于上市公司股东的净利润约7.4亿元，同比增加61.19%，其中第二季度单季净利润同比增长456.29%。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sh600895</t>
+          <t>sz002074</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>张江高科</t>
+          <t>国轩高科</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>38.67</v>
+        <v>36.47</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>10.01</v>
+        <v>10.02</v>
       </c>
       <c r="I3" s="2" t="inlineStr"/>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>光刻机|公司通过旗下全资子公司上海张江浩成创业投资有限公司间接参股上海微电子装备(集团)股份有限公司（持股比例10.78%）。上海微电子旗下600系列光刻机可满足IC前道制造90nm、110nm、280nm关键层和非关键层的光刻工艺需求。</t>
+          <t>固态电池|公司已成功研发出车规级全固态电池“金石电池”，这款30Ah的硫化物全固态电池采用了微纳化固体电解质、超薄膜包覆单晶正极和三维介孔硅负极材料技术。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>光刻机</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
+          <t>先导智能发布的2025年半年报显示，上半年归属于上市公司股东的净利润约7.4亿元，同比增加61.19%，其中第二季度单季净利润同比增长456.29%。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sz002165</t>
+          <t>sh603659</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>红 宝 丽</t>
+          <t xml:space="preserve">璞泰来  </t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>10.03</v>
+        <v>22.42</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>光刻胶+环氧丙烷|1.公司异丙醇胺产品是一种绿色环保的精细化工原料，可应用于电子清洗行业，例如光刻胶在应用中的残留物清洗。
-2.公司泰兴环氧丙烷产业基地具备12万吨环氧丙烷产能，该项目采用具有自主知识产权的共氧化法新工艺，是国内首套工业化装置，整个生产过程仅产生少量的工业废水。</t>
+          <t xml:space="preserve">固态电池|公司的新型硅碳材料可以做为半固态/固态电池的负极材料，目前已经开始小批量试产。
+</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>光刻胶, 环氧丙烷</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
+          <t>先导智能发布的2025年半年报显示，上半年归属于上市公司股东的净利润约7.4亿元，同比增加61.19%，其中第二季度单季净利润同比增长456.29%。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sh603773</t>
+          <t>sh603032</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>沃格光电</t>
+          <t>德新科技</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>34.32</v>
+        <v>20.56</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>芯片封装+铜箔|1.公司玻璃基板可应用于CPO 2.5D/3D封装的垂直封装载板interposer 以及下方实现光模块与芯片实现互连的封装基板。
-2.公司拥有PI/CPI膜材及浆料生产开发能力，超薄2μmPI薄膜可搭配镀铜组成锂电池复合铜箔。</t>
+          <t>固态电池+机器人|1.公司从2021年起向清陶供应模具产品，用于固态电池的生产。
+2.孙公司广东致锋致力于将精密加工技术应用场景拟扩展至精密挤压涂布模头，机器人、光学等新的领域。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>芯片封装, 铜箔</t>
+          <t>固态电池, 机器人</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
+          <t>先导智能发布的2025年半年报显示，上半年归属于上市公司股东的净利润约7.4亿元，同比增加61.19%，其中第二季度单季净利润同比增长456.29%。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sz300797</t>
+          <t>sz300450</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>钢研纳克</t>
+          <t>先导智能</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>18.6</v>
+        <v>35.51</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>20</v>
+        <v>20.01</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>商业航天+光刻胶|1.公司在商用飞机、航空航天等国家重大工程、重点项目中承担了金属材料检测等任务。
-2.子公司纳克微束的产品场发射扫描电镜可以用于光刻胶缺陷分析。</t>
+          <t>固态电池+业绩|1.公司是拥有完全自主知识产权的全固态电池整线解决方案服务商，已成功打通全固态电池量产的全线工艺环节，实现从整线解决方案到各工段的关键设备覆盖。
+2.先导智能公告称，先导智能发布2025年半年度报告摘要，报告期内实现营业收入66.10亿元，同比增长14.92%；归属于上市公司股东的净利润为7.40亿元，同比增长61.19%。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>商业航天, 光刻胶</t>
+          <t>固态电池, 业绩</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
+          <t>先导智能发布的2025年半年报显示，上半年归属于上市公司股东的净利润约7.4亿元，同比增加61.19%，其中第二季度单季净利润同比增长456.29%。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sz002549</t>
+          <t>sz301326</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>凯美特气</t>
+          <t>捷邦科技</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>16.76</v>
+        <v>128.22</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>9.969999999999999</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>光刻气|公司光刻气产品通过ASML子公司Cymer的合格供应商认证。</t>
+          <t>固态电池+液冷IDC|1.公司的碳纳米管产品适用于固态电池。
+2.公司服务器液冷散热业务按计划正常推进中。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>光刻气</t>
+          <t>固态电池, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
+          <t>先导智能发布的2025年半年报显示，上半年归属于上市公司股东的净利润约7.4亿元，同比增加61.19%，其中第二季度单季净利润同比增长456.29%。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sh603290</t>
+          <t>sh603612</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>斯达半导</t>
+          <t>索通发展</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>108.04</v>
+        <v>26.22</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>功率半导体|公司主营业务是以IGBT为主的功率半导体芯片和模块的设计研发和生产，作为国内IGBT行业领军企业，2018年底公司已量产所有型号的IGBT芯片。</t>
+          <t>固态电池|公司与北京理工大学以及北京理工大学重庆创新中心分别签订《技术开发（合作）合同》，开发硅碳、硅氧复合负极材料，已取得阶段性成果。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>功率半导体</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
+          <t>先导智能发布的2025年半年报显示，上半年归属于上市公司股东的净利润约7.4亿元，同比增加61.19%，其中第二季度单季净利润同比增长456.29%。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sh600651</t>
+          <t>sz001301</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>飞乐音响</t>
+          <t>尚太科技</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.62</v>
+        <v>60.31</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>9.959999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>半导体+阶跃星辰|1.模块封装及芯片测试服务业务以全资子公司上海仪电智能电子有限公司为主体，聚焦智能卡模块封测和芯片测试服务，模块封测业务产品主要包括接触式模块、非接触式模块、双界面模块三大类。
-2.公司控股股东上海仪电集团与阶跃星辰共同参股上海智能算力科技公司。</t>
+          <t>固态电池|公司已获得多件与硅基负极材料等与固态电池相关的发明专利。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>半导体, 阶跃星辰</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.8</v>
+        <v>-0.27</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
+          <t>近日国务院印发《关于深入实施“人工智能+”行动的意见》，意见提出，要大力发展智能网联汽车、人工智能手机和电脑、智能机器人、智能家居、智能穿戴等新一代智能终端。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sh603800</t>
+          <t>sz002953</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>洪田股份</t>
+          <t>日丰股份</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>49.72</v>
+        <v>16.1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr"/>
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8天4板</t>
+        </is>
+      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>半导体+铜箔|1.旗下洪镭光学获得来自半导体掩模版资深制造厂商的高解析直写光刻机采购订单。
-2.公司已发展成为国内电解铜箔设备龙头供应商，已实现3.5μm-100μm锂电极薄、电子电路超厚解铜箔生产装备的产业化。</t>
+          <t>机器人|公司已提前布局并自主研发机器人动力及信号电缆，相关技术获得了国家的专利授权。该电缆于机器人本体及体外使用，满足电能供给和探测数据、运行数据的反馈等作用。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>半导体, 铜箔</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.8</v>
+        <v>-0.27</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
+          <t>近日国务院印发《关于深入实施“人工智能+”行动的意见》，意见提出，要大力发展智能网联汽车、人工智能手机和电脑、智能机器人、智能家居、智能穿戴等新一代智能终端。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sz000981</t>
+          <t>sh601717</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>山子高科</t>
+          <t>中创智领</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.32</v>
+        <v>20.45</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>9.950000000000001</v>
+        <v>10.01</v>
       </c>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>汽车+半导体|1.公司全资子公司南京邦奇拟与蔚然动力成立合资公司南京蔚邦，主要从事纯电动车变速器等新能源汽车零部件的研发、生产和销售。
-2.半导体业务中，公司下属企业普利赛思电子为半导体封装材料细分领域龙头企业康强电子第一大股东，康强电子主要从事半导体封装材料引线框架、键合丝等半导体封装材料的生产、销售。</t>
+          <t>机器人|公司煤机板块将继续坚持以智能驱动产品成套化发展、以数字驱动业务全流程变革，以机器人技术重塑煤矿开采生态，以煤矿机器人的战略高度重新定义煤矿综采装备及系统。围绕采掘效能提升，聚焦各类型矿用辅助作业机器人研发，面向“少人、增安、提效”形成具备核心竞争力的郑煤机成套化解决方案。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>汽车, 半导体</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>芯片产业链</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.8</v>
+        <v>-0.27</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>浙商证券认为，在AI浪潮引领下，芯片库存周期、国内晶圆厂扩产周期背景下的设备国产化诉求有望实现共振。</t>
+          <t>近日国务院印发《关于深入实施“人工智能+”行动的意见》，意见提出，要大力发展智能网联汽车、人工智能手机和电脑、智能机器人、智能家居、智能穿戴等新一代智能终端。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sz002077</t>
+          <t>sh605133</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>大港股份</t>
+          <t>嵘泰股份</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>16.18</v>
+        <v>41.23</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>芯片封装|控股孙公司苏州科阳是少数掌握晶圆级芯片封装技术的公司之一，掌握了晶圆级芯片封装的TSV、micro-bumping（微凸点）和RDL等先进封装核心技术</t>
+          <t>机器人|2025年4月10日公告，公司拟与江苏润孚动力科技有限公司共同出资设立“江苏润泰机器人科技有限公司”，注册资本为人民币6500万元，公司认缴出资2925万元，实缴出资6500万元，占合资公司45%的股权。合资公司的业务领域限于应用于人形机器人和汽车底盘系统的行星滚柱丝杠、滚珠丝杠的研发、生产、销售业务。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>芯片封装</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>5.4</v>
+        <v>-0.27</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+          <t>近日国务院印发《关于深入实施“人工智能+”行动的意见》，意见提出，要大力发展智能网联汽车、人工智能手机和电脑、智能机器人、智能家居、智能穿戴等新一代智能终端。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sz301389</t>
+          <t>sh603583</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>隆扬电子</t>
+          <t>捷昌驱动</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>72.58</v>
+        <v>42.81</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司掌握并深耕的卷绕式真空磁控溅射及复合镀膜技术为核心，研发铜箔类材料产品，逐步丰富和拓展公司铜箔产品种类，主要包括锂电铜箔及电子电路铜箔，未来可广泛应用于锂电池行业、线路板（PCB）。</t>
+          <t>光伏+机器人|1.公司2021年9月17日在互动平台表示，公司产品在光伏追踪支架领域有专业的解决方案。
+2.在机器人领域，公司主持的浙江省2024年度“领雁”研发攻关计划项目-高推力密度电动线性致动器关键技术研究，主要进行人形机器人用线性执行器关节的研发并产业化。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>光伏, 机器人</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>5.4</v>
+        <v>-0.27</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+          <t>近日国务院印发《关于深入实施“人工智能+”行动的意见》，意见提出，要大力发展智能网联汽车、人工智能手机和电脑、智能机器人、智能家居、智能穿戴等新一代智能终端。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sh603124</t>
+          <t>sh605288</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>江南新材</t>
+          <t>凯迪股份</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>86.63</v>
+        <v>78.91</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司核心产品包括铜球系列、氧化铜粉系列及高精密铜基散热片系列三大产品类别，应用于PCB镀铜制程，下游客户覆盖大多数境内外一线PCB制造企业，包括鹏鼎控股、东山精密、健鼎科技、深南电路、瀚宇博德、景旺电子、志超科技、奥士康、胜宏科技、崇达技术、定颖电子、博敏电子等。</t>
+          <t>光伏+机器人|1.公司生产的光伏支架产品已基本符合产业要求。
+2.公司主要产品为线性驱动系统，可以应用在机器人上。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>光伏, 机器人</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>5.4</v>
+        <v>-0.27</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+          <t>近日国务院印发《关于深入实施“人工智能+”行动的意见》，意见提出，要大力发展智能网联汽车、人工智能手机和电脑、智能机器人、智能家居、智能穿戴等新一代智能终端。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>sz002048</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>宁波华翔</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="H15" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>sz301526</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>国际复材</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>19.97</v>
       </c>
       <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>覆铜板|公司生产的电子级玻璃纤维是制作覆铜板（CCL）和印制电路板（PCB）的关键材料，具有电绝缘性能好、防火阻燃、耐老化等特点，主要应用于电子电器、汽车电子、5G通讯等领域。</t>
+          <t>机器人|2025年6月26日公告，子公司华翔启源与上海智元新创技术有限公司签订了《委托生产合同》。华翔启源将在未来三年内为上海智元生产部分全尺寸双足机器人产品，以满足其产能需求。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>覆铜板</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>5.4</v>
+        <v>0.19</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sz002384</t>
+          <t>sz002256</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>东山精密</t>
+          <t>兆新股份</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>60.94</v>
+        <v>3.22</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr"/>
+        <v>9.9</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>消费电子+PCB|1.在光电显示领域，公司是行业知名的触控面板及液晶显示模组制造商和LED显示器件生产商，产品主要应用于中小尺寸的显示领域，包括手机、平板电脑等产品。
-2.公司已成为全球领先的印刷电路板全产业链覆盖企业之一，是目前PCB行业中为数不多的能提供柔性线路板、刚性线路板和软硬结合板的供应商。</t>
+          <t>业绩|公司2025年1-6月实现营业收入2.08亿元，同比增长29.99%；归母净利润307.2万元，同比增长47.06%。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>消费电子, PCB</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>5.4</v>
+        <v>0.19</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sz002815</t>
+          <t>sh605138</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>崇达技术</t>
+          <t>盛泰集团</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>17.19</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>PCB+服务器|1.公司部分工控PCB产品有应用在美的库卡机器人、ABB机器人上。
-2.公司服务器产品客户是中兴通讯、新华三、云尖等，产品包括服务器主板和AI服务器。</t>
+          <t>业绩|公司2025年1-6月实现营业收入为17.87亿元，同比下降6.17%；净利润3147.25万元，同比增长44.36%。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>PCB, 服务器</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>5.4</v>
+        <v>0.19</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sz002636</t>
+          <t>sz301177</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>金安国纪</t>
+          <t>迪阿股份</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>14.6</v>
+        <v>35.12</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>10.02</v>
+        <v>19.99</v>
       </c>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>覆铜板|公司主要产品包括各种通用FR-5、FR-4、CEM-3等系列覆铜板及铝基覆铜板、半固化片等和特殊指标要求的无卤环保、高阻燃、耐CAF、高TG、高CTI等系列覆铜板；此外，公司还从事覆铜板的原材料电子级玻纤布以及下游PCB产品的生产和销售。</t>
+          <t>业绩|公司2025年1-6月实现营业收入7.86亿元，同比上升1.0%；归母净利润为7600万元，同比上升131.6%。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>覆铜板</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>5.4</v>
+        <v>0.19</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sz002916</t>
+          <t>sz002156</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>深南电路</t>
+          <t>通富微电</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>186.45</v>
+        <v>33.09</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>PCB|公司专业从事高中端印制电路板的设计、研发及制造，拥有印制电路板、封装基板及电子装联三项业务，形成了业界独特的“3-In-One”业务布局。主要产品有背板、高速多层板、多功能金属基板、厚铜板、高频微波板、刚挠结合板、存储芯片封装基板（eMMC）、微机电系统封装基板（MEMS）、射频模块封装基板（RF）、WB-CSP、FC-CSP、高速通信封装基板、PCBA板级、功能性模块、整机产品/系统总装。</t>
+          <t>业绩|公司2025年1-6月实现营业收入130.38亿元，同比增长17.67%；归母净利润4.12亿元，同比增长27.72%。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>业绩</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>业绩超预期</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>5.4</v>
+        <v>0.19</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sh603256</t>
+          <t>sh600928</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>宏和科技</t>
+          <t>西安银行</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44.89</v>
+        <v>4.18</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>10</v>
@@ -1420,787 +1418,781 @@
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>电子级玻纤布|公司是全球领先的中高端电子级玻璃纤维布专业厂商，是全球少数具备极薄布生产能力的厂商之一。公司主要产品为中高端电子级玻璃纤维布系列产品，为制造电子产品核心铜箔基板的重要原料。</t>
+          <t>银行+业绩|1.公司是由地方国有平台公司、大型外资银行及国内大中型企业参股投资的、具有股权多元化和市场化特征的区域性股份制银行。
+2.公司2025年1-6月实现营业收入52.05亿元，同比增长43.70%；归母净利润14.52亿元，同比增长8.59%。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>电子级玻纤布</t>
+          <t>银行, 业绩</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>5.4</v>
+        <v>0.88</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+          <t>国家发展改革委政策研究室副主任、新闻发言人李超在新闻发布上表示，接下来，国家发展改革委要打好提振消费组合拳，激发市场活力。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sz301123</t>
+          <t>sh603020</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>奕东电子</t>
+          <t>爱普股份</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>47.81</v>
+        <v>10.87</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="I21" s="2" t="inlineStr"/>
+        <v>10.02</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>铜连接+PCB|1.公司的高速连接器及相关产品终端应用于服务器、数据中心、通讯基站等领域。
-2.公司的线路板产品是FPC柔性线路板，该产品由于轻薄和可弯折等特性，可适用于多类型的智能电子产品，包括折叠屏手机等。</t>
+          <t>业绩+食品饮料|1.公司2025年1-6月实现营业收入12.36亿元，同比下降14.87%；归母净利润8310.49万元，同比增长33.85%。
+2.公司香精香料以食品用香精香料为主，客户稳定粘性高，业务增长稳定。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>铜连接, PCB</t>
+          <t>业绩, 食品饮料</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>5.4</v>
+        <v>0.88</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+          <t>国家发展改革委政策研究室副主任、新闻发言人李超在新闻发布上表示，接下来，国家发展改革委要打好提振消费组合拳，激发市场活力。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sh601208</t>
+          <t>sh601579</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>东材科技</t>
+          <t xml:space="preserve">会稽山  </t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>19.4</v>
+        <v>24.44</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>9.98</v>
+        <v>9.99</v>
       </c>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>PCB+光刻胶|1.公司的双马树脂、活性酯等产品已被广泛应用于5G/5.5G/6G通信、高端算力、服务器等领域的PCB基板生产环节，并通过台光、生益科技等国内外一线覆铜板厂商供应到华为、苹果、英伟达（NVIDIA）、英特尔（intel）、思科（Cisco）等主流产业链体系。
-2.2023年9月6日公司在互动平台表示，公司与Chemax、种亿化学成立成都东凯芯半导体材料公司，重点开展高端光刻胶项目。</t>
+          <t>黄酒|公司主要从事黄酒的生产、销售和研发等业务，公司及下属子公司主要拥有“会稽山”、“西塘”、“乌毡帽”、“唐宋”等主品牌。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>PCB, 光刻胶</t>
+          <t>黄酒</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.8</v>
+        <v>0.88</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
+          <t>国家发展改革委政策研究室副主任、新闻发言人李超在新闻发布上表示，接下来，国家发展改革委要打好提振消费组合拳，激发市场活力。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sz002256</t>
+          <t>sz000796</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>兆新股份</t>
+          <t>凯撒旅业</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.93</v>
+        <v>5.92</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>10.15</v>
+        <v>10.04</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入2.08亿元，同比增长29.99%；归母净利润307.2万元，同比增长47.06%。</t>
+          <t>旅游+食品饮料|1.公司地处海南三亚，主要业务包括旅游业务、航食、铁路配餐业务、目的地业务。
+2.公司旗下海旅饮品是一家以生产和销售热带水果果汁饮品为主的企业，主要产品有椰子汁、菠萝汁、芒果汁、椰子水、咖啡粉等。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>旅游, 食品饮料</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.8</v>
+        <v>0.88</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
+          <t>国家发展改革委政策研究室副主任、新闻发言人李超在新闻发布上表示，接下来，国家发展改革委要打好提振消费组合拳，激发市场活力。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sh603216</t>
+          <t>sh603231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>梦天家居</t>
+          <t>索宝蛋白</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>15.72</v>
+        <v>19.59</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>10.01</v>
+        <v>9.99</v>
       </c>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入4.85亿元，同比下降2.20%；归母净利润3523.49万元，同比增长41.72%。</t>
+          <t>合成生物+食品饮料|1.公司的参股公司苏陀科技（深圳）有限公司涉及一部分合成蛋白的技术研究，但处于研究阶段。合成蛋白属于合成生物领域。
+2.公司主营业务为大豆蛋白系列产品的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>合成生物, 食品饮料</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.8</v>
+        <v>0.05</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sz300389</t>
+          <t>sh600176</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>艾比森</t>
+          <t>中国巨石</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>14.7</v>
+        <v>15.61</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>20</v>
+        <v>10.01</v>
       </c>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入18.2亿元，同比上升1.1%；归母净利润为1.16亿元，同比上升30.8%。经营业务在报告期内没有重大变化，继续专注于LED显示技术及应用，保持全球领先地位。公司在海外市场表现稳定，尽管面临复杂的国际环境，但国内市场收入实现了10.40%的逆势增长。海外市场的营业收入微降1.51%，但出口销量显著增长15.23%。</t>
+          <t>PCB用纱|公司目前具备9.6亿米PCB用纱产能，市场占有率全球第一。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>PCB用纱</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.8</v>
+        <v>0.05</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sh601877</t>
+          <t>sh600545</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>正泰电器</t>
+          <t>卓郎智能</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>27.86</v>
+        <v>2.96</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>9.99</v>
+        <v>10.04</v>
       </c>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>业绩|正泰电器公告称，2025年上半年实现营业收入296.19亿元，同比增长2.18%；归属于上市公司股东的净利润25.54亿元，同比增长32.9%。</t>
+          <t>PCB|2025年6月28日公司官微透露，公司与国际复材签订了加捻事业部史上最大额玻璃纤维捻线机订单。玻纤凭借其低介电常数等特性，已成为制造高频高速PCB与高性能芯片封装材料的不二之选。</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.8</v>
+        <v>0.05</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sh600210</t>
+          <t>sh600226</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>紫江企业</t>
+          <t>亨通股份</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>7.07</v>
+        <v>3.69</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>9.950000000000001</v>
+        <v>10.15</v>
       </c>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入52.48亿元，同比增长12.43%；归母净利润4.73亿元，同比增长33.39%。</t>
+          <t>电解铜箔|子公司亨通铜箔主要从事电解铜箔的研发、生产与销售，电子铜箔是制作覆铜板（CCL）和印制电路板（PCB）的重要基础原材料。</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>电解铜箔</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.8</v>
+        <v>0.05</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sh603020</t>
+          <t>sz002436</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>爱普股份</t>
+          <t>兴森科技</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>9.880000000000001</v>
+        <v>21</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>10.02</v>
+        <v>10.01</v>
       </c>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入12.36亿元，同比下降14.87%；归母净利润8310.49万元，同比增长33.85%。</t>
+          <t>PCB|公司是国内知名的PCB样板快件、批量板的设计及制造服务商，可为客户提供研发--设计--制造--SMT贴装的一站式服务模式，涵盖传统PCB、软硬结合板、高密度互连HDI板、类载板（SLP）、ATE半导体测试板、封装基板（含CSP封装基板和FCBGA封装基板）等全类别先进电子电路产品，PCB订单品种数平均25000种/月。</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>PCB</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>业绩超预期</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>半年报披露末端，部分业绩超预期个股受到资金关注。</t>
+          <t>英伟达公布第二季度业绩报告后，多家机构集体提高英伟达目标价，美银给出235美元的最高目标价。</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sz001222</t>
+          <t>sh605255</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>源飞宠物</t>
+          <t>天普股份</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>24.08</v>
+        <v>47.19</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>6天6板</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>业绩|公司2025年1-6月实现营业收入7.92亿元，同比增长45.52%；归母净利润为7416.37万元，同比增长0.37%，其中二季度实现归母净利润4880万元，同比增长30.63%。</t>
+          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>业绩</t>
+          <t>中昊芯英入股</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>卫星互联网</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3.28</v>
+        <v>-1.7</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，支持电信运营商通过与卫星企业共建、共享等模式，深入挖掘天通、北斗等高轨卫星应用潜力。</t>
+          <t>英伟达公布第二季度业绩报告后，多家机构集体提高英伟达目标价，美银给出235美元的最高目标价。</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sz002232</t>
+          <t>sz002484</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>启明信息</t>
+          <t>江海股份</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>25.84</v>
+        <v>33.31</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>业绩+卫星互联网|1.公司2025年1-6月实现营业收入3.3亿元，同比增长6.51%；净利润1418.81万元，同比增长2568.5%。
-2.公司具有“兼容型北斗导航车载终端的研发与产业化”项目。公司先后研发出具有自主知识产权国内一流GPS监控软件和车载信息系统，并建成全国最大GPS物流运营中心D_Partner服务中心。</t>
+          <t>MLPC|2024年11月19日公告，公司近日在第二十九届慕尼黑电子展上推出基于高性能N型导电聚合物的MLPC新产品。该产品采用原位聚合与氧化还原掺杂相结合的一步法合成技术，具备超高电导率、高稳定性和高温耐久性等优点。MLPC广泛应用于服务器中高功耗芯片的供电滤波场景，特别是CPU和GPU的核心电压供电，进一步提升了服务器的可靠性。</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>业绩, 卫星互联网</t>
+          <t>MLPC</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>卫星互联网</t>
+          <t>算力工程</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.28</v>
+        <v>-1.7</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，支持电信运营商通过与卫星企业共建、共享等模式，深入挖掘天通、北斗等高轨卫星应用潜力。</t>
+          <t>英伟达公布第二季度业绩报告后，多家机构集体提高英伟达目标价，美银给出235美元的最高目标价。</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sz000070</t>
+          <t>sh601138</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>特发信息</t>
+          <t>工业富联</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>12.14</v>
+        <v>53.83</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>光通信+卫星互联网|1.2025年8月1日互动，公司光通信领域相关进展主要集中在高速传输方面，包括数据中心的高速光连接，骨干传输网等。公司馈线电缆属于通信信号传输铜缆，公司MPO产品(多模光纤连接器)属于高速连接器。
-2.公司独资子公司成都傅立叶在卫星通信领域主要涉及地面终端（主要基于自主可控的天通卫星移动通信系统）、卫星解调设备、卫星态势感知系统等。</t>
+          <t>AI服务器|公司AI服务器自2017年发展已迭代至第四代，并于2023年开始为客户开发并量产英伟达的H100及H800等高性能AI服务器。</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>光通信, 卫星互联网</t>
+          <t>AI服务器</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>卫星互联网</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.28</v>
+        <v>1.08</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，支持电信运营商通过与卫星企业共建、共享等模式，深入挖掘天通、北斗等高轨卫星应用潜力。</t>
+          <t>国家药监局日前介绍，目前，我国医药产业规模位居全球第二位，在研创新药数目达到全球30%左右。</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sh603068</t>
+          <t>sh603590</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>博通集成</t>
+          <t>康辰药业</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>46.71</v>
+        <v>56.17</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>10.01</v>
       </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+      <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>算力芯片+卫星芯片|1.公司拟将依托在AI无线通信的经验和技术积累，将研发资源拓展至端侧AI算力。公司发布的BK7259作为AIoT算力标杆，率先集成ARM Ethos-U65 microNPU的Wi-Fi 6 MCU，为边缘智能应用注入超强算力与卓越能效。
-2.公司的卫星导航芯片已量产，产品支持GPS/北斗/GLONASS等多模接收，实现了较高的定位精度和超低功耗。</t>
+          <t>创新药|公司是一家以创新药研发为核心、以临床价值为导向，集研发、生产和销售于一体的创新药企业。公司主要产品为“密盖息”和“苏灵”。</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>算力芯片, 卫星芯片</t>
+          <t>创新药</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>卫星互联网</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>3.28</v>
+        <v>1.08</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，支持电信运营商通过与卫星企业共建、共享等模式，深入挖掘天通、北斗等高轨卫星应用潜力。</t>
+          <t>国家药监局日前介绍，目前，我国医药产业规模位居全球第二位，在研创新药数目达到全球30%左右。</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sz002115</t>
+          <t>sh600521</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>三维通信</t>
+          <t>华海药业</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>9.52</v>
+        <v>24.17</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>10.06</v>
+        <v>10.01</v>
       </c>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>卫星互联网|子公司海卫通是国内第一家专业服务海事船舶终端客户的国际卫星运营商，拥有三千多艘船舶的卫星通信及船端信息化的运维经验以及明显的先发优势。</t>
+          <t>创新药|据公告，单克隆抗体注射液获药物临床试验批件。持续获得ANDA批文，美国制剂业务有望扭亏。公司已有10个品种通过一致性评价。</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>卫星互联网</t>
+          <t>创新药</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>卫星互联网</t>
+          <t>可控核聚变</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.28</v>
+        <v>0.52</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，支持电信运营商通过与卫星企业共建、共享等模式，深入挖掘天通、北斗等高轨卫星应用潜力。</t>
+          <t>美国核聚变能源初创企业CFS周四宣布，该公司最新获得了8.63亿美元融资，英伟达旗下的风险投资部门NVentures参与了本轮融资，其他投资方还包括老股东Khosla Ventures及谷歌母公司Alphabet。</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sz002829</t>
+          <t>sz002564</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>星网宇达</t>
+          <t>天沃科技</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>23.78</v>
+        <v>9.19</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>9.99</v>
+        <v>10.06</v>
       </c>
       <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>卫星通信+机器人|1.卫星通信方面，公司在高通量应用领域，已成功研发交付多款车/船载卫通天线，并将在2025年推出新型高通量产品
-2.公司惯导产品可应用于人形机器人。</t>
+          <t>可控核聚变|子公司张化机拥有民用核安全设备制造许可证，具备生产相关核领域产品的能力，我公司曾作为我国装备制造的唯一代表，与中广核联合承接的国际热核聚变实验堆蒸汽冷凝设备研发制造任务，是我国非标压力容器行业的一线供应商。</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>卫星通信, 机器人</t>
+          <t>可控核聚变</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>可控核聚变</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+          <t>美国核聚变能源初创企业CFS周四宣布，该公司最新获得了8.63亿美元融资，英伟达旗下的风险投资部门NVentures参与了本轮融资，其他投资方还包括老股东Khosla Ventures及谷歌母公司Alphabet。</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sz301488</t>
+          <t>sz002735</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>豪恩汽电</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>115.33</v>
+        <v>17.28</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司已与上海智元签署技术合作协议，双方将合作研究开发Genie02超声波传感器项目，定制满足要求的底盘超声波系统产品，此外与多家机器人厂家在洽谈交流中。另外公司已与英伟达达成芯片战略合作，全面进入机器人大脑控制系统的开发，涵盖英伟达Jetson Thor、Orin AGX、Orin NX和OrinNano全系列控制域。</t>
+          <t>军工+可控核聚变|1.旗下中电华瑞是一家覆盖舰船电子信息系统及设备的科研、生产、销售和技术服务等领域的高新技术企业，具备完善的军工资质。技术实力雄厚，产品包括零部件、整机、系统等各个层级，服务阶段覆盖科研、预研、批产全过程，且在产品国产化自主可控方面具备一定的领先优势。
+2.王子新材在互动平台表示，子公司宁波新容就实施安徽合肥可控核聚变项目提供储能电容和支撑电容产品，公司将全力保障可控核聚变项目订单在2025年交付完毕。</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>军工, 可控核聚变</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.67</v>
+        <v>0.39</v>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+          <t>8月28日，国内稀土市场整体呈现涨跌互现的格局，其中氧化镨价格约涨15,000元/吨，氧化镝价格约涨10,000元/吨。</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sh600156</t>
+          <t>sz000831</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>华升股份</t>
+          <t>中国稀土</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>9.56</v>
+        <v>58.32</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I36" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>机器人+算力|1.参股24%的湖南英捷高科技有限责任公司的MIM(金属粉末注射)可以用于消费电子和人行机器人。
-2.2025年6月9日公告，公司正在筹划通过发行股份及支付现金的方式购买深圳易信科技股份有限公司100%的股权，易信科技已在粤港澳大湾区、成渝、京津冀等区域自建绿色智算中心，满足训练、推理、科学计算等高算力场景需求，其智算中心全生命周期解决方案已经累计服务客户超10000家。</t>
+          <t>稀土永磁|公司现为国内最大的南方离子型稀土分离加工企业之一，通过开采和外购稀土原料等方式进行分离加工，主导产品包括混合碳酸稀土、稀土氧化物混合精矿、高纯的单一稀土氧化物及稀土富集物等。</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>机器人, 算力</t>
+          <t>稀土永磁</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.67</v>
+        <v>0.39</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+          <t>8月28日，国内稀土市场整体呈现涨跌互现的格局，其中氧化镨价格约涨15,000元/吨，氧化镝价格约涨10,000元/吨。</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sz000599</t>
+          <t>sh600259</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>青岛双星</t>
+          <t>广晟有色</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>5.5</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>10</v>
@@ -2208,300 +2200,290 @@
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司建成的商用车胎全流程“工业4.0”智能化工厂实现了传统轮胎行业的转型升级，工厂中的设备包括11种智能机器人，80%由双星自主研发和生产，智能化工厂采用双星独创的MEP智能信息匹配系统，可实现物、人、设备、位置的信息智能匹配。</t>
+          <t>稀土永磁|公司是六大稀土集团之一，广东省稀土产业集团的唯一稀土上市平台，实际控制广东省内仅有的4张稀土采矿权证(含托管企业古云矿)，是广东省唯一合法稀土采矿人。</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>稀土永磁</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>英伟达如期发布机器人“新大脑”，可在端侧设备上同时运行多个生成式AI模型，最大限度降低对云端的依赖。</t>
+          <t>国家发展改革委政策研究室副主任、新闻发言人李超在新闻发布上表示，接下来，国家发展改革委要打好提振消费组合拳，激发市场活力。</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>831906.BJ</t>
+          <t>sh600712</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>舜宇精工</t>
+          <t>南宁百货</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>30.09</v>
+        <v>7.84</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>29.98</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>机器人+汽车|1.公司全资子公司舜宇贝尔进入高端装备制造领域，主要为整车制造提供AGV机器人及基于AGV机器人的集成解决方案。
-2.公司的智能车载摄像产品CARLOG已成功应用于智己L7车型。</t>
+          <t>零售|公司主要从事商业零售业务，地处广西南宁市，南宁市是华南经济圈、西南经济圈和中国—东盟经济圈的交汇点。</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>机器人, 汽车</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>4.9</v>
+        <v>0.33</v>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>天风证券认为，预计国内大模型开发企业与互联网平台将逐步提高国产芯片的采购与使用规模。相应的国产芯片供应商及其配套产业链企业有望迎来发展机遇。</t>
+          <t>国家发展改革委政策研究室副主任、新闻发言人李超在新闻发布上表示，接下来，国家发展改革委要打好提振消费组合拳，激发市场活力。</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sh605255</t>
+          <t>sz002277</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>天普股份</t>
+          <t>友阿股份</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>42.9</v>
+        <v>8.34</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>5天5板</t>
-        </is>
-      </c>
+        <v>10.03</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
+          <t>机器人+零售+芯片|1.公司出资7875万元认购隆深机器人15%股份。佛山隆深机器人有限公司是一家专业从事工业机器人系统集成、非标自动化设备及整线设计制造、机器人本体、控制器研发及智能制造服务的企业。
+2.公司是长沙及湖南省规模最大的百货零售企业，以百货零售为主要业务。
+3.2025年5月27日公告，公司拟通过发行股份及支付现金的方式购买深圳尚阳通科技股份有限公司100%股权，尚阳通专注于高端半导体功率器件芯片的研发设计。</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股</t>
+          <t>机器人, 零售, 芯片</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>卫星互联网</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>4.9</v>
+        <v>-0.06999999999999999</v>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>天风证券认为，预计国内大模型开发企业与互联网平台将逐步提高国产芯片的采购与使用规模。相应的国产芯片供应商及其配套产业链企业有望迎来发展机遇。</t>
+          <t>8月27日，工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，明确支持电信运营商与卫星企业共建共享，推动手机直连卫星技术加速普及。</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sh600246</t>
+          <t>sz002115</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>万通发展</t>
+          <t>三维通信</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>13.52</v>
+        <v>10.47</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>10.01</v>
+        <v>9.98</v>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>6天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>并购重组+算力芯片|万通发展公告称，公司拟通过增资及股权转让方式合计投资8.54亿元取得数渡科技62.98%股权。投资完成后，数渡科技将成为公司控股子公司并纳入合并报表。标的公司主要从事高速互连芯片设计与研发以及提供ASIC芯片定制设计服务。</t>
+          <t>卫星互联网|子公司海卫通是国内第一家专业服务海事船舶终端客户的国际卫星运营商，拥有三千多艘船舶的卫星通信及船端信息化的运维经验以及明显的先发优势。</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>并购重组, 算力芯片</t>
+          <t>卫星互联网</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>卫星互联网</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>4.9</v>
+        <v>-0.06999999999999999</v>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>天风证券认为，预计国内大模型开发企业与互联网平台将逐步提高国产芯片的采购与使用规模。相应的国产芯片供应商及其配套产业链企业有望迎来发展机遇。</t>
+          <t>8月27日，工信部印发《关于优化业务准入促进卫星通信产业发展的指导意见》，明确支持电信运营商与卫星企业共建共享，推动手机直连卫星技术加速普及。</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sh603893</t>
+          <t>sh601929</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">瑞芯微  </t>
+          <t>吉视传媒</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>237.16</v>
+        <v>4.55</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>9.9</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>算力芯片|公司能够为下游客户及生态伙伴提供从0.2TOPs到6TOPs的不同算力水平的AIoT芯片，其中RK3588、RK3576带有6TOPs NPU处理单元，支持端侧主流3B以下参数级别的模型部署。</t>
+          <t>影视+卫星互联网|1.公司与长影集团一直保持合作关系并联合出品了电影《731》。
+2.2024年7月7日公告，公司与长光卫星签署战略合作协议，合作内容包括：卫星数据云服务、卫星数据确权认证等。</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>算力芯片</t>
+          <t>影视, 卫星互联网</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>金融科技</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.22</v>
+        <v>-0.45</v>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+          <t>市场持续活跃，目前已经连续多个交易日成交额超过2.5万亿。</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>sz002600</t>
+          <t>sz002530</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>金财互联</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>16.26</v>
+        <v>11.7</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>9天5板</t>
-        </is>
-      </c>
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>机器人+液冷IDC|1.公司拥有伺服电机、减速器、驱动器、运动控制器等人形机器人执行层的核心技术，可提供模切结构件、金属结构件、注塑结构件、软包结构件等，已为人形机器人客户提供头部总成、灵巧手总成、四肢总成、高功率充电和散热解决方案等核心硬件。
-2.公司已为AMD等国际客户批量出货散热模组，也已全面具备CDU、液冷模组、液冷板、空冷散热模组、热管、均热板、石墨片等产品及系统性散热解决方案的研发、生产能力，应用于人形机器人、服务器、光模块等各类产品。</t>
+          <t>金融科技+AI|1.公司与微众银行在金融科技领域合作，提供的服务主要有“金财卫士”与“金财i财税”两大产品，旨在为用户提供更为便捷、高效的数据资产和金融科技解决方案。
+2.公司与H公司合作的“欣智悦财税大模型”采用开放式架构设计，构建财税AIAgent智能体。</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>机器人, 液冷IDC</t>
+          <t>金融科技, AI</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>金融科技</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.22</v>
+        <v>-0.45</v>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+          <t>市场持续活跃，目前已经连续多个交易日成交额超过2.5万亿。</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>sz002837</t>
+          <t>sz301378</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>英维克</t>
+          <t>通达海</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>79.04000000000001</v>
+        <v>38.5</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>10.01</v>
+        <v>20.01</v>
       </c>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司已推出针对算力设备和数据中心的Coolinside液冷机柜及全链条液冷解决方案，相关产品涉及冷源、管路连接、CDU分配、快换接头、Manifold、冷板等已规模商用，“端到端、全链条”的平台化布局已成为公司在液冷业务领域的重要核心竞争优势。</t>
+          <t>金融科技|公司主要面向全国各级法院提供办案办公应用系统及相关服务，近年来，为满足各地银行等金融机构与法院间不断增长的业务协同需要，公司也开发了案款管理系统、破产案件管理平台、金融纠纷一体化办案平台等多种产品，为银行等金融机构涉诉资金的结算管理、破产案件的办理处置以及各类小额金融纠纷一体化化解办理等方面提供服务和支持。</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>金融科技</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2494,7 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.22</v>
+        <v>-0.8699999999999999</v>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
@@ -2520,49 +2502,48 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>sh688668</t>
+          <t>873223.BJ</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>鼎通科技</t>
+          <t>荣亿精密</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>127.36</v>
+        <v>21.78</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>20</v>
+        <v>29.95</v>
       </c>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>铜连接+液冷IDC|1.公司生产的通讯连接器及其组件主要为客户提供高速背板连接器组件和I/O连接器组件，主要包括精密结构件和壳体（CAGE）等，是通讯连接器模块重要的组成部分，通讯连接器及光模块是云计算数据中心重要零部件。
-2.公司液冷散热器产品有小批量出货，目前客户有安费诺、莫仕、立讯和富士康。</t>
+          <t>液冷IDC|公司配套AI伺服器的液冷精密UQD快接头金属外壳/精密结构件已进入量产阶段。</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>铜连接, 液冷IDC</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>4.73</v>
+        <v>-0.8699999999999999</v>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>英伟达2026财年第二季度营收为467.4亿美元，同比增长56%；净利润为264.2亿美元，同比增长59%。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -2570,299 +2551,299 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>sh601869</t>
+          <t>sh600673</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>长飞光纤</t>
+          <t xml:space="preserve">东阳光  </t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>82.95</v>
+        <v>22.47</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>光模块|子公司博创科技10G PON OLT 光模块出货量国内领先，在数通市场，已向多家国内外互联网客户批量供货25G 至400G 速率的中短距光模块、有源光缆和高速铜缆。</t>
+          <t>液冷IDC|公司已积极布局第四代制冷剂及以数据中心用电子氟化液领域相关产品。
+2025年2月28日公告，子公司东阳光液冷科技与中际旭创拟在广州共同出资设立合资公司广东深凛智冷科技有限公司，从事液冷热管理零部件及系统解决方案的研发、生产及销售。合资公司注册资本为1亿元，东阳光液冷科技认缴出资4900万元，占49%。</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>CRO/CMO</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4.73</v>
+        <v>1.7</v>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>英伟达2026财年第二季度营收为467.4亿美元，同比增长56%；净利润为264.2亿美元，同比增长59%。</t>
+          <t>中泰证券研报表示，随着国内政策逐步发力，预计板块有望逐步恢复，持续关注临床CRO投资机会。</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>sz300394</t>
+          <t>sz301257</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>天孚通信</t>
+          <t>普蕊斯</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>180.01</v>
+        <v>43.54</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>20</v>
+        <v>20.01</v>
       </c>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>光模块|公司发展了OSA、BOX、COB、AOC、硅光等各种光模块有源组件&amp;引擎ODM/OEM业务。公司已成为各大主流光模块的供应商。</t>
+          <t>CRO|公司主营业务为向国内外制药公司、医疗器械公司及部分健康相关产品的临床研究开发提供SMO服务，基于过往经营积累的临床试验项目执行经验，根据不同临床试验项目的特点，建立操作性强、切实可行的临床试验项目执行方案。</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>CRO</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>人脑工程</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.8699999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>中国科学院空天信息创新研究院传感器技术全国重点实验室与哈尔滨医科大学附属第一医院神经外科联合，近日成功完成“基于植入式微电极阵列的脑深部肿瘤边界精准定位”临床试验。</t>
+          <t>中信建投表示，军工板块基本面开始加速回暖，2025年上半年各类催化剂特别是订单公告有望持续兑现。</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>sz002195</t>
+          <t>sh601606</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>岩山科技</t>
+          <t>长城军工</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>8.050000000000001</v>
+        <v>69.17</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>智能体+脑机接口|1.黑芝麻智能与公司旗下RockAI联合发布基于武当C1200家族芯片的AI Agent解决方案，该方案将部署于未来的智能座舱应用中。
-2.公司旗下岩思类脑研究院以脑电大数据与脑电大模型为核心技术底座，面向脑科学和人工智能领域的前瞻性研究，开展脑机接口解码算法与系统、非器质性脑疾病（例如癫痫、抑郁症、严重失眠等）的诊断和评估、大脑内在状态调控等方向的科学研究和产品开发，推动研究成果商业化落地。</t>
+          <t>军工|公司自成立以来，在保证军品业务的同时，不断开拓民品市场，民品业务保持稳步增长。多年以来，公司军品订货量保持全国地方军工订货量的领先地位。</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>智能体, 脑机接口</t>
+          <t>军工</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>人脑工程</t>
+          <t>AI应用</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.8699999999999999</v>
+        <v>-0.86</v>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>中国科学院空天信息创新研究院传感器技术全国重点实验室与哈尔滨医科大学附属第一医院神经外科联合，近日成功完成“基于植入式微电极阵列的脑深部肿瘤边界精准定位”临床试验。</t>
+          <t>全球知名风险投资公司a16z发布全球Top100消费级生成式AI应用榜单，来自中国应用开发者的产品在移动端Top50中占据22席。</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>sh603610</t>
+          <t>sz000839</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>麒盛科技</t>
+          <t>国安股份</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>15.6</v>
+        <v>3.06</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>10.01</v>
+        <v>10.07</v>
       </c>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>华为鸿蒙+脑机接口|1.公司通过多年的智能床研发经验联合华为鸿蒙数字空间将重新定义睡眠，帮助用户获得更舒适的睡眠环境和姿态，帮助用户获得更优质的睡眠。
-2.公司对外投资睡眠产业相关的技术与平台，包括双向脑机交互技术，该技术能够应用于智能家居领域。脑机接口在智能家居领域的应用主要集中在“补充”方向。</t>
+          <t>AI智能体|下属鸿联九五已有自研AI智能体在特定场景中进行应用。</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>华为鸿蒙, 脑机接口</t>
+          <t>AI智能体</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
+          <t>光通信</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>英伟达2026财年第二季度营收为467.4亿美元，同比增长56%；净利润为264.2亿美元，同比增长59%。</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>sh601869</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>长飞光纤</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>光模块+空芯光纤|1.子公司博创科技10G PON OLT 光模块出货量国内领先，在数通市场，已向多家国内外互联网客户批量供货25G 至400G 速率的中短距光模块、有源光缆和高速铜缆。
+2.空芯光纤作为行业前沿产品，其应用目前仍处于早期阶段，尚未形成规模销售、尚未形成稳定的价格及利润水平，而后续业务发展也有待于产业链的进一步成熟。目前，空芯光纤相关业务尚未对公司财务数据产生明显影响。</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>光模块, 空芯光纤</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
           <t>ST股</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B50" s="2" t="n">
         <v>-0.34</v>
       </c>
-      <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>sh600107</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST尔雅  </t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>12天8板</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司的主营业务为服装、服饰和纺织品研发、设计、制造和销售。</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>sh603398</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">*ST沐邦 </t>
         </is>
       </c>
-      <c r="G49" s="2" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
+      <c r="G51" s="2" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
         <is>
           <t>ST股 | 1.沐邦高科公告，与铜陵狮子山高新技术产业开发区管理委员会、铜陵高新发展投资有限公司签订《项目投资协议书》，项目名称为年产10GW-N型高效电池片、10GW切片生产基地项目。
 2.公司上市的IP产品 “樱桃小丸子”第一期为“盲盒”类产品。</t>
         </is>
       </c>
-      <c r="K49" s="2" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="C50" s="2" t="inlineStr"/>
-      <c r="D50" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>sz000972</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>*ST中基</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>6天3板</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司依托新疆得天独厚的地域和自然优势，致力于发展番茄“红色产业”，产业规模居于前列，产品行销世界数十国家和地区，是全球主要食品企业长期、固定的原料供应商。</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="C51" s="2" t="inlineStr"/>
-      <c r="D51" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>sz002058</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>*ST威尔</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司控股子公司紫燕机械下属的紫燕模具为特斯拉提供汽车检具方面的服务。</t>
-        </is>
-      </c>
       <c r="K51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2876,28 +2857,32 @@
       </c>
       <c r="C52" s="2" t="inlineStr"/>
       <c r="D52" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>sz000504</t>
+          <t>sz002058</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>*ST生物</t>
+          <t>*ST威尔</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>9.48</v>
+        <v>16.77</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="I52" s="2" t="inlineStr"/>
+        <v>5.01</v>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司是目前国内一家国资控股的干细胞、免疫细胞及组织工程产业主板上市公司，“生物医药”板块业务包括干细胞储存服务、化妆品的生产和销售、医疗器械设备及耗材的代理和销售。</t>
+          <t>ST股 | 公司控股子公司紫燕机械下属的紫燕模具为特斯拉提供汽车检具方面的服务。</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr"/>
@@ -2913,7 +2898,7 @@
       </c>
       <c r="C53" s="2" t="inlineStr"/>
       <c r="D53" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
@@ -2926,12 +2911,16 @@
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>4.58</v>
+        <v>4.81</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>5.050000000000001</v>
-      </c>
-      <c r="I53" s="2" t="inlineStr"/>
+        <v>5.02</v>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
           <t>ST股 | 公司旗下控股子公司哆可梦以基于大数据精细化营销的流量经营业务和移动游戏的研发、发行及游戏平台的运营为主营业务</t>
@@ -2950,28 +2939,28 @@
       </c>
       <c r="C54" s="2" t="inlineStr"/>
       <c r="D54" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>sz000595</t>
+          <t>sz002305</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>*ST宝实</t>
+          <t>*ST南置</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>5.53</v>
+        <v>3.23</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>4.93</v>
+        <v>4.87</v>
       </c>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2022年8月12日公司在互动平台表示，公司全资子公司宁夏西北轴承装备制造有限公司承接业务涉及机器人立柱、行走轴加工业务。</t>
+          <t>ST股 | 公司是一家武汉市以商业地产为引导的综合性物业开发企业。</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr"/>
@@ -2987,28 +2976,29 @@
       </c>
       <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>sh600599</t>
+          <t>sh600696</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST熊猫 </t>
+          <t xml:space="preserve">*ST岩石 </t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>8.49</v>
+        <v>6.68</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>4.94</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司地处中国烟花之乡浏阳，经过3多年的发展已成为中国最大的出口鞭炮烟花公司。</t>
+          <t>ST股 | 1.公司主要从事商业保理、融资租赁、不动产运营管理和大宗商品贸易。
+2.公司持有江西章贡酒业有限责任公司25%股权。章贡酒业是全国白酒工业百强企业，江西省重点酿酒企业。</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr"/>
@@ -3024,28 +3014,28 @@
       </c>
       <c r="C56" s="2" t="inlineStr"/>
       <c r="D56" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>sz000929</t>
+          <t>sz002620</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>*ST兰黄</t>
+          <t>ST瑞和</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>8.76</v>
+        <v>5.57</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>5.04</v>
+        <v>5.09</v>
       </c>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 主营业务啤酒、麦芽、饮料的生产、加工与销售,主要产品“黄河”、“青海湖”系列啤酒和“黄河”麦芽等。</t>
+          <t>ST股 | 公司主要从事政府机构、房地产开发商、大型企业、高档酒店、交通枢纽、园林绿化等综合性专业化装饰设计、工程施工业务以及光伏电站运营、光伏项目施工安装等。</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr"/>
@@ -3053,284 +3043,233 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>-0.34</v>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
       <c r="D57" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>sh605188</t>
+          <t>sz000793</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>国光连锁</t>
+          <t>ST华闻</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>18.49</v>
+        <v>2.59</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t>7天4板</t>
-        </is>
-      </c>
+        <v>4.859999999999999</v>
+      </c>
+      <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>零售|公司自设立以来主要从事连锁超市、百货商场的运营业务。公司立足于江西省内，多年来通过深耕本地市场、持续推进门店升级转型，成为以生鲜、食品为核心品类的零售企业。</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>零售</t>
-        </is>
-      </c>
+          <t>ST股 | 地处海南省海口市，国广环球传媒控股旗下上市公司，主营传媒业务。</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>-0.34</v>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
+          <t>sz002231</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>*ST奥维</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司在军工业务方面坚持国产自主可控的发展方向，聚焦野战通信与单兵信息化系统领域，主要产品包括无线宽带传输系统、自主可控国产化设备等。</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>sh600777</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST新潮 </t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司在美国德克萨斯州拥有Hoople油田资产（常规油田）、Howard和Borden油田资产（页岩油藏）两处油田资产；公司主营业务为：石油及天然气的勘探、开采和销售。</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>sh600193</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST创兴 </t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 围绕算力服务业务，公司目前已在江苏苏州、浙江杭州、北京等地部署了算力资源池，主要用于机器视觉类应用和游戏项目的测试工作。</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>sh600381</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST春天 </t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 在大健康业务方面，公司已基本完成了涵盖保健食品、药品等冬虫夏草高效利用产品的储备和战略布局。</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
           <t>sh603177</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr">
         <is>
           <t>德创环保</t>
         </is>
       </c>
-      <c r="G58" s="2" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="H58" s="2" t="n">
+      <c r="G62" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H62" s="2" t="n">
         <v>10.02</v>
       </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
         <is>
           <t>环保+氢能|1.公司主营业务为大气治理业务、危废治理业务、钠电池正极材料业务。主要产品是烟气治理工程、脱硝催化剂、脱硫设备、除尘设备、废盐渣资源化利用处置、危险废物处理。
 2.2024年5月20日公司在互动易上表示，公司氢能项目千瓦级单电堆的放大测试有序进行中。</t>
         </is>
       </c>
-      <c r="K58" s="2" t="inlineStr">
+      <c r="K62" s="2" t="inlineStr">
         <is>
           <t>环保, 氢能</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr"/>
-      <c r="D59" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>sz000061</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>农 产 品</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>农产品批发|公司开创农产品批发市场“网络化”经营模式，形成国内最具规模的农产品批发市场网络体系。</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>农产品批发</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr"/>
-      <c r="D60" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>sz002053</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>云南能投</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="H60" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>绿电|公司主营业务包括风力发电、光伏发电以及食盐、工业盐、日化盐、芒硝等系列产品的生产销售，天然气管网建设、运营、天然气销售、入户安装服务</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="inlineStr">
-        <is>
-          <t>绿电</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr"/>
-      <c r="D61" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>sh603222</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>济民健康</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>医疗器械+细胞治疗|1.主要产品为各种品规的非PVC软袋大输液、塑料瓶大输液以及安全注射器、无菌注射器和输液器等产品。
-2.公司旗下博鳌国际医院拥有国内唯一一家通过日本国厚生省认证的国际再生医学实验室，建成了包括细胞存储、国际标准细胞制备、细胞治疗临床研究、干细胞与再生医学技术转化四大核心技术平台。</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t>医疗器械, 细胞治疗</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr"/>
-      <c r="D62" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>sz002842</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>翔鹭钨业</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>钨|公司一直专注于钨制品的开发、生产与销售，主要产品包括各种规格的氧化钨、钨粉、碳化钨粉、钨合金粉及钨硬质合金等。</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="inlineStr">
-        <is>
-          <t>钨</t>
         </is>
       </c>
     </row>
@@ -3347,33 +3286,37 @@
       </c>
       <c r="C63" s="2" t="inlineStr"/>
       <c r="D63" s="2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>sh603395</t>
+          <t>sh603948</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">红四方  </t>
+          <t>建业股份</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>39.16</v>
+        <v>29.17</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I63" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>次新+化肥|公司隶属于中盐集团，是专业从事复合肥和氮肥产品研发、生产、销售和服务的化肥生产企业，为中盐集团农肥业务板块的运营主体，入选国务院国资委“双百企业”名单。公司已形成以复合肥产品为主，并向上游氮肥产业延伸的完整的研发、生产、销售和农化服务体系。</t>
+          <t>半导体材料|公司主营产品之一的超纯氨是超净高纯电子化学品，是超大规模集成电路（即芯片）制作过程中的关键性基础化工材料之一。</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>次新, 化肥</t>
+          <t>半导体材料</t>
         </is>
       </c>
     </row>
@@ -3390,33 +3333,37 @@
       </c>
       <c r="C64" s="2" t="inlineStr"/>
       <c r="D64" s="2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>sz000831</t>
+          <t>sz002053</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>中国稀土</t>
+          <t>云南能投</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>53.02</v>
+        <v>14.99</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I64" s="2" t="inlineStr"/>
+        <v>9.98</v>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁|公司现为国内最大的南方离子型稀土分离加工企业之一，通过开采和外购稀土原料等方式进行分离加工，主导产品包括混合碳酸稀土、稀土氧化物混合精矿、高纯的单一稀土氧化物及稀土富集物等。</t>
+          <t>并购重组|云南能投公告称，公司董事会已通过议案，同意以自有资金收购全资子公司云南省盐业有限公司所持有的砚山公司100%股权，收购价款为砚山公司截至2024年12月31日经审计净资产账面净值570.89万元。本次交易不构成关联交易或重大资产重组，已获国资监管主体批准。</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>并购重组</t>
         </is>
       </c>
     </row>
@@ -3433,33 +3380,37 @@
       </c>
       <c r="C65" s="2" t="inlineStr"/>
       <c r="D65" s="2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>sz002423</t>
+          <t>sh600319</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>中粮资本</t>
+          <t>亚星化学</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>14.23</v>
+        <v>8.48</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I65" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>多元金融|中粮资本是中粮集团旗下运营管理金融业务的专业化公司，拥有信托、期货、保险、银行等多项业务的投资控股平台。</t>
+          <t>化工|公司主营氯化聚乙烯（CPE）、离子膜烧碱、水合肼、ADC发泡剂等高科技化学产品，同时从事新型化学材料的开发和研究，是目前世界上最主要的含氯聚合物研发生产企业。</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>多元金融</t>
+          <t>化工</t>
         </is>
       </c>
     </row>
@@ -3476,33 +3427,37 @@
       </c>
       <c r="C66" s="2" t="inlineStr"/>
       <c r="D66" s="2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>sz300491</t>
+          <t>sz300955</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>通合科技</t>
+          <t>嘉亨家化</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>36.5</v>
+        <v>31.85</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="I66" s="2" t="inlineStr"/>
+        <v>20.01</v>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>数据中心HVDC|数据中心HVDC产品是公司智能电网领域的主要产品之一。</t>
+          <t>日化|嘉亨家化公司专注于日化产品的OEM/ODM服务，涵盖护肤、洗护、香水等化妆品，以及香皂、消毒液、洗手液等家庭护理产品。公司通过一体化的研发、配制和灌装服务，为国内外知名品牌提供高效的产品解决方案。</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
-          <t>数据中心HVDC</t>
+          <t>日化</t>
         </is>
       </c>
     </row>
@@ -3519,31 +3474,466 @@
       </c>
       <c r="C67" s="2" t="inlineStr"/>
       <c r="D67" s="2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>sz002109</t>
+          <t>sh603595</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>兴化股份</t>
+          <t>东尼电子</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>4.11</v>
+        <v>23.35</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="I67" s="2" t="inlineStr"/>
+        <v>9.99</v>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>重组预期|2025年8月22日盘中讯，陕西省工业和信息化领域招标投标监管服务平台发布《兴化股份资产重组专项财务顾问服务》，招标公告招标人为兴化股份，招标范围包括对资产重组标的资产进行尽职调查，全面评估此次资产重组活动涉及的风险。</t>
+          <t>半导体+消费电子|1.公司完成以24元/股的价格定增募集4.68亿元用于年产12万片碳化硅半导体材料项目、年产1亿对新能源软包动力电池用极耳项目和补充流动资金。
+2.公司消费电子行业产品主要包括超微细电子线材、无线充电隔磁材料。</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>半导体, 消费电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr"/>
+      <c r="D68" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>sh603316</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>诚邦股份</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>定制+存储芯片扩产|诚邦股份公告称，公司拟以简易程序向特定对象发行股票，募集资金总额不超过1.29亿元，扣除相关发行费用后的募集资金净额将用于嵌入式存储芯片扩产项目、SSD高端化升级改造项目及补充流动资金。</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>定制, 存储芯片扩产</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>sh601333</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>广深铁路</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>获3.72亿补偿金|广深铁路公告称，为配合广州铁路枢纽新建站场及相关配套工程，公司拟处置京广铁路大朗站至棠溪站南场之间位于广州市白云区的既有资产，包括房屋建构筑物、铁路线路和设施设备，补偿金额为3.72亿元。</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>获3.72亿补偿金</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>sz002210</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>飞马国际</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>供应链管理|集商流、物流、资金流、信息流为一体的供应链管理服务平台，主要业务包括供应链管理服务和物流园经营服务。</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>供应链管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>sz000920</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>盐湖提锂|公司膜产品在盐湖提锂领域已实现成熟的应用，并承接了多个液体物料浓缩分离纯化的工程项目。</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>盐湖提锂</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr"/>
+      <c r="D72" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>sh605298</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>必得科技</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>高铁|公司主营中高速动车组列车、城轨列车等轨道交通车辆配套产品的研发、生产与销售，主要产品包括车辆通风系统、电缆保护系统和智能控制撒砂系统等系统化、系列化产品及其他轨道交通车辆配套产品。</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>高铁</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>sh600711</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>盛屯矿业</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="I73" s="2" t="inlineStr"/>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>钴|目前公司主营业务为钴材料业务、有色金属矿采选业务以及金属产业链增值业务，产业布局遍布北上广深、云贵川、内蒙、中国香港、新加坡、非洲等地。</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>钴</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr"/>
+      <c r="D74" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>sz002692</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>远程股份</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="I74" s="2" t="inlineStr"/>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>数据中心电缆|公司的电力电缆、控制电缆、防火电缆等产品可应用于数据中心领域。</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>数据中心电缆</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr"/>
+      <c r="D75" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>sh603381</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>永臻股份</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>光伏|公司主要从事绿色能源结构材料的研发、生产、销售及应用，已成为国内领先的铝合金光伏结构件制造商之一。</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>光伏</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>sh600846</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>同济科技</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>基建|公司全面深耕城镇建设和运营全产业链，工程咨询板块作为公司着力打造的核心业务板块，为工程建设项目决策和管理提供咨询活动的智力服务，包括规划咨询、项目建议书、预可行性研究、工程可行性研究、投资咨询、评估咨询、造价咨询、项目管理、工程监理、TIS等多项或全过程咨询服务。</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>基建</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>sz002989</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>中天精装</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>33.22</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>重组预期|公司间接持有科睿斯33.3784%的股权，公司实控人为东阳国资，科睿斯有东阳国资入股，或存在科睿斯资产注入上市公司预期。</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
         <is>
           <t>重组预期</t>
         </is>
@@ -3560,7 +3950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3592,7 +3982,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -3607,16 +3997,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sz002232</t>
+          <t>sh603177</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>启明信息</t>
+          <t>德创环保</t>
         </is>
       </c>
     </row>
@@ -3626,12 +4016,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sh603177</t>
+          <t>sh603948</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>德创环保</t>
+          <t>建业股份</t>
         </is>
       </c>
     </row>
@@ -3641,12 +4031,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sh605188</t>
+          <t>sz002053</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>国光连锁</t>
+          <t>云南能投</t>
         </is>
       </c>
     </row>
@@ -3656,12 +4046,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sz002195</t>
+          <t>sz002115</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>岩山科技</t>
+          <t>三维通信</t>
         </is>
       </c>
     </row>
@@ -3671,12 +4061,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sz301488</t>
+          <t>sz000831</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>豪恩汽电</t>
+          <t>中国稀土</t>
         </is>
       </c>
     </row>
@@ -3686,12 +4076,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sh603893</t>
+          <t>sh601869</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">瑞芯微  </t>
+          <t>长飞光纤</t>
         </is>
       </c>
     </row>
@@ -3701,12 +4091,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sh603068</t>
+          <t>sh603020</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>博通集成</t>
+          <t>爱普股份</t>
         </is>
       </c>
     </row>
@@ -3716,72 +4106,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sz301389</t>
+          <t>sz002256</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>隆扬电子</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>sz000061</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>农 产 品</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>sh603948</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>建业股份</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>sz002053</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>云南能投</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>sh603222</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>济民健康</t>
+          <t>兆新股份</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,15 +484,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="91" customWidth="1" min="3" max="3"/>
+    <col width="100" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="197" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
   </cols>
@@ -557,132 +557,128 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.03</v>
+        <v>-2.35</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>兆新股份4连板，山子高科4天3板点燃市场对低价股热情。</t>
+          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sz002256</t>
+          <t>sz002547</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>兆新股份</t>
+          <t>春兴精工</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.89</v>
+        <v>5.56</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>9.890000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>低价+业绩+RWA|1.公司已受邀成为香港数字资产上市公司联合会（HKVALA）的创始单位成员之一。该组织是由多家数字资产领域具代表性的上市公司、持牌金融机构、顶尖区块链与数字技术解决方案提供商、RWA项目方及专业服务机构共同发起社会团体。
-2.公司2025年1-6月实现营业收入2.08亿元，同比增长29.99%；归母净利润307.2万元，同比增长47.06%。</t>
+          <t>光伏+机器人|1.参股子公司中新春兴新能源电力（苏州）有限公司的业务包含建设光伏电站以及电站运营。
+2.公司凭借二十余年精密金属加工的经验与技术，以及集团公司的资源优势，克服了小批量多型号、结构复杂且精密等行业特性，成功开拓了机器人、自动化设备、安防、照明、航空、太阳能等领域的金属结构件的业务。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>低价, 业绩, RWA</t>
+          <t>光伏, 机器人</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.03</v>
+        <v>-2.35</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>兆新股份4连板，山子高科4天3板点燃市场对低价股热情。</t>
+          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sz000981</t>
+          <t>sh603275</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>山子高科</t>
+          <t>众辰科技</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.65</v>
+        <v>53.94</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr"/>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>低价+汽车+芯片|1.公司全资子公司南京邦奇拟与蔚然动力成立合资公司南京蔚邦，主要从事纯电动车变速器等新能源汽车零部件的研发、生产和销售。
-2.半导体业务中，公司下属企业普利赛思电子为半导体封装材料细分领域龙头企业康强电子第一大股东，康强电子主要从事半导体封装材料引线框架、键合丝等半导体封装材料的生产、销售。</t>
+          <t xml:space="preserve">机器人|公司多款伺服系统产品可应用于工业机器人领域。
+</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>低价, 汽车, 芯片</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.03</v>
+        <v>-2.35</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>兆新股份4连板，山子高科4天3板点燃市场对低价股热情。</t>
+          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sz002021</t>
+          <t>sz002067</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>中捷资源</t>
+          <t>景兴纸业</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.64</v>
+        <v>4.62</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>10</v>
@@ -690,595 +686,600 @@
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>低价+光伏|公司于2022年11月4日公告，全资子公司中捷科技拟与玉环交投能源有限公司签订《分布式屋顶光伏电站能源管理协议》，交投能源将利用中捷科技的建筑物屋顶建设光伏电站，所发电能优先供应中捷科技使用，中捷科技按当地公共电网同时段工业基准电价的80%跟交投能源结算，协议约定项目运营期限为25年。</t>
+          <t>参股宇树科技|公司全资子公司上海景兴通过参与容腾基金间接投资宇树科技，容腾基金对宇树科技的投资额为2000万元，持股比例为1.8044%。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>低价, 光伏</t>
+          <t>参股宇树科技</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.03</v>
+        <v>-2.35</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>兆新股份4连板，山子高科4天3板点燃市场对低价股热情。</t>
+          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sz000564</t>
+          <t>sh600376</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>供销大集</t>
+          <t>首开股份</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>9.84</v>
+        <v>9.85</v>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>零售+低价|实际控制人为中国供销集团有限公司。公司主营业务涵盖百货购物中心、商超连锁、商贸地产及供应链创新业务。</t>
+          <t>参股宇树科技|公司通过子公司首开盈信持有金石成长股权投资（杭州）合伙企业18.29%的股权，金石成长股权投资（杭州）合伙企业是杭州宇树科技的第六大股东，持有其4.62%的股权。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>零售, 低价</t>
+          <t>参股宇树科技</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.03</v>
+        <v>-2.35</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>兆新股份4连板，山子高科4天3板点燃市场对低价股热情。</t>
+          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sh600400</t>
+          <t>sz002514</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>红豆股份</t>
+          <t>宝馨科技</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.66</v>
+        <v>6.73</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>9.92</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>低价+机器人|参股无锡福芯机器人有限公司经营范围包含：服务消费机器人制造、智能机器人销售、人工智能硬件销售、智能机器人的研发、人工智能应用软件开发、人工智能行业应用系统集成服务、大数据服务等。</t>
+          <t>机器人|公司相关下属子公司主要从事智能作业机器人等设备的设计研发、生产制造及销售，可应用于农业、电气及自动化等。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>低价, 机器人</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.03</v>
+        <v>-2.35</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>兆新股份4连板，山子高科4天3板点燃市场对低价股热情。</t>
+          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sh600653</t>
+          <t>sz001380</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>申华控股</t>
+          <t>华纬科技</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.19</v>
+        <v>27.15</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10.05</v>
+        <v>10.01</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>低价+汽车后市场|公司汽车消费服务类业务可细分为三个部分，汽车销售服务业务、汽车文化产业园、汽车租赁业务等。</t>
+          <t>机器人|公司主要从事弹簧的研发、生产和销售，公司生产的阀类及异形弹簧应用领域非常广泛，涉及乘用车、商用车、轨道交通、机器人等多个行业领域。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>低价, 汽车后市场</t>
+          <t>机器人</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.03</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>兆新股份4连板，山子高科4天3板点燃市场对低价股热情。</t>
+          <t>今年上半年，国内多家头部储能企业迎来订单高峰，工厂进入满产状态。由于海外储能市场需求爆发式增长，部分企业甚至出现‘加价也排不了单’的情况，造成‘一芯难求’的局面。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sh600103</t>
+          <t>sz002150</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>青山纸业</t>
+          <t>通润装备</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.76</v>
+        <v>14.4</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>9.959999999999999</v>
+        <v>10.01</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>低价+光通信|子公司恒宝通提供从155Mb/s到400Gb/s的全系列产品，包括QSFP-DD、QSFP56、QSFP28、QSFP+、SFP+、SFP等，400G光模块处于产品优化和产线建设阶段，800G产品处于技术预研阶段。</t>
+          <t>储能|2022年9月2日公司在互动平台表示，我公司的产品是家用储能柜的金属外壳和钣金件。家用储能柜与光伏发电系统连接，主要用于家庭电力的储存和供给，为家庭带来绿色的清洁能源。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>低价, 光通信</t>
+          <t>储能</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.03</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>兆新股份4连板，山子高科4天3板点燃市场对低价股热情。</t>
+          <t>今年上半年，国内多家头部储能企业迎来订单高峰，工厂进入满产状态。由于海外储能市场需求爆发式增长，部分企业甚至出现‘加价也排不了单’的情况，造成‘一芯难求’的局面。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz000407</t>
+          <t>sz002796</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>胜利股份</t>
+          <t>世嘉科技</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.07</v>
+        <v>14.72</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>油气+低价|公司是国内最具实力的聚乙烯（PE）管道供应商之一，担当本公司、港华燃气、华润燃气、中国燃气、中石油昆仑燃气、新奥燃气、香港水务等大型公用事业公司的主要供应商。</t>
+          <t>储能|公司与阿诗特能源签署了《战略合作框架协议》，阿诗特能源自2021年11月1日起预测未来一年内向公司授予约2500台QQ柜的采购量，测算采购总金额预计为1.6亿元。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>油气, 低价</t>
+          <t>储能</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.89</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>马斯克表示，特斯拉未来约80%的企业价值将取决于其Optimus机器人项目的发展。他强调，该机器人有望在未来几年内实现大规模应用，并成为公司核心业务之一。</t>
+          <t>今年上半年，国内多家头部储能企业迎来订单高峰，工厂进入满产状态。由于海外储能市场需求爆发式增长，部分企业甚至出现‘加价也排不了单’的情况，造成‘一芯难求’的局面。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sh605288</t>
+          <t>sz300827</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>凯迪股份</t>
+          <t>上能电气</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>95.48</v>
+        <v>30.11</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>10天5板</t>
-        </is>
-      </c>
+        <v>20.01</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>光伏+机器人|1.公司生产的光伏支架产品已基本符合产业要求。
-2.公司主要产品为线性驱动系统，可以应用在机器人上。</t>
+          <t>逆变器|公司拥有集中式、集散式和组串式三种主要技术路线的光伏逆变器产品。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>光伏, 机器人</t>
+          <t>逆变器</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.89</v>
+        <v>-0.79</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>马斯克表示，特斯拉未来约80%的企业价值将取决于其Optimus机器人项目的发展。他强调，该机器人有望在未来几年内实现大规模应用，并成为公司核心业务之一。</t>
+          <t>中国汽车工程学会将于2025年9月10-11日在北京召开《固态电池材料评测用模具电池装配方法》等10项固态电池团体标准送审审查会及《硫化物全固态电池硫化氢产气量评价方法》等5项标准项目启动会。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sh603119</t>
+          <t>sh603051</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>浙江荣泰</t>
+          <t>鹿山新材</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>86.27</v>
+        <v>25.61</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2" t="inlineStr"/>
+        <v>10.01</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司已有产品通过直接或者间接的业务渠道向机器人的海外厂商供货或者进行相关产品的业务开发。</t>
+          <t>光伏+固态电池|1.公司太阳能电池封装胶膜主要用于光伏组件封装，主要产品包括透明EVA胶膜、白色EVA胶膜及POE胶膜等市场主流产品。
+2.公司开发了固态锂电池用硅碳负极功能粘结材料（PAA）。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>光伏, 固态电池</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.89</v>
+        <v>-0.79</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>马斯克表示，特斯拉未来约80%的企业价值将取决于其Optimus机器人项目的发展。他强调，该机器人有望在未来几年内实现大规模应用，并成为公司核心业务之一。</t>
+          <t>中国汽车工程学会将于2025年9月10-11日在北京召开《固态电池材料评测用模具电池装配方法》等10项固态电池团体标准送审审查会及《硫化物全固态电池硫化氢产气量评价方法》等5项标准项目启动会。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sh600592</t>
+          <t>sz300801</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>泰和科技</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>29</v>
+        <v>30.19</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>10.02</v>
+        <v>19.99</v>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>机器人+商业航天|1.公司的关节轴承是机器人的主要配套件。
-2.公司主营产品关节轴承主要应用于工程机械、载重汽车和航空航天等领域。</t>
+          <t>固态电池|公司的“硫化物固态电解质的制备及其产业化研究”项目处于中试阶段。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>机器人, 商业航天</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.89</v>
+        <v>-0.79</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>马斯克表示，特斯拉未来约80%的企业价值将取决于其Optimus机器人项目的发展。他强调，该机器人有望在未来几年内实现大规模应用，并成为公司核心业务之一。</t>
+          <t>中国汽车工程学会将于2025年9月10-11日在北京召开《固态电池材料评测用模具电池装配方法》等10项固态电池团体标准送审审查会及《硫化物全固态电池硫化氢产气量评价方法》等5项标准项目启动会。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sh603626</t>
+          <t>sh688411</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>科森科技</t>
+          <t>海博思创</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>17.84</v>
+        <v>148.08</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>9.99</v>
+        <v>20</v>
       </c>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>机器人+消费电子|1.公司不生产机器人产品，公司为某品牌家用机器人提供相关结构件。
-2.公司消费电子产品包括智能手机、笔记本电脑、平板电脑的外壳、中框、中板、按键、标志、转轴（铰链）等。</t>
+          <t>固态电池|公司持续研究固态电池应用于储能系统的技术，致力于实现储能系统的本质安全，已拥有成熟的项目经验，其中公司参与的浙江龙泉项目是全球首套原位固态化固态电池电网侧大规模储能电站项目。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>机器人, 消费电子</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>影视</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.89</v>
+        <v>-0.91</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>马斯克表示，特斯拉未来约80%的企业价值将取决于其Optimus机器人项目的发展。他强调，该机器人有望在未来几年内实现大规模应用，并成为公司核心业务之一。</t>
+          <t>根据国家电影局统计，2025年暑期档（6月1日至8月31日）电影票房为119.66亿元，观影人次为3.21亿，同比分别增长2.76%和12.75%，国产影片票房占比为76.21%，超过去年同档期。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sh601689</t>
+          <t>sh601929</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>拓普集团</t>
+          <t>吉视传媒</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>67.66</v>
+        <v>5.53</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2" t="inlineStr"/>
+        <v>9.94</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>汽车+机器人|1.为特斯拉Model3提供轻量化铝合金底盘结构件。
-2.公司积极布局机器人产业，运动执行器是机器人的核心部件之一。</t>
+          <t>影视|公司与长影集团一直保持合作关系并联合出品了电影《731》。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>汽车, 机器人</t>
+          <t>影视</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>影视</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.89</v>
+        <v>-0.91</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>马斯克表示，特斯拉未来约80%的企业价值将取决于其Optimus机器人项目的发展。他强调，该机器人有望在未来几年内实现大规模应用，并成为公司核心业务之一。</t>
+          <t>根据国家电影局统计，2025年暑期档（6月1日至8月31日）电影票房为119.66亿元，观影人次为3.21亿，同比分别增长2.76%和12.75%，国产影片票房占比为76.21%，超过去年同档期。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sz002347</t>
+          <t>sh600715</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>泰尔股份</t>
+          <t>文投控股</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.93</v>
+        <v>3.23</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I15" s="2" t="inlineStr"/>
+        <v>9.859999999999999</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司在工业智能领域围绕包装、厂内物流和无人仓储三类产品开展研发，包装机器人、拆带机器人、焊挂牌机器人、取样贴标机器人实现产品系列化，RGV、AGV、子母车等智能化厂内物流产品及铁心厂内物流系统（该系统包含 150 种、700 余套设备）已交付客户使用，完成无人仓储的调研工作并确定发展方向。</t>
+          <t>影视|影视业务系公司两大主营业务之一，涵盖影城运营管理、影视投资制作及发行等，在影视行业，公司已经具备了电影投资制作、发行、放映等相对完整的纵向产业链，横向拓展了电视剧、网剧投资制作业务，并在娱乐经纪业务有所布局。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>影视</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>影视</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.89</v>
+        <v>-0.91</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>马斯克表示，特斯拉未来约80%的企业价值将取决于其Optimus机器人项目的发展。他强调，该机器人有望在未来几年内实现大规模应用，并成为公司核心业务之一。</t>
+          <t>根据国家电影局统计，2025年暑期档（6月1日至8月31日）电影票房为119.66亿元，观影人次为3.21亿，同比分别增长2.76%和12.75%，国产影片票房占比为76.21%，超过去年同档期。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sz002031</t>
+          <t>sz002905</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>巨轮智能</t>
+          <t>金逸影视</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>8.9</v>
+        <v>10.52</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10.01</v>
+        <v>10.04</v>
       </c>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>机器人|巨轮智能在互动平台表示，公司最新研发的可适用于人形机器人的XT减速器产品，根据试制产品的初步研究，可以为人形机器人做到大幅度减轻重量，同时提供超长寿命以及刚性和超载能力，解决了某些减速器在人形机器人遇到冲击力时会滑齿的问题。</t>
+          <t>影视|公司是国内具有领先优势且极具发展潜力的影视传媒集团，主营业务涵盖院线发行、电影放映及相关衍生业务、影视制作投资。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>影视</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>固态电池</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.48</v>
+        <v>-1.28</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>近期固态电池资本运作密集。8月27日，华域汽车公告，公司拟以2.06亿元收购上汽集团持有的上海上汽清陶能源科技有限公司49%股权。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sh603032</t>
+          <t>sz002975</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>德新科技</t>
+          <t>博杰股份</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>24.88</v>
+        <v>63.89</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>9.99</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
@@ -1287,627 +1288,572 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>固态电池+机器人|1.公司从2021年起向清陶供应模具产品，用于固态电池的生产。
-2.孙公司广东致锋致力于将精密加工技术应用场景拟扩展至精密挤压涂布模头，机器人、光学等新的领域。</t>
+          <t>阿里+液冷+机器人|1.公司主营业务为自动化测试和组装相关设备，可以提供PC、大数据云服务器、存储服务器等的测试，公司服务的服务器厂商包括戴尔、亚马逊、微软、英伟达、思科等国际知名厂商，以及紫光、浪潮、阿里巴巴、腾讯等国内头部厂商。
+2.公司持续为海外大客户提供AI服务器测试设备，在测试设备中已植入自研液冷散热方案，并积累了相关技术储备和解决方案。
+3.公司测试类产品可以用于机器人。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>固态电池, 机器人</t>
+          <t>阿里, 液冷, 机器人</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>固态电池</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.48</v>
+        <v>-1.28</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>近期固态电池资本运作密集。8月27日，华域汽车公告，公司拟以2.06亿元收购上汽集团持有的上海上汽清陶能源科技有限公司49%股权。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sz002846</t>
+          <t>sz002158</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>英联股份</t>
+          <t>汉钟精机</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>20.15</v>
+        <v>26.62</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>固态电池|公司的复合铝箔、复合铜箔可以应用于固态电池。</t>
+          <t>液冷IDC|公司离心式和磁悬浮离心式压缩机产品可应用于数据中心等行业的“液冷技术”相关领域。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>固态电池</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>固态电池</t>
+          <t>液冷IDC</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.48</v>
+        <v>-1.28</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>近期固态电池资本运作密集。8月27日，华域汽车公告，公司拟以2.06亿元收购上汽集团持有的上海上汽清陶能源科技有限公司49%股权。</t>
+          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sh603051</t>
+          <t>sz002871</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>鹿山新材</t>
+          <t>伟隆股份</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>23.28</v>
+        <v>18.39</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>10.02</v>
+        <v>9.99</v>
       </c>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>光伏胶膜+固态电池|1.公司太阳能电池封装胶膜主要用于光伏组件封装，主要产品包括透明EVA胶膜、白色EVA胶膜及POE胶膜等市场主流产品。
-2.公司开发了固态锂电池用硅碳负极功能粘结材料（PAA）。</t>
+          <t>液冷IDC|公司数据中心领域产品主要用于冷却塔、管路以及CDU。公司已向微软等国际知名公司的数据中心项目进行供货。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>光伏胶膜, 固态电池</t>
+          <t>液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>固态电池</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.12</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>近期固态电池资本运作密集。8月27日，华域汽车公告，公司拟以2.06亿元收购上汽集团持有的上海上汽清陶能源科技有限公司49%股权。</t>
+          <t>近日，国务院国资委与中国科学院联合举办中央企业生物科技产业高级研修班。要求加快发展中央企业生物医药产业，加快打造生物医药领域的国家队，推动我国生物医药产业高质量发展。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sz002263</t>
+          <t>sh603367</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>大东南</t>
+          <t>辰欣药业</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.03</v>
+        <v>26.9</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>10.11</v>
+        <v>10.02</v>
       </c>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>固态电池+低价|公司铝塑膜已能生产固态电池软包。</t>
+          <t>创新药|大输液+高端制剂+低价药。公司开发了首仿溴芬酸钠、右美托咪定等10 多个独家PP 安瓿、海外ANDA 制剂。创新药方面，已有1 类抗肿瘤药和降糖药获批临床，抗结核药临床获批在即，未来仍将继续加码创新药研发以丰富研发管线。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>固态电池, 低价</t>
+          <t>创新药</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>工业母机</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.07</v>
+        <v>-0.12</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>《工业母机高质量标准体系建设方案》印发，到2030年，适应工业母机产业高质量发展的标准体系全面形成。</t>
+          <t>近日，国务院国资委与中国科学院联合举办中央企业生物科技产业高级研修班。要求加快发展中央企业生物医药产业，加快打造生物医药领域的国家队，推动我国生物医药产业高质量发展。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sz002248</t>
+          <t>sh600079</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>华东数控</t>
+          <t>人福医药</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>11.31</v>
+        <v>22.57</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>10.02</v>
+        <v>9.99</v>
       </c>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>工业母机|公司是中国机床行业生产、销售数控龙门导轨磨床数量最多、规模最大的机床制造企业，以研发和生产经营数控机床、普通机床及其关键功能部件为主营业务，产品有数控龙门铣床（龙门加工中心）、数控龙门磨床、数控外圆磨床、万能摇臂铣床、平面磨床、动静压主轴等机床和功能部件产品。</t>
+          <t>创新药|公司坚定创新驱动发展之路，主要围绕麻醉药、神经系统用药、甾体激素类药物、维吾尔药、呼吸系统用药、抗肿瘤药物、自身免疫性疾病用药等细分领域布局创新药及高端仿制药。公司1、2类创新药项目60多个，各项目均在有序推进中。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>工业母机</t>
+          <t>创新药</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>工业母机</t>
+          <t>纺织服装</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.07</v>
+        <v>-1.1</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>《工业母机高质量标准体系建设方案》印发，到2030年，适应工业母机产业高质量发展的标准体系全面形成。</t>
+          <t>印度是全球第二大棉花生产国，也是第六大纺织品出口国。此前，印度曾宣布将豁免11%的棉花进口关税至9月底。而如今，印度又将豁免期延长至12月31日。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>838670.BJ</t>
+          <t>sh603839</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>恒进感应</t>
+          <t>安正时尚</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>24.79</v>
+        <v>9.48</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="I22" s="2" t="inlineStr"/>
+        <v>9.98</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>工业母机|公司是一家从事中高档数控感应热处理成套设备及其关键功能部件的研发、生产、销售和技术服务的高新技术企业，以中高档数控感应淬火机床作为核心产品，为下游客户提供高效、智能、稳定和节能的感应热处理设备及全自动热处理整体解决方案。</t>
+          <t>纺织+电商|1.主营为中高档自主品牌时装的研发、生产和销售,主要包括“玖姿”、“尹默”、“摩萨克”和“斐娜晨”四个中高档女装品牌和“安正”商务时尚男装品牌。
+2.控股子公司礼尚信息是国内专业从事电子商务代运营业务的头部服务商之一，帮助海内外母婴、食品保健、运动户外、宠粮家居等行业知名品牌在国内电商全渠道实现快速增长。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>工业母机</t>
+          <t>纺织, 电商</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>工业母机</t>
+          <t>纺织服装</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.07</v>
+        <v>-1.1</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>《工业母机高质量标准体系建设方案》印发，到2030年，适应工业母机产业高质量发展的标准体系全面形成。</t>
+          <t>印度是全球第二大棉花生产国，也是第六大纺织品出口国。此前，印度曾宣布将豁免11%的棉花进口关税至9月底。而如今，印度又将豁免期延长至12月31日。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sz000837</t>
+          <t>sz002269</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>秦川机床</t>
+          <t>美邦服饰</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>13.95</v>
+        <v>2.41</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>10.02</v>
+        <v>10.05</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>工业母机+机器人|1.公司是中国机床工具行业的龙头企业，规模位列前三，是中国精密数控机床与复杂工具研发制造基地，拥有秦川机床、宝鸡机床、汉江机床、汉江工具、美国拉削系统公司等多家企业。
-2.公司的机器人关节减速器产品在国内位居前列。</t>
+          <t>纺织+IP经济|1.拥有Meters/bonwe以及ME&amp;CITY品牌。美邦主品牌由单一休闲风格细分为五大风格，加强购物中心及其他新兴渠道合作及供应链优化。
+2.公司长期致力于休闲服饰领域，持续和迪士尼等适合年轻人需求的ip产品合作开发。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>工业母机, 机器人</t>
+          <t>纺织, IP经济</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-1.12</v>
+        <v>-1.03</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>据SMM光伏快讯消息，国内头部多晶硅企业报价上调，其中棒状硅主流报价上涨至55元/千克，颗粒硅报价49元/千克。</t>
+          <t>英伟达否认H100/H200芯片短缺传闻，表示近日关于H100/H200芯片“供应受限”和“售罄”的传言均属不实信息。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>sh601908</t>
+          <t>sh601869</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">京运通  </t>
+          <t>长飞光纤</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.24</v>
+        <v>91.06</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="I24" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8天5板</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>光伏+稀土|1.公司主营光伏设备（单晶硅生长炉、多晶硅铸锭炉）、多晶硅锭及硅片、光伏电站（地面光伏发电及分布式光伏发电）。
-2.公司于2016年与北方稀土成立合资公司从事稀土基脱硝催化剂的研发、生产、销售，北方稀土持股45%、京运通间接持股35%。</t>
+          <t>光模块+空芯光纤|1.子公司博创科技10G PON OLT 光模块出货量国内领先，在数通市场，已向多家国内外互联网客户批量供货25G 至400G 速率的中短距光模块、有源光缆和高速铜缆。
+2.空芯光纤作为行业前沿产品，其应用目前仍处于早期阶段，尚未形成规模销售、尚未形成稳定的价格及利润水平，而后续业务发展也有待于产业链的进一步成熟。目前，空芯光纤相关业务尚未对公司财务数据产生明显影响。</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>光伏, 稀土</t>
+          <t>光模块, 空芯光纤</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>芯片产业链</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-1.12</v>
+        <v>-1.31</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>据SMM光伏快讯消息，国内头部多晶硅企业报价上调，其中棒状硅主流报价上涨至55元/千克，颗粒硅报价49元/千克。</t>
+          <t>国内半导体装备企业新凯来宣布，将参加第十三届半导体设备与核心部件及材料展（CSEAC 2025）。本届展会将于9月4日至6日在无锡太湖国际博览中心举行。</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>sz002547</t>
+          <t>sh603163</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>春兴精工</t>
+          <t>圣晖集成</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5.05</v>
+        <v>44.77</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>光伏+机器人|1.参股子公司中新春兴新能源电力（苏州）有限公司的业务包含建设光伏电站以及电站运营。
-2.公司凭借二十余年精密金属加工的经验与技术，以及集团公司的资源优势，克服了小批量多型号、结构复杂且精密等行业特性，成功开拓了机器人、自动化设备、安防、照明、航空、太阳能等领域的金属结构件的业务。</t>
+          <t>洁净室系统集成|公司系为先进制造业提供洁净室系统集成工程整体解决方案的一站式专业服务商，涵盖洁净室厂房建造规划、设计建议等相关服务。</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>光伏, 机器人</t>
+          <t>洁净室系统集成</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>光伏</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-1.12</v>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>据SMM光伏快讯消息，国内头部多晶硅企业报价上调，其中棒状硅主流报价上涨至55元/千克，颗粒硅报价49元/千克。</t>
-        </is>
-      </c>
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sh600475</t>
+          <t>sh600358</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>华光环能</t>
+          <t xml:space="preserve">ST联合  </t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>23.86</v>
+        <v>5.65</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>10</v>
+        <v>5.02</v>
       </c>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>光伏+电力|1.子公司中设国联拥有光伏开发运营能力，能够提供专业的光伏发电服务和系统解决方案，截至2024年年报，开发运营有325MW光伏项目，区域覆盖江苏、安徽、山东、浙江、江西、广东等多省市地区。
-2.公司是无锡地区的热电运营龙头，公司占无锡市区热电联产供热市场的70%左右。</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>光伏, 电力</t>
-        </is>
-      </c>
+          <t>ST股 | 子公司新线中视核心团队深耕ACG文化多年，凭借对Z时代人群的文化消费认知，立足游戏行业，通过产出具有传播价值的创意内容打动头部游戏发行客户，立足B站花火、抖音星图、快手聚星、小红书、微博搭建了丰富的自媒体资源库，形成了独特的内容营销壁垒。</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>黄金概念</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>受美联储降息预期刺激，贵金属相关期货近期连续上涨，其中COMEX黄金、白银主连均创历史新高。</t>
-        </is>
-      </c>
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sh601212</t>
+          <t>sh603843</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>白银有色</t>
+          <t xml:space="preserve">*ST正平 </t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.26</v>
+        <v>2.78</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>4.91</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>铜+贵金属|公司的主营业务为铜、铅、锌、金、银等多种有色及稀贵金属的采选、冶炼、加工及贸易，业务覆盖有色金属勘探、采矿、选矿、冶炼、加工于一体的全产业链，海外子公司黄金总资源量1220吨。</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>铜, 贵金属</t>
-        </is>
-      </c>
+          <t>ST股 | 2025年2月21日公司官微披露，旗下正平智算参加海东市绿色算力产业集中签约暨推介活动并签订算电协同产业园框架协议。</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>黄金概念</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>受美联储降息预期刺激，贵金属相关期货近期连续上涨，其中COMEX黄金、白银主连均创历史新高。</t>
-        </is>
-      </c>
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sh601069</t>
+          <t>sz000908</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>西部黄金</t>
+          <t>ST景峰</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>24.1</v>
+        <v>5.5</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>4.96</v>
+      </c>
+      <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>黄金+业绩|1.公司主营业务为黄金采选及冶炼，同时从事铬矿石的开采。公司主要产品包括黄金、铬矿石、铁矿石，其中黄金是公司最主要的产品和最主要收入来源。
-2.8月28日，西部黄金股份有限公司发布2025年半年度报告。报告期内，公司实现营业收入50.30亿元，同比增长69.01%；归属于上市公司股东的净利润1.54亿元，同比增长131.94%。</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>黄金, 业绩</t>
-        </is>
-      </c>
+          <t>ST股 | 公司专注医药健康产业，涉足药品研发、生产、销售等领域，产品涵盖了心脑血管、抗肿瘤、骨科、妇儿等用药领域。</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-3.95</v>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>截至今年6月底，我国在用算力中心机架总规模达1085万标准机架，智能算力规模达788百亿亿次/秒（EFLOPS）；存力规模超过1680艾字节（EB），相比2023年增长约40%。</t>
-        </is>
-      </c>
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sh605255</t>
+          <t>sz002762</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>天普股份</t>
+          <t>*ST金比</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>57.1</v>
+        <v>7.14</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>8天8板</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>中昊芯英入股</t>
-        </is>
-      </c>
+          <t>ST股 | 公司是国内较早专门从事中高端母婴消费品的设计、研发、生产及销售的企业之一，是国内知名的母婴消费品品牌运营商。</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>算力工程</t>
+          <t>ST股</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-3.95</v>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>截至今年6月底，我国在用算力中心机架总规模达1085万标准机架，智能算力规模达788百亿亿次/秒（EFLOPS）；存力规模超过1680艾字节（EB），相比2023年增长约40%。</t>
-        </is>
-      </c>
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr"/>
       <c r="D30" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sz002975</t>
+          <t>sh600243</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>博杰股份</t>
+          <t xml:space="preserve">*ST海华 </t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>58.08</v>
+        <v>4.77</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>5.07</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>阿里+算力+液冷|1.公司主营业务为自动化测试和组装相关设备，可以提供PC、大数据云服务器、存储服务器等的测试，公司服务的服务器厂商包括戴尔、亚马逊、微软、英伟达、思科等国际知名厂商，以及紫光、浪潮、阿里巴巴、腾讯等国内头部厂商。
-2.公司持续为海外大客户提供AI服务器测试设备，在测试设备中已植入自研液冷散热方案，并积累了相关技术储备和解决方案。</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>阿里, 算力, 液冷</t>
-        </is>
-      </c>
+          <t>ST股 | 青海华鼎与源鑫隆昌、茫崖源鑫签署增资协议，约定青海华鼎以现金增资5083.88万元取得茫崖源鑫51%的股权。上市公司称，茫崖源鑫所处的天然气行业具有良好的发展前景。</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -1916,36 +1862,33 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.7100000000000001</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
       <c r="D31" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sh600107</t>
+          <t>sh603389</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ST尔雅  </t>
+          <t xml:space="preserve">*ST亚振 </t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>6.6</v>
+        <v>25.91</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>14天10板</t>
-        </is>
-      </c>
+        <v>4.98</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司的主营业务为服装、服饰和纺织品研发、设计、制造和销售。</t>
+          <t>ST股 | 1.欧式家具龙头，以沙发和橱柜作为核心业务，主导产品为“亚振”、“亚振·利维亚”和“亚振·乔治亚”品牌系列欧式风格家具。
+2.公司入选“2022年度上海市首发经济引领性品牌”榜单。</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr"/>
@@ -1953,11 +1896,13 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>-0.7100000000000001</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="2" t="n">
@@ -1965,40 +1910,46 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sz000972</t>
+          <t>sh605255</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>*ST中基</t>
+          <t>天普股份</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.9</v>
+        <v>62.81</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>4.93</v>
+        <v>10</v>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>12天6板</t>
+          <t>9天9板</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司依托新疆得天独厚的地域和自然优势，致力于发展番茄“红色产业”，产业规模居于前列，产品行销世界数十国家和地区，是全球主要食品企业长期、固定的原料供应商。</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
+          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>中昊芯英入股</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>-0.7100000000000001</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
       <c r="D33" s="2" t="n">
@@ -2006,40 +1957,47 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sz002058</t>
+          <t>sh601069</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>*ST威尔</t>
+          <t>西部黄金</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>18.49</v>
+        <v>26.51</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6天5板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司控股子公司紫燕机械下属的紫燕模具为特斯拉提供汽车检具方面的服务。</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr"/>
+          <t>黄金+业绩|1.公司主营业务为黄金采选及冶炼，同时从事铬矿石的开采。公司主要产品包括黄金、铬矿石、铁矿石，其中黄金是公司最主要的产品和最主要收入来源。
+2.8月28日，西部黄金股份有限公司发布2025年半年度报告。报告期内，公司实现营业收入50.30亿元，同比增长69.01%；归属于上市公司股东的净利润1.54亿元，同比增长131.94%。</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>黄金, 业绩</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>-0.7100000000000001</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
       <c r="D34" s="2" t="n">
@@ -2047,40 +2005,46 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>sz002620</t>
+          <t>837174.BJ</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>宏裕包材</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>6.14</v>
+        <v>48.41</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>4.96</v>
+        <v>29.99</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>8天5板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司主要从事政府机构、房地产开发商、大型企业、高档酒店、交通枢纽、园林绿化等综合性专业化装饰设计、工程施工业务以及光伏电站运营、光伏项目施工安装等。</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr"/>
+          <t>锂电池|公司与华中科技大学签署了合作开发协议，双方将在“锂离子电池聚烯烃基高性能隔膜设计及优化研究”领域进行共同开发。</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>锂电池</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>-0.7100000000000001</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
       <c r="D35" s="2" t="n">
@@ -2088,40 +2052,47 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>sh600381</t>
+          <t>sz300092</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST春天 </t>
+          <t>科新机电</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>5.48</v>
+        <v>19.61</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>4.98</v>
+        <v>20.01</v>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 在大健康业务方面，公司已基本完成了涵盖保健食品、药品等冬虫夏草高效利用产品的储备和战略布局。</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr"/>
+          <t>核电+军工|1.公司生产的产品种类多，覆盖重型压力容器、核电和核化工设备、常规电站辅机设备和管系设备等，能广泛应于石油、化工、电力、新能源、核电等多个领域。
+2.公司军工业务主要是军工核安全设备。</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>核电, 军工</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>-0.7100000000000001</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
       <c r="D36" s="2" t="n">
@@ -2129,19 +2100,19 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sz002816</t>
+          <t>sz002021</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>*ST和科</t>
+          <t>中捷资源</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>18.15</v>
+        <v>2.9</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>4.97</v>
+        <v>9.85</v>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
@@ -2150,19 +2121,25 @@
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 和科达半导体专注于半导体专用设备的研发、生产和销售，为半导体先进封装及前道制程的方案解决供应商。主要产品涵盖晶圆清洗设备、匀胶显影设备、无掩膜光刻机、微影光刻机和晶圆去胶机等。</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr"/>
+          <t>实控人变更|2025年8月26日公告，玉环市国资集团完成受让第一大股东10.84%股份过户，公司第大股东变更为玉环国投。</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>实控人变更</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>-0.7100000000000001</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="n">
@@ -2170,41 +2147,46 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sz002211</t>
+          <t>sh600721</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>ST宏达</t>
+          <t>百花医药</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>3.59</v>
+        <v>10.42</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>4.97</v>
+        <v>10.03</v>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.公司主营业务主要分为硅橡胶及其制品的加工销售、专网通信设备的加工、组装、检测及销售业务等。
-2.公司目前于量子领域在产的产品有量子随机数发生器，其可基于量子物理原理产生随机数，可应用于量子通信、量子信息、传统信息安全、密码学、蒙特卡洛模拟、数值计算、随机抽样、神经网络计算等。</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr"/>
+          <t>CRO|公司主营业务为药物发现、研究、技术服务，提供从药物发现、CMC、临床CRO、药品注册、CMO/API供应等新药开发全流程的服务及一体化的解决方案。</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>CRO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>-0.7100000000000001</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
       <c r="D38" s="2" t="n">
@@ -2212,36 +2194,46 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sz002742</t>
+          <t>sh600545</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>*ST三圣</t>
+          <t>卓郎智能</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>4.74</v>
+        <v>3.17</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I38" s="2" t="inlineStr"/>
+        <v>10.07</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司全资子公司辽源市百康药业有限责任公司对乙酰氨基酚的产能是5000吨/年，现在处于满产满销的状态。</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr"/>
+          <t>PCB|2025年6月28日公司官微透露，公司与国际复材签订了加捻事业部史上最大额玻璃纤维捻线机订单。玻纤凭借其低介电常数等特性，已成为制造高频高速PCB与高性能芯片封装材料的不二之选。</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>-0.7100000000000001</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
       <c r="D39" s="2" t="n">
@@ -2249,36 +2241,43 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sz000609</t>
+          <t>sh600697</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>ST中迪</t>
+          <t>欧亚集团</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>4.5</v>
+        <v>14.12</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>4.9</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司房地产项目位于重庆、成都、达州，重庆的“两江中迪广场”主要为商业项目。</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr"/>
+          <t>零售+旅游|1.公司为商贸企业，全渠道营销，以实体零售经营为主，覆盖现代百货、商业综合体、商超连锁等业态模式，形成了不同发展阶段的门店梯次。
+2.长春欧亚神龙湾旅游有限责任公司是公司控股子公司长春欧亚卖场有限责任公司参股的联营企业，其经营范围为：旅游项目及旅游纪念品和旅游环保产品的开发；旅游基础设施建设和经营。</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>零售, 旅游</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>-0.7100000000000001</v>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="2" t="n">
@@ -2286,27 +2285,31 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sh600200</t>
+          <t>sz300277</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST苏吴 </t>
+          <t>海联讯</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1.09</v>
+        <v>15.46</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>4.81</v>
+        <v>20.03</v>
       </c>
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2024年3月25日全资子公司吴中美学以上海整形科技周为契机，特邀先锋医者共同见证中国大陆地区首款进口童颜针AestheFill®。</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr"/>
+          <t>并购重组|公司于2024年11月公告，拟以向杭汽轮全体换股股东发行A股股票的方式换股吸收合并杭汽轮。海联讯为吸收合并方，杭汽轮为被吸收合并方。</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>并购重组</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2321,652 +2324,33 @@
       </c>
       <c r="C41" s="2" t="inlineStr"/>
       <c r="D41" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>sh600021</t>
+          <t>870726.BJ</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>上海电力</t>
+          <t>鸿智科技</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>18.52</v>
+        <v>23.27</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>重组预期|电投国际与上海电力关系紧密，二者均为国家电投旗下企业，电投国际整合了国家电投的海外资源，上海电力是国家电投控股的上市公司，也是集团国际化的主要平台之一。</t>
+          <t>家电|公司主营业务是电饭煲、慢炖锅、压力锅及烘烤产品等小家电产品的研发、生产和销售。主要产品和服务为电饭煲、慢炖煲、压力锅、电热产品、烘烤产品。</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>重组预期</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>sh603257</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>中国瑞林</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>66.53</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>有色资源开发|在铜、钴资源开发上，公司在全球铜冶炼领域保持技术优势，承接设计了多个标志性项目，如非洲刚果（金）的卡莫阿铜冶炼厂和洛钼集团Tenke Fungurume铜钴矿项目。</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>有色资源开发</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>sz000661</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>长春高新</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>124.71</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>创新药|公司依托前沿的生物制剂/小分子/siRNA/mRNA/细胞与基因治疗等多模态融合技术、多靶点药物与联合疗法、无缝连接临床试验，打造了多领域、差异化、高潜力创新管线布局；在药物研发领域打造了包括蛋白药物长效技术平台、ADC药物技术平台、抗体发现技术平台等多个研发创新技术平台。</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>创新药</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>837174.BJ</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>宏裕包材</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>37.24</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>29.98</v>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>锂电隔膜|公司与华中科技大学签署了合作开发协议，双方将在“锂离子电池聚烯烃基高性能隔膜设计及优化研究”领域进行共同开发。</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>锂电隔膜</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>sh600724</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>宁波富达</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>重组预期|宁波国资持有比例最高的上市公司，市场预期宁波国资有动力将旗下最优质资产荣芯半导体注入。</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>重组预期</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>sz300092</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>科新机电</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>19.97</v>
-      </c>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>氢能|公司正在有序推进的研发项目有固态储氢工程技术、静态氢压缩机开发、固体（低压）储氢加氢等。</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>氢能</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>sh603709</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>中源家居</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>9.969999999999999</v>
-      </c>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>家居|公司主要从事沙发等家具产品的研究、设计、生产和销售服务，产品主要包括手动功能沙发、电动功能沙发、扶手推背沙发、老人椅等功能性沙发，固定沙发及板式家具等。</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>家居</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>sh603815</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>交建股份</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>基建|公司拥有公路工程施工总承包特级资质、市政公用工程施工总承包壹级资质，同时还拥有桥梁、隧道、路基、路面等专项资质。</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>基建</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>sh603033</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>三维股份</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>化工|公司以精细化工新材料一体化产业链为主业，目前主要产品为BDO（电石完全自给）。未来公司将进一步向上游拓展兰炭等产品，实现原料供给一体化，向下游拓展高端聚醚材料PTMEG、可降解塑料PBAT、电子化学品NMP等产品，产品线涵盖精细化工基础原料、生物降解材料、化工新材料等。</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>化工</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr"/>
-      <c r="D50" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>sh603239</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>浙江仙通</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>汽车零部件|公司的主要产品为汽车密封条，主要包括前车门框密封条、门上密封条、背门框密封条、车门外水切、风挡外饰胶条、三角窗玻璃密封条、行李箱密封条、天窗密封条、车顶饰条、车门玻璃导槽等。</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr"/>
-      <c r="D51" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>sz002679</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>福建+林业|公司主营业务为森林培育营造，森林保有管护，木材生产销售，林业服务。</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>福建, 林业</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
-      <c r="D52" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>sh605055</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>迎丰股份</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>纺织|公司主要从事纺织品的印染加工业务，主要包括针织面料印染和梭织面料印染两大系列。</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>纺织</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr"/>
-      <c r="D53" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>sh603839</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>安正时尚</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>9.950000000000001</v>
-      </c>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>纺织+电商|1.主营为中高档自主品牌时装的研发、生产和销售,主要包括“玖姿”、“尹默”、“摩萨克”和“斐娜晨”四个中高档女装品牌和“安正”商务时尚男装品牌。
-2.控股子公司礼尚信息是国内专业从事电子商务代运营业务的头部服务商之一，帮助海内外母婴、食品保健、运动户外、宠粮家居等行业知名品牌在国内电商全渠道实现快速增长。</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>纺织, 电商</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr"/>
-      <c r="D54" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>sh603179</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>新泉股份</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>55.33</v>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>汽车|公司是汽车饰件整体解决方案提供商，拥有较为完善的汽车饰件产品系列，主要产品包括仪表板总成、顶置文件柜总成、门内护板总成、立柱护板总成、流水槽盖板总成和保险杠总成等。</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>汽车</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr"/>
-      <c r="D55" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>sh603090</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>宏盛股份</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>39.75</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>液冷IDC|公司掌握液冷散热技术，能够为多种场景提供解决方案，同时，公司与苏州和信精密科技股份有限公司合资成立了无锡和宏智散热科技有限公司，和信精密是行业内领先的数据中心设备供应商，双方通过设立合资公司的形式，拓展数据中心环境温度控制业务。</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>液冷IDC</t>
+          <t>家电</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,7 +2397,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -3028,16 +2412,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sz002256</t>
+          <t>sz002975</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>兆新股份</t>
+          <t>博杰股份</t>
         </is>
       </c>
     </row>
@@ -3047,12 +2431,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sh605288</t>
+          <t>sh601069</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>凯迪股份</t>
+          <t>西部黄金</t>
         </is>
       </c>
     </row>
@@ -3062,12 +2446,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sh603032</t>
+          <t>837174.BJ</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>德新科技</t>
+          <t>宏裕包材</t>
         </is>
       </c>
     </row>
@@ -3077,12 +2461,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sz002975</t>
+          <t>sz002547</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>博杰股份</t>
+          <t>春兴精工</t>
         </is>
       </c>
     </row>
@@ -3092,12 +2476,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sh601069</t>
+          <t>sz300092</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>西部黄金</t>
+          <t>科新机电</t>
         </is>
       </c>
     </row>
@@ -3107,12 +2491,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sh601212</t>
+          <t>sh603839</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>白银有色</t>
+          <t>安正时尚</t>
         </is>
       </c>
     </row>
@@ -3122,12 +2506,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sz002846</t>
+          <t>sz002021</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>英联股份</t>
+          <t>中捷资源</t>
         </is>
       </c>
     </row>
@@ -3137,72 +2521,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sz000661</t>
+          <t>sh603051</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>长春高新</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>837174.BJ</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>宏裕包材</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>sz000981</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>山子高科</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>sh603257</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>中国瑞林</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>sh600021</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>上海电力</t>
+          <t>鹿山新材</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="100" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="94" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="197" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="169" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,15 +557,15 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-2.35</v>
+        <v>3.09</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
+          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -573,19 +573,19 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sz002547</t>
+          <t>sh600697</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>春兴精工</t>
+          <t>欧亚集团</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.56</v>
+        <v>15.53</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>10.1</v>
+        <v>9.99</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
@@ -594,28 +594,28 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>光伏+机器人|1.参股子公司中新春兴新能源电力（苏州）有限公司的业务包含建设光伏电站以及电站运营。
-2.公司凭借二十余年精密金属加工的经验与技术，以及集团公司的资源优势，克服了小批量多型号、结构复杂且精密等行业特性，成功开拓了机器人、自动化设备、安防、照明、航空、太阳能等领域的金属结构件的业务。</t>
+          <t>零售+旅游|1.公司为商贸企业，全渠道营销，以实体零售经营为主，覆盖现代百货、商业综合体、商超连锁等业态模式，形成了不同发展阶段的门店梯次。
+2.长春欧亚神龙湾旅游有限责任公司是公司控股子公司长春欧亚卖场有限责任公司参股的联营企业，其经营范围为：旅游项目及旅游纪念品和旅游环保产品的开发；旅游基础设施建设和经营。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>光伏, 机器人</t>
+          <t>零售, 旅游</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-2.35</v>
+        <v>3.09</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
+          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -623,45 +623,48 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sh603275</t>
+          <t>sh603101</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>众辰科技</t>
+          <t>汇嘉时代</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>53.94</v>
+        <v>10.84</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I3" s="2" t="inlineStr"/>
+        <v>10.05</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">机器人|公司多款伺服系统产品可应用于工业机器人领域。
-</t>
+          <t>新疆+零售|公司作为新疆地区百货商超零售连锁企业，经营业态涵盖购物中心、传统百货、超市等。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新疆, 零售</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-2.35</v>
+        <v>3.09</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
+          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -669,44 +672,44 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sz002067</t>
+          <t>sh600778</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>景兴纸业</t>
+          <t>友好集团</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.62</v>
+        <v>7.18</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>10</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>参股宇树科技|公司全资子公司上海景兴通过参与容腾基金间接投资宇树科技，容腾基金对宇树科技的投资额为2000万元，持股比例为1.8044%。</t>
+          <t>新疆+零售|地处新疆乌鲁木齐市，主营商业零售，商业规模和商业零售总额连年名列新疆商业流通领域首位，形成以乌鲁木齐市为核心、辐射全疆的战略网点布局。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>参股宇树科技</t>
+          <t>新疆, 零售</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-2.35</v>
+        <v>3.09</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
+          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -714,44 +717,44 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sh600376</t>
+          <t>sz002251</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>首开股份</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.9</v>
+        <v>6.17</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>9.85</v>
+        <v>9.98</v>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>参股宇树科技|公司通过子公司首开盈信持有金石成长股权投资（杭州）合伙企业18.29%的股权，金石成长股权投资（杭州）合伙企业是杭州宇树科技的第六大股东，持有其4.62%的股权。</t>
+          <t>零售|公司主要业务为商品零售，以超市、百货等零售业态为广大消费者提供商品零售服务。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>参股宇树科技</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-2.35</v>
+        <v>3.09</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
+          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -759,44 +762,44 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sz002514</t>
+          <t>sh601086</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>宝馨科技</t>
+          <t>国芳集团</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.73</v>
+        <v>12.17</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>9.969999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司相关下属子公司主要从事智能作业机器人等设备的设计研发、生产制造及销售，可应用于农业、电气及自动化等。</t>
+          <t>零售|公司从事以百货业为主，超市、电器为辅的连锁零售业务，是甘肃省内最大的连锁零售企业。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>商业零售</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-2.35</v>
+        <v>3.09</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9月2日，宇树科技宣布，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
+          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -804,164 +807,166 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sz001380</t>
+          <t>sh600865</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>华纬科技</t>
+          <t>百大集团</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>27.15</v>
+        <v>10.64</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10.01</v>
+        <v>10.03</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>机器人|公司主要从事弹簧的研发、生产和销售，公司生产的阀类及异形弹簧应用领域非常广泛，涉及乘用车、商用车、轨道交通、机器人等多个行业领域。</t>
+          <t>零售|合肥百货大楼集团目前的主营业务为百货零售业，拥有自有品牌合百珠宝。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.6799999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>今年上半年，国内多家头部储能企业迎来订单高峰，工厂进入满产状态。由于海外储能市场需求爆发式增长，部分企业甚至出现‘加价也排不了单’的情况，造成‘一芯难求’的局面。</t>
+          <t>据深圳市高工锂电有限公司不完全统计，2025年上半年，先导智能、海目星、赢合科技、利元亨等多家头部设备企业披露的新签及在手订单总额已超过300亿元，同比涨幅高达70%至80%。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sz002150</t>
+          <t>sz002759</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>通润装备</t>
+          <t>天际股份</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>14.4</v>
+        <v>12.63</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>10.01</v>
+        <v>10.02</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>储能|2022年9月2日公司在互动平台表示，我公司的产品是家用储能柜的金属外壳和钣金件。家用储能柜与光伏发电系统连接，主要用于家庭电力的储存和供给，为家庭带来绿色的清洁能源。</t>
+          <t>固态电池|子公司江苏泰瑞联腾材料科技有限公司已获得《一种硫化锂材料及其制备方法和应用》的专利授权。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.6799999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>今年上半年，国内多家头部储能企业迎来订单高峰，工厂进入满产状态。由于海外储能市场需求爆发式增长，部分企业甚至出现‘加价也排不了单’的情况，造成‘一芯难求’的局面。</t>
+          <t>据深圳市高工锂电有限公司不完全统计，2025年上半年，先导智能、海目星、赢合科技、利元亨等多家头部设备企业披露的新签及在手订单总额已超过300亿元，同比涨幅高达70%至80%。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz002796</t>
+          <t>sz300410</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>世嘉科技</t>
+          <t>正业科技</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>14.72</v>
+        <v>10.49</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>10.01</v>
+        <v>20.02</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>储能|公司与阿诗特能源签署了《战略合作框架协议》，阿诗特能源自2021年11月1日起预测未来一年内向公司授予约2500台QQ柜的采购量，测算采购总金额预计为1.6亿元。</t>
+          <t>PCB+固态电池|1.公司的PCB精密加工检测设备、PCB精密加工辅助材料、FPC功能性膜材料及激光装备广泛应用于PCB/FPC行业的中上游。
+2.目前公司与深圳市超壹新能源科技有限公司计划合作的大功率大尺寸固态聚合物锂电池产品主要应用于重卡、储能、船舶领域。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>PCB, 固态电池</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.6799999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>今年上半年，国内多家头部储能企业迎来订单高峰，工厂进入满产状态。由于海外储能市场需求爆发式增长，部分企业甚至出现‘加价也排不了单’的情况，造成‘一芯难求’的局面。</t>
+          <t>据深圳市高工锂电有限公司不完全统计，2025年上半年，先导智能、海目星、赢合科技、利元亨等多家头部设备企业披露的新签及在手订单总额已超过300亿元，同比涨幅高达70%至80%。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sz300827</t>
+          <t>sz002426</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>上能电气</t>
+          <t>胜利精密</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30.11</v>
+        <v>3.82</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>20.01</v>
+        <v>10.09</v>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>逆变器|公司拥有集中式、集散式和组串式三种主要技术路线的光伏逆变器产品。</t>
+          <t>固态电池+消费电子|1.公司研发复合集流体在固态电池上的应用。
+2.公司在智能手表、智能手环、蓝牙耳机等智能穿戴业务方面为客户提供产线设备与服务支持。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>逆变器</t>
+          <t>固态电池, 消费电子</t>
         </is>
       </c>
     </row>
@@ -972,46 +977,41 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.79</v>
+        <v>0.13</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>中国汽车工程学会将于2025年9月10-11日在北京召开《固态电池材料评测用模具电池装配方法》等10项固态电池团体标准送审审查会及《硫化物全固态电池硫化氢产气量评价方法》等5项标准项目启动会。</t>
+          <t>据深圳市高工锂电有限公司不完全统计，2025年上半年，先导智能、海目星、赢合科技、利元亨等多家头部设备企业披露的新签及在手订单总额已超过300亿元，同比涨幅高达70%至80%。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>sh603051</t>
+          <t>835237.BJ</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>鹿山新材</t>
+          <t>力佳科技</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>25.61</v>
+        <v>32.08</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>29.98</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>光伏+固态电池|1.公司太阳能电池封装胶膜主要用于光伏组件封装，主要产品包括透明EVA胶膜、白色EVA胶膜及POE胶膜等市场主流产品。
-2.公司开发了固态锂电池用硅碳负极功能粘结材料（PAA）。</t>
+          <t>固态电池|公司在研项目包括新型柔性全固态薄膜锂电池集成技术研发，预计实现电池内部固-固界面稳定，循环1,000次以上，阻抗增加控制在15％以内，容量保持80％以上，电池年自放电率小于10%。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>光伏, 固态电池</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
@@ -1022,36 +1022,36 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.79</v>
+        <v>0.13</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>中国汽车工程学会将于2025年9月10-11日在北京召开《固态电池材料评测用模具电池装配方法》等10项固态电池团体标准送审审查会及《硫化物全固态电池硫化氢产气量评价方法》等5项标准项目启动会。</t>
+          <t>据深圳市高工锂电有限公司不完全统计，2025年上半年，先导智能、海目星、赢合科技、利元亨等多家头部设备企业披露的新签及在手订单总额已超过300亿元，同比涨幅高达70%至80%。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sz300801</t>
+          <t>sz002882</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>泰和科技</t>
+          <t>金龙羽</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>30.19</v>
+        <v>37.16</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>19.99</v>
+        <v>10.01</v>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>固态电池|公司的“硫化物固态电解质的制备及其产业化研究”项目处于中试阶段。</t>
+          <t>固态电池|2025年4月2日公告，公司孙公司金龙羽新能源（惠东）有限公司拟在惠州新材料产业园内投资建设固态电池关键材料量产线项目，总投资额为12亿元。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1063,361 +1063,355 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>固态电池</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.79</v>
+        <v>1.64</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>中国汽车工程学会将于2025年9月10-11日在北京召开《固态电池材料评测用模具电池装配方法》等10项固态电池团体标准送审审查会及《硫化物全固态电池硫化氢产气量评价方法》等5项标准项目启动会。</t>
+          <t>浙江绍兴9月2日召开新闻发布会，介绍该市即将出台的《2025年绍兴市提振消费政策》相关情况。其中指出，在酒店举办宴席达到一定桌数和金额 给予分档补贴。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sh688411</t>
+          <t>sh603696</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>海博思创</t>
+          <t>安记食品</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>148.08</v>
+        <v>13.19</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>20</v>
+        <v>10.01</v>
       </c>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>固态电池|公司持续研究固态电池应用于储能系统的技术，致力于实现储能系统的本质安全，已拥有成熟的项目经验，其中公司参与的浙江龙泉项目是全球首套原位固态化固态电池电网侧大规模储能电站项目。</t>
+          <t>调味品|公司专注于调味品的研发、生产和销售，主要产品包括复合调味粉、天然提取物调味料、香辛料、酱类、风味清汤等五大类500多个品种。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>固态电池</t>
+          <t>调味品</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>影视</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.91</v>
+        <v>1.64</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>根据国家电影局统计，2025年暑期档（6月1日至8月31日）电影票房为119.66亿元，观影人次为3.21亿，同比分别增长2.76%和12.75%，国产影片票房占比为76.21%，超过去年同档期。</t>
+          <t>浙江绍兴9月2日召开新闻发布会，介绍该市即将出台的《2025年绍兴市提振消费政策》相关情况。其中指出，在酒店举办宴席达到一定桌数和金额 给予分档补贴。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>sh601929</t>
+          <t>836422.BJ</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>润普食品</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.53</v>
+        <v>18.69</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
+        <v>29.97</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>影视|公司与长影集团一直保持合作关系并联合出品了电影《731》。</t>
+          <t>食品添加剂|公司是一家深耕食品添加剂领域多年的高新技术企业，形成了以山梨酸钾、丙酸钙等防腐类食品添加剂为主、以磷酸氢二钾和柠檬酸钾等其他类食品添加剂为辅的产品体系。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>影视</t>
+          <t>食品添加剂</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>影视</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.91</v>
+        <v>1.64</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>根据国家电影局统计，2025年暑期档（6月1日至8月31日）电影票房为119.66亿元，观影人次为3.21亿，同比分别增长2.76%和12.75%，国产影片票房占比为76.21%，超过去年同档期。</t>
+          <t>浙江绍兴9月2日召开新闻发布会，介绍该市即将出台的《2025年绍兴市提振消费政策》相关情况。其中指出，在酒店举办宴席达到一定桌数和金额 给予分档补贴。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sh600715</t>
+          <t>sh603536</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>文投控股</t>
+          <t>惠发食品</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.23</v>
+        <v>10.78</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>影视|影视业务系公司两大主营业务之一，涵盖影城运营管理、影视投资制作及发行等，在影视行业，公司已经具备了电影投资制作、发行、放映等相对完整的纵向产业链，横向拓展了电视剧、网剧投资制作业务，并在娱乐经纪业务有所布局。</t>
+          <t>速冻食品|公司为集速冻调理肉制品研发、生产和销售于一体的大型食品加工企业，主要从事速冻类预制菜的丸类制品、肠类制品、油炸类制品、串类制品、菜肴制品等速冻食品的研发、生产和销售。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>影视</t>
+          <t>速冻食品</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>影视</t>
+          <t>食品饮料</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.91</v>
+        <v>1.64</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>根据国家电影局统计，2025年暑期档（6月1日至8月31日）电影票房为119.66亿元，观影人次为3.21亿，同比分别增长2.76%和12.75%，国产影片票房占比为76.21%，超过去年同档期。</t>
+          <t>浙江绍兴9月2日召开新闻发布会，介绍该市即将出台的《2025年绍兴市提振消费政策》相关情况。其中指出，在酒店举办宴席达到一定桌数和金额 给予分档补贴。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sz002905</t>
+          <t>sz300997</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>金逸影视</t>
+          <t>欢乐家</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>10.52</v>
+        <v>20.5</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10.04</v>
+        <v>20.02</v>
       </c>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>影视|公司是国内具有领先优势且极具发展潜力的影视传媒集团，主营业务涵盖院线发行、电影放映及相关衍生业务、影视制作投资。</t>
+          <t>罐头食品|公司致力于水果罐头、植物蛋白饮料、果汁饮料、乳酸菌饮料等食品饮料产品的研发、生产和销售，产品主要包括：椰子汁植物蛋白饮料、果汁饮料、乳酸菌饮料等饮料产品；水果罐头、八宝粥罐头等罐头食品。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>影视</t>
+          <t>罐头食品</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-1.28</v>
+        <v>-1.85</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+          <t>宇树科技在社交媒体上发帖称，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sz002975</t>
+          <t>sh600376</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>博杰股份</t>
+          <t>首开股份</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>63.89</v>
+        <v>3.19</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>10</v>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>阿里+液冷+机器人|1.公司主营业务为自动化测试和组装相关设备，可以提供PC、大数据云服务器、存储服务器等的测试，公司服务的服务器厂商包括戴尔、亚马逊、微软、英伟达、思科等国际知名厂商，以及紫光、浪潮、阿里巴巴、腾讯等国内头部厂商。
-2.公司持续为海外大客户提供AI服务器测试设备，在测试设备中已植入自研液冷散热方案，并积累了相关技术储备和解决方案。
-3.公司测试类产品可以用于机器人。</t>
+          <t>参股宇树科技|公司通过子公司首开盈信持有金石成长股权投资（杭州）合伙企业18.29%的股权，金石成长股权投资（杭州）合伙企业是杭州宇树科技的第六大股东，持有其4.62%的股权。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>阿里, 液冷, 机器人</t>
+          <t>参股宇树科技</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-1.28</v>
+        <v>-1.85</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+          <t>宇树科技在社交媒体上发帖称，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sz002158</t>
+          <t>sz002067</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>汉钟精机</t>
+          <t>景兴纸业</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>26.62</v>
+        <v>5.08</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr"/>
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司离心式和磁悬浮离心式压缩机产品可应用于数据中心等行业的“液冷技术”相关领域。</t>
+          <t>参股宇树科技|公司全资子公司上海景兴通过参与容腾基金间接投资宇树科技，容腾基金对宇树科技的投资额为2000万元，持股比例为1.8044%。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>参股宇树科技</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-1.28</v>
+        <v>-1.85</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>国金证券研报认为，英伟达GB300 NVL72服务器算力进一步提升，液冷散热需求迅速提升。</t>
+          <t>宇树科技在社交媒体上发帖称，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sz002871</t>
+          <t>sz002403</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>伟隆股份</t>
+          <t>爱仕达</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>18.39</v>
+        <v>16.35</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>9.99</v>
+        <v>10.03</v>
       </c>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC|公司数据中心领域产品主要用于冷却塔、管路以及CDU。公司已向微软等国际知名公司的数据中心项目进行供货。</t>
+          <t>机器人获订单|爱仕达控股子公司钱江机器人与鸿路钢构于9月3日签署设备采购协议，锁定1888台智能焊接机器人订单。据公告称，钱江机器人依托前瞻性的技术布局与全产业链整合能力，在智能焊接、压铸、喷涂、3C等领域保持稳定的产品质量和客户群体。</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>液冷IDC</t>
+          <t>机器人获订单</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.12</v>
+        <v>-1.85</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>近日，国务院国资委与中国科学院联合举办中央企业生物科技产业高级研修班。要求加快发展中央企业生物医药产业，加快打造生物医药领域的国家队，推动我国生物医药产业高质量发展。</t>
+          <t>宇树科技在社交媒体上发帖称，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sh603367</t>
+          <t>sh603178</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>辰欣药业</t>
+          <t>圣龙股份</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>26.9</v>
+        <v>20.54</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>10.02</v>
@@ -1425,568 +1419,620 @@
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>创新药|大输液+高端制剂+低价药。公司开发了首仿溴芬酸钠、右美托咪定等10 多个独家PP 安瓿、海外ANDA 制剂。创新药方面，已有1 类抗肿瘤药和降糖药获批临床，抗结核药临床获批在即，未来仍将继续加码创新药研发以丰富研发管线。</t>
+          <t>汽车+机器人|1.公司为多家全球知名客户配套，目前已经获得通用、小康、青山工业（配套给金康新能源，问界）、吉利、理想等客户的定点。
+ 2.公司基于新能源市场的发展，从传统动力系统领域切入到新能源动力系统，从减速器、电机、电机控制器到多合一的系统集成，目前减速器和电机控制器等产品已经量产。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>汽车, 机器人</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>数字货币</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.79</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>近日，国务院国资委与中国科学院联合举办中央企业生物科技产业高级研修班。要求加快发展中央企业生物医药产业，加快打造生物医药领域的国家队，推动我国生物医药产业高质量发展。</t>
+          <t>香港金管局称，目前香港同步推进央行数字货币、商业银行货币等应用，希望为未来的跨境贸易和投资的支付提供更便捷、更有效益的解决方案。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sh600079</t>
+          <t>sz002878</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>人福医药</t>
+          <t>元隆雅图</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>22.57</v>
+        <v>20.47</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>9.99</v>
       </c>
-      <c r="I21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>创新药|公司坚定创新驱动发展之路，主要围绕麻醉药、神经系统用药、甾体激素类药物、维吾尔药、呼吸系统用药、抗肿瘤药物、自身免疫性疾病用药等细分领域布局创新药及高端仿制药。公司1、2类创新药项目60多个，各项目均在有序推进中。</t>
+          <t>IP经济+数字货币|公司控股子公司喔哇宇宙（UOVAMETA）在IP数字化、数据化、资产化发行与营销运营方面具备一体化能力，与江苏省文交所开展战略合作，共同推进科技部"数字文创资产权属管理及服务网络"重点研发项目的产业化应用。江苏省文交所作为省级文化产权交易平台，将为UOVAMETA提供数字文创资产合规监管、资产登记确权及流通服务。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>创新药</t>
+          <t>IP经济, 数字货币</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
+          <t>数字货币</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>香港金管局称，目前香港同步推进央行数字货币、商业银行货币等应用，希望为未来的跨境贸易和投资的支付提供更便捷、更有效益的解决方案。</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>sz003040</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>楚天龙</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>稳定币|楚天龙发布投资者关系活动记录表公告称，公司在技术实力、客户群体、服务经验以及成功案例等方面，具备参与香港地区法币稳定币相关业务的能力，随着公司出海战略的稳步推进，有望在嵌入式安全产品及创新金融服务等领域落地更多场景项目。</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>稳定币</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>数字货币</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>香港金管局称，目前香港同步推进央行数字货币、商业银行货币等应用，希望为未来的跨境贸易和投资的支付提供更便捷、更有效益的解决方案。</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>sz002530</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>金财互联</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>数字货币+智能体|1.参股公司方欣科技在数字货币领域进行了相关技术的研究工作。
+2.公司与H公司合作的“欣智悦财税大模型”采用开放式架构设计，构建财税AIAgent智能体。</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>数字货币, 智能体</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
           <t>纺织服装</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>印度是全球第二大棉花生产国，也是第六大纺织品出口国。此前，印度曾宣布将豁免11%的棉花进口关税至9月底。而如今，印度又将豁免期延长至12月31日。</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
+      <c r="B24" s="2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>中国银河证券研报称，政策呵护下的大消费领域具备投资价值，建议关注服务消费领域低估值标的。</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>sh603839</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="G24" s="2" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>纺织+电商|1.主营为中高档自主品牌时装的研发、生产和销售,主要包括“玖姿”、“尹默”、“摩萨克”和“斐娜晨”四个中高档女装品牌和“安正”商务时尚男装品牌。
 2.控股子公司礼尚信息是国内专业从事电子商务代运营业务的头部服务商之一，帮助海内外母婴、食品保健、运动户外、宠粮家居等行业知名品牌在国内电商全渠道实现快速增长。</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>纺织, 电商</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>纺织服装</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>印度是全球第二大棉花生产国，也是第六大纺织品出口国。此前，印度曾宣布将豁免11%的棉花进口关税至9月底。而如今，印度又将豁免期延长至12月31日。</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
+      <c r="B25" s="2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>中国银河证券研报称，政策呵护下的大消费领域具备投资价值，建议关注服务消费领域低估值标的。</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>sz002269</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>美邦服饰</t>
         </is>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr">
+      <c r="G25" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
         <is>
           <t>纺织+IP经济|1.拥有Meters/bonwe以及ME&amp;CITY品牌。美邦主品牌由单一休闲风格细分为五大风格，加强购物中心及其他新兴渠道合作及供应链优化。
 2.公司长期致力于休闲服饰领域，持续和迪士尼等适合年轻人需求的ip产品合作开发。</t>
         </is>
       </c>
-      <c r="K23" s="2" t="inlineStr">
+      <c r="K25" s="2" t="inlineStr">
         <is>
           <t>纺织, IP经济</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>光通信</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>英伟达否认H100/H200芯片短缺传闻，表示近日关于H100/H200芯片“供应受限”和“售罄”的传言均属不实信息。</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>sh601869</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>长飞光纤</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>91.06</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>8天5板</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>光模块+空芯光纤|1.子公司博创科技10G PON OLT 光模块出货量国内领先，在数通市场，已向多家国内外互联网客户批量供货25G 至400G 速率的中短距光模块、有源光缆和高速铜缆。
-2.空芯光纤作为行业前沿产品，其应用目前仍处于早期阶段，尚未形成规模销售、尚未形成稳定的价格及利润水平，而后续业务发展也有待于产业链的进一步成熟。目前，空芯光纤相关业务尚未对公司财务数据产生明显影响。</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>光模块, 空芯光纤</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>芯片产业链</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>国内半导体装备企业新凯来宣布，将参加第十三届半导体设备与核心部件及材料展（CSEAC 2025）。本届展会将于9月4日至6日在无锡太湖国际博览中心举行。</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>sh603163</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>圣晖集成</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>44.77</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>洁净室系统集成|公司系为先进制造业提供洁净室系统集成工程整体解决方案的一站式专业服务商，涵盖洁净室厂房建造规划、设计建议等相关服务。</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>洁净室系统集成</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.6799999999999999</v>
-      </c>
-      <c r="C26" s="2" t="inlineStr"/>
+        <v>-0.15</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>今年以来，海外储能需求爆发式增长，令国内储能电芯企业订单激增，工厂开足马力进入满产状态，叠加新能源上网电价市场化改革落地，有储能企业甚至表示“加价也排不了单”，出现“一芯难求”的局面。</t>
+        </is>
+      </c>
       <c r="D26" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>sh600358</t>
+          <t>sz002150</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ST联合  </t>
+          <t>通润装备</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>5.65</v>
+        <v>15.84</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="I26" s="2" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 子公司新线中视核心团队深耕ACG文化多年，凭借对Z时代人群的文化消费认知，立足游戏行业，通过产出具有传播价值的创意内容打动头部游戏发行客户，立足B站花火、抖音星图、快手聚星、小红书、微博搭建了丰富的自媒体资源库，形成了独特的内容营销壁垒。</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr"/>
+          <t>储能变流器|旗下正泰电源目前储能产品包括户用储能变流器、模块化储能变流器、集中式储能变流器、户外电池柜、电池集装箱及能量管理系统等。</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>储能变流器</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.6799999999999999</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr"/>
+        <v>-0.15</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>今年以来，海外储能需求爆发式增长，令国内储能电芯企业订单激增，工厂开足马力进入满产状态，叠加新能源上网电价市场化改革落地，有储能企业甚至表示“加价也排不了单”，出现“一芯难求”的局面。</t>
+        </is>
+      </c>
       <c r="D27" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>sh603843</t>
+          <t>873152.BJ</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST正平 </t>
+          <t>天宏锂电</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.78</v>
+        <v>28.09</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>4.91</v>
+        <v>29.99</v>
       </c>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 2025年2月21日公司官微披露，旗下正平智算参加海东市绿色算力产业集中签约暨推介活动并签订算电协同产业园框架协议。</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr"/>
+          <t>储能电池|公司储能电池组主要应用于太阳能路灯、家庭储能、便携式储能、工商业储能柜和集装箱储能柜等领域。</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>储能电池</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>锂电池</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.6799999999999999</v>
-      </c>
-      <c r="C28" s="2" t="inlineStr"/>
+        <v>-0.28</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>市场监督管理总局印发《电子信息制造业2025－2026年稳增长行动方案》，方案指出，引导地方有序布局光伏、锂电池产业，指导地方梳理产能情况。实施光伏组件、锂电池产品质量管理。</t>
+        </is>
+      </c>
       <c r="D28" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>sz000908</t>
+          <t>837174.BJ</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>ST景峰</t>
+          <t>宏裕包材</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>5.5</v>
+        <v>62.93</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="I28" s="2" t="inlineStr"/>
+        <v>29.99</v>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司专注医药健康产业，涉足药品研发、生产、销售等领域，产品涵盖了心脑血管、抗肿瘤、骨科、妇儿等用药领域。</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr"/>
+          <t>锂电池隔膜|公司与华中科技大学签署了合作开发协议，双方将在“锂离子电池聚烯烃基高性能隔膜设计及优化研究”领域进行共同开发。</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>锂电池隔膜</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>锂电池</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.6799999999999999</v>
-      </c>
-      <c r="C29" s="2" t="inlineStr"/>
+        <v>-0.28</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>市场监督管理总局印发《电子信息制造业2025－2026年稳增长行动方案》，方案指出，引导地方有序布局光伏、锂电池产业，指导地方梳理产能情况。实施光伏组件、锂电池产品质量管理。</t>
+        </is>
+      </c>
       <c r="D29" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>sz002762</t>
+          <t>sh603285</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>*ST金比</t>
+          <t>键邦股份</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>7.14</v>
+        <v>25.99</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>5</v>
+        <v>9.99</v>
       </c>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 公司是国内较早专门从事中高端母婴消费品的设计、研发、生产及销售的企业之一，是国内知名的母婴消费品品牌运营商。</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr"/>
+          <t>锂电材料|公司产品主要作为稳定剂、催化剂、增塑剂、偶联剂等功能助剂应用于PVC塑料、涂料以及锂电材料等领域。公司开发了富临精工等国内知名的锂电池正极材料企业等客户资源。</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>锂电材料</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>宠物经济</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.6799999999999999</v>
-      </c>
-      <c r="C30" s="2" t="inlineStr"/>
+        <v>2.66</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>当前宠物食品已成为我国宠物经济中最大细分市场，2024年市场规模达1668亿元，同比增长7.54%，预计2025年将突破1755亿元。</t>
+        </is>
+      </c>
       <c r="D30" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>sh600243</t>
+          <t>sz001206</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST海华 </t>
+          <t>依依股份</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.77</v>
+        <v>26.72</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>5.07</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 青海华鼎与源鑫隆昌、茫崖源鑫签署增资协议，约定青海华鼎以现金增资5083.88万元取得茫崖源鑫51%的股权。上市公司称，茫崖源鑫所处的天然气行业具有良好的发展前景。</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr"/>
+          <t>宠物经济|公司是具有较好研发、设计、生产能力的宠物一次性卫生护理产品生产商，能够向国内外品牌运营商销售产品，同时也将自有品牌（乐事宠、一坪花房）产品面向市场进行销售，宠物卫生护理用品包括宠物垫、宠物尿裤、宠物清洁袋、宠物湿巾、宠物垃圾袋等。</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>宠物经济</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>ST股</t>
+          <t>医疗器械</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.6799999999999999</v>
-      </c>
-      <c r="C31" s="2" t="inlineStr"/>
+        <v>-0.89</v>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>国家药监局昨日表示，“十四五”期间，共批准创新药210个、创新医疗器械269个，且均保持加速增长态势。</t>
+        </is>
+      </c>
       <c r="D31" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>sh603389</t>
+          <t>sh603222</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">*ST亚振 </t>
+          <t>济民健康</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>25.91</v>
+        <v>11.52</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr"/>
+        <v>10.03</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>7天4板</t>
+        </is>
+      </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>ST股 | 1.欧式家具龙头，以沙发和橱柜作为核心业务，主导产品为“亚振”、“亚振·利维亚”和“亚振·乔治亚”品牌系列欧式风格家具。
-2.公司入选“2022年度上海市首发经济引领性品牌”榜单。</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr"/>
+          <t>医疗器械+细胞治疗|1.主要产品为各种品规的非PVC软袋大输液、塑料瓶大输液以及安全注射器、无菌注射器和输液器等产品。
+2.公司旗下博鳌国际医院拥有国内唯一一家通过日本国厚生省认证的国际再生医学实验室，建成了包括细胞存储、国际标准细胞制备、细胞治疗临床研究、干细胞与再生医学技术转化四大核心技术平台。</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>医疗器械, 细胞治疗</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>-0.98</v>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>sh605255</t>
+          <t>sz000908</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>天普股份</t>
+          <t>ST景峰</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>62.81</v>
+        <v>5.78</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>10</v>
+        <v>5.09</v>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>9天9板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>中昊芯英入股|2025年8月21日公告，天普控股、天昕贸易、公司实际控制人尤建义与中昊芯英签署了股份转让协议，同日，宁波市普恩投资管理合伙企业、天昕贸易与方东晖签署了股份转让协议，中昊芯英、海南芯繁、方东晖与天普控股签订增资协议。协议转让完成后，中昊芯英取得10.75%股份，方东晖取得8%股份。公司控股股东及实际控制人不变更。中昊芯英、海南芯繁、方东晖对天普控股增资，将触发全面要约义务。</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>中昊芯英入股</t>
-        </is>
-      </c>
+          <t>ST股 | 公司专注医药健康产业，涉足药品研发、生产、销售等领域，产品涵盖了心脑血管、抗肿瘤、骨科、妇儿等用药领域。</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>-0.98</v>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
       <c r="D33" s="2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>sh601069</t>
+          <t>sh603843</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>西部黄金</t>
+          <t xml:space="preserve">*ST正平 </t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>26.51</v>
+        <v>2.92</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>10</v>
+        <v>5.04</v>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>黄金+业绩|1.公司主营业务为黄金采选及冶炼，同时从事铬矿石的开采。公司主要产品包括黄金、铬矿石、铁矿石，其中黄金是公司最主要的产品和最主要收入来源。
-2.8月28日，西部黄金股份有限公司发布2025年半年度报告。报告期内，公司实现营业收入50.30亿元，同比增长69.01%；归属于上市公司股东的净利润1.54亿元，同比增长131.94%。</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>黄金, 业绩</t>
-        </is>
-      </c>
+          <t>ST股 | 2025年2月21日公司官微披露，旗下正平智算参加海东市绿色算力产业集中签约暨推介活动并签订算电协同产业园框架协议。</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2001,37 +2047,38 @@
       </c>
       <c r="C34" s="2" t="inlineStr"/>
       <c r="D34" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>sz001296</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>长江材料</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="H34" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>837174.BJ</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>宏裕包材</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>48.41</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>29.99</v>
-      </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>8天4板</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>锂电池|公司与华中科技大学签署了合作开发协议，双方将在“锂离子电池聚烯烃基高性能隔膜设计及优化研究”领域进行共同开发。</t>
+          <t>3D打印+石英|1.公司生产的3D打印砂用于快速样件开发及部份铸造的砂芯生产。
+2.公司在内蒙古科左后旗的子公司拥有自有的石英砂矿，开采的石英砂用于铸造材料和压裂支撑剂的生产。</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>锂电池</t>
+          <t>3D打印, 石英</t>
         </is>
       </c>
     </row>
@@ -2048,38 +2095,37 @@
       </c>
       <c r="C35" s="2" t="inlineStr"/>
       <c r="D35" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>sh603257</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>中国瑞林</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>67.88</v>
+      </c>
+      <c r="H35" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>sz300092</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>科新机电</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>19.61</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>20.01</v>
-      </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>核电+军工|1.公司生产的产品种类多，覆盖重型压力容器、核电和核化工设备、常规电站辅机设备和管系设备等，能广泛应于石油、化工、电力、新能源、核电等多个领域。
-2.公司军工业务主要是军工核安全设备。</t>
+          <t>有色金属资源开发|在铜、钴资源开发上，公司在全球铜冶炼领域保持技术优势，承接设计了多个标志性项目，如非洲刚果（金）的卡莫阿铜冶炼厂和洛钼集团Tenke Fungurume铜钴矿项目。</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>核电, 军工</t>
+          <t>有色金属资源开发</t>
         </is>
       </c>
     </row>
@@ -2096,37 +2142,37 @@
       </c>
       <c r="C36" s="2" t="inlineStr"/>
       <c r="D36" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>sz002021</t>
+          <t>sh603709</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>中捷资源</t>
+          <t>中源家居</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.9</v>
+        <v>15.3</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>9.85</v>
+        <v>9.99</v>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>实控人变更|2025年8月26日公告，玉环市国资集团完成受让第一大股东10.84%股份过户，公司第大股东变更为玉环国投。</t>
+          <t>家居|公司主要从事沙发等家具产品的研究、设计、生产和销售服务，产品主要包括手动功能沙发、电动功能沙发、扶手推背沙发、老人椅等功能性沙发，固定沙发及板式家具等。</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>实控人变更</t>
+          <t>家居</t>
         </is>
       </c>
     </row>
@@ -2143,37 +2189,37 @@
       </c>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>sh600721</t>
+          <t>sh603630</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>百花医药</t>
+          <t>拉芳家化</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>10.42</v>
+        <v>31.19</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>10.03</v>
+        <v>10.02</v>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>4天2板</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>CRO|公司主营业务为药物发现、研究、技术服务，提供从药物发现、CMC、临床CRO、药品注册、CMO/API供应等新药开发全流程的服务及一体化的解决方案。</t>
+          <t>美容护理|公司主要从事洗护类、护肤类、彩妆类产品的研发、生产和销售，2018年内公司不断的进行产品创新、品牌品类矩阵建设、营销渠道网络的更新升级。</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>美容护理</t>
         </is>
       </c>
     </row>
@@ -2190,37 +2236,34 @@
       </c>
       <c r="C38" s="2" t="inlineStr"/>
       <c r="D38" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>sh600545</t>
+          <t>sh600207</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>卓郎智能</t>
+          <t>安彩高科</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>3.17</v>
+        <v>5.54</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>9.92</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>PCB|2025年6月28日公司官微透露，公司与国际复材签订了加捻事业部史上最大额玻璃纤维捻线机订单。玻纤凭借其低介电常数等特性，已成为制造高频高速PCB与高性能芯片封装材料的不二之选。</t>
+          <t>光伏玻璃|1.安彩高科2024年3月11日公告，未筹划公司与“超聚变借壳上市”“并购重组”相关事项。
+2.公司旗下全资子公司安彩光伏新材料900t/d光伏玻璃项目于2019年7月份点火烤窑，其后顺利完成设备联合调试和试生产。</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>光伏玻璃</t>
         </is>
       </c>
     </row>
@@ -2237,34 +2280,33 @@
       </c>
       <c r="C39" s="2" t="inlineStr"/>
       <c r="D39" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>sh600697</t>
+          <t>sz300478</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>欧亚集团</t>
+          <t>杭州高新</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>14.12</v>
+        <v>21.01</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>9.969999999999999</v>
+        <v>19.99</v>
       </c>
       <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>零售+旅游|1.公司为商贸企业，全渠道营销，以实体零售经营为主，覆盖现代百货、商业综合体、商超连锁等业态模式，形成了不同发展阶段的门店梯次。
-2.长春欧亚神龙湾旅游有限责任公司是公司控股子公司长春欧亚卖场有限责任公司参股的联营企业，其经营范围为：旅游项目及旅游纪念品和旅游环保产品的开发；旅游基础设施建设和经营。</t>
+          <t>实控人变更|杭州高新公告称，公司控股股东东杭集团通过协议转让方式向巨融伟业转让其持有的上市公司24,105,872股股份（占上市公司总股本的19.03%）已完成过户登记手续。此次转让完成后，巨融伟业成为公司控股股东，公司实际控制人由胡敏变更为林融升。</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>零售, 旅游</t>
+          <t>实控人变更</t>
         </is>
       </c>
     </row>
@@ -2281,33 +2323,33 @@
       </c>
       <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>sz300277</t>
+          <t>sh603817</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>海联讯</t>
+          <t>海峡环保</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>15.46</v>
+        <v>6.66</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>20.03</v>
+        <v>10.08</v>
       </c>
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>并购重组|公司于2024年11月公告，拟以向杭汽轮全体换股股东发行A股股票的方式换股吸收合并杭汽轮。海联讯为吸收合并方，杭汽轮为被吸收合并方。</t>
+          <t>环保|公司以污水处理业务及垃圾渗沥液处理业务为主，积极参与污泥处置、危险废物处置、建筑废弃物处置等固废业务及环保检测业务，完善优化产业布局，培育提升企业持续盈利能力。</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>并购重组</t>
+          <t>环保</t>
         </is>
       </c>
     </row>
@@ -2324,33 +2366,163 @@
       </c>
       <c r="C41" s="2" t="inlineStr"/>
       <c r="D41" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>sz000524</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>岭南控股</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="H41" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>870726.BJ</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>鸿智科技</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>30</v>
       </c>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>家电|公司主营业务是电饭煲、慢炖锅、压力锅及烘烤产品等小家电产品的研发、生产和销售。主要产品和服务为电饭煲、慢炖煲、压力锅、电热产品、烘烤产品。</t>
+          <t>旅游|公司控股子公司广州广之旅国际旅行社股份有限公司的控股子公司山西现代国际旅行社有限公司主要核心业务为组团目的地接待业务，其业务区域主要覆盖山西省及部分周边区域，在山西当地具有稳定的业务及长期合作客户基础、并具备较强的产品研发创新能力及主要旅游目的地资源控制能力。</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>家电</t>
+          <t>旅游</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>sh601099</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">太平洋  </t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>券商+低价|云南本土的上市券商，业务条线完备，构建了全牌照、全业务线的业务体系，证券经纪业务在云南市场占有率长年排名第一。</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>券商, 低价</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>sh603863</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>松炀资源</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>造纸|公司主要从事环保再生纸的研发、生产和销售，是一家集废纸回收、环保造纸及涂布成型于一体，形成资源再生利用价值链的造纸企业。</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>sh603595</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>东尼电子</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>半导体+消费电子|1.公司完成以24元/股的价格定增募集4.68亿元用于年产12万片碳化硅半导体材料项目、年产1亿对新能源软包动力电池用极耳项目和补充流动资金。
+2.公司消费电子行业产品主要包括超微细电子线材、无线充电隔磁材料。</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>半导体, 消费电子</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,16 +2569,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>sh605255</t>
+          <t>837174.BJ</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>天普股份</t>
+          <t>宏裕包材</t>
         </is>
       </c>
     </row>
@@ -2416,42 +2588,42 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sz002975</t>
+          <t>sh603839</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>博杰股份</t>
+          <t>安正时尚</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sh601069</t>
+          <t>sz002269</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>西部黄金</t>
+          <t>美邦服饰</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>837174.BJ</t>
+          <t>sh600376</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>宏裕包材</t>
+          <t>首开股份</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2633,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sz002547</t>
+          <t>sz002067</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>春兴精工</t>
+          <t>景兴纸业</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2648,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sz300092</t>
+          <t>sh600697</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>科新机电</t>
+          <t>欧亚集团</t>
         </is>
       </c>
     </row>
@@ -2491,42 +2663,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sh603839</t>
+          <t>sz002150</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>安正时尚</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>sz002021</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>中捷资源</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>sh603051</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>鹿山新材</t>
+          <t>通润装备</t>
         </is>
       </c>
     </row>

--- a/stock_data1.xlsx
+++ b/stock_data1.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="94" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="97" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="169" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="280" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,279 +557,282 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3.09</v>
+        <v>7.33</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>sh600697</t>
+          <t>sz002846</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>欧亚集团</t>
+          <t>英联股份</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>15.53</v>
+        <v>21.31</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>9.99</v>
+        <v>10.02</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>5天3板</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>零售+旅游|1.公司为商贸企业，全渠道营销，以实体零售经营为主，覆盖现代百货、商业综合体、商超连锁等业态模式，形成了不同发展阶段的门店梯次。
-2.长春欧亚神龙湾旅游有限责任公司是公司控股子公司长春欧亚卖场有限责任公司参股的联营企业，其经营范围为：旅游项目及旅游纪念品和旅游环保产品的开发；旅游基础设施建设和经营。</t>
+          <t>固态电池|公司的复合铝箔、复合铜箔可以应用于固态电池。</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>零售, 旅游</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3.09</v>
+        <v>7.33</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>sh603101</t>
+          <t>sz002759</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>汇嘉时代</t>
+          <t>天际股份</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>10.84</v>
+        <v>13.89</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>10.05</v>
+        <v>9.98</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>4天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>新疆+零售|公司作为新疆地区百货商超零售连锁企业，经营业态涵盖购物中心、传统百货、超市等。</t>
+          <t>固态电池|子公司江苏泰瑞联腾材料科技有限公司已获得《一种硫化锂材料及其制备方法和应用》的专利授权。</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>新疆, 零售</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>3.09</v>
+        <v>7.33</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>sh600778</t>
+          <t>sz002263</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>友好集团</t>
+          <t>大东南</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.18</v>
+        <v>4.41</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9.950000000000001</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr"/>
+        <v>9.98</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>新疆+零售|地处新疆乌鲁木齐市，主营商业零售，商业规模和商业零售总额连年名列新疆商业流通领域首位，形成以乌鲁木齐市为核心、辐射全疆的战略网点布局。</t>
+          <t>固态电池|公司铝塑膜已能生产固态电池软包。</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>新疆, 零售</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3.09</v>
+        <v>7.33</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>sz002251</t>
+          <t>sz002805</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>丰元股份</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.17</v>
+        <v>14.61</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>9.98</v>
+        <v>10.02</v>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>零售|公司主要业务为商品零售，以超市、百货等零售业态为广大消费者提供商品零售服务。</t>
+          <t>固态电池|公司对固态电池硫化物正极材料有技术储备，还参股了深耕于固态电池领域的中科深蓝汇泽新能源(常州)有限责任公司。</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>3.09</v>
+        <v>7.33</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>sh601086</t>
+          <t>sz300619</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>国芳集团</t>
+          <t>金银河</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>12.17</v>
+        <v>33.16</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>10.04</v>
+        <v>20.01</v>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>零售|公司从事以百货业为主，超市、电器为辅的连锁零售业务，是甘肃省内最大的连锁零售企业。</t>
+          <t>固态电池|公司有向研发固态电池的客户提供中试设备。</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>商业零售</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>3.09</v>
+        <v>7.33</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>近期多地启动新一轮消费券发放：宁波市9月1日，启动总额6000万元的汽车消费券发放活动；济南市在同日启动下半年第三轮汽车消费补贴活动，并于上午10时发放下半年第三轮零售和餐饮消费券。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>sh600865</t>
+          <t>sh600367</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>百大集团</t>
+          <t>红星发展</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>10.64</v>
+        <v>18.01</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10.03</v>
+        <v>10.02</v>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>零售|合肥百货大楼集团目前的主营业务为百货零售业，拥有自有品牌合百珠宝。</t>
+          <t>固态电池|部分固态电池工艺需要使用到锰元素，部分固态电池企业向公司采购了部分锰系产品。</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
@@ -840,41 +843,42 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.13</v>
+        <v>7.33</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>据深圳市高工锂电有限公司不完全统计，2025年上半年，先导智能、海目星、赢合科技、利元亨等多家头部设备企业披露的新签及在手订单总额已超过300亿元，同比涨幅高达70%至80%。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>sz002759</t>
+          <t>sz002741</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>天际股份</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>12.63</v>
+        <v>22.35</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>10.02</v>
+        <v>9.99</v>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>固态电池|子公司江苏泰瑞联腾材料科技有限公司已获得《一种硫化锂材料及其制备方法和应用》的专利授权。</t>
+          <t>光刻胶+固态电池|1.公司将结合PCB电子化工材料的开发经验，通过引进团队和自主开发，重点布局超净高纯试剂、光刻胶、IC封装材料等关键产品的研究。
+2.公司在2024年半年报中涉及政府补助的项目包括：可回收的新型高比能硫化物固态锂金属电池的构筑。</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>固态电池</t>
+          <t>光刻胶, 固态电池</t>
         </is>
       </c>
     </row>
@@ -885,42 +889,41 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.13</v>
+        <v>7.33</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>据深圳市高工锂电有限公司不完全统计，2025年上半年，先导智能、海目星、赢合科技、利元亨等多家头部设备企业披露的新签及在手订单总额已超过300亿元，同比涨幅高达70%至80%。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>sz300410</t>
+          <t>sz002407</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>正业科技</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>10.49</v>
+        <v>15.19</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>20.02</v>
+        <v>9.99</v>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>PCB+固态电池|1.公司的PCB精密加工检测设备、PCB精密加工辅助材料、FPC功能性膜材料及激光装备广泛应用于PCB/FPC行业的中上游。
-2.目前公司与深圳市超壹新能源科技有限公司计划合作的大功率大尺寸固态聚合物锂电池产品主要应用于重卡、储能、船舶领域。</t>
+          <t>固态电池|公司对固态电池保持高度关注，并具备部分材料产业化的能力；拥有“氟资源→氢氟酸及电子级氢氟酸→氟化锂→六氟磷酸锂→锂电池”完整的产业链，并通过锂电池回收工艺的技术创新来实现持续降本。</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>PCB, 固态电池</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
@@ -931,42 +934,41 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.13</v>
+        <v>7.33</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>据深圳市高工锂电有限公司不完全统计，2025年上半年，先导智能、海目星、赢合科技、利元亨等多家头部设备企业披露的新签及在手订单总额已超过300亿元，同比涨幅高达70%至80%。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>sz002426</t>
+          <t>sh688353</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>胜利精密</t>
+          <t>华盛锂电</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.82</v>
+        <v>42.56</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>10.09</v>
+        <v>19.99</v>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>固态电池+消费电子|1.公司研发复合集流体在固态电池上的应用。
-2.公司在智能手表、智能手环、蓝牙耳机等智能穿戴业务方面为客户提供产线设备与服务支持。</t>
+          <t>固态电池|公司长期关注长效安全固态锂电池材料的发展，着重固态电池的电解质材料的设计与开发，以及提高电极稳定性和传导性的材料的设计与开发，用于满足下一代长寿命高输出动力型固态锂电池材料的市场需求，如硫化物固态电解质以及高导电性添加剂等材料的研究开发。</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>固态电池, 消费电子</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
@@ -977,36 +979,36 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.13</v>
+        <v>7.33</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>据深圳市高工锂电有限公司不完全统计，2025年上半年，先导智能、海目星、赢合科技、利元亨等多家头部设备企业披露的新签及在手订单总额已超过300亿元，同比涨幅高达70%至80%。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>835237.BJ</t>
+          <t>sh603052</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>力佳科技</t>
+          <t>可川科技</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>32.08</v>
+        <v>33.03</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>29.98</v>
+        <v>9.99</v>
       </c>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>固态电池|公司在研项目包括新型柔性全固态薄膜锂电池集成技术研发，预计实现电池内部固-固界面稳定，循环1,000次以上，阻抗增加控制在15％以内，容量保持80％以上，电池年自放电率小于10%。</t>
+          <t>固态电池|公司主营业务中的电池类功能性器件产品可以应用在半固态电池/固态电池中，目前已与北京、苏州等地固态电池领域的知名企业开展业务合作。公司的复合集流体产品（复合铝箔）也可以应用于半固态和固态电池中。</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1022,1507 +1024,4336 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.13</v>
+        <v>7.33</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>据深圳市高工锂电有限公司不完全统计，2025年上半年，先导智能、海目星、赢合科技、利元亨等多家头部设备企业披露的新签及在手订单总额已超过300亿元，同比涨幅高达70%至80%。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>sz002882</t>
+          <t>sh603895</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>金龙羽</t>
+          <t>天永智能</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>37.16</v>
+        <v>34.21</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>10.01</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>固态电池|2025年4月2日公告，公司孙公司金龙羽新能源（惠东）有限公司拟在惠州新材料产业园内投资建设固态电池关键材料量产线项目，总投资额为12亿元。</t>
+          <t>固态电池+储能|1.在固态电池方面，公司及子公司与卫蓝、恩力、麻省固能（上海）新能源科技有限公司等项目签约，作为与国外市场衔接的良好合作开端。
+2.公司参股的普亚能源是一家致力于打造国内领先的高端储能电池及装备制造企业。其主要经营范围为锂离子电池及电池组、电池管理系统、电池储能系统和相关设备的研发生产等。</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>固态电池</t>
+          <t>固态电池, 储能</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.64</v>
+        <v>7.33</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>浙江绍兴9月2日召开新闻发布会，介绍该市即将出台的《2025年绍兴市提振消费政策》相关情况。其中指出，在酒店举办宴席达到一定桌数和金额 给予分档补贴。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>sh603696</t>
+          <t>sz002709</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>安记食品</t>
+          <t>天赐材料</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>13.19</v>
+        <v>25.47</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>10.01</v>
+        <v>10.02</v>
       </c>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>调味品|公司专注于调味品的研发、生产和销售，主要产品包括复合调味粉、天然提取物调味料、香辛料、酱类、风味清汤等五大类500多个品种。</t>
+          <t>固态电池|公司通过利用现有的液态锂盐生产平台，开发出了硫化锂路线的固态电解质。</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>调味品</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.64</v>
+        <v>7.33</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>浙江绍兴9月2日召开新闻发布会，介绍该市即将出台的《2025年绍兴市提振消费政策》相关情况。其中指出，在酒店举办宴席达到一定桌数和金额 给予分档补贴。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>836422.BJ</t>
+          <t>836871.BJ</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>润普食品</t>
+          <t>派特尔</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>18.69</v>
+        <v>24.83</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>29.97</v>
+        <v>30</v>
       </c>
       <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>食品添加剂|公司是一家深耕食品添加剂领域多年的高新技术企业，形成了以山梨酸钾、丙酸钙等防腐类食品添加剂为主、以磷酸氢二钾和柠檬酸钾等其他类食品添加剂为辅的产品体系。</t>
+          <t>固态电池|参股广东萨菲安新材料主要从事锂离子电池用涂覆隔膜的研发、生产与销售，高安全涂覆隔膜产品已导入移动电源、电子烟等终端领域小批量应用，正基于固态电解质相关技术开发3C、储能、动力等不同应用领域的高安全涂覆隔膜产品。</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>食品添加剂</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.64</v>
+        <v>7.33</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>浙江绍兴9月2日召开新闻发布会，介绍该市即将出台的《2025年绍兴市提振消费政策》相关情况。其中指出，在酒店举办宴席达到一定桌数和金额 给予分档补贴。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>sh603536</t>
+          <t>sz002812</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>惠发食品</t>
+          <t>恩捷股份</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>10.78</v>
+        <v>36.98</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>速冻食品|公司为集速冻调理肉制品研发、生产和销售于一体的大型食品加工企业，主要从事速冻类预制菜的丸类制品、肠类制品、油炸类制品、串类制品、菜肴制品等速冻食品的研发、生产和销售。</t>
+          <t>固态电池|公司已与北京卫蓝和天目先导成立了合资公司江苏三合，进行半固态电解质涂层隔膜及多种高端涂层隔膜的研发、生产。
+公司全固态产品主要有硫化锂、硫化物固态电解质和硫化物固态电解质膜，硫化锂百吨级产线正在试生产，固态电解质已建成吨级产线，正在搭建10吨级产线，规划了千吨级中试产线，固态电解质膜处于小试研发阶段。</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>速冻食品</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.64</v>
+        <v>7.33</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>浙江绍兴9月2日召开新闻发布会，介绍该市即将出台的《2025年绍兴市提振消费政策》相关情况。其中指出，在酒店举办宴席达到一定桌数和金额 给予分档补贴。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>sz300997</t>
+          <t>sh688638</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>欢乐家</t>
+          <t>誉辰智能</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>20.5</v>
+        <v>47.5</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>20.02</v>
+        <v>20.01</v>
       </c>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>罐头食品|公司致力于水果罐头、植物蛋白饮料、果汁饮料、乳酸菌饮料等食品饮料产品的研发、生产和销售，产品主要包括：椰子汁植物蛋白饮料、果汁饮料、乳酸菌饮料等饮料产品；水果罐头、八宝粥罐头等罐头食品。</t>
+          <t>固态电池|公司一直持续关注半固态、固态电池等新能源领域相关技术发展动态并积极参与相关的设备需求，对相关客户行成小批量出货。</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>罐头食品</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-1.85</v>
+        <v>7.33</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>宇树科技在社交媒体上发帖称，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>sh600376</t>
+          <t>sh603004</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>首开股份</t>
+          <t>鼎龙科技</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.19</v>
+        <v>26.35</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10.02</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>参股宇树科技|公司通过子公司首开盈信持有金石成长股权投资（杭州）合伙企业18.29%的股权，金石成长股权投资（杭州）合伙企业是杭州宇树科技的第六大股东，持有其4.62%的股权。</t>
+          <t>固态电池|公司生产的聚酰亚胺单体可以用于生产聚酰亚胺材料。据公开资料报道，部分聚酰亚胺材料可以用于固（液）态电池领域。</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>参股宇树科技</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-1.85</v>
+        <v>7.33</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>宇树科技在社交媒体上发帖称，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>sz002067</t>
+          <t>sh603200</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>景兴纸业</t>
+          <t>上海洗霸</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>5.08</v>
+        <v>91.3</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>参股宇树科技|公司全资子公司上海景兴通过参与容腾基金间接投资宇树科技，容腾基金对宇树科技的投资额为2000万元，持股比例为1.8044%。</t>
+          <t>固态电池+液冷IDC|1.公司生产的固态电解质粉体材料可以应用于锂离子固态电池，多形态固态电解质粉体材料（含油性、水性、浆料）年产50吨级产线主要采用的是氧化物技术路线，公司储备了硫化物、氯化物等固态电解质的其它固态电解质粉体技术路线。
+2.公司面向腾讯、华为、中国移动等重点客户数据中心提供循环水/空气蒸发冷却等专业服务。</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>参股宇树科技</t>
+          <t>固态电池, 液冷IDC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-1.85</v>
+        <v>7.33</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>宇树科技在社交媒体上发帖称，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>sz002403</t>
+          <t>sh603659</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>爱仕达</t>
+          <t xml:space="preserve">璞泰来  </t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>16.35</v>
+        <v>25.45</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>10.03</v>
+        <v>9.98</v>
       </c>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>机器人获订单|爱仕达控股子公司钱江机器人与鸿路钢构于9月3日签署设备采购协议，锁定1888台智能焊接机器人订单。据公告称，钱江机器人依托前瞻性的技术布局与全产业链整合能力，在智能焊接、压铸、喷涂、3C等领域保持稳定的产品质量和客户群体。</t>
+          <t xml:space="preserve">固态电池|公司的新型硅碳材料可以做为半固态/固态电池的负极材料，目前已经开始小批量试产。
+</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>机器人获订单</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-1.85</v>
+        <v>7.33</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>宇树科技在社交媒体上发帖称，预计将在2025年10月至12月期间向证券交易所提交上市申请文件，届时公司的相关运营数据将正式披露。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>sh603178</t>
+          <t>sz300390</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>圣龙股份</t>
+          <t>天华新能</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>20.54</v>
+        <v>23.81</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>10.02</v>
+        <v>20.01</v>
       </c>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>汽车+机器人|1.公司为多家全球知名客户配套，目前已经获得通用、小康、青山工业（配套给金康新能源，问界）、吉利、理想等客户的定点。
- 2.公司基于新能源市场的发展，从传统动力系统领域切入到新能源动力系统，从减速器、电机、电机控制器到多合一的系统集成，目前减速器和电机控制器等产品已经量产。</t>
+          <t>固态电池|子公司宜锂科技主要从事固态电池或半固态电池所需正极材料的研发、生产和销售，面向动力电池、消费类、电动工具和无人机电池客户，部分客户已形成销售。</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>汽车, 机器人</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.79</v>
+        <v>7.33</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>香港金管局称，目前香港同步推进央行数字货币、商业银行货币等应用，希望为未来的跨境贸易和投资的支付提供更便捷、更有效益的解决方案。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>sz002878</t>
+          <t>sz001301</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>元隆雅图</t>
+          <t>尚太科技</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>20.47</v>
+        <v>64.3</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
+        <v>10.01</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>IP经济+数字货币|公司控股子公司喔哇宇宙（UOVAMETA）在IP数字化、数据化、资产化发行与营销运营方面具备一体化能力，与江苏省文交所开展战略合作，共同推进科技部"数字文创资产权属管理及服务网络"重点研发项目的产业化应用。江苏省文交所作为省级文化产权交易平台，将为UOVAMETA提供数字文创资产合规监管、资产登记确权及流通服务。</t>
+          <t>固态电池|公司已获得多件与硅基负极材料等与固态电池相关的发明专利。</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>IP经济, 数字货币</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.79</v>
+        <v>7.33</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>香港金管局称，目前香港同步推进央行数字货币、商业银行货币等应用，希望为未来的跨境贸易和投资的支付提供更便捷、更有效益的解决方案。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>sz003040</t>
+          <t>sh688499</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>楚天龙</t>
+          <t xml:space="preserve">利元亨  </t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>24.55</v>
+        <v>67.86</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>9.99</v>
+        <v>20</v>
       </c>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>稳定币|楚天龙发布投资者关系活动记录表公告称，公司在技术实力、客户群体、服务经验以及成功案例等方面，具备参与香港地区法币稳定币相关业务的能力，随着公司出海战略的稳步推进，有望在嵌入式安全产品及创新金融服务等领域落地更多场景项目。</t>
+          <t>固态电池|公司为固态电池企业清陶能源陆续提供了化成分容、激光焊接、激光模分一体机、电芯装配线等设备。</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>稳定币</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.79</v>
+        <v>7.33</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>香港金管局称，目前香港同步推进央行数字货币、商业银行货币等应用，希望为未来的跨境贸易和投资的支付提供更便捷、更有效益的解决方案。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>sz002530</t>
+          <t>sz300450</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>金财互联</t>
+          <t>先导智能</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>11.92</v>
+        <v>53.8</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>9.959999999999999</v>
+        <v>20.01</v>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>数字货币+智能体|1.参股公司方欣科技在数字货币领域进行了相关技术的研究工作。
-2.公司与H公司合作的“欣智悦财税大模型”采用开放式架构设计，构建财税AIAgent智能体。</t>
+          <t>固态电池|先导智能在互动平台表示，在固态电池领域，公司作为拥有完全自主知识产权的全固态电池整线解决方案服务商，已成功打通全固态电池量产的全线工艺环节。</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>数字货币, 智能体</t>
+          <t>固态电池</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>纺织服装</t>
+          <t>固态电池</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.83</v>
+        <v>7.33</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>中国银河证券研报称，政策呵护下的大消费领域具备投资价值，建议关注服务消费领域低估值标的。</t>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>sz002460</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>赣锋锂业</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>44.61</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>固态电池|公司是国内最早实现固态电池产业化的企业之一，在固态电池方面开发的高比能电池能量密度达到420Wh/kg，固态电池pack实现交付。公司一代、二代固液混合电池采纳的是氧化物路线，三代全固态电池会考虑用硫化物路线。</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>固态电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>固态电池</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>sh603683</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>晶华新材</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>固态电池|在新能源动力电池方面，针对新能源电池电芯、模组、PACK不同组件背胶要求特性，公司建立完善的产品类别，已成熟运用于软包电池、半固态电池。</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>固态电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>固态电池</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>sh688778</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>厦钨新能</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>68.41</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>固态电池|公司的固态电解质已实现吨级量产，在固态电池体系中效果良好。</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>固态电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>固态电池</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>sz002859</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>洁美科技</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>固态电池|公司布局了流延膜产品，下游主要应用在铝塑膜领域，最终用于软包电池、固态电池等。</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>固态电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>固态电池</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>先导智能昨日在投资者问答上表示，公司已成功打通全固态电池量产的全线工艺环节，订单有望持续放量。</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>sh688006</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>杭可科技</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>38.54</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>固态电池|公司已与国内外多家相关厂商就半固态电池的中试线展开合作，并积极开展固态电池后处理设备相关的技术研发。</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>固态电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>在近日召开的第十届储能西部论坛上，中关村储能产业技术联盟理事长陈海生指出，我国新型储能今年上半年装机规模创下新高，累计装机已突破100吉瓦，并有望在2030年达到291吉瓦。</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>sz002150</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>通润装备</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>储能变流器|旗下正泰电源目前储能产品包括户用储能变流器、模块化储能变流器、集中式储能变流器、户外电池柜、电池集装箱及能量管理系统等。</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>储能变流器</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>在近日召开的第十届储能西部论坛上，中关村储能产业技术联盟理事长陈海生指出，我国新型储能今年上半年装机规模创下新高，累计装机已突破100吉瓦，并有望在2030年达到291吉瓦。</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>sh600021</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>上海电力</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>5天3板</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>储能|2023年6月6日公告，由公司投资的湖南华容储能项目实现全容量并网。该项目建设储能规模10万千瓦/20万千瓦时。湖南华容储能项目为公司首个电网侧共享储能项目。</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>在近日召开的第十届储能西部论坛上，中关村储能产业技术联盟理事长陈海生指出，我国新型储能今年上半年装机规模创下新高，累计装机已突破100吉瓦，并有望在2030年达到291吉瓦。</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>873152.BJ</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>天宏锂电</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>36.51</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>储能电池|公司储能电池组主要应用于太阳能路灯、家庭储能、便携式储能、工商业储能柜和集装箱储能柜等领域。</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>储能电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>在近日召开的第十届储能西部论坛上，中关村储能产业技术联盟理事长陈海生指出，我国新型储能今年上半年装机规模创下新高，累计装机已突破100吉瓦，并有望在2030年达到291吉瓦。</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>sz002534</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>西子洁能</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>储能|旗下西子智慧能源拟投资建设杭锅集团崇贤厂区智慧储能电站项目，该储能示范项目选用全钒液流电池，建设规模为1000kW/4000kWh。</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>在近日召开的第十届储能西部论坛上，中关村储能产业技术联盟理事长陈海生指出，我国新型储能今年上半年装机规模创下新高，累计装机已突破100吉瓦，并有望在2030年达到291吉瓦。</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>sz002364</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>中恒电气</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>储能+IDC电源|1.公司积极布局梯次储能领域，独创的组串式储能逆变器结合电动汽车退役动力电池搭建的梯次锂电储能系统，实现了梯次储能良好的经济投资价值和大规模推广基础。截止2020年底，公司梯次储能总装机容量已超过80MWh，公司已成为梯次储能规模和客户数量国内排名领先的企业。
+2.公司面向ICT行业能源网络建设提供数据中心HVDC直流供配电、预制化Panama电力模组，5G全栈式站点高效能源等产品及解决方案。作为数据中心高压直流（HVDC）绿色供电技术方案先行者，公司牵头制订了《信息通信用240V/336V直流供电系统技术要求和试验方法》国家标准。</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>储能, IDC电源</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>在近日召开的第十届储能西部论坛上，中关村储能产业技术联盟理事长陈海生指出，我国新型储能今年上半年装机规模创下新高，累计装机已突破100吉瓦，并有望在2030年达到291吉瓦。</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>sh605286</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>同力日升</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>42.79</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>储能|公司旗下天启鸿源主营业务包括电化学储能业务和新能源电站业务，具备新能源电站的开发、设计、建设、运维的全生命周期服务能力。</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>在近日召开的第十届储能西部论坛上，中关村储能产业技术联盟理事长陈海生指出，我国新型储能今年上半年装机规模创下新高，累计装机已突破100吉瓦，并有望在2030年达到291吉瓦。</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>sh600580</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>储能+机器人|1.卧龙储能聚焦安全和经济两大储能核心问题，强化储能系统模块控制技术及热管理技术，全面推出了组串式独立控制大型储能系统、工商业储能系统、光储充一体化户用储能系统，实现电能调控的最佳经济效益，为全球用户提供优质高效的储能系统解决方案。
+2.子公司希尔机器人是公司电动汽车电机的主要设备提供商之一，为特斯拉提供机器人生产线。</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>储能, 机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>在近日召开的第十届储能西部论坛上，中关村储能产业技术联盟理事长陈海生指出，我国新型储能今年上半年装机规模创下新高，累计装机已突破100吉瓦，并有望在2030年达到291吉瓦。</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>sz002335</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>科华数据</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>储能+液冷IDC|1.公司新能源业务包括储能、光伏、充电桩等可再生能源应用领域，主要产品包含光伏逆变器、光伏离网控制器、储能变流器、离网逆变器等。
+2.公司液冷技术可以解决高功率、高热流密度、高计算密度的芯片和系统散热问题，大幅提升了算力输出能力，使服务器可以在相对的低温环境中满载运行，此项技术能够适用于各大智算中心。</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>储能, 液冷IDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>在近日召开的第十届储能西部论坛上，中关村储能产业技术联盟理事长陈海生指出，我国新型储能今年上半年装机规模创下新高，累计装机已突破100吉瓦，并有望在2030年达到291吉瓦。</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>sz300763</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>锦浪科技</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>89.23999999999999</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>逆变器|公司最新五代技术平台高压单相储能逆变器产品，产品效率、离网带载能力、智能控制、能量监测等方面得到更大优化；主要应用于中小型住宅需要光伏发电和储能的单相系统。</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>逆变器</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>储能</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>在近日召开的第十届储能西部论坛上，中关村储能产业技术联盟理事长陈海生指出，我国新型储能今年上半年装机规模创下新高，累计装机已突破100吉瓦，并有望在2030年达到291吉瓦。</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>sh605117</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>德业股份</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>75.55</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>逆变器|公司拥有储能逆变器、组串式并网逆变器和微型并网逆变器12组系列产品。</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>逆变器</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券指出，随着今年开始中国产业链公司大规模布局人形机器人赛道，以投资、并购等多种方式进行业务拓展，产业硬件成本有望快速下降。</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>sh600376</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>首开股份</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>参股宇树科技|公司通过子公司首开盈信持有金石成长股权投资（杭州）合伙企业18.29%的股权，金石成长股权投资（杭州）合伙企业是杭州宇树科技的第六大股东，持有其4.62%的股权。</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>参股宇树科技</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券指出，随着今年开始中国产业链公司大规模布局人形机器人赛道，以投资、并购等多种方式进行业务拓展，产业硬件成本有望快速下降。</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>sz001223</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>欧克科技</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>52.05</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>机器人|公司机器人目前主要产品为码垛机器人、协作机器人，公司发展工业机器人主要为完善自动化产线配套，未来会对更加灵活的机械手臂，复杂的机械动作做好技术储备、人才积累，以备更好的丰富公司工业机器人产品。</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券指出，随着今年开始中国产业链公司大规模布局人形机器人赛道，以投资、并购等多种方式进行业务拓展，产业硬件成本有望快速下降。</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>sh605068</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>明新旭腾</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>机器人|基于公司仿生电子皮肤的业务规划和发展需要，公司在浙江省嘉兴市设立全资子公司明新智源，依托在汽车功能材料领域的技术积累，推进仿生电子皮肤的研发与产业化。</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券指出，随着今年开始中国产业链公司大规模布局人形机器人赛道，以投资、并购等多种方式进行业务拓展，产业硬件成本有望快速下降。</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>sz002676</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>顺威股份</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>机器人|公司凭借自主研发的“贯流风叶焊接和动平衡补偿”自动化解决方案，成功入选广东省人工智能与机器人产业创新发展工作领导小组办公室公布的“2025年‘机器人+’典型应用场景案例名单（第一批）”。</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券指出，随着今年开始中国产业链公司大规模布局人形机器人赛道，以投资、并购等多种方式进行业务拓展，产业硬件成本有望快速下降。</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>sz002046</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>国机精工</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">机器人+半导体|1.公司有部分轴承产品可用于机器人领域。
+2.公司应用于半导体加工的超硬材料磨具主要在半导体封装环节。
+</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>机器人, 半导体</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券指出，随着今年开始中国产业链公司大规模布局人形机器人赛道，以投资、并购等多种方式进行业务拓展，产业硬件成本有望快速下降。</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>sz300539</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>横河精密</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>机器人|公司齿轮箱/减速器类产品主要应用在智能扫地机器人等领域。</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券指出，随着今年开始中国产业链公司大规模布局人形机器人赛道，以投资、并购等多种方式进行业务拓展，产业硬件成本有望快速下降。</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>sz002779</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>中坚科技</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>111.95</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>机器人|2023年12月29日，全资子公司中坚高氪机器人落户上海马桥人工智能创新试验区，公司将传统制造、传统工具与服务机器人、人工智能前沿技术相结合，提供面向全球的智能户外机器人全方位解决方案和核心产品，加速构建户外一体化机器人平台。</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>华泰证券指出，随着今年开始中国产业链公司大规模布局人形机器人赛道，以投资、并购等多种方式进行业务拓展，产业硬件成本有望快速下降。</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>sz002057</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>中钢天源</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>稀土+机器人|1.公司的永磁器件业务包括永磁铁氧体和烧结钕铁硼器件。永磁铁氧体器件是通过陶瓷工艺法制造而成的复合氧化物。
+2.公司生产制造的电池级四氧化三锰产品是较为理想的新能源电池正极材料，稀土永磁产品广泛应用于新能源汽车、绿色电力、机器人自动化、3C等相关领域，目前细分市场订单有涉及无人机与人形机器人领域。</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>稀土, 机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报称，风电行业大部分环节存货及合同负债位于历史较高水平，预计下半年行业装机需求有望延续高增。</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>sh601218</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>吉鑫科技</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>风电|公司是一家专注于研发、制造和销售大型风力发电机组用零部件的龙头企业，主要生产750KW-12MW风力发电机组用轮毂、底座、轴、轴承座等系列产品。</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报称，风电行业大部分环节存货及合同负债位于历史较高水平，预计下半年行业装机需求有望延续高增。</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>sz300772</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>运达股份</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>风电|公司是国内最早进入风电设备制造领域的企业之一，主营业务为大型风力发电机组的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报称，风电行业大部分环节存货及合同负债位于历史较高水平，预计下半年行业装机需求有望延续高增。</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>sh605196</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>华通线缆</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>风电|公司主要从事电线电缆的研发、生产与销售业务，公司成功研发出信达科创集成管束、华信石油作业车等新型战略产品及NM-B中车风电预压接、光电复合、美的小铠装等新型线缆产品，在风电领域有参与风场电缆项目。</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报称，风电行业大部分环节存货及合同负债位于历史较高水平，预计下半年行业装机需求有望延续高增。</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>sh603988</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>中电电机</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>风电|公司电机产品主要是大中型交直流电动机和发电机，覆盖工业领域的大部分行业，广泛应用于风电、水利、冶金、能源、煤炭、船舶、水泥建材、石油、化工等领域。</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报称，风电行业大部分环节存货及合同负债位于历史较高水平，预计下半年行业装机需求有望延续高增。</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>sz002202</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>金风科技</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>风电|公司是国内最大风力发电机组整机制造商之一，拥有风机制造、风电服务、风电场投资与开发三大主营业务以及水务等其他业务。</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报称，风电行业大部分环节存货及合同负债位于历史较高水平，预计下半年行业装机需求有望延续高增。</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>sh601615</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>明阳智能</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>风电|公司已逐步发展成为国内领先、全球具有重要影响力的智慧能源企业集团，主营业务包括新能源高端装备制造，新能源电站投资运营及智能管理业务，主要涵盖大型风力发电机组及其核心部件的研发、生产、销售。</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>国金证券研报称，风电行业大部分环节存货及合同负债位于历史较高水平，预计下半年行业装机需求有望延续高增。</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>sz002487</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>大金重工</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>风电|公司主营业务为风力发电设备制造，主要产品有常规陆塔、大直径分片式陆塔、低风速柔性高塔、海塔、单桩、群桩、导管架、海上升压站等风电设备及相关零部件。</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>在今日举行的第十三届半导体设备与核心部件及材料展（CSEAC 2025）上，新凯来通过展示图片与模型的方式，介绍了其量检测设备丹霞山、天门山、赤壁山等系列产品。</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>sh603163</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>XD圣晖集</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>44.15</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>洁净室系统|公司系为先进制造业提供洁净室系统集成工程整体解决方案的一站式专业服务商，涵盖洁净室厂房建造规划、设计建议等相关服务。</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>洁净室系统</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>在今日举行的第十三届半导体设备与核心部件及材料展（CSEAC 2025）上，新凯来通过展示图片与模型的方式，介绍了其量检测设备丹霞山、天门山、赤壁山等系列产品。</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>sh603773</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>沃格光电</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>玻璃基板+铜箔|1.公司玻璃基板可应用于CPO 2.5D/3D封装的垂直封装载板interposer 以及下方实现光模块与芯片实现互连的封装基板。
+2.公司拥有PI/CPI膜材及浆料生产开发能力，超薄2μmPI薄膜可搭配镀铜组成锂电池复合铜箔。</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>玻璃基板, 铜箔</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>在今日举行的第十三届半导体设备与核心部件及材料展（CSEAC 2025）上，新凯来通过展示图片与模型的方式，介绍了其量检测设备丹霞山、天门山、赤壁山等系列产品。</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>sz002971</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>和远气体</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>电子特气|公司致力于各类气体产品的研发、生产、销售、服务以及工业尾气回收循环利用，主要业务分为六大板块：大宗气体、电子特气及电子化学品、硅基功能性新材料、尾气回收、清洁能源、工业级化学品。</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>电子特气</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>在今日举行的第十三届半导体设备与核心部件及材料展（CSEAC 2025）上，新凯来通过展示图片与模型的方式，介绍了其量检测设备丹霞山、天门山、赤壁山等系列产品。</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>sz000962</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>东方钽业</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>光刻机|子公司东方超导产品铌超导腔作为粒子加速器的核心部件，被广泛应用于同步辐射光源、自由电子激光、散列中子源等大科学装置。此前清华大学的一项研究描述了一种新型光源整合技术，首次展示了同步辐射光源与自由电子激光这两种主要加速器光源结合后的特性，或可用于实现大功率EUV光源。</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>光刻机</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>在今日举行的第十三届半导体设备与核心部件及材料展（CSEAC 2025）上，新凯来通过展示图片与模型的方式，介绍了其量检测设备丹霞山、天门山、赤壁山等系列产品。</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>sz300331</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>苏大维格</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>3D打印+光刻机|1.公司新型3D印材业务包括镭射膜、镭射纸、3D转移材料等新型印材产品，可应用于卡牌盲盒等领域，公司与具有IP资源的厂商合作，推出相关卡游产品，积极布局卡游盲盒市场。
+2.公司光刻设备主要用于微纳材料包括柔性电子、MEMS以及某些特定领域半导体器件的研发与制造，公司的微纳光刻直写设备具有非接触、自动对准套刻、支持翘曲衬底图形光刻的先进功能。</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>3D打印, 光刻机</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>芯片产业链</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>在今日举行的第十三届半导体设备与核心部件及材料展（CSEAC 2025）上，新凯来通过展示图片与模型的方式，介绍了其量检测设备丹霞山、天门山、赤壁山等系列产品。</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>sz001309</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>德明利</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>95.56999999999999</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>存储芯片|公司的主营业务主要集中于闪存主控芯片设计、研发，存储模组产品应用方案的开发、优化，以及存储模组产品的销售。</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>存储芯片</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>sh603920</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>世运电路</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>37.96</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>PCB|公司主营业务为各类印制电路板（PCB）的研发、生产与销售，产品涉及高多层硬板，高精密互连HDI，软板（FPC）、软硬结合板（含HDI）和金属基板四大类。</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>sz002384</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>东山精密</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>消费电子+PCB|1.在光电显示领域，公司是行业知名的触控面板及液晶显示模组制造商和LED显示器件生产商，产品主要应用于中小尺寸的显示领域，包括手机、平板电脑等产品。
+2.公司已成为全球领先的印刷电路板全产业链覆盖企业之一，是目前PCB行业中为数不多的能提供柔性线路板、刚性线路板和软硬结合板的供应商。</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>消费电子, PCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>sh600601</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>方正科技</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>PCB|公司已批量生产PCB产品应用于10G-100G-200G-400G-800G等光模块产品，同时，针对1.6T连接器和光模块产品，公司PCB产品已完成打样并具备批量生产能力。</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>中信建投指出，PCB行业呈现重回上行期、产品高端化、东南亚建厂等特点，产量的增加及工艺的变化有望持续拉动PCB设备的更新和升级需求。</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>sz300476</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>胜宏科技</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>295.8</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>光模块PCB|公司有向客户提供光模块PCB产品，应用于1.6T光模块的PCB产品已在小批量出货。</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>光模块PCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>光通信</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>行业权威研究机构LightCounting预测，全球以太网光模块市场规模在经历2024年的强劲增长后，有望在2026年同比增长35%至189亿美元，并预计到2030年将突破350亿美元大关。</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>sh600103</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>青山纸业</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>光模块|子公司恒宝通提供从155Mb/s到400Gb/s的全系列产品，包括QSFP-DD、QSFP56、QSFP28、QSFP+、SFP+、SFP等，400G光模块处于产品优化和产线建设阶段，800G产品处于技术预研阶段。</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>光模块</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>光通信</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>行业权威研究机构LightCounting预测，全球以太网光模块市场规模在经历2024年的强劲增长后，有望在2026年同比增长35%至189亿美元，并预计到2030年将突破350亿美元大关。</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>sh600330</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>天通股份</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>光伏+铌酸锂单晶|1.公司从2010年开始从事光伏单晶炉相关设备生产制造，最初为国外厂商提供OEM服务。
+2.2023年6月9日公司在互动平台表示，国内多家厂商已经发布数通800G薄膜铌酸锂方案的光模块，公司生产的铌酸锂单晶材料是薄膜铌酸锂调制器的上游关键原材料。</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>光伏, 铌酸锂单晶</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>光通信</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>行业权威研究机构LightCounting预测，全球以太网光模块市场规模在经历2024年的强劲增长后，有望在2026年同比增长35%至189亿美元，并预计到2030年将突破350亿美元大关。</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>sh688195</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>腾景科技</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>92.77</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>光通信+光刻机|1.在光通信领域,公司的精密光学元组件、光纤器件主要应用于电信侧的WSS、相干光模块、XGPON光模块、5G前传光模块以及数据中心侧的光模块中。
+2.在半导体设备领域，公司正在进行应用于光刻机光学系统的合分束器项目研发。</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>光通信, 光刻机</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>光通信</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>行业权威研究机构LightCounting预测，全球以太网光模块市场规模在经历2024年的强劲增长后，有望在2026年同比增长35%至189亿美元，并预计到2030年将突破350亿美元大关。</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>sz001267</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>汇绿生态</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>光模块|7月31日，汇绿生态公告称，公司第十一届董事会第九次会议审议通过《关于武汉钧恒增加对外投资额度的议案》。控股子公司武汉钧恒原计划在湖北省鄂州市临空经济区建设高速率光模块生产基地，投资金额约为2亿元。现根据市场发展和公司战略，拟增加投资6亿元，总投资额达8亿元。</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>光模块</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>碳化硅</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>为提升性能，英伟达在新一代Rubin处理器的开发蓝图中，计划把CoWoS先进封装环节的中间基板材料，由硅换成碳化硅（SiC）。</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>sz002617</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>露笑科技</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>碳化硅+光伏|1.公司将继续专注第三代半导体晶体产业，拓展碳化硅在5G GaN-on-SiC HEMT、SiC SBD、SiC MOSFET、SiC IGBT等元器件芯片方面的应用，初步拟定产品为4-6英寸半绝缘片以及4H晶体N型导电碳化硅衬底片及其他产品制品。
+2.2019年公司收购顺宇洁能科技有限公司进入光伏电站运营行业，顺宇洁能的主营业务为光伏电站的投资、建设及运营，主要产品为电力，顺宇的唯一客户为国家电网。</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>碳化硅, 光伏</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>碳化硅</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>为提升性能，英伟达在新一代Rubin处理器的开发蓝图中，计划把CoWoS先进封装环节的中间基板材料，由硅换成碳化硅（SiC）。</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>sh688234</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>天岳先进</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>77.28</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>碳化硅衬底|公司是一家国内领先的宽禁带半导体（第三代半导体）衬底材料生产商，主要从事碳化硅衬底的研发、生产和销售，产品可广泛应用于微波电子、电力电子等领域。</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>碳化硅衬底</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>碳化硅</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>为提升性能，英伟达在新一代Rubin处理器的开发蓝图中，计划把CoWoS先进封装环节的中间基板材料，由硅换成碳化硅（SiC）。</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>833580.BJ</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>科创新材</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>碳化硅|公司与西安建筑科技大学合作研发的项目包括：SiCnw@CNT纸/SiC自封闭层状纤维复合材料的结构设计与吸波性能研究，合作协议的主要内容为完成以下4项研究技术：1.碳纳米管纸／碳化硅（CNT纸／SiC）自封闭层状纤维的成分设计；2.CNT纸／SiC自封闭层状纤维的结构设计； 3.CNT纸／SiC自封闭层状纤维的表面包覆技术；4.SiCnw@CNT纸／SiC自封闭层状纤维的表面包覆层与内部基底焊接技术。CNT纸／SiC自封闭层状纤维的结构设计。</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>碳化硅</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>光伏</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>工业和信息化部、市场监督管理总局印发《电子信息制造业2025－2026年稳增长行动方案》，方案指出，在破除“内卷式”竞争中实现光伏等领域高质量发展，依法治理光伏等产品低价竞争。</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>sh603815</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>交建股份</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>光伏|2023年9月11日公司披露重组预案显示，公司拟以发行股份及支付现金的方式，购买无锡博达新能科技有限公司70%股权，此次的发行价格设定为5.95元/股，同时公司拟向控股股东祥源控股及实控人俞发祥发行股份募集配套资金，这配套融资的发行价格也为5.95元/股，截至目前，博达新能的预估值及交易价格尚未确定，公司主营业务以工程施工业务为核心，博达新能主营光伏电池及组件业务，通过此次交易，将进一步拓宽公司业务范围，增强公司未来盈利能力。</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>光伏</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>光伏</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>工业和信息化部、市场监督管理总局印发《电子信息制造业2025－2026年稳增长行动方案》，方案指出，在破除“内卷式”竞争中实现光伏等领域高质量发展，依法治理光伏等产品低价竞争。</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>sh605376</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>博迁新材</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>48.72</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>光伏+固态电池|1.公司凭借在高端纳米粉体技术方面的积累拓展银包铜粉，银包铜粉如替代部分银粉应用在HJT异质结电池中，可降低电池片成本，公司此类产品目前处于量产设备优化升级阶段，数家下游浆料客户与光伏组件厂家针对公司银包铜粉的各项性能正在评测验证。
+2.公司生产的硅粉为纳米级纯硅粉，用于硅碳负极。</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>光伏, 固态电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>光伏</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>工业和信息化部、市场监督管理总局印发《电子信息制造业2025－2026年稳增长行动方案》，方案指出，在破除“内卷式”竞争中实现光伏等领域高质量发展，依法治理光伏等产品低价竞争。</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>sz002106</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>莱宝高科</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>9.959999999999999</v>
+      </c>
+      <c r="I73" s="2" t="inlineStr"/>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>光伏+玻璃基板|1.公司参股公司重庆神华是一家太阳能电池研发商，主要业务为铜铟镓硒薄膜太阳能电池组件研发、生产、项目安装以及项目的运营和管理。
+2.公司合作开发的玻璃封装载板新产品涉及TGV技术。</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>光伏, 玻璃基板</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>智能驾驶</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>特斯拉称其ROBOTAXI应用现已向公众开放。</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>sh600699</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>均胜电子</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I74" s="2" t="inlineStr"/>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>机器人+智能驾驶|1.公司定位“汽车+机器人Tier1”，全面布局人形机器人领域，向包括全球车企在内的具身智能机器人相关公司提供软硬件及解决方案。
+2.公司与大唐集团旗下的辰芯科技签署战略合作协议，联手发力汽车智能车联技术，打造新一代TBOX和V2X车用电子产品。</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>机器人, 智能驾驶</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>智能驾驶</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>特斯拉称其ROBOTAXI应用现已向公众开放。</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>sz301225</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>恒勃股份</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>85.44</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>汽车+智能驾驶|1.在新能源汽车配套领域，除配套用于新能源混动汽车的进气系统等产品外，公司还积极开拓布局汽车热管理系统相关产品。客户包括理想汽车。
+2.公司研发的TFT屏显示模组是集成于机车的智能化控制和显示平台，链接机车、手机和车辆服务系统云端，已应用于车联网领域。</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>汽车, 智能驾驶</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>智能驾驶</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>特斯拉称其ROBOTAXI应用现已向公众开放。</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>sz301608</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>博实结</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>102.05</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>智能驾驶|在智能交通领域，公司商用车监控终端主要包括车载行驶记录仪、智能车载视频行驶记录仪等产品。</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>智能驾驶</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>工业母机</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>《工业母机高质量标准体系建设方案》印发，到2030年，适应工业母机产业高质量发展的标准体系全面形成。</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>sz002248</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>华东数控</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>工业母机|公司是中国机床行业生产、销售数控龙门导轨磨床数量最多、规模最大的机床制造企业，以研发和生产经营数控机床、普通机床及其关键功能部件为主营业务，产品有数控龙门铣床（龙门加工中心）、数控龙门磨床、数控外圆磨床、万能摇臂铣床、平面磨床、动静压主轴等机床和功能部件产品。</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>工业母机</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>工业母机</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>《工业母机高质量标准体系建设方案》印发，到2030年，适应工业母机产业高质量发展的标准体系全面形成。</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>sz000837</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>秦川机床</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>工业母机+机器人|1.公司是中国机床工具行业的龙头企业，规模位列前三，是中国精密数控机床与复杂工具研发制造基地，拥有秦川机床、宝鸡机床、汉江机床、汉江工具、美国拉削系统公司等多家企业。
+2.公司的机器人关节减速器产品在国内位居前列。</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>工业母机, 机器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>体育产业</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>国务院办公厅发布关于释放体育消费潜力进一步推进体育产业高质量发展的意见，到2030年，培育一批具有世界影响力的体育企业和体育赛事，体育产业发展水平大幅跃升，总规模超过7万亿元。</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>sz002858</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>力盛体育</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I79" s="2" t="inlineStr"/>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>体育|公司是中国领先的汽车运动运营服务商，是一家以赛事运营及服务为核心、赛车场/馆（包括赛卡联盟的卡丁车场/馆）经营、赛车队经营及运营服务为载体，汽车活动推广为延伸，汽车运动技术研发/服务、赛车培训、少儿卡丁车培训、赛车装备和用品代理及销售、娱乐卡丁车制造等为补充，为客户提供汽车运动全产业链服务的体育服务企业。</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>体育</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>体育产业</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>国务院办公厅发布关于释放体育消费潜力进一步推进体育产业高质量发展的意见，到2030年，培育一批具有世界影响力的体育企业和体育赛事，体育产业发展水平大幅跃升，总规模超过7万亿元。</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>834058.BJ</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>华洋赛车</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>越野车+体育|公司一直从事非道路越野车的自主研发、生产和销售，是国内具有较强竞争力的动力运动装备专业制造商之一。同时公司拥有专业级别的华洋赛车培训基地和华洋赛车俱乐部，并积极承办国内外越野摩托车各项赛事。</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>越野车, 体育</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>影视</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>根据国家电影局统计，2025年暑期档电影票房为119.66亿元，观影人次为3.21亿，同比分别增长2.76%和12.75%，国产影片票房占比为76.21%。</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>sh600977</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>中国电影</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="I81" s="2" t="inlineStr"/>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>影视|公司系电影行业的龙头企业，主营业务包括影视制片制作、电影发行营销、电影放映及影视服务四大业务板块。</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>影视</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>sz002058</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>*ST威尔</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>9天6板</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司控股子公司紫燕机械下属的紫燕模具为特斯拉提供汽车检具方面的服务。</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>sz000972</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>*ST中基</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>12天6板</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司依托新疆得天独厚的地域和自然优势，致力于发展番茄“红色产业”，产业规模居于前列，产品行销世界数十国家和地区，是全球主要食品企业长期、固定的原料供应商。</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C84" s="2" t="inlineStr"/>
+      <c r="D84" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>sh603843</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST正平 </t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>5.140000000000001</v>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 2025年2月21日公司官微披露，旗下正平智算参加海东市绿色算力产业集中签约暨推介活动并签订算电协同产业园框架协议。</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>sz000609</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>ST中迪</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>4天2板</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司房地产项目位于重庆、成都、达州，重庆的“两江中迪广场”主要为商业项目。</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>sh600525</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST长园  </t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="I86" s="2" t="inlineStr"/>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 子公司长园光波导技术（珠海）有限公司主要从事光学方案相关检测设备及制程设备的市场与技术布局。</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C87" s="2" t="inlineStr"/>
+      <c r="D87" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>sh603398</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST沐邦 </t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>5.050000000000001</v>
+      </c>
+      <c r="I87" s="2" t="inlineStr"/>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.沐邦高科公告，与铜陵狮子山高新技术产业开发区管理委员会、铜陵高新发展投资有限公司签订《项目投资协议书》，项目名称为年产10GW-N型高效电池片、10GW切片生产基地项目。
+2.公司上市的IP产品 “樱桃小丸子”第一期为“盲盒”类产品。</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C88" s="2" t="inlineStr"/>
+      <c r="D88" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>sh603813</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST原尚 </t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="I88" s="2" t="inlineStr"/>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司参股公司广东原锋新能源科技的股东之一锋源是国内极少的集全套自主知识产权氢燃料电池电堆以及核心零部件膜电极、催化剂、金属双极板等研发、生产、销售一体的公司。</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C89" s="2" t="inlineStr"/>
+      <c r="D89" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>sz000668</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>*ST荣控</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>5.029999999999999</v>
+      </c>
+      <c r="I89" s="2" t="inlineStr"/>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司主营业务为房地产开发，经营模式以自主开发销售为主，曾推出国内第一个小户型楼盘，第一家运动主题社区，在业内产生较大影响。</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C90" s="2" t="inlineStr"/>
+      <c r="D90" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>sz000504</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>*ST生物</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="I90" s="2" t="inlineStr"/>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司是目前国内一家国资控股的干细胞、免疫细胞及组织工程产业主板上市公司，“生物医药”板块业务包括干细胞储存服务、化妆品的生产和销售、医疗器械设备及耗材的代理和销售。</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C91" s="2" t="inlineStr"/>
+      <c r="D91" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>sh600421</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*ST华嵘 </t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>5.029999999999999</v>
+      </c>
+      <c r="I91" s="2" t="inlineStr"/>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 公司实控人是中天控股集团下属浙江恒顺投资，集团旗下中天氟硅2023年撤回ipo，原计划通过IPO募集14.42亿元资金，用于30万吨/年有机硅单体扩能技改及综合利用项目。</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>ST股</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C92" s="2" t="inlineStr"/>
+      <c r="D92" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>sz002602</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>ST华通</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="I92" s="2" t="inlineStr"/>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>ST股 | 1.公司旗下控股企业世纪珑腾是云数据业务的重要子公司，旨在为客户提供IDC云数据中心建设及运营一站式基建服务，布局5G边缘计算，提供低时延、高效传输的边缘计算中心服务。
+2.公司拥有盛跃网络、天游软件、七酷网络、点点互动等全资下属游戏公司，实现网络游戏业务类型全覆盖。</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr"/>
+      <c r="D93" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>sh603839</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
         <is>
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="G93" s="2" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
         <is>
           <t>纺织+电商|1.主营为中高档自主品牌时装的研发、生产和销售,主要包括“玖姿”、“尹默”、“摩萨克”和“斐娜晨”四个中高档女装品牌和“安正”商务时尚男装品牌。
 2.控股子公司礼尚信息是国内专业从事电子商务代运营业务的头部服务商之一，帮助海内外母婴、食品保健、运动户外、宠粮家居等行业知名品牌在国内电商全渠道实现快速增长。</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
+      <c r="K93" s="2" t="inlineStr">
         <is>
           <t>纺织, 电商</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>纺织服装</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>中国银河证券研报称，政策呵护下的大消费领域具备投资价值，建议关注服务消费领域低估值标的。</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>sz002269</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>美邦服饰</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>9.959999999999999</v>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr"/>
+      <c r="D94" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>sh601069</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>西部黄金</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>黄金+业绩|1.公司主营业务为黄金采选及冶炼，同时从事铬矿石的开采。公司主要产品包括黄金、铬矿石、铁矿石，其中黄金是公司最主要的产品和最主要收入来源。
+2.8月28日，西部黄金股份有限公司发布2025年半年度报告。报告期内，公司实现营业收入50.30亿元，同比增长69.01%；归属于上市公司股东的净利润1.54亿元，同比增长131.94%。</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="inlineStr">
+        <is>
+          <t>黄金, 业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr"/>
+      <c r="D95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>sh603709</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>中源家居</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>家居|公司主要从事沙发等家具产品的研究、设计、生产和销售服务，产品主要包括手动功能沙发、电动功能沙发、扶手推背沙发、老人椅等功能性沙发，固定沙发及板式家具等。</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="inlineStr">
+        <is>
+          <t>家居</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr"/>
+      <c r="D96" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>sh603285</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>键邦股份</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>纺织+IP经济|1.拥有Meters/bonwe以及ME&amp;CITY品牌。美邦主品牌由单一休闲风格细分为五大风格，加强购物中心及其他新兴渠道合作及供应链优化。
-2.公司长期致力于休闲服饰领域，持续和迪士尼等适合年轻人需求的ip产品合作开发。</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>纺织, IP经济</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>储能</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>今年以来，海外储能需求爆发式增长，令国内储能电芯企业订单激增，工厂开足马力进入满产状态，叠加新能源上网电价市场化改革落地，有储能企业甚至表示“加价也排不了单”，出现“一芯难求”的局面。</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>sz002150</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>通润装备</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="H26" s="2" t="n">
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>锂电正极材料|公司产品主要作为稳定剂、催化剂、增塑剂、偶联剂等功能助剂应用于PVC塑料、涂料以及锂电材料等领域。公司开发了富临精工等国内知名的锂电池正极材料企业等客户资源。</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="inlineStr">
+        <is>
+          <t>锂电正极材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr"/>
+      <c r="D97" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>sh603786</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">科博达  </t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>61.27</v>
+      </c>
+      <c r="H97" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>储能变流器|旗下正泰电源目前储能产品包括户用储能变流器、模块化储能变流器、集中式储能变流器、户外电池柜、电池集装箱及能量管理系统等。</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>储能变流器</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>储能</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>今年以来，海外储能需求爆发式增长，令国内储能电芯企业订单激增，工厂开足马力进入满产状态，叠加新能源上网电价市场化改革落地，有储能企业甚至表示“加价也排不了单”，出现“一芯难求”的局面。</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>873152.BJ</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>天宏锂电</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>储能电池|公司储能电池组主要应用于太阳能路灯、家庭储能、便携式储能、工商业储能柜和集装箱储能柜等领域。</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>储能电池</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>锂电池</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>市场监督管理总局印发《电子信息制造业2025－2026年稳增长行动方案》，方案指出，引导地方有序布局光伏、锂电池产业，指导地方梳理产能情况。实施光伏组件、锂电池产品质量管理。</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>837174.BJ</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>宏裕包材</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>62.93</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>锂电池隔膜|公司与华中科技大学签署了合作开发协议，双方将在“锂离子电池聚烯烃基高性能隔膜设计及优化研究”领域进行共同开发。</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>锂电池隔膜</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>锂电池</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>市场监督管理总局印发《电子信息制造业2025－2026年稳增长行动方案》，方案指出，引导地方有序布局光伏、锂电池产业，指导地方梳理产能情况。实施光伏组件、锂电池产品质量管理。</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>sh603285</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>键邦股份</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="H29" s="2" t="n">
+      <c r="I97" s="2" t="inlineStr"/>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>并购重组|科博达公告称，公司拟以现金方式收购上海恪石投资管理有限公司持有的上海科博达智能科技有限公司60%股权，交易价格为3.45亿元。上海恪石是公司实控人柯桂华控制的企业，本次交易构成关联交易。</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="inlineStr">
+        <is>
+          <t>并购重组</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr"/>
+      <c r="D98" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>871857.BJ</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>泓禧科技</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I98" s="2" t="inlineStr"/>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>消费电子|公司的主营业务为电子元器件、高精度电子线组件以及微型电声器件的设计、研发、生产和销售，产品主要包括高精度电子线组件、微型扬声器及软材料贴合，主要应用于笔记本电脑为主的消费电子领域。</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="inlineStr">
+        <is>
+          <t>消费电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr"/>
+      <c r="D99" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>sh603102</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>百合股份</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>46.51</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I99" s="2" t="inlineStr"/>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>保健食品+宠物经济|1.公司是一家专业从事营养保健食品的研发、生产和销售的国家高新技术企业。历经多年的研发与积累，公司已形成软胶囊、硬胶囊、片剂、粉剂、口服液、滴剂、瓶装饮品及袋装饮品等多剂型、规模化的生产能力。
+2.公司进军宠物营养添加剂领域，开发高生物利用度的功能性宠物膳食补充剂，创新研发宠物功能营养解决方案，如DHA微藻油软胶囊、磷脂美毛片、鲨鱼软骨素硬胶囊等产品。</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="inlineStr">
+        <is>
+          <t>保健食品, 宠物经济</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr"/>
+      <c r="D100" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>sh605378</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>野马电池</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I100" s="2" t="inlineStr"/>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>锌锰电池|公司产品以出口为主，是综合实力位居国内前列的锌锰电池制造商和出口商,专注于高性能、环保锌锰电池的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="inlineStr">
+        <is>
+          <t>锌锰电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr"/>
+      <c r="D101" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>sh605298</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>必得科技</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I101" s="2" t="inlineStr"/>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>高铁|公司主营中高速动车组列车、城轨列车等轨道交通车辆配套产品的研发、生产与销售，主要产品包括车辆通风系统、电缆保护系统和智能控制撒砂系统等系统化、系列化产品及其他轨道交通车辆配套产品。</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="inlineStr">
+        <is>
+          <t>高铁</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr"/>
+      <c r="D102" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>sh603615</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>茶花股份</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I102" s="2" t="inlineStr"/>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>家居|公司专注于以日用塑料制品为主的家居用品的研发、生产和销售。</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="inlineStr">
+        <is>
+          <t>家居</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr"/>
+      <c r="D103" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>sz002955</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>鸿合科技</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="H103" s="2" t="n">
         <v>9.99</v>
       </c>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>锂电材料|公司产品主要作为稳定剂、催化剂、增塑剂、偶联剂等功能助剂应用于PVC塑料、涂料以及锂电材料等领域。公司开发了富临精工等国内知名的锂电池正极材料企业等客户资源。</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>锂电材料</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>宠物经济</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>当前宠物食品已成为我国宠物经济中最大细分市场，2024年市场规模达1668亿元，同比增长7.54%，预计2025年将突破1755亿元。</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>sz001206</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>依依股份</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>26.72</v>
-      </c>
-      <c r="H30" s="2" t="n">
+      <c r="I103" s="2" t="inlineStr"/>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>教育+AI|1.公司全面聚焦教育主业，为教育行业用户提供教育信息化产品、智慧教育解决方案和智慧教育服务等智慧教育业务。
+2.公司产品鸿合π6交互教学软件整合原鸿合π交互功能与鸿合爱学班班备授课功能，以先进的自然人机交互技术为基础、以教学应用需求为导向，专注解决教师教学、教务等难题的一站式教育信息化应用。</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="inlineStr">
+        <is>
+          <t>教育, AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr"/>
+      <c r="D104" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>sz002674</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>兴业科技</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="I104" s="2" t="inlineStr"/>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>纺织|公司是中国天然皮革鞣制行业首家A股上市公司、中国制革工业龙头企业之一、高新技术企业，是中国皮革行业纳税大户。</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="inlineStr">
+        <is>
+          <t>纺织</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr"/>
+      <c r="D105" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>sz000636</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>风华高科</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="I105" s="2" t="inlineStr"/>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>MLCC|公司系国内MLCC龙头生产商，全球第八、国内最大的被动电子原件生产企业，拥有完整的从材料、工艺到产品大规模研发制造的产品链。</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="inlineStr">
+        <is>
+          <t>MLCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr"/>
+      <c r="D106" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>sh603127</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>昭衍新药</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="I106" s="2" t="inlineStr"/>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>CRO|公司专注于药物全生命周期的安全性评价和监测，建立了独具特色的药物非临床研究服务、临床试验及相关服务。</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="inlineStr">
+        <is>
+          <t>CRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr"/>
+      <c r="D107" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>sz002723</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>小崧股份</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="H107" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>宠物经济|公司是具有较好研发、设计、生产能力的宠物一次性卫生护理产品生产商，能够向国内外品牌运营商销售产品，同时也将自有品牌（乐事宠、一坪花房）产品面向市场进行销售，宠物卫生护理用品包括宠物垫、宠物尿裤、宠物清洁袋、宠物湿巾、宠物垃圾袋等。</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>宠物经济</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>-0.89</v>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>国家药监局昨日表示，“十四五”期间，共批准创新药210个、创新医疗器械269个，且均保持加速增长态势。</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>sh603222</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>济民健康</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>7天4板</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>医疗器械+细胞治疗|1.主要产品为各种品规的非PVC软袋大输液、塑料瓶大输液以及安全注射器、无菌注射器和输液器等产品。
-2.公司旗下博鳌国际医院拥有国内唯一一家通过日本国厚生省认证的国际再生医学实验室，建成了包括细胞存储、国际标准细胞制备、细胞治疗临床研究、干细胞与再生医学技术转化四大核心技术平台。</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>医疗器械, 细胞治疗</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>sz000908</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>ST景峰</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 公司专注医药健康产业，涉足药品研发、生产、销售等领域，产品涵盖了心脑血管、抗肿瘤、骨科、妇儿等用药领域。</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>ST股</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>sh603843</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*ST正平 </t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>ST股 | 2025年2月21日公司官微披露，旗下正平智算参加海东市绿色算力产业集中签约暨推介活动并签订算电协同产业园框架协议。</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="I107" s="2" t="inlineStr"/>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>家电|产品线涵盖可充电备用照明灯具及可充电交直流两用风扇制作过程中的各个环节。产品主要应用于商业公众场所备用照明、家庭备用照明、军工照明等</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="inlineStr">
+        <is>
+          <t>家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>sz001296</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>长江材料</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>8天4板</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>3D打印+石英|1.公司生产的3D打印砂用于快速样件开发及部份铸造的砂芯生产。
-2.公司在内蒙古科左后旗的子公司拥有自有的石英砂矿，开采的石英砂用于铸造材料和压裂支撑剂的生产。</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>3D打印, 石英</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>sh603257</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>中国瑞林</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>67.88</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>有色金属资源开发|在铜、钴资源开发上，公司在全球铜冶炼领域保持技术优势，承接设计了多个标志性项目，如非洲刚果（金）的卡莫阿铜冶炼厂和洛钼集团Tenke Fungurume铜钴矿项目。</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>有色金属资源开发</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>sh603709</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>中源家居</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>家居|公司主要从事沙发等家具产品的研究、设计、生产和销售服务，产品主要包括手动功能沙发、电动功能沙发、扶手推背沙发、老人椅等功能性沙发，固定沙发及板式家具等。</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>家居</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>sh603630</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>拉芳家化</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>31.19</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>4天2板</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>美容护理|公司主要从事洗护类、护肤类、彩妆类产品的研发、生产和销售，2018年内公司不断的进行产品创新、品牌品类矩阵建设、营销渠道网络的更新升级。</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>美容护理</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>sh600207</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>安彩高科</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>光伏玻璃|1.安彩高科2024年3月11日公告，未筹划公司与“超聚变借壳上市”“并购重组”相关事项。
-2.公司旗下全资子公司安彩光伏新材料900t/d光伏玻璃项目于2019年7月份点火烤窑，其后顺利完成设备联合调试和试生产。</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>光伏玻璃</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39"